--- a/MSC_skewness_lt.xlsx
+++ b/MSC_skewness_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E556"/>
+  <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -220,16 +220,16 @@
         <v>28887</v>
       </c>
       <c r="B15" s="2">
-        <v>0.48721683025360107</v>
+        <v>0.48721683025360108</v>
       </c>
       <c r="C15" s="2">
-        <v>0.40505793690681458</v>
+        <v>0.405029296875</v>
       </c>
       <c r="D15" s="2">
-        <v>0.48721683025360107</v>
+        <v>0.48721683025360108</v>
       </c>
       <c r="E15" s="2">
-        <v>0.40505793690681458</v>
+        <v>0.405029296875</v>
       </c>
     </row>
     <row r="16">
@@ -339,13 +339,13 @@
         <v>-0.79306507110595703</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.83797323703765869</v>
+        <v>-0.83800393342971802</v>
       </c>
       <c r="D27" s="2">
         <v>-0.79306507110595703</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.83797323703765869</v>
+        <v>-0.83800393342971802</v>
       </c>
     </row>
     <row r="28">
@@ -401,13 +401,13 @@
         <v>-0.22174668312072754</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.23582926392555237</v>
+        <v>-0.23589186370372772</v>
       </c>
       <c r="D33" s="2">
         <v>-0.33302110433578491</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.32950639724731445</v>
+        <v>-0.3295794427394867</v>
       </c>
     </row>
     <row r="34">
@@ -418,13 +418,13 @@
         <v>-0.44429555535316467</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.42318350076675415</v>
+        <v>-0.42326700687408447</v>
       </c>
       <c r="D34" s="2">
         <v>-0.3046528697013855</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.29934543371200562</v>
+        <v>-0.29936987161636353</v>
       </c>
     </row>
     <row r="35">
@@ -462,13 +462,13 @@
         <v>-0.24791635572910309</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.23902349174022675</v>
+        <v>-0.23895077407360077</v>
       </c>
       <c r="D38" s="2">
         <v>-0.31482520699501038</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.28240907192230225</v>
+        <v>-0.28246745467185974</v>
       </c>
     </row>
     <row r="39">
@@ -479,13 +479,13 @@
         <v>-0.15508043766021729</v>
       </c>
       <c r="C39" s="2">
-        <v>0.0038277769926935434</v>
+        <v>0.0037713174242526293</v>
       </c>
       <c r="D39" s="2">
         <v>-0.27166840434074402</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.23548427224159241</v>
+        <v>-0.23553426563739777</v>
       </c>
     </row>
     <row r="40">
@@ -496,13 +496,13 @@
         <v>-0.41200843453407288</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.47125709056854248</v>
+        <v>-0.47142332792282105</v>
       </c>
       <c r="D40" s="2">
         <v>-0.32901236414909363</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.31239578127861023</v>
+        <v>-0.31241759657859802</v>
       </c>
     </row>
     <row r="41">
@@ -540,13 +540,13 @@
         <v>-0.50104427337646484</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.54313027858734131</v>
+        <v>-0.54306763410568237</v>
       </c>
       <c r="D44" s="2">
         <v>-0.24545113742351532</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.2997017502784729</v>
+        <v>-0.2997393012046814</v>
       </c>
     </row>
     <row r="45">
@@ -557,13 +557,13 @@
         <v>0.075489185750484467</v>
       </c>
       <c r="C45" s="2">
-        <v>0.0090765925124287605</v>
+        <v>0.0090062422677874565</v>
       </c>
       <c r="D45" s="2">
         <v>-0.18993203341960907</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.24251662194728851</v>
+        <v>-0.24251127243041992</v>
       </c>
     </row>
     <row r="46">
@@ -574,13 +574,13 @@
         <v>-0.14424102008342743</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.19349618256092072</v>
+        <v>-0.19347243010997772</v>
       </c>
       <c r="D46" s="2">
         <v>-0.18249821662902832</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.23761503398418427</v>
+        <v>-0.23766015470027924</v>
       </c>
     </row>
     <row r="47">
@@ -618,13 +618,13 @@
         <v>-0.16019675135612488</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.22291025519371033</v>
+        <v>-0.22310678660869598</v>
       </c>
       <c r="D50" s="2">
         <v>-0.09411485493183136</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.14089180529117584</v>
+        <v>-0.14091646671295166</v>
       </c>
     </row>
     <row r="51">
@@ -632,16 +632,16 @@
         <v>29983</v>
       </c>
       <c r="B51" s="2">
-        <v>0.17857199907302856</v>
+        <v>0.17857199907302857</v>
       </c>
       <c r="C51" s="2">
-        <v>0.11563264578580856</v>
+        <v>0.11557698994874954</v>
       </c>
       <c r="D51" s="2">
-        <v>-0.077406130731105804</v>
+        <v>-0.077406130731105805</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.12335702031850815</v>
+        <v>-0.12339781224727631</v>
       </c>
     </row>
     <row r="52">
@@ -652,13 +652,13 @@
         <v>-0.2505936324596405</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.26279345154762268</v>
+        <v>-0.26266363263130188</v>
       </c>
       <c r="D52" s="2">
         <v>-0.093132704496383667</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.13357120752334595</v>
+        <v>-0.13362088799476624</v>
       </c>
     </row>
     <row r="53">
@@ -696,13 +696,13 @@
         <v>-0.14031241834163666</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.16421377658843994</v>
+        <v>-0.16429010033607483</v>
       </c>
       <c r="D56" s="2">
         <v>-0.23431406915187836</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.24598252773284912</v>
+        <v>-0.24598048627376556</v>
       </c>
     </row>
     <row r="57">
@@ -713,13 +713,13 @@
         <v>-0.11747535318136215</v>
       </c>
       <c r="C57" s="2">
-        <v>-0.18993246555328369</v>
+        <v>-0.19004754722118378</v>
       </c>
       <c r="D57" s="2">
         <v>-0.22888755798339844</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.24037890136241913</v>
+        <v>-0.2404194325208664</v>
       </c>
     </row>
     <row r="58">
@@ -730,13 +730,13 @@
         <v>-0.42887488007545471</v>
       </c>
       <c r="C58" s="2">
-        <v>-0.36699044704437256</v>
+        <v>-0.36692065000534058</v>
       </c>
       <c r="D58" s="2">
         <v>-0.25738048553466797</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.27128595113754272</v>
+        <v>-0.2713635265827179</v>
       </c>
     </row>
     <row r="59">
@@ -774,13 +774,13 @@
         <v>-0.34285926818847656</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.36400705575942993</v>
+        <v>-0.36419582366943359</v>
       </c>
       <c r="D62" s="2">
         <v>-0.1554538905620575</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.10798003524541855</v>
+        <v>-0.10806523263454437</v>
       </c>
     </row>
     <row r="63">
@@ -791,13 +791,13 @@
         <v>0.047747939825057983</v>
       </c>
       <c r="C63" s="2">
-        <v>0.1571081280708313</v>
+        <v>0.15695737302303314</v>
       </c>
       <c r="D63" s="2">
         <v>-0.064313560724258423</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.021643230691552162</v>
+        <v>-0.021780094131827354</v>
       </c>
     </row>
     <row r="64">
@@ -808,13 +808,13 @@
         <v>0.10217063874006271</v>
       </c>
       <c r="C64" s="2">
-        <v>0.141969233751297</v>
+        <v>0.14189817011356354</v>
       </c>
       <c r="D64" s="2">
         <v>-0.033212229609489441</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.013858670368790627</v>
+        <v>-0.013992560096085072</v>
       </c>
     </row>
     <row r="65">
@@ -852,13 +852,13 @@
         <v>0.060091778635978699</v>
       </c>
       <c r="C68" s="2">
-        <v>0.0094950105994939804</v>
+        <v>0.0093700392171740532</v>
       </c>
       <c r="D68" s="2">
         <v>0.17404548823833466</v>
       </c>
       <c r="E68" s="2">
-        <v>0.14640477299690247</v>
+        <v>0.14633575081825256</v>
       </c>
     </row>
     <row r="69">
@@ -869,13 +869,13 @@
         <v>0.84347176551818848</v>
       </c>
       <c r="C69" s="2">
-        <v>0.79296457767486572</v>
+        <v>0.79278165102005005</v>
       </c>
       <c r="D69" s="2">
         <v>0.19800376892089844</v>
       </c>
       <c r="E69" s="2">
-        <v>0.14788329601287842</v>
+        <v>0.14781495928764343</v>
       </c>
     </row>
     <row r="70">
@@ -886,13 +886,13 @@
         <v>-0.30955222249031067</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.3588097095489502</v>
+        <v>-0.35870683193206787</v>
       </c>
       <c r="D70" s="2">
         <v>0.247781902551651</v>
       </c>
       <c r="E70" s="2">
-        <v>0.19179061055183411</v>
+        <v>0.19167664647102356</v>
       </c>
     </row>
     <row r="71">
@@ -930,13 +930,13 @@
         <v>0.3971162736415863</v>
       </c>
       <c r="C74" s="2">
-        <v>0.32351255416870117</v>
+        <v>0.32326173782348633</v>
       </c>
       <c r="D74" s="2">
-        <v>0.33261632919311523</v>
+        <v>0.33261632919311524</v>
       </c>
       <c r="E74" s="2">
-        <v>0.28098458051681519</v>
+        <v>0.28089198470115662</v>
       </c>
     </row>
     <row r="75">
@@ -944,16 +944,16 @@
         <v>30713</v>
       </c>
       <c r="B75" s="2">
-        <v>0.66018062829971313</v>
+        <v>0.66018062829971314</v>
       </c>
       <c r="C75" s="2">
-        <v>0.61049777269363403</v>
+        <v>0.6103934645652771</v>
       </c>
       <c r="D75" s="2">
         <v>0.54667246341705322</v>
       </c>
       <c r="E75" s="2">
-        <v>0.49424934387207031</v>
+        <v>0.49409160017967224</v>
       </c>
     </row>
     <row r="76">
@@ -964,13 +964,13 @@
         <v>0.58272057771682739</v>
       </c>
       <c r="C76" s="2">
-        <v>0.54873770475387573</v>
+        <v>0.54861956834793091</v>
       </c>
       <c r="D76" s="2">
         <v>0.41343611478805542</v>
       </c>
       <c r="E76" s="2">
-        <v>0.36021339893341064</v>
+        <v>0.3600008487701416</v>
       </c>
     </row>
     <row r="77">
@@ -1008,13 +1008,13 @@
         <v>0.013726954348385334</v>
       </c>
       <c r="C80" s="2">
-        <v>-0.041894402354955673</v>
+        <v>-0.042271401733160019</v>
       </c>
       <c r="D80" s="2">
         <v>0.60395681858062744</v>
       </c>
       <c r="E80" s="2">
-        <v>0.56461358070373535</v>
+        <v>0.56442838907241821</v>
       </c>
     </row>
     <row r="81">
@@ -1025,13 +1025,13 @@
         <v>0.91950523853302002</v>
       </c>
       <c r="C81" s="2">
-        <v>0.88473266363143921</v>
+        <v>0.88469374179840088</v>
       </c>
       <c r="D81" s="2">
         <v>0.61103558540344238</v>
       </c>
       <c r="E81" s="2">
-        <v>0.56990551948547363</v>
+        <v>0.56969797611236572</v>
       </c>
     </row>
     <row r="82">
@@ -1042,13 +1042,13 @@
         <v>0.89987456798553467</v>
       </c>
       <c r="C82" s="2">
-        <v>0.86687833070755005</v>
+        <v>0.866671621799469</v>
       </c>
       <c r="D82" s="2">
         <v>0.57460242509841919</v>
       </c>
       <c r="E82" s="2">
-        <v>0.51800572872161865</v>
+        <v>0.51777982711791992</v>
       </c>
     </row>
     <row r="83">
@@ -1086,13 +1086,13 @@
         <v>0.46530294418334961</v>
       </c>
       <c r="C86" s="2">
-        <v>0.36230620741844177</v>
+        <v>0.36202540993690491</v>
       </c>
       <c r="D86" s="2">
         <v>0.37695962190628052</v>
       </c>
       <c r="E86" s="2">
-        <v>0.3793836236000061</v>
+        <v>0.37917298078536987</v>
       </c>
     </row>
     <row r="87">
@@ -1103,13 +1103,13 @@
         <v>0.10031627863645554</v>
       </c>
       <c r="C87" s="2">
-        <v>0.27641141414642334</v>
+        <v>0.27623236179351807</v>
       </c>
       <c r="D87" s="2">
-        <v>0.202654629945755</v>
+        <v>0.20265462994575501</v>
       </c>
       <c r="E87" s="2">
-        <v>0.21688538789749146</v>
+        <v>0.21667344868183136</v>
       </c>
     </row>
     <row r="88">
@@ -1120,13 +1120,13 @@
         <v>0.042344652116298676</v>
       </c>
       <c r="C88" s="2">
-        <v>0.011938521638512611</v>
+        <v>0.011762588284909725</v>
       </c>
       <c r="D88" s="2">
         <v>0.32980158925056458</v>
       </c>
       <c r="E88" s="2">
-        <v>0.32394060492515564</v>
+        <v>0.32370993494987488</v>
       </c>
     </row>
     <row r="89">
@@ -1164,13 +1164,13 @@
         <v>0.71124249696731567</v>
       </c>
       <c r="C92" s="2">
-        <v>0.64510625600814819</v>
+        <v>0.64481937885284424</v>
       </c>
       <c r="D92" s="2">
         <v>0.53669047355651855</v>
       </c>
       <c r="E92" s="2">
-        <v>0.49418109655380249</v>
+        <v>0.49393507838249207</v>
       </c>
     </row>
     <row r="93">
@@ -1181,13 +1181,13 @@
         <v>0.80356293916702271</v>
       </c>
       <c r="C93" s="2">
-        <v>0.78094029426574707</v>
+        <v>0.78086358308792114</v>
       </c>
       <c r="D93" s="2">
         <v>0.70147240161895752</v>
       </c>
       <c r="E93" s="2">
-        <v>0.65492862462997437</v>
+        <v>0.65465927124023438</v>
       </c>
     </row>
     <row r="94">
@@ -1198,13 +1198,13 @@
         <v>0.58961182832717896</v>
       </c>
       <c r="C94" s="2">
-        <v>0.53873932361602783</v>
+        <v>0.53829479217529297</v>
       </c>
       <c r="D94" s="2">
         <v>0.70147240161895752</v>
       </c>
       <c r="E94" s="2">
-        <v>0.65492862462997437</v>
+        <v>0.65465927124023438</v>
       </c>
     </row>
     <row r="95">
@@ -1260,13 +1260,13 @@
         <v>0.14898569881916046</v>
       </c>
       <c r="C100" s="2">
-        <v>0.63434284925460815</v>
+        <v>0.63464856147766113</v>
       </c>
       <c r="D100" s="2">
         <v>0.73300236463546753</v>
       </c>
       <c r="E100" s="2">
-        <v>1.109062671661377</v>
+        <v>1.1093573570251465</v>
       </c>
     </row>
     <row r="101">
@@ -1295,13 +1295,13 @@
         <v>1.317018985748291</v>
       </c>
       <c r="C103" s="2">
-        <v>1.5837825536727905</v>
+        <v>1.5840661525726318</v>
       </c>
       <c r="D103" s="2">
         <v>0.93625760078430176</v>
       </c>
       <c r="E103" s="2">
-        <v>1.1686556339263916</v>
+        <v>1.1689002513885498</v>
       </c>
     </row>
     <row r="104">
@@ -1330,13 +1330,13 @@
         <v>1.3427680730819702</v>
       </c>
       <c r="C106" s="2">
-        <v>1.2878415584564209</v>
+        <v>1.2879859209060669</v>
       </c>
       <c r="D106" s="2">
         <v>1.0980263948440552</v>
       </c>
       <c r="E106" s="2">
-        <v>1.187237024307251</v>
+        <v>1.1873124837875366</v>
       </c>
     </row>
     <row r="107">
@@ -1365,13 +1365,13 @@
         <v>0.63429200649261475</v>
       </c>
       <c r="C109" s="2">
-        <v>0.69008684158325195</v>
+        <v>0.68988537788391113</v>
       </c>
       <c r="D109" s="2">
         <v>0.90486323833465576</v>
       </c>
       <c r="E109" s="2">
-        <v>0.94114464521408081</v>
+        <v>0.94095885753631592</v>
       </c>
     </row>
     <row r="110">
@@ -1400,13 +1400,13 @@
         <v>0.7375296950340271</v>
       </c>
       <c r="C112" s="2">
-        <v>0.84550553560256958</v>
+        <v>0.8450053334236145</v>
       </c>
       <c r="D112" s="2">
         <v>0.62356847524642944</v>
       </c>
       <c r="E112" s="2">
-        <v>0.64285236597061157</v>
+        <v>0.64263069629669189</v>
       </c>
     </row>
     <row r="113">
@@ -1435,13 +1435,13 @@
         <v>0.49888375401496887</v>
       </c>
       <c r="C115" s="2">
-        <v>0.39296466112136841</v>
+        <v>0.39300146698951721</v>
       </c>
       <c r="D115" s="2">
         <v>0.71733814477920532</v>
       </c>
       <c r="E115" s="2">
-        <v>0.67749994993209839</v>
+        <v>0.67736363410949707</v>
       </c>
     </row>
     <row r="116">
@@ -1470,13 +1470,13 @@
         <v>0.91560101509094238</v>
       </c>
       <c r="C118" s="2">
-        <v>0.79402971267700195</v>
+        <v>0.79408407211303711</v>
       </c>
       <c r="D118" s="2">
         <v>0.12220177054405212</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.01444603968411684</v>
+        <v>-0.014326602220535278</v>
       </c>
     </row>
     <row r="119">
@@ -1505,13 +1505,13 @@
         <v>-1.0478794574737549</v>
       </c>
       <c r="C121" s="2">
-        <v>-1.2303324937820435</v>
+        <v>-1.2300653457641602</v>
       </c>
       <c r="D121" s="2">
         <v>-0.06613922119140625</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.21815139055252075</v>
+        <v>-0.21799063682556152</v>
       </c>
     </row>
     <row r="122">
@@ -1762,16 +1762,16 @@
         <v>32964</v>
       </c>
       <c r="B149" s="2">
-        <v>0.57158887386322021</v>
+        <v>0.57158887386322022</v>
       </c>
       <c r="C149" s="2">
-        <v>0.47342991828918457</v>
+        <v>0.47342443466186523</v>
       </c>
       <c r="D149" s="2">
         <v>0.91426771879196167</v>
       </c>
       <c r="E149" s="2">
-        <v>0.82853215932846069</v>
+        <v>0.82866203784942627</v>
       </c>
     </row>
     <row r="150">
@@ -1782,13 +1782,13 @@
         <v>0.36666730046272278</v>
       </c>
       <c r="C150" s="2">
-        <v>0.24312421679496765</v>
+        <v>0.24343028664588928</v>
       </c>
       <c r="D150" s="2">
         <v>0.96478313207626343</v>
       </c>
       <c r="E150" s="2">
-        <v>0.87283033132553101</v>
+        <v>0.87296736240386963</v>
       </c>
     </row>
     <row r="151">
@@ -1799,13 +1799,13 @@
         <v>1.2443603277206421</v>
       </c>
       <c r="C151" s="2">
-        <v>1.1845879554748535</v>
+        <v>1.1848413944244385</v>
       </c>
       <c r="D151" s="2">
         <v>1.0068825483322144</v>
       </c>
       <c r="E151" s="2">
-        <v>0.90293091535568237</v>
+        <v>0.90306359529495239</v>
       </c>
     </row>
     <row r="152">
@@ -1816,13 +1816,13 @@
         <v>1.0197614431381226</v>
       </c>
       <c r="C152" s="2">
-        <v>0.91693657636642456</v>
+        <v>0.91697800159454346</v>
       </c>
       <c r="D152" s="2">
         <v>0.95357203483581543</v>
       </c>
       <c r="E152" s="2">
-        <v>0.83262729644775391</v>
+        <v>0.83272236585617065</v>
       </c>
     </row>
     <row r="153">
@@ -1833,13 +1833,13 @@
         <v>1.3689607381820679</v>
       </c>
       <c r="C153" s="2">
-        <v>1.3245822191238403</v>
+        <v>1.3246361017227173</v>
       </c>
       <c r="D153" s="2">
         <v>0.91129863262176514</v>
       </c>
       <c r="E153" s="2">
-        <v>0.80150747299194336</v>
+        <v>0.80160629749298096</v>
       </c>
     </row>
     <row r="154">
@@ -1850,13 +1850,13 @@
         <v>1.217360258102417</v>
       </c>
       <c r="C154" s="2">
-        <v>1.0943210124969482</v>
+        <v>1.0944938659667969</v>
       </c>
       <c r="D154" s="2">
         <v>0.79970943927764893</v>
       </c>
       <c r="E154" s="2">
-        <v>0.75626510381698608</v>
+        <v>0.75637674331665039</v>
       </c>
     </row>
     <row r="155">
@@ -1867,13 +1867,13 @@
         <v>1.2594789266586304</v>
       </c>
       <c r="C155" s="2">
-        <v>1.0835343599319458</v>
+        <v>1.0836410522460938</v>
       </c>
       <c r="D155" s="2">
         <v>0.81263875961303711</v>
       </c>
       <c r="E155" s="2">
-        <v>0.77403128147125244</v>
+        <v>0.774120032787323</v>
       </c>
     </row>
     <row r="156">
@@ -1884,13 +1884,13 @@
         <v>0.58039820194244385</v>
       </c>
       <c r="C156" s="2">
-        <v>0.34050202369689941</v>
+        <v>0.34033399820327759</v>
       </c>
       <c r="D156" s="2">
         <v>0.83177149295806885</v>
       </c>
       <c r="E156" s="2">
-        <v>0.79140836000442505</v>
+        <v>0.79149001836776733</v>
       </c>
     </row>
     <row r="157">
@@ -1901,13 +1901,13 @@
         <v>0.57311147451400757</v>
       </c>
       <c r="C157" s="2">
-        <v>0.55254906415939331</v>
+        <v>0.55267733335494995</v>
       </c>
       <c r="D157" s="2">
         <v>0.87028408050537109</v>
       </c>
       <c r="E157" s="2">
-        <v>0.83737367391586304</v>
+        <v>0.83747422695159912</v>
       </c>
     </row>
     <row r="158">
@@ -1918,13 +1918,13 @@
         <v>-0.43271350860595703</v>
       </c>
       <c r="C158" s="2">
-        <v>0.066248483955860138</v>
+        <v>0.066358447074890137</v>
       </c>
       <c r="D158" s="2">
         <v>0.81277155876159668</v>
       </c>
       <c r="E158" s="2">
-        <v>0.76898974180221558</v>
+        <v>0.76908522844314575</v>
       </c>
     </row>
     <row r="159">
@@ -1935,13 +1935,13 @@
         <v>0.483030766248703</v>
       </c>
       <c r="C159" s="2">
-        <v>0.40301999449729919</v>
+        <v>0.40312004089355469</v>
       </c>
       <c r="D159" s="2">
         <v>0.85266071557998657</v>
       </c>
       <c r="E159" s="2">
-        <v>0.80676889419555664</v>
+        <v>0.80688202381134033</v>
       </c>
     </row>
     <row r="160">
@@ -1952,13 +1952,13 @@
         <v>1.4165554046630859</v>
       </c>
       <c r="C160" s="2">
-        <v>1.3409817218780518</v>
+        <v>1.3411712646484375</v>
       </c>
       <c r="D160" s="2">
         <v>0.84335935115814209</v>
       </c>
       <c r="E160" s="2">
-        <v>0.79580074548721313</v>
+        <v>0.79593443870544434</v>
       </c>
     </row>
     <row r="161">
@@ -1969,13 +1969,13 @@
         <v>1.3663743734359741</v>
       </c>
       <c r="C161" s="2">
-        <v>1.330623984336853</v>
+        <v>1.3308360576629639</v>
       </c>
       <c r="D161" s="2">
         <v>0.86715131998062134</v>
       </c>
       <c r="E161" s="2">
-        <v>0.8492472767829895</v>
+        <v>0.84936672449111938</v>
       </c>
     </row>
     <row r="162">
@@ -1986,13 +1986,13 @@
         <v>0.85134798288345337</v>
       </c>
       <c r="C162" s="2">
-        <v>0.70912724733352661</v>
+        <v>0.70913499593734741</v>
       </c>
       <c r="D162" s="2">
         <v>0.69092398881912231</v>
       </c>
       <c r="E162" s="2">
-        <v>0.62788408994674683</v>
+        <v>0.6280246376991272</v>
       </c>
     </row>
     <row r="163">
@@ -2000,16 +2000,16 @@
         <v>33390</v>
       </c>
       <c r="B163" s="2">
-        <v>1.5763626098632812</v>
+        <v>1.5763626098632813</v>
       </c>
       <c r="C163" s="2">
-        <v>1.4343332052230835</v>
+        <v>1.4346650838851929</v>
       </c>
       <c r="D163" s="2">
-        <v>0.89624702930450439</v>
+        <v>0.8962470293045044</v>
       </c>
       <c r="E163" s="2">
-        <v>0.78764539957046509</v>
+        <v>0.78778451681137085</v>
       </c>
     </row>
     <row r="164">
@@ -2020,13 +2020,13 @@
         <v>1.1757670640945435</v>
       </c>
       <c r="C164" s="2">
-        <v>0.98482072353363037</v>
+        <v>0.98511254787445068</v>
       </c>
       <c r="D164" s="2">
         <v>0.92782658338546753</v>
       </c>
       <c r="E164" s="2">
-        <v>0.88139575719833374</v>
+        <v>0.88151592016220093</v>
       </c>
     </row>
     <row r="165">
@@ -2037,13 +2037,13 @@
         <v>0.7945256233215332</v>
       </c>
       <c r="C165" s="2">
-        <v>0.82152092456817627</v>
+        <v>0.82122468948364258</v>
       </c>
       <c r="D165" s="2">
         <v>0.84742128849029541</v>
       </c>
       <c r="E165" s="2">
-        <v>0.80738425254821777</v>
+        <v>0.80747485160827637</v>
       </c>
     </row>
     <row r="166">
@@ -2054,13 +2054,13 @@
         <v>-1.0129344463348389</v>
       </c>
       <c r="C166" s="2">
-        <v>-1.4397196769714355</v>
+        <v>-1.439401388168335</v>
       </c>
       <c r="D166" s="2">
         <v>0.85329848527908325</v>
       </c>
       <c r="E166" s="2">
-        <v>0.81241023540496826</v>
+        <v>0.81251424551010132</v>
       </c>
     </row>
     <row r="167">
@@ -2071,13 +2071,13 @@
         <v>1.4151941537857056</v>
       </c>
       <c r="C167" s="2">
-        <v>1.5041004419326782</v>
+        <v>1.5041975975036621</v>
       </c>
       <c r="D167" s="2">
         <v>0.86927485466003418</v>
       </c>
       <c r="E167" s="2">
-        <v>0.83353251218795776</v>
+        <v>0.83362078666687012</v>
       </c>
     </row>
     <row r="168">
@@ -2088,13 +2088,13 @@
         <v>0.76724648475646973</v>
       </c>
       <c r="C168" s="2">
-        <v>1.2467731237411499</v>
+        <v>1.2467024326324463</v>
       </c>
       <c r="D168" s="2">
         <v>0.62240105867385864</v>
       </c>
       <c r="E168" s="2">
-        <v>0.57590103149414062</v>
+        <v>0.57596200704574585</v>
       </c>
     </row>
     <row r="169">
@@ -2105,13 +2105,13 @@
         <v>0.69290751218795776</v>
       </c>
       <c r="C169" s="2">
-        <v>0.67487812042236328</v>
+        <v>0.67480170726776123</v>
       </c>
       <c r="D169" s="2">
         <v>0.48370081186294556</v>
       </c>
       <c r="E169" s="2">
-        <v>0.47109994292259216</v>
+        <v>0.47111284732818604</v>
       </c>
     </row>
     <row r="170">
@@ -2122,13 +2122,13 @@
         <v>1.4192695617675781</v>
       </c>
       <c r="C170" s="2">
-        <v>1.3758578300476074</v>
+        <v>1.3761904239654541</v>
       </c>
       <c r="D170" s="2">
         <v>0.53009539842605591</v>
       </c>
       <c r="E170" s="2">
-        <v>0.52074480056762695</v>
+        <v>0.52078616619110107</v>
       </c>
     </row>
     <row r="171">
@@ -2136,16 +2136,16 @@
         <v>33635</v>
       </c>
       <c r="B171" s="2">
-        <v>0.99513536691665649</v>
+        <v>0.9951353669166565</v>
       </c>
       <c r="C171" s="2">
-        <v>0.89922797679901123</v>
+        <v>0.8990938663482666</v>
       </c>
       <c r="D171" s="2">
         <v>0.70197927951812744</v>
       </c>
       <c r="E171" s="2">
-        <v>0.74212044477462769</v>
+        <v>0.74213880300521851</v>
       </c>
     </row>
     <row r="172">
@@ -2156,13 +2156,13 @@
         <v>-0.64550179243087769</v>
       </c>
       <c r="C172" s="2">
-        <v>-0.88435035943984985</v>
+        <v>-0.88426381349563599</v>
       </c>
       <c r="D172" s="2">
         <v>0.57080817222595215</v>
       </c>
       <c r="E172" s="2">
-        <v>0.58471167087554932</v>
+        <v>0.58464258909225464</v>
       </c>
     </row>
     <row r="173">
@@ -2173,13 +2173,13 @@
         <v>-0.072535261511802673</v>
       </c>
       <c r="C173" s="2">
-        <v>0.041611045598983765</v>
+        <v>0.041470050811767578</v>
       </c>
       <c r="D173" s="2">
         <v>0.37555095553398132</v>
       </c>
       <c r="E173" s="2">
-        <v>0.31471273303031921</v>
+        <v>0.314698725938797</v>
       </c>
     </row>
     <row r="174">
@@ -2190,13 +2190,13 @@
         <v>1.2120770215988159</v>
       </c>
       <c r="C174" s="2">
-        <v>1.2683247327804565</v>
+        <v>1.2682844400405884</v>
       </c>
       <c r="D174" s="2">
         <v>0.45036458969116211</v>
       </c>
       <c r="E174" s="2">
-        <v>0.40131574869155884</v>
+        <v>0.40136337280273438</v>
       </c>
     </row>
     <row r="175">
@@ -2207,13 +2207,13 @@
         <v>0.53402048349380493</v>
       </c>
       <c r="C175" s="2">
-        <v>0.55266100168228149</v>
+        <v>0.55277276039123535</v>
       </c>
       <c r="D175" s="2">
         <v>0.43029242753982544</v>
       </c>
       <c r="E175" s="2">
-        <v>0.38344082236289978</v>
+        <v>0.38344857096672058</v>
       </c>
     </row>
     <row r="176">
@@ -2224,13 +2224,13 @@
         <v>0.23465435206890106</v>
       </c>
       <c r="C176" s="2">
-        <v>0.087421797215938568</v>
+        <v>0.086731657385826111</v>
       </c>
       <c r="D176" s="2">
         <v>0.40371787548065186</v>
       </c>
       <c r="E176" s="2">
-        <v>0.38693481683731079</v>
+        <v>0.38696295022964478</v>
       </c>
     </row>
     <row r="177">
@@ -2241,13 +2241,13 @@
         <v>-0.99006873369216919</v>
       </c>
       <c r="C177" s="2">
-        <v>-1.1832176446914673</v>
+        <v>-1.1827925443649292</v>
       </c>
       <c r="D177" s="2">
         <v>0.62233668565750122</v>
       </c>
       <c r="E177" s="2">
-        <v>0.61901712417602539</v>
+        <v>0.61903202533721924</v>
       </c>
     </row>
     <row r="178">
@@ -2258,13 +2258,13 @@
         <v>1.3662302494049072</v>
       </c>
       <c r="C178" s="2">
-        <v>1.4543052911758423</v>
+        <v>1.4547834396362305</v>
       </c>
       <c r="D178" s="2">
         <v>0.51801615953445435</v>
       </c>
       <c r="E178" s="2">
-        <v>0.55155372619628906</v>
+        <v>0.5515596866607666</v>
       </c>
     </row>
     <row r="179">
@@ -2275,13 +2275,13 @@
         <v>1.2386200428009033</v>
       </c>
       <c r="C179" s="2">
-        <v>1.2149835824966431</v>
+        <v>1.2149573564529419</v>
       </c>
       <c r="D179" s="2">
         <v>0.4819599986076355</v>
       </c>
       <c r="E179" s="2">
-        <v>0.4961581826210022</v>
+        <v>0.49624761939048767</v>
       </c>
     </row>
     <row r="180">
@@ -2292,13 +2292,13 @@
         <v>0.75596463680267334</v>
       </c>
       <c r="C180" s="2">
-        <v>0.93067401647567749</v>
+        <v>0.93072319030761719</v>
       </c>
       <c r="D180" s="2">
         <v>0.54198992252349854</v>
       </c>
       <c r="E180" s="2">
-        <v>0.54062682390213013</v>
+        <v>0.5406685471534729</v>
       </c>
     </row>
     <row r="181">
@@ -2309,13 +2309,13 @@
         <v>1.3220672607421875</v>
       </c>
       <c r="C181" s="2">
-        <v>1.2043901681900024</v>
+        <v>1.2043577432632446</v>
       </c>
       <c r="D181" s="2">
         <v>0.63616341352462769</v>
       </c>
       <c r="E181" s="2">
-        <v>0.62521415948867798</v>
+        <v>0.62534064054489136</v>
       </c>
     </row>
     <row r="182">
@@ -2326,13 +2326,13 @@
         <v>-1.0114201307296753</v>
       </c>
       <c r="C182" s="2">
-        <v>-0.56555944681167603</v>
+        <v>-0.56578069925308228</v>
       </c>
       <c r="D182" s="2">
         <v>0.80832242965698242</v>
       </c>
       <c r="E182" s="2">
-        <v>0.80927062034606934</v>
+        <v>0.8093799352645874</v>
       </c>
     </row>
     <row r="183">
@@ -2343,13 +2343,13 @@
         <v>0.88757175207138062</v>
       </c>
       <c r="C183" s="2">
-        <v>0.76976490020751953</v>
+        <v>0.77047574520111084</v>
       </c>
       <c r="D183" s="2">
         <v>0.816234290599823</v>
       </c>
       <c r="E183" s="2">
-        <v>0.79713213443756104</v>
+        <v>0.79722076654434204</v>
       </c>
     </row>
     <row r="184">
@@ -2360,13 +2360,13 @@
         <v>1.0742899179458618</v>
       </c>
       <c r="C184" s="2">
-        <v>0.95287895202636719</v>
+        <v>0.95256119966506958</v>
       </c>
       <c r="D184" s="2">
         <v>0.84180420637130737</v>
       </c>
       <c r="E184" s="2">
-        <v>0.77988803386688232</v>
+        <v>0.77996772527694702</v>
       </c>
     </row>
     <row r="185">
@@ -2377,13 +2377,13 @@
         <v>1.0822157859802246</v>
       </c>
       <c r="C185" s="2">
-        <v>0.84870785474777222</v>
+        <v>0.84878027439117432</v>
       </c>
       <c r="D185" s="2">
         <v>0.84736055135726929</v>
       </c>
       <c r="E185" s="2">
-        <v>0.73323750495910645</v>
+        <v>0.73332321643829346</v>
       </c>
     </row>
     <row r="186">
@@ -2394,13 +2394,13 @@
         <v>0.55936235189437866</v>
       </c>
       <c r="C186" s="2">
-        <v>0.47329011559486389</v>
+        <v>0.47356131672859192</v>
       </c>
       <c r="D186" s="2">
-        <v>0.67459487915039062</v>
+        <v>0.67459487915039063</v>
       </c>
       <c r="E186" s="2">
-        <v>0.54291963577270508</v>
+        <v>0.54305040836334229</v>
       </c>
     </row>
     <row r="187">
@@ -2411,13 +2411,13 @@
         <v>1.4374370574951172</v>
       </c>
       <c r="C187" s="2">
-        <v>1.345058798789978</v>
+        <v>1.3453506231307983</v>
       </c>
       <c r="D187" s="2">
-        <v>0.89979094266891479</v>
+        <v>0.8997909426689148</v>
       </c>
       <c r="E187" s="2">
-        <v>0.74307918548583984</v>
+        <v>0.74325734376907349</v>
       </c>
     </row>
     <row r="188">
@@ -2428,13 +2428,13 @@
         <v>1.4687491655349731</v>
       </c>
       <c r="C188" s="2">
-        <v>1.0597869157791138</v>
+        <v>1.0596799850463867</v>
       </c>
       <c r="D188" s="2">
         <v>0.8301655650138855</v>
       </c>
       <c r="E188" s="2">
-        <v>0.68460816144943237</v>
+        <v>0.68474388122558594</v>
       </c>
     </row>
     <row r="189">
@@ -2445,13 +2445,13 @@
         <v>0.80597198009490967</v>
       </c>
       <c r="C189" s="2">
-        <v>0.51081901788711548</v>
+        <v>0.51092290878295898</v>
       </c>
       <c r="D189" s="2">
         <v>0.81257057189941406</v>
       </c>
       <c r="E189" s="2">
-        <v>0.66126090288162231</v>
+        <v>0.66143661737442017</v>
       </c>
     </row>
     <row r="190">
@@ -2462,13 +2462,13 @@
         <v>-0.23282408714294434</v>
       </c>
       <c r="C190" s="2">
-        <v>-0.50847029685974121</v>
+        <v>-0.50809776782989502</v>
       </c>
       <c r="D190" s="2">
         <v>0.77534443140029907</v>
       </c>
       <c r="E190" s="2">
-        <v>0.62402606010437012</v>
+        <v>0.62416946887969971</v>
       </c>
     </row>
     <row r="191">
@@ -2479,13 +2479,13 @@
         <v>1.0153443813323975</v>
       </c>
       <c r="C191" s="2">
-        <v>1.2358764410018921</v>
+        <v>1.2360818386077881</v>
       </c>
       <c r="D191" s="2">
         <v>0.84406983852386475</v>
       </c>
       <c r="E191" s="2">
-        <v>0.69382959604263306</v>
+        <v>0.69390964508056641</v>
       </c>
     </row>
     <row r="192">
@@ -2496,13 +2496,13 @@
         <v>0.26094359159469604</v>
       </c>
       <c r="C192" s="2">
-        <v>0.24352544546127319</v>
+        <v>0.24385461211204529</v>
       </c>
       <c r="D192" s="2">
         <v>0.5906711220741272</v>
       </c>
       <c r="E192" s="2">
-        <v>0.38374954462051392</v>
+        <v>0.38384637236595154</v>
       </c>
     </row>
     <row r="193">
@@ -2513,13 +2513,13 @@
         <v>0.91593480110168457</v>
       </c>
       <c r="C193" s="2">
-        <v>0.74275398254394531</v>
+        <v>0.74279588460922241</v>
       </c>
       <c r="D193" s="2">
         <v>0.64727354049682617</v>
       </c>
       <c r="E193" s="2">
-        <v>0.45509791374206543</v>
+        <v>0.455221027135849</v>
       </c>
     </row>
     <row r="194">
@@ -2530,13 +2530,13 @@
         <v>0.74718040227890015</v>
       </c>
       <c r="C194" s="2">
-        <v>0.51359409093856812</v>
+        <v>0.51337593793869019</v>
       </c>
       <c r="D194" s="2">
         <v>0.68223839998245239</v>
       </c>
       <c r="E194" s="2">
-        <v>0.48586103320121765</v>
+        <v>0.48597443103790283</v>
       </c>
     </row>
     <row r="195">
@@ -2547,13 +2547,13 @@
         <v>1.1778914928436279</v>
       </c>
       <c r="C195" s="2">
-        <v>1.1015219688415527</v>
+        <v>1.1012227535247803</v>
       </c>
       <c r="D195" s="2">
         <v>0.84369057416915894</v>
       </c>
       <c r="E195" s="2">
-        <v>0.66814565658569336</v>
+        <v>0.6682504415512085</v>
       </c>
     </row>
     <row r="196">
@@ -2564,13 +2564,13 @@
         <v>-0.84315186738967896</v>
       </c>
       <c r="C196" s="2">
-        <v>-1.4456617832183838</v>
+        <v>-1.4452186822891235</v>
       </c>
       <c r="D196" s="2">
         <v>0.8668481707572937</v>
       </c>
       <c r="E196" s="2">
-        <v>0.65276414155960083</v>
+        <v>0.65283232927322388</v>
       </c>
     </row>
     <row r="197">
@@ -2581,13 +2581,13 @@
         <v>1.9781713485717773</v>
       </c>
       <c r="C197" s="2">
-        <v>1.7019222974777222</v>
+        <v>1.7020517587661743</v>
       </c>
       <c r="D197" s="2">
         <v>1.02826988697052</v>
       </c>
       <c r="E197" s="2">
-        <v>0.80915701389312744</v>
+        <v>0.80917817354202271</v>
       </c>
     </row>
     <row r="198">
@@ -2598,13 +2598,13 @@
         <v>1.1206554174423218</v>
       </c>
       <c r="C198" s="2">
-        <v>0.78768724203109741</v>
+        <v>0.78770345449447632</v>
       </c>
       <c r="D198" s="2">
         <v>1.0359407663345337</v>
       </c>
       <c r="E198" s="2">
-        <v>0.86700898408889771</v>
+        <v>0.86704707145690918</v>
       </c>
     </row>
     <row r="199">
@@ -2615,13 +2615,13 @@
         <v>1.2202457189559937</v>
       </c>
       <c r="C199" s="2">
-        <v>1.1320914030075073</v>
+        <v>1.1323866844177246</v>
       </c>
       <c r="D199" s="2">
         <v>1.1254415512084961</v>
       </c>
       <c r="E199" s="2">
-        <v>0.97851240634918213</v>
+        <v>0.9786001443862915</v>
       </c>
     </row>
     <row r="200">
@@ -2629,16 +2629,16 @@
         <v>34516</v>
       </c>
       <c r="B200" s="2">
-        <v>1.2237625122070312</v>
+        <v>1.2237625122070313</v>
       </c>
       <c r="C200" s="2">
-        <v>1.0974428653717041</v>
+        <v>1.0973185300827026</v>
       </c>
       <c r="D200" s="2">
         <v>1.1177159547805786</v>
       </c>
       <c r="E200" s="2">
-        <v>0.96184390783309937</v>
+        <v>0.96195411682128906</v>
       </c>
     </row>
     <row r="201">
@@ -2649,13 +2649,13 @@
         <v>1.713739275932312</v>
       </c>
       <c r="C201" s="2">
-        <v>1.6510612964630127</v>
+        <v>1.6509674787521362</v>
       </c>
       <c r="D201" s="2">
         <v>1.3274825811386108</v>
       </c>
       <c r="E201" s="2">
-        <v>1.2300169467926025</v>
+        <v>1.2300523519515991</v>
       </c>
     </row>
     <row r="202">
@@ -2666,13 +2666,13 @@
         <v>0.98497289419174194</v>
       </c>
       <c r="C202" s="2">
-        <v>1.2634215354919434</v>
+        <v>1.2636158466339111</v>
       </c>
       <c r="D202" s="2">
-        <v>1.3351821899414062</v>
+        <v>1.3351821899414063</v>
       </c>
       <c r="E202" s="2">
-        <v>1.2530035972595215</v>
+        <v>1.2530486583709717</v>
       </c>
     </row>
     <row r="203">
@@ -2683,13 +2683,13 @@
         <v>1.5526868104934692</v>
       </c>
       <c r="C203" s="2">
-        <v>1.5171248912811279</v>
+        <v>1.5173535346984863</v>
       </c>
       <c r="D203" s="2">
         <v>1.3364373445510864</v>
       </c>
       <c r="E203" s="2">
-        <v>1.2606167793273926</v>
+        <v>1.2607160806655884</v>
       </c>
     </row>
     <row r="204">
@@ -2700,13 +2700,13 @@
         <v>1.1083613634109497</v>
       </c>
       <c r="C204" s="2">
-        <v>0.95150536298751831</v>
+        <v>0.95140844583511353</v>
       </c>
       <c r="D204" s="2">
         <v>1.2379546165466309</v>
       </c>
       <c r="E204" s="2">
-        <v>1.1235183477401733</v>
+        <v>1.1235876083374024</v>
       </c>
     </row>
     <row r="205">
@@ -2717,13 +2717,13 @@
         <v>1.0447477102279663</v>
       </c>
       <c r="C205" s="2">
-        <v>0.96789520978927612</v>
+        <v>0.96766525506973267</v>
       </c>
       <c r="D205" s="2">
         <v>1.2841290235519409</v>
       </c>
       <c r="E205" s="2">
-        <v>1.1707695722579956</v>
+        <v>1.1708776950836182</v>
       </c>
     </row>
     <row r="206">
@@ -2734,13 +2734,13 @@
         <v>2.0474674701690674</v>
       </c>
       <c r="C206" s="2">
-        <v>1.9088027477264404</v>
+        <v>1.9090182781219482</v>
       </c>
       <c r="D206" s="2">
         <v>1.1597045660018921</v>
       </c>
       <c r="E206" s="2">
-        <v>1.0405126810073853</v>
+        <v>1.0407142639160156</v>
       </c>
     </row>
     <row r="207">
@@ -2751,13 +2751,13 @@
         <v>1.1319519281387329</v>
       </c>
       <c r="C207" s="2">
-        <v>0.85620516538619995</v>
+        <v>0.85671114921569824</v>
       </c>
       <c r="D207" s="2">
         <v>1.2399861812591553</v>
       </c>
       <c r="E207" s="2">
-        <v>1.082450270652771</v>
+        <v>1.0826575756072998</v>
       </c>
     </row>
     <row r="208">
@@ -2768,13 +2768,13 @@
         <v>0.33390182256698608</v>
       </c>
       <c r="C208" s="2">
-        <v>-0.10179436951875687</v>
+        <v>-0.10177047550678253</v>
       </c>
       <c r="D208" s="2">
-        <v>1.2080827951431274</v>
+        <v>1.2080827951431275</v>
       </c>
       <c r="E208" s="2">
-        <v>1.0342944860458374</v>
+        <v>1.0345076322555542</v>
       </c>
     </row>
     <row r="209">
@@ -2785,13 +2785,13 @@
         <v>1.6393320560455322</v>
       </c>
       <c r="C209" s="2">
-        <v>1.5227038860321045</v>
+        <v>1.5229300260543823</v>
       </c>
       <c r="D209" s="2">
         <v>1.2670102119445801</v>
       </c>
       <c r="E209" s="2">
-        <v>1.1034045219421387</v>
+        <v>1.103649377822876</v>
       </c>
     </row>
     <row r="210">
@@ -2802,13 +2802,13 @@
         <v>0.59391915798187256</v>
       </c>
       <c r="C210" s="2">
-        <v>0.47874930500984192</v>
+        <v>0.47949671745300293</v>
       </c>
       <c r="D210" s="2">
         <v>1.3644167184829712</v>
       </c>
       <c r="E210" s="2">
-        <v>1.1915068626403809</v>
+        <v>1.1918075084686279</v>
       </c>
     </row>
     <row r="211">
@@ -2819,13 +2819,13 @@
         <v>1.7075070142745972</v>
       </c>
       <c r="C211" s="2">
-        <v>1.6408604383468628</v>
+        <v>1.6411049365997315</v>
       </c>
       <c r="D211" s="2">
         <v>1.2260303497314453</v>
       </c>
       <c r="E211" s="2">
-        <v>1.0450582504272461</v>
+        <v>1.0454114675521851</v>
       </c>
     </row>
     <row r="212">
@@ -2836,13 +2836,13 @@
         <v>1.2655562162399292</v>
       </c>
       <c r="C212" s="2">
-        <v>1.0837225914001465</v>
+        <v>1.0840045213699341</v>
       </c>
       <c r="D212" s="2">
         <v>1.2839332818984985</v>
       </c>
       <c r="E212" s="2">
-        <v>1.0569941997528076</v>
+        <v>1.0572911500930786</v>
       </c>
     </row>
     <row r="213">
@@ -2853,13 +2853,13 @@
         <v>1.6387084722518921</v>
       </c>
       <c r="C213" s="2">
-        <v>1.5734952688217163</v>
+        <v>1.5736842155456543</v>
       </c>
       <c r="D213" s="2">
         <v>1.3926588296890259</v>
       </c>
       <c r="E213" s="2">
-        <v>1.1880205869674683</v>
+        <v>1.1883485317230225</v>
       </c>
     </row>
     <row r="214">
@@ -2870,13 +2870,13 @@
         <v>1.9214067459106445</v>
       </c>
       <c r="C214" s="2">
-        <v>1.760816216468811</v>
+        <v>1.7610882520675659</v>
       </c>
       <c r="D214" s="2">
         <v>1.3162360191345215</v>
       </c>
       <c r="E214" s="2">
-        <v>1.121132493019104</v>
+        <v>1.1214603185653687</v>
       </c>
     </row>
     <row r="215">
@@ -2887,13 +2887,13 @@
         <v>0.80198955535888672</v>
       </c>
       <c r="C215" s="2">
-        <v>0.59076577425003052</v>
+        <v>0.59145426750183105</v>
       </c>
       <c r="D215" s="2">
         <v>1.3758833408355713</v>
       </c>
       <c r="E215" s="2">
-        <v>1.1128065586090088</v>
+        <v>1.1130214929580688</v>
       </c>
     </row>
     <row r="216">
@@ -2904,13 +2904,13 @@
         <v>1.6530786752700806</v>
       </c>
       <c r="C216" s="2">
-        <v>0.96362906694412231</v>
+        <v>0.96362757682800293</v>
       </c>
       <c r="D216" s="2">
         <v>1.4042555093765259</v>
       </c>
       <c r="E216" s="2">
-        <v>1.1337881088256836</v>
+        <v>1.1340558528900147</v>
       </c>
     </row>
     <row r="217">
@@ -2921,13 +2921,13 @@
         <v>1.3124315738677979</v>
       </c>
       <c r="C217" s="2">
-        <v>1.0774427652359009</v>
+        <v>1.0777460336685181</v>
       </c>
       <c r="D217" s="2">
         <v>1.3900672197341919</v>
       </c>
       <c r="E217" s="2">
-        <v>1.0470480918884277</v>
+        <v>1.047266960144043</v>
       </c>
     </row>
     <row r="218">
@@ -2938,13 +2938,13 @@
         <v>0.95152682065963745</v>
       </c>
       <c r="C218" s="2">
-        <v>0.92071086168289185</v>
+        <v>0.92093586921691895</v>
       </c>
       <c r="D218" s="2">
         <v>1.397963285446167</v>
       </c>
       <c r="E218" s="2">
-        <v>1.0625529289245605</v>
+        <v>1.0627285242080688</v>
       </c>
     </row>
     <row r="219">
@@ -2955,13 +2955,13 @@
         <v>1.1307454109191895</v>
       </c>
       <c r="C219" s="2">
-        <v>0.40381565690040588</v>
+        <v>0.40354758501052857</v>
       </c>
       <c r="D219" s="2">
         <v>1.2928874492645264</v>
       </c>
       <c r="E219" s="2">
-        <v>1.0602619647979736</v>
+        <v>1.0604556798934937</v>
       </c>
     </row>
     <row r="220">
@@ -2972,13 +2972,13 @@
         <v>1.9628560543060303</v>
       </c>
       <c r="C220" s="2">
-        <v>1.829694390296936</v>
+        <v>1.8304140567779541</v>
       </c>
       <c r="D220" s="2">
         <v>1.4544354677200317</v>
       </c>
       <c r="E220" s="2">
-        <v>1.2242465019226074</v>
+        <v>1.2243469953536987</v>
       </c>
     </row>
     <row r="221">
@@ -2989,13 +2989,13 @@
         <v>1.1378612518310547</v>
       </c>
       <c r="C221" s="2">
-        <v>0.30306312441825867</v>
+        <v>0.30290448665618897</v>
       </c>
       <c r="D221" s="2">
         <v>1.4848201274871826</v>
       </c>
       <c r="E221" s="2">
-        <v>1.3194361925125122</v>
+        <v>1.3195620775222778</v>
       </c>
     </row>
     <row r="222">
@@ -3006,13 +3006,13 @@
         <v>1.7097737789154053</v>
       </c>
       <c r="C222" s="2">
-        <v>1.7130382061004639</v>
+        <v>1.7128382921218872</v>
       </c>
       <c r="D222" s="2">
         <v>1.5098098516464233</v>
       </c>
       <c r="E222" s="2">
-        <v>1.3530652523040771</v>
+        <v>1.3531618118286133</v>
       </c>
     </row>
     <row r="223">
@@ -3023,13 +3023,13 @@
         <v>0.97572356462478638</v>
       </c>
       <c r="C223" s="2">
-        <v>1.7401982545852661</v>
+        <v>1.7406331300735474</v>
       </c>
       <c r="D223" s="2">
         <v>1.623569130897522</v>
       </c>
       <c r="E223" s="2">
-        <v>1.4555025100708008</v>
+        <v>1.4556049108505249</v>
       </c>
     </row>
     <row r="224">
@@ -3040,13 +3040,13 @@
         <v>2.2559218406677246</v>
       </c>
       <c r="C224" s="2">
-        <v>2.0666260719299316</v>
+        <v>2.0664756298065186</v>
       </c>
       <c r="D224" s="2">
         <v>1.6346161365509033</v>
       </c>
       <c r="E224" s="2">
-        <v>1.5364689826965332</v>
+        <v>1.5366199016571045</v>
       </c>
     </row>
     <row r="225">
@@ -3057,13 +3057,13 @@
         <v>1.9265403747558594</v>
       </c>
       <c r="C225" s="2">
-        <v>1.8203366994857788</v>
+        <v>1.8205640316009521</v>
       </c>
       <c r="D225" s="2">
         <v>1.4885809421539307</v>
       </c>
       <c r="E225" s="2">
-        <v>1.3922817707061768</v>
+        <v>1.3924487829208374</v>
       </c>
     </row>
     <row r="226">
@@ -3074,13 +3074,13 @@
         <v>1.5373392105102539</v>
       </c>
       <c r="C226" s="2">
-        <v>1.3801041841506958</v>
+        <v>1.380143404006958</v>
       </c>
       <c r="D226" s="2">
         <v>1.5964707136154175</v>
       </c>
       <c r="E226" s="2">
-        <v>1.5823236703872681</v>
+        <v>1.5825662612915039</v>
       </c>
     </row>
     <row r="227">
@@ -3091,13 +3091,13 @@
         <v>1.9753605127334595</v>
       </c>
       <c r="C227" s="2">
-        <v>1.8426463603973389</v>
+        <v>1.8429234027862549</v>
       </c>
       <c r="D227" s="2">
         <v>1.5929747819900513</v>
       </c>
       <c r="E227" s="2">
-        <v>1.554608941078186</v>
+        <v>1.5549424886703491</v>
       </c>
     </row>
     <row r="228">
@@ -3108,13 +3108,13 @@
         <v>1.2301684617996216</v>
       </c>
       <c r="C228" s="2">
-        <v>1.1325138807296753</v>
+        <v>1.1326829195022583</v>
       </c>
       <c r="D228" s="2">
         <v>1.6729639768600464</v>
       </c>
       <c r="E228" s="2">
-        <v>1.5005329847335815</v>
+        <v>1.5008268356323242</v>
       </c>
     </row>
     <row r="229">
@@ -3125,13 +3125,13 @@
         <v>0.64853912591934204</v>
       </c>
       <c r="C229" s="2">
-        <v>0.53200912475585938</v>
+        <v>0.53287333250045776</v>
       </c>
       <c r="D229" s="2">
         <v>1.4716781377792358</v>
       </c>
       <c r="E229" s="2">
-        <v>1.353053092956543</v>
+        <v>1.3534101247787476</v>
       </c>
     </row>
     <row r="230">
@@ -3142,13 +3142,13 @@
         <v>2.1088693141937256</v>
       </c>
       <c r="C230" s="2">
-        <v>2.0134406089782715</v>
+        <v>2.0139620304107666</v>
       </c>
       <c r="D230" s="2">
         <v>1.4309722185134888</v>
       </c>
       <c r="E230" s="2">
-        <v>1.2966867685317993</v>
+        <v>1.2971080541610718</v>
       </c>
     </row>
     <row r="231">
@@ -3159,13 +3159,13 @@
         <v>1.6783111095428467</v>
       </c>
       <c r="C231" s="2">
-        <v>1.4636049270629883</v>
+        <v>1.4642245769500733</v>
       </c>
       <c r="D231" s="2">
         <v>1.4457551240921021</v>
       </c>
       <c r="E231" s="2">
-        <v>1.3083385229110718</v>
+        <v>1.3088294267654419</v>
       </c>
     </row>
     <row r="232">
@@ -3176,13 +3176,13 @@
         <v>1.6956256628036499</v>
       </c>
       <c r="C232" s="2">
-        <v>1.2535145282745361</v>
+        <v>1.2535918951034546</v>
       </c>
       <c r="D232" s="2">
         <v>1.3328620195388794</v>
       </c>
       <c r="E232" s="2">
-        <v>1.1586495637893677</v>
+        <v>1.1591446399688721</v>
       </c>
     </row>
     <row r="233">
@@ -3190,16 +3190,16 @@
         <v>35521</v>
       </c>
       <c r="B233" s="2">
-        <v>0.4443499743938446</v>
+        <v>0.44434997439384461</v>
       </c>
       <c r="C233" s="2">
-        <v>0.73930728435516357</v>
+        <v>0.73972505331039429</v>
       </c>
       <c r="D233" s="2">
         <v>1.384427547454834</v>
       </c>
       <c r="E233" s="2">
-        <v>1.2142665386199951</v>
+        <v>1.2147864103317261</v>
       </c>
     </row>
     <row r="234">
@@ -3210,13 +3210,13 @@
         <v>1.5601869821548462</v>
       </c>
       <c r="C234" s="2">
-        <v>1.3130404949188232</v>
+        <v>1.313846230506897</v>
       </c>
       <c r="D234" s="2">
         <v>1.3866252899169922</v>
       </c>
       <c r="E234" s="2">
-        <v>1.20704185962677</v>
+        <v>1.2075269222259522</v>
       </c>
     </row>
     <row r="235">
@@ -3227,13 +3227,13 @@
         <v>1.6703846454620361</v>
       </c>
       <c r="C235" s="2">
-        <v>1.4849694967269897</v>
+        <v>1.4856349229812622</v>
       </c>
       <c r="D235" s="2">
         <v>1.1621153354644775</v>
       </c>
       <c r="E235" s="2">
-        <v>0.960987389087677</v>
+        <v>0.96146237850189209</v>
       </c>
     </row>
     <row r="236">
@@ -3244,13 +3244,13 @@
         <v>0.95932298898696899</v>
       </c>
       <c r="C236" s="2">
-        <v>0.49544599652290344</v>
+        <v>0.49576029181480408</v>
       </c>
       <c r="D236" s="2">
         <v>1.1453301906585693</v>
       </c>
       <c r="E236" s="2">
-        <v>0.94640809297561646</v>
+        <v>0.9468415379524231</v>
       </c>
     </row>
     <row r="237">
@@ -3261,13 +3261,13 @@
         <v>1.6942579746246338</v>
       </c>
       <c r="C237" s="2">
-        <v>1.6330668926239014</v>
+        <v>1.6334588527679443</v>
       </c>
       <c r="D237" s="2">
         <v>1.1125667095184326</v>
       </c>
       <c r="E237" s="2">
-        <v>0.93953847885131836</v>
+        <v>0.94001168012619019</v>
       </c>
     </row>
     <row r="238">
@@ -3278,13 +3278,13 @@
         <v>0.66831928491592407</v>
       </c>
       <c r="C238" s="2">
-        <v>0.4669860303401947</v>
+        <v>0.467538982629776</v>
       </c>
       <c r="D238" s="2">
         <v>1.237261176109314</v>
       </c>
       <c r="E238" s="2">
-        <v>1.0066201686859131</v>
+        <v>1.0071054697036743</v>
       </c>
     </row>
     <row r="239">
@@ -3292,16 +3292,16 @@
         <v>35704</v>
       </c>
       <c r="B239" s="2">
-        <v>0.088279090821743011</v>
+        <v>0.088279090821743012</v>
       </c>
       <c r="C239" s="2">
-        <v>-0.20104905962944031</v>
+        <v>-0.20061945915222168</v>
       </c>
       <c r="D239" s="2">
         <v>1.1578308343887329</v>
       </c>
       <c r="E239" s="2">
-        <v>0.94135308265686035</v>
+        <v>0.94174128770828247</v>
       </c>
     </row>
     <row r="240">
@@ -3312,13 +3312,13 @@
         <v>1.5272446870803833</v>
       </c>
       <c r="C240" s="2">
-        <v>1.3323911428451538</v>
+        <v>1.3326371908187866</v>
       </c>
       <c r="D240" s="2">
         <v>1.1170773506164551</v>
       </c>
       <c r="E240" s="2">
-        <v>0.91119652986526489</v>
+        <v>0.91156172752380371</v>
       </c>
     </row>
     <row r="241">
@@ -3329,13 +3329,13 @@
         <v>1.400754451751709</v>
       </c>
       <c r="C241" s="2">
-        <v>1.1916879415512085</v>
+        <v>1.1921231746673584</v>
       </c>
       <c r="D241" s="2">
         <v>1.1723089218139648</v>
       </c>
       <c r="E241" s="2">
-        <v>1.0006107091903687</v>
+        <v>1.0009967088699341</v>
       </c>
     </row>
     <row r="242">
@@ -3346,13 +3346,13 @@
         <v>1.5666007995605469</v>
       </c>
       <c r="C242" s="2">
-        <v>1.3430423736572266</v>
+        <v>1.3435695171356201</v>
       </c>
       <c r="D242" s="2">
         <v>1.1357166767120361</v>
       </c>
       <c r="E242" s="2">
-        <v>0.93410378694534302</v>
+        <v>0.93450140953063965</v>
       </c>
     </row>
     <row r="243">
@@ -3363,13 +3363,13 @@
         <v>0.8453134298324585</v>
       </c>
       <c r="C243" s="2">
-        <v>0.72563701868057251</v>
+        <v>0.72556817531585693</v>
       </c>
       <c r="D243" s="2">
         <v>1.1881477832794189</v>
       </c>
       <c r="E243" s="2">
-        <v>0.98656147718429565</v>
+        <v>0.98695653676986694</v>
       </c>
     </row>
     <row r="244">
@@ -3380,13 +3380,13 @@
         <v>1.303602933883667</v>
       </c>
       <c r="C244" s="2">
-        <v>1.2135605812072754</v>
+        <v>1.2140188217163086</v>
       </c>
       <c r="D244" s="2">
         <v>1.3242640495300293</v>
       </c>
       <c r="E244" s="2">
-        <v>1.1465188264846802</v>
+        <v>1.1468794345855713</v>
       </c>
     </row>
     <row r="245">
@@ -3397,13 +3397,13 @@
         <v>1.4564077854156494</v>
       </c>
       <c r="C245" s="2">
-        <v>1.300173282623291</v>
+        <v>1.3006751537322998</v>
       </c>
       <c r="D245" s="2">
-        <v>1.2350993156433105</v>
+        <v>1.2350993156433106</v>
       </c>
       <c r="E245" s="2">
-        <v>1.0103025436401367</v>
+        <v>1.0106247663497925</v>
       </c>
     </row>
     <row r="246">
@@ -3414,13 +3414,13 @@
         <v>1.3649272918701172</v>
       </c>
       <c r="C246" s="2">
-        <v>1.0345045328140259</v>
+        <v>1.0350010395050049</v>
       </c>
       <c r="D246" s="2">
-        <v>1.2297667264938354</v>
+        <v>1.2297667264938355</v>
       </c>
       <c r="E246" s="2">
-        <v>1.0147625207901001</v>
+        <v>1.0150750875473022</v>
       </c>
     </row>
     <row r="247">
@@ -3431,13 +3431,13 @@
         <v>1.1401997804641724</v>
       </c>
       <c r="C247" s="2">
-        <v>0.9391053318977356</v>
+        <v>0.93963545560836792</v>
       </c>
       <c r="D247" s="2">
         <v>1.2322481870651245</v>
       </c>
       <c r="E247" s="2">
-        <v>0.9928210973739624</v>
+        <v>0.99315732717514038</v>
       </c>
     </row>
     <row r="248">
@@ -3448,13 +3448,13 @@
         <v>1.3133248090744019</v>
       </c>
       <c r="C248" s="2">
-        <v>1.2385673522949219</v>
+        <v>1.2386864423751831</v>
       </c>
       <c r="D248" s="2">
         <v>1.1537261009216309</v>
       </c>
       <c r="E248" s="2">
-        <v>0.89684218168258667</v>
+        <v>0.89723080396652222</v>
       </c>
     </row>
     <row r="249">
@@ -3465,13 +3465,13 @@
         <v>0.72476279735565186</v>
       </c>
       <c r="C249" s="2">
-        <v>0.1064441055059433</v>
+        <v>0.10634547472000122</v>
       </c>
       <c r="D249" s="2">
         <v>1.0973280668258667</v>
       </c>
       <c r="E249" s="2">
-        <v>0.83310073614120483</v>
+        <v>0.83349692821502686</v>
       </c>
     </row>
     <row r="250">
@@ -3482,13 +3482,13 @@
         <v>1.3527612686157227</v>
       </c>
       <c r="C250" s="2">
-        <v>1.2318277359008789</v>
+        <v>1.2321757078170776</v>
       </c>
       <c r="D250" s="2">
         <v>1.1186145544052124</v>
       </c>
       <c r="E250" s="2">
-        <v>0.86183828115463257</v>
+        <v>0.86219984292984009</v>
       </c>
     </row>
     <row r="251">
@@ -3499,13 +3499,13 @@
         <v>1.5889337062835693</v>
       </c>
       <c r="C251" s="2">
-        <v>1.1455698013305664</v>
+        <v>1.1463096141815186</v>
       </c>
       <c r="D251" s="2">
         <v>1.0637993812561035</v>
       </c>
       <c r="E251" s="2">
-        <v>0.80905073881149292</v>
+        <v>0.8093910813331604</v>
       </c>
     </row>
     <row r="252">
@@ -3513,16 +3513,16 @@
         <v>36100</v>
       </c>
       <c r="B252" s="2">
-        <v>0.1386144608259201</v>
+        <v>0.13861446082592011</v>
       </c>
       <c r="C252" s="2">
-        <v>-0.13817322254180908</v>
+        <v>-0.13777056336402893</v>
       </c>
       <c r="D252" s="2">
         <v>0.97546648979187012</v>
       </c>
       <c r="E252" s="2">
-        <v>0.78834313154220581</v>
+        <v>0.78868746757507324</v>
       </c>
     </row>
     <row r="253">
@@ -3533,13 +3533,13 @@
         <v>0.79602092504501343</v>
       </c>
       <c r="C253" s="2">
-        <v>0.63988745212554932</v>
+        <v>0.64041388034820557</v>
       </c>
       <c r="D253" s="2">
-        <v>0.91766738891601562</v>
+        <v>0.91766738891601563</v>
       </c>
       <c r="E253" s="2">
-        <v>0.75158250331878662</v>
+        <v>0.7518799901008606</v>
       </c>
     </row>
     <row r="254">
@@ -3547,16 +3547,16 @@
         <v>36161</v>
       </c>
       <c r="B254" s="2">
-        <v>1.6479859352111816</v>
+        <v>1.6479859352111817</v>
       </c>
       <c r="C254" s="2">
-        <v>1.5588113069534302</v>
+        <v>1.5590014457702637</v>
       </c>
       <c r="D254" s="2">
-        <v>0.99857324361801147</v>
+        <v>0.99857324361801148</v>
       </c>
       <c r="E254" s="2">
-        <v>0.88873386383056641</v>
+        <v>0.88911771774291992</v>
       </c>
     </row>
     <row r="255">
@@ -3567,13 +3567,13 @@
         <v>0.87159037590026855</v>
       </c>
       <c r="C255" s="2">
-        <v>0.5594170093536377</v>
+        <v>0.55972224473953247</v>
       </c>
       <c r="D255" s="2">
         <v>1.0063868761062622</v>
       </c>
       <c r="E255" s="2">
-        <v>0.89922767877578735</v>
+        <v>0.89959287643432617</v>
       </c>
     </row>
     <row r="256">
@@ -3584,13 +3584,13 @@
         <v>0.34520411491394043</v>
       </c>
       <c r="C256" s="2">
-        <v>0.75273668766021729</v>
+        <v>0.7533026933670044</v>
       </c>
       <c r="D256" s="2">
         <v>0.84690463542938232</v>
       </c>
       <c r="E256" s="2">
-        <v>0.74440157413482666</v>
+        <v>0.74468213319778442</v>
       </c>
     </row>
     <row r="257">
@@ -3601,13 +3601,13 @@
         <v>0.7931329607963562</v>
       </c>
       <c r="C257" s="2">
-        <v>0.90772157907485962</v>
+        <v>0.90741938352584839</v>
       </c>
       <c r="D257" s="2">
         <v>0.97125893831253052</v>
       </c>
       <c r="E257" s="2">
-        <v>0.87912541627883911</v>
+        <v>0.87935703992843628</v>
       </c>
     </row>
     <row r="258">
@@ -3618,13 +3618,13 @@
         <v>1.4529156684875488</v>
       </c>
       <c r="C258" s="2">
-        <v>1.3408064842224121</v>
+        <v>1.3414852619171143</v>
       </c>
       <c r="D258" s="2">
         <v>1.0330319404602051</v>
       </c>
       <c r="E258" s="2">
-        <v>0.92693698406219482</v>
+        <v>0.92714226245880127</v>
       </c>
     </row>
     <row r="259">
@@ -3635,13 +3635,13 @@
         <v>1.4230834245681763</v>
       </c>
       <c r="C259" s="2">
-        <v>1.3262721300125122</v>
+        <v>1.3264518976211548</v>
       </c>
       <c r="D259" s="2">
         <v>1.0213062763214111</v>
       </c>
       <c r="E259" s="2">
-        <v>0.85358107089996338</v>
+        <v>0.85384666919708252</v>
       </c>
     </row>
     <row r="260">
@@ -3652,13 +3652,13 @@
         <v>0.15359380841255188</v>
       </c>
       <c r="C260" s="2">
-        <v>-0.24786515533924103</v>
+        <v>-0.24788698554039002</v>
       </c>
       <c r="D260" s="2">
         <v>1.0333116054534912</v>
       </c>
       <c r="E260" s="2">
-        <v>0.92048335075378418</v>
+        <v>0.92072784900665283</v>
       </c>
     </row>
     <row r="261">
@@ -3669,13 +3669,13 @@
         <v>1.2578030824661255</v>
       </c>
       <c r="C261" s="2">
-        <v>1.0743414163589478</v>
+        <v>1.0743035078048706</v>
       </c>
       <c r="D261" s="2">
         <v>1.0520367622375488</v>
       </c>
       <c r="E261" s="2">
-        <v>0.83037716150283813</v>
+        <v>0.83061742782592773</v>
       </c>
     </row>
     <row r="262">
@@ -3686,13 +3686,13 @@
         <v>1.351978063583374</v>
       </c>
       <c r="C262" s="2">
-        <v>1.0701916217803955</v>
+        <v>1.0704809427261353</v>
       </c>
       <c r="D262" s="2">
-        <v>1.0870660543441772</v>
+        <v>1.0870660543441773</v>
       </c>
       <c r="E262" s="2">
-        <v>0.87222909927368164</v>
+        <v>0.87255179882049561</v>
       </c>
     </row>
     <row r="263">
@@ -3703,13 +3703,13 @@
         <v>1.5424548387527466</v>
       </c>
       <c r="C263" s="2">
-        <v>0.89860790967941284</v>
+        <v>0.89934110641479492</v>
       </c>
       <c r="D263" s="2">
         <v>0.95616143941879272</v>
       </c>
       <c r="E263" s="2">
-        <v>0.72581952810287476</v>
+        <v>0.72616744041442871</v>
       </c>
     </row>
     <row r="264">
@@ -3720,13 +3720,13 @@
         <v>0.97963887453079224</v>
       </c>
       <c r="C264" s="2">
-        <v>1.1615375280380249</v>
+        <v>1.161652684211731</v>
       </c>
       <c r="D264" s="2">
         <v>0.87969917058944702</v>
       </c>
       <c r="E264" s="2">
-        <v>0.66534292697906494</v>
+        <v>0.66565734148025513</v>
       </c>
     </row>
     <row r="265">
@@ -3737,13 +3737,13 @@
         <v>0.51372969150543213</v>
       </c>
       <c r="C265" s="2">
-        <v>-0.058219205588102341</v>
+        <v>-0.057690992951393127</v>
       </c>
       <c r="D265" s="2">
         <v>1.0744653940200806</v>
       </c>
       <c r="E265" s="2">
-        <v>0.9221198558807373</v>
+        <v>0.92245399951934814</v>
       </c>
     </row>
     <row r="266">
@@ -3754,13 +3754,13 @@
         <v>1.1083972454071045</v>
       </c>
       <c r="C266" s="2">
-        <v>1.2843888998031616</v>
+        <v>1.2848289012908936</v>
       </c>
       <c r="D266" s="2">
         <v>1.0123846530914307</v>
       </c>
       <c r="E266" s="2">
-        <v>0.84973794221878052</v>
+        <v>0.85024195909500122</v>
       </c>
     </row>
     <row r="267">
@@ -3771,13 +3771,13 @@
         <v>0.27477392554283142</v>
       </c>
       <c r="C267" s="2">
-        <v>0.023120544850826263</v>
+        <v>0.024025930091738701</v>
       </c>
       <c r="D267" s="2">
         <v>0.9141051173210144</v>
       </c>
       <c r="E267" s="2">
-        <v>0.74283093214035034</v>
+        <v>0.74333012104034424</v>
       </c>
     </row>
     <row r="268">
@@ -3788,13 +3788,13 @@
         <v>0.73492306470870972</v>
       </c>
       <c r="C268" s="2">
-        <v>0.78198283910751343</v>
+        <v>0.78186094760894775</v>
       </c>
       <c r="D268" s="2">
         <v>0.91679525375366211</v>
       </c>
       <c r="E268" s="2">
-        <v>0.79986464977264404</v>
+        <v>0.80032354593276978</v>
       </c>
     </row>
     <row r="269">
@@ -3805,13 +3805,13 @@
         <v>1.9064894914627075</v>
       </c>
       <c r="C269" s="2">
-        <v>2.0631272792816162</v>
+        <v>2.0632832050323486</v>
       </c>
       <c r="D269" s="2">
         <v>0.93014359474182129</v>
       </c>
       <c r="E269" s="2">
-        <v>0.73915928602218628</v>
+        <v>0.73965060710906982</v>
       </c>
     </row>
     <row r="270">
@@ -3822,13 +3822,13 @@
         <v>0.69907701015472412</v>
       </c>
       <c r="C270" s="2">
-        <v>0.42290419340133667</v>
+        <v>0.42439484596252442</v>
       </c>
       <c r="D270" s="2">
         <v>1.0504767894744873</v>
       </c>
       <c r="E270" s="2">
-        <v>0.91673111915588379</v>
+        <v>0.91726022958755493</v>
       </c>
     </row>
     <row r="271">
@@ -3839,13 +3839,13 @@
         <v>0.46746206283569336</v>
       </c>
       <c r="C271" s="2">
-        <v>0.1080283597111702</v>
+        <v>0.10827425122261047</v>
       </c>
       <c r="D271" s="2">
         <v>1.1118896007537842</v>
       </c>
       <c r="E271" s="2">
-        <v>0.96420884132385254</v>
+        <v>0.9647786021232605</v>
       </c>
     </row>
     <row r="272">
@@ -3856,13 +3856,13 @@
         <v>1.5666657686233521</v>
       </c>
       <c r="C272" s="2">
-        <v>1.4119116067886353</v>
+        <v>1.4122821092605591</v>
       </c>
       <c r="D272" s="2">
         <v>1.3253248929977417</v>
       </c>
       <c r="E272" s="2">
-        <v>1.1796753406524658</v>
+        <v>1.1801698207855225</v>
       </c>
     </row>
     <row r="273">
@@ -3873,13 +3873,13 @@
         <v>1.0997742414474487</v>
       </c>
       <c r="C273" s="2">
-        <v>0.61518913507461548</v>
+        <v>0.61559605598449707</v>
       </c>
       <c r="D273" s="2">
         <v>1.3130826950073242</v>
       </c>
       <c r="E273" s="2">
-        <v>1.1306068897247314</v>
+        <v>1.1311211585998535</v>
       </c>
     </row>
     <row r="274">
@@ -3890,13 +3890,13 @@
         <v>1.5967279672622681</v>
       </c>
       <c r="C274" s="2">
-        <v>1.5399271249771118</v>
+        <v>1.5407955646514893</v>
       </c>
       <c r="D274" s="2">
         <v>1.2403908967971802</v>
       </c>
       <c r="E274" s="2">
-        <v>1.0262019634246826</v>
+        <v>1.0267122983932495</v>
       </c>
     </row>
     <row r="275">
@@ -3907,13 +3907,13 @@
         <v>1.6611130237579346</v>
       </c>
       <c r="C275" s="2">
-        <v>1.7116883993148804</v>
+        <v>1.7124943733215332</v>
       </c>
       <c r="D275" s="2">
         <v>1.2660610675811768</v>
       </c>
       <c r="E275" s="2">
-        <v>1.0835102796554565</v>
+        <v>1.0838397741317749</v>
       </c>
     </row>
     <row r="276">
@@ -3924,13 +3924,13 @@
         <v>2.1956918239593506</v>
       </c>
       <c r="C276" s="2">
-        <v>1.962319016456604</v>
+        <v>1.962546706199646</v>
       </c>
       <c r="D276" s="2">
         <v>1.3297243118286133</v>
       </c>
       <c r="E276" s="2">
-        <v>1.1625899076461792</v>
+        <v>1.1629320383071899</v>
       </c>
     </row>
     <row r="277">
@@ -3941,13 +3941,13 @@
         <v>0.62474262714385986</v>
       </c>
       <c r="C277" s="2">
-        <v>0.34036639332771301</v>
+        <v>0.34042376279830933</v>
       </c>
       <c r="D277" s="2">
         <v>1.3354830741882324</v>
       </c>
       <c r="E277" s="2">
-        <v>1.1484372615814209</v>
+        <v>1.1488150358200073</v>
       </c>
     </row>
     <row r="278">
@@ -3958,13 +3958,13 @@
         <v>1.2522634267807007</v>
       </c>
       <c r="C278" s="2">
-        <v>1.1234830617904663</v>
+        <v>1.1236025094985962</v>
       </c>
       <c r="D278" s="2">
         <v>1.3521963357925415</v>
       </c>
       <c r="E278" s="2">
-        <v>1.1852978467941284</v>
+        <v>1.1857063770294189</v>
       </c>
     </row>
     <row r="279">
@@ -3975,13 +3975,13 @@
         <v>0.93010848760604858</v>
       </c>
       <c r="C279" s="2">
-        <v>0.93867969512939453</v>
+        <v>0.93854242563247681</v>
       </c>
       <c r="D279" s="2">
         <v>1.3701539039611816</v>
       </c>
       <c r="E279" s="2">
-        <v>1.2185057401657104</v>
+        <v>1.2189244031906128</v>
       </c>
     </row>
     <row r="280">
@@ -3992,13 +3992,13 @@
         <v>1.0404309034347534</v>
       </c>
       <c r="C280" s="2">
-        <v>0.81974488496780396</v>
+        <v>0.82010436058044434</v>
       </c>
       <c r="D280" s="2">
         <v>1.4690201282501221</v>
       </c>
       <c r="E280" s="2">
-        <v>1.3162753582000732</v>
+        <v>1.3166704177856445</v>
       </c>
     </row>
     <row r="281">
@@ -4009,13 +4009,13 @@
         <v>1.6184946298599243</v>
       </c>
       <c r="C281" s="2">
-        <v>1.2845374345779419</v>
+        <v>1.2852296829223633</v>
       </c>
       <c r="D281" s="2">
         <v>1.3865048885345459</v>
       </c>
       <c r="E281" s="2">
-        <v>1.2308349609375</v>
+        <v>1.2312474250793457</v>
       </c>
     </row>
     <row r="282">
@@ -4026,13 +4026,13 @@
         <v>1.25019371509552</v>
       </c>
       <c r="C282" s="2">
-        <v>0.94693470001220703</v>
+        <v>0.94761824607849121</v>
       </c>
       <c r="D282" s="2">
-        <v>1.3635100126266479</v>
+        <v>1.363510012626648</v>
       </c>
       <c r="E282" s="2">
-        <v>1.1934664249420166</v>
+        <v>1.1939014196395874</v>
       </c>
     </row>
     <row r="283">
@@ -4043,13 +4043,13 @@
         <v>1.7583461999893188</v>
       </c>
       <c r="C283" s="2">
-        <v>1.8387978076934814</v>
+        <v>1.8397570848464966</v>
       </c>
       <c r="D283" s="2">
         <v>1.2786366939544678</v>
       </c>
       <c r="E283" s="2">
-        <v>1.0906891822814941</v>
+        <v>1.0912115573883057</v>
       </c>
     </row>
     <row r="284">
@@ -4060,13 +4060,13 @@
         <v>2.5509097576141357</v>
       </c>
       <c r="C284" s="2">
-        <v>2.5916149616241455</v>
+        <v>2.5922091007232666</v>
       </c>
       <c r="D284" s="2">
         <v>1.2541571855545044</v>
       </c>
       <c r="E284" s="2">
-        <v>0.98991042375564575</v>
+        <v>0.99044471979141235</v>
       </c>
     </row>
     <row r="285">
@@ -4077,13 +4077,13 @@
         <v>1.4530540704727173</v>
       </c>
       <c r="C285" s="2">
-        <v>1.1933552026748657</v>
+        <v>1.1937400102615357</v>
       </c>
       <c r="D285" s="2">
-        <v>1.080778956413269</v>
+        <v>1.0807789564132691</v>
       </c>
       <c r="E285" s="2">
-        <v>0.81124615669250488</v>
+        <v>0.81182193756103516</v>
       </c>
     </row>
     <row r="286">
@@ -4094,13 +4094,13 @@
         <v>0.41778936982154846</v>
       </c>
       <c r="C286" s="2">
-        <v>0.0040496294386684895</v>
+        <v>0.0043095503933727741</v>
       </c>
       <c r="D286" s="2">
         <v>1.0790601968765259</v>
       </c>
       <c r="E286" s="2">
-        <v>0.82930225133895874</v>
+        <v>0.82993531227111817</v>
       </c>
     </row>
     <row r="287">
@@ -4111,13 +4111,13 @@
         <v>0.48840361833572388</v>
       </c>
       <c r="C287" s="2">
-        <v>0.19848822057247162</v>
+        <v>0.19939391314983368</v>
       </c>
       <c r="D287" s="2">
         <v>0.99301004409790039</v>
       </c>
       <c r="E287" s="2">
-        <v>0.78018176555633545</v>
+        <v>0.78073298931121826</v>
       </c>
     </row>
     <row r="288">
@@ -4128,13 +4128,13 @@
         <v>0.70979189872741699</v>
       </c>
       <c r="C288" s="2">
-        <v>0.031670920550823212</v>
+        <v>0.031640496104955673</v>
       </c>
       <c r="D288" s="2">
-        <v>0.85004186630249023</v>
+        <v>0.85004186630249024</v>
       </c>
       <c r="E288" s="2">
-        <v>0.59809380769729614</v>
+        <v>0.59853953123092651</v>
       </c>
     </row>
     <row r="289">
@@ -4145,13 +4145,13 @@
         <v>-0.51997315883636475</v>
       </c>
       <c r="C289" s="2">
-        <v>-0.78823328018188477</v>
+        <v>-0.78750050067901611</v>
       </c>
       <c r="D289" s="2">
         <v>0.80765068531036377</v>
       </c>
       <c r="E289" s="2">
-        <v>0.52102530002593994</v>
+        <v>0.52144068479537964</v>
       </c>
     </row>
     <row r="290">
@@ -4162,13 +4162,13 @@
         <v>1.6030266284942627</v>
       </c>
       <c r="C290" s="2">
-        <v>1.4470419883728027</v>
+        <v>1.4482501745223999</v>
       </c>
       <c r="D290" s="2">
         <v>0.82293063402175903</v>
       </c>
       <c r="E290" s="2">
-        <v>0.5399472713470459</v>
+        <v>0.54032450914382935</v>
       </c>
     </row>
     <row r="291">
@@ -4176,16 +4176,16 @@
         <v>37288</v>
       </c>
       <c r="B291" s="2">
-        <v>0.47574183344841003</v>
+        <v>0.47574183344841004</v>
       </c>
       <c r="C291" s="2">
-        <v>0.50485038757324219</v>
+        <v>0.50479722023010254</v>
       </c>
       <c r="D291" s="2">
         <v>0.88260281085968018</v>
       </c>
       <c r="E291" s="2">
-        <v>0.60991501808166504</v>
+        <v>0.61028516292572021</v>
       </c>
     </row>
     <row r="292">
@@ -4196,13 +4196,13 @@
         <v>0.47163292765617371</v>
       </c>
       <c r="C292" s="2">
-        <v>0.20000620186328888</v>
+        <v>0.20001561939716339</v>
       </c>
       <c r="D292" s="2">
         <v>0.90585345029830933</v>
       </c>
       <c r="E292" s="2">
-        <v>0.63069778680801392</v>
+        <v>0.63092070817947388</v>
       </c>
     </row>
     <row r="293">
@@ -4213,13 +4213,13 @@
         <v>2.169389009475708</v>
       </c>
       <c r="C293" s="2">
-        <v>1.897998571395874</v>
+        <v>1.8983196020126343</v>
       </c>
       <c r="D293" s="2">
         <v>0.99328809976577759</v>
       </c>
       <c r="E293" s="2">
-        <v>0.76153326034545898</v>
+        <v>0.76178711652755737</v>
       </c>
     </row>
     <row r="294">
@@ -4230,13 +4230,13 @@
         <v>1.5905734300613403</v>
       </c>
       <c r="C294" s="2">
-        <v>1.3636529445648193</v>
+        <v>1.3636945486068726</v>
       </c>
       <c r="D294" s="2">
         <v>1.1772722005844116</v>
       </c>
       <c r="E294" s="2">
-        <v>0.94737493991851807</v>
+        <v>0.94749313592910767</v>
       </c>
     </row>
     <row r="295">
@@ -4247,13 +4247,13 @@
         <v>0.95483887195587158</v>
       </c>
       <c r="C295" s="2">
-        <v>0.63375931978225708</v>
+        <v>0.63395559787750244</v>
       </c>
       <c r="D295" s="2">
         <v>1.0827399492263794</v>
       </c>
       <c r="E295" s="2">
-        <v>0.81923055648803711</v>
+        <v>0.8192787766456604</v>
       </c>
     </row>
     <row r="296">
@@ -4264,13 +4264,13 @@
         <v>0.69765973091125488</v>
       </c>
       <c r="C296" s="2">
-        <v>0.38553324341773987</v>
+        <v>0.38511365652084351</v>
       </c>
       <c r="D296" s="2">
         <v>1.2303216457366943</v>
       </c>
       <c r="E296" s="2">
-        <v>0.94054287672042847</v>
+        <v>0.94067478179931641</v>
       </c>
     </row>
     <row r="297">
@@ -4281,13 +4281,13 @@
         <v>1.4967035055160522</v>
       </c>
       <c r="C297" s="2">
-        <v>1.2091898918151855</v>
+        <v>1.2094382047653198</v>
       </c>
       <c r="D297" s="2">
         <v>1.1550716161727905</v>
       </c>
       <c r="E297" s="2">
-        <v>0.86553537845611572</v>
+        <v>0.86561918258666992</v>
       </c>
     </row>
     <row r="298">
@@ -4298,13 +4298,13 @@
         <v>1.1358842849731445</v>
       </c>
       <c r="C298" s="2">
-        <v>0.88434171676635742</v>
+        <v>0.88385385274887085</v>
       </c>
       <c r="D298" s="2">
         <v>1.0595005750656128</v>
       </c>
       <c r="E298" s="2">
-        <v>0.7976452112197876</v>
+        <v>0.79771167039871216</v>
       </c>
     </row>
     <row r="299">
@@ -4315,13 +4315,13 @@
         <v>0.75223612785339355</v>
       </c>
       <c r="C299" s="2">
-        <v>0.29374274611473083</v>
+        <v>0.29432076215744019</v>
       </c>
       <c r="D299" s="2">
         <v>0.92929434776306152</v>
       </c>
       <c r="E299" s="2">
-        <v>0.68954002857208252</v>
+        <v>0.68958669900894165</v>
       </c>
     </row>
     <row r="300">
@@ -4332,13 +4332,13 @@
         <v>1.8039766550064087</v>
       </c>
       <c r="C300" s="2">
-        <v>1.5966614484786987</v>
+        <v>1.5973614454269409</v>
       </c>
       <c r="D300" s="2">
         <v>0.92470461130142212</v>
       </c>
       <c r="E300" s="2">
-        <v>0.67969751358032227</v>
+        <v>0.67973631620407104</v>
       </c>
     </row>
     <row r="301">
@@ -4349,13 +4349,13 @@
         <v>-0.20561701059341431</v>
       </c>
       <c r="C301" s="2">
-        <v>-0.47506129741668701</v>
+        <v>-0.47548481822013855</v>
       </c>
       <c r="D301" s="2">
         <v>0.99573558568954468</v>
       </c>
       <c r="E301" s="2">
-        <v>0.70091646909713745</v>
+        <v>0.70112228393554688</v>
       </c>
     </row>
     <row r="302">
@@ -4366,13 +4366,13 @@
         <v>1.3092491626739502</v>
       </c>
       <c r="C302" s="2">
-        <v>1.2869868278503418</v>
+        <v>1.2871518135070801</v>
       </c>
       <c r="D302" s="2">
         <v>0.98348772525787354</v>
       </c>
       <c r="E302" s="2">
-        <v>0.7054673433303833</v>
+        <v>0.70571625232696533</v>
       </c>
     </row>
     <row r="303">
@@ -4383,13 +4383,13 @@
         <v>0.41871783137321472</v>
       </c>
       <c r="C303" s="2">
-        <v>0.39070630073547363</v>
+        <v>0.3905695378780365</v>
       </c>
       <c r="D303" s="2">
         <v>0.76769578456878662</v>
       </c>
       <c r="E303" s="2">
-        <v>0.4812953770160675</v>
+        <v>0.48155060410499573</v>
       </c>
     </row>
     <row r="304">
@@ -4400,13 +4400,13 @@
         <v>0.91353130340576172</v>
       </c>
       <c r="C304" s="2">
-        <v>0.5451769232749939</v>
+        <v>0.54530245065689087</v>
       </c>
       <c r="D304" s="2">
         <v>0.7285504937171936</v>
       </c>
       <c r="E304" s="2">
-        <v>0.48438209295272827</v>
+        <v>0.48466143012046814</v>
       </c>
     </row>
     <row r="305">
@@ -4417,13 +4417,13 @@
         <v>1.3369383811950684</v>
       </c>
       <c r="C305" s="2">
-        <v>0.57650381326675415</v>
+        <v>0.57758742570877075</v>
       </c>
       <c r="D305" s="2">
         <v>0.47426274418830872</v>
       </c>
       <c r="E305" s="2">
-        <v>0.22578823566436768</v>
+        <v>0.22604413330554962</v>
       </c>
     </row>
     <row r="306">
@@ -4434,13 +4434,13 @@
         <v>1.3864729404449463</v>
       </c>
       <c r="C306" s="2">
-        <v>1.2501473426818848</v>
+        <v>1.2507838010787964</v>
       </c>
       <c r="D306" s="2">
         <v>0.60978662967681885</v>
       </c>
       <c r="E306" s="2">
-        <v>0.374693363904953</v>
+        <v>0.37502530217170715</v>
       </c>
     </row>
     <row r="307">
@@ -4451,13 +4451,13 @@
         <v>-0.80624306201934814</v>
       </c>
       <c r="C307" s="2">
-        <v>-1.1332056522369385</v>
+        <v>-1.1336370706558228</v>
       </c>
       <c r="D307" s="2">
         <v>0.6389230489730835</v>
       </c>
       <c r="E307" s="2">
-        <v>0.39971014857292175</v>
+        <v>0.40006455779075623</v>
       </c>
     </row>
     <row r="308">
@@ -4465,16 +4465,16 @@
         <v>37803</v>
       </c>
       <c r="B308" s="2">
-        <v>0.39992815256118774</v>
+        <v>0.39992815256118775</v>
       </c>
       <c r="C308" s="2">
-        <v>0.32152318954467773</v>
+        <v>0.32231831550598145</v>
       </c>
       <c r="D308" s="2">
         <v>0.77143740653991699</v>
       </c>
       <c r="E308" s="2">
-        <v>0.54279375076293945</v>
+        <v>0.5432172417640686</v>
       </c>
     </row>
     <row r="309">
@@ -4485,13 +4485,13 @@
         <v>-0.48461303114891052</v>
       </c>
       <c r="C309" s="2">
-        <v>-0.73068338632583618</v>
+        <v>-0.73019421100616455</v>
       </c>
       <c r="D309" s="2">
         <v>0.7330508828163147</v>
       </c>
       <c r="E309" s="2">
-        <v>0.59253811836242676</v>
+        <v>0.59294748306274414</v>
       </c>
     </row>
     <row r="310">
@@ -4502,13 +4502,13 @@
         <v>1.0140981674194336</v>
       </c>
       <c r="C310" s="2">
-        <v>0.8650849461555481</v>
+        <v>0.86534559726715088</v>
       </c>
       <c r="D310" s="2">
         <v>0.75815600156784058</v>
       </c>
       <c r="E310" s="2">
-        <v>0.68907421827316284</v>
+        <v>0.68939834833145142</v>
       </c>
     </row>
     <row r="311">
@@ -4519,13 +4519,13 @@
         <v>1.5714768171310425</v>
       </c>
       <c r="C311" s="2">
-        <v>1.512137770652771</v>
+        <v>1.5125051736831665</v>
       </c>
       <c r="D311" s="2">
         <v>0.68625617027282715</v>
       </c>
       <c r="E311" s="2">
-        <v>0.59701204299926758</v>
+        <v>0.59725993871688843</v>
       </c>
     </row>
     <row r="312">
@@ -4536,13 +4536,13 @@
         <v>1.6113471984863281</v>
       </c>
       <c r="C312" s="2">
-        <v>1.678458571434021</v>
+        <v>1.6789437532424927</v>
       </c>
       <c r="D312" s="2">
         <v>0.81754857301712036</v>
       </c>
       <c r="E312" s="2">
-        <v>0.74390369653701782</v>
+        <v>0.74427115917205811</v>
       </c>
     </row>
     <row r="313">
@@ -4553,13 +4553,13 @@
         <v>0.56805253028869629</v>
       </c>
       <c r="C313" s="2">
-        <v>0.99287664890289307</v>
+        <v>0.99287474155426025</v>
       </c>
       <c r="D313" s="2">
         <v>0.93562400341033936</v>
       </c>
       <c r="E313" s="2">
-        <v>0.85418123006820679</v>
+        <v>0.85449796915054321</v>
       </c>
     </row>
     <row r="314">
@@ -4570,13 +4570,13 @@
         <v>1.5628843307495117</v>
       </c>
       <c r="C314" s="2">
-        <v>1.4453284740447998</v>
+        <v>1.4456450939178467</v>
       </c>
       <c r="D314" s="2">
         <v>1.0999102592468262</v>
       </c>
       <c r="E314" s="2">
-        <v>1.0096577405929565</v>
+        <v>1.0100146532058716</v>
       </c>
     </row>
     <row r="315">
@@ -4587,13 +4587,13 @@
         <v>0.73937433958053589</v>
       </c>
       <c r="C315" s="2">
-        <v>0.42158797383308411</v>
+        <v>0.42153787612915039</v>
       </c>
       <c r="D315" s="2">
-        <v>1.1503597497940063</v>
+        <v>1.1503597497940064</v>
       </c>
       <c r="E315" s="2">
-        <v>1.0315254926681519</v>
+        <v>1.0318911075592041</v>
       </c>
     </row>
     <row r="316">
@@ -4604,13 +4604,13 @@
         <v>0.37538883090019226</v>
       </c>
       <c r="C316" s="2">
-        <v>0.18881887197494507</v>
+        <v>0.18946434557437897</v>
       </c>
       <c r="D316" s="2">
         <v>1.1143773794174194</v>
       </c>
       <c r="E316" s="2">
-        <v>0.98909038305282593</v>
+        <v>0.98940449953079224</v>
       </c>
     </row>
     <row r="317">
@@ -4621,13 +4621,13 @@
         <v>1.46260666847229</v>
       </c>
       <c r="C317" s="2">
-        <v>1.314021110534668</v>
+        <v>1.3143594264984131</v>
       </c>
       <c r="D317" s="2">
-        <v>0.94556421041488647</v>
+        <v>0.94556421041488648</v>
       </c>
       <c r="E317" s="2">
-        <v>0.80072307586669922</v>
+        <v>0.80102801322937012</v>
       </c>
     </row>
     <row r="318">
@@ -4638,13 +4638,13 @@
         <v>0.99396336078643799</v>
       </c>
       <c r="C318" s="2">
-        <v>0.66860508918762207</v>
+        <v>0.66945618391036987</v>
       </c>
       <c r="D318" s="2">
         <v>0.9559025764465332</v>
       </c>
       <c r="E318" s="2">
-        <v>0.72259992361068726</v>
+        <v>0.72293722629547119</v>
       </c>
     </row>
     <row r="319">
@@ -4655,13 +4655,13 @@
         <v>1.4681437015533447</v>
       </c>
       <c r="C319" s="2">
-        <v>1.0618950128555298</v>
+        <v>1.0622333288192749</v>
       </c>
       <c r="D319" s="2">
         <v>0.93070501089096069</v>
       </c>
       <c r="E319" s="2">
-        <v>0.66579687595367432</v>
+        <v>0.66616642475128174</v>
       </c>
     </row>
     <row r="320">
@@ -4672,13 +4672,13 @@
         <v>1.2476351261138916</v>
       </c>
       <c r="C320" s="2">
-        <v>1.1302217245101929</v>
+        <v>1.1301258802413941</v>
       </c>
       <c r="D320" s="2">
         <v>1.000348687171936</v>
       </c>
       <c r="E320" s="2">
-        <v>0.74419581890106201</v>
+        <v>0.74458473920822144</v>
       </c>
     </row>
     <row r="321">
@@ -4689,13 +4689,13 @@
         <v>0.092029169201850891</v>
       </c>
       <c r="C321" s="2">
-        <v>-0.016847092658281326</v>
+        <v>-0.016444772481918335</v>
       </c>
       <c r="D321" s="2">
         <v>1.0339717864990234</v>
       </c>
       <c r="E321" s="2">
-        <v>0.8534386157989502</v>
+        <v>0.85376989841461182</v>
       </c>
     </row>
     <row r="322">
@@ -4706,13 +4706,13 @@
         <v>0.66109788417816162</v>
       </c>
       <c r="C322" s="2">
-        <v>0.28976836800575256</v>
+        <v>0.29005742073059082</v>
       </c>
       <c r="D322" s="2">
         <v>0.93579024076461792</v>
       </c>
       <c r="E322" s="2">
-        <v>0.74718332290649414</v>
+        <v>0.74749678373336792</v>
       </c>
     </row>
     <row r="323">
@@ -4723,13 +4723,13 @@
         <v>1.3361060619354248</v>
       </c>
       <c r="C323" s="2">
-        <v>0.93410086631774902</v>
+        <v>0.9347078800201416</v>
       </c>
       <c r="D323" s="2">
         <v>0.92109745740890503</v>
       </c>
       <c r="E323" s="2">
-        <v>0.74394184350967407</v>
+        <v>0.74422335624694824</v>
       </c>
     </row>
     <row r="324">
@@ -4740,13 +4740,13 @@
         <v>1.3661671876907349</v>
       </c>
       <c r="C324" s="2">
-        <v>1.1271785497665405</v>
+        <v>1.1273031234741211</v>
       </c>
       <c r="D324" s="2">
         <v>0.85225611925125122</v>
       </c>
       <c r="E324" s="2">
-        <v>0.70839971303939819</v>
+        <v>0.70865774154663086</v>
       </c>
     </row>
     <row r="325">
@@ -4757,13 +4757,13 @@
         <v>0.67799729108810425</v>
       </c>
       <c r="C325" s="2">
-        <v>1.1720038652420044</v>
+        <v>1.172130823135376</v>
       </c>
       <c r="D325" s="2">
         <v>0.81152629852294922</v>
       </c>
       <c r="E325" s="2">
-        <v>0.67468154430389404</v>
+        <v>0.67486149072647095</v>
       </c>
     </row>
     <row r="326">
@@ -4774,13 +4774,13 @@
         <v>0.5789724588394165</v>
       </c>
       <c r="C326" s="2">
-        <v>0.35772326588630676</v>
+        <v>0.35790100693702698</v>
       </c>
       <c r="D326" s="2">
         <v>0.93742728233337402</v>
       </c>
       <c r="E326" s="2">
-        <v>0.79597002267837524</v>
+        <v>0.79612928628921509</v>
       </c>
     </row>
     <row r="327">
@@ -4791,13 +4791,13 @@
         <v>0.8617284893989563</v>
       </c>
       <c r="C327" s="2">
-        <v>0.63943225145339966</v>
+        <v>0.63999539613723755</v>
       </c>
       <c r="D327" s="2">
         <v>0.97826093435287476</v>
       </c>
       <c r="E327" s="2">
-        <v>0.8528066873550415</v>
+        <v>0.85299956798553467</v>
       </c>
     </row>
     <row r="328">
@@ -4808,13 +4808,13 @@
         <v>0.84857147932052612</v>
       </c>
       <c r="C328" s="2">
-        <v>0.74201536178588867</v>
+        <v>0.74214291572570801</v>
       </c>
       <c r="D328" s="2">
         <v>0.93273746967315674</v>
       </c>
       <c r="E328" s="2">
-        <v>0.85482358932495117</v>
+        <v>0.85487163066864014</v>
       </c>
     </row>
     <row r="329">
@@ -4825,13 +4825,13 @@
         <v>0.88106644153594971</v>
       </c>
       <c r="C329" s="2">
-        <v>0.82675838470458984</v>
+        <v>0.82595980167388916</v>
       </c>
       <c r="D329" s="2">
-        <v>0.82271802425384521</v>
+        <v>0.82271802425384522</v>
       </c>
       <c r="E329" s="2">
-        <v>0.78119516372680664</v>
+        <v>0.7811589241027832</v>
       </c>
     </row>
     <row r="330">
@@ -4842,13 +4842,13 @@
         <v>1.2251380681991577</v>
       </c>
       <c r="C330" s="2">
-        <v>1.0747491121292114</v>
+        <v>1.0749650001525879</v>
       </c>
       <c r="D330" s="2">
-        <v>0.85231399536132812</v>
+        <v>0.85231399536132813</v>
       </c>
       <c r="E330" s="2">
-        <v>0.73417794704437256</v>
+        <v>0.73417258262634277</v>
       </c>
     </row>
     <row r="331">
@@ -4859,13 +4859,13 @@
         <v>1.0286011695861816</v>
       </c>
       <c r="C331" s="2">
-        <v>0.80129879713058472</v>
+        <v>0.80189019441604614</v>
       </c>
       <c r="D331" s="2">
         <v>0.89910435676574707</v>
       </c>
       <c r="E331" s="2">
-        <v>0.79639577865600586</v>
+        <v>0.79640603065490723</v>
       </c>
     </row>
     <row r="332">
@@ -4876,13 +4876,13 @@
         <v>0.92639487981796265</v>
       </c>
       <c r="C332" s="2">
-        <v>0.95225274562835693</v>
+        <v>0.9515565037727356</v>
       </c>
       <c r="D332" s="2">
         <v>0.97743362188339233</v>
       </c>
       <c r="E332" s="2">
-        <v>0.8480110764503479</v>
+        <v>0.84796732664108276</v>
       </c>
     </row>
     <row r="333">
@@ -4893,13 +4893,13 @@
         <v>0.37599179148674011</v>
       </c>
       <c r="C333" s="2">
-        <v>0.4645226001739502</v>
+        <v>0.46388882398605347</v>
       </c>
       <c r="D333" s="2">
         <v>1.0743964910507202</v>
       </c>
       <c r="E333" s="2">
-        <v>0.93021482229232788</v>
+        <v>0.93020373582839966</v>
       </c>
     </row>
     <row r="334">
@@ -4907,16 +4907,16 @@
         <v>38596</v>
       </c>
       <c r="B334" s="2">
-        <v>0.94436109066009521</v>
+        <v>0.94436109066009522</v>
       </c>
       <c r="C334" s="2">
-        <v>0.74884921312332153</v>
+        <v>0.74925380945205688</v>
       </c>
       <c r="D334" s="2">
         <v>0.97155135869979858</v>
       </c>
       <c r="E334" s="2">
-        <v>0.78671425580978394</v>
+        <v>0.78687900304794312</v>
       </c>
     </row>
     <row r="335">
@@ -4927,13 +4927,13 @@
         <v>1.0000859498977661</v>
       </c>
       <c r="C335" s="2">
-        <v>0.91768330335617065</v>
+        <v>0.91800171136856079</v>
       </c>
       <c r="D335" s="2">
         <v>1.0137605667114258</v>
       </c>
       <c r="E335" s="2">
-        <v>0.82252997159957886</v>
+        <v>0.82271605730056763</v>
       </c>
     </row>
     <row r="336">
@@ -4944,13 +4944,13 @@
         <v>1.5666918754577637</v>
       </c>
       <c r="C336" s="2">
-        <v>1.103969931602478</v>
+        <v>1.104047417640686</v>
       </c>
       <c r="D336" s="2">
         <v>0.86322373151779175</v>
       </c>
       <c r="E336" s="2">
-        <v>0.68229430913925171</v>
+        <v>0.68242895603179932</v>
       </c>
     </row>
     <row r="337">
@@ -4961,13 +4961,13 @@
         <v>1.7212371826171875</v>
       </c>
       <c r="C337" s="2">
-        <v>1.4818490743637085</v>
+        <v>1.482270359992981</v>
       </c>
       <c r="D337" s="2">
         <v>0.95414084196090698</v>
       </c>
       <c r="E337" s="2">
-        <v>0.7531050443649292</v>
+        <v>0.75338929891586304</v>
       </c>
     </row>
     <row r="338">
@@ -4978,13 +4978,13 @@
         <v>-0.04453996941447258</v>
       </c>
       <c r="C338" s="2">
-        <v>-0.4647463858127594</v>
+        <v>-0.46396300196647644</v>
       </c>
       <c r="D338" s="2">
         <v>1.1469392776489258</v>
       </c>
       <c r="E338" s="2">
-        <v>0.92321240901947021</v>
+        <v>0.92357087135314942</v>
       </c>
     </row>
     <row r="339">
@@ -4995,13 +4995,13 @@
         <v>1.6050214767456055</v>
       </c>
       <c r="C339" s="2">
-        <v>1.3970903158187866</v>
+        <v>1.3974986076354981</v>
       </c>
       <c r="D339" s="2">
         <v>1.1296859979629517</v>
       </c>
       <c r="E339" s="2">
-        <v>0.88027775287628174</v>
+        <v>0.88065868616104126</v>
       </c>
     </row>
     <row r="340">
@@ -5012,13 +5012,13 @@
         <v>-0.32623058557510376</v>
       </c>
       <c r="C340" s="2">
-        <v>-0.46082225441932678</v>
+        <v>-0.46069380640983582</v>
       </c>
       <c r="D340" s="2">
         <v>1.1529141664505005</v>
       </c>
       <c r="E340" s="2">
-        <v>0.90203839540481567</v>
+        <v>0.90242195129394531</v>
       </c>
     </row>
     <row r="341">
@@ -5029,13 +5029,13 @@
         <v>1.7446486949920654</v>
       </c>
       <c r="C341" s="2">
-        <v>1.5895497798919678</v>
+        <v>1.5901998281478882</v>
       </c>
       <c r="D341" s="2">
         <v>0.88070487976074219</v>
       </c>
       <c r="E341" s="2">
-        <v>0.61310297250747681</v>
+        <v>0.6134987473487854</v>
       </c>
     </row>
     <row r="342">
@@ -5046,13 +5046,13 @@
         <v>2.1111781597137451</v>
       </c>
       <c r="C342" s="2">
-        <v>1.9954887628555298</v>
+        <v>1.9955227375030518</v>
       </c>
       <c r="D342" s="2">
         <v>0.74200582504272461</v>
       </c>
       <c r="E342" s="2">
-        <v>0.5020098090171814</v>
+        <v>0.50239706039428711</v>
       </c>
     </row>
     <row r="343">
@@ -5060,16 +5060,16 @@
         <v>38869</v>
       </c>
       <c r="B343" s="2">
-        <v>0.78908157348632812</v>
+        <v>0.78908157348632813</v>
       </c>
       <c r="C343" s="2">
-        <v>0.36243745684623718</v>
+        <v>0.36304435133934021</v>
       </c>
       <c r="D343" s="2">
         <v>0.83294153213500977</v>
       </c>
       <c r="E343" s="2">
-        <v>0.61113011837005615</v>
+        <v>0.61146664619445801</v>
       </c>
     </row>
     <row r="344">
@@ -5080,13 +5080,13 @@
         <v>1.209139347076416</v>
       </c>
       <c r="C344" s="2">
-        <v>1.1135287284851074</v>
+        <v>1.1138713359832764</v>
       </c>
       <c r="D344" s="2">
         <v>0.8226657509803772</v>
       </c>
       <c r="E344" s="2">
-        <v>0.60269260406494141</v>
+        <v>0.6030460000038147</v>
       </c>
     </row>
     <row r="345">
@@ -5097,13 +5097,13 @@
         <v>-0.88319182395935059</v>
       </c>
       <c r="C345" s="2">
-        <v>-1.4964487552642822</v>
+        <v>-1.4962617158889771</v>
       </c>
       <c r="D345" s="2">
         <v>0.9124876856803894</v>
       </c>
       <c r="E345" s="2">
-        <v>0.68159961700439453</v>
+        <v>0.68196362257003784</v>
       </c>
     </row>
     <row r="346">
@@ -5114,13 +5114,13 @@
         <v>0.47294574975967407</v>
       </c>
       <c r="C346" s="2">
-        <v>0.48201066255569458</v>
+        <v>0.48235523700714111</v>
       </c>
       <c r="D346" s="2">
-        <v>0.83863216638565063</v>
+        <v>0.83863216638565064</v>
       </c>
       <c r="E346" s="2">
-        <v>0.60905951261520386</v>
+        <v>0.6093902587890625</v>
       </c>
     </row>
     <row r="347">
@@ -5131,13 +5131,13 @@
         <v>0.77388107776641846</v>
       </c>
       <c r="C347" s="2">
-        <v>0.51733618974685669</v>
+        <v>0.51766330003738403</v>
       </c>
       <c r="D347" s="2">
         <v>0.76935845613479614</v>
       </c>
       <c r="E347" s="2">
-        <v>0.5067596435546875</v>
+        <v>0.50718957185745239</v>
       </c>
     </row>
     <row r="348">
@@ -5148,13 +5148,13 @@
         <v>1.5125393867492676</v>
       </c>
       <c r="C348" s="2">
-        <v>1.3211526870727539</v>
+        <v>1.3217129707336426</v>
       </c>
       <c r="D348" s="2">
         <v>0.84573310613632202</v>
       </c>
       <c r="E348" s="2">
-        <v>0.61487537622451782</v>
+        <v>0.6152835488319397</v>
       </c>
     </row>
     <row r="349">
@@ -5165,13 +5165,13 @@
         <v>0.48216709494590759</v>
       </c>
       <c r="C349" s="2">
-        <v>0.24934093654155731</v>
+        <v>0.2495647668838501</v>
       </c>
       <c r="D349" s="2">
         <v>0.85027694702148438</v>
       </c>
       <c r="E349" s="2">
-        <v>0.62952077388763428</v>
+        <v>0.6299583911895752</v>
       </c>
     </row>
     <row r="350">
@@ -5182,13 +5182,13 @@
         <v>1.0799490213394165</v>
       </c>
       <c r="C350" s="2">
-        <v>0.93668895959854126</v>
+        <v>0.93703955411911011</v>
       </c>
       <c r="D350" s="2">
         <v>1.050269603729248</v>
       </c>
       <c r="E350" s="2">
-        <v>0.92633205652236938</v>
+        <v>0.92671477794647217</v>
       </c>
     </row>
     <row r="351">
@@ -5199,13 +5199,13 @@
         <v>1.4877148866653442</v>
       </c>
       <c r="C351" s="2">
-        <v>1.0747901201248169</v>
+        <v>1.0757163763046265</v>
       </c>
       <c r="D351" s="2">
         <v>1.1629682779312134</v>
       </c>
       <c r="E351" s="2">
-        <v>1.0414618253707886</v>
+        <v>1.0417921543121338</v>
       </c>
     </row>
     <row r="352">
@@ -5216,13 +5216,13 @@
         <v>1.4764531850814819</v>
       </c>
       <c r="C352" s="2">
-        <v>1.3354790210723877</v>
+        <v>1.3358902931213379</v>
       </c>
       <c r="D352" s="2">
         <v>1.2526540756225586</v>
       </c>
       <c r="E352" s="2">
-        <v>1.1443099975585938</v>
+        <v>1.1446366310119629</v>
       </c>
     </row>
     <row r="353">
@@ -5233,13 +5233,13 @@
         <v>1.250033974647522</v>
       </c>
       <c r="C353" s="2">
-        <v>1.2453372478485107</v>
+        <v>1.2459449768066406</v>
       </c>
       <c r="D353" s="2">
         <v>1.2666057348251343</v>
       </c>
       <c r="E353" s="2">
-        <v>1.1804955005645752</v>
+        <v>1.1807515621185303</v>
       </c>
     </row>
     <row r="354">
@@ -5250,13 +5250,13 @@
         <v>0.91674226522445679</v>
       </c>
       <c r="C354" s="2">
-        <v>1.174852728843689</v>
+        <v>1.1745452880859375</v>
       </c>
       <c r="D354" s="2">
         <v>1.327772855758667</v>
       </c>
       <c r="E354" s="2">
-        <v>1.2427389621734619</v>
+        <v>1.243036150932312</v>
       </c>
     </row>
     <row r="355">
@@ -5267,13 +5267,13 @@
         <v>1.4872337579727173</v>
       </c>
       <c r="C355" s="2">
-        <v>1.5181790590286255</v>
+        <v>1.5180521011352539</v>
       </c>
       <c r="D355" s="2">
         <v>1.3739309310913086</v>
       </c>
       <c r="E355" s="2">
-        <v>1.2948004007339478</v>
+        <v>1.2950667142868042</v>
       </c>
     </row>
     <row r="356">
@@ -5284,13 +5284,13 @@
         <v>1.5810526609420776</v>
       </c>
       <c r="C356" s="2">
-        <v>1.4429693222045898</v>
+        <v>1.4432635307312012</v>
       </c>
       <c r="D356" s="2">
         <v>1.1782811880111694</v>
       </c>
       <c r="E356" s="2">
-        <v>1.1344335079193115</v>
+        <v>1.1346043348312378</v>
       </c>
     </row>
     <row r="357">
@@ -5301,13 +5301,13 @@
         <v>1.6381043195724487</v>
       </c>
       <c r="C357" s="2">
-        <v>1.6468220949172974</v>
+        <v>1.6467467546463013</v>
       </c>
       <c r="D357" s="2">
-        <v>1.1397476196289062</v>
+        <v>1.1397476196289063</v>
       </c>
       <c r="E357" s="2">
-        <v>1.0915554761886597</v>
+        <v>1.091675877571106</v>
       </c>
     </row>
     <row r="358">
@@ -5318,13 +5318,13 @@
         <v>1.0326718091964722</v>
       </c>
       <c r="C358" s="2">
-        <v>0.80953192710876465</v>
+        <v>0.81012600660324097</v>
       </c>
       <c r="D358" s="2">
         <v>1.1061015129089355</v>
       </c>
       <c r="E358" s="2">
-        <v>1.0339373350143433</v>
+        <v>1.0340070724487305</v>
       </c>
     </row>
     <row r="359">
@@ -5335,13 +5335,13 @@
         <v>1.4953709840774536</v>
       </c>
       <c r="C359" s="2">
-        <v>1.4052419662475586</v>
+        <v>1.4053155183792114</v>
       </c>
       <c r="D359" s="2">
         <v>1.0519428253173828</v>
       </c>
       <c r="E359" s="2">
-        <v>0.93653345108032227</v>
+        <v>0.93663108348846436</v>
       </c>
     </row>
     <row r="360">
@@ -5352,13 +5352,13 @@
         <v>-0.27313265204429626</v>
       </c>
       <c r="C360" s="2">
-        <v>-0.36851215362548828</v>
+        <v>-0.36844542622566223</v>
       </c>
       <c r="D360" s="2">
         <v>0.94394612312316895</v>
       </c>
       <c r="E360" s="2">
-        <v>0.81866353750228882</v>
+        <v>0.81875520944595337</v>
       </c>
     </row>
     <row r="361">
@@ -5369,13 +5369,13 @@
         <v>1.1296514272689819</v>
       </c>
       <c r="C361" s="2">
-        <v>0.94957733154296875</v>
+        <v>0.94953447580337524</v>
       </c>
       <c r="D361" s="2">
         <v>0.76388567686080933</v>
       </c>
       <c r="E361" s="2">
-        <v>0.7123178243637085</v>
+        <v>0.71239089965820313</v>
       </c>
     </row>
     <row r="362">
@@ -5386,13 +5386,13 @@
         <v>0.9472193717956543</v>
       </c>
       <c r="C362" s="2">
-        <v>0.72677397727966309</v>
+        <v>0.72692489624023438</v>
       </c>
       <c r="D362" s="2">
         <v>0.54172438383102417</v>
       </c>
       <c r="E362" s="2">
-        <v>0.46604400873184204</v>
+        <v>0.46609994769096375</v>
       </c>
     </row>
     <row r="363">
@@ -5403,13 +5403,13 @@
         <v>0.42931383848190308</v>
       </c>
       <c r="C363" s="2">
-        <v>0.29821750521659851</v>
+        <v>0.29816201329231262</v>
       </c>
       <c r="D363" s="2">
         <v>0.4697323739528656</v>
       </c>
       <c r="E363" s="2">
-        <v>0.38425752520561218</v>
+        <v>0.38426369428634644</v>
       </c>
     </row>
     <row r="364">
@@ -5420,13 +5420,13 @@
         <v>0.51526331901550293</v>
       </c>
       <c r="C364" s="2">
-        <v>0.45734977722167969</v>
+        <v>0.45716926455497742</v>
       </c>
       <c r="D364" s="2">
         <v>0.28652283549308777</v>
       </c>
       <c r="E364" s="2">
-        <v>0.18948593735694885</v>
+        <v>0.18951106071472168</v>
       </c>
     </row>
     <row r="365">
@@ -5437,13 +5437,13 @@
         <v>-0.039491485804319382</v>
       </c>
       <c r="C365" s="2">
-        <v>0.48585772514343262</v>
+        <v>0.48598459362983704</v>
       </c>
       <c r="D365" s="2">
         <v>0.40503662824630737</v>
       </c>
       <c r="E365" s="2">
-        <v>0.30331838130950928</v>
+        <v>0.30337220430374146</v>
       </c>
     </row>
     <row r="366">
@@ -5454,13 +5454,13 @@
         <v>-0.3613470196723938</v>
       </c>
       <c r="C366" s="2">
-        <v>-0.56964200735092163</v>
+        <v>-0.56987190246582031</v>
       </c>
       <c r="D366" s="2">
-        <v>0.3030422031879425</v>
+        <v>0.30304220318794251</v>
       </c>
       <c r="E366" s="2">
-        <v>0.19325137138366699</v>
+        <v>0.19332887232303619</v>
       </c>
     </row>
     <row r="367">
@@ -5471,13 +5471,13 @@
         <v>0.38474345207214355</v>
       </c>
       <c r="C367" s="2">
-        <v>0.07345348596572876</v>
+        <v>0.073599793016910553</v>
       </c>
       <c r="D367" s="2">
         <v>0.192133828997612</v>
       </c>
       <c r="E367" s="2">
-        <v>0.080483600497245789</v>
+        <v>0.080552011728286743</v>
       </c>
     </row>
     <row r="368">
@@ -5488,13 +5488,13 @@
         <v>-0.15351486206054688</v>
       </c>
       <c r="C368" s="2">
-        <v>-0.34770217537879944</v>
+        <v>-0.34745818376541138</v>
       </c>
       <c r="D368" s="2">
         <v>0.21625897288322449</v>
       </c>
       <c r="E368" s="2">
-        <v>0.10146840661764145</v>
+        <v>0.10156995058059692</v>
       </c>
     </row>
     <row r="369">
@@ -5505,13 +5505,13 @@
         <v>0.79349154233932495</v>
       </c>
       <c r="C369" s="2">
-        <v>0.65597975254058838</v>
+        <v>0.65630501508712769</v>
       </c>
       <c r="D369" s="2">
         <v>0.1829356849193573</v>
       </c>
       <c r="E369" s="2">
-        <v>0.046367213129997253</v>
+        <v>0.046482037752866745</v>
       </c>
     </row>
     <row r="370">
@@ -5522,13 +5522,13 @@
         <v>0.21170161664485931</v>
       </c>
       <c r="C370" s="2">
-        <v>-0.041025765240192413</v>
+        <v>-0.040855608880519867</v>
       </c>
       <c r="D370" s="2">
         <v>0.33001428842544556</v>
       </c>
       <c r="E370" s="2">
-        <v>0.12234561145305634</v>
+        <v>0.12247603386640549</v>
       </c>
     </row>
     <row r="371">
@@ -5539,13 +5539,13 @@
         <v>-0.05095590278506279</v>
       </c>
       <c r="C371" s="2">
-        <v>-0.28813588619232178</v>
+        <v>-0.28806686401367188</v>
       </c>
       <c r="D371" s="2">
         <v>0.45911511778831482</v>
       </c>
       <c r="E371" s="2">
-        <v>0.27867358922958374</v>
+        <v>0.27882778644561768</v>
       </c>
     </row>
     <row r="372">
@@ -5556,13 +5556,13 @@
         <v>0.64644014835357666</v>
       </c>
       <c r="C372" s="2">
-        <v>0.48708072304725647</v>
+        <v>0.48732346296310425</v>
       </c>
       <c r="D372" s="2">
         <v>0.4512697160243988</v>
       </c>
       <c r="E372" s="2">
-        <v>0.28448471426963806</v>
+        <v>0.28461664915084839</v>
       </c>
     </row>
     <row r="373">
@@ -5573,13 +5573,13 @@
         <v>0.21535365283489227</v>
       </c>
       <c r="C373" s="2">
-        <v>-0.038560930639505386</v>
+        <v>-0.038621962070465088</v>
       </c>
       <c r="D373" s="2">
         <v>0.61973947286605835</v>
       </c>
       <c r="E373" s="2">
-        <v>0.44438222050666809</v>
+        <v>0.44450423121452332</v>
       </c>
     </row>
     <row r="374">
@@ -5590,13 +5590,13 @@
         <v>1.2842159271240234</v>
       </c>
       <c r="C374" s="2">
-        <v>1.1696633100509644</v>
+        <v>1.1699305772781372</v>
       </c>
       <c r="D374" s="2">
         <v>0.61039769649505615</v>
       </c>
       <c r="E374" s="2">
-        <v>0.42818757891654968</v>
+        <v>0.42822948098182678</v>
       </c>
     </row>
     <row r="375">
@@ -5607,13 +5607,13 @@
         <v>0.8005605936050415</v>
       </c>
       <c r="C375" s="2">
-        <v>0.83730965852737427</v>
+        <v>0.83729374408721924</v>
       </c>
       <c r="D375" s="2">
         <v>0.63082516193389893</v>
       </c>
       <c r="E375" s="2">
-        <v>0.45637661218643188</v>
+        <v>0.45640119910240173</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>0.31413483619689941</v>
       </c>
       <c r="C376" s="2">
-        <v>0.12575384974479675</v>
+        <v>0.12569975852966309</v>
       </c>
       <c r="D376" s="2">
         <v>0.62528997659683228</v>
       </c>
       <c r="E376" s="2">
-        <v>0.47820344567298889</v>
+        <v>0.47818928956985474</v>
       </c>
     </row>
     <row r="377">
@@ -5641,13 +5641,13 @@
         <v>1.3627126216888428</v>
       </c>
       <c r="C377" s="2">
-        <v>1.0913753509521484</v>
+        <v>1.0915298461914063</v>
       </c>
       <c r="D377" s="2">
         <v>0.5664517879486084</v>
       </c>
       <c r="E377" s="2">
-        <v>0.42276352643966675</v>
+        <v>0.4227401614189148</v>
       </c>
     </row>
     <row r="378">
@@ -5658,13 +5658,13 @@
         <v>0.70941591262817383</v>
       </c>
       <c r="C378" s="2">
-        <v>0.51022791862487793</v>
+        <v>0.50983238220214844</v>
       </c>
       <c r="D378" s="2">
-        <v>0.59306252002716064</v>
+        <v>0.59306252002716065</v>
       </c>
       <c r="E378" s="2">
-        <v>0.47869530320167542</v>
+        <v>0.47870421409606934</v>
       </c>
     </row>
     <row r="379">
@@ -5675,13 +5675,13 @@
         <v>0.39554858207702637</v>
       </c>
       <c r="C379" s="2">
-        <v>0.21267551183700562</v>
+        <v>0.21268987655639648</v>
       </c>
       <c r="D379" s="2">
         <v>0.44809642434120178</v>
       </c>
       <c r="E379" s="2">
-        <v>0.32891437411308289</v>
+        <v>0.32887595891952515</v>
       </c>
     </row>
     <row r="380">
@@ -5692,13 +5692,13 @@
         <v>-0.10077229142189026</v>
       </c>
       <c r="C380" s="2">
-        <v>-0.091694355010986328</v>
+        <v>-0.091974198818206787</v>
       </c>
       <c r="D380" s="2">
         <v>0.40597635507583618</v>
       </c>
       <c r="E380" s="2">
-        <v>0.25586473941802979</v>
+        <v>0.25582414865493775</v>
       </c>
     </row>
     <row r="381">
@@ -5709,13 +5709,13 @@
         <v>0.11689631640911102</v>
       </c>
       <c r="C381" s="2">
-        <v>-0.011878636665642262</v>
+        <v>-0.011718481779098511</v>
       </c>
       <c r="D381" s="2">
         <v>0.44833150506019592</v>
       </c>
       <c r="E381" s="2">
-        <v>0.29325780272483826</v>
+        <v>0.29322138428688049</v>
       </c>
     </row>
     <row r="382">
@@ -5726,13 +5726,13 @@
         <v>0.45485028624534607</v>
       </c>
       <c r="C382" s="2">
-        <v>0.46482503414154053</v>
+        <v>0.46505439281463623</v>
       </c>
       <c r="D382" s="2">
         <v>0.29954487085342407</v>
       </c>
       <c r="E382" s="2">
-        <v>0.095004796981811523</v>
+        <v>0.094976603984832764</v>
       </c>
     </row>
     <row r="383">
@@ -5743,13 +5743,13 @@
         <v>-0.020478913560509682</v>
       </c>
       <c r="C383" s="2">
-        <v>-0.17836494743824005</v>
+        <v>-0.17852357029914856</v>
       </c>
       <c r="D383" s="2">
         <v>0.3782193660736084</v>
       </c>
       <c r="E383" s="2">
-        <v>0.17287306487560272</v>
+        <v>0.17293235659599304</v>
       </c>
     </row>
     <row r="384">
@@ -5760,13 +5760,13 @@
         <v>0.42147979140281677</v>
       </c>
       <c r="C384" s="2">
-        <v>0.17986291646957397</v>
+        <v>0.17982743680477142</v>
       </c>
       <c r="D384" s="2">
         <v>0.33594030141830444</v>
       </c>
       <c r="E384" s="2">
-        <v>0.11167482286691666</v>
+        <v>0.11179753392934799</v>
       </c>
     </row>
     <row r="385">
@@ -5777,13 +5777,13 @@
         <v>0.6953311562538147</v>
       </c>
       <c r="C385" s="2">
-        <v>0.46229138970375061</v>
+        <v>0.46227481961250305</v>
       </c>
       <c r="D385" s="2">
         <v>0.46171224117279053</v>
       </c>
       <c r="E385" s="2">
-        <v>0.22349859774112701</v>
+        <v>0.22359700500965119</v>
       </c>
     </row>
     <row r="386">
@@ -5794,13 +5794,13 @@
         <v>0.023632992058992386</v>
       </c>
       <c r="C386" s="2">
-        <v>-0.69290167093276978</v>
+        <v>-0.6926732063293457</v>
       </c>
       <c r="D386" s="2">
         <v>0.57530373334884644</v>
       </c>
       <c r="E386" s="2">
-        <v>0.32609012722969055</v>
+        <v>0.32615238428115845</v>
       </c>
     </row>
     <row r="387">
@@ -5811,13 +5811,13 @@
         <v>1.4174864292144775</v>
       </c>
       <c r="C387" s="2">
-        <v>1.2110422849655151</v>
+        <v>1.2114341259002686</v>
       </c>
       <c r="D387" s="2">
         <v>0.53660774230957031</v>
       </c>
       <c r="E387" s="2">
-        <v>0.23660042881965637</v>
+        <v>0.23670682311058045</v>
       </c>
     </row>
     <row r="388">
@@ -5828,13 +5828,13 @@
         <v>0.01503694336861372</v>
       </c>
       <c r="C388" s="2">
-        <v>-0.33810862898826599</v>
+        <v>-0.33752349019050598</v>
       </c>
       <c r="D388" s="2">
         <v>0.63792628049850464</v>
       </c>
       <c r="E388" s="2">
-        <v>0.35603031516075134</v>
+        <v>0.35620018839836121</v>
       </c>
     </row>
     <row r="389">
@@ -5845,13 +5845,13 @@
         <v>1.0311752557754517</v>
       </c>
       <c r="C389" s="2">
-        <v>0.91471970081329346</v>
+        <v>0.91422098875045776</v>
       </c>
       <c r="D389" s="2">
         <v>0.74791854619979858</v>
       </c>
       <c r="E389" s="2">
-        <v>0.50970238447189331</v>
+        <v>0.50984448194503784</v>
       </c>
     </row>
     <row r="390">
@@ -5862,13 +5862,13 @@
         <v>1.1392196416854858</v>
       </c>
       <c r="C390" s="2">
-        <v>0.91144508123397827</v>
+        <v>0.91128003597259521</v>
       </c>
       <c r="D390" s="2">
         <v>0.80796927213668823</v>
       </c>
       <c r="E390" s="2">
-        <v>0.58044242858886719</v>
+        <v>0.58062452077865601</v>
       </c>
     </row>
     <row r="391">
@@ -5879,13 +5879,13 @@
         <v>0.10658663511276245</v>
       </c>
       <c r="C391" s="2">
-        <v>-0.34058225154876709</v>
+        <v>-0.33995568752288818</v>
       </c>
       <c r="D391" s="2">
         <v>0.79914486408233643</v>
       </c>
       <c r="E391" s="2">
-        <v>0.73628300428390503</v>
+        <v>0.73646599054336548</v>
       </c>
     </row>
     <row r="392">
@@ -5896,13 +5896,13 @@
         <v>0.891387939453125</v>
       </c>
       <c r="C392" s="2">
-        <v>0.89650410413742065</v>
+        <v>0.89691674709320068</v>
       </c>
       <c r="D392" s="2">
         <v>0.70701056718826294</v>
       </c>
       <c r="E392" s="2">
-        <v>0.64007425308227539</v>
+        <v>0.64023870229721069</v>
       </c>
     </row>
     <row r="393">
@@ -5913,13 +5913,13 @@
         <v>1.4114097356796265</v>
       </c>
       <c r="C393" s="2">
-        <v>1.5629112720489502</v>
+        <v>1.5626257658004761</v>
       </c>
       <c r="D393" s="2">
         <v>0.74123650789260864</v>
       </c>
       <c r="E393" s="2">
-        <v>0.67467772960662842</v>
+        <v>0.67483121156692505</v>
       </c>
     </row>
     <row r="394">
@@ -5930,13 +5930,13 @@
         <v>1.2357876300811768</v>
       </c>
       <c r="C394" s="2">
-        <v>1.098952054977417</v>
+        <v>1.0992953777313232</v>
       </c>
       <c r="D394" s="2">
         <v>0.6642032265663147</v>
       </c>
       <c r="E394" s="2">
-        <v>0.58697032928466797</v>
+        <v>0.5871046781539917</v>
       </c>
     </row>
     <row r="395">
@@ -5947,13 +5947,13 @@
         <v>-0.055786550045013428</v>
       </c>
       <c r="C395" s="2">
-        <v>0.70966356992721558</v>
+        <v>0.70990002155303955</v>
       </c>
       <c r="D395" s="2">
         <v>0.66620290279388428</v>
       </c>
       <c r="E395" s="2">
-        <v>0.60774713754653931</v>
+        <v>0.60792160034179688</v>
       </c>
     </row>
     <row r="396">
@@ -5964,13 +5964,13 @@
         <v>0.58827769756317139</v>
       </c>
       <c r="C396" s="2">
-        <v>0.3451632559299469</v>
+        <v>0.34538856148719788</v>
       </c>
       <c r="D396" s="2">
         <v>0.69698220491409302</v>
       </c>
       <c r="E396" s="2">
-        <v>0.64813238382339478</v>
+        <v>0.64827841520309448</v>
       </c>
     </row>
     <row r="397">
@@ -5981,13 +5981,13 @@
         <v>0.32307064533233643</v>
       </c>
       <c r="C397" s="2">
-        <v>-0.026677113026380539</v>
+        <v>-0.026190930977463722</v>
       </c>
       <c r="D397" s="2">
         <v>0.68773192167282104</v>
       </c>
       <c r="E397" s="2">
-        <v>0.62428522109985352</v>
+        <v>0.62439966201782227</v>
       </c>
     </row>
     <row r="398">
@@ -5998,13 +5998,13 @@
         <v>0.33787578344345093</v>
       </c>
       <c r="C398" s="2">
-        <v>0.12535293400287628</v>
+        <v>0.1246822252869606</v>
       </c>
       <c r="D398" s="2">
         <v>0.50613391399383545</v>
       </c>
       <c r="E398" s="2">
-        <v>0.388805091381073</v>
+        <v>0.38895946741104126</v>
       </c>
     </row>
     <row r="399">
@@ -6015,13 +6015,13 @@
         <v>1.1572164297103882</v>
       </c>
       <c r="C399" s="2">
-        <v>1.0984362363815308</v>
+        <v>1.0986324548721314</v>
       </c>
       <c r="D399" s="2">
         <v>0.42366856336593628</v>
       </c>
       <c r="E399" s="2">
-        <v>0.29929053783416748</v>
+        <v>0.29939648509025574</v>
       </c>
     </row>
     <row r="400">
@@ -6032,13 +6032,13 @@
         <v>0.38360041379928589</v>
       </c>
       <c r="C400" s="2">
-        <v>0.022885238751769066</v>
+        <v>0.023255273699760437</v>
       </c>
       <c r="D400" s="2">
         <v>0.53439468145370483</v>
       </c>
       <c r="E400" s="2">
-        <v>0.30159258842468262</v>
+        <v>0.30166366696357727</v>
       </c>
     </row>
     <row r="401">
@@ -6049,13 +6049,13 @@
         <v>0.8081355094909668</v>
       </c>
       <c r="C401" s="2">
-        <v>0.68187963962554932</v>
+        <v>0.68200808763504028</v>
       </c>
       <c r="D401" s="2">
         <v>0.59262543916702271</v>
       </c>
       <c r="E401" s="2">
-        <v>0.39062920212745667</v>
+        <v>0.39068430662155151</v>
       </c>
     </row>
     <row r="402">
@@ -6063,16 +6063,16 @@
         <v>40664</v>
       </c>
       <c r="B402" s="2">
-        <v>-0.22297209501266479</v>
+        <v>-0.2229720950126648</v>
       </c>
       <c r="C402" s="2">
-        <v>-0.55641001462936401</v>
+        <v>-0.5563359260559082</v>
       </c>
       <c r="D402" s="2">
         <v>0.61332809925079346</v>
       </c>
       <c r="E402" s="2">
-        <v>0.45545998215675354</v>
+        <v>0.45544889569282532</v>
       </c>
     </row>
     <row r="403">
@@ -6083,13 +6083,13 @@
         <v>0.49359923601150513</v>
       </c>
       <c r="C403" s="2">
-        <v>0.29332098364830017</v>
+        <v>0.29322859644889832</v>
       </c>
       <c r="D403" s="2">
         <v>0.65724086761474609</v>
       </c>
       <c r="E403" s="2">
-        <v>0.50878685712814331</v>
+        <v>0.50882953405380249</v>
       </c>
     </row>
     <row r="404">
@@ -6100,13 +6100,13 @@
         <v>0.94074857234954834</v>
       </c>
       <c r="C404" s="2">
-        <v>0.73038220405578613</v>
+        <v>0.7303047776222229</v>
       </c>
       <c r="D404" s="2">
         <v>0.68624377250671387</v>
       </c>
       <c r="E404" s="2">
-        <v>0.51229751110076904</v>
+        <v>0.51237255334854126</v>
       </c>
     </row>
     <row r="405">
@@ -6117,13 +6117,13 @@
         <v>1.1123543977737427</v>
       </c>
       <c r="C405" s="2">
-        <v>1.1464927196502686</v>
+        <v>1.1465741395950317</v>
       </c>
       <c r="D405" s="2">
         <v>0.79494655132293701</v>
       </c>
       <c r="E405" s="2">
-        <v>0.6435120701789856</v>
+        <v>0.64356762170791626</v>
       </c>
     </row>
     <row r="406">
@@ -6131,16 +6131,16 @@
         <v>40787</v>
       </c>
       <c r="B406" s="2">
-        <v>0.50939470529556274</v>
+        <v>0.50939470529556275</v>
       </c>
       <c r="C406" s="2">
-        <v>0.55679994821548462</v>
+        <v>0.55669033527374268</v>
       </c>
       <c r="D406" s="2">
         <v>0.78558570146560669</v>
       </c>
       <c r="E406" s="2">
-        <v>0.61871594190597534</v>
+        <v>0.61879611015319824</v>
       </c>
     </row>
     <row r="407">
@@ -6151,13 +6151,13 @@
         <v>0.73309063911437988</v>
       </c>
       <c r="C407" s="2">
-        <v>0.60529452562332153</v>
+        <v>0.60510826110839844</v>
       </c>
       <c r="D407" s="2">
         <v>0.89520138502120972</v>
       </c>
       <c r="E407" s="2">
-        <v>0.74129849672317505</v>
+        <v>0.74144279956817627</v>
       </c>
     </row>
     <row r="408">
@@ -6168,13 +6168,13 @@
         <v>1.4182426929473877</v>
       </c>
       <c r="C408" s="2">
-        <v>1.1300325393676758</v>
+        <v>1.1305193901062012</v>
       </c>
       <c r="D408" s="2">
         <v>1.0172758102416992</v>
       </c>
       <c r="E408" s="2">
-        <v>0.87755280733108521</v>
+        <v>0.87771594524383545</v>
       </c>
     </row>
     <row r="409">
@@ -6185,13 +6185,13 @@
         <v>1.3619253635406494</v>
       </c>
       <c r="C409" s="2">
-        <v>1.2038160562515259</v>
+        <v>1.2040107250213623</v>
       </c>
       <c r="D409" s="2">
         <v>1.0545041561126709</v>
       </c>
       <c r="E409" s="2">
-        <v>0.94764614105224609</v>
+        <v>0.94782704114913941</v>
       </c>
     </row>
     <row r="410">
@@ -6202,13 +6202,13 @@
         <v>0.7238878607749939</v>
       </c>
       <c r="C410" s="2">
-        <v>0.45871466398239136</v>
+        <v>0.45906442403793335</v>
       </c>
       <c r="D410" s="2">
         <v>0.99352836608886719</v>
       </c>
       <c r="E410" s="2">
-        <v>0.85675114393234253</v>
+        <v>0.85693973302841187</v>
       </c>
     </row>
     <row r="411">
@@ -6219,13 +6219,13 @@
         <v>0.76356881856918335</v>
       </c>
       <c r="C411" s="2">
-        <v>0.54683274030685425</v>
+        <v>0.54748451709747315</v>
       </c>
       <c r="D411" s="2">
         <v>1.0458958148956299</v>
       </c>
       <c r="E411" s="2">
-        <v>0.89821451902389526</v>
+        <v>0.89841067790985108</v>
       </c>
     </row>
     <row r="412">
@@ -6236,13 +6236,13 @@
         <v>1.5922693014144897</v>
       </c>
       <c r="C412" s="2">
-        <v>1.5196100473403931</v>
+        <v>1.5196871757507324</v>
       </c>
       <c r="D412" s="2">
         <v>1.0470746755599976</v>
       </c>
       <c r="E412" s="2">
-        <v>0.9057241678237915</v>
+        <v>0.90596532821655273</v>
       </c>
     </row>
     <row r="413">
@@ -6253,13 +6253,13 @@
         <v>1.2758041620254517</v>
       </c>
       <c r="C413" s="2">
-        <v>1.3612220287322998</v>
+        <v>1.3613046407699585</v>
       </c>
       <c r="D413" s="2">
         <v>0.93214505910873413</v>
       </c>
       <c r="E413" s="2">
-        <v>0.80612117052078247</v>
+        <v>0.80632919073104858</v>
       </c>
     </row>
     <row r="414">
@@ -6270,13 +6270,13 @@
         <v>0.5635717511177063</v>
       </c>
       <c r="C414" s="2">
-        <v>0.32843771576881409</v>
+        <v>0.32858806848526001</v>
       </c>
       <c r="D414" s="2">
         <v>0.9005395770072937</v>
       </c>
       <c r="E414" s="2">
-        <v>0.78139090538024902</v>
+        <v>0.7816389799118042</v>
       </c>
     </row>
     <row r="415">
@@ -6287,13 +6287,13 @@
         <v>0.98070204257965088</v>
       </c>
       <c r="C415" s="2">
-        <v>0.929970383644104</v>
+        <v>0.92992895841598511</v>
       </c>
       <c r="D415" s="2">
         <v>0.97673279047012329</v>
       </c>
       <c r="E415" s="2">
-        <v>0.86495620012283325</v>
+        <v>0.86524707078933716</v>
       </c>
     </row>
     <row r="416">
@@ -6304,13 +6304,13 @@
         <v>0.74370044469833374</v>
       </c>
       <c r="C416" s="2">
-        <v>0.67288130521774292</v>
+        <v>0.6731000542640686</v>
       </c>
       <c r="D416" s="2">
         <v>0.96143466234207153</v>
       </c>
       <c r="E416" s="2">
-        <v>0.85592782497406006</v>
+        <v>0.85615658760070801</v>
       </c>
     </row>
     <row r="417">
@@ -6321,13 +6321,13 @@
         <v>0.38387599587440491</v>
       </c>
       <c r="C417" s="2">
-        <v>0.23360581696033478</v>
+        <v>0.23379392921924591</v>
       </c>
       <c r="D417" s="2">
         <v>0.7767069935798645</v>
       </c>
       <c r="E417" s="2">
-        <v>0.66424620151519775</v>
+        <v>0.66446518898010254</v>
       </c>
     </row>
     <row r="418">
@@ -6338,13 +6338,13 @@
         <v>1.0774756669998169</v>
       </c>
       <c r="C418" s="2">
-        <v>0.98124343156814575</v>
+        <v>0.98179882764816284</v>
       </c>
       <c r="D418" s="2">
         <v>0.82644361257553101</v>
       </c>
       <c r="E418" s="2">
-        <v>0.67287766933441162</v>
+        <v>0.67312979698181152</v>
       </c>
     </row>
     <row r="419">
@@ -6355,13 +6355,13 @@
         <v>1.4096267223358154</v>
       </c>
       <c r="C419" s="2">
-        <v>1.2108023166656494</v>
+        <v>1.2115373611450195</v>
       </c>
       <c r="D419" s="2">
         <v>0.92773544788360596</v>
       </c>
       <c r="E419" s="2">
-        <v>0.77726560831069946</v>
+        <v>0.77749466896057129</v>
       </c>
     </row>
     <row r="420">
@@ -6372,13 +6372,13 @@
         <v>0.62588596343994141</v>
       </c>
       <c r="C420" s="2">
-        <v>0.46557736396789551</v>
+        <v>0.46567031741142273</v>
       </c>
       <c r="D420" s="2">
         <v>0.98916065692901611</v>
       </c>
       <c r="E420" s="2">
-        <v>0.83330994844436646</v>
+        <v>0.83354192972183228</v>
       </c>
     </row>
     <row r="421">
@@ -6389,13 +6389,13 @@
         <v>-0.070279665291309357</v>
       </c>
       <c r="C421" s="2">
-        <v>-0.20552471280097961</v>
+        <v>-0.20553551614284515</v>
       </c>
       <c r="D421" s="2">
         <v>1.0333237648010254</v>
       </c>
       <c r="E421" s="2">
-        <v>0.81561237573623657</v>
+        <v>0.81583845615386963</v>
       </c>
     </row>
     <row r="422">
@@ -6406,13 +6406,13 @@
         <v>1.7234337329864502</v>
       </c>
       <c r="C422" s="2">
-        <v>1.4389052391052246</v>
+        <v>1.4392863512039185</v>
       </c>
       <c r="D422" s="2">
         <v>1.1008400917053223</v>
       </c>
       <c r="E422" s="2">
-        <v>0.86337631940841675</v>
+        <v>0.86360287666320801</v>
       </c>
     </row>
     <row r="423">
@@ -6423,13 +6423,13 @@
         <v>1.4751982688903809</v>
       </c>
       <c r="C423" s="2">
-        <v>1.2679291963577271</v>
+        <v>1.2678718566894531</v>
       </c>
       <c r="D423" s="2">
         <v>1.1697723865509033</v>
       </c>
       <c r="E423" s="2">
-        <v>0.9291566014289856</v>
+        <v>0.92940658330917358</v>
       </c>
     </row>
     <row r="424">
@@ -6440,13 +6440,13 @@
         <v>1.5335286855697632</v>
       </c>
       <c r="C424" s="2">
-        <v>1.4343693256378174</v>
+        <v>1.4343539476394653</v>
       </c>
       <c r="D424" s="2">
         <v>1.2344030141830444</v>
       </c>
       <c r="E424" s="2">
-        <v>0.99385780096054077</v>
+        <v>0.99408590793609619</v>
       </c>
     </row>
     <row r="425">
@@ -6457,13 +6457,13 @@
         <v>1.1411681175231934</v>
       </c>
       <c r="C425" s="2">
-        <v>0.51360362768173218</v>
+        <v>0.51376909017562866</v>
       </c>
       <c r="D425" s="2">
         <v>1.4147522449493408</v>
       </c>
       <c r="E425" s="2">
-        <v>1.1738094091415405</v>
+        <v>1.1740809679031372</v>
       </c>
     </row>
     <row r="426">
@@ -6474,13 +6474,13 @@
         <v>0.9915236234664917</v>
       </c>
       <c r="C426" s="2">
-        <v>0.66348087787628174</v>
+        <v>0.66367357969284058</v>
       </c>
       <c r="D426" s="2">
         <v>1.6246268749237061</v>
       </c>
       <c r="E426" s="2">
-        <v>1.3956670761108398</v>
+        <v>1.3959181308746338</v>
       </c>
     </row>
     <row r="427">
@@ -6491,13 +6491,13 @@
         <v>1.6978662014007568</v>
       </c>
       <c r="C427" s="2">
-        <v>1.5732660293579102</v>
+        <v>1.5740324258804321</v>
       </c>
       <c r="D427" s="2">
         <v>1.5594413280487061</v>
       </c>
       <c r="E427" s="2">
-        <v>1.3388710021972656</v>
+        <v>1.3390758037567139</v>
       </c>
     </row>
     <row r="428">
@@ -6508,13 +6508,13 @@
         <v>1.9913022518157959</v>
       </c>
       <c r="C428" s="2">
-        <v>1.7931132316589355</v>
+        <v>1.7936511039733887</v>
       </c>
       <c r="D428" s="2">
         <v>1.5896600484848022</v>
       </c>
       <c r="E428" s="2">
-        <v>1.3926351070404053</v>
+        <v>1.3929033279418945</v>
       </c>
     </row>
     <row r="429">
@@ -6525,13 +6525,13 @@
         <v>2.2490286827087402</v>
       </c>
       <c r="C429" s="2">
-        <v>2.0851414203643799</v>
+        <v>2.0856254100799561</v>
       </c>
       <c r="D429" s="2">
-        <v>1.6016759872436523</v>
+        <v>1.6016759872436524</v>
       </c>
       <c r="E429" s="2">
-        <v>1.3985592126846313</v>
+        <v>1.3988480567932129</v>
       </c>
     </row>
     <row r="430">
@@ -6542,13 +6542,13 @@
         <v>1.8185924291610718</v>
       </c>
       <c r="C430" s="2">
-        <v>1.7911946773529053</v>
+        <v>1.7909997701644897</v>
       </c>
       <c r="D430" s="2">
         <v>1.6060266494750977</v>
       </c>
       <c r="E430" s="2">
-        <v>1.415558934211731</v>
+        <v>1.4158210754394531</v>
       </c>
     </row>
     <row r="431">
@@ -6559,13 +6559,13 @@
         <v>1.1367636919021606</v>
       </c>
       <c r="C431" s="2">
-        <v>0.92774063348770142</v>
+        <v>0.92770558595657349</v>
       </c>
       <c r="D431" s="2">
         <v>1.6725938320159912</v>
       </c>
       <c r="E431" s="2">
-        <v>1.5098717212677002</v>
+        <v>1.5101611614227295</v>
       </c>
     </row>
     <row r="432">
@@ -6576,13 +6576,13 @@
         <v>1.7471667528152466</v>
       </c>
       <c r="C432" s="2">
-        <v>1.751806378364563</v>
+        <v>1.7523192167282105</v>
       </c>
       <c r="D432" s="2">
         <v>1.6887087821960449</v>
       </c>
       <c r="E432" s="2">
-        <v>1.5196712017059326</v>
+        <v>1.5199263095855713</v>
       </c>
     </row>
     <row r="433">
@@ -6593,13 +6593,13 @@
         <v>1.6416721343994141</v>
       </c>
       <c r="C433" s="2">
-        <v>1.4876863956451416</v>
+        <v>1.4878560304641724</v>
       </c>
       <c r="D433" s="2">
-        <v>1.6580961942672729</v>
+        <v>1.658096194267273</v>
       </c>
       <c r="E433" s="2">
-        <v>1.5122905969619751</v>
+        <v>1.5125093460083008</v>
       </c>
     </row>
     <row r="434">
@@ -6610,13 +6610,13 @@
         <v>1.1803237199783325</v>
       </c>
       <c r="C434" s="2">
-        <v>0.66660070419311523</v>
+        <v>0.66652703285217285</v>
       </c>
       <c r="D434" s="2">
         <v>1.6355855464935303</v>
       </c>
       <c r="E434" s="2">
-        <v>1.4934227466583252</v>
+        <v>1.4935963153839111</v>
       </c>
     </row>
     <row r="435">
@@ -6627,13 +6627,13 @@
         <v>1.5906288623809814</v>
       </c>
       <c r="C435" s="2">
-        <v>1.5122959613800049</v>
+        <v>1.5127333402633667</v>
       </c>
       <c r="D435" s="2">
         <v>1.5878397226333618</v>
       </c>
       <c r="E435" s="2">
-        <v>1.4212090969085693</v>
+        <v>1.4214613437652588</v>
       </c>
     </row>
     <row r="436">
@@ -6644,13 +6644,13 @@
         <v>1.8429009914398193</v>
       </c>
       <c r="C436" s="2">
-        <v>1.6614612340927124</v>
+        <v>1.6619189977645874</v>
       </c>
       <c r="D436" s="2">
         <v>1.6132906675338745</v>
       </c>
       <c r="E436" s="2">
-        <v>1.4507793188095093</v>
+        <v>1.4510356187820435</v>
       </c>
     </row>
     <row r="437">
@@ -6661,13 +6661,13 @@
         <v>1.7157884836196899</v>
       </c>
       <c r="C437" s="2">
-        <v>1.7266879081726074</v>
+        <v>1.726899266242981</v>
       </c>
       <c r="D437" s="2">
         <v>1.5386582612991333</v>
       </c>
       <c r="E437" s="2">
-        <v>1.4165369272232056</v>
+        <v>1.4167355298995972</v>
       </c>
     </row>
     <row r="438">
@@ -6678,13 +6678,13 @@
         <v>2.0464324951171875</v>
       </c>
       <c r="C438" s="2">
-        <v>1.9153305292129517</v>
+        <v>1.915407657623291</v>
       </c>
       <c r="D438" s="2">
         <v>1.534410834312439</v>
       </c>
       <c r="E438" s="2">
-        <v>1.3581631183624268</v>
+        <v>1.3584262132644653</v>
       </c>
     </row>
     <row r="439">
@@ -6695,13 +6695,13 @@
         <v>1.3888800144195557</v>
       </c>
       <c r="C439" s="2">
-        <v>1.1412718296051025</v>
+        <v>1.1417855024337769</v>
       </c>
       <c r="D439" s="2">
         <v>1.5333327054977417</v>
       </c>
       <c r="E439" s="2">
-        <v>1.3942470550537109</v>
+        <v>1.3945082426071167</v>
       </c>
     </row>
     <row r="440">
@@ -6712,13 +6712,13 @@
         <v>1.3658230304718018</v>
       </c>
       <c r="C440" s="2">
-        <v>1.1938728094100952</v>
+        <v>1.1938732862472534</v>
       </c>
       <c r="D440" s="2">
         <v>1.4295583963394165</v>
       </c>
       <c r="E440" s="2">
-        <v>1.2406271696090698</v>
+        <v>1.240904450416565</v>
       </c>
     </row>
     <row r="441">
@@ -6729,13 +6729,13 @@
         <v>1.0754748582839966</v>
       </c>
       <c r="C441" s="2">
-        <v>1.4436254501342773</v>
+        <v>1.4436190128326416</v>
       </c>
       <c r="D441" s="2">
         <v>1.4006568193435669</v>
       </c>
       <c r="E441" s="2">
-        <v>1.1906495094299316</v>
+        <v>1.1909536123275757</v>
       </c>
     </row>
     <row r="442">
@@ -6746,13 +6746,13 @@
         <v>1.6034448146820068</v>
       </c>
       <c r="C442" s="2">
-        <v>0.96232116222381592</v>
+        <v>0.96307212114334106</v>
       </c>
       <c r="D442" s="2">
         <v>1.4128487110137939</v>
       </c>
       <c r="E442" s="2">
-        <v>1.1583617925643921</v>
+        <v>1.1585832834243774</v>
       </c>
     </row>
     <row r="443">
@@ -6763,13 +6763,13 @@
         <v>1.1706207990646362</v>
       </c>
       <c r="C443" s="2">
-        <v>0.99135679006576538</v>
+        <v>0.99126547574996948</v>
       </c>
       <c r="D443" s="2">
-        <v>1.3582217693328857</v>
+        <v>1.3582217693328858</v>
       </c>
       <c r="E443" s="2">
-        <v>1.0926964282989502</v>
+        <v>1.0929423570632935</v>
       </c>
     </row>
     <row r="444">
@@ -6780,13 +6780,13 @@
         <v>0.65665990114212036</v>
       </c>
       <c r="C444" s="2">
-        <v>0.12971650063991547</v>
+        <v>0.13029898703098297</v>
       </c>
       <c r="D444" s="2">
         <v>1.3168988227844238</v>
       </c>
       <c r="E444" s="2">
-        <v>1.0506289005279541</v>
+        <v>1.0508601665496826</v>
       </c>
     </row>
     <row r="445">
@@ -6797,13 +6797,13 @@
         <v>1.5827873945236206</v>
       </c>
       <c r="C445" s="2">
-        <v>1.2116624116897583</v>
+        <v>1.212361216545105</v>
       </c>
       <c r="D445" s="2">
         <v>1.3075152635574341</v>
       </c>
       <c r="E445" s="2">
-        <v>1.0095642805099487</v>
+        <v>1.009904146194458</v>
       </c>
     </row>
     <row r="446">
@@ -6811,16 +6811,16 @@
         <v>42005</v>
       </c>
       <c r="B446" s="2">
-        <v>1.8255156278610229</v>
+        <v>1.825515627861023</v>
       </c>
       <c r="C446" s="2">
-        <v>1.4360986948013306</v>
+        <v>1.4355660676956177</v>
       </c>
       <c r="D446" s="2">
         <v>1.2703428268432617</v>
       </c>
       <c r="E446" s="2">
-        <v>0.9483146071434021</v>
+        <v>0.94867122173309326</v>
       </c>
     </row>
     <row r="447">
@@ -6831,13 +6831,13 @@
         <v>1.5547894239425659</v>
       </c>
       <c r="C447" s="2">
-        <v>1.3243427276611328</v>
+        <v>1.3246390819549561</v>
       </c>
       <c r="D447" s="2">
         <v>1.2818869352340698</v>
       </c>
       <c r="E447" s="2">
-        <v>0.98386448621749878</v>
+        <v>0.98417872190475464</v>
       </c>
     </row>
     <row r="448">
@@ -6848,13 +6848,13 @@
         <v>1.016973614692688</v>
       </c>
       <c r="C448" s="2">
-        <v>0.76266318559646606</v>
+        <v>0.7630462646484375</v>
       </c>
       <c r="D448" s="2">
         <v>1.346238374710083</v>
       </c>
       <c r="E448" s="2">
-        <v>1.0844637155532837</v>
+        <v>1.0847970247268677</v>
       </c>
     </row>
     <row r="449">
@@ -6865,13 +6865,13 @@
         <v>1.2813705205917358</v>
       </c>
       <c r="C449" s="2">
-        <v>0.82429176568984985</v>
+        <v>0.82526928186416626</v>
       </c>
       <c r="D449" s="2">
         <v>1.4492030143737793</v>
       </c>
       <c r="E449" s="2">
-        <v>1.2261836528778076</v>
+        <v>1.2264847755432129</v>
       </c>
     </row>
     <row r="450">
@@ -6882,13 +6882,13 @@
         <v>0.74092298746109009</v>
       </c>
       <c r="C450" s="2">
-        <v>0.89237797260284424</v>
+        <v>0.89252263307571411</v>
       </c>
       <c r="D450" s="2">
         <v>1.3789263963699341</v>
       </c>
       <c r="E450" s="2">
-        <v>1.1686023473739624</v>
+        <v>1.1688895225524902</v>
       </c>
     </row>
     <row r="451">
@@ -6899,13 +6899,13 @@
         <v>1.7073423862457275</v>
       </c>
       <c r="C451" s="2">
-        <v>1.2822704315185547</v>
+        <v>1.2826392650604248</v>
       </c>
       <c r="D451" s="2">
-        <v>1.2904049158096313</v>
+        <v>1.2904049158096314</v>
       </c>
       <c r="E451" s="2">
-        <v>1.0927861928939819</v>
+        <v>1.0930979251861572</v>
       </c>
     </row>
     <row r="452">
@@ -6916,13 +6916,13 @@
         <v>1.7497837543487549</v>
       </c>
       <c r="C452" s="2">
-        <v>1.8967493772506714</v>
+        <v>1.8968304395675659</v>
       </c>
       <c r="D452" s="2">
         <v>1.1345969438552856</v>
       </c>
       <c r="E452" s="2">
-        <v>1.0943963527679443</v>
+        <v>1.0947359800338745</v>
       </c>
     </row>
     <row r="453">
@@ -6933,13 +6933,13 @@
         <v>1.583341121673584</v>
       </c>
       <c r="C453" s="2">
-        <v>1.4051961898803711</v>
+        <v>1.4054883718490601</v>
       </c>
       <c r="D453" s="2">
         <v>1.1442145109176636</v>
       </c>
       <c r="E453" s="2">
-        <v>1.1296058893203735</v>
+        <v>1.1299593448638916</v>
       </c>
     </row>
     <row r="454">
@@ -6950,13 +6950,13 @@
         <v>0.9502984881401062</v>
       </c>
       <c r="C454" s="2">
-        <v>0.69343096017837524</v>
+        <v>0.69400441646575928</v>
       </c>
       <c r="D454" s="2">
         <v>1.1885077953338623</v>
       </c>
       <c r="E454" s="2">
-        <v>1.2149571180343628</v>
+        <v>1.2152026891708374</v>
       </c>
     </row>
     <row r="455">
@@ -6967,13 +6967,13 @@
         <v>1.0288217067718506</v>
       </c>
       <c r="C455" s="2">
-        <v>0.75375330448150635</v>
+        <v>0.75344157218933106</v>
       </c>
       <c r="D455" s="2">
         <v>1.209709644317627</v>
       </c>
       <c r="E455" s="2">
-        <v>1.1870819330215454</v>
+        <v>1.1873310804367066</v>
       </c>
     </row>
     <row r="456">
@@ -6984,13 +6984,13 @@
         <v>0.1525174081325531</v>
       </c>
       <c r="C456" s="2">
-        <v>1.3388345241546631</v>
+        <v>1.3393810987472534</v>
       </c>
       <c r="D456" s="2">
         <v>1.2290585041046143</v>
       </c>
       <c r="E456" s="2">
-        <v>1.2280158996582031</v>
+        <v>1.2282817363739014</v>
       </c>
     </row>
     <row r="457">
@@ -7001,13 +7001,13 @@
         <v>1.1035326719284058</v>
       </c>
       <c r="C457" s="2">
-        <v>1.0795489549636841</v>
+        <v>1.0800570249557495</v>
       </c>
       <c r="D457" s="2">
         <v>1.1567924022674561</v>
       </c>
       <c r="E457" s="2">
-        <v>1.1071155071258545</v>
+        <v>1.1073466539382935</v>
       </c>
     </row>
     <row r="458">
@@ -7018,13 +7018,13 @@
         <v>1.6800093650817871</v>
       </c>
       <c r="C458" s="2">
-        <v>1.5924524068832397</v>
+        <v>1.5924596786499024</v>
       </c>
       <c r="D458" s="2">
         <v>1.1894123554229736</v>
       </c>
       <c r="E458" s="2">
-        <v>1.1558237075805664</v>
+        <v>1.1560945510864258</v>
       </c>
     </row>
     <row r="459">
@@ -7035,13 +7035,13 @@
         <v>0.93174022436141968</v>
       </c>
       <c r="C459" s="2">
-        <v>0.64150118827819824</v>
+        <v>0.6416776180267334</v>
       </c>
       <c r="D459" s="2">
         <v>1.0903040170669556</v>
       </c>
       <c r="E459" s="2">
-        <v>1.0421431064605713</v>
+        <v>1.0423341989517212</v>
       </c>
     </row>
     <row r="460">
@@ -7052,13 +7052,13 @@
         <v>1.8814822435379028</v>
       </c>
       <c r="C460" s="2">
-        <v>1.6506763696670532</v>
+        <v>1.6511949300765991</v>
       </c>
       <c r="D460" s="2">
-        <v>1.182654857635498</v>
+        <v>1.1826548576354981</v>
       </c>
       <c r="E460" s="2">
-        <v>1.1431481838226318</v>
+        <v>1.1434211730957031</v>
       </c>
     </row>
     <row r="461">
@@ -7069,13 +7069,13 @@
         <v>1.0993888378143311</v>
       </c>
       <c r="C461" s="2">
-        <v>0.80864530801773071</v>
+        <v>0.80841559171676636</v>
       </c>
       <c r="D461" s="2">
         <v>1.3846660852432251</v>
       </c>
       <c r="E461" s="2">
-        <v>1.1923955678939819</v>
+        <v>1.1926603317260742</v>
       </c>
     </row>
     <row r="462">
@@ -7086,13 +7086,13 @@
         <v>1.8769205808639526</v>
       </c>
       <c r="C462" s="2">
-        <v>1.8435707092285156</v>
+        <v>1.8442188501358032</v>
       </c>
       <c r="D462" s="2">
         <v>1.3563092947006226</v>
       </c>
       <c r="E462" s="2">
-        <v>1.1259859800338745</v>
+        <v>1.1262270212173462</v>
       </c>
     </row>
     <row r="463">
@@ -7103,13 +7103,13 @@
         <v>0.058323584496974945</v>
       </c>
       <c r="C463" s="2">
-        <v>-0.32969465851783752</v>
+        <v>-0.32983827590942383</v>
       </c>
       <c r="D463" s="2">
         <v>1.3061486482620239</v>
       </c>
       <c r="E463" s="2">
-        <v>1.0595418214797974</v>
+        <v>1.0598264932632446</v>
       </c>
     </row>
     <row r="464">
@@ -7120,13 +7120,13 @@
         <v>1.8599783182144165</v>
       </c>
       <c r="C464" s="2">
-        <v>1.6627991199493408</v>
+        <v>1.6632242202758789</v>
       </c>
       <c r="D464" s="2">
         <v>1.336560845375061</v>
       </c>
       <c r="E464" s="2">
-        <v>1.0800535678863525</v>
+        <v>1.0804126262664795</v>
       </c>
     </row>
     <row r="465">
@@ -7137,13 +7137,13 @@
         <v>1.9706184864044189</v>
       </c>
       <c r="C465" s="2">
-        <v>1.7820605039596558</v>
+        <v>1.7825330495834351</v>
       </c>
       <c r="D465" s="2">
         <v>1.1550354957580566</v>
       </c>
       <c r="E465" s="2">
-        <v>0.90563702583312988</v>
+        <v>0.90602058172225952</v>
       </c>
     </row>
     <row r="466">
@@ -7154,13 +7154,13 @@
         <v>0.84832167625427246</v>
       </c>
       <c r="C466" s="2">
-        <v>0.4818626344203949</v>
+        <v>0.48215803503990173</v>
       </c>
       <c r="D466" s="2">
         <v>1.0597366094589233</v>
       </c>
       <c r="E466" s="2">
-        <v>0.80877768993377686</v>
+        <v>0.80920940637588501</v>
       </c>
     </row>
     <row r="467">
@@ -7171,13 +7171,13 @@
         <v>1.2285635471343994</v>
       </c>
       <c r="C467" s="2">
-        <v>0.99445480108261108</v>
+        <v>0.99485427141189575</v>
       </c>
       <c r="D467" s="2">
         <v>0.85148638486862183</v>
       </c>
       <c r="E467" s="2">
-        <v>0.60903298854827881</v>
+        <v>0.60941648483276367</v>
       </c>
     </row>
     <row r="468">
@@ -7188,13 +7188,13 @@
         <v>1.205450177192688</v>
       </c>
       <c r="C468" s="2">
-        <v>0.82610738277435303</v>
+        <v>0.82695335149765015</v>
       </c>
       <c r="D468" s="2">
         <v>0.8869025707244873</v>
       </c>
       <c r="E468" s="2">
-        <v>0.66079634428024292</v>
+        <v>0.66117233037948608</v>
       </c>
     </row>
     <row r="469">
@@ -7205,13 +7205,13 @@
         <v>0.24775438010692596</v>
       </c>
       <c r="C469" s="2">
-        <v>0.080927379429340363</v>
+        <v>0.081666149199008942</v>
       </c>
       <c r="D469" s="2">
         <v>0.83725899457931519</v>
       </c>
       <c r="E469" s="2">
-        <v>0.6105417013168335</v>
+        <v>0.61086171865463257</v>
       </c>
     </row>
     <row r="470">
@@ -7222,13 +7222,13 @@
         <v>0.24169909954071045</v>
       </c>
       <c r="C470" s="2">
-        <v>-0.063088737428188324</v>
+        <v>-0.062884807586669922</v>
       </c>
       <c r="D470" s="2">
         <v>0.83630985021591187</v>
       </c>
       <c r="E470" s="2">
-        <v>0.6016278862953186</v>
+        <v>0.60185849666595459</v>
       </c>
     </row>
     <row r="471">
@@ -7239,13 +7239,13 @@
         <v>0.0026684550102800131</v>
       </c>
       <c r="C471" s="2">
-        <v>0.045868545770645142</v>
+        <v>0.046082135289907456</v>
       </c>
       <c r="D471" s="2">
         <v>0.95090532302856445</v>
       </c>
       <c r="E471" s="2">
-        <v>0.74493318796157837</v>
+        <v>0.74517053365707397</v>
       </c>
     </row>
     <row r="472">
@@ -7256,13 +7256,13 @@
         <v>0.37706887722015381</v>
       </c>
       <c r="C472" s="2">
-        <v>0.13617554306983948</v>
+        <v>0.13596463203430176</v>
       </c>
       <c r="D472" s="2">
         <v>0.96587347984313965</v>
       </c>
       <c r="E472" s="2">
-        <v>0.73785358667373657</v>
+        <v>0.73810696601867676</v>
       </c>
     </row>
     <row r="473">
@@ -7273,13 +7273,13 @@
         <v>1.4131861925125122</v>
       </c>
       <c r="C473" s="2">
-        <v>1.2105075120925903</v>
+        <v>1.2104285955429077</v>
       </c>
       <c r="D473" s="2">
         <v>1.0048611164093018</v>
       </c>
       <c r="E473" s="2">
-        <v>0.79762488603591919</v>
+        <v>0.79778438806533813</v>
       </c>
     </row>
     <row r="474">
@@ -7290,13 +7290,13 @@
         <v>1.9620761871337891</v>
       </c>
       <c r="C474" s="2">
-        <v>1.7018358707427979</v>
+        <v>1.7015038728713989</v>
       </c>
       <c r="D474" s="2">
         <v>1.1697041988372803</v>
       </c>
       <c r="E474" s="2">
-        <v>0.96150356531143188</v>
+        <v>0.96159756183624268</v>
       </c>
     </row>
     <row r="475">
@@ -7307,13 +7307,13 @@
         <v>1.879680871963501</v>
       </c>
       <c r="C475" s="2">
-        <v>1.7716103792190552</v>
+        <v>1.771966814994812</v>
       </c>
       <c r="D475" s="2">
         <v>1.340476393699646</v>
       </c>
       <c r="E475" s="2">
-        <v>1.1649422645568848</v>
+        <v>1.1650487184524536</v>
       </c>
     </row>
     <row r="476">
@@ -7324,13 +7324,13 @@
         <v>1.3632768392562866</v>
       </c>
       <c r="C476" s="2">
-        <v>0.93073844909667969</v>
+        <v>0.93128174543380737</v>
       </c>
       <c r="D476" s="2">
         <v>1.4777785539627075</v>
       </c>
       <c r="E476" s="2">
-        <v>1.2761049270629883</v>
+        <v>1.2762190103530884</v>
       </c>
     </row>
     <row r="477">
@@ -7341,13 +7341,13 @@
         <v>1.5563391447067261</v>
       </c>
       <c r="C477" s="2">
-        <v>1.364048957824707</v>
+        <v>1.3640505075454712</v>
       </c>
       <c r="D477" s="2">
         <v>1.5902128219604492</v>
       </c>
       <c r="E477" s="2">
-        <v>1.3879534006118774</v>
+        <v>1.3880569934844971</v>
       </c>
     </row>
     <row r="478">
@@ -7358,13 +7358,13 @@
         <v>1.7313425540924072</v>
       </c>
       <c r="C478" s="2">
-        <v>1.5558356046676636</v>
+        <v>1.5559847354888916</v>
       </c>
       <c r="D478" s="2">
         <v>1.4359936714172363</v>
       </c>
       <c r="E478" s="2">
-        <v>1.1798213720321655</v>
+        <v>1.1799664497375488</v>
       </c>
     </row>
     <row r="479">
@@ -7375,13 +7375,13 @@
         <v>1.7786480188369751</v>
       </c>
       <c r="C479" s="2">
-        <v>1.7678591012954712</v>
+        <v>1.7681750059127808</v>
       </c>
       <c r="D479" s="2">
         <v>1.4113755226135254</v>
       </c>
       <c r="E479" s="2">
-        <v>1.1353331804275513</v>
+        <v>1.1355578899383545</v>
       </c>
     </row>
     <row r="480">
@@ -7392,13 +7392,13 @@
         <v>1.2383887767791748</v>
       </c>
       <c r="C480" s="2">
-        <v>1.0463330745697021</v>
+        <v>1.0466150045394898</v>
       </c>
       <c r="D480" s="2">
         <v>1.4024837017059326</v>
       </c>
       <c r="E480" s="2">
-        <v>1.1109611988067627</v>
+        <v>1.1112120151519775</v>
       </c>
     </row>
     <row r="481">
@@ -7409,13 +7409,13 @@
         <v>1.3889771699905396</v>
       </c>
       <c r="C481" s="2">
-        <v>1.1428120136260986</v>
+        <v>1.14250648021698</v>
       </c>
       <c r="D481" s="2">
         <v>1.4491981267929077</v>
       </c>
       <c r="E481" s="2">
-        <v>1.1828738451004028</v>
+        <v>1.183081865310669</v>
       </c>
     </row>
     <row r="482">
@@ -7426,13 +7426,13 @@
         <v>0.025213660672307014</v>
       </c>
       <c r="C482" s="2">
-        <v>-0.6626814603805542</v>
+        <v>-0.66238564252853394</v>
       </c>
       <c r="D482" s="2">
         <v>1.4207800626754761</v>
       </c>
       <c r="E482" s="2">
-        <v>1.1695324182510376</v>
+        <v>1.1697231531143189</v>
       </c>
     </row>
     <row r="483">
@@ -7443,13 +7443,13 @@
         <v>1.7405130863189697</v>
       </c>
       <c r="C483" s="2">
-        <v>1.3014422655105591</v>
+        <v>1.3018263578414917</v>
       </c>
       <c r="D483" s="2">
         <v>1.2586687803268433</v>
       </c>
       <c r="E483" s="2">
-        <v>1.0210412740707397</v>
+        <v>1.0212976932525635</v>
       </c>
     </row>
     <row r="484">
@@ -7460,13 +7460,13 @@
         <v>1.7996540069580078</v>
       </c>
       <c r="C484" s="2">
-        <v>1.5522631406784058</v>
+        <v>1.5528538227081299</v>
       </c>
       <c r="D484" s="2">
         <v>1.2240520715713501</v>
       </c>
       <c r="E484" s="2">
-        <v>0.95989620685577393</v>
+        <v>0.9601399302482605</v>
       </c>
     </row>
     <row r="485">
@@ -7477,13 +7477,13 @@
         <v>1.7837061882019043</v>
       </c>
       <c r="C485" s="2">
-        <v>1.5779514312744141</v>
+        <v>1.5781110525131226</v>
       </c>
       <c r="D485" s="2">
         <v>1.2117211818695068</v>
       </c>
       <c r="E485" s="2">
-        <v>0.99805665016174316</v>
+        <v>0.99828612804412842</v>
       </c>
     </row>
     <row r="486">
@@ -7494,13 +7494,13 @@
         <v>1.3005768060684204</v>
       </c>
       <c r="C486" s="2">
-        <v>1.2439761161804199</v>
+        <v>1.2438215017318726</v>
       </c>
       <c r="D486" s="2">
         <v>1.2174695730209351</v>
       </c>
       <c r="E486" s="2">
-        <v>0.97676295042037964</v>
+        <v>0.97710347175598145</v>
       </c>
     </row>
     <row r="487">
@@ -7511,13 +7511,13 @@
         <v>0.27234089374542236</v>
       </c>
       <c r="C487" s="2">
-        <v>0.21941529214382172</v>
+        <v>0.22015514969825745</v>
       </c>
       <c r="D487" s="2">
         <v>1.3908437490463257</v>
       </c>
       <c r="E487" s="2">
-        <v>1.1993768215179443</v>
+        <v>1.1996256113052368</v>
       </c>
     </row>
     <row r="488">
@@ -7528,13 +7528,13 @@
         <v>1.4670977592468262</v>
       </c>
       <c r="C488" s="2">
-        <v>1.2175542116165161</v>
+        <v>1.2177554368972778</v>
       </c>
       <c r="D488" s="2">
         <v>1.3649774789810181</v>
       </c>
       <c r="E488" s="2">
-        <v>1.1888771057128906</v>
+        <v>1.1890499591827393</v>
       </c>
     </row>
     <row r="489">
@@ -7545,13 +7545,13 @@
         <v>1.1274113655090332</v>
       </c>
       <c r="C489" s="2">
-        <v>1.3897765874862671</v>
+        <v>1.3899307250976563</v>
       </c>
       <c r="D489" s="2">
         <v>1.3125994205474854</v>
       </c>
       <c r="E489" s="2">
-        <v>1.1375805139541626</v>
+        <v>1.13770592212677</v>
       </c>
     </row>
     <row r="490">
@@ -7562,13 +7562,13 @@
         <v>1.4407123327255249</v>
       </c>
       <c r="C490" s="2">
-        <v>0.95116919279098511</v>
+        <v>0.95186299085617065</v>
       </c>
       <c r="D490" s="2">
         <v>1.211438775062561</v>
       </c>
       <c r="E490" s="2">
-        <v>1.0165929794311523</v>
+        <v>1.016711950302124</v>
       </c>
     </row>
     <row r="491">
@@ -7579,13 +7579,13 @@
         <v>1.5855816602706909</v>
       </c>
       <c r="C491" s="2">
-        <v>1.3408430814743042</v>
+        <v>1.3403130769729614</v>
       </c>
       <c r="D491" s="2">
         <v>1.2296171188354492</v>
       </c>
       <c r="E491" s="2">
-        <v>1.0116817951202393</v>
+        <v>1.0118296146392822</v>
       </c>
     </row>
     <row r="492">
@@ -7596,13 +7596,13 @@
         <v>1.5077159404754639</v>
       </c>
       <c r="C492" s="2">
-        <v>1.2069454193115234</v>
+        <v>1.2066460847854614</v>
       </c>
       <c r="D492" s="2">
         <v>1.4379830360412598</v>
       </c>
       <c r="E492" s="2">
-        <v>1.1796425580978394</v>
+        <v>1.17973792552948</v>
       </c>
     </row>
     <row r="493">
@@ -7613,13 +7613,13 @@
         <v>1.3282513618469238</v>
       </c>
       <c r="C493" s="2">
-        <v>1.0905928611755371</v>
+        <v>1.0907572507858276</v>
       </c>
       <c r="D493" s="2">
         <v>1.4780412912368774</v>
       </c>
       <c r="E493" s="2">
-        <v>1.2093138694763184</v>
+        <v>1.209410309791565</v>
       </c>
     </row>
     <row r="494">
@@ -7630,13 +7630,13 @@
         <v>0.87326037883758545</v>
       </c>
       <c r="C494" s="2">
-        <v>0.48906451463699341</v>
+        <v>0.48916494846343994</v>
       </c>
       <c r="D494" s="2">
         <v>1.5297920703887939</v>
       </c>
       <c r="E494" s="2">
-        <v>1.2662869691848755</v>
+        <v>1.2663795948028565</v>
       </c>
     </row>
     <row r="495">
@@ -7647,13 +7647,13 @@
         <v>1.4641828536987305</v>
       </c>
       <c r="C495" s="2">
-        <v>1.1997749805450439</v>
+        <v>1.199880838394165</v>
       </c>
       <c r="D495" s="2">
         <v>1.5713450908660889</v>
       </c>
       <c r="E495" s="2">
-        <v>1.2745954990386963</v>
+        <v>1.2746751308441162</v>
       </c>
     </row>
     <row r="496">
@@ -7664,13 +7664,13 @@
         <v>2.1476333141326904</v>
       </c>
       <c r="C496" s="2">
-        <v>1.7310618162155151</v>
+        <v>1.731330394744873</v>
       </c>
       <c r="D496" s="2">
         <v>1.5555629730224609</v>
       </c>
       <c r="E496" s="2">
-        <v>1.275171160697937</v>
+        <v>1.2752920389175415</v>
       </c>
     </row>
     <row r="497">
@@ -7681,13 +7681,13 @@
         <v>1.8276228904724121</v>
       </c>
       <c r="C497" s="2">
-        <v>1.4845961332321167</v>
+        <v>1.4848060607910156</v>
       </c>
       <c r="D497" s="2">
         <v>1.5597677230834961</v>
       </c>
       <c r="E497" s="2">
-        <v>1.2601306438446045</v>
+        <v>1.2603212594985962</v>
       </c>
     </row>
     <row r="498">
@@ -7698,13 +7698,13 @@
         <v>1.5931683778762817</v>
       </c>
       <c r="C498" s="2">
-        <v>1.9025347232818604</v>
+        <v>1.9026541709899902</v>
       </c>
       <c r="D498" s="2">
         <v>1.5833245515823364</v>
       </c>
       <c r="E498" s="2">
-        <v>1.2322124242782593</v>
+        <v>1.2323793172836304</v>
       </c>
     </row>
     <row r="499">
@@ -7715,13 +7715,13 @@
         <v>1.8146886825561523</v>
       </c>
       <c r="C499" s="2">
-        <v>1.0259456634521484</v>
+        <v>1.0265228748321533</v>
       </c>
       <c r="D499" s="2">
         <v>1.6908072233200073</v>
       </c>
       <c r="E499" s="2">
-        <v>1.3816982507705688</v>
+        <v>1.3818897008895874</v>
       </c>
     </row>
     <row r="500">
@@ -7732,13 +7732,13 @@
         <v>1.44354248046875</v>
       </c>
       <c r="C500" s="2">
-        <v>1.346024751663208</v>
+        <v>1.3458662033081055</v>
       </c>
       <c r="D500" s="2">
-        <v>1.5820158720016479</v>
+        <v>1.582015872001648</v>
       </c>
       <c r="E500" s="2">
-        <v>1.355390191078186</v>
+        <v>1.3556766510009766</v>
       </c>
     </row>
     <row r="501">
@@ -7749,13 +7749,13 @@
         <v>1.5455589294433594</v>
       </c>
       <c r="C501" s="2">
-        <v>1.0715806484222412</v>
+        <v>1.071908712387085</v>
       </c>
       <c r="D501" s="2">
         <v>1.5310840606689453</v>
       </c>
       <c r="E501" s="2">
-        <v>1.334736704826355</v>
+        <v>1.335010290145874</v>
       </c>
     </row>
     <row r="502">
@@ -7766,13 +7766,13 @@
         <v>1.5402628183364868</v>
       </c>
       <c r="C502" s="2">
-        <v>0.8393290638923645</v>
+        <v>0.8392794132232666</v>
       </c>
       <c r="D502" s="2">
-        <v>1.3925092220306396</v>
+        <v>1.3925092220306397</v>
       </c>
       <c r="E502" s="2">
-        <v>1.363075852394104</v>
+        <v>1.3633378744125366</v>
       </c>
     </row>
     <row r="503">
@@ -7783,13 +7783,13 @@
         <v>1.840604305267334</v>
       </c>
       <c r="C503" s="2">
-        <v>1.834436297416687</v>
+        <v>1.834758996963501</v>
       </c>
       <c r="D503" s="2">
         <v>1.2746435403823853</v>
       </c>
       <c r="E503" s="2">
-        <v>1.1809741258621216</v>
+        <v>1.1811494827270508</v>
       </c>
     </row>
     <row r="504">
@@ -7800,13 +7800,13 @@
         <v>0.48506104946136475</v>
       </c>
       <c r="C504" s="2">
-        <v>0.96300268173217773</v>
+        <v>0.96396297216415405</v>
       </c>
       <c r="D504" s="2">
         <v>1.3272626399993896</v>
       </c>
       <c r="E504" s="2">
-        <v>1.3153635263442993</v>
+        <v>1.3154317140579224</v>
       </c>
     </row>
     <row r="505">
@@ -7817,13 +7817,13 @@
         <v>1.6892473697662354</v>
       </c>
       <c r="C505" s="2">
-        <v>1.5451807975769043</v>
+        <v>1.5453332662582397</v>
       </c>
       <c r="D505" s="2">
         <v>1.220727801322937</v>
       </c>
       <c r="E505" s="2">
-        <v>1.2330034971237183</v>
+        <v>1.2330716848373413</v>
       </c>
     </row>
     <row r="506">
@@ -7834,13 +7834,13 @@
         <v>0.58044952154159546</v>
       </c>
       <c r="C506" s="2">
-        <v>1.7396477460861206</v>
+        <v>1.7397539615631104</v>
       </c>
       <c r="D506" s="2">
         <v>1.1059097051620483</v>
       </c>
       <c r="E506" s="2">
-        <v>1.1445537805557251</v>
+        <v>1.1445903778076172</v>
       </c>
     </row>
     <row r="507">
@@ -7851,13 +7851,13 @@
         <v>0.53237676620483398</v>
       </c>
       <c r="C507" s="2">
-        <v>0.26361948251724243</v>
+        <v>0.2629590630531311</v>
       </c>
       <c r="D507" s="2">
         <v>0.92085391283035278</v>
       </c>
       <c r="E507" s="2">
-        <v>1.0119154453277588</v>
+        <v>1.0119792222976685</v>
       </c>
     </row>
     <row r="508">
@@ -7868,13 +7868,13 @@
         <v>2.2882609367370605</v>
       </c>
       <c r="C508" s="2">
-        <v>2.2354505062103271</v>
+        <v>2.235062837600708</v>
       </c>
       <c r="D508" s="2">
         <v>0.78365272283554077</v>
       </c>
       <c r="E508" s="2">
-        <v>0.80717623233795166</v>
+        <v>0.80731141567230225</v>
       </c>
     </row>
     <row r="509">
@@ -7885,13 +7885,13 @@
         <v>0.48472899198532104</v>
       </c>
       <c r="C509" s="2">
-        <v>0.60478454828262329</v>
+        <v>0.60462629795074463</v>
       </c>
       <c r="D509" s="2">
         <v>0.82704585790634155</v>
       </c>
       <c r="E509" s="2">
-        <v>0.77631175518035889</v>
+        <v>0.77634447813034058</v>
       </c>
     </row>
     <row r="510">
@@ -7899,16 +7899,16 @@
         <v>43952</v>
       </c>
       <c r="B510" s="2">
-        <v>0.51219546794891357</v>
+        <v>0.51219546794891358</v>
       </c>
       <c r="C510" s="2">
-        <v>0.27553293108940125</v>
+        <v>0.27557644248008728</v>
       </c>
       <c r="D510" s="2">
         <v>0.67975717782974243</v>
       </c>
       <c r="E510" s="2">
-        <v>0.61495298147201538</v>
+        <v>0.61500847339630127</v>
       </c>
     </row>
     <row r="511">
@@ -7919,13 +7919,13 @@
         <v>-0.12523932754993439</v>
       </c>
       <c r="C511" s="2">
-        <v>-0.35441592335700989</v>
+        <v>-0.3542206883430481</v>
       </c>
       <c r="D511" s="2">
         <v>0.7368316650390625</v>
       </c>
       <c r="E511" s="2">
-        <v>0.48402449488639832</v>
+        <v>0.48409959673881531</v>
       </c>
     </row>
     <row r="512">
@@ -7936,13 +7936,13 @@
         <v>0.60579395294189453</v>
       </c>
       <c r="C512" s="2">
-        <v>-0.0082167079672217369</v>
+        <v>-0.0072514531202614308</v>
       </c>
       <c r="D512" s="2">
         <v>0.7623942494392395</v>
       </c>
       <c r="E512" s="2">
-        <v>0.5267290472984314</v>
+        <v>0.5268217921257019</v>
       </c>
     </row>
     <row r="513">
@@ -7953,13 +7953,13 @@
         <v>0.87559908628463745</v>
       </c>
       <c r="C513" s="2">
-        <v>0.68522244691848755</v>
+        <v>0.68526065349578857</v>
       </c>
       <c r="D513" s="2">
         <v>0.70471274852752686</v>
       </c>
       <c r="E513" s="2">
-        <v>0.46139201521873474</v>
+        <v>0.46152347326278687</v>
       </c>
     </row>
     <row r="514">
@@ -7970,13 +7970,13 @@
         <v>0.36364918947219849</v>
       </c>
       <c r="C514" s="2">
-        <v>0.092951908707618713</v>
+        <v>0.093309275805950165</v>
       </c>
       <c r="D514" s="2">
         <v>0.75959533452987671</v>
       </c>
       <c r="E514" s="2">
-        <v>0.53108441829681396</v>
+        <v>0.53127217292785645</v>
       </c>
     </row>
     <row r="515">
@@ -7987,13 +7987,13 @@
         <v>1.0941201448440552</v>
       </c>
       <c r="C515" s="2">
-        <v>0.56129133701324463</v>
+        <v>0.56157386302947998</v>
       </c>
       <c r="D515" s="2">
         <v>0.89630365371704102</v>
       </c>
       <c r="E515" s="2">
-        <v>0.68379539251327515</v>
+        <v>0.68398213386535645</v>
       </c>
     </row>
     <row r="516">
@@ -8001,16 +8001,16 @@
         <v>44136</v>
       </c>
       <c r="B516" s="2">
-        <v>0.76243960857391357</v>
+        <v>0.76243960857391358</v>
       </c>
       <c r="C516" s="2">
-        <v>0.64796054363250732</v>
+        <v>0.64745914936065674</v>
       </c>
       <c r="D516" s="2">
         <v>1.061773419380188</v>
       </c>
       <c r="E516" s="2">
-        <v>0.86738753318786621</v>
+        <v>0.86758410930633545</v>
       </c>
     </row>
     <row r="517">
@@ -8021,13 +8021,13 @@
         <v>1.769127368927002</v>
       </c>
       <c r="C517" s="2">
-        <v>1.6474169492721558</v>
+        <v>1.6473778486251831</v>
       </c>
       <c r="D517" s="2">
         <v>1.1729536056518555</v>
       </c>
       <c r="E517" s="2">
-        <v>1.0097099542617798</v>
+        <v>1.0098533630371094</v>
       </c>
     </row>
     <row r="518">
@@ -8038,13 +8038,13 @@
         <v>0.97867226600646973</v>
       </c>
       <c r="C518" s="2">
-        <v>1.2320163249969482</v>
+        <v>1.232364296913147</v>
       </c>
       <c r="D518" s="2">
         <v>1.2141772508621216</v>
       </c>
       <c r="E518" s="2">
-        <v>1.0348320007324219</v>
+        <v>1.0349612236022949</v>
       </c>
     </row>
     <row r="519">
@@ -8055,13 +8055,13 @@
         <v>1.7425705194473267</v>
       </c>
       <c r="C519" s="2">
-        <v>1.6499319076538086</v>
+        <v>1.6499661207199097</v>
       </c>
       <c r="D519" s="2">
         <v>1.2767599821090698</v>
       </c>
       <c r="E519" s="2">
-        <v>1.1057926416397095</v>
+        <v>1.1058883666992188</v>
       </c>
     </row>
     <row r="520">
@@ -8072,13 +8072,13 @@
         <v>1.3639882802963257</v>
       </c>
       <c r="C520" s="2">
-        <v>1.2979129552841187</v>
+        <v>1.2981972694396973</v>
       </c>
       <c r="D520" s="2">
         <v>1.2889308929443359</v>
       </c>
       <c r="E520" s="2">
-        <v>1.1692653894424438</v>
+        <v>1.1693495512008667</v>
       </c>
     </row>
     <row r="521">
@@ -8089,13 +8089,13 @@
         <v>1.6064155101776123</v>
       </c>
       <c r="C521" s="2">
-        <v>1.2726852893829346</v>
+        <v>1.2731714248657227</v>
       </c>
       <c r="D521" s="2">
         <v>1.3734084367752075</v>
       </c>
       <c r="E521" s="2">
-        <v>1.258750319480896</v>
+        <v>1.2589260339736939</v>
       </c>
     </row>
     <row r="522">
@@ -8106,13 +8106,13 @@
         <v>1.246612548828125</v>
       </c>
       <c r="C522" s="2">
-        <v>0.91132044792175293</v>
+        <v>0.9112316370010376</v>
       </c>
       <c r="D522" s="2">
         <v>1.2505203485488892</v>
       </c>
       <c r="E522" s="2">
-        <v>1.0751694440841675</v>
+        <v>1.0753630399703979</v>
       </c>
     </row>
     <row r="523">
@@ -8123,13 +8123,13 @@
         <v>0.92689377069473267</v>
       </c>
       <c r="C523" s="2">
-        <v>0.73159849643707275</v>
+        <v>0.73165369033813477</v>
       </c>
       <c r="D523" s="2">
         <v>1.2303059101104736</v>
       </c>
       <c r="E523" s="2">
-        <v>1.0231088399887085</v>
+        <v>1.0232876539230347</v>
       </c>
     </row>
     <row r="524">
@@ -8137,16 +8137,16 @@
         <v>44378</v>
       </c>
       <c r="B524" s="2">
-        <v>1.2036579847335815</v>
+        <v>1.2036579847335816</v>
       </c>
       <c r="C524" s="2">
-        <v>1.1325454711914062</v>
+        <v>1.1327241659164429</v>
       </c>
       <c r="D524" s="2">
         <v>1.1386046409606934</v>
       </c>
       <c r="E524" s="2">
-        <v>0.93569111824035645</v>
+        <v>0.93586963415145874</v>
       </c>
     </row>
     <row r="525">
@@ -8157,13 +8157,13 @@
         <v>1.522737979888916</v>
       </c>
       <c r="C525" s="2">
-        <v>1.4533247947692871</v>
+        <v>1.4536479711532593</v>
       </c>
       <c r="D525" s="2">
         <v>1.1521434783935547</v>
       </c>
       <c r="E525" s="2">
-        <v>0.94515407085418701</v>
+        <v>0.94530391693115234</v>
       </c>
     </row>
     <row r="526">
@@ -8174,13 +8174,13 @@
         <v>0.66313391923904419</v>
       </c>
       <c r="C526" s="2">
-        <v>-0.0048109656199812889</v>
+        <v>-0.0046896622516214848</v>
       </c>
       <c r="D526" s="2">
         <v>1.0906450748443604</v>
       </c>
       <c r="E526" s="2">
-        <v>0.90813815593719482</v>
+        <v>0.90821206569671631</v>
       </c>
     </row>
     <row r="527">
@@ -8191,13 +8191,13 @@
         <v>0.79674267768859863</v>
       </c>
       <c r="C527" s="2">
-        <v>0.76347070932388306</v>
+        <v>0.76368677616119385</v>
       </c>
       <c r="D527" s="2">
         <v>1.0088629722595215</v>
       </c>
       <c r="E527" s="2">
-        <v>0.84686088562011719</v>
+        <v>0.8469194769859314</v>
       </c>
     </row>
     <row r="528">
@@ -8208,13 +8208,13 @@
         <v>0.91725945472717285</v>
       </c>
       <c r="C528" s="2">
-        <v>0.86317276954650879</v>
+        <v>0.86320316791534424</v>
       </c>
       <c r="D528" s="2">
         <v>1.046733021736145</v>
       </c>
       <c r="E528" s="2">
-        <v>0.87474095821380615</v>
+        <v>0.87481534481048584</v>
       </c>
     </row>
     <row r="529">
@@ -8225,13 +8225,13 @@
         <v>1.4858369827270508</v>
       </c>
       <c r="C529" s="2">
-        <v>1.3830794095993042</v>
+        <v>1.383105993270874</v>
       </c>
       <c r="D529" s="2">
         <v>1.0142475366592407</v>
       </c>
       <c r="E529" s="2">
-        <v>0.83606010675430298</v>
+        <v>0.83613812923431397</v>
       </c>
     </row>
     <row r="530">
@@ -8242,13 +8242,13 @@
         <v>1.0529301166534424</v>
       </c>
       <c r="C530" s="2">
-        <v>0.93954211473464966</v>
+        <v>0.93934506177902222</v>
       </c>
       <c r="D530" s="2">
         <v>0.83614379167556763</v>
       </c>
       <c r="E530" s="2">
-        <v>0.66084194183349609</v>
+        <v>0.66089928150177002</v>
       </c>
     </row>
     <row r="531">
@@ -8259,13 +8259,13 @@
         <v>0.51057350635528564</v>
       </c>
       <c r="C531" s="2">
-        <v>0.35982516407966614</v>
+        <v>0.35959818959236145</v>
       </c>
       <c r="D531" s="2">
         <v>0.77653384208679199</v>
       </c>
       <c r="E531" s="2">
-        <v>0.677936851978302</v>
+        <v>0.67797356843948364</v>
       </c>
     </row>
     <row r="532">
@@ -8276,13 +8276,13 @@
         <v>1.2677242755889893</v>
       </c>
       <c r="C532" s="2">
-        <v>0.98251938819885254</v>
+        <v>0.98271626234054566</v>
       </c>
       <c r="D532" s="2">
         <v>0.72515815496444702</v>
       </c>
       <c r="E532" s="2">
-        <v>0.62334012985229492</v>
+        <v>0.62331622838973999</v>
       </c>
     </row>
     <row r="533">
@@ -8293,13 +8293,13 @@
         <v>0.91128849983215332</v>
       </c>
       <c r="C533" s="2">
-        <v>0.78441733121871948</v>
+        <v>0.78462952375411987</v>
       </c>
       <c r="D533" s="2">
         <v>0.69402062892913818</v>
       </c>
       <c r="E533" s="2">
-        <v>0.62980973720550537</v>
+        <v>0.62977421283721924</v>
       </c>
     </row>
     <row r="534">
@@ -8310,13 +8310,13 @@
         <v>-0.080195508897304535</v>
       </c>
       <c r="C534" s="2">
-        <v>-0.1236385703086853</v>
+        <v>-0.12350185215473175</v>
       </c>
       <c r="D534" s="2">
         <v>0.56051582098007202</v>
       </c>
       <c r="E534" s="2">
-        <v>0.48124662041664124</v>
+        <v>0.48122206330299378</v>
       </c>
     </row>
     <row r="535">
@@ -8327,13 +8327,13 @@
         <v>0.12664449214935303</v>
       </c>
       <c r="C535" s="2">
-        <v>0.14904320240020752</v>
+        <v>0.14897920191287994</v>
       </c>
       <c r="D535" s="2">
         <v>0.50359535217285156</v>
       </c>
       <c r="E535" s="2">
-        <v>0.42167237401008606</v>
+        <v>0.4216962456703186</v>
       </c>
     </row>
     <row r="536">
@@ -8344,13 +8344,13 @@
         <v>0.33436131477355957</v>
       </c>
       <c r="C536" s="2">
-        <v>0.2721002995967865</v>
+        <v>0.2717704176902771</v>
       </c>
       <c r="D536" s="2">
         <v>0.46786314249038696</v>
       </c>
       <c r="E536" s="2">
-        <v>0.39582356810569763</v>
+        <v>0.39588308334350586</v>
       </c>
     </row>
     <row r="537">
@@ -8361,13 +8361,13 @@
         <v>0.63702201843261719</v>
       </c>
       <c r="C537" s="2">
-        <v>0.92139941453933716</v>
+        <v>0.92132538557052612</v>
       </c>
       <c r="D537" s="2">
         <v>0.45421925187110901</v>
       </c>
       <c r="E537" s="2">
-        <v>0.38895949721336365</v>
+        <v>0.38900759816169739</v>
       </c>
     </row>
     <row r="538">
@@ -8378,13 +8378,13 @@
         <v>0.28429388999938965</v>
       </c>
       <c r="C538" s="2">
-        <v>0.046011108905076981</v>
+        <v>0.046136487275362015</v>
       </c>
       <c r="D538" s="2">
         <v>0.41505885124206543</v>
       </c>
       <c r="E538" s="2">
-        <v>0.3429969847202301</v>
+        <v>0.34306120872497559</v>
       </c>
     </row>
     <row r="539">
@@ -8395,13 +8395,13 @@
         <v>0.54064565896987915</v>
       </c>
       <c r="C539" s="2">
-        <v>0.40337410569190979</v>
+        <v>0.4036126434803009</v>
       </c>
       <c r="D539" s="2">
         <v>0.49498873949050903</v>
       </c>
       <c r="E539" s="2">
-        <v>0.39600169658660889</v>
+        <v>0.39603447914123535</v>
       </c>
     </row>
     <row r="540">
@@ -8412,13 +8412,13 @@
         <v>0.18898358941078186</v>
       </c>
       <c r="C540" s="2">
-        <v>0.12718576192855835</v>
+        <v>0.12727966904640198</v>
       </c>
       <c r="D540" s="2">
         <v>0.40869230031967163</v>
       </c>
       <c r="E540" s="2">
-        <v>0.27298304438591003</v>
+        <v>0.2730267345905304</v>
       </c>
     </row>
     <row r="541">
@@ -8429,13 +8429,13 @@
         <v>1.1449294090270996</v>
       </c>
       <c r="C541" s="2">
-        <v>0.92074280977249146</v>
+        <v>0.92083686590194702</v>
       </c>
       <c r="D541" s="2">
         <v>0.41527491807937622</v>
       </c>
       <c r="E541" s="2">
-        <v>0.27745011448860168</v>
+        <v>0.27757766842842102</v>
       </c>
     </row>
     <row r="542">
@@ -8446,13 +8446,13 @@
         <v>0.55884474515914917</v>
       </c>
       <c r="C542" s="2">
-        <v>0.37075480818748474</v>
+        <v>0.3711121678352356</v>
       </c>
       <c r="D542" s="2">
         <v>0.33494687080383301</v>
       </c>
       <c r="E542" s="2">
-        <v>0.13203184306621552</v>
+        <v>0.13220535218715668</v>
       </c>
     </row>
     <row r="543">
@@ -8463,13 +8463,13 @@
         <v>0.63917356729507446</v>
       </c>
       <c r="C543" s="2">
-        <v>0.35340377688407898</v>
+        <v>0.3532574474811554</v>
       </c>
       <c r="D543" s="2">
         <v>0.4273969829082489</v>
       </c>
       <c r="E543" s="2">
-        <v>0.22515405714511871</v>
+        <v>0.22530412673950195</v>
       </c>
     </row>
     <row r="544">
@@ -8477,16 +8477,16 @@
         <v>44986</v>
       </c>
       <c r="B544" s="2">
-        <v>-0.65002357959747314</v>
+        <v>-0.65002357959747315</v>
       </c>
       <c r="C544" s="2">
-        <v>-0.95812475681304932</v>
+        <v>-0.95809060335159302</v>
       </c>
       <c r="D544" s="2">
         <v>0.43956440687179565</v>
       </c>
       <c r="E544" s="2">
-        <v>0.23962602019309998</v>
+        <v>0.23973026871681213</v>
       </c>
     </row>
     <row r="545">
@@ -8497,13 +8497,13 @@
         <v>0.39360508322715759</v>
       </c>
       <c r="C545" s="2">
-        <v>0.31230390071868896</v>
+        <v>0.31272885203361511</v>
       </c>
       <c r="D545" s="2">
-        <v>0.53639215230941772</v>
+        <v>0.53639215230941773</v>
       </c>
       <c r="E545" s="2">
-        <v>0.33210262656211853</v>
+        <v>0.33217084407806396</v>
       </c>
     </row>
     <row r="546">
@@ -8514,13 +8514,13 @@
         <v>-0.085930615663528442</v>
       </c>
       <c r="C546" s="2">
-        <v>-0.38736498355865479</v>
+        <v>-0.38702541589736939</v>
       </c>
       <c r="D546" s="2">
         <v>0.46091747283935547</v>
       </c>
       <c r="E546" s="2">
-        <v>0.25558680295944214</v>
+        <v>0.25564965605735779</v>
       </c>
     </row>
     <row r="547">
@@ -8531,13 +8531,13 @@
         <v>1.1163449287414551</v>
       </c>
       <c r="C547" s="2">
-        <v>0.88411104679107666</v>
+        <v>0.88402557373046875</v>
       </c>
       <c r="D547" s="2">
         <v>0.50878143310546875</v>
       </c>
       <c r="E547" s="2">
-        <v>0.3098263144493103</v>
+        <v>0.3098863959312439</v>
       </c>
     </row>
     <row r="548">
@@ -8548,13 +8548,13 @@
         <v>0.65015262365341187</v>
       </c>
       <c r="C548" s="2">
-        <v>0.53362184762954712</v>
+        <v>0.53344786167144775</v>
       </c>
       <c r="D548" s="2">
         <v>0.40871143341064453</v>
       </c>
       <c r="E548" s="2">
-        <v>0.22814381122589111</v>
+        <v>0.22820042073726654</v>
       </c>
     </row>
     <row r="549">
@@ -8565,13 +8565,13 @@
         <v>1.0604333877563477</v>
       </c>
       <c r="C549" s="2">
-        <v>0.95947510004043579</v>
+        <v>0.95924490690231323</v>
       </c>
       <c r="D549" s="2">
         <v>0.6099013090133667</v>
       </c>
       <c r="E549" s="2">
-        <v>0.45993426442146301</v>
+        <v>0.46000555157661438</v>
       </c>
     </row>
     <row r="550">
@@ -8582,13 +8582,13 @@
         <v>0.46565708518028259</v>
       </c>
       <c r="C550" s="2">
-        <v>0.23210038244724274</v>
+        <v>0.23214621841907501</v>
       </c>
       <c r="D550" s="2">
         <v>0.61072266101837158</v>
       </c>
       <c r="E550" s="2">
-        <v>0.44513824582099915</v>
+        <v>0.44518592953681946</v>
       </c>
     </row>
     <row r="551">
@@ -8599,13 +8599,13 @@
         <v>0.9896206259727478</v>
       </c>
       <c r="C551" s="2">
-        <v>0.85891056060791016</v>
+        <v>0.85924261808395386</v>
       </c>
       <c r="D551" s="2">
         <v>0.67664581537246704</v>
       </c>
       <c r="E551" s="2">
-        <v>0.50767767429351807</v>
+        <v>0.50769096612930298</v>
       </c>
     </row>
     <row r="552">
@@ -8616,13 +8616,13 @@
         <v>-0.26145666837692261</v>
       </c>
       <c r="C552" s="2">
-        <v>-0.38173878192901611</v>
+        <v>-0.38191619515419006</v>
       </c>
       <c r="D552" s="2">
         <v>0.62712156772613525</v>
       </c>
       <c r="E552" s="2">
-        <v>0.42963367700576782</v>
+        <v>0.42965418100357056</v>
       </c>
     </row>
     <row r="553">
@@ -8633,13 +8633,13 @@
         <v>1.1606854200363159</v>
       </c>
       <c r="C553" s="2">
-        <v>1.1279892921447754</v>
+        <v>1.1281555891036987</v>
       </c>
       <c r="D553" s="2">
-        <v>0.62424272298812866</v>
+        <v>0.67990511655807495</v>
       </c>
       <c r="E553" s="2">
-        <v>0.41663515567779541</v>
+        <v>0.47571918368339539</v>
       </c>
     </row>
     <row r="554">
@@ -8650,13 +8650,13 @@
         <v>0.40099701285362244</v>
       </c>
       <c r="C554" s="2">
-        <v>0.17913983762264252</v>
+        <v>0.17935210466384888</v>
       </c>
       <c r="D554" s="2">
-        <v>0.56192976236343384</v>
+        <v>0.6705939769744873</v>
       </c>
       <c r="E554" s="2">
-        <v>0.3390866219997406</v>
+        <v>0.45949682593345642</v>
       </c>
     </row>
     <row r="555">
@@ -8667,13 +8667,13 @@
         <v>0.5073779821395874</v>
       </c>
       <c r="C555" s="2">
-        <v>0.17548954486846924</v>
+        <v>0.17552004754543305</v>
       </c>
       <c r="D555" s="2">
-        <v>0.57797521352767944</v>
+        <v>0.7964777946472168</v>
       </c>
       <c r="E555" s="2">
-        <v>0.35691764950752258</v>
+        <v>0.60547113418579102</v>
       </c>
     </row>
     <row r="556">
@@ -8681,16 +8681,101 @@
         <v>45352</v>
       </c>
       <c r="B556" s="2">
-        <v>0.67062681913375854</v>
+        <v>0.67062681913375855</v>
       </c>
       <c r="C556" s="2">
-        <v>0.18171542882919312</v>
+        <v>0.1816944032907486</v>
       </c>
       <c r="D556" s="2">
-        <v>0.49564611911773682</v>
+        <v>0.66578459739685059</v>
       </c>
       <c r="E556" s="2">
-        <v>0.25651907920837402</v>
+        <v>0.4476742148399353</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B557" s="2">
+        <v>1.1252042055130005</v>
+      </c>
+      <c r="C557" s="2">
+        <v>0.94803303480148315</v>
+      </c>
+      <c r="D557" s="2">
+        <v>0.61626791954040527</v>
+      </c>
+      <c r="E557" s="2">
+        <v>0.41157099604606629</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B558" s="2">
+        <v>0.97663307189941406</v>
+      </c>
+      <c r="C558" s="2">
+        <v>0.813243567943573</v>
+      </c>
+      <c r="D558" s="2">
+        <v>0.54821574687957764</v>
+      </c>
+      <c r="E558" s="2">
+        <v>0.32199794054031372</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B559" s="2">
+        <v>1.5986114740371704</v>
+      </c>
+      <c r="C559" s="2">
+        <v>1.545914888381958</v>
+      </c>
+      <c r="D559" s="2">
+        <v>0.56924700736999512</v>
+      </c>
+      <c r="E559" s="2">
+        <v>0.34237590432167053</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B560" s="2">
+        <v>-0.18661774694919586</v>
+      </c>
+      <c r="C560" s="2">
+        <v>-0.56092941761016846</v>
+      </c>
+      <c r="D560" s="2">
+        <v>0.57955849170684814</v>
+      </c>
+      <c r="E560" s="2">
+        <v>0.37018519639968872</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B561" s="2">
+        <v>-0.70710676908493042</v>
+      </c>
+      <c r="C561" s="2">
+        <v>-0.70684522390365601</v>
+      </c>
+      <c r="D561" s="2">
+        <v>0.56134486198425293</v>
+      </c>
+      <c r="E561" s="2">
+        <v>0.40788337588310242</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_skewness_lt.xlsx
+++ b/MSC_skewness_lt.xlsx
@@ -223,13 +223,13 @@
         <v>0.48721683025360108</v>
       </c>
       <c r="C15" s="2">
-        <v>0.405029296875</v>
+        <v>0.40550252795219421</v>
       </c>
       <c r="D15" s="2">
         <v>0.48721683025360108</v>
       </c>
       <c r="E15" s="2">
-        <v>0.405029296875</v>
+        <v>0.40550252795219421</v>
       </c>
     </row>
     <row r="16">
@@ -339,13 +339,13 @@
         <v>-0.79306507110595703</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.83800393342971802</v>
+        <v>-0.83766829967498779</v>
       </c>
       <c r="D27" s="2">
         <v>-0.79306507110595703</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.83800393342971802</v>
+        <v>-0.83766829967498779</v>
       </c>
     </row>
     <row r="28">
@@ -401,13 +401,13 @@
         <v>-0.22174668312072754</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.23589186370372772</v>
+        <v>-0.23520368337631226</v>
       </c>
       <c r="D33" s="2">
         <v>-0.33302110433578491</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.3295794427394867</v>
+        <v>-0.32891657948493958</v>
       </c>
     </row>
     <row r="34">
@@ -418,13 +418,13 @@
         <v>-0.44429555535316467</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.42326700687408447</v>
+        <v>-0.4226294755935669</v>
       </c>
       <c r="D34" s="2">
         <v>-0.3046528697013855</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.29936987161636353</v>
+        <v>-0.29888421297073364</v>
       </c>
     </row>
     <row r="35">
@@ -462,13 +462,13 @@
         <v>-0.24791635572910309</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.23895077407360077</v>
+        <v>-0.2388194352388382</v>
       </c>
       <c r="D38" s="2">
         <v>-0.31482520699501038</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.28246745467185974</v>
+        <v>-0.2820591926574707</v>
       </c>
     </row>
     <row r="39">
@@ -479,13 +479,13 @@
         <v>-0.15508043766021729</v>
       </c>
       <c r="C39" s="2">
-        <v>0.0037713174242526293</v>
+        <v>0.0038549632299691439</v>
       </c>
       <c r="D39" s="2">
         <v>-0.27166840434074402</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.23553426563739777</v>
+        <v>-0.23520241677761078</v>
       </c>
     </row>
     <row r="40">
@@ -496,13 +496,13 @@
         <v>-0.41200843453407288</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.47142332792282105</v>
+        <v>-0.47064277529716492</v>
       </c>
       <c r="D40" s="2">
         <v>-0.32901236414909363</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.31241759657859802</v>
+        <v>-0.31225848197937012</v>
       </c>
     </row>
     <row r="41">
@@ -540,13 +540,13 @@
         <v>-0.50104427337646484</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.54306763410568237</v>
+        <v>-0.54342663288116455</v>
       </c>
       <c r="D44" s="2">
         <v>-0.24545113742351532</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.2997393012046814</v>
+        <v>-0.29959371685981751</v>
       </c>
     </row>
     <row r="45">
@@ -557,13 +557,13 @@
         <v>0.075489185750484467</v>
       </c>
       <c r="C45" s="2">
-        <v>0.0090062422677874565</v>
+        <v>0.0092323888093233109</v>
       </c>
       <c r="D45" s="2">
         <v>-0.18993203341960907</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.24251127243041992</v>
+        <v>-0.24257738888263702</v>
       </c>
     </row>
     <row r="46">
@@ -574,13 +574,13 @@
         <v>-0.14424102008342743</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.19347243010997772</v>
+        <v>-0.19353790581226349</v>
       </c>
       <c r="D46" s="2">
         <v>-0.18249821662902832</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.23766015470027924</v>
+        <v>-0.23754335939884186</v>
       </c>
     </row>
     <row r="47">
@@ -618,13 +618,13 @@
         <v>-0.16019675135612488</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.22310678660869598</v>
+        <v>-0.22244128584861755</v>
       </c>
       <c r="D50" s="2">
         <v>-0.09411485493183136</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.14091646671295166</v>
+        <v>-0.14068928360939026</v>
       </c>
     </row>
     <row r="51">
@@ -635,13 +635,13 @@
         <v>0.17857199907302857</v>
       </c>
       <c r="C51" s="2">
-        <v>0.11557698994874954</v>
+        <v>0.11563972383737564</v>
       </c>
       <c r="D51" s="2">
         <v>-0.077406130731105805</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.12339781224727631</v>
+        <v>-0.12307307124137878</v>
       </c>
     </row>
     <row r="52">
@@ -652,13 +652,13 @@
         <v>-0.2505936324596405</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.26266363263130188</v>
+        <v>-0.26241764426231384</v>
       </c>
       <c r="D52" s="2">
         <v>-0.093132704496383667</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.13362088799476624</v>
+        <v>-0.13310649991035461</v>
       </c>
     </row>
     <row r="53">
@@ -696,13 +696,13 @@
         <v>-0.14031241834163666</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.16429010033607483</v>
+        <v>-0.16320678591728211</v>
       </c>
       <c r="D56" s="2">
         <v>-0.23431406915187836</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.24598048627376556</v>
+        <v>-0.24543565511703491</v>
       </c>
     </row>
     <row r="57">
@@ -713,13 +713,13 @@
         <v>-0.11747535318136215</v>
       </c>
       <c r="C57" s="2">
-        <v>-0.19004754722118378</v>
+        <v>-0.18919691443443298</v>
       </c>
       <c r="D57" s="2">
         <v>-0.22888755798339844</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.2404194325208664</v>
+        <v>-0.23977498710155487</v>
       </c>
     </row>
     <row r="58">
@@ -730,13 +730,13 @@
         <v>-0.42887488007545471</v>
       </c>
       <c r="C58" s="2">
-        <v>-0.36692065000534058</v>
+        <v>-0.36692127585411072</v>
       </c>
       <c r="D58" s="2">
         <v>-0.25738048553466797</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.2713635265827179</v>
+        <v>-0.27058368921279907</v>
       </c>
     </row>
     <row r="59">
@@ -774,13 +774,13 @@
         <v>-0.34285926818847656</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.36419582366943359</v>
+        <v>-0.36300981044769287</v>
       </c>
       <c r="D62" s="2">
         <v>-0.1554538905620575</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.10806523263454437</v>
+        <v>-0.10729503631591797</v>
       </c>
     </row>
     <row r="63">
@@ -791,13 +791,13 @@
         <v>0.047747939825057983</v>
       </c>
       <c r="C63" s="2">
-        <v>0.15695737302303314</v>
+        <v>0.15783806145191193</v>
       </c>
       <c r="D63" s="2">
         <v>-0.064313560724258423</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.021780094131827354</v>
+        <v>-0.020752951502799988</v>
       </c>
     </row>
     <row r="64">
@@ -808,13 +808,13 @@
         <v>0.10217063874006271</v>
       </c>
       <c r="C64" s="2">
-        <v>0.14189817011356354</v>
+        <v>0.14291289448738098</v>
       </c>
       <c r="D64" s="2">
         <v>-0.033212229609489441</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.013992560096085072</v>
+        <v>-0.013039646670222282</v>
       </c>
     </row>
     <row r="65">
@@ -852,13 +852,13 @@
         <v>0.060091778635978699</v>
       </c>
       <c r="C68" s="2">
-        <v>0.0093700392171740532</v>
+        <v>0.010100266896188259</v>
       </c>
       <c r="D68" s="2">
         <v>0.17404548823833466</v>
       </c>
       <c r="E68" s="2">
-        <v>0.14633575081825256</v>
+        <v>0.14697498083114624</v>
       </c>
     </row>
     <row r="69">
@@ -869,13 +869,13 @@
         <v>0.84347176551818848</v>
       </c>
       <c r="C69" s="2">
-        <v>0.79278165102005005</v>
+        <v>0.79353344440460205</v>
       </c>
       <c r="D69" s="2">
         <v>0.19800376892089844</v>
       </c>
       <c r="E69" s="2">
-        <v>0.14781495928764343</v>
+        <v>0.1483290046453476</v>
       </c>
     </row>
     <row r="70">
@@ -886,13 +886,13 @@
         <v>-0.30955222249031067</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.35870683193206787</v>
+        <v>-0.3586466908454895</v>
       </c>
       <c r="D70" s="2">
         <v>0.247781902551651</v>
       </c>
       <c r="E70" s="2">
-        <v>0.19167664647102356</v>
+        <v>0.19240054488182068</v>
       </c>
     </row>
     <row r="71">
@@ -930,13 +930,13 @@
         <v>0.3971162736415863</v>
       </c>
       <c r="C74" s="2">
-        <v>0.32326173782348633</v>
+        <v>0.32461518049240112</v>
       </c>
       <c r="D74" s="2">
         <v>0.33261632919311524</v>
       </c>
       <c r="E74" s="2">
-        <v>0.28089198470115662</v>
+        <v>0.28145349025726318</v>
       </c>
     </row>
     <row r="75">
@@ -947,13 +947,13 @@
         <v>0.66018062829971314</v>
       </c>
       <c r="C75" s="2">
-        <v>0.6103934645652771</v>
+        <v>0.61102300882339478</v>
       </c>
       <c r="D75" s="2">
         <v>0.54667246341705322</v>
       </c>
       <c r="E75" s="2">
-        <v>0.49409160017967224</v>
+        <v>0.49482020735740662</v>
       </c>
     </row>
     <row r="76">
@@ -964,13 +964,13 @@
         <v>0.58272057771682739</v>
       </c>
       <c r="C76" s="2">
-        <v>0.54861956834793091</v>
+        <v>0.54882246255874634</v>
       </c>
       <c r="D76" s="2">
         <v>0.41343611478805542</v>
       </c>
       <c r="E76" s="2">
-        <v>0.3600008487701416</v>
+        <v>0.36094695329666138</v>
       </c>
     </row>
     <row r="77">
@@ -1008,13 +1008,13 @@
         <v>0.013726954348385334</v>
       </c>
       <c r="C80" s="2">
-        <v>-0.042271401733160019</v>
+        <v>-0.040672797709703445</v>
       </c>
       <c r="D80" s="2">
         <v>0.60395681858062744</v>
       </c>
       <c r="E80" s="2">
-        <v>0.56442838907241821</v>
+        <v>0.56519222259521484</v>
       </c>
     </row>
     <row r="81">
@@ -1025,13 +1025,13 @@
         <v>0.91950523853302002</v>
       </c>
       <c r="C81" s="2">
-        <v>0.88469374179840088</v>
+        <v>0.88501673936843872</v>
       </c>
       <c r="D81" s="2">
         <v>0.61103558540344238</v>
       </c>
       <c r="E81" s="2">
-        <v>0.56969797611236572</v>
+        <v>0.57064884901046753</v>
       </c>
     </row>
     <row r="82">
@@ -1042,13 +1042,13 @@
         <v>0.89987456798553467</v>
       </c>
       <c r="C82" s="2">
-        <v>0.866671621799469</v>
+        <v>0.86760258674621582</v>
       </c>
       <c r="D82" s="2">
         <v>0.57460242509841919</v>
       </c>
       <c r="E82" s="2">
-        <v>0.51777982711791992</v>
+        <v>0.51882380247116089</v>
       </c>
     </row>
     <row r="83">
@@ -1086,13 +1086,13 @@
         <v>0.46530294418334961</v>
       </c>
       <c r="C86" s="2">
-        <v>0.36202540993690491</v>
+        <v>0.36334875226020813</v>
       </c>
       <c r="D86" s="2">
         <v>0.37695962190628052</v>
       </c>
       <c r="E86" s="2">
-        <v>0.37917298078536987</v>
+        <v>0.3797716498374939</v>
       </c>
     </row>
     <row r="87">
@@ -1103,13 +1103,13 @@
         <v>0.10031627863645554</v>
       </c>
       <c r="C87" s="2">
-        <v>0.27623236179351807</v>
+        <v>0.27633935213088989</v>
       </c>
       <c r="D87" s="2">
         <v>0.20265462994575501</v>
       </c>
       <c r="E87" s="2">
-        <v>0.21667344868183136</v>
+        <v>0.21716132760047913</v>
       </c>
     </row>
     <row r="88">
@@ -1120,13 +1120,13 @@
         <v>0.042344652116298676</v>
       </c>
       <c r="C88" s="2">
-        <v>0.011762588284909725</v>
+        <v>0.011795882135629654</v>
       </c>
       <c r="D88" s="2">
         <v>0.32980158925056458</v>
       </c>
       <c r="E88" s="2">
-        <v>0.32370993494987488</v>
+        <v>0.3244549036026001</v>
       </c>
     </row>
     <row r="89">
@@ -1164,13 +1164,13 @@
         <v>0.71124249696731567</v>
       </c>
       <c r="C92" s="2">
-        <v>0.64481937885284424</v>
+        <v>0.64633560180664063</v>
       </c>
       <c r="D92" s="2">
         <v>0.53669047355651855</v>
       </c>
       <c r="E92" s="2">
-        <v>0.49393507838249207</v>
+        <v>0.49521750211715698</v>
       </c>
     </row>
     <row r="93">
@@ -1181,13 +1181,13 @@
         <v>0.80356293916702271</v>
       </c>
       <c r="C93" s="2">
-        <v>0.78086358308792114</v>
+        <v>0.78218501806259155</v>
       </c>
       <c r="D93" s="2">
         <v>0.70147240161895752</v>
       </c>
       <c r="E93" s="2">
-        <v>0.65465927124023438</v>
+        <v>0.65635800361633301</v>
       </c>
     </row>
     <row r="94">
@@ -1198,13 +1198,13 @@
         <v>0.58961182832717896</v>
       </c>
       <c r="C94" s="2">
-        <v>0.53829479217529297</v>
+        <v>0.54055345058441162</v>
       </c>
       <c r="D94" s="2">
         <v>0.70147240161895752</v>
       </c>
       <c r="E94" s="2">
-        <v>0.65465927124023438</v>
+        <v>0.65635800361633301</v>
       </c>
     </row>
     <row r="95">
@@ -1260,13 +1260,13 @@
         <v>0.14898569881916046</v>
       </c>
       <c r="C100" s="2">
-        <v>0.63464856147766113</v>
+        <v>0.63409310579299927</v>
       </c>
       <c r="D100" s="2">
         <v>0.73300236463546753</v>
       </c>
       <c r="E100" s="2">
-        <v>1.1093573570251465</v>
+        <v>1.1096334457397461</v>
       </c>
     </row>
     <row r="101">
@@ -1295,13 +1295,13 @@
         <v>1.317018985748291</v>
       </c>
       <c r="C103" s="2">
-        <v>1.5840661525726318</v>
+        <v>1.5851738452911377</v>
       </c>
       <c r="D103" s="2">
         <v>0.93625760078430176</v>
       </c>
       <c r="E103" s="2">
-        <v>1.1689002513885498</v>
+        <v>1.1695272922515869</v>
       </c>
     </row>
     <row r="104">
@@ -1330,13 +1330,13 @@
         <v>1.3427680730819702</v>
       </c>
       <c r="C106" s="2">
-        <v>1.2879859209060669</v>
+        <v>1.2893147468566895</v>
       </c>
       <c r="D106" s="2">
         <v>1.0980263948440552</v>
       </c>
       <c r="E106" s="2">
-        <v>1.1873124837875366</v>
+        <v>1.1883910894393921</v>
       </c>
     </row>
     <row r="107">
@@ -1365,13 +1365,13 @@
         <v>0.63429200649261475</v>
       </c>
       <c r="C109" s="2">
-        <v>0.68988537788391113</v>
+        <v>0.6906847357749939</v>
       </c>
       <c r="D109" s="2">
         <v>0.90486323833465576</v>
       </c>
       <c r="E109" s="2">
-        <v>0.94095885753631592</v>
+        <v>0.94216036796569824</v>
       </c>
     </row>
     <row r="110">
@@ -1400,13 +1400,13 @@
         <v>0.7375296950340271</v>
       </c>
       <c r="C112" s="2">
-        <v>0.8450053334236145</v>
+        <v>0.84648168087005615</v>
       </c>
       <c r="D112" s="2">
         <v>0.62356847524642944</v>
       </c>
       <c r="E112" s="2">
-        <v>0.64263069629669189</v>
+        <v>0.64393222332000732</v>
       </c>
     </row>
     <row r="113">
@@ -1435,13 +1435,13 @@
         <v>0.49888375401496887</v>
       </c>
       <c r="C115" s="2">
-        <v>0.39300146698951721</v>
+        <v>0.39463016390800476</v>
       </c>
       <c r="D115" s="2">
         <v>0.71733814477920532</v>
       </c>
       <c r="E115" s="2">
-        <v>0.67736363410949707</v>
+        <v>0.67901086807250977</v>
       </c>
     </row>
     <row r="116">
@@ -1470,13 +1470,13 @@
         <v>0.91560101509094238</v>
       </c>
       <c r="C118" s="2">
-        <v>0.79408407211303711</v>
+        <v>0.79592078924179077</v>
       </c>
       <c r="D118" s="2">
         <v>0.12220177054405212</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.014326602220535278</v>
+        <v>-0.013074030168354511</v>
       </c>
     </row>
     <row r="119">
@@ -1505,13 +1505,13 @@
         <v>-1.0478794574737549</v>
       </c>
       <c r="C121" s="2">
-        <v>-1.2300653457641602</v>
+        <v>-1.2297730445861816</v>
       </c>
       <c r="D121" s="2">
         <v>-0.06613922119140625</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.21799063682556152</v>
+        <v>-0.21692612767219543</v>
       </c>
     </row>
     <row r="122">
@@ -1765,13 +1765,13 @@
         <v>0.57158887386322022</v>
       </c>
       <c r="C149" s="2">
-        <v>0.47342443466186523</v>
+        <v>0.47621244192123413</v>
       </c>
       <c r="D149" s="2">
         <v>0.91426771879196167</v>
       </c>
       <c r="E149" s="2">
-        <v>0.82866203784942627</v>
+        <v>0.83031076192855835</v>
       </c>
     </row>
     <row r="150">
@@ -1782,13 +1782,13 @@
         <v>0.36666730046272278</v>
       </c>
       <c r="C150" s="2">
-        <v>0.24343028664588928</v>
+        <v>0.24499689042568207</v>
       </c>
       <c r="D150" s="2">
         <v>0.96478313207626343</v>
       </c>
       <c r="E150" s="2">
-        <v>0.87296736240386963</v>
+        <v>0.87451958656311035</v>
       </c>
     </row>
     <row r="151">
@@ -1799,13 +1799,13 @@
         <v>1.2443603277206421</v>
       </c>
       <c r="C151" s="2">
-        <v>1.1848413944244385</v>
+        <v>1.186454176902771</v>
       </c>
       <c r="D151" s="2">
         <v>1.0068825483322144</v>
       </c>
       <c r="E151" s="2">
-        <v>0.90306359529495239</v>
+        <v>0.90466427803039551</v>
       </c>
     </row>
     <row r="152">
@@ -1816,13 +1816,13 @@
         <v>1.0197614431381226</v>
       </c>
       <c r="C152" s="2">
-        <v>0.91697800159454346</v>
+        <v>0.91924339532852173</v>
       </c>
       <c r="D152" s="2">
         <v>0.95357203483581543</v>
       </c>
       <c r="E152" s="2">
-        <v>0.83272236585617065</v>
+        <v>0.83433622121810913</v>
       </c>
     </row>
     <row r="153">
@@ -1833,13 +1833,13 @@
         <v>1.3689607381820679</v>
       </c>
       <c r="C153" s="2">
-        <v>1.3246361017227173</v>
+        <v>1.3246469497680664</v>
       </c>
       <c r="D153" s="2">
         <v>0.91129863262176514</v>
       </c>
       <c r="E153" s="2">
-        <v>0.80160629749298096</v>
+        <v>0.80312639474868774</v>
       </c>
     </row>
     <row r="154">
@@ -1850,13 +1850,13 @@
         <v>1.217360258102417</v>
       </c>
       <c r="C154" s="2">
-        <v>1.0944938659667969</v>
+        <v>1.095563530921936</v>
       </c>
       <c r="D154" s="2">
         <v>0.79970943927764893</v>
       </c>
       <c r="E154" s="2">
-        <v>0.75637674331665039</v>
+        <v>0.75794625282287598</v>
       </c>
     </row>
     <row r="155">
@@ -1867,13 +1867,13 @@
         <v>1.2594789266586304</v>
       </c>
       <c r="C155" s="2">
-        <v>1.0836410522460938</v>
+        <v>1.0855324268341064</v>
       </c>
       <c r="D155" s="2">
         <v>0.81263875961303711</v>
       </c>
       <c r="E155" s="2">
-        <v>0.774120032787323</v>
+        <v>0.77582037448883057</v>
       </c>
     </row>
     <row r="156">
@@ -1884,13 +1884,13 @@
         <v>0.58039820194244385</v>
       </c>
       <c r="C156" s="2">
-        <v>0.34033399820327759</v>
+        <v>0.34203991293907166</v>
       </c>
       <c r="D156" s="2">
         <v>0.83177149295806885</v>
       </c>
       <c r="E156" s="2">
-        <v>0.79149001836776733</v>
+        <v>0.79319614171981812</v>
       </c>
     </row>
     <row r="157">
@@ -1901,13 +1901,13 @@
         <v>0.57311147451400757</v>
       </c>
       <c r="C157" s="2">
-        <v>0.55267733335494995</v>
+        <v>0.5534479022026062</v>
       </c>
       <c r="D157" s="2">
         <v>0.87028408050537109</v>
       </c>
       <c r="E157" s="2">
-        <v>0.83747422695159912</v>
+        <v>0.8390648365020752</v>
       </c>
     </row>
     <row r="158">
@@ -1918,13 +1918,13 @@
         <v>-0.43271350860595703</v>
       </c>
       <c r="C158" s="2">
-        <v>0.066358447074890137</v>
+        <v>0.069591298699378967</v>
       </c>
       <c r="D158" s="2">
         <v>0.81277155876159668</v>
       </c>
       <c r="E158" s="2">
-        <v>0.76908522844314575</v>
+        <v>0.7707783579826355</v>
       </c>
     </row>
     <row r="159">
@@ -1935,13 +1935,13 @@
         <v>0.483030766248703</v>
       </c>
       <c r="C159" s="2">
-        <v>0.40312004089355469</v>
+        <v>0.40586373209953308</v>
       </c>
       <c r="D159" s="2">
         <v>0.85266071557998657</v>
       </c>
       <c r="E159" s="2">
-        <v>0.80688202381134033</v>
+        <v>0.80864477157592773</v>
       </c>
     </row>
     <row r="160">
@@ -1952,13 +1952,13 @@
         <v>1.4165554046630859</v>
       </c>
       <c r="C160" s="2">
-        <v>1.3411712646484375</v>
+        <v>1.3428363800048828</v>
       </c>
       <c r="D160" s="2">
         <v>0.84335935115814209</v>
       </c>
       <c r="E160" s="2">
-        <v>0.79593443870544434</v>
+        <v>0.79792559146881104</v>
       </c>
     </row>
     <row r="161">
@@ -1969,13 +1969,13 @@
         <v>1.3663743734359741</v>
       </c>
       <c r="C161" s="2">
-        <v>1.3308360576629639</v>
+        <v>1.3320612907409668</v>
       </c>
       <c r="D161" s="2">
         <v>0.86715131998062134</v>
       </c>
       <c r="E161" s="2">
-        <v>0.84936672449111938</v>
+        <v>0.85136860609054566</v>
       </c>
     </row>
     <row r="162">
@@ -1986,13 +1986,13 @@
         <v>0.85134798288345337</v>
       </c>
       <c r="C162" s="2">
-        <v>0.70913499593734741</v>
+        <v>0.71006864309310913</v>
       </c>
       <c r="D162" s="2">
         <v>0.69092398881912231</v>
       </c>
       <c r="E162" s="2">
-        <v>0.6280246376991272</v>
+        <v>0.63012391328811646</v>
       </c>
     </row>
     <row r="163">
@@ -2003,13 +2003,13 @@
         <v>1.5763626098632813</v>
       </c>
       <c r="C163" s="2">
-        <v>1.4346650838851929</v>
+        <v>1.4363614320755005</v>
       </c>
       <c r="D163" s="2">
         <v>0.8962470293045044</v>
       </c>
       <c r="E163" s="2">
-        <v>0.78778451681137085</v>
+        <v>0.78983211517333984</v>
       </c>
     </row>
     <row r="164">
@@ -2020,13 +2020,13 @@
         <v>1.1757670640945435</v>
       </c>
       <c r="C164" s="2">
-        <v>0.98511254787445068</v>
+        <v>0.9890596866607666</v>
       </c>
       <c r="D164" s="2">
         <v>0.92782658338546753</v>
       </c>
       <c r="E164" s="2">
-        <v>0.88151592016220093</v>
+        <v>0.88347303867340088</v>
       </c>
     </row>
     <row r="165">
@@ -2037,13 +2037,13 @@
         <v>0.7945256233215332</v>
       </c>
       <c r="C165" s="2">
-        <v>0.82122468948364258</v>
+        <v>0.82302713394165039</v>
       </c>
       <c r="D165" s="2">
         <v>0.84742128849029541</v>
       </c>
       <c r="E165" s="2">
-        <v>0.80747485160827637</v>
+        <v>0.80939966440200806</v>
       </c>
     </row>
     <row r="166">
@@ -2054,13 +2054,13 @@
         <v>-1.0129344463348389</v>
       </c>
       <c r="C166" s="2">
-        <v>-1.439401388168335</v>
+        <v>-1.4377542734146118</v>
       </c>
       <c r="D166" s="2">
         <v>0.85329848527908325</v>
       </c>
       <c r="E166" s="2">
-        <v>0.81251424551010132</v>
+        <v>0.81473177671432495</v>
       </c>
     </row>
     <row r="167">
@@ -2071,13 +2071,13 @@
         <v>1.4151941537857056</v>
       </c>
       <c r="C167" s="2">
-        <v>1.5041975975036621</v>
+        <v>1.5069650411605835</v>
       </c>
       <c r="D167" s="2">
         <v>0.86927485466003418</v>
       </c>
       <c r="E167" s="2">
-        <v>0.83362078666687012</v>
+        <v>0.83576399087905884</v>
       </c>
     </row>
     <row r="168">
@@ -2088,13 +2088,13 @@
         <v>0.76724648475646973</v>
       </c>
       <c r="C168" s="2">
-        <v>1.2467024326324463</v>
+        <v>1.2486320734024048</v>
       </c>
       <c r="D168" s="2">
         <v>0.62240105867385864</v>
       </c>
       <c r="E168" s="2">
-        <v>0.57596200704574585</v>
+        <v>0.57813292741775513</v>
       </c>
     </row>
     <row r="169">
@@ -2105,13 +2105,13 @@
         <v>0.69290751218795776</v>
       </c>
       <c r="C169" s="2">
-        <v>0.67480170726776123</v>
+        <v>0.67617595195770264</v>
       </c>
       <c r="D169" s="2">
         <v>0.48370081186294556</v>
       </c>
       <c r="E169" s="2">
-        <v>0.47111284732818604</v>
+        <v>0.47316291928291321</v>
       </c>
     </row>
     <row r="170">
@@ -2122,13 +2122,13 @@
         <v>1.4192695617675781</v>
       </c>
       <c r="C170" s="2">
-        <v>1.3761904239654541</v>
+        <v>1.3800503015518189</v>
       </c>
       <c r="D170" s="2">
         <v>0.53009539842605591</v>
       </c>
       <c r="E170" s="2">
-        <v>0.52078616619110107</v>
+        <v>0.52276623249053955</v>
       </c>
     </row>
     <row r="171">
@@ -2139,13 +2139,13 @@
         <v>0.9951353669166565</v>
       </c>
       <c r="C171" s="2">
-        <v>0.8990938663482666</v>
+        <v>0.89935839176177979</v>
       </c>
       <c r="D171" s="2">
         <v>0.70197927951812744</v>
       </c>
       <c r="E171" s="2">
-        <v>0.74213880300521851</v>
+        <v>0.74419248104095459</v>
       </c>
     </row>
     <row r="172">
@@ -2156,13 +2156,13 @@
         <v>-0.64550179243087769</v>
       </c>
       <c r="C172" s="2">
-        <v>-0.88426381349563599</v>
+        <v>-0.88231801986694336</v>
       </c>
       <c r="D172" s="2">
         <v>0.57080817222595215</v>
       </c>
       <c r="E172" s="2">
-        <v>0.58464258909225464</v>
+        <v>0.58699959516525269</v>
       </c>
     </row>
     <row r="173">
@@ -2173,13 +2173,13 @@
         <v>-0.072535261511802673</v>
       </c>
       <c r="C173" s="2">
-        <v>0.041470050811767578</v>
+        <v>0.044329766184091568</v>
       </c>
       <c r="D173" s="2">
         <v>0.37555095553398132</v>
       </c>
       <c r="E173" s="2">
-        <v>0.314698725938797</v>
+        <v>0.31686261296272278</v>
       </c>
     </row>
     <row r="174">
@@ -2190,13 +2190,13 @@
         <v>1.2120770215988159</v>
       </c>
       <c r="C174" s="2">
-        <v>1.2682844400405884</v>
+        <v>1.2694566249847412</v>
       </c>
       <c r="D174" s="2">
         <v>0.45036458969116211</v>
       </c>
       <c r="E174" s="2">
-        <v>0.40136337280273438</v>
+        <v>0.40366056561470032</v>
       </c>
     </row>
     <row r="175">
@@ -2207,13 +2207,13 @@
         <v>0.53402048349380493</v>
       </c>
       <c r="C175" s="2">
-        <v>0.55277276039123535</v>
+        <v>0.55508202314376831</v>
       </c>
       <c r="D175" s="2">
         <v>0.43029242753982544</v>
       </c>
       <c r="E175" s="2">
-        <v>0.38344857096672058</v>
+        <v>0.38577428460121155</v>
       </c>
     </row>
     <row r="176">
@@ -2224,13 +2224,13 @@
         <v>0.23465435206890106</v>
       </c>
       <c r="C176" s="2">
-        <v>0.086731657385826111</v>
+        <v>0.092229455709457397</v>
       </c>
       <c r="D176" s="2">
         <v>0.40371787548065186</v>
       </c>
       <c r="E176" s="2">
-        <v>0.38696295022964478</v>
+        <v>0.38946893811225891</v>
       </c>
     </row>
     <row r="177">
@@ -2241,13 +2241,13 @@
         <v>-0.99006873369216919</v>
       </c>
       <c r="C177" s="2">
-        <v>-1.1827925443649292</v>
+        <v>-1.1826008558273315</v>
       </c>
       <c r="D177" s="2">
         <v>0.62233668565750122</v>
       </c>
       <c r="E177" s="2">
-        <v>0.61903202533721924</v>
+        <v>0.62152916193008423</v>
       </c>
     </row>
     <row r="178">
@@ -2258,13 +2258,13 @@
         <v>1.3662302494049072</v>
       </c>
       <c r="C178" s="2">
-        <v>1.4547834396362305</v>
+        <v>1.4573574066162109</v>
       </c>
       <c r="D178" s="2">
         <v>0.51801615953445435</v>
       </c>
       <c r="E178" s="2">
-        <v>0.5515596866607666</v>
+        <v>0.55402708053588867</v>
       </c>
     </row>
     <row r="179">
@@ -2275,13 +2275,13 @@
         <v>1.2386200428009033</v>
       </c>
       <c r="C179" s="2">
-        <v>1.2149573564529419</v>
+        <v>1.2190738916397095</v>
       </c>
       <c r="D179" s="2">
         <v>0.4819599986076355</v>
       </c>
       <c r="E179" s="2">
-        <v>0.49624761939048767</v>
+        <v>0.49872294068336487</v>
       </c>
     </row>
     <row r="180">
@@ -2292,13 +2292,13 @@
         <v>0.75596463680267334</v>
       </c>
       <c r="C180" s="2">
-        <v>0.93072319030761719</v>
+        <v>0.9326101541519165</v>
       </c>
       <c r="D180" s="2">
         <v>0.54198992252349854</v>
       </c>
       <c r="E180" s="2">
-        <v>0.5406685471534729</v>
+        <v>0.54308301210403442</v>
       </c>
     </row>
     <row r="181">
@@ -2309,13 +2309,13 @@
         <v>1.3220672607421875</v>
       </c>
       <c r="C181" s="2">
-        <v>1.2043577432632446</v>
+        <v>1.206223726272583</v>
       </c>
       <c r="D181" s="2">
         <v>0.63616341352462769</v>
       </c>
       <c r="E181" s="2">
-        <v>0.62534064054489136</v>
+        <v>0.62750107049942017</v>
       </c>
     </row>
     <row r="182">
@@ -2326,13 +2326,13 @@
         <v>-1.0114201307296753</v>
       </c>
       <c r="C182" s="2">
-        <v>-0.56578069925308228</v>
+        <v>-0.56318879127502441</v>
       </c>
       <c r="D182" s="2">
         <v>0.80832242965698242</v>
       </c>
       <c r="E182" s="2">
-        <v>0.8093799352645874</v>
+        <v>0.81149733066558838</v>
       </c>
     </row>
     <row r="183">
@@ -2343,13 +2343,13 @@
         <v>0.88757175207138062</v>
       </c>
       <c r="C183" s="2">
-        <v>0.77047574520111084</v>
+        <v>0.77171933650970459</v>
       </c>
       <c r="D183" s="2">
         <v>0.816234290599823</v>
       </c>
       <c r="E183" s="2">
-        <v>0.79722076654434204</v>
+        <v>0.799308180809021</v>
       </c>
     </row>
     <row r="184">
@@ -2360,13 +2360,13 @@
         <v>1.0742899179458618</v>
       </c>
       <c r="C184" s="2">
-        <v>0.95256119966506958</v>
+        <v>0.95432257652282715</v>
       </c>
       <c r="D184" s="2">
         <v>0.84180420637130737</v>
       </c>
       <c r="E184" s="2">
-        <v>0.77996772527694702</v>
+        <v>0.78198254108428955</v>
       </c>
     </row>
     <row r="185">
@@ -2377,13 +2377,13 @@
         <v>1.0822157859802246</v>
       </c>
       <c r="C185" s="2">
-        <v>0.84878027439117432</v>
+        <v>0.85199236869812012</v>
       </c>
       <c r="D185" s="2">
         <v>0.84736055135726929</v>
       </c>
       <c r="E185" s="2">
-        <v>0.73332321643829346</v>
+        <v>0.73534542322158813</v>
       </c>
     </row>
     <row r="186">
@@ -2394,13 +2394,13 @@
         <v>0.55936235189437866</v>
       </c>
       <c r="C186" s="2">
-        <v>0.47356131672859192</v>
+        <v>0.47336521744728088</v>
       </c>
       <c r="D186" s="2">
         <v>0.67459487915039063</v>
       </c>
       <c r="E186" s="2">
-        <v>0.54305040836334229</v>
+        <v>0.54515641927719116</v>
       </c>
     </row>
     <row r="187">
@@ -2411,13 +2411,13 @@
         <v>1.4374370574951172</v>
       </c>
       <c r="C187" s="2">
-        <v>1.3453506231307983</v>
+        <v>1.3476554155349731</v>
       </c>
       <c r="D187" s="2">
         <v>0.8997909426689148</v>
       </c>
       <c r="E187" s="2">
-        <v>0.74325734376907349</v>
+        <v>0.7453274130821228</v>
       </c>
     </row>
     <row r="188">
@@ -2428,13 +2428,13 @@
         <v>1.4687491655349731</v>
       </c>
       <c r="C188" s="2">
-        <v>1.0596799850463867</v>
+        <v>1.0631427764892578</v>
       </c>
       <c r="D188" s="2">
         <v>0.8301655650138855</v>
       </c>
       <c r="E188" s="2">
-        <v>0.68474388122558594</v>
+        <v>0.68662029504776001</v>
       </c>
     </row>
     <row r="189">
@@ -2445,13 +2445,13 @@
         <v>0.80597198009490967</v>
       </c>
       <c r="C189" s="2">
-        <v>0.51092290878295898</v>
+        <v>0.51287603378295898</v>
       </c>
       <c r="D189" s="2">
         <v>0.81257057189941406</v>
       </c>
       <c r="E189" s="2">
-        <v>0.66143661737442017</v>
+        <v>0.66325706243515015</v>
       </c>
     </row>
     <row r="190">
@@ -2462,13 +2462,13 @@
         <v>-0.23282408714294434</v>
       </c>
       <c r="C190" s="2">
-        <v>-0.50809776782989502</v>
+        <v>-0.50547736883163452</v>
       </c>
       <c r="D190" s="2">
         <v>0.77534443140029907</v>
       </c>
       <c r="E190" s="2">
-        <v>0.62416946887969971</v>
+        <v>0.62585896253585816</v>
       </c>
     </row>
     <row r="191">
@@ -2479,13 +2479,13 @@
         <v>1.0153443813323975</v>
       </c>
       <c r="C191" s="2">
-        <v>1.2360818386077881</v>
+        <v>1.2383503913879395</v>
       </c>
       <c r="D191" s="2">
         <v>0.84406983852386475</v>
       </c>
       <c r="E191" s="2">
-        <v>0.69390964508056641</v>
+        <v>0.69590049982070923</v>
       </c>
     </row>
     <row r="192">
@@ -2496,13 +2496,13 @@
         <v>0.26094359159469604</v>
       </c>
       <c r="C192" s="2">
-        <v>0.24385461211204529</v>
+        <v>0.2433551549911499</v>
       </c>
       <c r="D192" s="2">
         <v>0.5906711220741272</v>
       </c>
       <c r="E192" s="2">
-        <v>0.38384637236595154</v>
+        <v>0.38548684120178223</v>
       </c>
     </row>
     <row r="193">
@@ -2513,13 +2513,13 @@
         <v>0.91593480110168457</v>
       </c>
       <c r="C193" s="2">
-        <v>0.74279588460922241</v>
+        <v>0.7440534234046936</v>
       </c>
       <c r="D193" s="2">
         <v>0.64727354049682617</v>
       </c>
       <c r="E193" s="2">
-        <v>0.455221027135849</v>
+        <v>0.45700687170028687</v>
       </c>
     </row>
     <row r="194">
@@ -2530,13 +2530,13 @@
         <v>0.74718040227890015</v>
       </c>
       <c r="C194" s="2">
-        <v>0.51337593793869019</v>
+        <v>0.51540976762771607</v>
       </c>
       <c r="D194" s="2">
         <v>0.68223839998245239</v>
       </c>
       <c r="E194" s="2">
-        <v>0.48597443103790283</v>
+        <v>0.48799628019332886</v>
       </c>
     </row>
     <row r="195">
@@ -2547,13 +2547,13 @@
         <v>1.1778914928436279</v>
       </c>
       <c r="C195" s="2">
-        <v>1.1012227535247803</v>
+        <v>1.1037387847900391</v>
       </c>
       <c r="D195" s="2">
         <v>0.84369057416915894</v>
       </c>
       <c r="E195" s="2">
-        <v>0.6682504415512085</v>
+        <v>0.67014980316162109</v>
       </c>
     </row>
     <row r="196">
@@ -2564,13 +2564,13 @@
         <v>-0.84315186738967896</v>
       </c>
       <c r="C196" s="2">
-        <v>-1.4452186822891235</v>
+        <v>-1.4460674524307251</v>
       </c>
       <c r="D196" s="2">
         <v>0.8668481707572937</v>
       </c>
       <c r="E196" s="2">
-        <v>0.65283232927322388</v>
+        <v>0.65464174747467041</v>
       </c>
     </row>
     <row r="197">
@@ -2581,13 +2581,13 @@
         <v>1.9781713485717773</v>
       </c>
       <c r="C197" s="2">
-        <v>1.7020517587661743</v>
+        <v>1.7068229913711548</v>
       </c>
       <c r="D197" s="2">
         <v>1.02826988697052</v>
       </c>
       <c r="E197" s="2">
-        <v>0.80917817354202271</v>
+        <v>0.81155437231063843</v>
       </c>
     </row>
     <row r="198">
@@ -2598,13 +2598,13 @@
         <v>1.1206554174423218</v>
       </c>
       <c r="C198" s="2">
-        <v>0.78770345449447632</v>
+        <v>0.79178082942962647</v>
       </c>
       <c r="D198" s="2">
         <v>1.0359407663345337</v>
       </c>
       <c r="E198" s="2">
-        <v>0.86704707145690918</v>
+        <v>0.86951714754104614</v>
       </c>
     </row>
     <row r="199">
@@ -2615,13 +2615,13 @@
         <v>1.2202457189559937</v>
       </c>
       <c r="C199" s="2">
-        <v>1.1323866844177246</v>
+        <v>1.1339042186737061</v>
       </c>
       <c r="D199" s="2">
         <v>1.1254415512084961</v>
       </c>
       <c r="E199" s="2">
-        <v>0.9786001443862915</v>
+        <v>0.98112571239471436</v>
       </c>
     </row>
     <row r="200">
@@ -2632,13 +2632,13 @@
         <v>1.2237625122070313</v>
       </c>
       <c r="C200" s="2">
-        <v>1.0973185300827026</v>
+        <v>1.098778247833252</v>
       </c>
       <c r="D200" s="2">
         <v>1.1177159547805786</v>
       </c>
       <c r="E200" s="2">
-        <v>0.96195411682128906</v>
+        <v>0.96478158235549927</v>
       </c>
     </row>
     <row r="201">
@@ -2649,13 +2649,13 @@
         <v>1.713739275932312</v>
       </c>
       <c r="C201" s="2">
-        <v>1.6509674787521362</v>
+        <v>1.6555683612823486</v>
       </c>
       <c r="D201" s="2">
         <v>1.3274825811386108</v>
       </c>
       <c r="E201" s="2">
-        <v>1.2300523519515991</v>
+        <v>1.2333444356918335</v>
       </c>
     </row>
     <row r="202">
@@ -2666,13 +2666,13 @@
         <v>0.98497289419174194</v>
       </c>
       <c r="C202" s="2">
-        <v>1.2636158466339111</v>
+        <v>1.2657184600830078</v>
       </c>
       <c r="D202" s="2">
         <v>1.3351821899414063</v>
       </c>
       <c r="E202" s="2">
-        <v>1.2530486583709717</v>
+        <v>1.2559462785720825</v>
       </c>
     </row>
     <row r="203">
@@ -2683,13 +2683,13 @@
         <v>1.5526868104934692</v>
       </c>
       <c r="C203" s="2">
-        <v>1.5173535346984863</v>
+        <v>1.5198869705200195</v>
       </c>
       <c r="D203" s="2">
         <v>1.3364373445510864</v>
       </c>
       <c r="E203" s="2">
-        <v>1.2607160806655884</v>
+        <v>1.2635562419891357</v>
       </c>
     </row>
     <row r="204">
@@ -2700,13 +2700,13 @@
         <v>1.1083613634109497</v>
       </c>
       <c r="C204" s="2">
-        <v>0.95140844583511353</v>
+        <v>0.95664143562316895</v>
       </c>
       <c r="D204" s="2">
         <v>1.2379546165466309</v>
       </c>
       <c r="E204" s="2">
-        <v>1.1235876083374024</v>
+        <v>1.1269277334213257</v>
       </c>
     </row>
     <row r="205">
@@ -2717,13 +2717,13 @@
         <v>1.0447477102279663</v>
       </c>
       <c r="C205" s="2">
-        <v>0.96766525506973267</v>
+        <v>0.97099816799163818</v>
       </c>
       <c r="D205" s="2">
         <v>1.2841290235519409</v>
       </c>
       <c r="E205" s="2">
-        <v>1.1708776950836182</v>
+        <v>1.1745131015777588</v>
       </c>
     </row>
     <row r="206">
@@ -2734,13 +2734,13 @@
         <v>2.0474674701690674</v>
       </c>
       <c r="C206" s="2">
-        <v>1.9090182781219482</v>
+        <v>1.9102401733398438</v>
       </c>
       <c r="D206" s="2">
         <v>1.1597045660018921</v>
       </c>
       <c r="E206" s="2">
-        <v>1.0407142639160156</v>
+        <v>1.0440680980682373</v>
       </c>
     </row>
     <row r="207">
@@ -2751,13 +2751,13 @@
         <v>1.1319519281387329</v>
       </c>
       <c r="C207" s="2">
-        <v>0.85671114921569824</v>
+        <v>0.86026972532272339</v>
       </c>
       <c r="D207" s="2">
         <v>1.2399861812591553</v>
       </c>
       <c r="E207" s="2">
-        <v>1.0826575756072998</v>
+        <v>1.0859776735305786</v>
       </c>
     </row>
     <row r="208">
@@ -2768,13 +2768,13 @@
         <v>0.33390182256698608</v>
       </c>
       <c r="C208" s="2">
-        <v>-0.10177047550678253</v>
+        <v>-0.09575200080871582</v>
       </c>
       <c r="D208" s="2">
         <v>1.2080827951431275</v>
       </c>
       <c r="E208" s="2">
-        <v>1.0345076322555542</v>
+        <v>1.0377997159957886</v>
       </c>
     </row>
     <row r="209">
@@ -2785,13 +2785,13 @@
         <v>1.6393320560455322</v>
       </c>
       <c r="C209" s="2">
-        <v>1.5229300260543823</v>
+        <v>1.5270460844039917</v>
       </c>
       <c r="D209" s="2">
         <v>1.2670102119445801</v>
       </c>
       <c r="E209" s="2">
-        <v>1.103649377822876</v>
+        <v>1.106601357460022</v>
       </c>
     </row>
     <row r="210">
@@ -2802,13 +2802,13 @@
         <v>0.59391915798187256</v>
       </c>
       <c r="C210" s="2">
-        <v>0.47949671745300293</v>
+        <v>0.48156332969665527</v>
       </c>
       <c r="D210" s="2">
         <v>1.3644167184829712</v>
       </c>
       <c r="E210" s="2">
-        <v>1.1918075084686279</v>
+        <v>1.1946603059768677</v>
       </c>
     </row>
     <row r="211">
@@ -2819,13 +2819,13 @@
         <v>1.7075070142745972</v>
       </c>
       <c r="C211" s="2">
-        <v>1.6411049365997315</v>
+        <v>1.6429054737091065</v>
       </c>
       <c r="D211" s="2">
         <v>1.2260303497314453</v>
       </c>
       <c r="E211" s="2">
-        <v>1.0454114675521851</v>
+        <v>1.0484559535980225</v>
       </c>
     </row>
     <row r="212">
@@ -2836,13 +2836,13 @@
         <v>1.2655562162399292</v>
       </c>
       <c r="C212" s="2">
-        <v>1.0840045213699341</v>
+        <v>1.0862854719161987</v>
       </c>
       <c r="D212" s="2">
         <v>1.2839332818984985</v>
       </c>
       <c r="E212" s="2">
-        <v>1.0572911500930786</v>
+        <v>1.0602724552154541</v>
       </c>
     </row>
     <row r="213">
@@ -2853,13 +2853,13 @@
         <v>1.6387084722518921</v>
       </c>
       <c r="C213" s="2">
-        <v>1.5736842155456543</v>
+        <v>1.5758558511734009</v>
       </c>
       <c r="D213" s="2">
         <v>1.3926588296890259</v>
       </c>
       <c r="E213" s="2">
-        <v>1.1883485317230225</v>
+        <v>1.1909618377685547</v>
       </c>
     </row>
     <row r="214">
@@ -2870,13 +2870,13 @@
         <v>1.9214067459106445</v>
       </c>
       <c r="C214" s="2">
-        <v>1.7610882520675659</v>
+        <v>1.7635284662246704</v>
       </c>
       <c r="D214" s="2">
         <v>1.3162360191345215</v>
       </c>
       <c r="E214" s="2">
-        <v>1.1214603185653687</v>
+        <v>1.1238529682159424</v>
       </c>
     </row>
     <row r="215">
@@ -2887,13 +2887,13 @@
         <v>0.80198955535888672</v>
       </c>
       <c r="C215" s="2">
-        <v>0.59145426750183105</v>
+        <v>0.59440076351165772</v>
       </c>
       <c r="D215" s="2">
         <v>1.3758833408355713</v>
       </c>
       <c r="E215" s="2">
-        <v>1.1130214929580688</v>
+        <v>1.1154330968856812</v>
       </c>
     </row>
     <row r="216">
@@ -2904,13 +2904,13 @@
         <v>1.6530786752700806</v>
       </c>
       <c r="C216" s="2">
-        <v>0.96362757682800293</v>
+        <v>0.96661889553070068</v>
       </c>
       <c r="D216" s="2">
         <v>1.4042555093765259</v>
       </c>
       <c r="E216" s="2">
-        <v>1.1340558528900147</v>
+        <v>1.1363886594772339</v>
       </c>
     </row>
     <row r="217">
@@ -2921,13 +2921,13 @@
         <v>1.3124315738677979</v>
       </c>
       <c r="C217" s="2">
-        <v>1.0777460336685181</v>
+        <v>1.0804518461227417</v>
       </c>
       <c r="D217" s="2">
         <v>1.3900672197341919</v>
       </c>
       <c r="E217" s="2">
-        <v>1.047266960144043</v>
+        <v>1.0497510433197021</v>
       </c>
     </row>
     <row r="218">
@@ -2938,13 +2938,13 @@
         <v>0.95152682065963745</v>
       </c>
       <c r="C218" s="2">
-        <v>0.92093586921691895</v>
+        <v>0.92306715250015259</v>
       </c>
       <c r="D218" s="2">
         <v>1.397963285446167</v>
       </c>
       <c r="E218" s="2">
-        <v>1.0627285242080688</v>
+        <v>1.0651476383209229</v>
       </c>
     </row>
     <row r="219">
@@ -2955,13 +2955,13 @@
         <v>1.1307454109191895</v>
       </c>
       <c r="C219" s="2">
-        <v>0.40354758501052857</v>
+        <v>0.40578368306159973</v>
       </c>
       <c r="D219" s="2">
         <v>1.2928874492645264</v>
       </c>
       <c r="E219" s="2">
-        <v>1.0604556798934937</v>
+        <v>1.0630149841308594</v>
       </c>
     </row>
     <row r="220">
@@ -2972,13 +2972,13 @@
         <v>1.9628560543060303</v>
       </c>
       <c r="C220" s="2">
-        <v>1.8304140567779541</v>
+        <v>1.8315055370330811</v>
       </c>
       <c r="D220" s="2">
         <v>1.4544354677200317</v>
       </c>
       <c r="E220" s="2">
-        <v>1.2243469953536987</v>
+        <v>1.2270407676696777</v>
       </c>
     </row>
     <row r="221">
@@ -2989,13 +2989,13 @@
         <v>1.1378612518310547</v>
       </c>
       <c r="C221" s="2">
-        <v>0.30290448665618897</v>
+        <v>0.30654719471931458</v>
       </c>
       <c r="D221" s="2">
         <v>1.4848201274871826</v>
       </c>
       <c r="E221" s="2">
-        <v>1.3195620775222778</v>
+        <v>1.3221430778503418</v>
       </c>
     </row>
     <row r="222">
@@ -3006,13 +3006,13 @@
         <v>1.7097737789154053</v>
       </c>
       <c r="C222" s="2">
-        <v>1.7128382921218872</v>
+        <v>1.7144255638122559</v>
       </c>
       <c r="D222" s="2">
         <v>1.5098098516464233</v>
       </c>
       <c r="E222" s="2">
-        <v>1.3531618118286133</v>
+        <v>1.3558551073074341</v>
       </c>
     </row>
     <row r="223">
@@ -3023,13 +3023,13 @@
         <v>0.97572356462478638</v>
       </c>
       <c r="C223" s="2">
-        <v>1.7406331300735474</v>
+        <v>1.7443341016769409</v>
       </c>
       <c r="D223" s="2">
         <v>1.623569130897522</v>
       </c>
       <c r="E223" s="2">
-        <v>1.4556049108505249</v>
+        <v>1.4583196640014649</v>
       </c>
     </row>
     <row r="224">
@@ -3040,13 +3040,13 @@
         <v>2.2559218406677246</v>
       </c>
       <c r="C224" s="2">
-        <v>2.0664756298065186</v>
+        <v>2.0706334114074707</v>
       </c>
       <c r="D224" s="2">
         <v>1.6346161365509033</v>
       </c>
       <c r="E224" s="2">
-        <v>1.5366199016571045</v>
+        <v>1.5393815040588379</v>
       </c>
     </row>
     <row r="225">
@@ -3057,13 +3057,13 @@
         <v>1.9265403747558594</v>
       </c>
       <c r="C225" s="2">
-        <v>1.8205640316009521</v>
+        <v>1.8225394487380982</v>
       </c>
       <c r="D225" s="2">
         <v>1.4885809421539307</v>
       </c>
       <c r="E225" s="2">
-        <v>1.3924487829208374</v>
+        <v>1.3951989412307739</v>
       </c>
     </row>
     <row r="226">
@@ -3074,13 +3074,13 @@
         <v>1.5373392105102539</v>
       </c>
       <c r="C226" s="2">
-        <v>1.380143404006958</v>
+        <v>1.3838597536087036</v>
       </c>
       <c r="D226" s="2">
         <v>1.5964707136154175</v>
       </c>
       <c r="E226" s="2">
-        <v>1.5825662612915039</v>
+        <v>1.5853085517883301</v>
       </c>
     </row>
     <row r="227">
@@ -3091,13 +3091,13 @@
         <v>1.9753605127334595</v>
       </c>
       <c r="C227" s="2">
-        <v>1.8429234027862549</v>
+        <v>1.8452478647232056</v>
       </c>
       <c r="D227" s="2">
         <v>1.5929747819900513</v>
       </c>
       <c r="E227" s="2">
-        <v>1.5549424886703491</v>
+        <v>1.5580443143844605</v>
       </c>
     </row>
     <row r="228">
@@ -3108,13 +3108,13 @@
         <v>1.2301684617996216</v>
       </c>
       <c r="C228" s="2">
-        <v>1.1326829195022583</v>
+        <v>1.1353404521942139</v>
       </c>
       <c r="D228" s="2">
         <v>1.6729639768600464</v>
       </c>
       <c r="E228" s="2">
-        <v>1.5008268356323242</v>
+        <v>1.5036877393722534</v>
       </c>
     </row>
     <row r="229">
@@ -3125,13 +3125,13 @@
         <v>0.64853912591934204</v>
       </c>
       <c r="C229" s="2">
-        <v>0.53287333250045776</v>
+        <v>0.5338624119758606</v>
       </c>
       <c r="D229" s="2">
         <v>1.4716781377792358</v>
       </c>
       <c r="E229" s="2">
-        <v>1.3534101247787476</v>
+        <v>1.3561886548995972</v>
       </c>
     </row>
     <row r="230">
@@ -3142,13 +3142,13 @@
         <v>2.1088693141937256</v>
       </c>
       <c r="C230" s="2">
-        <v>2.0139620304107666</v>
+        <v>2.017533540725708</v>
       </c>
       <c r="D230" s="2">
         <v>1.4309722185134888</v>
       </c>
       <c r="E230" s="2">
-        <v>1.2971080541610718</v>
+        <v>1.2999163866043091</v>
       </c>
     </row>
     <row r="231">
@@ -3159,13 +3159,13 @@
         <v>1.6783111095428467</v>
       </c>
       <c r="C231" s="2">
-        <v>1.4642245769500733</v>
+        <v>1.469048023223877</v>
       </c>
       <c r="D231" s="2">
         <v>1.4457551240921021</v>
       </c>
       <c r="E231" s="2">
-        <v>1.3088294267654419</v>
+        <v>1.3115735054016113</v>
       </c>
     </row>
     <row r="232">
@@ -3176,13 +3176,13 @@
         <v>1.6956256628036499</v>
       </c>
       <c r="C232" s="2">
-        <v>1.2535918951034546</v>
+        <v>1.2551250457763672</v>
       </c>
       <c r="D232" s="2">
         <v>1.3328620195388794</v>
       </c>
       <c r="E232" s="2">
-        <v>1.1591446399688721</v>
+        <v>1.1620358228683472</v>
       </c>
     </row>
     <row r="233">
@@ -3193,13 +3193,13 @@
         <v>0.44434997439384461</v>
       </c>
       <c r="C233" s="2">
-        <v>0.73972505331039429</v>
+        <v>0.74314159154891968</v>
       </c>
       <c r="D233" s="2">
         <v>1.384427547454834</v>
       </c>
       <c r="E233" s="2">
-        <v>1.2147864103317261</v>
+        <v>1.2176382541656494</v>
       </c>
     </row>
     <row r="234">
@@ -3210,13 +3210,13 @@
         <v>1.5601869821548462</v>
       </c>
       <c r="C234" s="2">
-        <v>1.313846230506897</v>
+        <v>1.3160891532897949</v>
       </c>
       <c r="D234" s="2">
         <v>1.3866252899169922</v>
       </c>
       <c r="E234" s="2">
-        <v>1.2075269222259522</v>
+        <v>1.2104629278182983</v>
       </c>
     </row>
     <row r="235">
@@ -3227,13 +3227,13 @@
         <v>1.6703846454620361</v>
       </c>
       <c r="C235" s="2">
-        <v>1.4856349229812622</v>
+        <v>1.4887734651565552</v>
       </c>
       <c r="D235" s="2">
         <v>1.1621153354644775</v>
       </c>
       <c r="E235" s="2">
-        <v>0.96146237850189209</v>
+        <v>0.96448737382888794</v>
       </c>
     </row>
     <row r="236">
@@ -3244,13 +3244,13 @@
         <v>0.95932298898696899</v>
       </c>
       <c r="C236" s="2">
-        <v>0.49576029181480408</v>
+        <v>0.49940866231918335</v>
       </c>
       <c r="D236" s="2">
         <v>1.1453301906585693</v>
       </c>
       <c r="E236" s="2">
-        <v>0.9468415379524231</v>
+        <v>0.94961333274841309</v>
       </c>
     </row>
     <row r="237">
@@ -3261,13 +3261,13 @@
         <v>1.6942579746246338</v>
       </c>
       <c r="C237" s="2">
-        <v>1.6334588527679443</v>
+        <v>1.6357629299163818</v>
       </c>
       <c r="D237" s="2">
         <v>1.1125667095184326</v>
       </c>
       <c r="E237" s="2">
-        <v>0.94001168012619019</v>
+        <v>0.94267594814300537</v>
       </c>
     </row>
     <row r="238">
@@ -3278,13 +3278,13 @@
         <v>0.66831928491592407</v>
       </c>
       <c r="C238" s="2">
-        <v>0.467538982629776</v>
+        <v>0.46928367018699646</v>
       </c>
       <c r="D238" s="2">
         <v>1.237261176109314</v>
       </c>
       <c r="E238" s="2">
-        <v>1.0071054697036743</v>
+        <v>1.0098257064819336</v>
       </c>
     </row>
     <row r="239">
@@ -3295,13 +3295,13 @@
         <v>0.088279090821743012</v>
       </c>
       <c r="C239" s="2">
-        <v>-0.20061945915222168</v>
+        <v>-0.19624614715576172</v>
       </c>
       <c r="D239" s="2">
         <v>1.1578308343887329</v>
       </c>
       <c r="E239" s="2">
-        <v>0.94174128770828247</v>
+        <v>0.94484823942184448</v>
       </c>
     </row>
     <row r="240">
@@ -3312,13 +3312,13 @@
         <v>1.5272446870803833</v>
       </c>
       <c r="C240" s="2">
-        <v>1.3326371908187866</v>
+        <v>1.335181713104248</v>
       </c>
       <c r="D240" s="2">
         <v>1.1170773506164551</v>
       </c>
       <c r="E240" s="2">
-        <v>0.91156172752380371</v>
+        <v>0.91468906402587891</v>
       </c>
     </row>
     <row r="241">
@@ -3329,13 +3329,13 @@
         <v>1.400754451751709</v>
       </c>
       <c r="C241" s="2">
-        <v>1.1921231746673584</v>
+        <v>1.1926882266998291</v>
       </c>
       <c r="D241" s="2">
         <v>1.1723089218139648</v>
       </c>
       <c r="E241" s="2">
-        <v>1.0009967088699341</v>
+        <v>1.0040186643600464</v>
       </c>
     </row>
     <row r="242">
@@ -3346,13 +3346,13 @@
         <v>1.5666007995605469</v>
       </c>
       <c r="C242" s="2">
-        <v>1.3435695171356201</v>
+        <v>1.3474897146224976</v>
       </c>
       <c r="D242" s="2">
         <v>1.1357166767120361</v>
       </c>
       <c r="E242" s="2">
-        <v>0.93450140953063965</v>
+        <v>0.93778115510940552</v>
       </c>
     </row>
     <row r="243">
@@ -3363,13 +3363,13 @@
         <v>0.8453134298324585</v>
       </c>
       <c r="C243" s="2">
-        <v>0.72556817531585693</v>
+        <v>0.73129206895828247</v>
       </c>
       <c r="D243" s="2">
         <v>1.1881477832794189</v>
       </c>
       <c r="E243" s="2">
-        <v>0.98695653676986694</v>
+        <v>0.99059373140335083</v>
       </c>
     </row>
     <row r="244">
@@ -3380,13 +3380,13 @@
         <v>1.303602933883667</v>
       </c>
       <c r="C244" s="2">
-        <v>1.2140188217163086</v>
+        <v>1.2173405885696411</v>
       </c>
       <c r="D244" s="2">
         <v>1.3242640495300293</v>
       </c>
       <c r="E244" s="2">
-        <v>1.1468794345855713</v>
+        <v>1.1504471302032471</v>
       </c>
     </row>
     <row r="245">
@@ -3397,13 +3397,13 @@
         <v>1.4564077854156494</v>
       </c>
       <c r="C245" s="2">
-        <v>1.3006751537322998</v>
+        <v>1.3033756017684937</v>
       </c>
       <c r="D245" s="2">
         <v>1.2350993156433106</v>
       </c>
       <c r="E245" s="2">
-        <v>1.0106247663497925</v>
+        <v>1.0145595073699951</v>
       </c>
     </row>
     <row r="246">
@@ -3414,13 +3414,13 @@
         <v>1.3649272918701172</v>
       </c>
       <c r="C246" s="2">
-        <v>1.0350010395050049</v>
+        <v>1.0396251678466797</v>
       </c>
       <c r="D246" s="2">
         <v>1.2297667264938355</v>
       </c>
       <c r="E246" s="2">
-        <v>1.0150750875473022</v>
+        <v>1.0193222761154175</v>
       </c>
     </row>
     <row r="247">
@@ -3431,13 +3431,13 @@
         <v>1.1401997804641724</v>
       </c>
       <c r="C247" s="2">
-        <v>0.93963545560836792</v>
+        <v>0.94459676742553711</v>
       </c>
       <c r="D247" s="2">
         <v>1.2322481870651245</v>
       </c>
       <c r="E247" s="2">
-        <v>0.99315732717514038</v>
+        <v>0.99753260612487793</v>
       </c>
     </row>
     <row r="248">
@@ -3448,13 +3448,13 @@
         <v>1.3133248090744019</v>
       </c>
       <c r="C248" s="2">
-        <v>1.2386864423751831</v>
+        <v>1.2424348592758179</v>
       </c>
       <c r="D248" s="2">
         <v>1.1537261009216309</v>
       </c>
       <c r="E248" s="2">
-        <v>0.89723080396652222</v>
+        <v>0.90144073963165283</v>
       </c>
     </row>
     <row r="249">
@@ -3465,13 +3465,13 @@
         <v>0.72476279735565186</v>
       </c>
       <c r="C249" s="2">
-        <v>0.10634547472000122</v>
+        <v>0.11219245940446854</v>
       </c>
       <c r="D249" s="2">
         <v>1.0973280668258667</v>
       </c>
       <c r="E249" s="2">
-        <v>0.83349692821502686</v>
+        <v>0.83760398626327515</v>
       </c>
     </row>
     <row r="250">
@@ -3482,13 +3482,13 @@
         <v>1.3527612686157227</v>
       </c>
       <c r="C250" s="2">
-        <v>1.2321757078170776</v>
+        <v>1.2355537414550781</v>
       </c>
       <c r="D250" s="2">
         <v>1.1186145544052124</v>
       </c>
       <c r="E250" s="2">
-        <v>0.86219984292984009</v>
+        <v>0.86644595861434937</v>
       </c>
     </row>
     <row r="251">
@@ -3499,13 +3499,13 @@
         <v>1.5889337062835693</v>
       </c>
       <c r="C251" s="2">
-        <v>1.1463096141815186</v>
+        <v>1.1513824462890625</v>
       </c>
       <c r="D251" s="2">
         <v>1.0637993812561035</v>
       </c>
       <c r="E251" s="2">
-        <v>0.8093910813331604</v>
+        <v>0.81324005126953125</v>
       </c>
     </row>
     <row r="252">
@@ -3516,13 +3516,13 @@
         <v>0.13861446082592011</v>
       </c>
       <c r="C252" s="2">
-        <v>-0.13777056336402893</v>
+        <v>-0.13353519141674042</v>
       </c>
       <c r="D252" s="2">
         <v>0.97546648979187012</v>
       </c>
       <c r="E252" s="2">
-        <v>0.78868746757507324</v>
+        <v>0.79256105422973633</v>
       </c>
     </row>
     <row r="253">
@@ -3533,13 +3533,13 @@
         <v>0.79602092504501343</v>
       </c>
       <c r="C253" s="2">
-        <v>0.64041388034820557</v>
+        <v>0.64280986785888672</v>
       </c>
       <c r="D253" s="2">
         <v>0.91766738891601563</v>
       </c>
       <c r="E253" s="2">
-        <v>0.7518799901008606</v>
+        <v>0.75572031736373901</v>
       </c>
     </row>
     <row r="254">
@@ -3550,13 +3550,13 @@
         <v>1.6479859352111817</v>
       </c>
       <c r="C254" s="2">
-        <v>1.5590014457702637</v>
+        <v>1.5629535913467407</v>
       </c>
       <c r="D254" s="2">
         <v>0.99857324361801148</v>
       </c>
       <c r="E254" s="2">
-        <v>0.88911771774291992</v>
+        <v>0.89270353317260742</v>
       </c>
     </row>
     <row r="255">
@@ -3567,13 +3567,13 @@
         <v>0.87159037590026855</v>
       </c>
       <c r="C255" s="2">
-        <v>0.55972224473953247</v>
+        <v>0.56077176332473755</v>
       </c>
       <c r="D255" s="2">
         <v>1.0063868761062622</v>
       </c>
       <c r="E255" s="2">
-        <v>0.89959287643432617</v>
+        <v>0.9030260443687439</v>
       </c>
     </row>
     <row r="256">
@@ -3584,13 +3584,13 @@
         <v>0.34520411491394043</v>
       </c>
       <c r="C256" s="2">
-        <v>0.7533026933670044</v>
+        <v>0.75848615169525146</v>
       </c>
       <c r="D256" s="2">
         <v>0.84690463542938232</v>
       </c>
       <c r="E256" s="2">
-        <v>0.74468213319778442</v>
+        <v>0.74829673767089844</v>
       </c>
     </row>
     <row r="257">
@@ -3601,13 +3601,13 @@
         <v>0.7931329607963562</v>
       </c>
       <c r="C257" s="2">
-        <v>0.90741938352584839</v>
+        <v>0.91086828708648682</v>
       </c>
       <c r="D257" s="2">
         <v>0.97125893831253052</v>
       </c>
       <c r="E257" s="2">
-        <v>0.87935703992843628</v>
+        <v>0.88303130865097046</v>
       </c>
     </row>
     <row r="258">
@@ -3618,13 +3618,13 @@
         <v>1.4529156684875488</v>
       </c>
       <c r="C258" s="2">
-        <v>1.3414852619171143</v>
+        <v>1.3450413942337036</v>
       </c>
       <c r="D258" s="2">
         <v>1.0330319404602051</v>
       </c>
       <c r="E258" s="2">
-        <v>0.92714226245880127</v>
+        <v>0.93112951517105103</v>
       </c>
     </row>
     <row r="259">
@@ -3635,13 +3635,13 @@
         <v>1.4230834245681763</v>
       </c>
       <c r="C259" s="2">
-        <v>1.3264518976211548</v>
+        <v>1.3284561634063721</v>
       </c>
       <c r="D259" s="2">
         <v>1.0213062763214111</v>
       </c>
       <c r="E259" s="2">
-        <v>0.85384666919708252</v>
+        <v>0.85801267623901367</v>
       </c>
     </row>
     <row r="260">
@@ -3652,13 +3652,13 @@
         <v>0.15359380841255188</v>
       </c>
       <c r="C260" s="2">
-        <v>-0.24788698554039002</v>
+        <v>-0.24118158221244812</v>
       </c>
       <c r="D260" s="2">
         <v>1.0333116054534912</v>
       </c>
       <c r="E260" s="2">
-        <v>0.92072784900665283</v>
+        <v>0.92521744966506958</v>
       </c>
     </row>
     <row r="261">
@@ -3669,13 +3669,13 @@
         <v>1.2578030824661255</v>
       </c>
       <c r="C261" s="2">
-        <v>1.0743035078048706</v>
+        <v>1.0790759325027466</v>
       </c>
       <c r="D261" s="2">
         <v>1.0520367622375488</v>
       </c>
       <c r="E261" s="2">
-        <v>0.83061742782592773</v>
+        <v>0.8349539041519165</v>
       </c>
     </row>
     <row r="262">
@@ -3686,13 +3686,13 @@
         <v>1.351978063583374</v>
       </c>
       <c r="C262" s="2">
-        <v>1.0704809427261353</v>
+        <v>1.0756940841674805</v>
       </c>
       <c r="D262" s="2">
         <v>1.0870660543441773</v>
       </c>
       <c r="E262" s="2">
-        <v>0.87255179882049561</v>
+        <v>0.8768274188041687</v>
       </c>
     </row>
     <row r="263">
@@ -3703,13 +3703,13 @@
         <v>1.5424548387527466</v>
       </c>
       <c r="C263" s="2">
-        <v>0.89934110641479492</v>
+        <v>0.90490174293518067</v>
       </c>
       <c r="D263" s="2">
         <v>0.95616143941879272</v>
       </c>
       <c r="E263" s="2">
-        <v>0.72616744041442871</v>
+        <v>0.73062020540237427</v>
       </c>
     </row>
     <row r="264">
@@ -3720,13 +3720,13 @@
         <v>0.97963887453079224</v>
       </c>
       <c r="C264" s="2">
-        <v>1.161652684211731</v>
+        <v>1.1656149625778198</v>
       </c>
       <c r="D264" s="2">
         <v>0.87969917058944702</v>
       </c>
       <c r="E264" s="2">
-        <v>0.66565734148025513</v>
+        <v>0.67041361331939697</v>
       </c>
     </row>
     <row r="265">
@@ -3737,13 +3737,13 @@
         <v>0.51372969150543213</v>
       </c>
       <c r="C265" s="2">
-        <v>-0.057690992951393127</v>
+        <v>-0.053885973989963532</v>
       </c>
       <c r="D265" s="2">
         <v>1.0744653940200806</v>
       </c>
       <c r="E265" s="2">
-        <v>0.92245399951934814</v>
+        <v>0.92681849002838135</v>
       </c>
     </row>
     <row r="266">
@@ -3754,13 +3754,13 @@
         <v>1.1083972454071045</v>
       </c>
       <c r="C266" s="2">
-        <v>1.2848289012908936</v>
+        <v>1.2877300977706909</v>
       </c>
       <c r="D266" s="2">
         <v>1.0123846530914307</v>
       </c>
       <c r="E266" s="2">
-        <v>0.85024195909500122</v>
+        <v>0.85415154695510864</v>
       </c>
     </row>
     <row r="267">
@@ -3771,13 +3771,13 @@
         <v>0.27477392554283142</v>
       </c>
       <c r="C267" s="2">
-        <v>0.024025930091738701</v>
+        <v>0.029176373034715653</v>
       </c>
       <c r="D267" s="2">
         <v>0.9141051173210144</v>
       </c>
       <c r="E267" s="2">
-        <v>0.74333012104034424</v>
+        <v>0.74704205989837646</v>
       </c>
     </row>
     <row r="268">
@@ -3788,13 +3788,13 @@
         <v>0.73492306470870972</v>
       </c>
       <c r="C268" s="2">
-        <v>0.78186094760894775</v>
+        <v>0.78659707307815552</v>
       </c>
       <c r="D268" s="2">
         <v>0.91679525375366211</v>
       </c>
       <c r="E268" s="2">
-        <v>0.80032354593276978</v>
+        <v>0.80369037389755249</v>
       </c>
     </row>
     <row r="269">
@@ -3805,13 +3805,13 @@
         <v>1.9064894914627075</v>
       </c>
       <c r="C269" s="2">
-        <v>2.0632832050323486</v>
+        <v>2.0664620399475098</v>
       </c>
       <c r="D269" s="2">
         <v>0.93014359474182129</v>
       </c>
       <c r="E269" s="2">
-        <v>0.73965060710906982</v>
+        <v>0.74299412965774536</v>
       </c>
     </row>
     <row r="270">
@@ -3822,13 +3822,13 @@
         <v>0.69907701015472412</v>
       </c>
       <c r="C270" s="2">
-        <v>0.42439484596252442</v>
+        <v>0.42507374286651611</v>
       </c>
       <c r="D270" s="2">
         <v>1.0504767894744873</v>
       </c>
       <c r="E270" s="2">
-        <v>0.91726022958755493</v>
+        <v>0.92030417919158936</v>
       </c>
     </row>
     <row r="271">
@@ -3839,13 +3839,13 @@
         <v>0.46746206283569336</v>
       </c>
       <c r="C271" s="2">
-        <v>0.10827425122261047</v>
+        <v>0.11170846968889236</v>
       </c>
       <c r="D271" s="2">
         <v>1.1118896007537842</v>
       </c>
       <c r="E271" s="2">
-        <v>0.9647786021232605</v>
+        <v>0.96801352500915527</v>
       </c>
     </row>
     <row r="272">
@@ -3856,13 +3856,13 @@
         <v>1.5666657686233521</v>
       </c>
       <c r="C272" s="2">
-        <v>1.4122821092605591</v>
+        <v>1.4147365093231201</v>
       </c>
       <c r="D272" s="2">
         <v>1.3253248929977417</v>
       </c>
       <c r="E272" s="2">
-        <v>1.1801698207855225</v>
+        <v>1.1834210157394409</v>
       </c>
     </row>
     <row r="273">
@@ -3873,13 +3873,13 @@
         <v>1.0997742414474487</v>
       </c>
       <c r="C273" s="2">
-        <v>0.61559605598449707</v>
+        <v>0.61934894323348999</v>
       </c>
       <c r="D273" s="2">
         <v>1.3130826950073242</v>
       </c>
       <c r="E273" s="2">
-        <v>1.1311211585998535</v>
+        <v>1.1339738368988037</v>
       </c>
     </row>
     <row r="274">
@@ -3890,13 +3890,13 @@
         <v>1.5967279672622681</v>
       </c>
       <c r="C274" s="2">
-        <v>1.5407955646514893</v>
+        <v>1.5419042110443115</v>
       </c>
       <c r="D274" s="2">
         <v>1.2403908967971802</v>
       </c>
       <c r="E274" s="2">
-        <v>1.0267122983932495</v>
+        <v>1.0294501781463623</v>
       </c>
     </row>
     <row r="275">
@@ -3907,13 +3907,13 @@
         <v>1.6611130237579346</v>
       </c>
       <c r="C275" s="2">
-        <v>1.7124943733215332</v>
+        <v>1.7171144485473633</v>
       </c>
       <c r="D275" s="2">
         <v>1.2660610675811768</v>
       </c>
       <c r="E275" s="2">
-        <v>1.0838397741317749</v>
+        <v>1.0871193408966064</v>
       </c>
     </row>
     <row r="276">
@@ -3924,13 +3924,13 @@
         <v>2.1956918239593506</v>
       </c>
       <c r="C276" s="2">
-        <v>1.962546706199646</v>
+        <v>1.9678438901901245</v>
       </c>
       <c r="D276" s="2">
         <v>1.3297243118286133</v>
       </c>
       <c r="E276" s="2">
-        <v>1.1629320383071899</v>
+        <v>1.1662251949310303</v>
       </c>
     </row>
     <row r="277">
@@ -3941,13 +3941,13 @@
         <v>0.62474262714385986</v>
       </c>
       <c r="C277" s="2">
-        <v>0.34042376279830933</v>
+        <v>0.34157261252403259</v>
       </c>
       <c r="D277" s="2">
         <v>1.3354830741882324</v>
       </c>
       <c r="E277" s="2">
-        <v>1.1488150358200073</v>
+        <v>1.1521719694137573</v>
       </c>
     </row>
     <row r="278">
@@ -3958,13 +3958,13 @@
         <v>1.2522634267807007</v>
       </c>
       <c r="C278" s="2">
-        <v>1.1236025094985962</v>
+        <v>1.1257486343383789</v>
       </c>
       <c r="D278" s="2">
         <v>1.3521963357925415</v>
       </c>
       <c r="E278" s="2">
-        <v>1.1857063770294189</v>
+        <v>1.1892112493515015</v>
       </c>
     </row>
     <row r="279">
@@ -3975,13 +3975,13 @@
         <v>0.93010848760604858</v>
       </c>
       <c r="C279" s="2">
-        <v>0.93854242563247681</v>
+        <v>0.94409668445587158</v>
       </c>
       <c r="D279" s="2">
         <v>1.3701539039611816</v>
       </c>
       <c r="E279" s="2">
-        <v>1.2189244031906128</v>
+        <v>1.2228611707687378</v>
       </c>
     </row>
     <row r="280">
@@ -3992,13 +3992,13 @@
         <v>1.0404309034347534</v>
       </c>
       <c r="C280" s="2">
-        <v>0.82010436058044434</v>
+        <v>0.82366085052490234</v>
       </c>
       <c r="D280" s="2">
         <v>1.4690201282501221</v>
       </c>
       <c r="E280" s="2">
-        <v>1.3166704177856445</v>
+        <v>1.3211634159088135</v>
       </c>
     </row>
     <row r="281">
@@ -4009,13 +4009,13 @@
         <v>1.6184946298599243</v>
       </c>
       <c r="C281" s="2">
-        <v>1.2852296829223633</v>
+        <v>1.2882578372955322</v>
       </c>
       <c r="D281" s="2">
         <v>1.3865048885345459</v>
       </c>
       <c r="E281" s="2">
-        <v>1.2312474250793457</v>
+        <v>1.2356756925582886</v>
       </c>
     </row>
     <row r="282">
@@ -4026,13 +4026,13 @@
         <v>1.25019371509552</v>
       </c>
       <c r="C282" s="2">
-        <v>0.94761824607849121</v>
+        <v>0.95270234346389771</v>
       </c>
       <c r="D282" s="2">
         <v>1.363510012626648</v>
       </c>
       <c r="E282" s="2">
-        <v>1.1939014196395874</v>
+        <v>1.1984744071960449</v>
       </c>
     </row>
     <row r="283">
@@ -4043,13 +4043,13 @@
         <v>1.7583461999893188</v>
       </c>
       <c r="C283" s="2">
-        <v>1.8397570848464966</v>
+        <v>1.8447537422180176</v>
       </c>
       <c r="D283" s="2">
         <v>1.2786366939544678</v>
       </c>
       <c r="E283" s="2">
-        <v>1.0912115573883057</v>
+        <v>1.096147894859314</v>
       </c>
     </row>
     <row r="284">
@@ -4060,13 +4060,13 @@
         <v>2.5509097576141357</v>
       </c>
       <c r="C284" s="2">
-        <v>2.5922091007232666</v>
+        <v>2.6018342971801758</v>
       </c>
       <c r="D284" s="2">
         <v>1.2541571855545044</v>
       </c>
       <c r="E284" s="2">
-        <v>0.99044471979141235</v>
+        <v>0.99517619609832764</v>
       </c>
     </row>
     <row r="285">
@@ -4077,13 +4077,13 @@
         <v>1.4530540704727173</v>
       </c>
       <c r="C285" s="2">
-        <v>1.1937400102615357</v>
+        <v>1.1984543800354004</v>
       </c>
       <c r="D285" s="2">
         <v>1.0807789564132691</v>
       </c>
       <c r="E285" s="2">
-        <v>0.81182193756103516</v>
+        <v>0.81625968217849731</v>
       </c>
     </row>
     <row r="286">
@@ -4094,13 +4094,13 @@
         <v>0.41778936982154846</v>
       </c>
       <c r="C286" s="2">
-        <v>0.0043095503933727741</v>
+        <v>0.0067608361132442951</v>
       </c>
       <c r="D286" s="2">
         <v>1.0790601968765259</v>
       </c>
       <c r="E286" s="2">
-        <v>0.82993531227111817</v>
+        <v>0.83435213565826416</v>
       </c>
     </row>
     <row r="287">
@@ -4111,13 +4111,13 @@
         <v>0.48840361833572388</v>
       </c>
       <c r="C287" s="2">
-        <v>0.19939391314983368</v>
+        <v>0.2048100084066391</v>
       </c>
       <c r="D287" s="2">
         <v>0.99301004409790039</v>
       </c>
       <c r="E287" s="2">
-        <v>0.78073298931121826</v>
+        <v>0.78471559286117554</v>
       </c>
     </row>
     <row r="288">
@@ -4128,13 +4128,13 @@
         <v>0.70979189872741699</v>
       </c>
       <c r="C288" s="2">
-        <v>0.031640496104955673</v>
+        <v>0.035351302474737167</v>
       </c>
       <c r="D288" s="2">
         <v>0.85004186630249024</v>
       </c>
       <c r="E288" s="2">
-        <v>0.59853953123092651</v>
+        <v>0.60212600231170654</v>
       </c>
     </row>
     <row r="289">
@@ -4145,13 +4145,13 @@
         <v>-0.51997315883636475</v>
       </c>
       <c r="C289" s="2">
-        <v>-0.78750050067901611</v>
+        <v>-0.78658765554428101</v>
       </c>
       <c r="D289" s="2">
         <v>0.80765068531036377</v>
       </c>
       <c r="E289" s="2">
-        <v>0.52144068479537964</v>
+        <v>0.52487063407897949</v>
       </c>
     </row>
     <row r="290">
@@ -4162,13 +4162,13 @@
         <v>1.6030266284942627</v>
       </c>
       <c r="C290" s="2">
-        <v>1.4482501745223999</v>
+        <v>1.4510900974273682</v>
       </c>
       <c r="D290" s="2">
         <v>0.82293063402175903</v>
       </c>
       <c r="E290" s="2">
-        <v>0.54032450914382935</v>
+        <v>0.54352468252182007</v>
       </c>
     </row>
     <row r="291">
@@ -4179,13 +4179,13 @@
         <v>0.47574183344841004</v>
       </c>
       <c r="C291" s="2">
-        <v>0.50479722023010254</v>
+        <v>0.50597333908081055</v>
       </c>
       <c r="D291" s="2">
         <v>0.88260281085968018</v>
       </c>
       <c r="E291" s="2">
-        <v>0.61028516292572021</v>
+        <v>0.6136820912361145</v>
       </c>
     </row>
     <row r="292">
@@ -4196,13 +4196,13 @@
         <v>0.47163292765617371</v>
       </c>
       <c r="C292" s="2">
-        <v>0.20001561939716339</v>
+        <v>0.20144715905189514</v>
       </c>
       <c r="D292" s="2">
         <v>0.90585345029830933</v>
       </c>
       <c r="E292" s="2">
-        <v>0.63092070817947388</v>
+        <v>0.63398045301437378</v>
       </c>
     </row>
     <row r="293">
@@ -4213,13 +4213,13 @@
         <v>2.169389009475708</v>
       </c>
       <c r="C293" s="2">
-        <v>1.8983196020126343</v>
+        <v>1.9065364599227905</v>
       </c>
       <c r="D293" s="2">
         <v>0.99328809976577759</v>
       </c>
       <c r="E293" s="2">
-        <v>0.76178711652755737</v>
+        <v>0.76511543989181519</v>
       </c>
     </row>
     <row r="294">
@@ -4230,13 +4230,13 @@
         <v>1.5905734300613403</v>
       </c>
       <c r="C294" s="2">
-        <v>1.3636945486068726</v>
+        <v>1.3663406372070313</v>
       </c>
       <c r="D294" s="2">
         <v>1.1772722005844116</v>
       </c>
       <c r="E294" s="2">
-        <v>0.94749313592910767</v>
+        <v>0.95099687576293945</v>
       </c>
     </row>
     <row r="295">
@@ -4247,13 +4247,13 @@
         <v>0.95483887195587158</v>
       </c>
       <c r="C295" s="2">
-        <v>0.63395559787750244</v>
+        <v>0.63817769289016724</v>
       </c>
       <c r="D295" s="2">
         <v>1.0827399492263794</v>
       </c>
       <c r="E295" s="2">
-        <v>0.8192787766456604</v>
+        <v>0.82270699739456177</v>
       </c>
     </row>
     <row r="296">
@@ -4264,13 +4264,13 @@
         <v>0.69765973091125488</v>
       </c>
       <c r="C296" s="2">
-        <v>0.38511365652084351</v>
+        <v>0.38749510049819946</v>
       </c>
       <c r="D296" s="2">
         <v>1.2303216457366943</v>
       </c>
       <c r="E296" s="2">
-        <v>0.94067478179931641</v>
+        <v>0.94457006454467774</v>
       </c>
     </row>
     <row r="297">
@@ -4281,13 +4281,13 @@
         <v>1.4967035055160522</v>
       </c>
       <c r="C297" s="2">
-        <v>1.2094382047653198</v>
+        <v>1.2155662775039673</v>
       </c>
       <c r="D297" s="2">
         <v>1.1550716161727905</v>
       </c>
       <c r="E297" s="2">
-        <v>0.86561918258666992</v>
+        <v>0.86928898096084595</v>
       </c>
     </row>
     <row r="298">
@@ -4298,13 +4298,13 @@
         <v>1.1358842849731445</v>
       </c>
       <c r="C298" s="2">
-        <v>0.88385385274887085</v>
+        <v>0.88634514808654785</v>
       </c>
       <c r="D298" s="2">
         <v>1.0595005750656128</v>
       </c>
       <c r="E298" s="2">
-        <v>0.79771167039871216</v>
+        <v>0.8010932207107544</v>
       </c>
     </row>
     <row r="299">
@@ -4315,13 +4315,13 @@
         <v>0.75223612785339355</v>
       </c>
       <c r="C299" s="2">
-        <v>0.29432076215744019</v>
+        <v>0.29648095369338989</v>
       </c>
       <c r="D299" s="2">
         <v>0.92929434776306152</v>
       </c>
       <c r="E299" s="2">
-        <v>0.68958669900894165</v>
+        <v>0.69253706932067871</v>
       </c>
     </row>
     <row r="300">
@@ -4332,13 +4332,13 @@
         <v>1.8039766550064087</v>
       </c>
       <c r="C300" s="2">
-        <v>1.5973614454269409</v>
+        <v>1.6027411222457886</v>
       </c>
       <c r="D300" s="2">
         <v>0.92470461130142212</v>
       </c>
       <c r="E300" s="2">
-        <v>0.67973631620407104</v>
+        <v>0.68289637565612793</v>
       </c>
     </row>
     <row r="301">
@@ -4349,13 +4349,13 @@
         <v>-0.20561701059341431</v>
       </c>
       <c r="C301" s="2">
-        <v>-0.47548481822013855</v>
+        <v>-0.47608250379562378</v>
       </c>
       <c r="D301" s="2">
         <v>0.99573558568954468</v>
       </c>
       <c r="E301" s="2">
-        <v>0.70112228393554688</v>
+        <v>0.70426261425018311</v>
       </c>
     </row>
     <row r="302">
@@ -4366,13 +4366,13 @@
         <v>1.3092491626739502</v>
       </c>
       <c r="C302" s="2">
-        <v>1.2871518135070801</v>
+        <v>1.2927744388580322</v>
       </c>
       <c r="D302" s="2">
         <v>0.98348772525787354</v>
       </c>
       <c r="E302" s="2">
-        <v>0.70571625232696533</v>
+        <v>0.7090216875076294</v>
       </c>
     </row>
     <row r="303">
@@ -4383,13 +4383,13 @@
         <v>0.41871783137321472</v>
       </c>
       <c r="C303" s="2">
-        <v>0.3905695378780365</v>
+        <v>0.38933548331260681</v>
       </c>
       <c r="D303" s="2">
         <v>0.76769578456878662</v>
       </c>
       <c r="E303" s="2">
-        <v>0.48155060410499573</v>
+        <v>0.48515492677688599</v>
       </c>
     </row>
     <row r="304">
@@ -4400,13 +4400,13 @@
         <v>0.91353130340576172</v>
       </c>
       <c r="C304" s="2">
-        <v>0.54530245065689087</v>
+        <v>0.5514112114906311</v>
       </c>
       <c r="D304" s="2">
         <v>0.7285504937171936</v>
       </c>
       <c r="E304" s="2">
-        <v>0.48466143012046814</v>
+        <v>0.48880666494369507</v>
       </c>
     </row>
     <row r="305">
@@ -4417,13 +4417,13 @@
         <v>1.3369383811950684</v>
       </c>
       <c r="C305" s="2">
-        <v>0.57758742570877075</v>
+        <v>0.57979130744934082</v>
       </c>
       <c r="D305" s="2">
         <v>0.47426274418830872</v>
       </c>
       <c r="E305" s="2">
-        <v>0.22604413330554962</v>
+        <v>0.22997522354125977</v>
       </c>
     </row>
     <row r="306">
@@ -4434,13 +4434,13 @@
         <v>1.3864729404449463</v>
       </c>
       <c r="C306" s="2">
-        <v>1.2507838010787964</v>
+        <v>1.2583979368209839</v>
       </c>
       <c r="D306" s="2">
         <v>0.60978662967681885</v>
       </c>
       <c r="E306" s="2">
-        <v>0.37502530217170715</v>
+        <v>0.37945759296417236</v>
       </c>
     </row>
     <row r="307">
@@ -4451,13 +4451,13 @@
         <v>-0.80624306201934814</v>
       </c>
       <c r="C307" s="2">
-        <v>-1.1336370706558228</v>
+        <v>-1.1284556388854981</v>
       </c>
       <c r="D307" s="2">
         <v>0.6389230489730835</v>
       </c>
       <c r="E307" s="2">
-        <v>0.40006455779075623</v>
+        <v>0.40409904718399048</v>
       </c>
     </row>
     <row r="308">
@@ -4468,13 +4468,13 @@
         <v>0.39992815256118775</v>
       </c>
       <c r="C308" s="2">
-        <v>0.32231831550598145</v>
+        <v>0.32934671640396118</v>
       </c>
       <c r="D308" s="2">
         <v>0.77143740653991699</v>
       </c>
       <c r="E308" s="2">
-        <v>0.5432172417640686</v>
+        <v>0.54757153987884521</v>
       </c>
     </row>
     <row r="309">
@@ -4485,13 +4485,13 @@
         <v>-0.48461303114891052</v>
       </c>
       <c r="C309" s="2">
-        <v>-0.73019421100616455</v>
+        <v>-0.7267419695854187</v>
       </c>
       <c r="D309" s="2">
         <v>0.7330508828163147</v>
       </c>
       <c r="E309" s="2">
-        <v>0.59294748306274414</v>
+        <v>0.59702235460281372</v>
       </c>
     </row>
     <row r="310">
@@ -4502,13 +4502,13 @@
         <v>1.0140981674194336</v>
       </c>
       <c r="C310" s="2">
-        <v>0.86534559726715088</v>
+        <v>0.86925894021987915</v>
       </c>
       <c r="D310" s="2">
         <v>0.75815600156784058</v>
       </c>
       <c r="E310" s="2">
-        <v>0.68939834833145142</v>
+        <v>0.69366538524627686</v>
       </c>
     </row>
     <row r="311">
@@ -4519,13 +4519,13 @@
         <v>1.5714768171310425</v>
       </c>
       <c r="C311" s="2">
-        <v>1.5125051736831665</v>
+        <v>1.5145474672317505</v>
       </c>
       <c r="D311" s="2">
         <v>0.68625617027282715</v>
       </c>
       <c r="E311" s="2">
-        <v>0.59725993871688843</v>
+        <v>0.60126370191574097</v>
       </c>
     </row>
     <row r="312">
@@ -4536,13 +4536,13 @@
         <v>1.6113471984863281</v>
       </c>
       <c r="C312" s="2">
-        <v>1.6789437532424927</v>
+        <v>1.6805881261825562</v>
       </c>
       <c r="D312" s="2">
         <v>0.81754857301712036</v>
       </c>
       <c r="E312" s="2">
-        <v>0.74427115917205811</v>
+        <v>0.74770539999008179</v>
       </c>
     </row>
     <row r="313">
@@ -4553,13 +4553,13 @@
         <v>0.56805253028869629</v>
       </c>
       <c r="C313" s="2">
-        <v>0.99287474155426025</v>
+        <v>0.99646854400634766</v>
       </c>
       <c r="D313" s="2">
         <v>0.93562400341033936</v>
       </c>
       <c r="E313" s="2">
-        <v>0.85449796915054321</v>
+        <v>0.85757875442504883</v>
       </c>
     </row>
     <row r="314">
@@ -4570,13 +4570,13 @@
         <v>1.5628843307495117</v>
       </c>
       <c r="C314" s="2">
-        <v>1.4456450939178467</v>
+        <v>1.4495781660079956</v>
       </c>
       <c r="D314" s="2">
         <v>1.0999102592468262</v>
       </c>
       <c r="E314" s="2">
-        <v>1.0100146532058716</v>
+        <v>1.0131598711013794</v>
       </c>
     </row>
     <row r="315">
@@ -4587,13 +4587,13 @@
         <v>0.73937433958053589</v>
       </c>
       <c r="C315" s="2">
-        <v>0.42153787612915039</v>
+        <v>0.42678278684616089</v>
       </c>
       <c r="D315" s="2">
         <v>1.1503597497940064</v>
       </c>
       <c r="E315" s="2">
-        <v>1.0318911075592041</v>
+        <v>1.0350173711776733</v>
       </c>
     </row>
     <row r="316">
@@ -4604,13 +4604,13 @@
         <v>0.37538883090019226</v>
       </c>
       <c r="C316" s="2">
-        <v>0.18946434557437897</v>
+        <v>0.18951967358589172</v>
       </c>
       <c r="D316" s="2">
         <v>1.1143773794174194</v>
       </c>
       <c r="E316" s="2">
-        <v>0.98940449953079224</v>
+        <v>0.99280744791030884</v>
       </c>
     </row>
     <row r="317">
@@ -4621,13 +4621,13 @@
         <v>1.46260666847229</v>
       </c>
       <c r="C317" s="2">
-        <v>1.3143594264984131</v>
+        <v>1.3182071447372437</v>
       </c>
       <c r="D317" s="2">
         <v>0.94556421041488648</v>
       </c>
       <c r="E317" s="2">
-        <v>0.80102801322937012</v>
+        <v>0.80461156368255615</v>
       </c>
     </row>
     <row r="318">
@@ -4638,13 +4638,13 @@
         <v>0.99396336078643799</v>
       </c>
       <c r="C318" s="2">
-        <v>0.66945618391036987</v>
+        <v>0.67348772287368775</v>
       </c>
       <c r="D318" s="2">
         <v>0.9559025764465332</v>
       </c>
       <c r="E318" s="2">
-        <v>0.72293722629547119</v>
+        <v>0.72690129280090332</v>
       </c>
     </row>
     <row r="319">
@@ -4655,13 +4655,13 @@
         <v>1.4681437015533447</v>
       </c>
       <c r="C319" s="2">
-        <v>1.0622333288192749</v>
+        <v>1.0659763813018799</v>
       </c>
       <c r="D319" s="2">
         <v>0.93070501089096069</v>
       </c>
       <c r="E319" s="2">
-        <v>0.66616642475128174</v>
+        <v>0.67024797201156616</v>
       </c>
     </row>
     <row r="320">
@@ -4672,13 +4672,13 @@
         <v>1.2476351261138916</v>
       </c>
       <c r="C320" s="2">
-        <v>1.1301258802413941</v>
+        <v>1.1346583366394043</v>
       </c>
       <c r="D320" s="2">
         <v>1.000348687171936</v>
       </c>
       <c r="E320" s="2">
-        <v>0.74458473920822144</v>
+        <v>0.74886530637741089</v>
       </c>
     </row>
     <row r="321">
@@ -4689,13 +4689,13 @@
         <v>0.092029169201850891</v>
       </c>
       <c r="C321" s="2">
-        <v>-0.016444772481918335</v>
+        <v>-0.013174518942832947</v>
       </c>
       <c r="D321" s="2">
         <v>1.0339717864990234</v>
       </c>
       <c r="E321" s="2">
-        <v>0.85376989841461182</v>
+        <v>0.85873961448669434</v>
       </c>
     </row>
     <row r="322">
@@ -4706,13 +4706,13 @@
         <v>0.66109788417816162</v>
       </c>
       <c r="C322" s="2">
-        <v>0.29005742073059082</v>
+        <v>0.29707598686218262</v>
       </c>
       <c r="D322" s="2">
         <v>0.93579024076461792</v>
       </c>
       <c r="E322" s="2">
-        <v>0.74749678373336792</v>
+        <v>0.75255370140075684</v>
       </c>
     </row>
     <row r="323">
@@ -4723,13 +4723,13 @@
         <v>1.3361060619354248</v>
       </c>
       <c r="C323" s="2">
-        <v>0.9347078800201416</v>
+        <v>0.9396979808807373</v>
       </c>
       <c r="D323" s="2">
         <v>0.92109745740890503</v>
       </c>
       <c r="E323" s="2">
-        <v>0.74422335624694824</v>
+        <v>0.74935257434844971</v>
       </c>
     </row>
     <row r="324">
@@ -4740,13 +4740,13 @@
         <v>1.3661671876907349</v>
       </c>
       <c r="C324" s="2">
-        <v>1.1273031234741211</v>
+        <v>1.1343388557434082</v>
       </c>
       <c r="D324" s="2">
         <v>0.85225611925125122</v>
       </c>
       <c r="E324" s="2">
-        <v>0.70865774154663086</v>
+        <v>0.71367043256759644</v>
       </c>
     </row>
     <row r="325">
@@ -4757,13 +4757,13 @@
         <v>0.67799729108810425</v>
       </c>
       <c r="C325" s="2">
-        <v>1.172130823135376</v>
+        <v>1.1783884763717651</v>
       </c>
       <c r="D325" s="2">
         <v>0.81152629852294922</v>
       </c>
       <c r="E325" s="2">
-        <v>0.67486149072647095</v>
+        <v>0.68017536401748657</v>
       </c>
     </row>
     <row r="326">
@@ -4774,13 +4774,13 @@
         <v>0.5789724588394165</v>
       </c>
       <c r="C326" s="2">
-        <v>0.35790100693702698</v>
+        <v>0.36253428459167481</v>
       </c>
       <c r="D326" s="2">
         <v>0.93742728233337402</v>
       </c>
       <c r="E326" s="2">
-        <v>0.79612928628921509</v>
+        <v>0.80146819353103638</v>
       </c>
     </row>
     <row r="327">
@@ -4791,13 +4791,13 @@
         <v>0.8617284893989563</v>
       </c>
       <c r="C327" s="2">
-        <v>0.63999539613723755</v>
+        <v>0.64467722177505493</v>
       </c>
       <c r="D327" s="2">
         <v>0.97826093435287476</v>
       </c>
       <c r="E327" s="2">
-        <v>0.85299956798553467</v>
+        <v>0.85800135135650635</v>
       </c>
     </row>
     <row r="328">
@@ -4808,13 +4808,13 @@
         <v>0.84857147932052612</v>
       </c>
       <c r="C328" s="2">
-        <v>0.74214291572570801</v>
+        <v>0.74483752250671387</v>
       </c>
       <c r="D328" s="2">
         <v>0.93273746967315674</v>
       </c>
       <c r="E328" s="2">
-        <v>0.85487163066864014</v>
+        <v>0.85933500528335571</v>
       </c>
     </row>
     <row r="329">
@@ -4825,13 +4825,13 @@
         <v>0.88106644153594971</v>
       </c>
       <c r="C329" s="2">
-        <v>0.82595980167388916</v>
+        <v>0.8332025408744812</v>
       </c>
       <c r="D329" s="2">
         <v>0.82271802425384522</v>
       </c>
       <c r="E329" s="2">
-        <v>0.7811589241027832</v>
+        <v>0.78529071807861328</v>
       </c>
     </row>
     <row r="330">
@@ -4842,13 +4842,13 @@
         <v>1.2251380681991577</v>
       </c>
       <c r="C330" s="2">
-        <v>1.0749650001525879</v>
+        <v>1.0784610509872437</v>
       </c>
       <c r="D330" s="2">
         <v>0.85231399536132813</v>
       </c>
       <c r="E330" s="2">
-        <v>0.73417258262634277</v>
+        <v>0.73812508583068848</v>
       </c>
     </row>
     <row r="331">
@@ -4859,13 +4859,13 @@
         <v>1.0286011695861816</v>
       </c>
       <c r="C331" s="2">
-        <v>0.80189019441604614</v>
+        <v>0.8058740496635437</v>
       </c>
       <c r="D331" s="2">
         <v>0.89910435676574707</v>
       </c>
       <c r="E331" s="2">
-        <v>0.79640603065490723</v>
+        <v>0.80024731159210205</v>
       </c>
     </row>
     <row r="332">
@@ -4876,13 +4876,13 @@
         <v>0.92639487981796265</v>
       </c>
       <c r="C332" s="2">
-        <v>0.9515565037727356</v>
+        <v>0.95170110464096069</v>
       </c>
       <c r="D332" s="2">
         <v>0.97743362188339233</v>
       </c>
       <c r="E332" s="2">
-        <v>0.84796732664108276</v>
+        <v>0.85153323411941528</v>
       </c>
     </row>
     <row r="333">
@@ -4893,13 +4893,13 @@
         <v>0.37599179148674011</v>
       </c>
       <c r="C333" s="2">
-        <v>0.46388882398605347</v>
+        <v>0.46794021129608154</v>
       </c>
       <c r="D333" s="2">
         <v>1.0743964910507202</v>
       </c>
       <c r="E333" s="2">
-        <v>0.93020373582839966</v>
+        <v>0.93387067317962647</v>
       </c>
     </row>
     <row r="334">
@@ -4910,13 +4910,13 @@
         <v>0.94436109066009522</v>
       </c>
       <c r="C334" s="2">
-        <v>0.74925380945205688</v>
+        <v>0.75389784574508667</v>
       </c>
       <c r="D334" s="2">
         <v>0.97155135869979858</v>
       </c>
       <c r="E334" s="2">
-        <v>0.78687900304794312</v>
+        <v>0.79046934843063355</v>
       </c>
     </row>
     <row r="335">
@@ -4927,13 +4927,13 @@
         <v>1.0000859498977661</v>
       </c>
       <c r="C335" s="2">
-        <v>0.91800171136856079</v>
+        <v>0.92163431644439697</v>
       </c>
       <c r="D335" s="2">
         <v>1.0137605667114258</v>
       </c>
       <c r="E335" s="2">
-        <v>0.82271605730056763</v>
+        <v>0.82643276453018189</v>
       </c>
     </row>
     <row r="336">
@@ -4944,13 +4944,13 @@
         <v>1.5666918754577637</v>
       </c>
       <c r="C336" s="2">
-        <v>1.104047417640686</v>
+        <v>1.1062502861022949</v>
       </c>
       <c r="D336" s="2">
         <v>0.86322373151779175</v>
       </c>
       <c r="E336" s="2">
-        <v>0.68242895603179932</v>
+        <v>0.68571579456329346</v>
       </c>
     </row>
     <row r="337">
@@ -4961,13 +4961,13 @@
         <v>1.7212371826171875</v>
       </c>
       <c r="C337" s="2">
-        <v>1.482270359992981</v>
+        <v>1.4858748912811279</v>
       </c>
       <c r="D337" s="2">
         <v>0.95414084196090698</v>
       </c>
       <c r="E337" s="2">
-        <v>0.75338929891586304</v>
+        <v>0.75710570812225342</v>
       </c>
     </row>
     <row r="338">
@@ -4978,13 +4978,13 @@
         <v>-0.04453996941447258</v>
       </c>
       <c r="C338" s="2">
-        <v>-0.46396300196647644</v>
+        <v>-0.45740953087806702</v>
       </c>
       <c r="D338" s="2">
         <v>1.1469392776489258</v>
       </c>
       <c r="E338" s="2">
-        <v>0.92357087135314942</v>
+        <v>0.9271855354309082</v>
       </c>
     </row>
     <row r="339">
@@ -4995,13 +4995,13 @@
         <v>1.6050214767456055</v>
       </c>
       <c r="C339" s="2">
-        <v>1.3974986076354981</v>
+        <v>1.4021316766738892</v>
       </c>
       <c r="D339" s="2">
         <v>1.1296859979629517</v>
       </c>
       <c r="E339" s="2">
-        <v>0.88065868616104126</v>
+        <v>0.88406860828399658</v>
       </c>
     </row>
     <row r="340">
@@ -5012,13 +5012,13 @@
         <v>-0.32623058557510376</v>
       </c>
       <c r="C340" s="2">
-        <v>-0.46069380640983582</v>
+        <v>-0.46057853102684021</v>
       </c>
       <c r="D340" s="2">
         <v>1.1529141664505005</v>
       </c>
       <c r="E340" s="2">
-        <v>0.90242195129394531</v>
+        <v>0.90598952770233154</v>
       </c>
     </row>
     <row r="341">
@@ -5029,13 +5029,13 @@
         <v>1.7446486949920654</v>
       </c>
       <c r="C341" s="2">
-        <v>1.5901998281478882</v>
+        <v>1.594210147857666</v>
       </c>
       <c r="D341" s="2">
         <v>0.88070487976074219</v>
       </c>
       <c r="E341" s="2">
-        <v>0.6134987473487854</v>
+        <v>0.61728394031524658</v>
       </c>
     </row>
     <row r="342">
@@ -5046,13 +5046,13 @@
         <v>2.1111781597137451</v>
       </c>
       <c r="C342" s="2">
-        <v>1.9955227375030518</v>
+        <v>1.9986586570739746</v>
       </c>
       <c r="D342" s="2">
         <v>0.74200582504272461</v>
       </c>
       <c r="E342" s="2">
-        <v>0.50239706039428711</v>
+        <v>0.50610184669494629</v>
       </c>
     </row>
     <row r="343">
@@ -5063,13 +5063,13 @@
         <v>0.78908157348632813</v>
       </c>
       <c r="C343" s="2">
-        <v>0.36304435133934021</v>
+        <v>0.36584556102752686</v>
       </c>
       <c r="D343" s="2">
         <v>0.83294153213500977</v>
       </c>
       <c r="E343" s="2">
-        <v>0.61146664619445801</v>
+        <v>0.61480414867401123</v>
       </c>
     </row>
     <row r="344">
@@ -5080,13 +5080,13 @@
         <v>1.209139347076416</v>
       </c>
       <c r="C344" s="2">
-        <v>1.1138713359832764</v>
+        <v>1.1189224720001221</v>
       </c>
       <c r="D344" s="2">
         <v>0.8226657509803772</v>
       </c>
       <c r="E344" s="2">
-        <v>0.6030460000038147</v>
+        <v>0.60629558563232422</v>
       </c>
     </row>
     <row r="345">
@@ -5097,13 +5097,13 @@
         <v>-0.88319182395935059</v>
       </c>
       <c r="C345" s="2">
-        <v>-1.4962617158889771</v>
+        <v>-1.4921001195907593</v>
       </c>
       <c r="D345" s="2">
         <v>0.9124876856803894</v>
       </c>
       <c r="E345" s="2">
-        <v>0.68196362257003784</v>
+        <v>0.68565112352371216</v>
       </c>
     </row>
     <row r="346">
@@ -5114,13 +5114,13 @@
         <v>0.47294574975967407</v>
       </c>
       <c r="C346" s="2">
-        <v>0.48235523700714111</v>
+        <v>0.48523613810539246</v>
       </c>
       <c r="D346" s="2">
         <v>0.83863216638565064</v>
       </c>
       <c r="E346" s="2">
-        <v>0.6093902587890625</v>
+        <v>0.61306095123291016</v>
       </c>
     </row>
     <row r="347">
@@ -5131,13 +5131,13 @@
         <v>0.77388107776641846</v>
       </c>
       <c r="C347" s="2">
-        <v>0.51766330003738403</v>
+        <v>0.52091127634048462</v>
       </c>
       <c r="D347" s="2">
         <v>0.76935845613479614</v>
       </c>
       <c r="E347" s="2">
-        <v>0.50718957185745239</v>
+        <v>0.511272132396698</v>
       </c>
     </row>
     <row r="348">
@@ -5148,13 +5148,13 @@
         <v>1.5125393867492676</v>
       </c>
       <c r="C348" s="2">
-        <v>1.3217129707336426</v>
+        <v>1.3255546092987061</v>
       </c>
       <c r="D348" s="2">
         <v>0.84573310613632202</v>
       </c>
       <c r="E348" s="2">
-        <v>0.6152835488319397</v>
+        <v>0.61924231052398682</v>
       </c>
     </row>
     <row r="349">
@@ -5165,13 +5165,13 @@
         <v>0.48216709494590759</v>
       </c>
       <c r="C349" s="2">
-        <v>0.2495647668838501</v>
+        <v>0.25362128019332886</v>
       </c>
       <c r="D349" s="2">
         <v>0.85027694702148438</v>
       </c>
       <c r="E349" s="2">
-        <v>0.6299583911895752</v>
+        <v>0.63395863771438599</v>
       </c>
     </row>
     <row r="350">
@@ -5182,13 +5182,13 @@
         <v>1.0799490213394165</v>
       </c>
       <c r="C350" s="2">
-        <v>0.93703955411911011</v>
+        <v>0.940898597240448</v>
       </c>
       <c r="D350" s="2">
         <v>1.050269603729248</v>
       </c>
       <c r="E350" s="2">
-        <v>0.92671477794647217</v>
+        <v>0.93100970983505249</v>
       </c>
     </row>
     <row r="351">
@@ -5199,13 +5199,13 @@
         <v>1.4877148866653442</v>
       </c>
       <c r="C351" s="2">
-        <v>1.0757163763046265</v>
+        <v>1.0825595855712891</v>
       </c>
       <c r="D351" s="2">
         <v>1.1629682779312134</v>
       </c>
       <c r="E351" s="2">
-        <v>1.0417921543121338</v>
+        <v>1.0461540222167969</v>
       </c>
     </row>
     <row r="352">
@@ -5216,13 +5216,13 @@
         <v>1.4764531850814819</v>
       </c>
       <c r="C352" s="2">
-        <v>1.3358902931213379</v>
+        <v>1.3375771045684814</v>
       </c>
       <c r="D352" s="2">
         <v>1.2526540756225586</v>
       </c>
       <c r="E352" s="2">
-        <v>1.1446366310119629</v>
+        <v>1.149072527885437</v>
       </c>
     </row>
     <row r="353">
@@ -5233,13 +5233,13 @@
         <v>1.250033974647522</v>
       </c>
       <c r="C353" s="2">
-        <v>1.2459449768066406</v>
+        <v>1.2513692378997803</v>
       </c>
       <c r="D353" s="2">
         <v>1.2666057348251343</v>
       </c>
       <c r="E353" s="2">
-        <v>1.1807515621185303</v>
+        <v>1.1852890253067017</v>
       </c>
     </row>
     <row r="354">
@@ -5250,13 +5250,13 @@
         <v>0.91674226522445679</v>
       </c>
       <c r="C354" s="2">
-        <v>1.1745452880859375</v>
+        <v>1.1813594102859497</v>
       </c>
       <c r="D354" s="2">
         <v>1.327772855758667</v>
       </c>
       <c r="E354" s="2">
-        <v>1.243036150932312</v>
+        <v>1.2477664947509766</v>
       </c>
     </row>
     <row r="355">
@@ -5267,13 +5267,13 @@
         <v>1.4872337579727173</v>
       </c>
       <c r="C355" s="2">
-        <v>1.5180521011352539</v>
+        <v>1.5215356349945068</v>
       </c>
       <c r="D355" s="2">
         <v>1.3739309310913086</v>
       </c>
       <c r="E355" s="2">
-        <v>1.2950667142868042</v>
+        <v>1.2993776798248291</v>
       </c>
     </row>
     <row r="356">
@@ -5284,13 +5284,13 @@
         <v>1.5810526609420776</v>
       </c>
       <c r="C356" s="2">
-        <v>1.4432635307312012</v>
+        <v>1.4471768140792847</v>
       </c>
       <c r="D356" s="2">
         <v>1.1782811880111694</v>
       </c>
       <c r="E356" s="2">
-        <v>1.1346043348312378</v>
+        <v>1.1383260488510132</v>
       </c>
     </row>
     <row r="357">
@@ -5301,13 +5301,13 @@
         <v>1.6381043195724487</v>
       </c>
       <c r="C357" s="2">
-        <v>1.6467467546463013</v>
+        <v>1.6515038013458252</v>
       </c>
       <c r="D357" s="2">
         <v>1.1397476196289063</v>
       </c>
       <c r="E357" s="2">
-        <v>1.091675877571106</v>
+        <v>1.095575213432312</v>
       </c>
     </row>
     <row r="358">
@@ -5318,13 +5318,13 @@
         <v>1.0326718091964722</v>
       </c>
       <c r="C358" s="2">
-        <v>0.81012600660324097</v>
+        <v>0.81591826677322388</v>
       </c>
       <c r="D358" s="2">
         <v>1.1061015129089355</v>
       </c>
       <c r="E358" s="2">
-        <v>1.0340070724487305</v>
+        <v>1.0376031398773193</v>
       </c>
     </row>
     <row r="359">
@@ -5335,13 +5335,13 @@
         <v>1.4953709840774536</v>
       </c>
       <c r="C359" s="2">
-        <v>1.4053155183792114</v>
+        <v>1.4053992033004761</v>
       </c>
       <c r="D359" s="2">
         <v>1.0519428253173828</v>
       </c>
       <c r="E359" s="2">
-        <v>0.93663108348846436</v>
+        <v>0.93995672464370728</v>
       </c>
     </row>
     <row r="360">
@@ -5352,13 +5352,13 @@
         <v>-0.27313265204429626</v>
       </c>
       <c r="C360" s="2">
-        <v>-0.36844542622566223</v>
+        <v>-0.3669048547744751</v>
       </c>
       <c r="D360" s="2">
         <v>0.94394612312316895</v>
       </c>
       <c r="E360" s="2">
-        <v>0.81875520944595337</v>
+        <v>0.82179802656173706</v>
       </c>
     </row>
     <row r="361">
@@ -5369,13 +5369,13 @@
         <v>1.1296514272689819</v>
       </c>
       <c r="C361" s="2">
-        <v>0.94953447580337524</v>
+        <v>0.95281952619552612</v>
       </c>
       <c r="D361" s="2">
         <v>0.76388567686080933</v>
       </c>
       <c r="E361" s="2">
-        <v>0.71239089965820313</v>
+        <v>0.71525508165359497</v>
       </c>
     </row>
     <row r="362">
@@ -5386,13 +5386,13 @@
         <v>0.9472193717956543</v>
       </c>
       <c r="C362" s="2">
-        <v>0.72692489624023438</v>
+        <v>0.72962063550949097</v>
       </c>
       <c r="D362" s="2">
         <v>0.54172438383102417</v>
       </c>
       <c r="E362" s="2">
-        <v>0.46609994769096375</v>
+        <v>0.46879830956459046</v>
       </c>
     </row>
     <row r="363">
@@ -5403,13 +5403,13 @@
         <v>0.42931383848190308</v>
       </c>
       <c r="C363" s="2">
-        <v>0.29816201329231262</v>
+        <v>0.30254149436950684</v>
       </c>
       <c r="D363" s="2">
         <v>0.4697323739528656</v>
       </c>
       <c r="E363" s="2">
-        <v>0.38426369428634644</v>
+        <v>0.38659632205963135</v>
       </c>
     </row>
     <row r="364">
@@ -5420,13 +5420,13 @@
         <v>0.51526331901550293</v>
       </c>
       <c r="C364" s="2">
-        <v>0.45716926455497742</v>
+        <v>0.45810726284980774</v>
       </c>
       <c r="D364" s="2">
         <v>0.28652283549308777</v>
       </c>
       <c r="E364" s="2">
-        <v>0.18951106071472168</v>
+        <v>0.19201759994029999</v>
       </c>
     </row>
     <row r="365">
@@ -5437,13 +5437,13 @@
         <v>-0.039491485804319382</v>
       </c>
       <c r="C365" s="2">
-        <v>0.48598459362983704</v>
+        <v>0.48829063773155213</v>
       </c>
       <c r="D365" s="2">
         <v>0.40503662824630737</v>
       </c>
       <c r="E365" s="2">
-        <v>0.30337220430374146</v>
+        <v>0.30604001879692078</v>
       </c>
     </row>
     <row r="366">
@@ -5454,13 +5454,13 @@
         <v>-0.3613470196723938</v>
       </c>
       <c r="C366" s="2">
-        <v>-0.56987190246582031</v>
+        <v>-0.56660747528076172</v>
       </c>
       <c r="D366" s="2">
         <v>0.30304220318794251</v>
       </c>
       <c r="E366" s="2">
-        <v>0.19332887232303619</v>
+        <v>0.19595570862293244</v>
       </c>
     </row>
     <row r="367">
@@ -5471,13 +5471,13 @@
         <v>0.38474345207214355</v>
       </c>
       <c r="C367" s="2">
-        <v>0.073599793016910553</v>
+        <v>0.076100416481494904</v>
       </c>
       <c r="D367" s="2">
         <v>0.192133828997612</v>
       </c>
       <c r="E367" s="2">
-        <v>0.080552011728286743</v>
+        <v>0.082801990211009979</v>
       </c>
     </row>
     <row r="368">
@@ -5488,13 +5488,13 @@
         <v>-0.15351486206054688</v>
       </c>
       <c r="C368" s="2">
-        <v>-0.34745818376541138</v>
+        <v>-0.34580928087234497</v>
       </c>
       <c r="D368" s="2">
         <v>0.21625897288322449</v>
       </c>
       <c r="E368" s="2">
-        <v>0.10156995058059692</v>
+        <v>0.10385835915803909</v>
       </c>
     </row>
     <row r="369">
@@ -5505,13 +5505,13 @@
         <v>0.79349154233932495</v>
       </c>
       <c r="C369" s="2">
-        <v>0.65630501508712769</v>
+        <v>0.65929704904556275</v>
       </c>
       <c r="D369" s="2">
         <v>0.1829356849193573</v>
       </c>
       <c r="E369" s="2">
-        <v>0.046482037752866745</v>
+        <v>0.049215998500585556</v>
       </c>
     </row>
     <row r="370">
@@ -5522,13 +5522,13 @@
         <v>0.21170161664485931</v>
       </c>
       <c r="C370" s="2">
-        <v>-0.040855608880519867</v>
+        <v>-0.037939392030239105</v>
       </c>
       <c r="D370" s="2">
         <v>0.33001428842544556</v>
       </c>
       <c r="E370" s="2">
-        <v>0.12247603386640549</v>
+        <v>0.12513959407806397</v>
       </c>
     </row>
     <row r="371">
@@ -5539,13 +5539,13 @@
         <v>-0.05095590278506279</v>
       </c>
       <c r="C371" s="2">
-        <v>-0.28806686401367188</v>
+        <v>-0.28876277804374695</v>
       </c>
       <c r="D371" s="2">
         <v>0.45911511778831482</v>
       </c>
       <c r="E371" s="2">
-        <v>0.27882778644561768</v>
+        <v>0.28200846910476685</v>
       </c>
     </row>
     <row r="372">
@@ -5556,13 +5556,13 @@
         <v>0.64644014835357666</v>
       </c>
       <c r="C372" s="2">
-        <v>0.48732346296310425</v>
+        <v>0.49204877018928528</v>
       </c>
       <c r="D372" s="2">
         <v>0.4512697160243988</v>
       </c>
       <c r="E372" s="2">
-        <v>0.28461664915084839</v>
+        <v>0.2878422737121582</v>
       </c>
     </row>
     <row r="373">
@@ -5573,13 +5573,13 @@
         <v>0.21535365283489227</v>
       </c>
       <c r="C373" s="2">
-        <v>-0.038621962070465088</v>
+        <v>-0.033673953264951706</v>
       </c>
       <c r="D373" s="2">
         <v>0.61973947286605835</v>
       </c>
       <c r="E373" s="2">
-        <v>0.44450423121452332</v>
+        <v>0.4482886791229248</v>
       </c>
     </row>
     <row r="374">
@@ -5590,13 +5590,13 @@
         <v>1.2842159271240234</v>
       </c>
       <c r="C374" s="2">
-        <v>1.1699305772781372</v>
+        <v>1.1716029644012451</v>
       </c>
       <c r="D374" s="2">
         <v>0.61039769649505615</v>
       </c>
       <c r="E374" s="2">
-        <v>0.42822948098182678</v>
+        <v>0.43242862820625305</v>
       </c>
     </row>
     <row r="375">
@@ -5607,13 +5607,13 @@
         <v>0.8005605936050415</v>
       </c>
       <c r="C375" s="2">
-        <v>0.83729374408721924</v>
+        <v>0.84521245956420899</v>
       </c>
       <c r="D375" s="2">
         <v>0.63082516193389893</v>
       </c>
       <c r="E375" s="2">
-        <v>0.45640119910240173</v>
+        <v>0.46053078770637512</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>0.31413483619689941</v>
       </c>
       <c r="C376" s="2">
-        <v>0.12569975852966309</v>
+        <v>0.12860460579395294</v>
       </c>
       <c r="D376" s="2">
         <v>0.62528997659683228</v>
       </c>
       <c r="E376" s="2">
-        <v>0.47818928956985474</v>
+        <v>0.4826568067073822</v>
       </c>
     </row>
     <row r="377">
@@ -5641,13 +5641,13 @@
         <v>1.3627126216888428</v>
       </c>
       <c r="C377" s="2">
-        <v>1.0915298461914063</v>
+        <v>1.0982084274291992</v>
       </c>
       <c r="D377" s="2">
         <v>0.5664517879486084</v>
       </c>
       <c r="E377" s="2">
-        <v>0.4227401614189148</v>
+        <v>0.42686176300048828</v>
       </c>
     </row>
     <row r="378">
@@ -5658,13 +5658,13 @@
         <v>0.70941591262817383</v>
       </c>
       <c r="C378" s="2">
-        <v>0.50983238220214844</v>
+        <v>0.51655662059783936</v>
       </c>
       <c r="D378" s="2">
         <v>0.59306252002716065</v>
       </c>
       <c r="E378" s="2">
-        <v>0.47870421409606934</v>
+        <v>0.48294970393180847</v>
       </c>
     </row>
     <row r="379">
@@ -5675,13 +5675,13 @@
         <v>0.39554858207702637</v>
       </c>
       <c r="C379" s="2">
-        <v>0.21268987655639648</v>
+        <v>0.21497991681098938</v>
       </c>
       <c r="D379" s="2">
         <v>0.44809642434120178</v>
       </c>
       <c r="E379" s="2">
-        <v>0.32887595891952515</v>
+        <v>0.33282572031021118</v>
       </c>
     </row>
     <row r="380">
@@ -5692,13 +5692,13 @@
         <v>-0.10077229142189026</v>
       </c>
       <c r="C380" s="2">
-        <v>-0.091974198818206787</v>
+        <v>-0.089628458023071289</v>
       </c>
       <c r="D380" s="2">
         <v>0.40597635507583618</v>
       </c>
       <c r="E380" s="2">
-        <v>0.25582414865493775</v>
+        <v>0.25925171375274658</v>
       </c>
     </row>
     <row r="381">
@@ -5709,13 +5709,13 @@
         <v>0.11689631640911102</v>
       </c>
       <c r="C381" s="2">
-        <v>-0.011718481779098511</v>
+        <v>-0.010106838308274746</v>
       </c>
       <c r="D381" s="2">
         <v>0.44833150506019592</v>
       </c>
       <c r="E381" s="2">
-        <v>0.29322138428688049</v>
+        <v>0.29670745134353638</v>
       </c>
     </row>
     <row r="382">
@@ -5726,13 +5726,13 @@
         <v>0.45485028624534607</v>
       </c>
       <c r="C382" s="2">
-        <v>0.46505439281463623</v>
+        <v>0.47111758589744568</v>
       </c>
       <c r="D382" s="2">
         <v>0.29954487085342407</v>
       </c>
       <c r="E382" s="2">
-        <v>0.094976603984832764</v>
+        <v>0.098403975367546082</v>
       </c>
     </row>
     <row r="383">
@@ -5743,13 +5743,13 @@
         <v>-0.020478913560509682</v>
       </c>
       <c r="C383" s="2">
-        <v>-0.17852357029914856</v>
+        <v>-0.17951278388500214</v>
       </c>
       <c r="D383" s="2">
         <v>0.3782193660736084</v>
       </c>
       <c r="E383" s="2">
-        <v>0.17293235659599304</v>
+        <v>0.17616209387779236</v>
       </c>
     </row>
     <row r="384">
@@ -5760,13 +5760,13 @@
         <v>0.42147979140281677</v>
       </c>
       <c r="C384" s="2">
-        <v>0.17982743680477142</v>
+        <v>0.18304625153541565</v>
       </c>
       <c r="D384" s="2">
         <v>0.33594030141830444</v>
       </c>
       <c r="E384" s="2">
-        <v>0.11179753392934799</v>
+        <v>0.11495669931173325</v>
       </c>
     </row>
     <row r="385">
@@ -5777,13 +5777,13 @@
         <v>0.6953311562538147</v>
       </c>
       <c r="C385" s="2">
-        <v>0.46227481961250305</v>
+        <v>0.465706467628479</v>
       </c>
       <c r="D385" s="2">
         <v>0.46171224117279053</v>
       </c>
       <c r="E385" s="2">
-        <v>0.22359700500965119</v>
+        <v>0.2265779972076416</v>
       </c>
     </row>
     <row r="386">
@@ -5794,13 +5794,13 @@
         <v>0.023632992058992386</v>
       </c>
       <c r="C386" s="2">
-        <v>-0.6926732063293457</v>
+        <v>-0.6865229606628418</v>
       </c>
       <c r="D386" s="2">
         <v>0.57530373334884644</v>
       </c>
       <c r="E386" s="2">
-        <v>0.32615238428115845</v>
+        <v>0.32933208346366882</v>
       </c>
     </row>
     <row r="387">
@@ -5811,13 +5811,13 @@
         <v>1.4174864292144775</v>
       </c>
       <c r="C387" s="2">
-        <v>1.2114341259002686</v>
+        <v>1.2163796424865723</v>
       </c>
       <c r="D387" s="2">
         <v>0.53660774230957031</v>
       </c>
       <c r="E387" s="2">
-        <v>0.23670682311058045</v>
+        <v>0.23944693803787232</v>
       </c>
     </row>
     <row r="388">
@@ -5828,13 +5828,13 @@
         <v>0.01503694336861372</v>
       </c>
       <c r="C388" s="2">
-        <v>-0.33752349019050598</v>
+        <v>-0.33586859703063965</v>
       </c>
       <c r="D388" s="2">
         <v>0.63792628049850464</v>
       </c>
       <c r="E388" s="2">
-        <v>0.35620018839836121</v>
+        <v>0.35939261317253113</v>
       </c>
     </row>
     <row r="389">
@@ -5845,13 +5845,13 @@
         <v>1.0311752557754517</v>
       </c>
       <c r="C389" s="2">
-        <v>0.91422098875045776</v>
+        <v>0.91496318578720093</v>
       </c>
       <c r="D389" s="2">
         <v>0.74791854619979858</v>
       </c>
       <c r="E389" s="2">
-        <v>0.50984448194503784</v>
+        <v>0.51297634840011597</v>
       </c>
     </row>
     <row r="390">
@@ -5862,13 +5862,13 @@
         <v>1.1392196416854858</v>
       </c>
       <c r="C390" s="2">
-        <v>0.91128003597259521</v>
+        <v>0.91468006372451782</v>
       </c>
       <c r="D390" s="2">
         <v>0.80796927213668823</v>
       </c>
       <c r="E390" s="2">
-        <v>0.58062452077865601</v>
+        <v>0.58361512422561646</v>
       </c>
     </row>
     <row r="391">
@@ -5879,13 +5879,13 @@
         <v>0.10658663511276245</v>
       </c>
       <c r="C391" s="2">
-        <v>-0.33995568752288818</v>
+        <v>-0.33784884214401245</v>
       </c>
       <c r="D391" s="2">
         <v>0.79914486408233643</v>
       </c>
       <c r="E391" s="2">
-        <v>0.73646599054336548</v>
+        <v>0.7389330267906189</v>
       </c>
     </row>
     <row r="392">
@@ -5896,13 +5896,13 @@
         <v>0.891387939453125</v>
       </c>
       <c r="C392" s="2">
-        <v>0.89691674709320068</v>
+        <v>0.89999830722808838</v>
       </c>
       <c r="D392" s="2">
         <v>0.70701056718826294</v>
       </c>
       <c r="E392" s="2">
-        <v>0.64023870229721069</v>
+        <v>0.6428985595703125</v>
       </c>
     </row>
     <row r="393">
@@ -5913,13 +5913,13 @@
         <v>1.4114097356796265</v>
       </c>
       <c r="C393" s="2">
-        <v>1.5626257658004761</v>
+        <v>1.5653001070022583</v>
       </c>
       <c r="D393" s="2">
         <v>0.74123650789260864</v>
       </c>
       <c r="E393" s="2">
-        <v>0.67483121156692505</v>
+        <v>0.67794746160507202</v>
       </c>
     </row>
     <row r="394">
@@ -5930,13 +5930,13 @@
         <v>1.2357876300811768</v>
       </c>
       <c r="C394" s="2">
-        <v>1.0992953777313232</v>
+        <v>1.1014554500579834</v>
       </c>
       <c r="D394" s="2">
         <v>0.6642032265663147</v>
       </c>
       <c r="E394" s="2">
-        <v>0.5871046781539917</v>
+        <v>0.59060209989547729</v>
       </c>
     </row>
     <row r="395">
@@ -5947,13 +5947,13 @@
         <v>-0.055786550045013428</v>
       </c>
       <c r="C395" s="2">
-        <v>0.70990002155303955</v>
+        <v>0.71133798360824585</v>
       </c>
       <c r="D395" s="2">
         <v>0.66620290279388428</v>
       </c>
       <c r="E395" s="2">
-        <v>0.60792160034179688</v>
+        <v>0.61132329702377319</v>
       </c>
     </row>
     <row r="396">
@@ -5964,13 +5964,13 @@
         <v>0.58827769756317139</v>
       </c>
       <c r="C396" s="2">
-        <v>0.34538856148719788</v>
+        <v>0.35206922888755798</v>
       </c>
       <c r="D396" s="2">
         <v>0.69698220491409302</v>
       </c>
       <c r="E396" s="2">
-        <v>0.64827841520309448</v>
+        <v>0.65191841125488281</v>
       </c>
     </row>
     <row r="397">
@@ -5981,13 +5981,13 @@
         <v>0.32307064533233643</v>
       </c>
       <c r="C397" s="2">
-        <v>-0.026190930977463722</v>
+        <v>-0.02042858861386776</v>
       </c>
       <c r="D397" s="2">
         <v>0.68773192167282104</v>
       </c>
       <c r="E397" s="2">
-        <v>0.62439966201782227</v>
+        <v>0.62783330678939819</v>
       </c>
     </row>
     <row r="398">
@@ -5998,13 +5998,13 @@
         <v>0.33787578344345093</v>
       </c>
       <c r="C398" s="2">
-        <v>0.1246822252869606</v>
+        <v>0.1288551539182663</v>
       </c>
       <c r="D398" s="2">
         <v>0.50613391399383545</v>
       </c>
       <c r="E398" s="2">
-        <v>0.38895946741104126</v>
+        <v>0.39251002669334412</v>
       </c>
     </row>
     <row r="399">
@@ -6015,13 +6015,13 @@
         <v>1.1572164297103882</v>
       </c>
       <c r="C399" s="2">
-        <v>1.0986324548721314</v>
+        <v>1.1011711359024048</v>
       </c>
       <c r="D399" s="2">
         <v>0.42366856336593628</v>
       </c>
       <c r="E399" s="2">
-        <v>0.29939648509025574</v>
+        <v>0.30336201190948486</v>
       </c>
     </row>
     <row r="400">
@@ -6032,13 +6032,13 @@
         <v>0.38360041379928589</v>
       </c>
       <c r="C400" s="2">
-        <v>0.023255273699760437</v>
+        <v>0.027507113292813301</v>
       </c>
       <c r="D400" s="2">
         <v>0.53439468145370483</v>
       </c>
       <c r="E400" s="2">
-        <v>0.30166366696357727</v>
+        <v>0.30610665678977966</v>
       </c>
     </row>
     <row r="401">
@@ -6049,13 +6049,13 @@
         <v>0.8081355094909668</v>
       </c>
       <c r="C401" s="2">
-        <v>0.68200808763504028</v>
+        <v>0.68323206901550293</v>
       </c>
       <c r="D401" s="2">
         <v>0.59262543916702271</v>
       </c>
       <c r="E401" s="2">
-        <v>0.39068430662155151</v>
+        <v>0.39485257863998413</v>
       </c>
     </row>
     <row r="402">
@@ -6066,13 +6066,13 @@
         <v>-0.2229720950126648</v>
       </c>
       <c r="C402" s="2">
-        <v>-0.5563359260559082</v>
+        <v>-0.55260926485061646</v>
       </c>
       <c r="D402" s="2">
         <v>0.61332809925079346</v>
       </c>
       <c r="E402" s="2">
-        <v>0.45544889569282532</v>
+        <v>0.45932707190513611</v>
       </c>
     </row>
     <row r="403">
@@ -6083,13 +6083,13 @@
         <v>0.49359923601150513</v>
       </c>
       <c r="C403" s="2">
-        <v>0.29322859644889832</v>
+        <v>0.29912331700325012</v>
       </c>
       <c r="D403" s="2">
         <v>0.65724086761474609</v>
       </c>
       <c r="E403" s="2">
-        <v>0.50882953405380249</v>
+        <v>0.51266944408416748</v>
       </c>
     </row>
     <row r="404">
@@ -6100,13 +6100,13 @@
         <v>0.94074857234954834</v>
       </c>
       <c r="C404" s="2">
-        <v>0.7303047776222229</v>
+        <v>0.73603981733322144</v>
       </c>
       <c r="D404" s="2">
         <v>0.68624377250671387</v>
       </c>
       <c r="E404" s="2">
-        <v>0.51237255334854126</v>
+        <v>0.51690709590911865</v>
       </c>
     </row>
     <row r="405">
@@ -6117,13 +6117,13 @@
         <v>1.1123543977737427</v>
       </c>
       <c r="C405" s="2">
-        <v>1.1465741395950317</v>
+        <v>1.150782585144043</v>
       </c>
       <c r="D405" s="2">
         <v>0.79494655132293701</v>
       </c>
       <c r="E405" s="2">
-        <v>0.64356762170791626</v>
+        <v>0.64820903539657593</v>
       </c>
     </row>
     <row r="406">
@@ -6134,13 +6134,13 @@
         <v>0.50939470529556275</v>
       </c>
       <c r="C406" s="2">
-        <v>0.55669033527374268</v>
+        <v>0.55984169244766235</v>
       </c>
       <c r="D406" s="2">
         <v>0.78558570146560669</v>
       </c>
       <c r="E406" s="2">
-        <v>0.61879611015319824</v>
+        <v>0.62371218204498291</v>
       </c>
     </row>
     <row r="407">
@@ -6151,13 +6151,13 @@
         <v>0.73309063911437988</v>
       </c>
       <c r="C407" s="2">
-        <v>0.60510826110839844</v>
+        <v>0.60893642902374268</v>
       </c>
       <c r="D407" s="2">
         <v>0.89520138502120972</v>
       </c>
       <c r="E407" s="2">
-        <v>0.74144279956817627</v>
+        <v>0.74614107608795166</v>
       </c>
     </row>
     <row r="408">
@@ -6168,13 +6168,13 @@
         <v>1.4182426929473877</v>
       </c>
       <c r="C408" s="2">
-        <v>1.1305193901062012</v>
+        <v>1.1393101215362549</v>
       </c>
       <c r="D408" s="2">
         <v>1.0172758102416992</v>
       </c>
       <c r="E408" s="2">
-        <v>0.87771594524383545</v>
+        <v>0.88208460807800293</v>
       </c>
     </row>
     <row r="409">
@@ -6185,13 +6185,13 @@
         <v>1.3619253635406494</v>
       </c>
       <c r="C409" s="2">
-        <v>1.2040107250213623</v>
+        <v>1.2092243432998657</v>
       </c>
       <c r="D409" s="2">
         <v>1.0545041561126709</v>
       </c>
       <c r="E409" s="2">
-        <v>0.94782704114913941</v>
+        <v>0.95166152715682983</v>
       </c>
     </row>
     <row r="410">
@@ -6202,13 +6202,13 @@
         <v>0.7238878607749939</v>
       </c>
       <c r="C410" s="2">
-        <v>0.45906442403793335</v>
+        <v>0.46276077628135681</v>
       </c>
       <c r="D410" s="2">
         <v>0.99352836608886719</v>
       </c>
       <c r="E410" s="2">
-        <v>0.85693973302841187</v>
+        <v>0.86082279682159424</v>
       </c>
     </row>
     <row r="411">
@@ -6219,13 +6219,13 @@
         <v>0.76356881856918335</v>
       </c>
       <c r="C411" s="2">
-        <v>0.54748451709747315</v>
+        <v>0.54925084114074707</v>
       </c>
       <c r="D411" s="2">
         <v>1.0458958148956299</v>
       </c>
       <c r="E411" s="2">
-        <v>0.89841067790985108</v>
+        <v>0.9024079442024231</v>
       </c>
     </row>
     <row r="412">
@@ -6236,13 +6236,13 @@
         <v>1.5922693014144897</v>
       </c>
       <c r="C412" s="2">
-        <v>1.5196871757507324</v>
+        <v>1.5226147174835205</v>
       </c>
       <c r="D412" s="2">
         <v>1.0470746755599976</v>
       </c>
       <c r="E412" s="2">
-        <v>0.90596532821655273</v>
+        <v>0.90986883640289307</v>
       </c>
     </row>
     <row r="413">
@@ -6253,13 +6253,13 @@
         <v>1.2758041620254517</v>
       </c>
       <c r="C413" s="2">
-        <v>1.3613046407699585</v>
+        <v>1.3622324466705322</v>
       </c>
       <c r="D413" s="2">
         <v>0.93214505910873413</v>
       </c>
       <c r="E413" s="2">
-        <v>0.80632919073104858</v>
+        <v>0.80958181619644165</v>
       </c>
     </row>
     <row r="414">
@@ -6270,13 +6270,13 @@
         <v>0.5635717511177063</v>
       </c>
       <c r="C414" s="2">
-        <v>0.32858806848526001</v>
+        <v>0.33323407173156738</v>
       </c>
       <c r="D414" s="2">
         <v>0.9005395770072937</v>
       </c>
       <c r="E414" s="2">
-        <v>0.7816389799118042</v>
+        <v>0.78437590599060059</v>
       </c>
     </row>
     <row r="415">
@@ -6287,13 +6287,13 @@
         <v>0.98070204257965088</v>
       </c>
       <c r="C415" s="2">
-        <v>0.92992895841598511</v>
+        <v>0.93410760164260864</v>
       </c>
       <c r="D415" s="2">
         <v>0.97673279047012329</v>
       </c>
       <c r="E415" s="2">
-        <v>0.86524707078933716</v>
+        <v>0.86810952425003052</v>
       </c>
     </row>
     <row r="416">
@@ -6304,13 +6304,13 @@
         <v>0.74370044469833374</v>
       </c>
       <c r="C416" s="2">
-        <v>0.6731000542640686</v>
+        <v>0.67608481645584106</v>
       </c>
       <c r="D416" s="2">
         <v>0.96143466234207153</v>
       </c>
       <c r="E416" s="2">
-        <v>0.85615658760070801</v>
+        <v>0.85903191566467285</v>
       </c>
     </row>
     <row r="417">
@@ -6321,13 +6321,13 @@
         <v>0.38387599587440491</v>
       </c>
       <c r="C417" s="2">
-        <v>0.23379392921924591</v>
+        <v>0.23672686517238617</v>
       </c>
       <c r="D417" s="2">
         <v>0.7767069935798645</v>
       </c>
       <c r="E417" s="2">
-        <v>0.66446518898010254</v>
+        <v>0.6673729419708252</v>
       </c>
     </row>
     <row r="418">
@@ -6338,13 +6338,13 @@
         <v>1.0774756669998169</v>
       </c>
       <c r="C418" s="2">
-        <v>0.98179882764816284</v>
+        <v>0.98237091302871704</v>
       </c>
       <c r="D418" s="2">
         <v>0.82644361257553101</v>
       </c>
       <c r="E418" s="2">
-        <v>0.67312979698181152</v>
+        <v>0.67659181356430054</v>
       </c>
     </row>
     <row r="419">
@@ -6355,13 +6355,13 @@
         <v>1.4096267223358154</v>
       </c>
       <c r="C419" s="2">
-        <v>1.2115373611450195</v>
+        <v>1.2163636684417725</v>
       </c>
       <c r="D419" s="2">
         <v>0.92773544788360596</v>
       </c>
       <c r="E419" s="2">
-        <v>0.77749466896057129</v>
+        <v>0.78071057796478272</v>
       </c>
     </row>
     <row r="420">
@@ -6372,13 +6372,13 @@
         <v>0.62588596343994141</v>
       </c>
       <c r="C420" s="2">
-        <v>0.46567031741142273</v>
+        <v>0.46755221486091614</v>
       </c>
       <c r="D420" s="2">
         <v>0.98916065692901611</v>
       </c>
       <c r="E420" s="2">
-        <v>0.83354192972183228</v>
+        <v>0.83693784475326538</v>
       </c>
     </row>
     <row r="421">
@@ -6389,13 +6389,13 @@
         <v>-0.070279665291309357</v>
       </c>
       <c r="C421" s="2">
-        <v>-0.20553551614284515</v>
+        <v>-0.20231616497039795</v>
       </c>
       <c r="D421" s="2">
         <v>1.0333237648010254</v>
       </c>
       <c r="E421" s="2">
-        <v>0.81583845615386963</v>
+        <v>0.81965547800064087</v>
       </c>
     </row>
     <row r="422">
@@ -6406,13 +6406,13 @@
         <v>1.7234337329864502</v>
       </c>
       <c r="C422" s="2">
-        <v>1.4392863512039185</v>
+        <v>1.4452022314071655</v>
       </c>
       <c r="D422" s="2">
         <v>1.1008400917053223</v>
       </c>
       <c r="E422" s="2">
-        <v>0.86360287666320801</v>
+        <v>0.86782217025756836</v>
       </c>
     </row>
     <row r="423">
@@ -6423,13 +6423,13 @@
         <v>1.4751982688903809</v>
       </c>
       <c r="C423" s="2">
-        <v>1.2678718566894531</v>
+        <v>1.2703030109405518</v>
       </c>
       <c r="D423" s="2">
         <v>1.1697723865509033</v>
       </c>
       <c r="E423" s="2">
-        <v>0.92940658330917358</v>
+        <v>0.93401408195495605</v>
       </c>
     </row>
     <row r="424">
@@ -6440,13 +6440,13 @@
         <v>1.5335286855697632</v>
       </c>
       <c r="C424" s="2">
-        <v>1.4343539476394653</v>
+        <v>1.4401532411575317</v>
       </c>
       <c r="D424" s="2">
         <v>1.2344030141830444</v>
       </c>
       <c r="E424" s="2">
-        <v>0.99408590793609619</v>
+        <v>0.99874943494796753</v>
       </c>
     </row>
     <row r="425">
@@ -6457,13 +6457,13 @@
         <v>1.1411681175231934</v>
       </c>
       <c r="C425" s="2">
-        <v>0.51376909017562866</v>
+        <v>0.52054327726364136</v>
       </c>
       <c r="D425" s="2">
         <v>1.4147522449493408</v>
       </c>
       <c r="E425" s="2">
-        <v>1.1740809679031372</v>
+        <v>1.179063081741333</v>
       </c>
     </row>
     <row r="426">
@@ -6474,13 +6474,13 @@
         <v>0.9915236234664917</v>
       </c>
       <c r="C426" s="2">
-        <v>0.66367357969284058</v>
+        <v>0.67022734880447388</v>
       </c>
       <c r="D426" s="2">
         <v>1.6246268749237061</v>
       </c>
       <c r="E426" s="2">
-        <v>1.3959181308746338</v>
+        <v>1.4010618925094605</v>
       </c>
     </row>
     <row r="427">
@@ -6491,13 +6491,13 @@
         <v>1.6978662014007568</v>
       </c>
       <c r="C427" s="2">
-        <v>1.5740324258804321</v>
+        <v>1.5780980587005615</v>
       </c>
       <c r="D427" s="2">
         <v>1.5594413280487061</v>
       </c>
       <c r="E427" s="2">
-        <v>1.3390758037567139</v>
+        <v>1.3439898490905762</v>
       </c>
     </row>
     <row r="428">
@@ -6508,13 +6508,13 @@
         <v>1.9913022518157959</v>
       </c>
       <c r="C428" s="2">
-        <v>1.7936511039733887</v>
+        <v>1.798981785774231</v>
       </c>
       <c r="D428" s="2">
         <v>1.5896600484848022</v>
       </c>
       <c r="E428" s="2">
-        <v>1.3929033279418945</v>
+        <v>1.3979364633560181</v>
       </c>
     </row>
     <row r="429">
@@ -6525,13 +6525,13 @@
         <v>2.2490286827087402</v>
       </c>
       <c r="C429" s="2">
-        <v>2.0856254100799561</v>
+        <v>2.0903747081756592</v>
       </c>
       <c r="D429" s="2">
         <v>1.6016759872436524</v>
       </c>
       <c r="E429" s="2">
-        <v>1.3988480567932129</v>
+        <v>1.4037017822265625</v>
       </c>
     </row>
     <row r="430">
@@ -6542,13 +6542,13 @@
         <v>1.8185924291610718</v>
       </c>
       <c r="C430" s="2">
-        <v>1.7909997701644897</v>
+        <v>1.7956738471984863</v>
       </c>
       <c r="D430" s="2">
         <v>1.6060266494750977</v>
       </c>
       <c r="E430" s="2">
-        <v>1.4158210754394531</v>
+        <v>1.4208379983901978</v>
       </c>
     </row>
     <row r="431">
@@ -6559,13 +6559,13 @@
         <v>1.1367636919021606</v>
       </c>
       <c r="C431" s="2">
-        <v>0.92770558595657349</v>
+        <v>0.93155366182327271</v>
       </c>
       <c r="D431" s="2">
         <v>1.6725938320159912</v>
       </c>
       <c r="E431" s="2">
-        <v>1.5101611614227295</v>
+        <v>1.5149451494216919</v>
       </c>
     </row>
     <row r="432">
@@ -6576,13 +6576,13 @@
         <v>1.7471667528152466</v>
       </c>
       <c r="C432" s="2">
-        <v>1.7523192167282105</v>
+        <v>1.7558221817016602</v>
       </c>
       <c r="D432" s="2">
         <v>1.6887087821960449</v>
       </c>
       <c r="E432" s="2">
-        <v>1.5199263095855713</v>
+        <v>1.5246261358261108</v>
       </c>
     </row>
     <row r="433">
@@ -6593,13 +6593,13 @@
         <v>1.6416721343994141</v>
       </c>
       <c r="C433" s="2">
-        <v>1.4878560304641724</v>
+        <v>1.4920409917831421</v>
       </c>
       <c r="D433" s="2">
         <v>1.658096194267273</v>
       </c>
       <c r="E433" s="2">
-        <v>1.5125093460083008</v>
+        <v>1.5169283151626587</v>
       </c>
     </row>
     <row r="434">
@@ -6610,13 +6610,13 @@
         <v>1.1803237199783325</v>
       </c>
       <c r="C434" s="2">
-        <v>0.66652703285217285</v>
+        <v>0.67476946115493774</v>
       </c>
       <c r="D434" s="2">
         <v>1.6355855464935303</v>
       </c>
       <c r="E434" s="2">
-        <v>1.4935963153839111</v>
+        <v>1.4978162050247192</v>
       </c>
     </row>
     <row r="435">
@@ -6627,13 +6627,13 @@
         <v>1.5906288623809814</v>
       </c>
       <c r="C435" s="2">
-        <v>1.5127333402633667</v>
+        <v>1.5171917676925659</v>
       </c>
       <c r="D435" s="2">
         <v>1.5878397226333618</v>
       </c>
       <c r="E435" s="2">
-        <v>1.4214613437652588</v>
+        <v>1.4254645109176636</v>
       </c>
     </row>
     <row r="436">
@@ -6644,13 +6644,13 @@
         <v>1.8429009914398193</v>
       </c>
       <c r="C436" s="2">
-        <v>1.6619189977645874</v>
+        <v>1.6652268171310425</v>
       </c>
       <c r="D436" s="2">
         <v>1.6132906675338745</v>
       </c>
       <c r="E436" s="2">
-        <v>1.4510356187820435</v>
+        <v>1.4552609920501709</v>
       </c>
     </row>
     <row r="437">
@@ -6661,13 +6661,13 @@
         <v>1.7157884836196899</v>
       </c>
       <c r="C437" s="2">
-        <v>1.726899266242981</v>
+        <v>1.7297012805938721</v>
       </c>
       <c r="D437" s="2">
         <v>1.5386582612991333</v>
       </c>
       <c r="E437" s="2">
-        <v>1.4167355298995972</v>
+        <v>1.4209597110748291</v>
       </c>
     </row>
     <row r="438">
@@ -6678,13 +6678,13 @@
         <v>2.0464324951171875</v>
       </c>
       <c r="C438" s="2">
-        <v>1.915407657623291</v>
+        <v>1.9183657169342041</v>
       </c>
       <c r="D438" s="2">
         <v>1.534410834312439</v>
       </c>
       <c r="E438" s="2">
-        <v>1.3584262132644653</v>
+        <v>1.3629188537597656</v>
       </c>
     </row>
     <row r="439">
@@ -6695,13 +6695,13 @@
         <v>1.3888800144195557</v>
       </c>
       <c r="C439" s="2">
-        <v>1.1417855024337769</v>
+        <v>1.1445083618164063</v>
       </c>
       <c r="D439" s="2">
         <v>1.5333327054977417</v>
       </c>
       <c r="E439" s="2">
-        <v>1.3945082426071167</v>
+        <v>1.3985791206359863</v>
       </c>
     </row>
     <row r="440">
@@ -6712,13 +6712,13 @@
         <v>1.3658230304718018</v>
       </c>
       <c r="C440" s="2">
-        <v>1.1938732862472534</v>
+        <v>1.1997220516204834</v>
       </c>
       <c r="D440" s="2">
         <v>1.4295583963394165</v>
       </c>
       <c r="E440" s="2">
-        <v>1.240904450416565</v>
+        <v>1.2451975345611572</v>
       </c>
     </row>
     <row r="441">
@@ -6729,13 +6729,13 @@
         <v>1.0754748582839966</v>
       </c>
       <c r="C441" s="2">
-        <v>1.4436190128326416</v>
+        <v>1.4471113681793213</v>
       </c>
       <c r="D441" s="2">
         <v>1.4006568193435669</v>
       </c>
       <c r="E441" s="2">
-        <v>1.1909536123275757</v>
+        <v>1.1955194473266602</v>
       </c>
     </row>
     <row r="442">
@@ -6746,13 +6746,13 @@
         <v>1.6034448146820068</v>
       </c>
       <c r="C442" s="2">
-        <v>0.96307212114334106</v>
+        <v>0.96967285871505737</v>
       </c>
       <c r="D442" s="2">
         <v>1.4128487110137939</v>
       </c>
       <c r="E442" s="2">
-        <v>1.1585832834243774</v>
+        <v>1.163704514503479</v>
       </c>
     </row>
     <row r="443">
@@ -6763,13 +6763,13 @@
         <v>1.1706207990646362</v>
       </c>
       <c r="C443" s="2">
-        <v>0.99126547574996948</v>
+        <v>0.9957122802734375</v>
       </c>
       <c r="D443" s="2">
         <v>1.3582217693328858</v>
       </c>
       <c r="E443" s="2">
-        <v>1.0929423570632935</v>
+        <v>1.0984746217727661</v>
       </c>
     </row>
     <row r="444">
@@ -6780,13 +6780,13 @@
         <v>0.65665990114212036</v>
       </c>
       <c r="C444" s="2">
-        <v>0.13029898703098297</v>
+        <v>0.13675719499588013</v>
       </c>
       <c r="D444" s="2">
         <v>1.3168988227844238</v>
       </c>
       <c r="E444" s="2">
-        <v>1.0508601665496826</v>
+        <v>1.0564566850662232</v>
       </c>
     </row>
     <row r="445">
@@ -6797,13 +6797,13 @@
         <v>1.5827873945236206</v>
       </c>
       <c r="C445" s="2">
-        <v>1.212361216545105</v>
+        <v>1.2181243896484375</v>
       </c>
       <c r="D445" s="2">
         <v>1.3075152635574341</v>
       </c>
       <c r="E445" s="2">
-        <v>1.009904146194458</v>
+        <v>1.015597939491272</v>
       </c>
     </row>
     <row r="446">
@@ -6814,13 +6814,13 @@
         <v>1.825515627861023</v>
       </c>
       <c r="C446" s="2">
-        <v>1.4355660676956177</v>
+        <v>1.4433665275573731</v>
       </c>
       <c r="D446" s="2">
         <v>1.2703428268432617</v>
       </c>
       <c r="E446" s="2">
-        <v>0.94867122173309326</v>
+        <v>0.95448082685470581</v>
       </c>
     </row>
     <row r="447">
@@ -6831,13 +6831,13 @@
         <v>1.5547894239425659</v>
       </c>
       <c r="C447" s="2">
-        <v>1.3246390819549561</v>
+        <v>1.3312966823577881</v>
       </c>
       <c r="D447" s="2">
         <v>1.2818869352340698</v>
       </c>
       <c r="E447" s="2">
-        <v>0.98417872190475464</v>
+        <v>0.98991614580154419</v>
       </c>
     </row>
     <row r="448">
@@ -6848,13 +6848,13 @@
         <v>1.016973614692688</v>
       </c>
       <c r="C448" s="2">
-        <v>0.7630462646484375</v>
+        <v>0.76634687185287476</v>
       </c>
       <c r="D448" s="2">
         <v>1.346238374710083</v>
       </c>
       <c r="E448" s="2">
-        <v>1.0847970247268677</v>
+        <v>1.0901719331741333</v>
       </c>
     </row>
     <row r="449">
@@ -6865,13 +6865,13 @@
         <v>1.2813705205917358</v>
       </c>
       <c r="C449" s="2">
-        <v>0.82526928186416626</v>
+        <v>0.83199363946914673</v>
       </c>
       <c r="D449" s="2">
         <v>1.4492030143737793</v>
       </c>
       <c r="E449" s="2">
-        <v>1.2264847755432129</v>
+        <v>1.2319644689559937</v>
       </c>
     </row>
     <row r="450">
@@ -6882,13 +6882,13 @@
         <v>0.74092298746109009</v>
       </c>
       <c r="C450" s="2">
-        <v>0.89252263307571411</v>
+        <v>0.89705711603164673</v>
       </c>
       <c r="D450" s="2">
         <v>1.3789263963699341</v>
       </c>
       <c r="E450" s="2">
-        <v>1.1688895225524902</v>
+        <v>1.1745342016220093</v>
       </c>
     </row>
     <row r="451">
@@ -6899,13 +6899,13 @@
         <v>1.7073423862457275</v>
       </c>
       <c r="C451" s="2">
-        <v>1.2826392650604248</v>
+        <v>1.2885907888412476</v>
       </c>
       <c r="D451" s="2">
         <v>1.2904049158096314</v>
       </c>
       <c r="E451" s="2">
-        <v>1.0930979251861572</v>
+        <v>1.0985112190246582</v>
       </c>
     </row>
     <row r="452">
@@ -6916,13 +6916,13 @@
         <v>1.7497837543487549</v>
       </c>
       <c r="C452" s="2">
-        <v>1.8968304395675659</v>
+        <v>1.8980138301849365</v>
       </c>
       <c r="D452" s="2">
         <v>1.1345969438552856</v>
       </c>
       <c r="E452" s="2">
-        <v>1.0947359800338745</v>
+        <v>1.0999854803085327</v>
       </c>
     </row>
     <row r="453">
@@ -6933,13 +6933,13 @@
         <v>1.583341121673584</v>
       </c>
       <c r="C453" s="2">
-        <v>1.4054883718490601</v>
+        <v>1.4128900766372681</v>
       </c>
       <c r="D453" s="2">
         <v>1.1442145109176636</v>
       </c>
       <c r="E453" s="2">
-        <v>1.1299593448638916</v>
+        <v>1.1354522705078125</v>
       </c>
     </row>
     <row r="454">
@@ -6950,13 +6950,13 @@
         <v>0.9502984881401062</v>
       </c>
       <c r="C454" s="2">
-        <v>0.69400441646575928</v>
+        <v>0.70125186443328858</v>
       </c>
       <c r="D454" s="2">
         <v>1.1885077953338623</v>
       </c>
       <c r="E454" s="2">
-        <v>1.2152026891708374</v>
+        <v>1.2202320098876953</v>
       </c>
     </row>
     <row r="455">
@@ -6967,13 +6967,13 @@
         <v>1.0288217067718506</v>
       </c>
       <c r="C455" s="2">
-        <v>0.75344157218933106</v>
+        <v>0.75915986299514771</v>
       </c>
       <c r="D455" s="2">
         <v>1.209709644317627</v>
       </c>
       <c r="E455" s="2">
-        <v>1.1873310804367066</v>
+        <v>1.1925048828125</v>
       </c>
     </row>
     <row r="456">
@@ -6984,13 +6984,13 @@
         <v>0.1525174081325531</v>
       </c>
       <c r="C456" s="2">
-        <v>1.3393810987472534</v>
+        <v>1.3445655107498169</v>
       </c>
       <c r="D456" s="2">
         <v>1.2290585041046143</v>
       </c>
       <c r="E456" s="2">
-        <v>1.2282817363739014</v>
+        <v>1.23356032371521</v>
       </c>
     </row>
     <row r="457">
@@ -7001,13 +7001,13 @@
         <v>1.1035326719284058</v>
       </c>
       <c r="C457" s="2">
-        <v>1.0800570249557495</v>
+        <v>1.085547924041748</v>
       </c>
       <c r="D457" s="2">
         <v>1.1567924022674561</v>
       </c>
       <c r="E457" s="2">
-        <v>1.1073466539382935</v>
+        <v>1.1132128238677979</v>
       </c>
     </row>
     <row r="458">
@@ -7018,13 +7018,13 @@
         <v>1.6800093650817871</v>
       </c>
       <c r="C458" s="2">
-        <v>1.5924596786499024</v>
+        <v>1.5950112342834473</v>
       </c>
       <c r="D458" s="2">
         <v>1.1894123554229736</v>
       </c>
       <c r="E458" s="2">
-        <v>1.1560945510864258</v>
+        <v>1.1615324020385742</v>
       </c>
     </row>
     <row r="459">
@@ -7035,13 +7035,13 @@
         <v>0.93174022436141968</v>
       </c>
       <c r="C459" s="2">
-        <v>0.6416776180267334</v>
+        <v>0.64751321077346802</v>
       </c>
       <c r="D459" s="2">
         <v>1.0903040170669556</v>
       </c>
       <c r="E459" s="2">
-        <v>1.0423341989517212</v>
+        <v>1.0479879379272461</v>
       </c>
     </row>
     <row r="460">
@@ -7052,13 +7052,13 @@
         <v>1.8814822435379028</v>
       </c>
       <c r="C460" s="2">
-        <v>1.6511949300765991</v>
+        <v>1.6580895185470581</v>
       </c>
       <c r="D460" s="2">
         <v>1.1826548576354981</v>
       </c>
       <c r="E460" s="2">
-        <v>1.1434211730957031</v>
+        <v>1.149151086807251</v>
       </c>
     </row>
     <row r="461">
@@ -7069,13 +7069,13 @@
         <v>1.0993888378143311</v>
       </c>
       <c r="C461" s="2">
-        <v>0.80841559171676636</v>
+        <v>0.81488633155822754</v>
       </c>
       <c r="D461" s="2">
         <v>1.3846660852432251</v>
       </c>
       <c r="E461" s="2">
-        <v>1.1926603317260742</v>
+        <v>1.1985986232757568</v>
       </c>
     </row>
     <row r="462">
@@ -7086,13 +7086,13 @@
         <v>1.8769205808639526</v>
       </c>
       <c r="C462" s="2">
-        <v>1.8442188501358032</v>
+        <v>1.8477662801742554</v>
       </c>
       <c r="D462" s="2">
         <v>1.3563092947006226</v>
       </c>
       <c r="E462" s="2">
-        <v>1.1262270212173462</v>
+        <v>1.1322152614593506</v>
       </c>
     </row>
     <row r="463">
@@ -7103,13 +7103,13 @@
         <v>0.058323584496974945</v>
       </c>
       <c r="C463" s="2">
-        <v>-0.32983827590942383</v>
+        <v>-0.32064834237098694</v>
       </c>
       <c r="D463" s="2">
         <v>1.3061486482620239</v>
       </c>
       <c r="E463" s="2">
-        <v>1.0598264932632446</v>
+        <v>1.0659840106964111</v>
       </c>
     </row>
     <row r="464">
@@ -7120,13 +7120,13 @@
         <v>1.8599783182144165</v>
       </c>
       <c r="C464" s="2">
-        <v>1.6632242202758789</v>
+        <v>1.669628381729126</v>
       </c>
       <c r="D464" s="2">
         <v>1.336560845375061</v>
       </c>
       <c r="E464" s="2">
-        <v>1.0804126262664795</v>
+        <v>1.0864014625549317</v>
       </c>
     </row>
     <row r="465">
@@ -7137,13 +7137,13 @@
         <v>1.9706184864044189</v>
       </c>
       <c r="C465" s="2">
-        <v>1.7825330495834351</v>
+        <v>1.7895927429199219</v>
       </c>
       <c r="D465" s="2">
         <v>1.1550354957580566</v>
       </c>
       <c r="E465" s="2">
-        <v>0.90602058172225952</v>
+        <v>0.91170912981033325</v>
       </c>
     </row>
     <row r="466">
@@ -7154,13 +7154,13 @@
         <v>0.84832167625427246</v>
       </c>
       <c r="C466" s="2">
-        <v>0.48215803503990173</v>
+        <v>0.48809757828712463</v>
       </c>
       <c r="D466" s="2">
         <v>1.0597366094589233</v>
       </c>
       <c r="E466" s="2">
-        <v>0.80920940637588501</v>
+        <v>0.81478565931320191</v>
       </c>
     </row>
     <row r="467">
@@ -7171,13 +7171,13 @@
         <v>1.2285635471343994</v>
       </c>
       <c r="C467" s="2">
-        <v>0.99485427141189575</v>
+        <v>0.99893057346343994</v>
       </c>
       <c r="D467" s="2">
         <v>0.85148638486862183</v>
       </c>
       <c r="E467" s="2">
-        <v>0.60941648483276367</v>
+        <v>0.61533766984939575</v>
       </c>
     </row>
     <row r="468">
@@ -7188,13 +7188,13 @@
         <v>1.205450177192688</v>
       </c>
       <c r="C468" s="2">
-        <v>0.82695335149765015</v>
+        <v>0.83127051591873169</v>
       </c>
       <c r="D468" s="2">
         <v>0.8869025707244873</v>
       </c>
       <c r="E468" s="2">
-        <v>0.66117233037948608</v>
+        <v>0.6664963960647583</v>
       </c>
     </row>
     <row r="469">
@@ -7205,13 +7205,13 @@
         <v>0.24775438010692596</v>
       </c>
       <c r="C469" s="2">
-        <v>0.081666149199008942</v>
+        <v>0.085858277976512909</v>
       </c>
       <c r="D469" s="2">
         <v>0.83725899457931519</v>
       </c>
       <c r="E469" s="2">
-        <v>0.61086171865463257</v>
+        <v>0.61586600542068481</v>
       </c>
     </row>
     <row r="470">
@@ -7222,13 +7222,13 @@
         <v>0.24169909954071045</v>
       </c>
       <c r="C470" s="2">
-        <v>-0.062884807586669922</v>
+        <v>-0.05742524191737175</v>
       </c>
       <c r="D470" s="2">
         <v>0.83630985021591187</v>
       </c>
       <c r="E470" s="2">
-        <v>0.60185849666595459</v>
+        <v>0.60735076665878296</v>
       </c>
     </row>
     <row r="471">
@@ -7239,13 +7239,13 @@
         <v>0.0026684550102800131</v>
       </c>
       <c r="C471" s="2">
-        <v>0.046082135289907456</v>
+        <v>0.052734356373548508</v>
       </c>
       <c r="D471" s="2">
         <v>0.95090532302856445</v>
       </c>
       <c r="E471" s="2">
-        <v>0.74517053365707397</v>
+        <v>0.75035303831100464</v>
       </c>
     </row>
     <row r="472">
@@ -7256,13 +7256,13 @@
         <v>0.37706887722015381</v>
       </c>
       <c r="C472" s="2">
-        <v>0.13596463203430176</v>
+        <v>0.13978017866611481</v>
       </c>
       <c r="D472" s="2">
         <v>0.96587347984313965</v>
       </c>
       <c r="E472" s="2">
-        <v>0.73810696601867676</v>
+        <v>0.74354451894760132</v>
       </c>
     </row>
     <row r="473">
@@ -7273,13 +7273,13 @@
         <v>1.4131861925125122</v>
       </c>
       <c r="C473" s="2">
-        <v>1.2104285955429077</v>
+        <v>1.2139549255371094</v>
       </c>
       <c r="D473" s="2">
         <v>1.0048611164093018</v>
       </c>
       <c r="E473" s="2">
-        <v>0.79778438806533813</v>
+        <v>0.8035234808921814</v>
       </c>
     </row>
     <row r="474">
@@ -7290,13 +7290,13 @@
         <v>1.9620761871337891</v>
       </c>
       <c r="C474" s="2">
-        <v>1.7015038728713989</v>
+        <v>1.7129555940628052</v>
       </c>
       <c r="D474" s="2">
         <v>1.1697041988372803</v>
       </c>
       <c r="E474" s="2">
-        <v>0.96159756183624268</v>
+        <v>0.96736794710159302</v>
       </c>
     </row>
     <row r="475">
@@ -7307,13 +7307,13 @@
         <v>1.879680871963501</v>
       </c>
       <c r="C475" s="2">
-        <v>1.771966814994812</v>
+        <v>1.7751179933547974</v>
       </c>
       <c r="D475" s="2">
         <v>1.340476393699646</v>
       </c>
       <c r="E475" s="2">
-        <v>1.1650487184524536</v>
+        <v>1.17073655128479</v>
       </c>
     </row>
     <row r="476">
@@ -7324,13 +7324,13 @@
         <v>1.3632768392562866</v>
       </c>
       <c r="C476" s="2">
-        <v>0.93128174543380737</v>
+        <v>0.93765407800674439</v>
       </c>
       <c r="D476" s="2">
         <v>1.4777785539627075</v>
       </c>
       <c r="E476" s="2">
-        <v>1.2762190103530884</v>
+        <v>1.2815355062484741</v>
       </c>
     </row>
     <row r="477">
@@ -7341,13 +7341,13 @@
         <v>1.5563391447067261</v>
       </c>
       <c r="C477" s="2">
-        <v>1.3640505075454712</v>
+        <v>1.3710813522338867</v>
       </c>
       <c r="D477" s="2">
         <v>1.5902128219604492</v>
       </c>
       <c r="E477" s="2">
-        <v>1.3880569934844971</v>
+        <v>1.3935166597366333</v>
       </c>
     </row>
     <row r="478">
@@ -7358,13 +7358,13 @@
         <v>1.7313425540924072</v>
       </c>
       <c r="C478" s="2">
-        <v>1.5559847354888916</v>
+        <v>1.5604583024978638</v>
       </c>
       <c r="D478" s="2">
         <v>1.4359936714172363</v>
       </c>
       <c r="E478" s="2">
-        <v>1.1799664497375488</v>
+        <v>1.1855636835098267</v>
       </c>
     </row>
     <row r="479">
@@ -7375,13 +7375,13 @@
         <v>1.7786480188369751</v>
       </c>
       <c r="C479" s="2">
-        <v>1.7681750059127808</v>
+        <v>1.7728923559188843</v>
       </c>
       <c r="D479" s="2">
         <v>1.4113755226135254</v>
       </c>
       <c r="E479" s="2">
-        <v>1.1355578899383545</v>
+        <v>1.1408721208572388</v>
       </c>
     </row>
     <row r="480">
@@ -7392,13 +7392,13 @@
         <v>1.2383887767791748</v>
       </c>
       <c r="C480" s="2">
-        <v>1.0466150045394898</v>
+        <v>1.0499246120452881</v>
       </c>
       <c r="D480" s="2">
         <v>1.4024837017059326</v>
       </c>
       <c r="E480" s="2">
-        <v>1.1112120151519775</v>
+        <v>1.1169354915618896</v>
       </c>
     </row>
     <row r="481">
@@ -7409,13 +7409,13 @@
         <v>1.3889771699905396</v>
       </c>
       <c r="C481" s="2">
-        <v>1.14250648021698</v>
+        <v>1.147611141204834</v>
       </c>
       <c r="D481" s="2">
         <v>1.4491981267929077</v>
       </c>
       <c r="E481" s="2">
-        <v>1.183081865310669</v>
+        <v>1.1887950897216797</v>
       </c>
     </row>
     <row r="482">
@@ -7426,13 +7426,13 @@
         <v>0.025213660672307014</v>
       </c>
       <c r="C482" s="2">
-        <v>-0.66238564252853394</v>
+        <v>-0.65762209892272949</v>
       </c>
       <c r="D482" s="2">
         <v>1.4207800626754761</v>
       </c>
       <c r="E482" s="2">
-        <v>1.1697231531143189</v>
+        <v>1.1756254434585571</v>
       </c>
     </row>
     <row r="483">
@@ -7443,13 +7443,13 @@
         <v>1.7405130863189697</v>
       </c>
       <c r="C483" s="2">
-        <v>1.3018263578414917</v>
+        <v>1.3107315301895142</v>
       </c>
       <c r="D483" s="2">
         <v>1.2586687803268433</v>
       </c>
       <c r="E483" s="2">
-        <v>1.0212976932525635</v>
+        <v>1.0269849300384522</v>
       </c>
     </row>
     <row r="484">
@@ -7460,13 +7460,13 @@
         <v>1.7996540069580078</v>
       </c>
       <c r="C484" s="2">
-        <v>1.5528538227081299</v>
+        <v>1.5596877336502075</v>
       </c>
       <c r="D484" s="2">
         <v>1.2240520715713501</v>
       </c>
       <c r="E484" s="2">
-        <v>0.9601399302482605</v>
+        <v>0.96602177619934082</v>
       </c>
     </row>
     <row r="485">
@@ -7477,13 +7477,13 @@
         <v>1.7837061882019043</v>
       </c>
       <c r="C485" s="2">
-        <v>1.5781110525131226</v>
+        <v>1.5843909978866577</v>
       </c>
       <c r="D485" s="2">
         <v>1.2117211818695068</v>
       </c>
       <c r="E485" s="2">
-        <v>0.99828612804412842</v>
+        <v>1.0045567750930786</v>
       </c>
     </row>
     <row r="486">
@@ -7494,13 +7494,13 @@
         <v>1.3005768060684204</v>
       </c>
       <c r="C486" s="2">
-        <v>1.2438215017318726</v>
+        <v>1.252554178237915</v>
       </c>
       <c r="D486" s="2">
         <v>1.2174695730209351</v>
       </c>
       <c r="E486" s="2">
-        <v>0.97710347175598145</v>
+        <v>0.98359471559524536</v>
       </c>
     </row>
     <row r="487">
@@ -7511,13 +7511,13 @@
         <v>0.27234089374542236</v>
       </c>
       <c r="C487" s="2">
-        <v>0.22015514969825745</v>
+        <v>0.22269371151924133</v>
       </c>
       <c r="D487" s="2">
         <v>1.3908437490463257</v>
       </c>
       <c r="E487" s="2">
-        <v>1.1996256113052368</v>
+        <v>1.2062914371490479</v>
       </c>
     </row>
     <row r="488">
@@ -7528,13 +7528,13 @@
         <v>1.4670977592468262</v>
       </c>
       <c r="C488" s="2">
-        <v>1.2177554368972778</v>
+        <v>1.2242244482040405</v>
       </c>
       <c r="D488" s="2">
         <v>1.3649774789810181</v>
       </c>
       <c r="E488" s="2">
-        <v>1.1890499591827393</v>
+        <v>1.1956220865249634</v>
       </c>
     </row>
     <row r="489">
@@ -7545,13 +7545,13 @@
         <v>1.1274113655090332</v>
       </c>
       <c r="C489" s="2">
-        <v>1.3899307250976563</v>
+        <v>1.3967390060424805</v>
       </c>
       <c r="D489" s="2">
         <v>1.3125994205474854</v>
       </c>
       <c r="E489" s="2">
-        <v>1.13770592212677</v>
+        <v>1.1439986228942871</v>
       </c>
     </row>
     <row r="490">
@@ -7562,13 +7562,13 @@
         <v>1.4407123327255249</v>
       </c>
       <c r="C490" s="2">
-        <v>0.95186299085617065</v>
+        <v>0.95895284414291382</v>
       </c>
       <c r="D490" s="2">
         <v>1.211438775062561</v>
       </c>
       <c r="E490" s="2">
-        <v>1.016711950302124</v>
+        <v>1.0229401588439941</v>
       </c>
     </row>
     <row r="491">
@@ -7579,13 +7579,13 @@
         <v>1.5855816602706909</v>
       </c>
       <c r="C491" s="2">
-        <v>1.3403130769729614</v>
+        <v>1.3466488122940064</v>
       </c>
       <c r="D491" s="2">
         <v>1.2296171188354492</v>
       </c>
       <c r="E491" s="2">
-        <v>1.0118296146392822</v>
+        <v>1.0177779197692871</v>
       </c>
     </row>
     <row r="492">
@@ -7596,13 +7596,13 @@
         <v>1.5077159404754639</v>
       </c>
       <c r="C492" s="2">
-        <v>1.2066460847854614</v>
+        <v>1.2147074937820435</v>
       </c>
       <c r="D492" s="2">
         <v>1.4379830360412598</v>
       </c>
       <c r="E492" s="2">
-        <v>1.17973792552948</v>
+        <v>1.1864696741104126</v>
       </c>
     </row>
     <row r="493">
@@ -7613,13 +7613,13 @@
         <v>1.3282513618469238</v>
       </c>
       <c r="C493" s="2">
-        <v>1.0907572507858276</v>
+        <v>1.0950765609741211</v>
       </c>
       <c r="D493" s="2">
         <v>1.4780412912368774</v>
       </c>
       <c r="E493" s="2">
-        <v>1.209410309791565</v>
+        <v>1.2161232233047485</v>
       </c>
     </row>
     <row r="494">
@@ -7630,13 +7630,13 @@
         <v>0.87326037883758545</v>
       </c>
       <c r="C494" s="2">
-        <v>0.48916494846343994</v>
+        <v>0.49486491084098816</v>
       </c>
       <c r="D494" s="2">
         <v>1.5297920703887939</v>
       </c>
       <c r="E494" s="2">
-        <v>1.2663795948028565</v>
+        <v>1.272933840751648</v>
       </c>
     </row>
     <row r="495">
@@ -7647,13 +7647,13 @@
         <v>1.4641828536987305</v>
       </c>
       <c r="C495" s="2">
-        <v>1.199880838394165</v>
+        <v>1.2060940265655518</v>
       </c>
       <c r="D495" s="2">
         <v>1.5713450908660889</v>
       </c>
       <c r="E495" s="2">
-        <v>1.2746751308441162</v>
+        <v>1.2811118364334107</v>
       </c>
     </row>
     <row r="496">
@@ -7664,13 +7664,13 @@
         <v>2.1476333141326904</v>
       </c>
       <c r="C496" s="2">
-        <v>1.731330394744873</v>
+        <v>1.7409194707870483</v>
       </c>
       <c r="D496" s="2">
         <v>1.5555629730224609</v>
       </c>
       <c r="E496" s="2">
-        <v>1.2752920389175415</v>
+        <v>1.2814993858337402</v>
       </c>
     </row>
     <row r="497">
@@ -7681,13 +7681,13 @@
         <v>1.8276228904724121</v>
       </c>
       <c r="C497" s="2">
-        <v>1.4848060607910156</v>
+        <v>1.4911060333251953</v>
       </c>
       <c r="D497" s="2">
         <v>1.5597677230834961</v>
       </c>
       <c r="E497" s="2">
-        <v>1.2603212594985962</v>
+        <v>1.2668509483337402</v>
       </c>
     </row>
     <row r="498">
@@ -7698,13 +7698,13 @@
         <v>1.5931683778762817</v>
       </c>
       <c r="C498" s="2">
-        <v>1.9026541709899902</v>
+        <v>1.9080344438552857</v>
       </c>
       <c r="D498" s="2">
         <v>1.5833245515823364</v>
       </c>
       <c r="E498" s="2">
-        <v>1.2323793172836304</v>
+        <v>1.2391873598098755</v>
       </c>
     </row>
     <row r="499">
@@ -7715,13 +7715,13 @@
         <v>1.8146886825561523</v>
       </c>
       <c r="C499" s="2">
-        <v>1.0265228748321533</v>
+        <v>1.0325547456741333</v>
       </c>
       <c r="D499" s="2">
         <v>1.6908072233200073</v>
       </c>
       <c r="E499" s="2">
-        <v>1.3818897008895874</v>
+        <v>1.3884265422821045</v>
       </c>
     </row>
     <row r="500">
@@ -7732,13 +7732,13 @@
         <v>1.44354248046875</v>
       </c>
       <c r="C500" s="2">
-        <v>1.3458662033081055</v>
+        <v>1.3501366376876831</v>
       </c>
       <c r="D500" s="2">
         <v>1.582015872001648</v>
       </c>
       <c r="E500" s="2">
-        <v>1.3556766510009766</v>
+        <v>1.361738920211792</v>
       </c>
     </row>
     <row r="501">
@@ -7749,13 +7749,13 @@
         <v>1.5455589294433594</v>
       </c>
       <c r="C501" s="2">
-        <v>1.071908712387085</v>
+        <v>1.0828711986541748</v>
       </c>
       <c r="D501" s="2">
         <v>1.5310840606689453</v>
       </c>
       <c r="E501" s="2">
-        <v>1.335010290145874</v>
+        <v>1.3407410383224487</v>
       </c>
     </row>
     <row r="502">
@@ -7766,13 +7766,13 @@
         <v>1.5402628183364868</v>
       </c>
       <c r="C502" s="2">
-        <v>0.8392794132232666</v>
+        <v>0.84610456228256226</v>
       </c>
       <c r="D502" s="2">
         <v>1.3925092220306397</v>
       </c>
       <c r="E502" s="2">
-        <v>1.3633378744125366</v>
+        <v>1.3688422441482544</v>
       </c>
     </row>
     <row r="503">
@@ -7783,13 +7783,13 @@
         <v>1.840604305267334</v>
       </c>
       <c r="C503" s="2">
-        <v>1.834758996963501</v>
+        <v>1.8380173444747925</v>
       </c>
       <c r="D503" s="2">
         <v>1.2746435403823853</v>
       </c>
       <c r="E503" s="2">
-        <v>1.1811494827270508</v>
+        <v>1.1867810487747192</v>
       </c>
     </row>
     <row r="504">
@@ -7800,13 +7800,13 @@
         <v>0.48506104946136475</v>
       </c>
       <c r="C504" s="2">
-        <v>0.96396297216415405</v>
+        <v>0.96590560674667358</v>
       </c>
       <c r="D504" s="2">
         <v>1.3272626399993896</v>
       </c>
       <c r="E504" s="2">
-        <v>1.3154317140579224</v>
+        <v>1.3211781978607178</v>
       </c>
     </row>
     <row r="505">
@@ -7817,13 +7817,13 @@
         <v>1.6892473697662354</v>
       </c>
       <c r="C505" s="2">
-        <v>1.5453332662582397</v>
+        <v>1.5519392490386963</v>
       </c>
       <c r="D505" s="2">
         <v>1.220727801322937</v>
       </c>
       <c r="E505" s="2">
-        <v>1.2330716848373413</v>
+        <v>1.2388582229614258</v>
       </c>
     </row>
     <row r="506">
@@ -7834,13 +7834,13 @@
         <v>0.58044952154159546</v>
       </c>
       <c r="C506" s="2">
-        <v>1.7397539615631104</v>
+        <v>1.7440159320831299</v>
       </c>
       <c r="D506" s="2">
         <v>1.1059097051620483</v>
       </c>
       <c r="E506" s="2">
-        <v>1.1445903778076172</v>
+        <v>1.1499102115631104</v>
       </c>
     </row>
     <row r="507">
@@ -7851,13 +7851,13 @@
         <v>0.53237676620483398</v>
       </c>
       <c r="C507" s="2">
-        <v>0.2629590630531311</v>
+        <v>0.26948386430740356</v>
       </c>
       <c r="D507" s="2">
         <v>0.92085391283035278</v>
       </c>
       <c r="E507" s="2">
-        <v>1.0119792222976685</v>
+        <v>1.0167351961135864</v>
       </c>
     </row>
     <row r="508">
@@ -7868,13 +7868,13 @@
         <v>2.2882609367370605</v>
       </c>
       <c r="C508" s="2">
-        <v>2.235062837600708</v>
+        <v>2.242128849029541</v>
       </c>
       <c r="D508" s="2">
         <v>0.78365272283554077</v>
       </c>
       <c r="E508" s="2">
-        <v>0.80731141567230225</v>
+        <v>0.81255316734313965</v>
       </c>
     </row>
     <row r="509">
@@ -7885,13 +7885,13 @@
         <v>0.48472899198532104</v>
       </c>
       <c r="C509" s="2">
-        <v>0.60462629795074463</v>
+        <v>0.60925722122192383</v>
       </c>
       <c r="D509" s="2">
         <v>0.82704585790634155</v>
       </c>
       <c r="E509" s="2">
-        <v>0.77634447813034058</v>
+        <v>0.78168976306915283</v>
       </c>
     </row>
     <row r="510">
@@ -7902,13 +7902,13 @@
         <v>0.51219546794891358</v>
       </c>
       <c r="C510" s="2">
-        <v>0.27557644248008728</v>
+        <v>0.28233912587165833</v>
       </c>
       <c r="D510" s="2">
         <v>0.67975717782974243</v>
       </c>
       <c r="E510" s="2">
-        <v>0.61500847339630127</v>
+        <v>0.62020272016525269</v>
       </c>
     </row>
     <row r="511">
@@ -7919,13 +7919,13 @@
         <v>-0.12523932754993439</v>
       </c>
       <c r="C511" s="2">
-        <v>-0.3542206883430481</v>
+        <v>-0.35247001051902771</v>
       </c>
       <c r="D511" s="2">
         <v>0.7368316650390625</v>
       </c>
       <c r="E511" s="2">
-        <v>0.48409959673881531</v>
+        <v>0.48949709534645081</v>
       </c>
     </row>
     <row r="512">
@@ -7936,13 +7936,13 @@
         <v>0.60579395294189453</v>
       </c>
       <c r="C512" s="2">
-        <v>-0.0072514531202614308</v>
+        <v>0.00037848064675927162</v>
       </c>
       <c r="D512" s="2">
         <v>0.7623942494392395</v>
       </c>
       <c r="E512" s="2">
-        <v>0.5268217921257019</v>
+        <v>0.53169810771942139</v>
       </c>
     </row>
     <row r="513">
@@ -7953,13 +7953,13 @@
         <v>0.87559908628463745</v>
       </c>
       <c r="C513" s="2">
-        <v>0.68526065349578857</v>
+        <v>0.68813532590866089</v>
       </c>
       <c r="D513" s="2">
         <v>0.70471274852752686</v>
       </c>
       <c r="E513" s="2">
-        <v>0.46152347326278687</v>
+        <v>0.46610486507415771</v>
       </c>
     </row>
     <row r="514">
@@ -7970,13 +7970,13 @@
         <v>0.36364918947219849</v>
       </c>
       <c r="C514" s="2">
-        <v>0.093309275805950165</v>
+        <v>0.098555862903594971</v>
       </c>
       <c r="D514" s="2">
         <v>0.75959533452987671</v>
       </c>
       <c r="E514" s="2">
-        <v>0.53127217292785645</v>
+        <v>0.53572183847427368</v>
       </c>
     </row>
     <row r="515">
@@ -7987,13 +7987,13 @@
         <v>1.0941201448440552</v>
       </c>
       <c r="C515" s="2">
-        <v>0.56157386302947998</v>
+        <v>0.56766515970230103</v>
       </c>
       <c r="D515" s="2">
         <v>0.89630365371704102</v>
       </c>
       <c r="E515" s="2">
-        <v>0.68398213386535645</v>
+        <v>0.68800026178359985</v>
       </c>
     </row>
     <row r="516">
@@ -8004,13 +8004,13 @@
         <v>0.76243960857391358</v>
       </c>
       <c r="C516" s="2">
-        <v>0.64745914936065674</v>
+        <v>0.64929276704788208</v>
       </c>
       <c r="D516" s="2">
         <v>1.061773419380188</v>
       </c>
       <c r="E516" s="2">
-        <v>0.86758410930633545</v>
+        <v>0.87178099155426025</v>
       </c>
     </row>
     <row r="517">
@@ -8021,13 +8021,13 @@
         <v>1.769127368927002</v>
       </c>
       <c r="C517" s="2">
-        <v>1.6473778486251831</v>
+        <v>1.6517899036407471</v>
       </c>
       <c r="D517" s="2">
         <v>1.1729536056518555</v>
       </c>
       <c r="E517" s="2">
-        <v>1.0098533630371094</v>
+        <v>1.0142823457717896</v>
       </c>
     </row>
     <row r="518">
@@ -8038,13 +8038,13 @@
         <v>0.97867226600646973</v>
       </c>
       <c r="C518" s="2">
-        <v>1.232364296913147</v>
+        <v>1.2358099222183228</v>
       </c>
       <c r="D518" s="2">
         <v>1.2141772508621216</v>
       </c>
       <c r="E518" s="2">
-        <v>1.0349612236022949</v>
+        <v>1.0395426750183106</v>
       </c>
     </row>
     <row r="519">
@@ -8055,13 +8055,13 @@
         <v>1.7425705194473267</v>
       </c>
       <c r="C519" s="2">
-        <v>1.6499661207199097</v>
+        <v>1.652845025062561</v>
       </c>
       <c r="D519" s="2">
         <v>1.2767599821090698</v>
       </c>
       <c r="E519" s="2">
-        <v>1.1058883666992188</v>
+        <v>1.1102784872055054</v>
       </c>
     </row>
     <row r="520">
@@ -8072,13 +8072,13 @@
         <v>1.3639882802963257</v>
       </c>
       <c r="C520" s="2">
-        <v>1.2981972694396973</v>
+        <v>1.3015564680099487</v>
       </c>
       <c r="D520" s="2">
         <v>1.2889308929443359</v>
       </c>
       <c r="E520" s="2">
-        <v>1.1693495512008667</v>
+        <v>1.1735131740570068</v>
       </c>
     </row>
     <row r="521">
@@ -8089,13 +8089,13 @@
         <v>1.6064155101776123</v>
       </c>
       <c r="C521" s="2">
-        <v>1.2731714248657227</v>
+        <v>1.2828910350799561</v>
       </c>
       <c r="D521" s="2">
         <v>1.3734084367752075</v>
       </c>
       <c r="E521" s="2">
-        <v>1.2589260339736939</v>
+        <v>1.2630023956298828</v>
       </c>
     </row>
     <row r="522">
@@ -8106,13 +8106,13 @@
         <v>1.246612548828125</v>
       </c>
       <c r="C522" s="2">
-        <v>0.9112316370010376</v>
+        <v>0.91547781229019165</v>
       </c>
       <c r="D522" s="2">
         <v>1.2505203485488892</v>
       </c>
       <c r="E522" s="2">
-        <v>1.0753630399703979</v>
+        <v>1.0794780254364014</v>
       </c>
     </row>
     <row r="523">
@@ -8123,13 +8123,13 @@
         <v>0.92689377069473267</v>
       </c>
       <c r="C523" s="2">
-        <v>0.73165369033813477</v>
+        <v>0.73517870903015137</v>
       </c>
       <c r="D523" s="2">
         <v>1.2303059101104736</v>
       </c>
       <c r="E523" s="2">
-        <v>1.0232876539230347</v>
+        <v>1.0273553133010864</v>
       </c>
     </row>
     <row r="524">
@@ -8140,13 +8140,13 @@
         <v>1.2036579847335816</v>
       </c>
       <c r="C524" s="2">
-        <v>1.1327241659164429</v>
+        <v>1.1367765665054321</v>
       </c>
       <c r="D524" s="2">
         <v>1.1386046409606934</v>
       </c>
       <c r="E524" s="2">
-        <v>0.93586963415145874</v>
+        <v>0.94022434949874878</v>
       </c>
     </row>
     <row r="525">
@@ -8157,13 +8157,13 @@
         <v>1.522737979888916</v>
       </c>
       <c r="C525" s="2">
-        <v>1.4536479711532593</v>
+        <v>1.4546957015991211</v>
       </c>
       <c r="D525" s="2">
         <v>1.1521434783935547</v>
       </c>
       <c r="E525" s="2">
-        <v>0.94530391693115234</v>
+        <v>0.94964456558227539</v>
       </c>
     </row>
     <row r="526">
@@ -8174,13 +8174,13 @@
         <v>0.66313391923904419</v>
       </c>
       <c r="C526" s="2">
-        <v>-0.0046896622516214848</v>
+        <v>7.0458147092722356e-05</v>
       </c>
       <c r="D526" s="2">
         <v>1.0906450748443604</v>
       </c>
       <c r="E526" s="2">
-        <v>0.90821206569671631</v>
+        <v>0.91175913810729981</v>
       </c>
     </row>
     <row r="527">
@@ -8191,13 +8191,13 @@
         <v>0.79674267768859863</v>
       </c>
       <c r="C527" s="2">
-        <v>0.76368677616119385</v>
+        <v>0.76670646667480469</v>
       </c>
       <c r="D527" s="2">
         <v>1.0088629722595215</v>
       </c>
       <c r="E527" s="2">
-        <v>0.8469194769859314</v>
+        <v>0.85004311800003052</v>
       </c>
     </row>
     <row r="528">
@@ -8208,13 +8208,13 @@
         <v>0.91725945472717285</v>
       </c>
       <c r="C528" s="2">
-        <v>0.86320316791534424</v>
+        <v>0.86866599321365356</v>
       </c>
       <c r="D528" s="2">
         <v>1.046733021736145</v>
       </c>
       <c r="E528" s="2">
-        <v>0.87481534481048584</v>
+        <v>0.87776052951812744</v>
       </c>
     </row>
     <row r="529">
@@ -8225,13 +8225,13 @@
         <v>1.4858369827270508</v>
       </c>
       <c r="C529" s="2">
-        <v>1.383105993270874</v>
+        <v>1.3863385915756226</v>
       </c>
       <c r="D529" s="2">
         <v>1.0142475366592407</v>
       </c>
       <c r="E529" s="2">
-        <v>0.83613812923431397</v>
+        <v>0.8387610912322998</v>
       </c>
     </row>
     <row r="530">
@@ -8242,13 +8242,13 @@
         <v>1.0529301166534424</v>
       </c>
       <c r="C530" s="2">
-        <v>0.93934506177902222</v>
+        <v>0.94192183017730713</v>
       </c>
       <c r="D530" s="2">
         <v>0.83614379167556763</v>
       </c>
       <c r="E530" s="2">
-        <v>0.66089928150177002</v>
+        <v>0.66354537010192871</v>
       </c>
     </row>
     <row r="531">
@@ -8259,13 +8259,13 @@
         <v>0.51057350635528564</v>
       </c>
       <c r="C531" s="2">
-        <v>0.35959818959236145</v>
+        <v>0.36003348231315613</v>
       </c>
       <c r="D531" s="2">
         <v>0.77653384208679199</v>
       </c>
       <c r="E531" s="2">
-        <v>0.67797356843948364</v>
+        <v>0.68037497997283936</v>
       </c>
     </row>
     <row r="532">
@@ -8276,13 +8276,13 @@
         <v>1.2677242755889893</v>
       </c>
       <c r="C532" s="2">
-        <v>0.98271626234054566</v>
+        <v>0.98463565111160278</v>
       </c>
       <c r="D532" s="2">
         <v>0.72515815496444702</v>
       </c>
       <c r="E532" s="2">
-        <v>0.62331622838973999</v>
+        <v>0.62587094306945801</v>
       </c>
     </row>
     <row r="533">
@@ -8293,13 +8293,13 @@
         <v>0.91128849983215332</v>
       </c>
       <c r="C533" s="2">
-        <v>0.78462952375411987</v>
+        <v>0.78578150272369385</v>
       </c>
       <c r="D533" s="2">
         <v>0.69402062892913818</v>
       </c>
       <c r="E533" s="2">
-        <v>0.62977421283721924</v>
+        <v>0.63208162784576416</v>
       </c>
     </row>
     <row r="534">
@@ -8310,13 +8310,13 @@
         <v>-0.080195508897304535</v>
       </c>
       <c r="C534" s="2">
-        <v>-0.12350185215473175</v>
+        <v>-0.12224552780389786</v>
       </c>
       <c r="D534" s="2">
         <v>0.56051582098007202</v>
       </c>
       <c r="E534" s="2">
-        <v>0.48122206330299378</v>
+        <v>0.4835907518863678</v>
       </c>
     </row>
     <row r="535">
@@ -8327,13 +8327,13 @@
         <v>0.12664449214935303</v>
       </c>
       <c r="C535" s="2">
-        <v>0.14897920191287994</v>
+        <v>0.15153659880161286</v>
       </c>
       <c r="D535" s="2">
         <v>0.50359535217285156</v>
       </c>
       <c r="E535" s="2">
-        <v>0.4216962456703186</v>
+        <v>0.42389276623725891</v>
       </c>
     </row>
     <row r="536">
@@ -8344,13 +8344,13 @@
         <v>0.33436131477355957</v>
       </c>
       <c r="C536" s="2">
-        <v>0.2717704176902771</v>
+        <v>0.27617040276527405</v>
       </c>
       <c r="D536" s="2">
         <v>0.46786314249038696</v>
       </c>
       <c r="E536" s="2">
-        <v>0.39588308334350586</v>
+        <v>0.39813262224197388</v>
       </c>
     </row>
     <row r="537">
@@ -8361,13 +8361,13 @@
         <v>0.63702201843261719</v>
       </c>
       <c r="C537" s="2">
-        <v>0.92132538557052612</v>
+        <v>0.92456197738647461</v>
       </c>
       <c r="D537" s="2">
         <v>0.45421925187110901</v>
       </c>
       <c r="E537" s="2">
-        <v>0.38900759816169739</v>
+        <v>0.39135321974754334</v>
       </c>
     </row>
     <row r="538">
@@ -8378,13 +8378,13 @@
         <v>0.28429388999938965</v>
       </c>
       <c r="C538" s="2">
-        <v>0.046136487275362015</v>
+        <v>0.049920927733182907</v>
       </c>
       <c r="D538" s="2">
         <v>0.41505885124206543</v>
       </c>
       <c r="E538" s="2">
-        <v>0.34306120872497559</v>
+        <v>0.34568768739700317</v>
       </c>
     </row>
     <row r="539">
@@ -8395,13 +8395,13 @@
         <v>0.54064565896987915</v>
       </c>
       <c r="C539" s="2">
-        <v>0.4036126434803009</v>
+        <v>0.4046398401260376</v>
       </c>
       <c r="D539" s="2">
         <v>0.49498873949050903</v>
       </c>
       <c r="E539" s="2">
-        <v>0.39603447914123535</v>
+        <v>0.39871934056282043</v>
       </c>
     </row>
     <row r="540">
@@ -8412,13 +8412,13 @@
         <v>0.18898358941078186</v>
       </c>
       <c r="C540" s="2">
-        <v>0.12727966904640198</v>
+        <v>0.12819227576255798</v>
       </c>
       <c r="D540" s="2">
         <v>0.40869230031967163</v>
       </c>
       <c r="E540" s="2">
-        <v>0.2730267345905304</v>
+        <v>0.27605625987052918</v>
       </c>
     </row>
     <row r="541">
@@ -8429,13 +8429,13 @@
         <v>1.1449294090270996</v>
       </c>
       <c r="C541" s="2">
-        <v>0.92083686590194702</v>
+        <v>0.92362087965011597</v>
       </c>
       <c r="D541" s="2">
         <v>0.41527491807937622</v>
       </c>
       <c r="E541" s="2">
-        <v>0.27757766842842102</v>
+        <v>0.28023701906204224</v>
       </c>
     </row>
     <row r="542">
@@ -8446,13 +8446,13 @@
         <v>0.55884474515914917</v>
       </c>
       <c r="C542" s="2">
-        <v>0.3711121678352356</v>
+        <v>0.3747917115688324</v>
       </c>
       <c r="D542" s="2">
         <v>0.33494687080383301</v>
       </c>
       <c r="E542" s="2">
-        <v>0.13220535218715668</v>
+        <v>0.13499988615512848</v>
       </c>
     </row>
     <row r="543">
@@ -8463,13 +8463,13 @@
         <v>0.63917356729507446</v>
       </c>
       <c r="C543" s="2">
-        <v>0.3532574474811554</v>
+        <v>0.35503947734832764</v>
       </c>
       <c r="D543" s="2">
         <v>0.4273969829082489</v>
       </c>
       <c r="E543" s="2">
-        <v>0.22530412673950195</v>
+        <v>0.22804677486419678</v>
       </c>
     </row>
     <row r="544">
@@ -8480,13 +8480,13 @@
         <v>-0.65002357959747315</v>
       </c>
       <c r="C544" s="2">
-        <v>-0.95809060335159302</v>
+        <v>-0.95243102312088013</v>
       </c>
       <c r="D544" s="2">
         <v>0.43956440687179565</v>
       </c>
       <c r="E544" s="2">
-        <v>0.23973026871681213</v>
+        <v>0.24269476532936096</v>
       </c>
     </row>
     <row r="545">
@@ -8497,13 +8497,13 @@
         <v>0.39360508322715759</v>
       </c>
       <c r="C545" s="2">
-        <v>0.31272885203361511</v>
+        <v>0.31379711627960205</v>
       </c>
       <c r="D545" s="2">
         <v>0.53639215230941773</v>
       </c>
       <c r="E545" s="2">
-        <v>0.33217084407806396</v>
+        <v>0.33550459146499634</v>
       </c>
     </row>
     <row r="546">
@@ -8514,13 +8514,13 @@
         <v>-0.085930615663528442</v>
       </c>
       <c r="C546" s="2">
-        <v>-0.38702541589736939</v>
+        <v>-0.38257226347923279</v>
       </c>
       <c r="D546" s="2">
         <v>0.46091747283935547</v>
       </c>
       <c r="E546" s="2">
-        <v>0.25564965605735779</v>
+        <v>0.25913387537002563</v>
       </c>
     </row>
     <row r="547">
@@ -8531,13 +8531,13 @@
         <v>1.1163449287414551</v>
       </c>
       <c r="C547" s="2">
-        <v>0.88402557373046875</v>
+        <v>0.88734292984008789</v>
       </c>
       <c r="D547" s="2">
         <v>0.50878143310546875</v>
       </c>
       <c r="E547" s="2">
-        <v>0.3098863959312439</v>
+        <v>0.31328240036964417</v>
       </c>
     </row>
     <row r="548">
@@ -8548,13 +8548,13 @@
         <v>0.65015262365341187</v>
       </c>
       <c r="C548" s="2">
-        <v>0.53344786167144775</v>
+        <v>0.53647178411483765</v>
       </c>
       <c r="D548" s="2">
         <v>0.40871143341064453</v>
       </c>
       <c r="E548" s="2">
-        <v>0.22820042073726654</v>
+        <v>0.23147925734519958</v>
       </c>
     </row>
     <row r="549">
@@ -8565,13 +8565,13 @@
         <v>1.0604333877563477</v>
       </c>
       <c r="C549" s="2">
-        <v>0.95924490690231323</v>
+        <v>0.96348065137863159</v>
       </c>
       <c r="D549" s="2">
         <v>0.6099013090133667</v>
       </c>
       <c r="E549" s="2">
-        <v>0.46000555157661438</v>
+        <v>0.46299177408218384</v>
       </c>
     </row>
     <row r="550">
@@ -8582,13 +8582,13 @@
         <v>0.46565708518028259</v>
       </c>
       <c r="C550" s="2">
-        <v>0.23214621841907501</v>
+        <v>0.23628456890583038</v>
       </c>
       <c r="D550" s="2">
         <v>0.61072266101837158</v>
       </c>
       <c r="E550" s="2">
-        <v>0.44518592953681946</v>
+        <v>0.44854894280433655</v>
       </c>
     </row>
     <row r="551">
@@ -8599,13 +8599,13 @@
         <v>0.9896206259727478</v>
       </c>
       <c r="C551" s="2">
-        <v>0.85924261808395386</v>
+        <v>0.86212843656539917</v>
       </c>
       <c r="D551" s="2">
         <v>0.67664581537246704</v>
       </c>
       <c r="E551" s="2">
-        <v>0.50769096612930298</v>
+        <v>0.51141244173049927</v>
       </c>
     </row>
     <row r="552">
@@ -8616,13 +8616,13 @@
         <v>-0.26145666837692261</v>
       </c>
       <c r="C552" s="2">
-        <v>-0.38191619515419006</v>
+        <v>-0.38118892908096314</v>
       </c>
       <c r="D552" s="2">
         <v>0.62712156772613525</v>
       </c>
       <c r="E552" s="2">
-        <v>0.42965418100357056</v>
+        <v>0.43355506658554077</v>
       </c>
     </row>
     <row r="553">
@@ -8633,13 +8633,13 @@
         <v>1.1606854200363159</v>
       </c>
       <c r="C553" s="2">
-        <v>1.1281555891036987</v>
+        <v>1.1311817169189453</v>
       </c>
       <c r="D553" s="2">
-        <v>0.67990511655807495</v>
+        <v>0.73670518398284912</v>
       </c>
       <c r="E553" s="2">
-        <v>0.47571918368339539</v>
+        <v>0.5063050389289856</v>
       </c>
     </row>
     <row r="554">
@@ -8650,13 +8650,13 @@
         <v>0.40099701285362244</v>
       </c>
       <c r="C554" s="2">
-        <v>0.17935210466384888</v>
+        <v>0.18381170928478241</v>
       </c>
       <c r="D554" s="2">
-        <v>0.6705939769744873</v>
+        <v>0.73783719539642334</v>
       </c>
       <c r="E554" s="2">
-        <v>0.45949682593345642</v>
+        <v>0.47439676523208618</v>
       </c>
     </row>
     <row r="555">
@@ -8667,13 +8667,13 @@
         <v>0.5073779821395874</v>
       </c>
       <c r="C555" s="2">
-        <v>0.17552004754543305</v>
+        <v>0.18319901823997498</v>
       </c>
       <c r="D555" s="2">
-        <v>0.7964777946472168</v>
+        <v>0.80832421779632568</v>
       </c>
       <c r="E555" s="2">
-        <v>0.60547113418579102</v>
+        <v>0.56704235076904297</v>
       </c>
     </row>
     <row r="556">
@@ -8684,13 +8684,13 @@
         <v>0.67062681913375855</v>
       </c>
       <c r="C556" s="2">
-        <v>0.1816944032907486</v>
+        <v>0.18662656843662262</v>
       </c>
       <c r="D556" s="2">
-        <v>0.66578459739685059</v>
+        <v>0.77289730310440064</v>
       </c>
       <c r="E556" s="2">
-        <v>0.4476742148399353</v>
+        <v>0.55045217275619507</v>
       </c>
     </row>
     <row r="557">
@@ -8698,16 +8698,16 @@
         <v>45383</v>
       </c>
       <c r="B557" s="2">
-        <v>1.1252042055130005</v>
+        <v>1.6364049911499024</v>
       </c>
       <c r="C557" s="2">
-        <v>0.94803303480148315</v>
+        <v>1.1912217140197754</v>
       </c>
       <c r="D557" s="2">
-        <v>0.61626791954040527</v>
+        <v>0.89671725034713745</v>
       </c>
       <c r="E557" s="2">
-        <v>0.41157099604606629</v>
+        <v>0.67782402038574219</v>
       </c>
     </row>
     <row r="558">
@@ -8715,16 +8715,16 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>0.97663307189941406</v>
+        <v>1.0706217288970947</v>
       </c>
       <c r="C558" s="2">
-        <v>0.813243567943573</v>
+        <v>0.67630606889724732</v>
       </c>
       <c r="D558" s="2">
-        <v>0.54821574687957764</v>
+        <v>0.86372119188308716</v>
       </c>
       <c r="E558" s="2">
-        <v>0.32199794054031372</v>
+        <v>0.6211543083190918</v>
       </c>
     </row>
     <row r="559">
@@ -8732,16 +8732,16 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>1.5986114740371704</v>
+        <v>1.1000403165817261</v>
       </c>
       <c r="C559" s="2">
-        <v>1.545914888381958</v>
+        <v>1.0700947046279907</v>
       </c>
       <c r="D559" s="2">
-        <v>0.56924700736999512</v>
+        <v>0.92982465028762817</v>
       </c>
       <c r="E559" s="2">
-        <v>0.34237590432167053</v>
+        <v>0.68363183736801148</v>
       </c>
     </row>
     <row r="560">
@@ -8749,16 +8749,16 @@
         <v>45474</v>
       </c>
       <c r="B560" s="2">
-        <v>-0.18661774694919586</v>
+        <v>0.67077797651290894</v>
       </c>
       <c r="C560" s="2">
-        <v>-0.56092941761016846</v>
+        <v>0.71281695365905762</v>
       </c>
       <c r="D560" s="2">
-        <v>0.57955849170684814</v>
+        <v>1.000232458114624</v>
       </c>
       <c r="E560" s="2">
-        <v>0.37018519639968872</v>
+        <v>0.76703733205795288</v>
       </c>
     </row>
     <row r="561">
@@ -8766,16 +8766,16 @@
         <v>45505</v>
       </c>
       <c r="B561" s="2">
-        <v>-0.70710676908493042</v>
+        <v>0.85292279720306396</v>
       </c>
       <c r="C561" s="2">
-        <v>-0.70684522390365601</v>
+        <v>0.76515793800354004</v>
       </c>
       <c r="D561" s="2">
-        <v>0.56134486198425293</v>
+        <v>1.0661535263061523</v>
       </c>
       <c r="E561" s="2">
-        <v>0.40788337588310242</v>
+        <v>0.88311946392059326</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_skewness_lt.xlsx
+++ b/MSC_skewness_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E561"/>
+  <dimension ref="A1:E567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -223,13 +223,13 @@
         <v>0.48721683025360108</v>
       </c>
       <c r="C15" s="2">
-        <v>0.40550252795219421</v>
+        <v>0.40786582231521606</v>
       </c>
       <c r="D15" s="2">
         <v>0.48721683025360108</v>
       </c>
       <c r="E15" s="2">
-        <v>0.40550252795219421</v>
+        <v>0.40786582231521606</v>
       </c>
     </row>
     <row r="16">
@@ -339,13 +339,13 @@
         <v>-0.79306507110595703</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.83766829967498779</v>
+        <v>-0.83616673946380615</v>
       </c>
       <c r="D27" s="2">
         <v>-0.79306507110595703</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.83766829967498779</v>
+        <v>-0.83616673946380615</v>
       </c>
     </row>
     <row r="28">
@@ -401,13 +401,13 @@
         <v>-0.22174668312072754</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.23520368337631226</v>
+        <v>-0.23349013924598694</v>
       </c>
       <c r="D33" s="2">
         <v>-0.33302110433578491</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.32891657948493958</v>
+        <v>-0.3273259699344635</v>
       </c>
     </row>
     <row r="34">
@@ -418,13 +418,13 @@
         <v>-0.44429555535316467</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.4226294755935669</v>
+        <v>-0.42116180062294006</v>
       </c>
       <c r="D34" s="2">
         <v>-0.3046528697013855</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.29888421297073364</v>
+        <v>-0.29710811376571655</v>
       </c>
     </row>
     <row r="35">
@@ -462,13 +462,13 @@
         <v>-0.24791635572910309</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.2388194352388382</v>
+        <v>-0.23667243123054504</v>
       </c>
       <c r="D38" s="2">
         <v>-0.31482520699501038</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.2820591926574707</v>
+        <v>-0.28066167235374451</v>
       </c>
     </row>
     <row r="39">
@@ -479,13 +479,13 @@
         <v>-0.15508043766021729</v>
       </c>
       <c r="C39" s="2">
-        <v>0.0038549632299691439</v>
+        <v>0.0047569978050887585</v>
       </c>
       <c r="D39" s="2">
         <v>-0.27166840434074402</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.23520241677761078</v>
+        <v>-0.23382827639579773</v>
       </c>
     </row>
     <row r="40">
@@ -496,13 +496,13 @@
         <v>-0.41200843453407288</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.47064277529716492</v>
+        <v>-0.46956941485404968</v>
       </c>
       <c r="D40" s="2">
         <v>-0.32901236414909363</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.31225848197937012</v>
+        <v>-0.31101706624031067</v>
       </c>
     </row>
     <row r="41">
@@ -540,13 +540,13 @@
         <v>-0.50104427337646484</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.54342663288116455</v>
+        <v>-0.5425834059715271</v>
       </c>
       <c r="D44" s="2">
         <v>-0.24545113742351532</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.29959371685981751</v>
+        <v>-0.29814961552619934</v>
       </c>
     </row>
     <row r="45">
@@ -557,13 +557,13 @@
         <v>0.075489185750484467</v>
       </c>
       <c r="C45" s="2">
-        <v>0.0092323888093233109</v>
+        <v>0.010558151639997959</v>
       </c>
       <c r="D45" s="2">
         <v>-0.18993203341960907</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.24257738888263702</v>
+        <v>-0.24100968241691589</v>
       </c>
     </row>
     <row r="46">
@@ -574,13 +574,13 @@
         <v>-0.14424102008342743</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.19353790581226349</v>
+        <v>-0.19100378453731537</v>
       </c>
       <c r="D46" s="2">
         <v>-0.18249821662902832</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.23754335939884186</v>
+        <v>-0.23567007482051849</v>
       </c>
     </row>
     <row r="47">
@@ -618,13 +618,13 @@
         <v>-0.16019675135612488</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.22244128584861755</v>
+        <v>-0.21965125203132629</v>
       </c>
       <c r="D50" s="2">
         <v>-0.09411485493183136</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.14068928360939026</v>
+        <v>-0.13759995996952057</v>
       </c>
     </row>
     <row r="51">
@@ -635,13 +635,13 @@
         <v>0.17857199907302857</v>
       </c>
       <c r="C51" s="2">
-        <v>0.11563972383737564</v>
+        <v>0.11848621815443039</v>
       </c>
       <c r="D51" s="2">
         <v>-0.077406130731105805</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.12307307124137878</v>
+        <v>-0.1197986826300621</v>
       </c>
     </row>
     <row r="52">
@@ -652,13 +652,13 @@
         <v>-0.2505936324596405</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.26241764426231384</v>
+        <v>-0.25823101401329041</v>
       </c>
       <c r="D52" s="2">
         <v>-0.093132704496383667</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.13310649991035461</v>
+        <v>-0.13010188937187195</v>
       </c>
     </row>
     <row r="53">
@@ -696,13 +696,13 @@
         <v>-0.14031241834163666</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.16320678591728211</v>
+        <v>-0.16101148724555969</v>
       </c>
       <c r="D56" s="2">
         <v>-0.23431406915187836</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.24543565511703491</v>
+        <v>-0.24236033856868744</v>
       </c>
     </row>
     <row r="57">
@@ -713,13 +713,13 @@
         <v>-0.11747535318136215</v>
       </c>
       <c r="C57" s="2">
-        <v>-0.18919691443443298</v>
+        <v>-0.1859171986579895</v>
       </c>
       <c r="D57" s="2">
         <v>-0.22888755798339844</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.23977498710155487</v>
+        <v>-0.23707011342048645</v>
       </c>
     </row>
     <row r="58">
@@ -730,13 +730,13 @@
         <v>-0.42887488007545471</v>
       </c>
       <c r="C58" s="2">
-        <v>-0.36692127585411072</v>
+        <v>-0.36428165435791016</v>
       </c>
       <c r="D58" s="2">
         <v>-0.25738048553466797</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.27058368921279907</v>
+        <v>-0.26794621348381043</v>
       </c>
     </row>
     <row r="59">
@@ -774,13 +774,13 @@
         <v>-0.34285926818847656</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.36300981044769287</v>
+        <v>-0.36057448387145996</v>
       </c>
       <c r="D62" s="2">
         <v>-0.1554538905620575</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.10729503631591797</v>
+        <v>-0.10516820847988129</v>
       </c>
     </row>
     <row r="63">
@@ -791,13 +791,13 @@
         <v>0.047747939825057983</v>
       </c>
       <c r="C63" s="2">
-        <v>0.15783806145191193</v>
+        <v>0.15921950340270996</v>
       </c>
       <c r="D63" s="2">
         <v>-0.064313560724258423</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.020752951502799988</v>
+        <v>-0.01879706047475338</v>
       </c>
     </row>
     <row r="64">
@@ -808,13 +808,13 @@
         <v>0.10217063874006271</v>
       </c>
       <c r="C64" s="2">
-        <v>0.14291289448738098</v>
+        <v>0.14496380090713501</v>
       </c>
       <c r="D64" s="2">
         <v>-0.033212229609489441</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.013039646670222282</v>
+        <v>-0.010880938731133938</v>
       </c>
     </row>
     <row r="65">
@@ -852,13 +852,13 @@
         <v>0.060091778635978699</v>
       </c>
       <c r="C68" s="2">
-        <v>0.010100266896188259</v>
+        <v>0.012867423705756664</v>
       </c>
       <c r="D68" s="2">
         <v>0.17404548823833466</v>
       </c>
       <c r="E68" s="2">
-        <v>0.14697498083114624</v>
+        <v>0.15001824498176575</v>
       </c>
     </row>
     <row r="69">
@@ -869,13 +869,13 @@
         <v>0.84347176551818848</v>
       </c>
       <c r="C69" s="2">
-        <v>0.79353344440460205</v>
+        <v>0.79658985137939453</v>
       </c>
       <c r="D69" s="2">
         <v>0.19800376892089844</v>
       </c>
       <c r="E69" s="2">
-        <v>0.1483290046453476</v>
+        <v>0.15170304477214813</v>
       </c>
     </row>
     <row r="70">
@@ -886,13 +886,13 @@
         <v>-0.30955222249031067</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.3586466908454895</v>
+        <v>-0.35434812307357788</v>
       </c>
       <c r="D70" s="2">
         <v>0.247781902551651</v>
       </c>
       <c r="E70" s="2">
-        <v>0.19240054488182068</v>
+        <v>0.19548062980175018</v>
       </c>
     </row>
     <row r="71">
@@ -930,13 +930,13 @@
         <v>0.3971162736415863</v>
       </c>
       <c r="C74" s="2">
-        <v>0.32461518049240112</v>
+        <v>0.32681336998939514</v>
       </c>
       <c r="D74" s="2">
         <v>0.33261632919311524</v>
       </c>
       <c r="E74" s="2">
-        <v>0.28145349025726318</v>
+        <v>0.28512552380561829</v>
       </c>
     </row>
     <row r="75">
@@ -947,13 +947,13 @@
         <v>0.66018062829971314</v>
       </c>
       <c r="C75" s="2">
-        <v>0.61102300882339478</v>
+        <v>0.61587446928024292</v>
       </c>
       <c r="D75" s="2">
         <v>0.54667246341705322</v>
       </c>
       <c r="E75" s="2">
-        <v>0.49482020735740662</v>
+        <v>0.49828338623046875</v>
       </c>
     </row>
     <row r="76">
@@ -964,13 +964,13 @@
         <v>0.58272057771682739</v>
       </c>
       <c r="C76" s="2">
-        <v>0.54882246255874634</v>
+        <v>0.55216234922409058</v>
       </c>
       <c r="D76" s="2">
         <v>0.41343611478805542</v>
       </c>
       <c r="E76" s="2">
-        <v>0.36094695329666138</v>
+        <v>0.36417374014854431</v>
       </c>
     </row>
     <row r="77">
@@ -1008,13 +1008,13 @@
         <v>0.013726954348385334</v>
       </c>
       <c r="C80" s="2">
-        <v>-0.040672797709703445</v>
+        <v>-0.03815528005361557</v>
       </c>
       <c r="D80" s="2">
         <v>0.60395681858062744</v>
       </c>
       <c r="E80" s="2">
-        <v>0.56519222259521484</v>
+        <v>0.56791555881500244</v>
       </c>
     </row>
     <row r="81">
@@ -1025,13 +1025,13 @@
         <v>0.91950523853302002</v>
       </c>
       <c r="C81" s="2">
-        <v>0.88501673936843872</v>
+        <v>0.8881070613861084</v>
       </c>
       <c r="D81" s="2">
         <v>0.61103558540344238</v>
       </c>
       <c r="E81" s="2">
-        <v>0.57064884901046753</v>
+        <v>0.57316660881042481</v>
       </c>
     </row>
     <row r="82">
@@ -1042,13 +1042,13 @@
         <v>0.89987456798553467</v>
       </c>
       <c r="C82" s="2">
-        <v>0.86760258674621582</v>
+        <v>0.86954808235168457</v>
       </c>
       <c r="D82" s="2">
         <v>0.57460242509841919</v>
       </c>
       <c r="E82" s="2">
-        <v>0.51882380247116089</v>
+        <v>0.52133846282958984</v>
       </c>
     </row>
     <row r="83">
@@ -1086,13 +1086,13 @@
         <v>0.46530294418334961</v>
       </c>
       <c r="C86" s="2">
-        <v>0.36334875226020813</v>
+        <v>0.36585408449172974</v>
       </c>
       <c r="D86" s="2">
         <v>0.37695962190628052</v>
       </c>
       <c r="E86" s="2">
-        <v>0.3797716498374939</v>
+        <v>0.38178560137748718</v>
       </c>
     </row>
     <row r="87">
@@ -1103,13 +1103,13 @@
         <v>0.10031627863645554</v>
       </c>
       <c r="C87" s="2">
-        <v>0.27633935213088989</v>
+        <v>0.27968645095825195</v>
       </c>
       <c r="D87" s="2">
         <v>0.20265462994575501</v>
       </c>
       <c r="E87" s="2">
-        <v>0.21716132760047913</v>
+        <v>0.21919809281826019</v>
       </c>
     </row>
     <row r="88">
@@ -1120,13 +1120,13 @@
         <v>0.042344652116298676</v>
       </c>
       <c r="C88" s="2">
-        <v>0.011795882135629654</v>
+        <v>0.012053734622895718</v>
       </c>
       <c r="D88" s="2">
         <v>0.32980158925056458</v>
       </c>
       <c r="E88" s="2">
-        <v>0.3244549036026001</v>
+        <v>0.3264714777469635</v>
       </c>
     </row>
     <row r="89">
@@ -1164,13 +1164,13 @@
         <v>0.71124249696731567</v>
       </c>
       <c r="C92" s="2">
-        <v>0.64633560180664063</v>
+        <v>0.64829158782958984</v>
       </c>
       <c r="D92" s="2">
         <v>0.53669047355651855</v>
       </c>
       <c r="E92" s="2">
-        <v>0.49521750211715698</v>
+        <v>0.49748003482818604</v>
       </c>
     </row>
     <row r="93">
@@ -1181,13 +1181,13 @@
         <v>0.80356293916702271</v>
       </c>
       <c r="C93" s="2">
-        <v>0.78218501806259155</v>
+        <v>0.7872241735458374</v>
       </c>
       <c r="D93" s="2">
         <v>0.70147240161895752</v>
       </c>
       <c r="E93" s="2">
-        <v>0.65635800361633301</v>
+        <v>0.65928876399993896</v>
       </c>
     </row>
     <row r="94">
@@ -1198,13 +1198,13 @@
         <v>0.58961182832717896</v>
       </c>
       <c r="C94" s="2">
-        <v>0.54055345058441162</v>
+        <v>0.54235059022903442</v>
       </c>
       <c r="D94" s="2">
         <v>0.70147240161895752</v>
       </c>
       <c r="E94" s="2">
-        <v>0.65635800361633301</v>
+        <v>0.65928876399993896</v>
       </c>
     </row>
     <row r="95">
@@ -1260,13 +1260,13 @@
         <v>0.14898569881916046</v>
       </c>
       <c r="C100" s="2">
-        <v>0.63409310579299927</v>
+        <v>0.63588368892669678</v>
       </c>
       <c r="D100" s="2">
         <v>0.73300236463546753</v>
       </c>
       <c r="E100" s="2">
-        <v>1.1096334457397461</v>
+        <v>1.1129212379455566</v>
       </c>
     </row>
     <row r="101">
@@ -1295,13 +1295,13 @@
         <v>1.317018985748291</v>
       </c>
       <c r="C103" s="2">
-        <v>1.5851738452911377</v>
+        <v>1.5899589061737061</v>
       </c>
       <c r="D103" s="2">
         <v>0.93625760078430176</v>
       </c>
       <c r="E103" s="2">
-        <v>1.1695272922515869</v>
+        <v>1.1742295026779175</v>
       </c>
     </row>
     <row r="104">
@@ -1330,13 +1330,13 @@
         <v>1.3427680730819702</v>
       </c>
       <c r="C106" s="2">
-        <v>1.2893147468566895</v>
+        <v>1.2968459129333496</v>
       </c>
       <c r="D106" s="2">
         <v>1.0980263948440552</v>
       </c>
       <c r="E106" s="2">
-        <v>1.1883910894393921</v>
+        <v>1.1930932998657227</v>
       </c>
     </row>
     <row r="107">
@@ -1365,13 +1365,13 @@
         <v>0.63429200649261475</v>
       </c>
       <c r="C109" s="2">
-        <v>0.6906847357749939</v>
+        <v>0.69247525930404663</v>
       </c>
       <c r="D109" s="2">
         <v>0.90486323833465576</v>
       </c>
       <c r="E109" s="2">
-        <v>0.94216036796569824</v>
+        <v>0.94704389572143555</v>
       </c>
     </row>
     <row r="110">
@@ -1400,13 +1400,13 @@
         <v>0.7375296950340271</v>
       </c>
       <c r="C112" s="2">
-        <v>0.84648168087005615</v>
+        <v>0.85181045532226563</v>
       </c>
       <c r="D112" s="2">
         <v>0.62356847524642944</v>
       </c>
       <c r="E112" s="2">
-        <v>0.64393222332000732</v>
+        <v>0.64844739437103271</v>
       </c>
     </row>
     <row r="113">
@@ -1435,13 +1435,13 @@
         <v>0.49888375401496887</v>
       </c>
       <c r="C115" s="2">
-        <v>0.39463016390800476</v>
+        <v>0.40105640888214111</v>
       </c>
       <c r="D115" s="2">
         <v>0.71733814477920532</v>
       </c>
       <c r="E115" s="2">
-        <v>0.67901086807250977</v>
+        <v>0.68460482358932495</v>
       </c>
     </row>
     <row r="116">
@@ -1470,13 +1470,13 @@
         <v>0.91560101509094238</v>
       </c>
       <c r="C118" s="2">
-        <v>0.79592078924179077</v>
+        <v>0.80094760656356812</v>
       </c>
       <c r="D118" s="2">
         <v>0.12220177054405212</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.013074030168354511</v>
+        <v>-0.0074102678336203098</v>
       </c>
     </row>
     <row r="119">
@@ -1505,13 +1505,13 @@
         <v>-1.0478794574737549</v>
       </c>
       <c r="C121" s="2">
-        <v>-1.2297730445861816</v>
+        <v>-1.2242348194122315</v>
       </c>
       <c r="D121" s="2">
         <v>-0.06613922119140625</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.21692612767219543</v>
+        <v>-0.21164360642433167</v>
       </c>
     </row>
     <row r="122">
@@ -1765,13 +1765,13 @@
         <v>0.57158887386322022</v>
       </c>
       <c r="C149" s="2">
-        <v>0.47621244192123413</v>
+        <v>0.48252543807029724</v>
       </c>
       <c r="D149" s="2">
         <v>0.91426771879196167</v>
       </c>
       <c r="E149" s="2">
-        <v>0.83031076192855835</v>
+        <v>0.83551979064941406</v>
       </c>
     </row>
     <row r="150">
@@ -1782,13 +1782,13 @@
         <v>0.36666730046272278</v>
       </c>
       <c r="C150" s="2">
-        <v>0.24499689042568207</v>
+        <v>0.24975809454917908</v>
       </c>
       <c r="D150" s="2">
         <v>0.96478313207626343</v>
       </c>
       <c r="E150" s="2">
-        <v>0.87451958656311035</v>
+        <v>0.87957662343978882</v>
       </c>
     </row>
     <row r="151">
@@ -1799,13 +1799,13 @@
         <v>1.2443603277206421</v>
       </c>
       <c r="C151" s="2">
-        <v>1.186454176902771</v>
+        <v>1.1907646656036377</v>
       </c>
       <c r="D151" s="2">
         <v>1.0068825483322144</v>
       </c>
       <c r="E151" s="2">
-        <v>0.90466427803039551</v>
+        <v>0.90947431325912476</v>
       </c>
     </row>
     <row r="152">
@@ -1816,13 +1816,13 @@
         <v>1.0197614431381226</v>
       </c>
       <c r="C152" s="2">
-        <v>0.91924339532852173</v>
+        <v>0.92589777708053589</v>
       </c>
       <c r="D152" s="2">
         <v>0.95357203483581543</v>
       </c>
       <c r="E152" s="2">
-        <v>0.83433622121810913</v>
+        <v>0.83891522884368896</v>
       </c>
     </row>
     <row r="153">
@@ -1833,13 +1833,13 @@
         <v>1.3689607381820679</v>
       </c>
       <c r="C153" s="2">
-        <v>1.3246469497680664</v>
+        <v>1.3286528587341309</v>
       </c>
       <c r="D153" s="2">
         <v>0.91129863262176514</v>
       </c>
       <c r="E153" s="2">
-        <v>0.80312639474868774</v>
+        <v>0.80753988027572632</v>
       </c>
     </row>
     <row r="154">
@@ -1850,13 +1850,13 @@
         <v>1.217360258102417</v>
       </c>
       <c r="C154" s="2">
-        <v>1.095563530921936</v>
+        <v>1.0998610258102417</v>
       </c>
       <c r="D154" s="2">
         <v>0.79970943927764893</v>
       </c>
       <c r="E154" s="2">
-        <v>0.75794625282287598</v>
+        <v>0.76248013973236084</v>
       </c>
     </row>
     <row r="155">
@@ -1867,13 +1867,13 @@
         <v>1.2594789266586304</v>
       </c>
       <c r="C155" s="2">
-        <v>1.0855324268341064</v>
+        <v>1.0888605117797852</v>
       </c>
       <c r="D155" s="2">
         <v>0.81263875961303711</v>
       </c>
       <c r="E155" s="2">
-        <v>0.77582037448883057</v>
+        <v>0.7803235650062561</v>
       </c>
     </row>
     <row r="156">
@@ -1884,13 +1884,13 @@
         <v>0.58039820194244385</v>
       </c>
       <c r="C156" s="2">
-        <v>0.34203991293907166</v>
+        <v>0.34500154852867127</v>
       </c>
       <c r="D156" s="2">
         <v>0.83177149295806885</v>
       </c>
       <c r="E156" s="2">
-        <v>0.79319614171981812</v>
+        <v>0.79772275686264038</v>
       </c>
     </row>
     <row r="157">
@@ -1901,13 +1901,13 @@
         <v>0.57311147451400757</v>
       </c>
       <c r="C157" s="2">
-        <v>0.5534479022026062</v>
+        <v>0.55653703212738037</v>
       </c>
       <c r="D157" s="2">
         <v>0.87028408050537109</v>
       </c>
       <c r="E157" s="2">
-        <v>0.8390648365020752</v>
+        <v>0.84339570999145508</v>
       </c>
     </row>
     <row r="158">
@@ -1918,13 +1918,13 @@
         <v>-0.43271350860595703</v>
       </c>
       <c r="C158" s="2">
-        <v>0.069591298699378967</v>
+        <v>0.076987661421298981</v>
       </c>
       <c r="D158" s="2">
         <v>0.81277155876159668</v>
       </c>
       <c r="E158" s="2">
-        <v>0.7707783579826355</v>
+        <v>0.77510136365890503</v>
       </c>
     </row>
     <row r="159">
@@ -1935,13 +1935,13 @@
         <v>0.483030766248703</v>
       </c>
       <c r="C159" s="2">
-        <v>0.40586373209953308</v>
+        <v>0.41034874320030213</v>
       </c>
       <c r="D159" s="2">
         <v>0.85266071557998657</v>
       </c>
       <c r="E159" s="2">
-        <v>0.80864477157592773</v>
+        <v>0.8128429651260376</v>
       </c>
     </row>
     <row r="160">
@@ -1952,13 +1952,13 @@
         <v>1.4165554046630859</v>
       </c>
       <c r="C160" s="2">
-        <v>1.3428363800048828</v>
+        <v>1.3473575115203858</v>
       </c>
       <c r="D160" s="2">
         <v>0.84335935115814209</v>
       </c>
       <c r="E160" s="2">
-        <v>0.79792559146881104</v>
+        <v>0.80282199382781982</v>
       </c>
     </row>
     <row r="161">
@@ -1969,13 +1969,13 @@
         <v>1.3663743734359741</v>
       </c>
       <c r="C161" s="2">
-        <v>1.3320612907409668</v>
+        <v>1.3369545936584473</v>
       </c>
       <c r="D161" s="2">
         <v>0.86715131998062134</v>
       </c>
       <c r="E161" s="2">
-        <v>0.85136860609054566</v>
+        <v>0.85636436939239502</v>
       </c>
     </row>
     <row r="162">
@@ -1986,13 +1986,13 @@
         <v>0.85134798288345337</v>
       </c>
       <c r="C162" s="2">
-        <v>0.71006864309310913</v>
+        <v>0.71400338411331177</v>
       </c>
       <c r="D162" s="2">
         <v>0.69092398881912231</v>
       </c>
       <c r="E162" s="2">
-        <v>0.63012391328811646</v>
+        <v>0.63539958000183105</v>
       </c>
     </row>
     <row r="163">
@@ -2003,13 +2003,13 @@
         <v>1.5763626098632813</v>
       </c>
       <c r="C163" s="2">
-        <v>1.4363614320755005</v>
+        <v>1.4395357370376587</v>
       </c>
       <c r="D163" s="2">
         <v>0.8962470293045044</v>
       </c>
       <c r="E163" s="2">
-        <v>0.78983211517333984</v>
+        <v>0.7950812578201294</v>
       </c>
     </row>
     <row r="164">
@@ -2020,13 +2020,13 @@
         <v>1.1757670640945435</v>
       </c>
       <c r="C164" s="2">
-        <v>0.9890596866607666</v>
+        <v>0.99867182970046997</v>
       </c>
       <c r="D164" s="2">
         <v>0.92782658338546753</v>
       </c>
       <c r="E164" s="2">
-        <v>0.88347303867340088</v>
+        <v>0.88837236166000366</v>
       </c>
     </row>
     <row r="165">
@@ -2037,13 +2037,13 @@
         <v>0.7945256233215332</v>
       </c>
       <c r="C165" s="2">
-        <v>0.82302713394165039</v>
+        <v>0.82688260078430176</v>
       </c>
       <c r="D165" s="2">
         <v>0.84742128849029541</v>
       </c>
       <c r="E165" s="2">
-        <v>0.80939966440200806</v>
+        <v>0.81439131498336792</v>
       </c>
     </row>
     <row r="166">
@@ -2054,13 +2054,13 @@
         <v>-1.0129344463348389</v>
       </c>
       <c r="C166" s="2">
-        <v>-1.4377542734146118</v>
+        <v>-1.4321455955505371</v>
       </c>
       <c r="D166" s="2">
         <v>0.85329848527908325</v>
       </c>
       <c r="E166" s="2">
-        <v>0.81473177671432495</v>
+        <v>0.82035821676254272</v>
       </c>
     </row>
     <row r="167">
@@ -2071,13 +2071,13 @@
         <v>1.4151941537857056</v>
       </c>
       <c r="C167" s="2">
-        <v>1.5069650411605835</v>
+        <v>1.5141223669052124</v>
       </c>
       <c r="D167" s="2">
         <v>0.86927485466003418</v>
       </c>
       <c r="E167" s="2">
-        <v>0.83576399087905884</v>
+        <v>0.84122264385223389</v>
       </c>
     </row>
     <row r="168">
@@ -2088,13 +2088,13 @@
         <v>0.76724648475646973</v>
       </c>
       <c r="C168" s="2">
-        <v>1.2486320734024048</v>
+        <v>1.2499688863754272</v>
       </c>
       <c r="D168" s="2">
         <v>0.62240105867385864</v>
       </c>
       <c r="E168" s="2">
-        <v>0.57813292741775513</v>
+        <v>0.58384233713150025</v>
       </c>
     </row>
     <row r="169">
@@ -2105,13 +2105,13 @@
         <v>0.69290751218795776</v>
       </c>
       <c r="C169" s="2">
-        <v>0.67617595195770264</v>
+        <v>0.68152821063995361</v>
       </c>
       <c r="D169" s="2">
         <v>0.48370081186294556</v>
       </c>
       <c r="E169" s="2">
-        <v>0.47316291928291321</v>
+        <v>0.47856235504150391</v>
       </c>
     </row>
     <row r="170">
@@ -2122,13 +2122,13 @@
         <v>1.4192695617675781</v>
       </c>
       <c r="C170" s="2">
-        <v>1.3800503015518189</v>
+        <v>1.3906564712524414</v>
       </c>
       <c r="D170" s="2">
         <v>0.53009539842605591</v>
       </c>
       <c r="E170" s="2">
-        <v>0.52276623249053955</v>
+        <v>0.52828305959701538</v>
       </c>
     </row>
     <row r="171">
@@ -2139,13 +2139,13 @@
         <v>0.9951353669166565</v>
       </c>
       <c r="C171" s="2">
-        <v>0.89935839176177979</v>
+        <v>0.9017835259437561</v>
       </c>
       <c r="D171" s="2">
         <v>0.70197927951812744</v>
       </c>
       <c r="E171" s="2">
-        <v>0.74419248104095459</v>
+        <v>0.74969905614852905</v>
       </c>
     </row>
     <row r="172">
@@ -2156,13 +2156,13 @@
         <v>-0.64550179243087769</v>
       </c>
       <c r="C172" s="2">
-        <v>-0.88231801986694336</v>
+        <v>-0.87688714265823364</v>
       </c>
       <c r="D172" s="2">
         <v>0.57080817222595215</v>
       </c>
       <c r="E172" s="2">
-        <v>0.58699959516525269</v>
+        <v>0.59216248989105225</v>
       </c>
     </row>
     <row r="173">
@@ -2173,13 +2173,13 @@
         <v>-0.072535261511802673</v>
       </c>
       <c r="C173" s="2">
-        <v>0.044329766184091568</v>
+        <v>0.051151983439922333</v>
       </c>
       <c r="D173" s="2">
         <v>0.37555095553398132</v>
       </c>
       <c r="E173" s="2">
-        <v>0.31686261296272278</v>
+        <v>0.32256227731704712</v>
       </c>
     </row>
     <row r="174">
@@ -2190,13 +2190,13 @@
         <v>1.2120770215988159</v>
       </c>
       <c r="C174" s="2">
-        <v>1.2694566249847412</v>
+        <v>1.2743688821792603</v>
       </c>
       <c r="D174" s="2">
         <v>0.45036458969116211</v>
       </c>
       <c r="E174" s="2">
-        <v>0.40366056561470032</v>
+        <v>0.40943211317062378</v>
       </c>
     </row>
     <row r="175">
@@ -2207,13 +2207,13 @@
         <v>0.53402048349380493</v>
       </c>
       <c r="C175" s="2">
-        <v>0.55508202314376831</v>
+        <v>0.56059831380844116</v>
       </c>
       <c r="D175" s="2">
         <v>0.43029242753982544</v>
       </c>
       <c r="E175" s="2">
-        <v>0.38577428460121155</v>
+        <v>0.3908143937587738</v>
       </c>
     </row>
     <row r="176">
@@ -2224,13 +2224,13 @@
         <v>0.23465435206890106</v>
       </c>
       <c r="C176" s="2">
-        <v>0.092229455709457397</v>
+        <v>0.096293114125728607</v>
       </c>
       <c r="D176" s="2">
         <v>0.40371787548065186</v>
       </c>
       <c r="E176" s="2">
-        <v>0.38946893811225891</v>
+        <v>0.3950442373752594</v>
       </c>
     </row>
     <row r="177">
@@ -2241,13 +2241,13 @@
         <v>-0.99006873369216919</v>
       </c>
       <c r="C177" s="2">
-        <v>-1.1826008558273315</v>
+        <v>-1.1764328479766846</v>
       </c>
       <c r="D177" s="2">
         <v>0.62233668565750122</v>
       </c>
       <c r="E177" s="2">
-        <v>0.62152916193008423</v>
+        <v>0.62733888626098633</v>
       </c>
     </row>
     <row r="178">
@@ -2258,13 +2258,13 @@
         <v>1.3662302494049072</v>
       </c>
       <c r="C178" s="2">
-        <v>1.4573574066162109</v>
+        <v>1.4633568525314331</v>
       </c>
       <c r="D178" s="2">
         <v>0.51801615953445435</v>
       </c>
       <c r="E178" s="2">
-        <v>0.55402708053588867</v>
+        <v>0.55946058034896851</v>
       </c>
     </row>
     <row r="179">
@@ -2275,13 +2275,13 @@
         <v>1.2386200428009033</v>
       </c>
       <c r="C179" s="2">
-        <v>1.2190738916397095</v>
+        <v>1.2230968475341797</v>
       </c>
       <c r="D179" s="2">
         <v>0.4819599986076355</v>
       </c>
       <c r="E179" s="2">
-        <v>0.49872294068336487</v>
+        <v>0.50420999526977539</v>
       </c>
     </row>
     <row r="180">
@@ -2292,13 +2292,13 @@
         <v>0.75596463680267334</v>
       </c>
       <c r="C180" s="2">
-        <v>0.9326101541519165</v>
+        <v>0.93985205888748169</v>
       </c>
       <c r="D180" s="2">
         <v>0.54198992252349854</v>
       </c>
       <c r="E180" s="2">
-        <v>0.54308301210403442</v>
+        <v>0.54841077327728271</v>
       </c>
     </row>
     <row r="181">
@@ -2309,13 +2309,13 @@
         <v>1.3220672607421875</v>
       </c>
       <c r="C181" s="2">
-        <v>1.206223726272583</v>
+        <v>1.2137647867202759</v>
       </c>
       <c r="D181" s="2">
         <v>0.63616341352462769</v>
       </c>
       <c r="E181" s="2">
-        <v>0.62750107049942017</v>
+        <v>0.63286620378494263</v>
       </c>
     </row>
     <row r="182">
@@ -2326,13 +2326,13 @@
         <v>-1.0114201307296753</v>
       </c>
       <c r="C182" s="2">
-        <v>-0.56318879127502441</v>
+        <v>-0.5597529411315918</v>
       </c>
       <c r="D182" s="2">
         <v>0.80832242965698242</v>
       </c>
       <c r="E182" s="2">
-        <v>0.81149733066558838</v>
+        <v>0.81643134355545044</v>
       </c>
     </row>
     <row r="183">
@@ -2343,13 +2343,13 @@
         <v>0.88757175207138062</v>
       </c>
       <c r="C183" s="2">
-        <v>0.77171933650970459</v>
+        <v>0.77711355686187744</v>
       </c>
       <c r="D183" s="2">
         <v>0.816234290599823</v>
       </c>
       <c r="E183" s="2">
-        <v>0.799308180809021</v>
+        <v>0.80411708354949951</v>
       </c>
     </row>
     <row r="184">
@@ -2360,13 +2360,13 @@
         <v>1.0742899179458618</v>
       </c>
       <c r="C184" s="2">
-        <v>0.95432257652282715</v>
+        <v>0.95840531587600708</v>
       </c>
       <c r="D184" s="2">
         <v>0.84180420637130737</v>
       </c>
       <c r="E184" s="2">
-        <v>0.78198254108428955</v>
+        <v>0.78734683990478516</v>
       </c>
     </row>
     <row r="185">
@@ -2377,13 +2377,13 @@
         <v>1.0822157859802246</v>
       </c>
       <c r="C185" s="2">
-        <v>0.85199236869812012</v>
+        <v>0.85639244318008423</v>
       </c>
       <c r="D185" s="2">
         <v>0.84736055135726929</v>
       </c>
       <c r="E185" s="2">
-        <v>0.73534542322158813</v>
+        <v>0.74031704664230347</v>
       </c>
     </row>
     <row r="186">
@@ -2394,13 +2394,13 @@
         <v>0.55936235189437866</v>
       </c>
       <c r="C186" s="2">
-        <v>0.47336521744728088</v>
+        <v>0.47565293312072754</v>
       </c>
       <c r="D186" s="2">
         <v>0.67459487915039063</v>
       </c>
       <c r="E186" s="2">
-        <v>0.54515641927719116</v>
+        <v>0.55060595273971558</v>
       </c>
     </row>
     <row r="187">
@@ -2411,13 +2411,13 @@
         <v>1.4374370574951172</v>
       </c>
       <c r="C187" s="2">
-        <v>1.3476554155349731</v>
+        <v>1.3525286912918091</v>
       </c>
       <c r="D187" s="2">
         <v>0.8997909426689148</v>
       </c>
       <c r="E187" s="2">
-        <v>0.7453274130821228</v>
+        <v>0.75110006332397461</v>
       </c>
     </row>
     <row r="188">
@@ -2428,13 +2428,13 @@
         <v>1.4687491655349731</v>
       </c>
       <c r="C188" s="2">
-        <v>1.0631427764892578</v>
+        <v>1.0721646547317505</v>
       </c>
       <c r="D188" s="2">
         <v>0.8301655650138855</v>
       </c>
       <c r="E188" s="2">
-        <v>0.68662029504776001</v>
+        <v>0.69208687543869019</v>
       </c>
     </row>
     <row r="189">
@@ -2445,13 +2445,13 @@
         <v>0.80597198009490967</v>
       </c>
       <c r="C189" s="2">
-        <v>0.51287603378295898</v>
+        <v>0.51658374071121216</v>
       </c>
       <c r="D189" s="2">
         <v>0.81257057189941406</v>
       </c>
       <c r="E189" s="2">
-        <v>0.66325706243515015</v>
+        <v>0.66846072673797607</v>
       </c>
     </row>
     <row r="190">
@@ -2462,13 +2462,13 @@
         <v>-0.23282408714294434</v>
       </c>
       <c r="C190" s="2">
-        <v>-0.50547736883163452</v>
+        <v>-0.49363479018211365</v>
       </c>
       <c r="D190" s="2">
         <v>0.77534443140029907</v>
       </c>
       <c r="E190" s="2">
-        <v>0.62585896253585816</v>
+        <v>0.63134026527404785</v>
       </c>
     </row>
     <row r="191">
@@ -2479,13 +2479,13 @@
         <v>1.0153443813323975</v>
       </c>
       <c r="C191" s="2">
-        <v>1.2383503913879395</v>
+        <v>1.2446938753128052</v>
       </c>
       <c r="D191" s="2">
         <v>0.84406983852386475</v>
       </c>
       <c r="E191" s="2">
-        <v>0.69590049982070923</v>
+        <v>0.70145225524902344</v>
       </c>
     </row>
     <row r="192">
@@ -2496,13 +2496,13 @@
         <v>0.26094359159469604</v>
       </c>
       <c r="C192" s="2">
-        <v>0.2433551549911499</v>
+        <v>0.2459949254989624</v>
       </c>
       <c r="D192" s="2">
         <v>0.5906711220741272</v>
       </c>
       <c r="E192" s="2">
-        <v>0.38548684120178223</v>
+        <v>0.39100885391235352</v>
       </c>
     </row>
     <row r="193">
@@ -2513,13 +2513,13 @@
         <v>0.91593480110168457</v>
       </c>
       <c r="C193" s="2">
-        <v>0.7440534234046936</v>
+        <v>0.74576979875564575</v>
       </c>
       <c r="D193" s="2">
         <v>0.64727354049682617</v>
       </c>
       <c r="E193" s="2">
-        <v>0.45700687170028687</v>
+        <v>0.46259564161300659</v>
       </c>
     </row>
     <row r="194">
@@ -2530,13 +2530,13 @@
         <v>0.74718040227890015</v>
       </c>
       <c r="C194" s="2">
-        <v>0.51540976762771607</v>
+        <v>0.5223088264465332</v>
       </c>
       <c r="D194" s="2">
         <v>0.68223839998245239</v>
       </c>
       <c r="E194" s="2">
-        <v>0.48799628019332886</v>
+        <v>0.49409103393554688</v>
       </c>
     </row>
     <row r="195">
@@ -2547,13 +2547,13 @@
         <v>1.1778914928436279</v>
       </c>
       <c r="C195" s="2">
-        <v>1.1037387847900391</v>
+        <v>1.1066603660583496</v>
       </c>
       <c r="D195" s="2">
         <v>0.84369057416915894</v>
       </c>
       <c r="E195" s="2">
-        <v>0.67014980316162109</v>
+        <v>0.67569953203201294</v>
       </c>
     </row>
     <row r="196">
@@ -2564,13 +2564,13 @@
         <v>-0.84315186738967896</v>
       </c>
       <c r="C196" s="2">
-        <v>-1.4460674524307251</v>
+        <v>-1.4414616823196411</v>
       </c>
       <c r="D196" s="2">
         <v>0.8668481707572937</v>
       </c>
       <c r="E196" s="2">
-        <v>0.65464174747467041</v>
+        <v>0.65976321697235108</v>
       </c>
     </row>
     <row r="197">
@@ -2581,13 +2581,13 @@
         <v>1.9781713485717773</v>
       </c>
       <c r="C197" s="2">
-        <v>1.7068229913711548</v>
+        <v>1.7164456844329834</v>
       </c>
       <c r="D197" s="2">
         <v>1.02826988697052</v>
       </c>
       <c r="E197" s="2">
-        <v>0.81155437231063843</v>
+        <v>0.81719350814819336</v>
       </c>
     </row>
     <row r="198">
@@ -2598,13 +2598,13 @@
         <v>1.1206554174423218</v>
       </c>
       <c r="C198" s="2">
-        <v>0.79178082942962647</v>
+        <v>0.80004221200942993</v>
       </c>
       <c r="D198" s="2">
         <v>1.0359407663345337</v>
       </c>
       <c r="E198" s="2">
-        <v>0.86951714754104614</v>
+        <v>0.87570106983184815</v>
       </c>
     </row>
     <row r="199">
@@ -2615,13 +2615,13 @@
         <v>1.2202457189559937</v>
       </c>
       <c r="C199" s="2">
-        <v>1.1339042186737061</v>
+        <v>1.1408416032791138</v>
       </c>
       <c r="D199" s="2">
         <v>1.1254415512084961</v>
       </c>
       <c r="E199" s="2">
-        <v>0.98112571239471436</v>
+        <v>0.98728090524673462</v>
       </c>
     </row>
     <row r="200">
@@ -2632,13 +2632,13 @@
         <v>1.2237625122070313</v>
       </c>
       <c r="C200" s="2">
-        <v>1.098778247833252</v>
+        <v>1.1012670993804932</v>
       </c>
       <c r="D200" s="2">
         <v>1.1177159547805786</v>
       </c>
       <c r="E200" s="2">
-        <v>0.96478158235549927</v>
+        <v>0.97169846296310425</v>
       </c>
     </row>
     <row r="201">
@@ -2649,13 +2649,13 @@
         <v>1.713739275932312</v>
       </c>
       <c r="C201" s="2">
-        <v>1.6555683612823486</v>
+        <v>1.6628679037094116</v>
       </c>
       <c r="D201" s="2">
         <v>1.3274825811386108</v>
       </c>
       <c r="E201" s="2">
-        <v>1.2333444356918335</v>
+        <v>1.2405704259872437</v>
       </c>
     </row>
     <row r="202">
@@ -2666,13 +2666,13 @@
         <v>0.98497289419174194</v>
       </c>
       <c r="C202" s="2">
-        <v>1.2657184600830078</v>
+        <v>1.2723377943038941</v>
       </c>
       <c r="D202" s="2">
         <v>1.3351821899414063</v>
       </c>
       <c r="E202" s="2">
-        <v>1.2559462785720825</v>
+        <v>1.2627944946289063</v>
       </c>
     </row>
     <row r="203">
@@ -2683,13 +2683,13 @@
         <v>1.5526868104934692</v>
       </c>
       <c r="C203" s="2">
-        <v>1.5198869705200195</v>
+        <v>1.5265272855758667</v>
       </c>
       <c r="D203" s="2">
         <v>1.3364373445510864</v>
       </c>
       <c r="E203" s="2">
-        <v>1.2635562419891357</v>
+        <v>1.2702490091323853</v>
       </c>
     </row>
     <row r="204">
@@ -2700,13 +2700,13 @@
         <v>1.1083613634109497</v>
       </c>
       <c r="C204" s="2">
-        <v>0.95664143562316895</v>
+        <v>0.96641844511032104</v>
       </c>
       <c r="D204" s="2">
         <v>1.2379546165466309</v>
       </c>
       <c r="E204" s="2">
-        <v>1.1269277334213257</v>
+        <v>1.134384036064148</v>
       </c>
     </row>
     <row r="205">
@@ -2717,13 +2717,13 @@
         <v>1.0447477102279663</v>
       </c>
       <c r="C205" s="2">
-        <v>0.97099816799163818</v>
+        <v>0.9783860445022583</v>
       </c>
       <c r="D205" s="2">
         <v>1.2841290235519409</v>
       </c>
       <c r="E205" s="2">
-        <v>1.1745131015777588</v>
+        <v>1.1825189590454102</v>
       </c>
     </row>
     <row r="206">
@@ -2734,13 +2734,13 @@
         <v>2.0474674701690674</v>
       </c>
       <c r="C206" s="2">
-        <v>1.9102401733398438</v>
+        <v>1.9164619445800781</v>
       </c>
       <c r="D206" s="2">
         <v>1.1597045660018921</v>
       </c>
       <c r="E206" s="2">
-        <v>1.0440680980682373</v>
+        <v>1.0523329973220825</v>
       </c>
     </row>
     <row r="207">
@@ -2751,13 +2751,13 @@
         <v>1.1319519281387329</v>
       </c>
       <c r="C207" s="2">
-        <v>0.86026972532272339</v>
+        <v>0.86713343858718872</v>
       </c>
       <c r="D207" s="2">
         <v>1.2399861812591553</v>
       </c>
       <c r="E207" s="2">
-        <v>1.0859776735305786</v>
+        <v>1.0938569307327271</v>
       </c>
     </row>
     <row r="208">
@@ -2768,13 +2768,13 @@
         <v>0.33390182256698608</v>
       </c>
       <c r="C208" s="2">
-        <v>-0.09575200080871582</v>
+        <v>-0.08194347470998764</v>
       </c>
       <c r="D208" s="2">
         <v>1.2080827951431275</v>
       </c>
       <c r="E208" s="2">
-        <v>1.0377997159957886</v>
+        <v>1.0459250211715698</v>
       </c>
     </row>
     <row r="209">
@@ -2785,13 +2785,13 @@
         <v>1.6393320560455322</v>
       </c>
       <c r="C209" s="2">
-        <v>1.5270460844039917</v>
+        <v>1.5344812870025635</v>
       </c>
       <c r="D209" s="2">
         <v>1.2670102119445801</v>
       </c>
       <c r="E209" s="2">
-        <v>1.106601357460022</v>
+        <v>1.1142680644989014</v>
       </c>
     </row>
     <row r="210">
@@ -2802,13 +2802,13 @@
         <v>0.59391915798187256</v>
       </c>
       <c r="C210" s="2">
-        <v>0.48156332969665527</v>
+        <v>0.49119466543197632</v>
       </c>
       <c r="D210" s="2">
         <v>1.3644167184829712</v>
       </c>
       <c r="E210" s="2">
-        <v>1.1946603059768677</v>
+        <v>1.2020578384399414</v>
       </c>
     </row>
     <row r="211">
@@ -2819,13 +2819,13 @@
         <v>1.7075070142745972</v>
       </c>
       <c r="C211" s="2">
-        <v>1.6429054737091065</v>
+        <v>1.6460529565811157</v>
       </c>
       <c r="D211" s="2">
         <v>1.2260303497314453</v>
       </c>
       <c r="E211" s="2">
-        <v>1.0484559535980225</v>
+        <v>1.0561553239822388</v>
       </c>
     </row>
     <row r="212">
@@ -2836,13 +2836,13 @@
         <v>1.2655562162399292</v>
       </c>
       <c r="C212" s="2">
-        <v>1.0862854719161987</v>
+        <v>1.0951400995254517</v>
       </c>
       <c r="D212" s="2">
         <v>1.2839332818984985</v>
       </c>
       <c r="E212" s="2">
-        <v>1.0602724552154541</v>
+        <v>1.0679571628570557</v>
       </c>
     </row>
     <row r="213">
@@ -2853,13 +2853,13 @@
         <v>1.6387084722518921</v>
       </c>
       <c r="C213" s="2">
-        <v>1.5758558511734009</v>
+        <v>1.5815058946609497</v>
       </c>
       <c r="D213" s="2">
         <v>1.3926588296890259</v>
       </c>
       <c r="E213" s="2">
-        <v>1.1909618377685547</v>
+        <v>1.1981732845306397</v>
       </c>
     </row>
     <row r="214">
@@ -2870,13 +2870,13 @@
         <v>1.9214067459106445</v>
       </c>
       <c r="C214" s="2">
-        <v>1.7635284662246704</v>
+        <v>1.7684934139251709</v>
       </c>
       <c r="D214" s="2">
         <v>1.3162360191345215</v>
       </c>
       <c r="E214" s="2">
-        <v>1.1238529682159424</v>
+        <v>1.1312493085861206</v>
       </c>
     </row>
     <row r="215">
@@ -2887,13 +2887,13 @@
         <v>0.80198955535888672</v>
       </c>
       <c r="C215" s="2">
-        <v>0.59440076351165772</v>
+        <v>0.60333949327468872</v>
       </c>
       <c r="D215" s="2">
         <v>1.3758833408355713</v>
       </c>
       <c r="E215" s="2">
-        <v>1.1154330968856812</v>
+        <v>1.1223162412643433</v>
       </c>
     </row>
     <row r="216">
@@ -2904,13 +2904,13 @@
         <v>1.6530786752700806</v>
       </c>
       <c r="C216" s="2">
-        <v>0.96661889553070068</v>
+        <v>0.97334963083267212</v>
       </c>
       <c r="D216" s="2">
         <v>1.4042555093765259</v>
       </c>
       <c r="E216" s="2">
-        <v>1.1363886594772339</v>
+        <v>1.1434541940689087</v>
       </c>
     </row>
     <row r="217">
@@ -2921,13 +2921,13 @@
         <v>1.3124315738677979</v>
       </c>
       <c r="C217" s="2">
-        <v>1.0804518461227417</v>
+        <v>1.0900019407272339</v>
       </c>
       <c r="D217" s="2">
         <v>1.3900672197341919</v>
       </c>
       <c r="E217" s="2">
-        <v>1.0497510433197021</v>
+        <v>1.0565801858901978</v>
       </c>
     </row>
     <row r="218">
@@ -2938,13 +2938,13 @@
         <v>0.95152682065963745</v>
       </c>
       <c r="C218" s="2">
-        <v>0.92306715250015259</v>
+        <v>0.93216609954833984</v>
       </c>
       <c r="D218" s="2">
         <v>1.397963285446167</v>
       </c>
       <c r="E218" s="2">
-        <v>1.0651476383209229</v>
+        <v>1.0715248584747315</v>
       </c>
     </row>
     <row r="219">
@@ -2955,13 +2955,13 @@
         <v>1.1307454109191895</v>
       </c>
       <c r="C219" s="2">
-        <v>0.40578368306159973</v>
+        <v>0.41079673171043396</v>
       </c>
       <c r="D219" s="2">
         <v>1.2928874492645264</v>
       </c>
       <c r="E219" s="2">
-        <v>1.0630149841308594</v>
+        <v>1.0694992542266846</v>
       </c>
     </row>
     <row r="220">
@@ -2972,13 +2972,13 @@
         <v>1.9628560543060303</v>
       </c>
       <c r="C220" s="2">
-        <v>1.8315055370330811</v>
+        <v>1.8362947702407837</v>
       </c>
       <c r="D220" s="2">
         <v>1.4544354677200317</v>
       </c>
       <c r="E220" s="2">
-        <v>1.2270407676696777</v>
+        <v>1.2333488464355469</v>
       </c>
     </row>
     <row r="221">
@@ -2989,13 +2989,13 @@
         <v>1.1378612518310547</v>
       </c>
       <c r="C221" s="2">
-        <v>0.30654719471931458</v>
+        <v>0.31327357888221741</v>
       </c>
       <c r="D221" s="2">
         <v>1.4848201274871826</v>
       </c>
       <c r="E221" s="2">
-        <v>1.3221430778503418</v>
+        <v>1.3285254240036011</v>
       </c>
     </row>
     <row r="222">
@@ -3006,13 +3006,13 @@
         <v>1.7097737789154053</v>
       </c>
       <c r="C222" s="2">
-        <v>1.7144255638122559</v>
+        <v>1.7160084247589111</v>
       </c>
       <c r="D222" s="2">
         <v>1.5098098516464233</v>
       </c>
       <c r="E222" s="2">
-        <v>1.3558551073074341</v>
+        <v>1.3619892597198486</v>
       </c>
     </row>
     <row r="223">
@@ -3023,13 +3023,13 @@
         <v>0.97572356462478638</v>
       </c>
       <c r="C223" s="2">
-        <v>1.7443341016769409</v>
+        <v>1.7502630949020386</v>
       </c>
       <c r="D223" s="2">
         <v>1.623569130897522</v>
       </c>
       <c r="E223" s="2">
-        <v>1.4583196640014649</v>
+        <v>1.4645600318908691</v>
       </c>
     </row>
     <row r="224">
@@ -3040,13 +3040,13 @@
         <v>2.2559218406677246</v>
       </c>
       <c r="C224" s="2">
-        <v>2.0706334114074707</v>
+        <v>2.0779848098754883</v>
       </c>
       <c r="D224" s="2">
         <v>1.6346161365509033</v>
       </c>
       <c r="E224" s="2">
-        <v>1.5393815040588379</v>
+        <v>1.5459096431732178</v>
       </c>
     </row>
     <row r="225">
@@ -3057,13 +3057,13 @@
         <v>1.9265403747558594</v>
       </c>
       <c r="C225" s="2">
-        <v>1.8225394487380982</v>
+        <v>1.8299388885498047</v>
       </c>
       <c r="D225" s="2">
         <v>1.4885809421539307</v>
       </c>
       <c r="E225" s="2">
-        <v>1.3951989412307739</v>
+        <v>1.4016185998916626</v>
       </c>
     </row>
     <row r="226">
@@ -3074,13 +3074,13 @@
         <v>1.5373392105102539</v>
       </c>
       <c r="C226" s="2">
-        <v>1.3838597536087036</v>
+        <v>1.3911765813827515</v>
       </c>
       <c r="D226" s="2">
         <v>1.5964707136154175</v>
       </c>
       <c r="E226" s="2">
-        <v>1.5853085517883301</v>
+        <v>1.5912805795669556</v>
       </c>
     </row>
     <row r="227">
@@ -3091,13 +3091,13 @@
         <v>1.9753605127334595</v>
       </c>
       <c r="C227" s="2">
-        <v>1.8452478647232056</v>
+        <v>1.8553032875061035</v>
       </c>
       <c r="D227" s="2">
         <v>1.5929747819900513</v>
       </c>
       <c r="E227" s="2">
-        <v>1.5580443143844605</v>
+        <v>1.5652525424957275</v>
       </c>
     </row>
     <row r="228">
@@ -3108,13 +3108,13 @@
         <v>1.2301684617996216</v>
       </c>
       <c r="C228" s="2">
-        <v>1.1353404521942139</v>
+        <v>1.1429437398910523</v>
       </c>
       <c r="D228" s="2">
         <v>1.6729639768600464</v>
       </c>
       <c r="E228" s="2">
-        <v>1.5036877393722534</v>
+        <v>1.5109571218490601</v>
       </c>
     </row>
     <row r="229">
@@ -3125,13 +3125,13 @@
         <v>0.64853912591934204</v>
       </c>
       <c r="C229" s="2">
-        <v>0.5338624119758606</v>
+        <v>0.53767526149749756</v>
       </c>
       <c r="D229" s="2">
         <v>1.4716781377792358</v>
       </c>
       <c r="E229" s="2">
-        <v>1.3561886548995972</v>
+        <v>1.3636461496353149</v>
       </c>
     </row>
     <row r="230">
@@ -3142,13 +3142,13 @@
         <v>2.1088693141937256</v>
       </c>
       <c r="C230" s="2">
-        <v>2.017533540725708</v>
+        <v>2.0202314853668213</v>
       </c>
       <c r="D230" s="2">
         <v>1.4309722185134888</v>
       </c>
       <c r="E230" s="2">
-        <v>1.2999163866043091</v>
+        <v>1.3073780536651611</v>
       </c>
     </row>
     <row r="231">
@@ -3159,13 +3159,13 @@
         <v>1.6783111095428467</v>
       </c>
       <c r="C231" s="2">
-        <v>1.469048023223877</v>
+        <v>1.4817557334899902</v>
       </c>
       <c r="D231" s="2">
         <v>1.4457551240921021</v>
       </c>
       <c r="E231" s="2">
-        <v>1.3115735054016113</v>
+        <v>1.3192305564880371</v>
       </c>
     </row>
     <row r="232">
@@ -3176,13 +3176,13 @@
         <v>1.6956256628036499</v>
       </c>
       <c r="C232" s="2">
-        <v>1.2551250457763672</v>
+        <v>1.2616047859191895</v>
       </c>
       <c r="D232" s="2">
         <v>1.3328620195388794</v>
       </c>
       <c r="E232" s="2">
-        <v>1.1620358228683472</v>
+        <v>1.1695753335952759</v>
       </c>
     </row>
     <row r="233">
@@ -3193,13 +3193,13 @@
         <v>0.44434997439384461</v>
       </c>
       <c r="C233" s="2">
-        <v>0.74314159154891968</v>
+        <v>0.7521851658821106</v>
       </c>
       <c r="D233" s="2">
         <v>1.384427547454834</v>
       </c>
       <c r="E233" s="2">
-        <v>1.2176382541656494</v>
+        <v>1.2246917486190796</v>
       </c>
     </row>
     <row r="234">
@@ -3210,13 +3210,13 @@
         <v>1.5601869821548462</v>
       </c>
       <c r="C234" s="2">
-        <v>1.3160891532897949</v>
+        <v>1.3235260248184204</v>
       </c>
       <c r="D234" s="2">
         <v>1.3866252899169922</v>
       </c>
       <c r="E234" s="2">
-        <v>1.2104629278182983</v>
+        <v>1.2180905342102051</v>
       </c>
     </row>
     <row r="235">
@@ -3227,13 +3227,13 @@
         <v>1.6703846454620361</v>
       </c>
       <c r="C235" s="2">
-        <v>1.4887734651565552</v>
+        <v>1.4978493452072144</v>
       </c>
       <c r="D235" s="2">
         <v>1.1621153354644775</v>
       </c>
       <c r="E235" s="2">
-        <v>0.96448737382888794</v>
+        <v>0.97300875186920166</v>
       </c>
     </row>
     <row r="236">
@@ -3244,13 +3244,13 @@
         <v>0.95932298898696899</v>
       </c>
       <c r="C236" s="2">
-        <v>0.49940866231918335</v>
+        <v>0.50840681791305542</v>
       </c>
       <c r="D236" s="2">
         <v>1.1453301906585693</v>
       </c>
       <c r="E236" s="2">
-        <v>0.94961333274841309</v>
+        <v>0.95706963539123535</v>
       </c>
     </row>
     <row r="237">
@@ -3261,13 +3261,13 @@
         <v>1.6942579746246338</v>
       </c>
       <c r="C237" s="2">
-        <v>1.6357629299163818</v>
+        <v>1.638991117477417</v>
       </c>
       <c r="D237" s="2">
         <v>1.1125667095184326</v>
       </c>
       <c r="E237" s="2">
-        <v>0.94267594814300537</v>
+        <v>0.94979190826416016</v>
       </c>
     </row>
     <row r="238">
@@ -3278,13 +3278,13 @@
         <v>0.66831928491592407</v>
       </c>
       <c r="C238" s="2">
-        <v>0.46928367018699646</v>
+        <v>0.47826430201530457</v>
       </c>
       <c r="D238" s="2">
         <v>1.237261176109314</v>
       </c>
       <c r="E238" s="2">
-        <v>1.0098257064819336</v>
+        <v>1.0171239376068115</v>
       </c>
     </row>
     <row r="239">
@@ -3295,13 +3295,13 @@
         <v>0.088279090821743012</v>
       </c>
       <c r="C239" s="2">
-        <v>-0.19624614715576172</v>
+        <v>-0.18550431728363037</v>
       </c>
       <c r="D239" s="2">
         <v>1.1578308343887329</v>
       </c>
       <c r="E239" s="2">
-        <v>0.94484823942184448</v>
+        <v>0.95212113857269287</v>
       </c>
     </row>
     <row r="240">
@@ -3312,13 +3312,13 @@
         <v>1.5272446870803833</v>
       </c>
       <c r="C240" s="2">
-        <v>1.335181713104248</v>
+        <v>1.3383035659790039</v>
       </c>
       <c r="D240" s="2">
         <v>1.1170773506164551</v>
       </c>
       <c r="E240" s="2">
-        <v>0.91468906402587891</v>
+        <v>0.92175740003585816</v>
       </c>
     </row>
     <row r="241">
@@ -3329,13 +3329,13 @@
         <v>1.400754451751709</v>
       </c>
       <c r="C241" s="2">
-        <v>1.1926882266998291</v>
+        <v>1.196104884147644</v>
       </c>
       <c r="D241" s="2">
         <v>1.1723089218139648</v>
       </c>
       <c r="E241" s="2">
-        <v>1.0040186643600464</v>
+        <v>1.0111120939254761</v>
       </c>
     </row>
     <row r="242">
@@ -3346,13 +3346,13 @@
         <v>1.5666007995605469</v>
       </c>
       <c r="C242" s="2">
-        <v>1.3474897146224976</v>
+        <v>1.3581734895706177</v>
       </c>
       <c r="D242" s="2">
         <v>1.1357166767120361</v>
       </c>
       <c r="E242" s="2">
-        <v>0.93778115510940552</v>
+        <v>0.94587558507919312</v>
       </c>
     </row>
     <row r="243">
@@ -3363,13 +3363,13 @@
         <v>0.8453134298324585</v>
       </c>
       <c r="C243" s="2">
-        <v>0.73129206895828247</v>
+        <v>0.73850095272064209</v>
       </c>
       <c r="D243" s="2">
         <v>1.1881477832794189</v>
       </c>
       <c r="E243" s="2">
-        <v>0.99059373140335083</v>
+        <v>0.99936771392822266</v>
       </c>
     </row>
     <row r="244">
@@ -3380,13 +3380,13 @@
         <v>1.303602933883667</v>
       </c>
       <c r="C244" s="2">
-        <v>1.2173405885696411</v>
+        <v>1.2245758771896362</v>
       </c>
       <c r="D244" s="2">
         <v>1.3242640495300293</v>
       </c>
       <c r="E244" s="2">
-        <v>1.1504471302032471</v>
+        <v>1.1592727899551392</v>
       </c>
     </row>
     <row r="245">
@@ -3397,13 +3397,13 @@
         <v>1.4564077854156494</v>
       </c>
       <c r="C245" s="2">
-        <v>1.3033756017684937</v>
+        <v>1.3125994205474854</v>
       </c>
       <c r="D245" s="2">
         <v>1.2350993156433106</v>
       </c>
       <c r="E245" s="2">
-        <v>1.0145595073699951</v>
+        <v>1.0243824720382691</v>
       </c>
     </row>
     <row r="246">
@@ -3414,13 +3414,13 @@
         <v>1.3649272918701172</v>
       </c>
       <c r="C246" s="2">
-        <v>1.0396251678466797</v>
+        <v>1.0518621206283569</v>
       </c>
       <c r="D246" s="2">
         <v>1.2297667264938355</v>
       </c>
       <c r="E246" s="2">
-        <v>1.0193222761154175</v>
+        <v>1.0298072099685669</v>
       </c>
     </row>
     <row r="247">
@@ -3431,13 +3431,13 @@
         <v>1.1401997804641724</v>
       </c>
       <c r="C247" s="2">
-        <v>0.94459676742553711</v>
+        <v>0.9596933126449585</v>
       </c>
       <c r="D247" s="2">
         <v>1.2322481870651245</v>
       </c>
       <c r="E247" s="2">
-        <v>0.99753260612487793</v>
+        <v>1.0080543756484985</v>
       </c>
     </row>
     <row r="248">
@@ -3448,13 +3448,13 @@
         <v>1.3133248090744019</v>
       </c>
       <c r="C248" s="2">
-        <v>1.2424348592758179</v>
+        <v>1.2536412477493286</v>
       </c>
       <c r="D248" s="2">
         <v>1.1537261009216309</v>
       </c>
       <c r="E248" s="2">
-        <v>0.90144073963165283</v>
+        <v>0.911640465259552</v>
       </c>
     </row>
     <row r="249">
@@ -3465,13 +3465,13 @@
         <v>0.72476279735565186</v>
       </c>
       <c r="C249" s="2">
-        <v>0.11219245940446854</v>
+        <v>0.1242905929684639</v>
       </c>
       <c r="D249" s="2">
         <v>1.0973280668258667</v>
       </c>
       <c r="E249" s="2">
-        <v>0.83760398626327515</v>
+        <v>0.84782475233078003</v>
       </c>
     </row>
     <row r="250">
@@ -3482,13 +3482,13 @@
         <v>1.3527612686157227</v>
       </c>
       <c r="C250" s="2">
-        <v>1.2355537414550781</v>
+        <v>1.2449278831481934</v>
       </c>
       <c r="D250" s="2">
         <v>1.1186145544052124</v>
       </c>
       <c r="E250" s="2">
-        <v>0.86644595861434937</v>
+        <v>0.87652683258056641</v>
       </c>
     </row>
     <row r="251">
@@ -3499,13 +3499,13 @@
         <v>1.5889337062835693</v>
       </c>
       <c r="C251" s="2">
-        <v>1.1513824462890625</v>
+        <v>1.1623976230621338</v>
       </c>
       <c r="D251" s="2">
         <v>1.0637993812561035</v>
       </c>
       <c r="E251" s="2">
-        <v>0.81324005126953125</v>
+        <v>0.82256793975830078</v>
       </c>
     </row>
     <row r="252">
@@ -3516,13 +3516,13 @@
         <v>0.13861446082592011</v>
       </c>
       <c r="C252" s="2">
-        <v>-0.13353519141674042</v>
+        <v>-0.12922364473342896</v>
       </c>
       <c r="D252" s="2">
         <v>0.97546648979187012</v>
       </c>
       <c r="E252" s="2">
-        <v>0.79256105422973633</v>
+        <v>0.80167895555496216</v>
       </c>
     </row>
     <row r="253">
@@ -3533,13 +3533,13 @@
         <v>0.79602092504501343</v>
       </c>
       <c r="C253" s="2">
-        <v>0.64280986785888672</v>
+        <v>0.65023404359817505</v>
       </c>
       <c r="D253" s="2">
         <v>0.91766738891601563</v>
       </c>
       <c r="E253" s="2">
-        <v>0.75572031736373901</v>
+        <v>0.76467841863632202</v>
       </c>
     </row>
     <row r="254">
@@ -3550,13 +3550,13 @@
         <v>1.6479859352111817</v>
       </c>
       <c r="C254" s="2">
-        <v>1.5629535913467407</v>
+        <v>1.5709185600280762</v>
       </c>
       <c r="D254" s="2">
         <v>0.99857324361801148</v>
       </c>
       <c r="E254" s="2">
-        <v>0.89270353317260742</v>
+        <v>0.90158534049987793</v>
       </c>
     </row>
     <row r="255">
@@ -3567,13 +3567,13 @@
         <v>0.87159037590026855</v>
       </c>
       <c r="C255" s="2">
-        <v>0.56077176332473755</v>
+        <v>0.56623172760009766</v>
       </c>
       <c r="D255" s="2">
         <v>1.0063868761062622</v>
       </c>
       <c r="E255" s="2">
-        <v>0.9030260443687439</v>
+        <v>0.91131806373596191</v>
       </c>
     </row>
     <row r="256">
@@ -3584,13 +3584,13 @@
         <v>0.34520411491394043</v>
       </c>
       <c r="C256" s="2">
-        <v>0.75848615169525146</v>
+        <v>0.77169263362884521</v>
       </c>
       <c r="D256" s="2">
         <v>0.84690463542938232</v>
       </c>
       <c r="E256" s="2">
-        <v>0.74829673767089844</v>
+        <v>0.75648313760757446</v>
       </c>
     </row>
     <row r="257">
@@ -3601,13 +3601,13 @@
         <v>0.7931329607963562</v>
       </c>
       <c r="C257" s="2">
-        <v>0.91086828708648682</v>
+        <v>0.92063647508621216</v>
       </c>
       <c r="D257" s="2">
         <v>0.97125893831253052</v>
       </c>
       <c r="E257" s="2">
-        <v>0.88303130865097046</v>
+        <v>0.89125043153762817</v>
       </c>
     </row>
     <row r="258">
@@ -3618,13 +3618,13 @@
         <v>1.4529156684875488</v>
       </c>
       <c r="C258" s="2">
-        <v>1.3450413942337036</v>
+        <v>1.3564527034759522</v>
       </c>
       <c r="D258" s="2">
         <v>1.0330319404602051</v>
       </c>
       <c r="E258" s="2">
-        <v>0.93112951517105103</v>
+        <v>0.93964546918869019</v>
       </c>
     </row>
     <row r="259">
@@ -3635,13 +3635,13 @@
         <v>1.4230834245681763</v>
       </c>
       <c r="C259" s="2">
-        <v>1.3284561634063721</v>
+        <v>1.3325226306915283</v>
       </c>
       <c r="D259" s="2">
         <v>1.0213062763214111</v>
       </c>
       <c r="E259" s="2">
-        <v>0.85801267623901367</v>
+        <v>0.86717504262924194</v>
       </c>
     </row>
     <row r="260">
@@ -3652,13 +3652,13 @@
         <v>0.15359380841255188</v>
       </c>
       <c r="C260" s="2">
-        <v>-0.24118158221244812</v>
+        <v>-0.23111696541309357</v>
       </c>
       <c r="D260" s="2">
         <v>1.0333116054534912</v>
       </c>
       <c r="E260" s="2">
-        <v>0.92521744966506958</v>
+        <v>0.93440622091293335</v>
       </c>
     </row>
     <row r="261">
@@ -3669,13 +3669,13 @@
         <v>1.2578030824661255</v>
       </c>
       <c r="C261" s="2">
-        <v>1.0790759325027466</v>
+        <v>1.0836819410324097</v>
       </c>
       <c r="D261" s="2">
         <v>1.0520367622375488</v>
       </c>
       <c r="E261" s="2">
-        <v>0.8349539041519165</v>
+        <v>0.84392803907394409</v>
       </c>
     </row>
     <row r="262">
@@ -3686,13 +3686,13 @@
         <v>1.351978063583374</v>
       </c>
       <c r="C262" s="2">
-        <v>1.0756940841674805</v>
+        <v>1.0857894420623779</v>
       </c>
       <c r="D262" s="2">
         <v>1.0870660543441773</v>
       </c>
       <c r="E262" s="2">
-        <v>0.8768274188041687</v>
+        <v>0.88545435667037964</v>
       </c>
     </row>
     <row r="263">
@@ -3703,13 +3703,13 @@
         <v>1.5424548387527466</v>
       </c>
       <c r="C263" s="2">
-        <v>0.90490174293518067</v>
+        <v>0.91868484020233154</v>
       </c>
       <c r="D263" s="2">
         <v>0.95616143941879272</v>
       </c>
       <c r="E263" s="2">
-        <v>0.73062020540237427</v>
+        <v>0.73928797245025635</v>
       </c>
     </row>
     <row r="264">
@@ -3720,13 +3720,13 @@
         <v>0.97963887453079224</v>
       </c>
       <c r="C264" s="2">
-        <v>1.1656149625778198</v>
+        <v>1.1713120937347412</v>
       </c>
       <c r="D264" s="2">
         <v>0.87969917058944702</v>
       </c>
       <c r="E264" s="2">
-        <v>0.67041361331939697</v>
+        <v>0.67943859100341797</v>
       </c>
     </row>
     <row r="265">
@@ -3737,13 +3737,13 @@
         <v>0.51372969150543213</v>
       </c>
       <c r="C265" s="2">
-        <v>-0.053885973989963532</v>
+        <v>-0.042610865086317062</v>
       </c>
       <c r="D265" s="2">
         <v>1.0744653940200806</v>
       </c>
       <c r="E265" s="2">
-        <v>0.92681849002838135</v>
+        <v>0.93567407131195068</v>
       </c>
     </row>
     <row r="266">
@@ -3754,13 +3754,13 @@
         <v>1.1083972454071045</v>
       </c>
       <c r="C266" s="2">
-        <v>1.2877300977706909</v>
+        <v>1.2943735122680664</v>
       </c>
       <c r="D266" s="2">
         <v>1.0123846530914307</v>
       </c>
       <c r="E266" s="2">
-        <v>0.85415154695510864</v>
+        <v>0.86280381679534912</v>
       </c>
     </row>
     <row r="267">
@@ -3771,13 +3771,13 @@
         <v>0.27477392554283142</v>
       </c>
       <c r="C267" s="2">
-        <v>0.029176373034715653</v>
+        <v>0.040955297648906708</v>
       </c>
       <c r="D267" s="2">
         <v>0.9141051173210144</v>
       </c>
       <c r="E267" s="2">
-        <v>0.74704205989837646</v>
+        <v>0.75536036491394043</v>
       </c>
     </row>
     <row r="268">
@@ -3788,13 +3788,13 @@
         <v>0.73492306470870972</v>
       </c>
       <c r="C268" s="2">
-        <v>0.78659707307815552</v>
+        <v>0.79387795925140381</v>
       </c>
       <c r="D268" s="2">
         <v>0.91679525375366211</v>
       </c>
       <c r="E268" s="2">
-        <v>0.80369037389755249</v>
+        <v>0.81132972240447998</v>
       </c>
     </row>
     <row r="269">
@@ -3805,13 +3805,13 @@
         <v>1.9064894914627075</v>
       </c>
       <c r="C269" s="2">
-        <v>2.0664620399475098</v>
+        <v>2.0750024318695068</v>
       </c>
       <c r="D269" s="2">
         <v>0.93014359474182129</v>
       </c>
       <c r="E269" s="2">
-        <v>0.74299412965774536</v>
+        <v>0.75094634294509888</v>
       </c>
     </row>
     <row r="270">
@@ -3822,13 +3822,13 @@
         <v>0.69907701015472412</v>
       </c>
       <c r="C270" s="2">
-        <v>0.42507374286651611</v>
+        <v>0.42784944176673889</v>
       </c>
       <c r="D270" s="2">
         <v>1.0504767894744873</v>
       </c>
       <c r="E270" s="2">
-        <v>0.92030417919158936</v>
+        <v>0.92792356014251709</v>
       </c>
     </row>
     <row r="271">
@@ -3839,13 +3839,13 @@
         <v>0.46746206283569336</v>
       </c>
       <c r="C271" s="2">
-        <v>0.11170846968889236</v>
+        <v>0.11879856884479523</v>
       </c>
       <c r="D271" s="2">
         <v>1.1118896007537842</v>
       </c>
       <c r="E271" s="2">
-        <v>0.96801352500915527</v>
+        <v>0.97615021467208862</v>
       </c>
     </row>
     <row r="272">
@@ -3856,13 +3856,13 @@
         <v>1.5666657686233521</v>
       </c>
       <c r="C272" s="2">
-        <v>1.4147365093231201</v>
+        <v>1.4224091768264771</v>
       </c>
       <c r="D272" s="2">
         <v>1.3253248929977417</v>
       </c>
       <c r="E272" s="2">
-        <v>1.1834210157394409</v>
+        <v>1.1912076473236084</v>
       </c>
     </row>
     <row r="273">
@@ -3873,13 +3873,13 @@
         <v>1.0997742414474487</v>
       </c>
       <c r="C273" s="2">
-        <v>0.61934894323348999</v>
+        <v>0.62786149978637695</v>
       </c>
       <c r="D273" s="2">
         <v>1.3130826950073242</v>
       </c>
       <c r="E273" s="2">
-        <v>1.1339738368988037</v>
+        <v>1.1412661075592041</v>
       </c>
     </row>
     <row r="274">
@@ -3890,13 +3890,13 @@
         <v>1.5967279672622681</v>
       </c>
       <c r="C274" s="2">
-        <v>1.5419042110443115</v>
+        <v>1.5501843690872192</v>
       </c>
       <c r="D274" s="2">
         <v>1.2403908967971802</v>
       </c>
       <c r="E274" s="2">
-        <v>1.0294501781463623</v>
+        <v>1.0364222526550293</v>
       </c>
     </row>
     <row r="275">
@@ -3907,13 +3907,13 @@
         <v>1.6611130237579346</v>
       </c>
       <c r="C275" s="2">
-        <v>1.7171144485473633</v>
+        <v>1.7284129858016968</v>
       </c>
       <c r="D275" s="2">
         <v>1.2660610675811768</v>
       </c>
       <c r="E275" s="2">
-        <v>1.0871193408966064</v>
+        <v>1.0949625968933106</v>
       </c>
     </row>
     <row r="276">
@@ -3924,13 +3924,13 @@
         <v>2.1956918239593506</v>
       </c>
       <c r="C276" s="2">
-        <v>1.9678438901901245</v>
+        <v>1.9764722585678101</v>
       </c>
       <c r="D276" s="2">
         <v>1.3297243118286133</v>
       </c>
       <c r="E276" s="2">
-        <v>1.1662251949310303</v>
+        <v>1.1742095947265625</v>
       </c>
     </row>
     <row r="277">
@@ -3941,13 +3941,13 @@
         <v>0.62474262714385986</v>
       </c>
       <c r="C277" s="2">
-        <v>0.34157261252403259</v>
+        <v>0.34440451860427857</v>
       </c>
       <c r="D277" s="2">
         <v>1.3354830741882324</v>
       </c>
       <c r="E277" s="2">
-        <v>1.1521719694137573</v>
+        <v>1.1606817245483398</v>
       </c>
     </row>
     <row r="278">
@@ -3958,13 +3958,13 @@
         <v>1.2522634267807007</v>
       </c>
       <c r="C278" s="2">
-        <v>1.1257486343383789</v>
+        <v>1.1314079761505127</v>
       </c>
       <c r="D278" s="2">
         <v>1.3521963357925415</v>
       </c>
       <c r="E278" s="2">
-        <v>1.1892112493515015</v>
+        <v>1.1978964805603027</v>
       </c>
     </row>
     <row r="279">
@@ -3975,13 +3975,13 @@
         <v>0.93010848760604858</v>
       </c>
       <c r="C279" s="2">
-        <v>0.94409668445587158</v>
+        <v>0.95471185445785523</v>
       </c>
       <c r="D279" s="2">
         <v>1.3701539039611816</v>
       </c>
       <c r="E279" s="2">
-        <v>1.2228611707687378</v>
+        <v>1.2319581508636475</v>
       </c>
     </row>
     <row r="280">
@@ -3992,13 +3992,13 @@
         <v>1.0404309034347534</v>
       </c>
       <c r="C280" s="2">
-        <v>0.82366085052490234</v>
+        <v>0.83202117681503296</v>
       </c>
       <c r="D280" s="2">
         <v>1.4690201282501221</v>
       </c>
       <c r="E280" s="2">
-        <v>1.3211634159088135</v>
+        <v>1.3310089111328125</v>
       </c>
     </row>
     <row r="281">
@@ -4009,13 +4009,13 @@
         <v>1.6184946298599243</v>
       </c>
       <c r="C281" s="2">
-        <v>1.2882578372955322</v>
+        <v>1.3006591796875</v>
       </c>
       <c r="D281" s="2">
         <v>1.3865048885345459</v>
       </c>
       <c r="E281" s="2">
-        <v>1.2356756925582886</v>
+        <v>1.2453815937042236</v>
       </c>
     </row>
     <row r="282">
@@ -4026,13 +4026,13 @@
         <v>1.25019371509552</v>
       </c>
       <c r="C282" s="2">
-        <v>0.95270234346389771</v>
+        <v>0.96279358863830566</v>
       </c>
       <c r="D282" s="2">
         <v>1.363510012626648</v>
       </c>
       <c r="E282" s="2">
-        <v>1.1984744071960449</v>
+        <v>1.2085899114608765</v>
       </c>
     </row>
     <row r="283">
@@ -4043,13 +4043,13 @@
         <v>1.7583461999893188</v>
       </c>
       <c r="C283" s="2">
-        <v>1.8447537422180176</v>
+        <v>1.8567399978637695</v>
       </c>
       <c r="D283" s="2">
         <v>1.2786366939544678</v>
       </c>
       <c r="E283" s="2">
-        <v>1.096147894859314</v>
+        <v>1.1067435741424561</v>
       </c>
     </row>
     <row r="284">
@@ -4060,13 +4060,13 @@
         <v>2.5509097576141357</v>
       </c>
       <c r="C284" s="2">
-        <v>2.6018342971801758</v>
+        <v>2.6198692321777344</v>
       </c>
       <c r="D284" s="2">
         <v>1.2541571855545044</v>
       </c>
       <c r="E284" s="2">
-        <v>0.99517619609832764</v>
+        <v>1.0056788921356201</v>
       </c>
     </row>
     <row r="285">
@@ -4077,13 +4077,13 @@
         <v>1.4530540704727173</v>
       </c>
       <c r="C285" s="2">
-        <v>1.1984543800354004</v>
+        <v>1.2058272361755371</v>
       </c>
       <c r="D285" s="2">
         <v>1.0807789564132691</v>
       </c>
       <c r="E285" s="2">
-        <v>0.81625968217849731</v>
+        <v>0.82645678520202637</v>
       </c>
     </row>
     <row r="286">
@@ -4094,13 +4094,13 @@
         <v>0.41778936982154846</v>
       </c>
       <c r="C286" s="2">
-        <v>0.0067608361132442951</v>
+        <v>0.013279297389090061</v>
       </c>
       <c r="D286" s="2">
         <v>1.0790601968765259</v>
       </c>
       <c r="E286" s="2">
-        <v>0.83435213565826416</v>
+        <v>0.84460383653640747</v>
       </c>
     </row>
     <row r="287">
@@ -4111,13 +4111,13 @@
         <v>0.48840361833572388</v>
       </c>
       <c r="C287" s="2">
-        <v>0.2048100084066391</v>
+        <v>0.21479049324989319</v>
       </c>
       <c r="D287" s="2">
         <v>0.99301004409790039</v>
       </c>
       <c r="E287" s="2">
-        <v>0.78471559286117554</v>
+        <v>0.7943374514579773</v>
       </c>
     </row>
     <row r="288">
@@ -4128,13 +4128,13 @@
         <v>0.70979189872741699</v>
       </c>
       <c r="C288" s="2">
-        <v>0.035351302474737167</v>
+        <v>0.045129701495170593</v>
       </c>
       <c r="D288" s="2">
         <v>0.85004186630249024</v>
       </c>
       <c r="E288" s="2">
-        <v>0.60212600231170654</v>
+        <v>0.61063557863235474</v>
       </c>
     </row>
     <row r="289">
@@ -4145,13 +4145,13 @@
         <v>-0.51997315883636475</v>
       </c>
       <c r="C289" s="2">
-        <v>-0.78658765554428101</v>
+        <v>-0.78097742795944214</v>
       </c>
       <c r="D289" s="2">
         <v>0.80765068531036377</v>
       </c>
       <c r="E289" s="2">
-        <v>0.52487063407897949</v>
+        <v>0.53283059597015381</v>
       </c>
     </row>
     <row r="290">
@@ -4162,13 +4162,13 @@
         <v>1.6030266284942627</v>
       </c>
       <c r="C290" s="2">
-        <v>1.4510900974273682</v>
+        <v>1.4639825820922852</v>
       </c>
       <c r="D290" s="2">
         <v>0.82293063402175903</v>
       </c>
       <c r="E290" s="2">
-        <v>0.54352468252182007</v>
+        <v>0.55094116926193237</v>
       </c>
     </row>
     <row r="291">
@@ -4179,13 +4179,13 @@
         <v>0.47574183344841004</v>
       </c>
       <c r="C291" s="2">
-        <v>0.50597333908081055</v>
+        <v>0.51039606332778931</v>
       </c>
       <c r="D291" s="2">
         <v>0.88260281085968018</v>
       </c>
       <c r="E291" s="2">
-        <v>0.6136820912361145</v>
+        <v>0.62089961767196655</v>
       </c>
     </row>
     <row r="292">
@@ -4196,13 +4196,13 @@
         <v>0.47163292765617371</v>
       </c>
       <c r="C292" s="2">
-        <v>0.20144715905189514</v>
+        <v>0.20342294871807098</v>
       </c>
       <c r="D292" s="2">
         <v>0.90585345029830933</v>
       </c>
       <c r="E292" s="2">
-        <v>0.63398045301437378</v>
+        <v>0.64087933301925659</v>
       </c>
     </row>
     <row r="293">
@@ -4213,13 +4213,13 @@
         <v>2.169389009475708</v>
       </c>
       <c r="C293" s="2">
-        <v>1.9065364599227905</v>
+        <v>1.9196243286132813</v>
       </c>
       <c r="D293" s="2">
         <v>0.99328809976577759</v>
       </c>
       <c r="E293" s="2">
-        <v>0.76511543989181519</v>
+        <v>0.77238678932189941</v>
       </c>
     </row>
     <row r="294">
@@ -4230,13 +4230,13 @@
         <v>1.5905734300613403</v>
       </c>
       <c r="C294" s="2">
-        <v>1.3663406372070313</v>
+        <v>1.368822455406189</v>
       </c>
       <c r="D294" s="2">
         <v>1.1772722005844116</v>
       </c>
       <c r="E294" s="2">
-        <v>0.95099687576293945</v>
+        <v>0.95794087648391724</v>
       </c>
     </row>
     <row r="295">
@@ -4247,13 +4247,13 @@
         <v>0.95483887195587158</v>
       </c>
       <c r="C295" s="2">
-        <v>0.63817769289016724</v>
+        <v>0.64290541410446167</v>
       </c>
       <c r="D295" s="2">
         <v>1.0827399492263794</v>
       </c>
       <c r="E295" s="2">
-        <v>0.82270699739456177</v>
+        <v>0.82875984907150269</v>
       </c>
     </row>
     <row r="296">
@@ -4264,13 +4264,13 @@
         <v>0.69765973091125488</v>
       </c>
       <c r="C296" s="2">
-        <v>0.38749510049819946</v>
+        <v>0.39460784196853638</v>
       </c>
       <c r="D296" s="2">
         <v>1.2303216457366943</v>
       </c>
       <c r="E296" s="2">
-        <v>0.94457006454467774</v>
+        <v>0.95170283317565918</v>
       </c>
     </row>
     <row r="297">
@@ -4281,13 +4281,13 @@
         <v>1.4967035055160522</v>
       </c>
       <c r="C297" s="2">
-        <v>1.2155662775039673</v>
+        <v>1.2286967039108276</v>
       </c>
       <c r="D297" s="2">
         <v>1.1550716161727905</v>
       </c>
       <c r="E297" s="2">
-        <v>0.86928898096084595</v>
+        <v>0.87660408020019531</v>
       </c>
     </row>
     <row r="298">
@@ -4298,13 +4298,13 @@
         <v>1.1358842849731445</v>
       </c>
       <c r="C298" s="2">
-        <v>0.88634514808654785</v>
+        <v>0.88900947570800781</v>
       </c>
       <c r="D298" s="2">
         <v>1.0595005750656128</v>
       </c>
       <c r="E298" s="2">
-        <v>0.8010932207107544</v>
+        <v>0.80810904502868652</v>
       </c>
     </row>
     <row r="299">
@@ -4315,13 +4315,13 @@
         <v>0.75223612785339355</v>
       </c>
       <c r="C299" s="2">
-        <v>0.29648095369338989</v>
+        <v>0.30135339498519898</v>
       </c>
       <c r="D299" s="2">
         <v>0.92929434776306152</v>
       </c>
       <c r="E299" s="2">
-        <v>0.69253706932067871</v>
+        <v>0.69976520538330078</v>
       </c>
     </row>
     <row r="300">
@@ -4332,13 +4332,13 @@
         <v>1.8039766550064087</v>
       </c>
       <c r="C300" s="2">
-        <v>1.6027411222457886</v>
+        <v>1.6168826818466187</v>
       </c>
       <c r="D300" s="2">
         <v>0.92470461130142212</v>
       </c>
       <c r="E300" s="2">
-        <v>0.68289637565612793</v>
+        <v>0.69054913520812988</v>
       </c>
     </row>
     <row r="301">
@@ -4349,13 +4349,13 @@
         <v>-0.20561701059341431</v>
       </c>
       <c r="C301" s="2">
-        <v>-0.47608250379562378</v>
+        <v>-0.47246584296226502</v>
       </c>
       <c r="D301" s="2">
         <v>0.99573558568954468</v>
       </c>
       <c r="E301" s="2">
-        <v>0.70426261425018311</v>
+        <v>0.71230876445770264</v>
       </c>
     </row>
     <row r="302">
@@ -4366,13 +4366,13 @@
         <v>1.3092491626739502</v>
       </c>
       <c r="C302" s="2">
-        <v>1.2927744388580322</v>
+        <v>1.3031692504882813</v>
       </c>
       <c r="D302" s="2">
         <v>0.98348772525787354</v>
       </c>
       <c r="E302" s="2">
-        <v>0.7090216875076294</v>
+        <v>0.71726751327514649</v>
       </c>
     </row>
     <row r="303">
@@ -4383,13 +4383,13 @@
         <v>0.41871783137321472</v>
       </c>
       <c r="C303" s="2">
-        <v>0.38933548331260681</v>
+        <v>0.39372807741165161</v>
       </c>
       <c r="D303" s="2">
         <v>0.76769578456878662</v>
       </c>
       <c r="E303" s="2">
-        <v>0.48515492677688599</v>
+        <v>0.49359461665153504</v>
       </c>
     </row>
     <row r="304">
@@ -4400,13 +4400,13 @@
         <v>0.91353130340576172</v>
       </c>
       <c r="C304" s="2">
-        <v>0.5514112114906311</v>
+        <v>0.55996072292327881</v>
       </c>
       <c r="D304" s="2">
         <v>0.7285504937171936</v>
       </c>
       <c r="E304" s="2">
-        <v>0.48880666494369507</v>
+        <v>0.49818745255470276</v>
       </c>
     </row>
     <row r="305">
@@ -4417,13 +4417,13 @@
         <v>1.3369383811950684</v>
       </c>
       <c r="C305" s="2">
-        <v>0.57979130744934082</v>
+        <v>0.59044468402862549</v>
       </c>
       <c r="D305" s="2">
         <v>0.47426274418830872</v>
       </c>
       <c r="E305" s="2">
-        <v>0.22997522354125977</v>
+        <v>0.23881670832633972</v>
       </c>
     </row>
     <row r="306">
@@ -4434,13 +4434,13 @@
         <v>1.3864729404449463</v>
       </c>
       <c r="C306" s="2">
-        <v>1.2583979368209839</v>
+        <v>1.2733252048492432</v>
       </c>
       <c r="D306" s="2">
         <v>0.60978662967681885</v>
       </c>
       <c r="E306" s="2">
-        <v>0.37945759296417236</v>
+        <v>0.38888272643089294</v>
       </c>
     </row>
     <row r="307">
@@ -4451,13 +4451,13 @@
         <v>-0.80624306201934814</v>
       </c>
       <c r="C307" s="2">
-        <v>-1.1284556388854981</v>
+        <v>-1.1240466833114624</v>
       </c>
       <c r="D307" s="2">
         <v>0.6389230489730835</v>
       </c>
       <c r="E307" s="2">
-        <v>0.40409904718399048</v>
+        <v>0.41320589184761047</v>
       </c>
     </row>
     <row r="308">
@@ -4468,13 +4468,13 @@
         <v>0.39992815256118775</v>
       </c>
       <c r="C308" s="2">
-        <v>0.32934671640396118</v>
+        <v>0.34268906712532044</v>
       </c>
       <c r="D308" s="2">
         <v>0.77143740653991699</v>
       </c>
       <c r="E308" s="2">
-        <v>0.54757153987884521</v>
+        <v>0.55682015419006348</v>
       </c>
     </row>
     <row r="309">
@@ -4485,13 +4485,13 @@
         <v>-0.48461303114891052</v>
       </c>
       <c r="C309" s="2">
-        <v>-0.7267419695854187</v>
+        <v>-0.71745407581329346</v>
       </c>
       <c r="D309" s="2">
         <v>0.7330508828163147</v>
       </c>
       <c r="E309" s="2">
-        <v>0.59702235460281372</v>
+        <v>0.6064373254776001</v>
       </c>
     </row>
     <row r="310">
@@ -4502,13 +4502,13 @@
         <v>1.0140981674194336</v>
       </c>
       <c r="C310" s="2">
-        <v>0.86925894021987915</v>
+        <v>0.87812834978103638</v>
       </c>
       <c r="D310" s="2">
         <v>0.75815600156784058</v>
       </c>
       <c r="E310" s="2">
-        <v>0.69366538524627686</v>
+        <v>0.70266866683959961</v>
       </c>
     </row>
     <row r="311">
@@ -4519,13 +4519,13 @@
         <v>1.5714768171310425</v>
       </c>
       <c r="C311" s="2">
-        <v>1.5145474672317505</v>
+        <v>1.5220776796340942</v>
       </c>
       <c r="D311" s="2">
         <v>0.68625617027282715</v>
       </c>
       <c r="E311" s="2">
-        <v>0.60126370191574097</v>
+        <v>0.61029374599456787</v>
       </c>
     </row>
     <row r="312">
@@ -4536,13 +4536,13 @@
         <v>1.6113471984863281</v>
       </c>
       <c r="C312" s="2">
-        <v>1.6805881261825562</v>
+        <v>1.6862565279006958</v>
       </c>
       <c r="D312" s="2">
         <v>0.81754857301712036</v>
       </c>
       <c r="E312" s="2">
-        <v>0.74770539999008179</v>
+        <v>0.7563510537147522</v>
       </c>
     </row>
     <row r="313">
@@ -4553,13 +4553,13 @@
         <v>0.56805253028869629</v>
       </c>
       <c r="C313" s="2">
-        <v>0.99646854400634766</v>
+        <v>1.0065152645111084</v>
       </c>
       <c r="D313" s="2">
         <v>0.93562400341033936</v>
       </c>
       <c r="E313" s="2">
-        <v>0.85757875442504883</v>
+        <v>0.86562573909759522</v>
       </c>
     </row>
     <row r="314">
@@ -4570,13 +4570,13 @@
         <v>1.5628843307495117</v>
       </c>
       <c r="C314" s="2">
-        <v>1.4495781660079956</v>
+        <v>1.4565267562866211</v>
       </c>
       <c r="D314" s="2">
         <v>1.0999102592468262</v>
       </c>
       <c r="E314" s="2">
-        <v>1.0131598711013794</v>
+        <v>1.0219999551773071</v>
       </c>
     </row>
     <row r="315">
@@ -4587,13 +4587,13 @@
         <v>0.73937433958053589</v>
       </c>
       <c r="C315" s="2">
-        <v>0.42678278684616089</v>
+        <v>0.44195082783699036</v>
       </c>
       <c r="D315" s="2">
         <v>1.1503597497940064</v>
       </c>
       <c r="E315" s="2">
-        <v>1.0350173711776733</v>
+        <v>1.0435996055603027</v>
       </c>
     </row>
     <row r="316">
@@ -4604,13 +4604,13 @@
         <v>0.37538883090019226</v>
       </c>
       <c r="C316" s="2">
-        <v>0.18951967358589172</v>
+        <v>0.19046905636787415</v>
       </c>
       <c r="D316" s="2">
         <v>1.1143773794174194</v>
       </c>
       <c r="E316" s="2">
-        <v>0.99280744791030884</v>
+        <v>1.0011626482009888</v>
       </c>
     </row>
     <row r="317">
@@ -4621,13 +4621,13 @@
         <v>1.46260666847229</v>
       </c>
       <c r="C317" s="2">
-        <v>1.3182071447372437</v>
+        <v>1.3261613845825195</v>
       </c>
       <c r="D317" s="2">
         <v>0.94556421041488648</v>
       </c>
       <c r="E317" s="2">
-        <v>0.80461156368255615</v>
+        <v>0.81356185674667358</v>
       </c>
     </row>
     <row r="318">
@@ -4638,13 +4638,13 @@
         <v>0.99396336078643799</v>
       </c>
       <c r="C318" s="2">
-        <v>0.67348772287368775</v>
+        <v>0.68991386890411377</v>
       </c>
       <c r="D318" s="2">
         <v>0.9559025764465332</v>
       </c>
       <c r="E318" s="2">
-        <v>0.72690129280090332</v>
+        <v>0.73630374670028687</v>
       </c>
     </row>
     <row r="319">
@@ -4655,13 +4655,13 @@
         <v>1.4681437015533447</v>
       </c>
       <c r="C319" s="2">
-        <v>1.0659763813018799</v>
+        <v>1.0725246667861939</v>
       </c>
       <c r="D319" s="2">
         <v>0.93070501089096069</v>
       </c>
       <c r="E319" s="2">
-        <v>0.67024797201156616</v>
+        <v>0.68028545379638672</v>
       </c>
     </row>
     <row r="320">
@@ -4672,13 +4672,13 @@
         <v>1.2476351261138916</v>
       </c>
       <c r="C320" s="2">
-        <v>1.1346583366394043</v>
+        <v>1.1401454210281372</v>
       </c>
       <c r="D320" s="2">
         <v>1.000348687171936</v>
       </c>
       <c r="E320" s="2">
-        <v>0.74886530637741089</v>
+        <v>0.75907319784164429</v>
       </c>
     </row>
     <row r="321">
@@ -4689,13 +4689,13 @@
         <v>0.092029169201850891</v>
       </c>
       <c r="C321" s="2">
-        <v>-0.013174518942832947</v>
+        <v>-0.0021507185883820057</v>
       </c>
       <c r="D321" s="2">
         <v>1.0339717864990234</v>
       </c>
       <c r="E321" s="2">
-        <v>0.85873961448669434</v>
+        <v>0.869875967502594</v>
       </c>
     </row>
     <row r="322">
@@ -4706,13 +4706,13 @@
         <v>0.66109788417816162</v>
       </c>
       <c r="C322" s="2">
-        <v>0.29707598686218262</v>
+        <v>0.31119239330291748</v>
       </c>
       <c r="D322" s="2">
         <v>0.93579024076461792</v>
       </c>
       <c r="E322" s="2">
-        <v>0.75255370140075684</v>
+        <v>0.76380914449691773</v>
       </c>
     </row>
     <row r="323">
@@ -4723,13 +4723,13 @@
         <v>1.3361060619354248</v>
       </c>
       <c r="C323" s="2">
-        <v>0.9396979808807373</v>
+        <v>0.952362060546875</v>
       </c>
       <c r="D323" s="2">
         <v>0.92109745740890503</v>
       </c>
       <c r="E323" s="2">
-        <v>0.74935257434844971</v>
+        <v>0.75953531265258789</v>
       </c>
     </row>
     <row r="324">
@@ -4740,13 +4740,13 @@
         <v>1.3661671876907349</v>
       </c>
       <c r="C324" s="2">
-        <v>1.1343388557434082</v>
+        <v>1.1510404348373413</v>
       </c>
       <c r="D324" s="2">
         <v>0.85225611925125122</v>
       </c>
       <c r="E324" s="2">
-        <v>0.71367043256759644</v>
+        <v>0.72417706251144409</v>
       </c>
     </row>
     <row r="325">
@@ -4757,13 +4757,13 @@
         <v>0.67799729108810425</v>
       </c>
       <c r="C325" s="2">
-        <v>1.1783884763717651</v>
+        <v>1.1876941919326782</v>
       </c>
       <c r="D325" s="2">
         <v>0.81152629852294922</v>
       </c>
       <c r="E325" s="2">
-        <v>0.68017536401748657</v>
+        <v>0.69074702262878418</v>
       </c>
     </row>
     <row r="326">
@@ -4774,13 +4774,13 @@
         <v>0.5789724588394165</v>
       </c>
       <c r="C326" s="2">
-        <v>0.36253428459167481</v>
+        <v>0.37156024575233459</v>
       </c>
       <c r="D326" s="2">
         <v>0.93742728233337402</v>
       </c>
       <c r="E326" s="2">
-        <v>0.80146819353103638</v>
+        <v>0.81180089712142944</v>
       </c>
     </row>
     <row r="327">
@@ -4791,13 +4791,13 @@
         <v>0.8617284893989563</v>
       </c>
       <c r="C327" s="2">
-        <v>0.64467722177505493</v>
+        <v>0.65144890546798706</v>
       </c>
       <c r="D327" s="2">
         <v>0.97826093435287476</v>
       </c>
       <c r="E327" s="2">
-        <v>0.85800135135650635</v>
+        <v>0.86796486377716065</v>
       </c>
     </row>
     <row r="328">
@@ -4808,13 +4808,13 @@
         <v>0.84857147932052612</v>
       </c>
       <c r="C328" s="2">
-        <v>0.74483752250671387</v>
+        <v>0.75430059432983398</v>
       </c>
       <c r="D328" s="2">
         <v>0.93273746967315674</v>
       </c>
       <c r="E328" s="2">
-        <v>0.85933500528335571</v>
+        <v>0.86791831254959106</v>
       </c>
     </row>
     <row r="329">
@@ -4825,13 +4825,13 @@
         <v>0.88106644153594971</v>
       </c>
       <c r="C329" s="2">
-        <v>0.8332025408744812</v>
+        <v>0.83927518129348755</v>
       </c>
       <c r="D329" s="2">
         <v>0.82271802425384522</v>
       </c>
       <c r="E329" s="2">
-        <v>0.78529071807861328</v>
+        <v>0.79255890846252442</v>
       </c>
     </row>
     <row r="330">
@@ -4842,13 +4842,13 @@
         <v>1.2251380681991577</v>
       </c>
       <c r="C330" s="2">
-        <v>1.0784610509872437</v>
+        <v>1.087334156036377</v>
       </c>
       <c r="D330" s="2">
         <v>0.85231399536132813</v>
       </c>
       <c r="E330" s="2">
-        <v>0.73812508583068848</v>
+        <v>0.74563360214233398</v>
       </c>
     </row>
     <row r="331">
@@ -4859,13 +4859,13 @@
         <v>1.0286011695861816</v>
       </c>
       <c r="C331" s="2">
-        <v>0.8058740496635437</v>
+        <v>0.81666809320449829</v>
       </c>
       <c r="D331" s="2">
         <v>0.89910435676574707</v>
       </c>
       <c r="E331" s="2">
-        <v>0.80024731159210205</v>
+        <v>0.80786895751953125</v>
       </c>
     </row>
     <row r="332">
@@ -4876,13 +4876,13 @@
         <v>0.92639487981796265</v>
       </c>
       <c r="C332" s="2">
-        <v>0.95170110464096069</v>
+        <v>0.95194298028945923</v>
       </c>
       <c r="D332" s="2">
         <v>0.97743362188339233</v>
       </c>
       <c r="E332" s="2">
-        <v>0.85153323411941528</v>
+        <v>0.85920906066894531</v>
       </c>
     </row>
     <row r="333">
@@ -4893,13 +4893,13 @@
         <v>0.37599179148674011</v>
       </c>
       <c r="C333" s="2">
-        <v>0.46794021129608154</v>
+        <v>0.4728056788444519</v>
       </c>
       <c r="D333" s="2">
         <v>1.0743964910507202</v>
       </c>
       <c r="E333" s="2">
-        <v>0.93387067317962647</v>
+        <v>0.94132566452026367</v>
       </c>
     </row>
     <row r="334">
@@ -4910,13 +4910,13 @@
         <v>0.94436109066009522</v>
       </c>
       <c r="C334" s="2">
-        <v>0.75389784574508667</v>
+        <v>0.76536661386489868</v>
       </c>
       <c r="D334" s="2">
         <v>0.97155135869979858</v>
       </c>
       <c r="E334" s="2">
-        <v>0.79046934843063355</v>
+        <v>0.79884719848632813</v>
       </c>
     </row>
     <row r="335">
@@ -4927,13 +4927,13 @@
         <v>1.0000859498977661</v>
       </c>
       <c r="C335" s="2">
-        <v>0.92163431644439697</v>
+        <v>0.93167823553085327</v>
       </c>
       <c r="D335" s="2">
         <v>1.0137605667114258</v>
       </c>
       <c r="E335" s="2">
-        <v>0.82643276453018189</v>
+        <v>0.83498853445053101</v>
       </c>
     </row>
     <row r="336">
@@ -4944,13 +4944,13 @@
         <v>1.5666918754577637</v>
       </c>
       <c r="C336" s="2">
-        <v>1.1062502861022949</v>
+        <v>1.1135101318359375</v>
       </c>
       <c r="D336" s="2">
         <v>0.86322373151779175</v>
       </c>
       <c r="E336" s="2">
-        <v>0.68571579456329346</v>
+        <v>0.69335120916366577</v>
       </c>
     </row>
     <row r="337">
@@ -4961,13 +4961,13 @@
         <v>1.7212371826171875</v>
       </c>
       <c r="C337" s="2">
-        <v>1.4858748912811279</v>
+        <v>1.4933499097824097</v>
       </c>
       <c r="D337" s="2">
         <v>0.95414084196090698</v>
       </c>
       <c r="E337" s="2">
-        <v>0.75710570812225342</v>
+        <v>0.76589208841323853</v>
       </c>
     </row>
     <row r="338">
@@ -4978,13 +4978,13 @@
         <v>-0.04453996941447258</v>
       </c>
       <c r="C338" s="2">
-        <v>-0.45740953087806702</v>
+        <v>-0.44303092360496521</v>
       </c>
       <c r="D338" s="2">
         <v>1.1469392776489258</v>
       </c>
       <c r="E338" s="2">
-        <v>0.9271855354309082</v>
+        <v>0.93610519170761108</v>
       </c>
     </row>
     <row r="339">
@@ -4995,13 +4995,13 @@
         <v>1.6050214767456055</v>
       </c>
       <c r="C339" s="2">
-        <v>1.4021316766738892</v>
+        <v>1.4126061201095581</v>
       </c>
       <c r="D339" s="2">
         <v>1.1296859979629517</v>
       </c>
       <c r="E339" s="2">
-        <v>0.88406860828399658</v>
+        <v>0.89287155866622925</v>
       </c>
     </row>
     <row r="340">
@@ -5012,13 +5012,13 @@
         <v>-0.32623058557510376</v>
       </c>
       <c r="C340" s="2">
-        <v>-0.46057853102684021</v>
+        <v>-0.45806789398193359</v>
       </c>
       <c r="D340" s="2">
         <v>1.1529141664505005</v>
       </c>
       <c r="E340" s="2">
-        <v>0.90598952770233154</v>
+        <v>0.91545885801315308</v>
       </c>
     </row>
     <row r="341">
@@ -5029,13 +5029,13 @@
         <v>1.7446486949920654</v>
       </c>
       <c r="C341" s="2">
-        <v>1.594210147857666</v>
+        <v>1.6048109531402588</v>
       </c>
       <c r="D341" s="2">
         <v>0.88070487976074219</v>
       </c>
       <c r="E341" s="2">
-        <v>0.61728394031524658</v>
+        <v>0.6268460750579834</v>
       </c>
     </row>
     <row r="342">
@@ -5046,13 +5046,13 @@
         <v>2.1111781597137451</v>
       </c>
       <c r="C342" s="2">
-        <v>1.9986586570739746</v>
+        <v>2.0047235488891602</v>
       </c>
       <c r="D342" s="2">
         <v>0.74200582504272461</v>
       </c>
       <c r="E342" s="2">
-        <v>0.50610184669494629</v>
+        <v>0.51525992155075073</v>
       </c>
     </row>
     <row r="343">
@@ -5063,13 +5063,13 @@
         <v>0.78908157348632813</v>
       </c>
       <c r="C343" s="2">
-        <v>0.36584556102752686</v>
+        <v>0.37626397609710693</v>
       </c>
       <c r="D343" s="2">
         <v>0.83294153213500977</v>
       </c>
       <c r="E343" s="2">
-        <v>0.61480414867401123</v>
+        <v>0.62317967414855957</v>
       </c>
     </row>
     <row r="344">
@@ -5080,13 +5080,13 @@
         <v>1.209139347076416</v>
       </c>
       <c r="C344" s="2">
-        <v>1.1189224720001221</v>
+        <v>1.1349641084671021</v>
       </c>
       <c r="D344" s="2">
         <v>0.8226657509803772</v>
       </c>
       <c r="E344" s="2">
-        <v>0.60629558563232422</v>
+        <v>0.61452978849411011</v>
       </c>
     </row>
     <row r="345">
@@ -5097,13 +5097,13 @@
         <v>-0.88319182395935059</v>
       </c>
       <c r="C345" s="2">
-        <v>-1.4921001195907593</v>
+        <v>-1.4840052127838135</v>
       </c>
       <c r="D345" s="2">
         <v>0.9124876856803894</v>
       </c>
       <c r="E345" s="2">
-        <v>0.68565112352371216</v>
+        <v>0.69454026222229004</v>
       </c>
     </row>
     <row r="346">
@@ -5114,13 +5114,13 @@
         <v>0.47294574975967407</v>
       </c>
       <c r="C346" s="2">
-        <v>0.48523613810539246</v>
+        <v>0.4890744686126709</v>
       </c>
       <c r="D346" s="2">
         <v>0.83863216638565064</v>
       </c>
       <c r="E346" s="2">
-        <v>0.61306095123291016</v>
+        <v>0.62155377864837646</v>
       </c>
     </row>
     <row r="347">
@@ -5131,13 +5131,13 @@
         <v>0.77388107776641846</v>
       </c>
       <c r="C347" s="2">
-        <v>0.52091127634048462</v>
+        <v>0.5282471776008606</v>
       </c>
       <c r="D347" s="2">
         <v>0.76935845613479614</v>
       </c>
       <c r="E347" s="2">
-        <v>0.511272132396698</v>
+        <v>0.5212174654006958</v>
       </c>
     </row>
     <row r="348">
@@ -5148,13 +5148,13 @@
         <v>1.5125393867492676</v>
       </c>
       <c r="C348" s="2">
-        <v>1.3255546092987061</v>
+        <v>1.3347570896148682</v>
       </c>
       <c r="D348" s="2">
         <v>0.84573310613632202</v>
       </c>
       <c r="E348" s="2">
-        <v>0.61924231052398682</v>
+        <v>0.62885946035385132</v>
       </c>
     </row>
     <row r="349">
@@ -5165,13 +5165,13 @@
         <v>0.48216709494590759</v>
       </c>
       <c r="C349" s="2">
-        <v>0.25362128019332886</v>
+        <v>0.26202642917633057</v>
       </c>
       <c r="D349" s="2">
         <v>0.85027694702148438</v>
       </c>
       <c r="E349" s="2">
-        <v>0.63395863771438599</v>
+        <v>0.64336687326431274</v>
       </c>
     </row>
     <row r="350">
@@ -5182,13 +5182,13 @@
         <v>1.0799490213394165</v>
       </c>
       <c r="C350" s="2">
-        <v>0.940898597240448</v>
+        <v>0.94793248176574707</v>
       </c>
       <c r="D350" s="2">
         <v>1.050269603729248</v>
       </c>
       <c r="E350" s="2">
-        <v>0.93100970983505249</v>
+        <v>0.94035661220550537</v>
       </c>
     </row>
     <row r="351">
@@ -5199,13 +5199,13 @@
         <v>1.4877148866653442</v>
       </c>
       <c r="C351" s="2">
-        <v>1.0825595855712891</v>
+        <v>1.1016968488693237</v>
       </c>
       <c r="D351" s="2">
         <v>1.1629682779312134</v>
       </c>
       <c r="E351" s="2">
-        <v>1.0461540222167969</v>
+        <v>1.0564378499984741</v>
       </c>
     </row>
     <row r="352">
@@ -5216,13 +5216,13 @@
         <v>1.4764531850814819</v>
       </c>
       <c r="C352" s="2">
-        <v>1.3375771045684814</v>
+        <v>1.3450417518615723</v>
       </c>
       <c r="D352" s="2">
         <v>1.2526540756225586</v>
       </c>
       <c r="E352" s="2">
-        <v>1.149072527885437</v>
+        <v>1.1594656705856323</v>
       </c>
     </row>
     <row r="353">
@@ -5233,13 +5233,13 @@
         <v>1.250033974647522</v>
       </c>
       <c r="C353" s="2">
-        <v>1.2513692378997803</v>
+        <v>1.2655308246612549</v>
       </c>
       <c r="D353" s="2">
         <v>1.2666057348251343</v>
       </c>
       <c r="E353" s="2">
-        <v>1.1852890253067017</v>
+        <v>1.1957118511199951</v>
       </c>
     </row>
     <row r="354">
@@ -5250,13 +5250,13 @@
         <v>0.91674226522445679</v>
       </c>
       <c r="C354" s="2">
-        <v>1.1813594102859497</v>
+        <v>1.1889023780822754</v>
       </c>
       <c r="D354" s="2">
         <v>1.327772855758667</v>
       </c>
       <c r="E354" s="2">
-        <v>1.2477664947509766</v>
+        <v>1.2586350440979004</v>
       </c>
     </row>
     <row r="355">
@@ -5267,13 +5267,13 @@
         <v>1.4872337579727173</v>
       </c>
       <c r="C355" s="2">
-        <v>1.5215356349945068</v>
+        <v>1.5338054895401001</v>
       </c>
       <c r="D355" s="2">
         <v>1.3739309310913086</v>
       </c>
       <c r="E355" s="2">
-        <v>1.2993776798248291</v>
+        <v>1.3104994297027588</v>
       </c>
     </row>
     <row r="356">
@@ -5284,13 +5284,13 @@
         <v>1.5810526609420776</v>
       </c>
       <c r="C356" s="2">
-        <v>1.4471768140792847</v>
+        <v>1.4554976224899292</v>
       </c>
       <c r="D356" s="2">
         <v>1.1782811880111694</v>
       </c>
       <c r="E356" s="2">
-        <v>1.1383260488510132</v>
+        <v>1.1476848125457764</v>
       </c>
     </row>
     <row r="357">
@@ -5301,13 +5301,13 @@
         <v>1.6381043195724487</v>
       </c>
       <c r="C357" s="2">
-        <v>1.6515038013458252</v>
+        <v>1.6609733104705811</v>
       </c>
       <c r="D357" s="2">
         <v>1.1397476196289063</v>
       </c>
       <c r="E357" s="2">
-        <v>1.095575213432312</v>
+        <v>1.1045494079589844</v>
       </c>
     </row>
     <row r="358">
@@ -5318,13 +5318,13 @@
         <v>1.0326718091964722</v>
       </c>
       <c r="C358" s="2">
-        <v>0.81591826677322388</v>
+        <v>0.82833516597747803</v>
       </c>
       <c r="D358" s="2">
         <v>1.1061015129089355</v>
       </c>
       <c r="E358" s="2">
-        <v>1.0376031398773193</v>
+        <v>1.0458160638809204</v>
       </c>
     </row>
     <row r="359">
@@ -5335,13 +5335,13 @@
         <v>1.4953709840774536</v>
       </c>
       <c r="C359" s="2">
-        <v>1.4053992033004761</v>
+        <v>1.4147114753723145</v>
       </c>
       <c r="D359" s="2">
         <v>1.0519428253173828</v>
       </c>
       <c r="E359" s="2">
-        <v>0.93995672464370728</v>
+        <v>0.94851040840148926</v>
       </c>
     </row>
     <row r="360">
@@ -5352,13 +5352,13 @@
         <v>-0.27313265204429626</v>
       </c>
       <c r="C360" s="2">
-        <v>-0.3669048547744751</v>
+        <v>-0.36363440752029419</v>
       </c>
       <c r="D360" s="2">
         <v>0.94394612312316895</v>
       </c>
       <c r="E360" s="2">
-        <v>0.82179802656173706</v>
+        <v>0.82975322008132935</v>
       </c>
     </row>
     <row r="361">
@@ -5369,13 +5369,13 @@
         <v>1.1296514272689819</v>
       </c>
       <c r="C361" s="2">
-        <v>0.95281952619552612</v>
+        <v>0.95682317018508911</v>
       </c>
       <c r="D361" s="2">
         <v>0.76388567686080933</v>
       </c>
       <c r="E361" s="2">
-        <v>0.71525508165359497</v>
+        <v>0.72315096855163574</v>
       </c>
     </row>
     <row r="362">
@@ -5386,13 +5386,13 @@
         <v>0.9472193717956543</v>
       </c>
       <c r="C362" s="2">
-        <v>0.72962063550949097</v>
+        <v>0.73693042993545532</v>
       </c>
       <c r="D362" s="2">
         <v>0.54172438383102417</v>
       </c>
       <c r="E362" s="2">
-        <v>0.46879830956459046</v>
+        <v>0.47601056098937988</v>
       </c>
     </row>
     <row r="363">
@@ -5403,13 +5403,13 @@
         <v>0.42931383848190308</v>
       </c>
       <c r="C363" s="2">
-        <v>0.30254149436950684</v>
+        <v>0.3131515383720398</v>
       </c>
       <c r="D363" s="2">
         <v>0.4697323739528656</v>
       </c>
       <c r="E363" s="2">
-        <v>0.38659632205963135</v>
+        <v>0.39279958605766296</v>
       </c>
     </row>
     <row r="364">
@@ -5420,13 +5420,13 @@
         <v>0.51526331901550293</v>
       </c>
       <c r="C364" s="2">
-        <v>0.45810726284980774</v>
+        <v>0.4649905264377594</v>
       </c>
       <c r="D364" s="2">
         <v>0.28652283549308777</v>
       </c>
       <c r="E364" s="2">
-        <v>0.19201759994029999</v>
+        <v>0.19803899526596069</v>
       </c>
     </row>
     <row r="365">
@@ -5437,13 +5437,13 @@
         <v>-0.039491485804319382</v>
       </c>
       <c r="C365" s="2">
-        <v>0.48829063773155213</v>
+        <v>0.49607726931571961</v>
       </c>
       <c r="D365" s="2">
         <v>0.40503662824630737</v>
       </c>
       <c r="E365" s="2">
-        <v>0.30604001879692078</v>
+        <v>0.31228446960449219</v>
       </c>
     </row>
     <row r="366">
@@ -5454,13 +5454,13 @@
         <v>-0.3613470196723938</v>
       </c>
       <c r="C366" s="2">
-        <v>-0.56660747528076172</v>
+        <v>-0.56329017877578735</v>
       </c>
       <c r="D366" s="2">
         <v>0.30304220318794251</v>
       </c>
       <c r="E366" s="2">
-        <v>0.19595570862293244</v>
+        <v>0.20224641263484955</v>
       </c>
     </row>
     <row r="367">
@@ -5471,13 +5471,13 @@
         <v>0.38474345207214355</v>
       </c>
       <c r="C367" s="2">
-        <v>0.076100416481494904</v>
+        <v>0.079436570405960083</v>
       </c>
       <c r="D367" s="2">
         <v>0.192133828997612</v>
       </c>
       <c r="E367" s="2">
-        <v>0.082801990211009979</v>
+        <v>0.088398650288581848</v>
       </c>
     </row>
     <row r="368">
@@ -5488,13 +5488,13 @@
         <v>-0.15351486206054688</v>
       </c>
       <c r="C368" s="2">
-        <v>-0.34580928087234497</v>
+        <v>-0.33813393115997314</v>
       </c>
       <c r="D368" s="2">
         <v>0.21625897288322449</v>
       </c>
       <c r="E368" s="2">
-        <v>0.10385835915803909</v>
+        <v>0.10902515053749084</v>
       </c>
     </row>
     <row r="369">
@@ -5505,13 +5505,13 @@
         <v>0.79349154233932495</v>
       </c>
       <c r="C369" s="2">
-        <v>0.65929704904556275</v>
+        <v>0.66457492113113403</v>
       </c>
       <c r="D369" s="2">
         <v>0.1829356849193573</v>
       </c>
       <c r="E369" s="2">
-        <v>0.049215998500585556</v>
+        <v>0.05464467778801918</v>
       </c>
     </row>
     <row r="370">
@@ -5522,13 +5522,13 @@
         <v>0.21170161664485931</v>
       </c>
       <c r="C370" s="2">
-        <v>-0.037939392030239105</v>
+        <v>-0.03351946547627449</v>
       </c>
       <c r="D370" s="2">
         <v>0.33001428842544556</v>
       </c>
       <c r="E370" s="2">
-        <v>0.12513959407806397</v>
+        <v>0.13050608336925507</v>
       </c>
     </row>
     <row r="371">
@@ -5539,13 +5539,13 @@
         <v>-0.05095590278506279</v>
       </c>
       <c r="C371" s="2">
-        <v>-0.28876277804374695</v>
+        <v>-0.28769943118095398</v>
       </c>
       <c r="D371" s="2">
         <v>0.45911511778831482</v>
       </c>
       <c r="E371" s="2">
-        <v>0.28200846910476685</v>
+        <v>0.28826475143432617</v>
       </c>
     </row>
     <row r="372">
@@ -5556,13 +5556,13 @@
         <v>0.64644014835357666</v>
       </c>
       <c r="C372" s="2">
-        <v>0.49204877018928528</v>
+        <v>0.49879005551338196</v>
       </c>
       <c r="D372" s="2">
         <v>0.4512697160243988</v>
       </c>
       <c r="E372" s="2">
-        <v>0.2878422737121582</v>
+        <v>0.29443225264549255</v>
       </c>
     </row>
     <row r="373">
@@ -5573,13 +5573,13 @@
         <v>0.21535365283489227</v>
       </c>
       <c r="C373" s="2">
-        <v>-0.033673953264951706</v>
+        <v>-0.024433717131614685</v>
       </c>
       <c r="D373" s="2">
         <v>0.61973947286605835</v>
       </c>
       <c r="E373" s="2">
-        <v>0.4482886791229248</v>
+        <v>0.45567893981933594</v>
       </c>
     </row>
     <row r="374">
@@ -5590,13 +5590,13 @@
         <v>1.2842159271240234</v>
       </c>
       <c r="C374" s="2">
-        <v>1.1716029644012451</v>
+        <v>1.1788299083709717</v>
       </c>
       <c r="D374" s="2">
         <v>0.61039769649505615</v>
       </c>
       <c r="E374" s="2">
-        <v>0.43242862820625305</v>
+        <v>0.44046968221664429</v>
       </c>
     </row>
     <row r="375">
@@ -5607,13 +5607,13 @@
         <v>0.8005605936050415</v>
       </c>
       <c r="C375" s="2">
-        <v>0.84521245956420899</v>
+        <v>0.85653787851333618</v>
       </c>
       <c r="D375" s="2">
         <v>0.63082516193389893</v>
       </c>
       <c r="E375" s="2">
-        <v>0.46053078770637512</v>
+        <v>0.46890676021575928</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>0.31413483619689941</v>
       </c>
       <c r="C376" s="2">
-        <v>0.12860460579395294</v>
+        <v>0.13494408130645752</v>
       </c>
       <c r="D376" s="2">
         <v>0.62528997659683228</v>
       </c>
       <c r="E376" s="2">
-        <v>0.4826568067073822</v>
+        <v>0.49164849519729614</v>
       </c>
     </row>
     <row r="377">
@@ -5641,13 +5641,13 @@
         <v>1.3627126216888428</v>
       </c>
       <c r="C377" s="2">
-        <v>1.0982084274291992</v>
+        <v>1.1130862236022949</v>
       </c>
       <c r="D377" s="2">
         <v>0.5664517879486084</v>
       </c>
       <c r="E377" s="2">
-        <v>0.42686176300048828</v>
+        <v>0.4354049563407898</v>
       </c>
     </row>
     <row r="378">
@@ -5658,13 +5658,13 @@
         <v>0.70941591262817383</v>
       </c>
       <c r="C378" s="2">
-        <v>0.51655662059783936</v>
+        <v>0.52769166231155396</v>
       </c>
       <c r="D378" s="2">
         <v>0.59306252002716065</v>
       </c>
       <c r="E378" s="2">
-        <v>0.48294970393180847</v>
+        <v>0.49186933040618897</v>
       </c>
     </row>
     <row r="379">
@@ -5675,13 +5675,13 @@
         <v>0.39554858207702637</v>
       </c>
       <c r="C379" s="2">
-        <v>0.21497991681098938</v>
+        <v>0.2224142998456955</v>
       </c>
       <c r="D379" s="2">
         <v>0.44809642434120178</v>
       </c>
       <c r="E379" s="2">
-        <v>0.33282572031021118</v>
+        <v>0.34117439389228821</v>
       </c>
     </row>
     <row r="380">
@@ -5692,13 +5692,13 @@
         <v>-0.10077229142189026</v>
       </c>
       <c r="C380" s="2">
-        <v>-0.089628458023071289</v>
+        <v>-0.083023831248283386</v>
       </c>
       <c r="D380" s="2">
         <v>0.40597635507583618</v>
       </c>
       <c r="E380" s="2">
-        <v>0.25925171375274658</v>
+        <v>0.26683783531188965</v>
       </c>
     </row>
     <row r="381">
@@ -5709,13 +5709,13 @@
         <v>0.11689631640911102</v>
       </c>
       <c r="C381" s="2">
-        <v>-0.010106838308274746</v>
+        <v>-0.0074017895385622978</v>
       </c>
       <c r="D381" s="2">
         <v>0.44833150506019592</v>
       </c>
       <c r="E381" s="2">
-        <v>0.29670745134353638</v>
+        <v>0.30444958806037903</v>
       </c>
     </row>
     <row r="382">
@@ -5726,13 +5726,13 @@
         <v>0.45485028624534607</v>
       </c>
       <c r="C382" s="2">
-        <v>0.47111758589744568</v>
+        <v>0.48374548554420471</v>
       </c>
       <c r="D382" s="2">
         <v>0.29954487085342407</v>
       </c>
       <c r="E382" s="2">
-        <v>0.098403975367546082</v>
+        <v>0.10545134544372559</v>
       </c>
     </row>
     <row r="383">
@@ -5743,13 +5743,13 @@
         <v>-0.020478913560509682</v>
       </c>
       <c r="C383" s="2">
-        <v>-0.17951278388500214</v>
+        <v>-0.17742438614368439</v>
       </c>
       <c r="D383" s="2">
         <v>0.3782193660736084</v>
       </c>
       <c r="E383" s="2">
-        <v>0.17616209387779236</v>
+        <v>0.18320569396018982</v>
       </c>
     </row>
     <row r="384">
@@ -5760,13 +5760,13 @@
         <v>0.42147979140281677</v>
       </c>
       <c r="C384" s="2">
-        <v>0.18304625153541565</v>
+        <v>0.18750876188278198</v>
       </c>
       <c r="D384" s="2">
         <v>0.33594030141830444</v>
       </c>
       <c r="E384" s="2">
-        <v>0.11495669931173325</v>
+        <v>0.12228512018918991</v>
       </c>
     </row>
     <row r="385">
@@ -5777,13 +5777,13 @@
         <v>0.6953311562538147</v>
       </c>
       <c r="C385" s="2">
-        <v>0.465706467628479</v>
+        <v>0.47344976663589478</v>
       </c>
       <c r="D385" s="2">
         <v>0.46171224117279053</v>
       </c>
       <c r="E385" s="2">
-        <v>0.2265779972076416</v>
+        <v>0.23377986252307892</v>
       </c>
     </row>
     <row r="386">
@@ -5794,13 +5794,13 @@
         <v>0.023632992058992386</v>
       </c>
       <c r="C386" s="2">
-        <v>-0.6865229606628418</v>
+        <v>-0.6778978705406189</v>
       </c>
       <c r="D386" s="2">
         <v>0.57530373334884644</v>
       </c>
       <c r="E386" s="2">
-        <v>0.32933208346366882</v>
+        <v>0.33743643760681152</v>
       </c>
     </row>
     <row r="387">
@@ -5811,13 +5811,13 @@
         <v>1.4174864292144775</v>
       </c>
       <c r="C387" s="2">
-        <v>1.2163796424865723</v>
+        <v>1.2274807691574097</v>
       </c>
       <c r="D387" s="2">
         <v>0.53660774230957031</v>
       </c>
       <c r="E387" s="2">
-        <v>0.23944693803787232</v>
+        <v>0.2470109760761261</v>
       </c>
     </row>
     <row r="388">
@@ -5828,13 +5828,13 @@
         <v>0.01503694336861372</v>
       </c>
       <c r="C388" s="2">
-        <v>-0.33586859703063965</v>
+        <v>-0.3258708119392395</v>
       </c>
       <c r="D388" s="2">
         <v>0.63792628049850464</v>
       </c>
       <c r="E388" s="2">
-        <v>0.35939261317253113</v>
+        <v>0.36785244941711426</v>
       </c>
     </row>
     <row r="389">
@@ -5845,13 +5845,13 @@
         <v>1.0311752557754517</v>
       </c>
       <c r="C389" s="2">
-        <v>0.91496318578720093</v>
+        <v>0.92042887210845947</v>
       </c>
       <c r="D389" s="2">
         <v>0.74791854619979858</v>
       </c>
       <c r="E389" s="2">
-        <v>0.51297634840011597</v>
+        <v>0.52143299579620361</v>
       </c>
     </row>
     <row r="390">
@@ -5862,13 +5862,13 @@
         <v>1.1392196416854858</v>
       </c>
       <c r="C390" s="2">
-        <v>0.91468006372451782</v>
+        <v>0.92550736665725708</v>
       </c>
       <c r="D390" s="2">
         <v>0.80796927213668823</v>
       </c>
       <c r="E390" s="2">
-        <v>0.58361512422561646</v>
+        <v>0.59189426898956299</v>
       </c>
     </row>
     <row r="391">
@@ -5879,13 +5879,13 @@
         <v>0.10658663511276245</v>
       </c>
       <c r="C391" s="2">
-        <v>-0.33784884214401245</v>
+        <v>-0.33008372783660889</v>
       </c>
       <c r="D391" s="2">
         <v>0.79914486408233643</v>
       </c>
       <c r="E391" s="2">
-        <v>0.7389330267906189</v>
+        <v>0.7466132640838623</v>
       </c>
     </row>
     <row r="392">
@@ -5896,13 +5896,13 @@
         <v>0.891387939453125</v>
       </c>
       <c r="C392" s="2">
-        <v>0.89999830722808838</v>
+        <v>0.9101489782333374</v>
       </c>
       <c r="D392" s="2">
         <v>0.70701056718826294</v>
       </c>
       <c r="E392" s="2">
-        <v>0.6428985595703125</v>
+        <v>0.65037602186203003</v>
       </c>
     </row>
     <row r="393">
@@ -5913,13 +5913,13 @@
         <v>1.4114097356796265</v>
       </c>
       <c r="C393" s="2">
-        <v>1.5653001070022583</v>
+        <v>1.5697338581085205</v>
       </c>
       <c r="D393" s="2">
         <v>0.74123650789260864</v>
       </c>
       <c r="E393" s="2">
-        <v>0.67794746160507202</v>
+        <v>0.6858707070350647</v>
       </c>
     </row>
     <row r="394">
@@ -5930,13 +5930,13 @@
         <v>1.2357876300811768</v>
       </c>
       <c r="C394" s="2">
-        <v>1.1014554500579834</v>
+        <v>1.1076010465621948</v>
       </c>
       <c r="D394" s="2">
         <v>0.6642032265663147</v>
       </c>
       <c r="E394" s="2">
-        <v>0.59060209989547729</v>
+        <v>0.59830892086029053</v>
       </c>
     </row>
     <row r="395">
@@ -5947,13 +5947,13 @@
         <v>-0.055786550045013428</v>
       </c>
       <c r="C395" s="2">
-        <v>0.71133798360824585</v>
+        <v>0.71457308530807495</v>
       </c>
       <c r="D395" s="2">
         <v>0.66620290279388428</v>
       </c>
       <c r="E395" s="2">
-        <v>0.61132329702377319</v>
+        <v>0.61846882104873657</v>
       </c>
     </row>
     <row r="396">
@@ -5964,13 +5964,13 @@
         <v>0.58827769756317139</v>
       </c>
       <c r="C396" s="2">
-        <v>0.35206922888755798</v>
+        <v>0.36134541034698486</v>
       </c>
       <c r="D396" s="2">
         <v>0.69698220491409302</v>
       </c>
       <c r="E396" s="2">
-        <v>0.65191841125488281</v>
+        <v>0.65899986028671265</v>
       </c>
     </row>
     <row r="397">
@@ -5981,13 +5981,13 @@
         <v>0.32307064533233643</v>
       </c>
       <c r="C397" s="2">
-        <v>-0.02042858861386776</v>
+        <v>-0.0064186342060565949</v>
       </c>
       <c r="D397" s="2">
         <v>0.68773192167282104</v>
       </c>
       <c r="E397" s="2">
-        <v>0.62783330678939819</v>
+        <v>0.63438552618026733</v>
       </c>
     </row>
     <row r="398">
@@ -5998,13 +5998,13 @@
         <v>0.33787578344345093</v>
       </c>
       <c r="C398" s="2">
-        <v>0.1288551539182663</v>
+        <v>0.13237278163433075</v>
       </c>
       <c r="D398" s="2">
         <v>0.50613391399383545</v>
       </c>
       <c r="E398" s="2">
-        <v>0.39251002669334412</v>
+        <v>0.39955359697341919</v>
       </c>
     </row>
     <row r="399">
@@ -6015,13 +6015,13 @@
         <v>1.1572164297103882</v>
       </c>
       <c r="C399" s="2">
-        <v>1.1011711359024048</v>
+        <v>1.1069468259811401</v>
       </c>
       <c r="D399" s="2">
         <v>0.42366856336593628</v>
       </c>
       <c r="E399" s="2">
-        <v>0.30336201190948486</v>
+        <v>0.31128650903701782</v>
       </c>
     </row>
     <row r="400">
@@ -6032,13 +6032,13 @@
         <v>0.38360041379928589</v>
       </c>
       <c r="C400" s="2">
-        <v>0.027507113292813301</v>
+        <v>0.034695316106081009</v>
       </c>
       <c r="D400" s="2">
         <v>0.53439468145370483</v>
       </c>
       <c r="E400" s="2">
-        <v>0.30610665678977966</v>
+        <v>0.31508073210716248</v>
       </c>
     </row>
     <row r="401">
@@ -6049,13 +6049,13 @@
         <v>0.8081355094909668</v>
       </c>
       <c r="C401" s="2">
-        <v>0.68323206901550293</v>
+        <v>0.68862009048461914</v>
       </c>
       <c r="D401" s="2">
         <v>0.59262543916702271</v>
       </c>
       <c r="E401" s="2">
-        <v>0.39485257863998413</v>
+        <v>0.40355017781257629</v>
       </c>
     </row>
     <row r="402">
@@ -6066,13 +6066,13 @@
         <v>-0.2229720950126648</v>
       </c>
       <c r="C402" s="2">
-        <v>-0.55260926485061646</v>
+        <v>-0.54375368356704712</v>
       </c>
       <c r="D402" s="2">
         <v>0.61332809925079346</v>
       </c>
       <c r="E402" s="2">
-        <v>0.45932707190513611</v>
+        <v>0.46730926632881165</v>
       </c>
     </row>
     <row r="403">
@@ -6083,13 +6083,13 @@
         <v>0.49359923601150513</v>
       </c>
       <c r="C403" s="2">
-        <v>0.29912331700325012</v>
+        <v>0.31319737434387207</v>
       </c>
       <c r="D403" s="2">
         <v>0.65724086761474609</v>
       </c>
       <c r="E403" s="2">
-        <v>0.51266944408416748</v>
+        <v>0.52115505933761597</v>
       </c>
     </row>
     <row r="404">
@@ -6100,13 +6100,13 @@
         <v>0.94074857234954834</v>
       </c>
       <c r="C404" s="2">
-        <v>0.73603981733322144</v>
+        <v>0.74872112274169922</v>
       </c>
       <c r="D404" s="2">
         <v>0.68624377250671387</v>
       </c>
       <c r="E404" s="2">
-        <v>0.51690709590911865</v>
+        <v>0.52626079320907593</v>
       </c>
     </row>
     <row r="405">
@@ -6117,13 +6117,13 @@
         <v>1.1123543977737427</v>
       </c>
       <c r="C405" s="2">
-        <v>1.150782585144043</v>
+        <v>1.157570481300354</v>
       </c>
       <c r="D405" s="2">
         <v>0.79494655132293701</v>
       </c>
       <c r="E405" s="2">
-        <v>0.64820903539657593</v>
+        <v>0.65748298168182373</v>
       </c>
     </row>
     <row r="406">
@@ -6134,13 +6134,13 @@
         <v>0.50939470529556275</v>
       </c>
       <c r="C406" s="2">
-        <v>0.55984169244766235</v>
+        <v>0.56741315126419067</v>
       </c>
       <c r="D406" s="2">
         <v>0.78558570146560669</v>
       </c>
       <c r="E406" s="2">
-        <v>0.62371218204498291</v>
+        <v>0.63269180059432983</v>
       </c>
     </row>
     <row r="407">
@@ -6151,13 +6151,13 @@
         <v>0.73309063911437988</v>
       </c>
       <c r="C407" s="2">
-        <v>0.60893642902374268</v>
+        <v>0.61698472499847412</v>
       </c>
       <c r="D407" s="2">
         <v>0.89520138502120972</v>
       </c>
       <c r="E407" s="2">
-        <v>0.74614107608795166</v>
+        <v>0.75483977794647217</v>
       </c>
     </row>
     <row r="408">
@@ -6168,13 +6168,13 @@
         <v>1.4182426929473877</v>
       </c>
       <c r="C408" s="2">
-        <v>1.1393101215362549</v>
+        <v>1.1528987884521484</v>
       </c>
       <c r="D408" s="2">
         <v>1.0172758102416992</v>
       </c>
       <c r="E408" s="2">
-        <v>0.88208460807800293</v>
+        <v>0.89012306928634644</v>
       </c>
     </row>
     <row r="409">
@@ -6185,13 +6185,13 @@
         <v>1.3619253635406494</v>
       </c>
       <c r="C409" s="2">
-        <v>1.2092243432998657</v>
+        <v>1.2156945466995239</v>
       </c>
       <c r="D409" s="2">
         <v>1.0545041561126709</v>
       </c>
       <c r="E409" s="2">
-        <v>0.95166152715682983</v>
+        <v>0.95856523513793945</v>
       </c>
     </row>
     <row r="410">
@@ -6202,13 +6202,13 @@
         <v>0.7238878607749939</v>
       </c>
       <c r="C410" s="2">
-        <v>0.46276077628135681</v>
+        <v>0.46549984812736511</v>
       </c>
       <c r="D410" s="2">
         <v>0.99352836608886719</v>
       </c>
       <c r="E410" s="2">
-        <v>0.86082279682159424</v>
+        <v>0.86838644742965698</v>
       </c>
     </row>
     <row r="411">
@@ -6219,13 +6219,13 @@
         <v>0.76356881856918335</v>
       </c>
       <c r="C411" s="2">
-        <v>0.54925084114074707</v>
+        <v>0.55557811260223389</v>
       </c>
       <c r="D411" s="2">
         <v>1.0458958148956299</v>
       </c>
       <c r="E411" s="2">
-        <v>0.9024079442024231</v>
+        <v>0.91004830598831177</v>
       </c>
     </row>
     <row r="412">
@@ -6236,13 +6236,13 @@
         <v>1.5922693014144897</v>
       </c>
       <c r="C412" s="2">
-        <v>1.5226147174835205</v>
+        <v>1.5307470560073853</v>
       </c>
       <c r="D412" s="2">
         <v>1.0470746755599976</v>
       </c>
       <c r="E412" s="2">
-        <v>0.90986883640289307</v>
+        <v>0.91741353273391724</v>
       </c>
     </row>
     <row r="413">
@@ -6253,13 +6253,13 @@
         <v>1.2758041620254517</v>
       </c>
       <c r="C413" s="2">
-        <v>1.3622324466705322</v>
+        <v>1.3647006750106812</v>
       </c>
       <c r="D413" s="2">
         <v>0.93214505910873413</v>
       </c>
       <c r="E413" s="2">
-        <v>0.80958181619644165</v>
+        <v>0.8167000412940979</v>
       </c>
     </row>
     <row r="414">
@@ -6270,13 +6270,13 @@
         <v>0.5635717511177063</v>
       </c>
       <c r="C414" s="2">
-        <v>0.33323407173156738</v>
+        <v>0.34596094489097595</v>
       </c>
       <c r="D414" s="2">
         <v>0.9005395770072937</v>
       </c>
       <c r="E414" s="2">
-        <v>0.78437590599060059</v>
+        <v>0.79152458906173706</v>
       </c>
     </row>
     <row r="415">
@@ -6287,13 +6287,13 @@
         <v>0.98070204257965088</v>
       </c>
       <c r="C415" s="2">
-        <v>0.93410760164260864</v>
+        <v>0.94237023591995239</v>
       </c>
       <c r="D415" s="2">
         <v>0.97673279047012329</v>
       </c>
       <c r="E415" s="2">
-        <v>0.86810952425003052</v>
+        <v>0.87623012065887451</v>
       </c>
     </row>
     <row r="416">
@@ -6304,13 +6304,13 @@
         <v>0.74370044469833374</v>
       </c>
       <c r="C416" s="2">
-        <v>0.67608481645584106</v>
+        <v>0.68327158689498901</v>
       </c>
       <c r="D416" s="2">
         <v>0.96143466234207153</v>
       </c>
       <c r="E416" s="2">
-        <v>0.85903191566467285</v>
+        <v>0.86694139242172241</v>
       </c>
     </row>
     <row r="417">
@@ -6321,13 +6321,13 @@
         <v>0.38387599587440491</v>
       </c>
       <c r="C417" s="2">
-        <v>0.23672686517238617</v>
+        <v>0.24647735059261322</v>
       </c>
       <c r="D417" s="2">
         <v>0.7767069935798645</v>
       </c>
       <c r="E417" s="2">
-        <v>0.6673729419708252</v>
+        <v>0.67515188455581665</v>
       </c>
     </row>
     <row r="418">
@@ -6338,13 +6338,13 @@
         <v>1.0774756669998169</v>
       </c>
       <c r="C418" s="2">
-        <v>0.98237091302871704</v>
+        <v>0.98911529779434204</v>
       </c>
       <c r="D418" s="2">
         <v>0.82644361257553101</v>
       </c>
       <c r="E418" s="2">
-        <v>0.67659181356430054</v>
+        <v>0.68545836210250854</v>
       </c>
     </row>
     <row r="419">
@@ -6355,13 +6355,13 @@
         <v>1.4096267223358154</v>
       </c>
       <c r="C419" s="2">
-        <v>1.2163636684417725</v>
+        <v>1.2278499603271484</v>
       </c>
       <c r="D419" s="2">
         <v>0.92773544788360596</v>
       </c>
       <c r="E419" s="2">
-        <v>0.78071057796478272</v>
+        <v>0.78898113965988159</v>
       </c>
     </row>
     <row r="420">
@@ -6372,13 +6372,13 @@
         <v>0.62588596343994141</v>
       </c>
       <c r="C420" s="2">
-        <v>0.46755221486091614</v>
+        <v>0.47197949886322022</v>
       </c>
       <c r="D420" s="2">
         <v>0.98916065692901611</v>
       </c>
       <c r="E420" s="2">
-        <v>0.83693784475326538</v>
+        <v>0.84524476528167725</v>
       </c>
     </row>
     <row r="421">
@@ -6389,13 +6389,13 @@
         <v>-0.070279665291309357</v>
       </c>
       <c r="C421" s="2">
-        <v>-0.20231616497039795</v>
+        <v>-0.19535878300666809</v>
       </c>
       <c r="D421" s="2">
         <v>1.0333237648010254</v>
       </c>
       <c r="E421" s="2">
-        <v>0.81965547800064087</v>
+        <v>0.82875514030456543</v>
       </c>
     </row>
     <row r="422">
@@ -6406,13 +6406,13 @@
         <v>1.7234337329864502</v>
       </c>
       <c r="C422" s="2">
-        <v>1.4452022314071655</v>
+        <v>1.4574590921401978</v>
       </c>
       <c r="D422" s="2">
         <v>1.1008400917053223</v>
       </c>
       <c r="E422" s="2">
-        <v>0.86782217025756836</v>
+        <v>0.87714242935180664</v>
       </c>
     </row>
     <row r="423">
@@ -6423,13 +6423,13 @@
         <v>1.4751982688903809</v>
       </c>
       <c r="C423" s="2">
-        <v>1.2703030109405518</v>
+        <v>1.2776658535003662</v>
       </c>
       <c r="D423" s="2">
         <v>1.1697723865509033</v>
       </c>
       <c r="E423" s="2">
-        <v>0.93401408195495605</v>
+        <v>0.94353985786437988</v>
       </c>
     </row>
     <row r="424">
@@ -6440,13 +6440,13 @@
         <v>1.5335286855697632</v>
       </c>
       <c r="C424" s="2">
-        <v>1.4401532411575317</v>
+        <v>1.4487432241439819</v>
       </c>
       <c r="D424" s="2">
         <v>1.2344030141830444</v>
       </c>
       <c r="E424" s="2">
-        <v>0.99874943494796753</v>
+        <v>1.008068323135376</v>
       </c>
     </row>
     <row r="425">
@@ -6457,13 +6457,13 @@
         <v>1.1411681175231934</v>
       </c>
       <c r="C425" s="2">
-        <v>0.52054327726364136</v>
+        <v>0.53486478328704834</v>
       </c>
       <c r="D425" s="2">
         <v>1.4147522449493408</v>
       </c>
       <c r="E425" s="2">
-        <v>1.179063081741333</v>
+        <v>1.1892024278640747</v>
       </c>
     </row>
     <row r="426">
@@ -6474,13 +6474,13 @@
         <v>0.9915236234664917</v>
       </c>
       <c r="C426" s="2">
-        <v>0.67022734880447388</v>
+        <v>0.68196302652359009</v>
       </c>
       <c r="D426" s="2">
         <v>1.6246268749237061</v>
       </c>
       <c r="E426" s="2">
-        <v>1.4010618925094605</v>
+        <v>1.4113109111785889</v>
       </c>
     </row>
     <row r="427">
@@ -6491,13 +6491,13 @@
         <v>1.6978662014007568</v>
       </c>
       <c r="C427" s="2">
-        <v>1.5780980587005615</v>
+        <v>1.586692214012146</v>
       </c>
       <c r="D427" s="2">
         <v>1.5594413280487061</v>
       </c>
       <c r="E427" s="2">
-        <v>1.3439898490905762</v>
+        <v>1.3541083335876465</v>
       </c>
     </row>
     <row r="428">
@@ -6508,13 +6508,13 @@
         <v>1.9913022518157959</v>
       </c>
       <c r="C428" s="2">
-        <v>1.798981785774231</v>
+        <v>1.8086057901382446</v>
       </c>
       <c r="D428" s="2">
         <v>1.5896600484848022</v>
       </c>
       <c r="E428" s="2">
-        <v>1.3979364633560181</v>
+        <v>1.4077932834625244</v>
       </c>
     </row>
     <row r="429">
@@ -6525,13 +6525,13 @@
         <v>2.2490286827087402</v>
       </c>
       <c r="C429" s="2">
-        <v>2.0903747081756592</v>
+        <v>2.1021866798400879</v>
       </c>
       <c r="D429" s="2">
         <v>1.6016759872436524</v>
       </c>
       <c r="E429" s="2">
-        <v>1.4037017822265625</v>
+        <v>1.4134426116943359</v>
       </c>
     </row>
     <row r="430">
@@ -6542,13 +6542,13 @@
         <v>1.8185924291610718</v>
       </c>
       <c r="C430" s="2">
-        <v>1.7956738471984863</v>
+        <v>1.8036174774169922</v>
       </c>
       <c r="D430" s="2">
         <v>1.6060266494750977</v>
       </c>
       <c r="E430" s="2">
-        <v>1.4208379983901978</v>
+        <v>1.430189847946167</v>
       </c>
     </row>
     <row r="431">
@@ -6559,13 +6559,13 @@
         <v>1.1367636919021606</v>
       </c>
       <c r="C431" s="2">
-        <v>0.93155366182327271</v>
+        <v>0.94263601303100586</v>
       </c>
       <c r="D431" s="2">
         <v>1.6725938320159912</v>
       </c>
       <c r="E431" s="2">
-        <v>1.5149451494216919</v>
+        <v>1.5243282318115234</v>
       </c>
     </row>
     <row r="432">
@@ -6576,13 +6576,13 @@
         <v>1.7471667528152466</v>
       </c>
       <c r="C432" s="2">
-        <v>1.7558221817016602</v>
+        <v>1.7608300447463989</v>
       </c>
       <c r="D432" s="2">
         <v>1.6887087821960449</v>
       </c>
       <c r="E432" s="2">
-        <v>1.5246261358261108</v>
+        <v>1.5338578224182129</v>
       </c>
     </row>
     <row r="433">
@@ -6593,13 +6593,13 @@
         <v>1.6416721343994141</v>
       </c>
       <c r="C433" s="2">
-        <v>1.4920409917831421</v>
+        <v>1.499587893486023</v>
       </c>
       <c r="D433" s="2">
         <v>1.658096194267273</v>
       </c>
       <c r="E433" s="2">
-        <v>1.5169283151626587</v>
+        <v>1.5258365869522095</v>
       </c>
     </row>
     <row r="434">
@@ -6610,13 +6610,13 @@
         <v>1.1803237199783325</v>
       </c>
       <c r="C434" s="2">
-        <v>0.67476946115493774</v>
+        <v>0.68558895587921143</v>
       </c>
       <c r="D434" s="2">
         <v>1.6355855464935303</v>
       </c>
       <c r="E434" s="2">
-        <v>1.4978162050247192</v>
+        <v>1.5058948993682861</v>
       </c>
     </row>
     <row r="435">
@@ -6627,13 +6627,13 @@
         <v>1.5906288623809814</v>
       </c>
       <c r="C435" s="2">
-        <v>1.5171917676925659</v>
+        <v>1.5292091369628906</v>
       </c>
       <c r="D435" s="2">
         <v>1.5878397226333618</v>
       </c>
       <c r="E435" s="2">
-        <v>1.4254645109176636</v>
+        <v>1.433281421661377</v>
       </c>
     </row>
     <row r="436">
@@ -6644,13 +6644,13 @@
         <v>1.8429009914398193</v>
       </c>
       <c r="C436" s="2">
-        <v>1.6652268171310425</v>
+        <v>1.6724586486816406</v>
       </c>
       <c r="D436" s="2">
         <v>1.6132906675338745</v>
       </c>
       <c r="E436" s="2">
-        <v>1.4552609920501709</v>
+        <v>1.4636670351028442</v>
       </c>
     </row>
     <row r="437">
@@ -6661,13 +6661,13 @@
         <v>1.7157884836196899</v>
       </c>
       <c r="C437" s="2">
-        <v>1.7297012805938721</v>
+        <v>1.736414909362793</v>
       </c>
       <c r="D437" s="2">
         <v>1.5386582612991333</v>
       </c>
       <c r="E437" s="2">
-        <v>1.4209597110748291</v>
+        <v>1.4296612739562988</v>
       </c>
     </row>
     <row r="438">
@@ -6678,13 +6678,13 @@
         <v>2.0464324951171875</v>
       </c>
       <c r="C438" s="2">
-        <v>1.9183657169342041</v>
+        <v>1.9227105379104614</v>
       </c>
       <c r="D438" s="2">
         <v>1.534410834312439</v>
       </c>
       <c r="E438" s="2">
-        <v>1.3629188537597656</v>
+        <v>1.3723708391189575</v>
       </c>
     </row>
     <row r="439">
@@ -6695,13 +6695,13 @@
         <v>1.3888800144195557</v>
       </c>
       <c r="C439" s="2">
-        <v>1.1445083618164063</v>
+        <v>1.1500965356826782</v>
       </c>
       <c r="D439" s="2">
         <v>1.5333327054977417</v>
       </c>
       <c r="E439" s="2">
-        <v>1.3985791206359863</v>
+        <v>1.4079471826553345</v>
       </c>
     </row>
     <row r="440">
@@ -6712,13 +6712,13 @@
         <v>1.3658230304718018</v>
       </c>
       <c r="C440" s="2">
-        <v>1.1997220516204834</v>
+        <v>1.2161067724227905</v>
       </c>
       <c r="D440" s="2">
         <v>1.4295583963394165</v>
       </c>
       <c r="E440" s="2">
-        <v>1.2451975345611572</v>
+        <v>1.2546375989913941</v>
       </c>
     </row>
     <row r="441">
@@ -6729,13 +6729,13 @@
         <v>1.0754748582839966</v>
       </c>
       <c r="C441" s="2">
-        <v>1.4471113681793213</v>
+        <v>1.4547780752182007</v>
       </c>
       <c r="D441" s="2">
         <v>1.4006568193435669</v>
       </c>
       <c r="E441" s="2">
-        <v>1.1955194473266602</v>
+        <v>1.2055394649505615</v>
       </c>
     </row>
     <row r="442">
@@ -6746,13 +6746,13 @@
         <v>1.6034448146820068</v>
       </c>
       <c r="C442" s="2">
-        <v>0.96967285871505737</v>
+        <v>0.98397445678710938</v>
       </c>
       <c r="D442" s="2">
         <v>1.4128487110137939</v>
       </c>
       <c r="E442" s="2">
-        <v>1.163704514503479</v>
+        <v>1.1744173765182495</v>
       </c>
     </row>
     <row r="443">
@@ -6763,13 +6763,13 @@
         <v>1.1706207990646362</v>
       </c>
       <c r="C443" s="2">
-        <v>0.9957122802734375</v>
+        <v>1.0057752132415771</v>
       </c>
       <c r="D443" s="2">
         <v>1.3582217693328858</v>
       </c>
       <c r="E443" s="2">
-        <v>1.0984746217727661</v>
+        <v>1.110273003578186</v>
       </c>
     </row>
     <row r="444">
@@ -6780,13 +6780,13 @@
         <v>0.65665990114212036</v>
       </c>
       <c r="C444" s="2">
-        <v>0.13675719499588013</v>
+        <v>0.14942370355129242</v>
       </c>
       <c r="D444" s="2">
         <v>1.3168988227844238</v>
       </c>
       <c r="E444" s="2">
-        <v>1.0564566850662232</v>
+        <v>1.0687719583511353</v>
       </c>
     </row>
     <row r="445">
@@ -6797,13 +6797,13 @@
         <v>1.5827873945236206</v>
       </c>
       <c r="C445" s="2">
-        <v>1.2181243896484375</v>
+        <v>1.2305746078491211</v>
       </c>
       <c r="D445" s="2">
         <v>1.3075152635574341</v>
       </c>
       <c r="E445" s="2">
-        <v>1.015597939491272</v>
+        <v>1.0279948711395264</v>
       </c>
     </row>
     <row r="446">
@@ -6814,13 +6814,13 @@
         <v>1.825515627861023</v>
       </c>
       <c r="C446" s="2">
-        <v>1.4433665275573731</v>
+        <v>1.4563164710998535</v>
       </c>
       <c r="D446" s="2">
         <v>1.2703428268432617</v>
       </c>
       <c r="E446" s="2">
-        <v>0.95448082685470581</v>
+        <v>0.96694791316986084</v>
       </c>
     </row>
     <row r="447">
@@ -6831,13 +6831,13 @@
         <v>1.5547894239425659</v>
       </c>
       <c r="C447" s="2">
-        <v>1.3312966823577881</v>
+        <v>1.3454115390777588</v>
       </c>
       <c r="D447" s="2">
         <v>1.2818869352340698</v>
       </c>
       <c r="E447" s="2">
-        <v>0.98991614580154419</v>
+        <v>1.0023174285888672</v>
       </c>
     </row>
     <row r="448">
@@ -6848,13 +6848,13 @@
         <v>1.016973614692688</v>
       </c>
       <c r="C448" s="2">
-        <v>0.76634687185287476</v>
+        <v>0.77658671140670776</v>
       </c>
       <c r="D448" s="2">
         <v>1.346238374710083</v>
       </c>
       <c r="E448" s="2">
-        <v>1.0901719331741333</v>
+        <v>1.101832389831543</v>
       </c>
     </row>
     <row r="449">
@@ -6865,13 +6865,13 @@
         <v>1.2813705205917358</v>
       </c>
       <c r="C449" s="2">
-        <v>0.83199363946914673</v>
+        <v>0.84911328554153442</v>
       </c>
       <c r="D449" s="2">
         <v>1.4492030143737793</v>
       </c>
       <c r="E449" s="2">
-        <v>1.2319644689559937</v>
+        <v>1.2440481185913086</v>
       </c>
     </row>
     <row r="450">
@@ -6882,13 +6882,13 @@
         <v>0.74092298746109009</v>
       </c>
       <c r="C450" s="2">
-        <v>0.89705711603164673</v>
+        <v>0.90535539388656616</v>
       </c>
       <c r="D450" s="2">
         <v>1.3789263963699341</v>
       </c>
       <c r="E450" s="2">
-        <v>1.1745342016220093</v>
+        <v>1.1867266893386841</v>
       </c>
     </row>
     <row r="451">
@@ -6899,13 +6899,13 @@
         <v>1.7073423862457275</v>
       </c>
       <c r="C451" s="2">
-        <v>1.2885907888412476</v>
+        <v>1.3022996187210083</v>
       </c>
       <c r="D451" s="2">
         <v>1.2904049158096314</v>
       </c>
       <c r="E451" s="2">
-        <v>1.0985112190246582</v>
+        <v>1.1101279258728027</v>
       </c>
     </row>
     <row r="452">
@@ -6916,13 +6916,13 @@
         <v>1.7497837543487549</v>
       </c>
       <c r="C452" s="2">
-        <v>1.8980138301849365</v>
+        <v>1.9014098644256592</v>
       </c>
       <c r="D452" s="2">
         <v>1.1345969438552856</v>
       </c>
       <c r="E452" s="2">
-        <v>1.0999854803085327</v>
+        <v>1.1110618114471436</v>
       </c>
     </row>
     <row r="453">
@@ -6933,13 +6933,13 @@
         <v>1.583341121673584</v>
       </c>
       <c r="C453" s="2">
-        <v>1.4128900766372681</v>
+        <v>1.4293653964996338</v>
       </c>
       <c r="D453" s="2">
         <v>1.1442145109176636</v>
       </c>
       <c r="E453" s="2">
-        <v>1.1354522705078125</v>
+        <v>1.1469811201095581</v>
       </c>
     </row>
     <row r="454">
@@ -6950,13 +6950,13 @@
         <v>0.9502984881401062</v>
       </c>
       <c r="C454" s="2">
-        <v>0.70125186443328858</v>
+        <v>0.71468204259872437</v>
       </c>
       <c r="D454" s="2">
         <v>1.1885077953338623</v>
       </c>
       <c r="E454" s="2">
-        <v>1.2202320098876953</v>
+        <v>1.2303487062454224</v>
       </c>
     </row>
     <row r="455">
@@ -6967,13 +6967,13 @@
         <v>1.0288217067718506</v>
       </c>
       <c r="C455" s="2">
-        <v>0.75915986299514771</v>
+        <v>0.76692736148834229</v>
       </c>
       <c r="D455" s="2">
         <v>1.209709644317627</v>
       </c>
       <c r="E455" s="2">
-        <v>1.1925048828125</v>
+        <v>1.2031285762786865</v>
       </c>
     </row>
     <row r="456">
@@ -6984,13 +6984,13 @@
         <v>0.1525174081325531</v>
       </c>
       <c r="C456" s="2">
-        <v>1.3445655107498169</v>
+        <v>1.3538165092468262</v>
       </c>
       <c r="D456" s="2">
         <v>1.2290585041046143</v>
       </c>
       <c r="E456" s="2">
-        <v>1.23356032371521</v>
+        <v>1.2441114187240601</v>
       </c>
     </row>
     <row r="457">
@@ -7001,13 +7001,13 @@
         <v>1.1035326719284058</v>
       </c>
       <c r="C457" s="2">
-        <v>1.085547924041748</v>
+        <v>1.0998609066009522</v>
       </c>
       <c r="D457" s="2">
         <v>1.1567924022674561</v>
       </c>
       <c r="E457" s="2">
-        <v>1.1132128238677979</v>
+        <v>1.1245784759521484</v>
       </c>
     </row>
     <row r="458">
@@ -7018,13 +7018,13 @@
         <v>1.6800093650817871</v>
       </c>
       <c r="C458" s="2">
-        <v>1.5950112342834473</v>
+        <v>1.599421501159668</v>
       </c>
       <c r="D458" s="2">
         <v>1.1894123554229736</v>
       </c>
       <c r="E458" s="2">
-        <v>1.1615324020385742</v>
+        <v>1.172899603843689</v>
       </c>
     </row>
     <row r="459">
@@ -7035,13 +7035,13 @@
         <v>0.93174022436141968</v>
       </c>
       <c r="C459" s="2">
-        <v>0.64751321077346802</v>
+        <v>0.66037380695343018</v>
       </c>
       <c r="D459" s="2">
         <v>1.0903040170669556</v>
       </c>
       <c r="E459" s="2">
-        <v>1.0479879379272461</v>
+        <v>1.0593264102935791</v>
       </c>
     </row>
     <row r="460">
@@ -7052,13 +7052,13 @@
         <v>1.8814822435379028</v>
       </c>
       <c r="C460" s="2">
-        <v>1.6580895185470581</v>
+        <v>1.6711455583572388</v>
       </c>
       <c r="D460" s="2">
         <v>1.1826548576354981</v>
       </c>
       <c r="E460" s="2">
-        <v>1.149151086807251</v>
+        <v>1.1607382297515869</v>
       </c>
     </row>
     <row r="461">
@@ -7069,13 +7069,13 @@
         <v>1.0993888378143311</v>
       </c>
       <c r="C461" s="2">
-        <v>0.81488633155822754</v>
+        <v>0.82561326026916504</v>
       </c>
       <c r="D461" s="2">
         <v>1.3846660852432251</v>
       </c>
       <c r="E461" s="2">
-        <v>1.1985986232757568</v>
+        <v>1.2107857465744019</v>
       </c>
     </row>
     <row r="462">
@@ -7086,13 +7086,13 @@
         <v>1.8769205808639526</v>
       </c>
       <c r="C462" s="2">
-        <v>1.8477662801742554</v>
+        <v>1.8642556667327881</v>
       </c>
       <c r="D462" s="2">
         <v>1.3563092947006226</v>
       </c>
       <c r="E462" s="2">
-        <v>1.1322152614593506</v>
+        <v>1.1445647478103638</v>
       </c>
     </row>
     <row r="463">
@@ -7103,13 +7103,13 @@
         <v>0.058323584496974945</v>
       </c>
       <c r="C463" s="2">
-        <v>-0.32064834237098694</v>
+        <v>-0.30747684836387634</v>
       </c>
       <c r="D463" s="2">
         <v>1.3061486482620239</v>
       </c>
       <c r="E463" s="2">
-        <v>1.0659840106964111</v>
+        <v>1.0790082216262817</v>
       </c>
     </row>
     <row r="464">
@@ -7120,13 +7120,13 @@
         <v>1.8599783182144165</v>
       </c>
       <c r="C464" s="2">
-        <v>1.669628381729126</v>
+        <v>1.6796334981918335</v>
       </c>
       <c r="D464" s="2">
         <v>1.336560845375061</v>
       </c>
       <c r="E464" s="2">
-        <v>1.0864014625549317</v>
+        <v>1.0992938280105591</v>
       </c>
     </row>
     <row r="465">
@@ -7137,13 +7137,13 @@
         <v>1.9706184864044189</v>
       </c>
       <c r="C465" s="2">
-        <v>1.7895927429199219</v>
+        <v>1.8042440414428711</v>
       </c>
       <c r="D465" s="2">
         <v>1.1550354957580566</v>
       </c>
       <c r="E465" s="2">
-        <v>0.91170912981033325</v>
+        <v>0.92475533485412598</v>
       </c>
     </row>
     <row r="466">
@@ -7154,13 +7154,13 @@
         <v>0.84832167625427246</v>
       </c>
       <c r="C466" s="2">
-        <v>0.48809757828712463</v>
+        <v>0.50387263298034668</v>
       </c>
       <c r="D466" s="2">
         <v>1.0597366094589233</v>
       </c>
       <c r="E466" s="2">
-        <v>0.81478565931320191</v>
+        <v>0.82806020975112915</v>
       </c>
     </row>
     <row r="467">
@@ -7171,13 +7171,13 @@
         <v>1.2285635471343994</v>
       </c>
       <c r="C467" s="2">
-        <v>0.99893057346343994</v>
+        <v>1.0094122886657715</v>
       </c>
       <c r="D467" s="2">
         <v>0.85148638486862183</v>
       </c>
       <c r="E467" s="2">
-        <v>0.61533766984939575</v>
+        <v>0.62834340333938599</v>
       </c>
     </row>
     <row r="468">
@@ -7188,13 +7188,13 @@
         <v>1.205450177192688</v>
       </c>
       <c r="C468" s="2">
-        <v>0.83127051591873169</v>
+        <v>0.84294450283050537</v>
       </c>
       <c r="D468" s="2">
         <v>0.8869025707244873</v>
       </c>
       <c r="E468" s="2">
-        <v>0.6664963960647583</v>
+        <v>0.67897361516952515</v>
       </c>
     </row>
     <row r="469">
@@ -7205,13 +7205,13 @@
         <v>0.24775438010692596</v>
       </c>
       <c r="C469" s="2">
-        <v>0.085858277976512909</v>
+        <v>0.10029909014701843</v>
       </c>
       <c r="D469" s="2">
         <v>0.83725899457931519</v>
       </c>
       <c r="E469" s="2">
-        <v>0.61586600542068481</v>
+        <v>0.62846124172210693</v>
       </c>
     </row>
     <row r="470">
@@ -7222,13 +7222,13 @@
         <v>0.24169909954071045</v>
       </c>
       <c r="C470" s="2">
-        <v>-0.05742524191737175</v>
+        <v>-0.04464273527264595</v>
       </c>
       <c r="D470" s="2">
         <v>0.83630985021591187</v>
       </c>
       <c r="E470" s="2">
-        <v>0.60735076665878296</v>
+        <v>0.61965268850326538</v>
       </c>
     </row>
     <row r="471">
@@ -7239,13 +7239,13 @@
         <v>0.0026684550102800131</v>
       </c>
       <c r="C471" s="2">
-        <v>0.052734356373548508</v>
+        <v>0.066804386675357819</v>
       </c>
       <c r="D471" s="2">
         <v>0.95090532302856445</v>
       </c>
       <c r="E471" s="2">
-        <v>0.75035303831100464</v>
+        <v>0.76222765445709229</v>
       </c>
     </row>
     <row r="472">
@@ -7256,13 +7256,13 @@
         <v>0.37706887722015381</v>
       </c>
       <c r="C472" s="2">
-        <v>0.13978017866611481</v>
+        <v>0.14819501340389252</v>
       </c>
       <c r="D472" s="2">
         <v>0.96587347984313965</v>
       </c>
       <c r="E472" s="2">
-        <v>0.74354451894760132</v>
+        <v>0.75536882877349854</v>
       </c>
     </row>
     <row r="473">
@@ -7273,13 +7273,13 @@
         <v>1.4131861925125122</v>
       </c>
       <c r="C473" s="2">
-        <v>1.2139549255371094</v>
+        <v>1.2250217199325562</v>
       </c>
       <c r="D473" s="2">
         <v>1.0048611164093018</v>
       </c>
       <c r="E473" s="2">
-        <v>0.8035234808921814</v>
+        <v>0.81541949510574341</v>
       </c>
     </row>
     <row r="474">
@@ -7290,13 +7290,13 @@
         <v>1.9620761871337891</v>
       </c>
       <c r="C474" s="2">
-        <v>1.7129555940628052</v>
+        <v>1.7249672412872314</v>
       </c>
       <c r="D474" s="2">
         <v>1.1697041988372803</v>
       </c>
       <c r="E474" s="2">
-        <v>0.96736794710159302</v>
+        <v>0.97845190763473511</v>
       </c>
     </row>
     <row r="475">
@@ -7307,13 +7307,13 @@
         <v>1.879680871963501</v>
       </c>
       <c r="C475" s="2">
-        <v>1.7751179933547974</v>
+        <v>1.7870476245880127</v>
       </c>
       <c r="D475" s="2">
         <v>1.340476393699646</v>
       </c>
       <c r="E475" s="2">
-        <v>1.17073655128479</v>
+        <v>1.1814271211624146</v>
       </c>
     </row>
     <row r="476">
@@ -7324,13 +7324,13 @@
         <v>1.3632768392562866</v>
       </c>
       <c r="C476" s="2">
-        <v>0.93765407800674439</v>
+        <v>0.94768267869949341</v>
       </c>
       <c r="D476" s="2">
         <v>1.4777785539627075</v>
       </c>
       <c r="E476" s="2">
-        <v>1.2815355062484741</v>
+        <v>1.2914389371871948</v>
       </c>
     </row>
     <row r="477">
@@ -7341,13 +7341,13 @@
         <v>1.5563391447067261</v>
       </c>
       <c r="C477" s="2">
-        <v>1.3710813522338867</v>
+        <v>1.383400559425354</v>
       </c>
       <c r="D477" s="2">
         <v>1.5902128219604492</v>
       </c>
       <c r="E477" s="2">
-        <v>1.3935166597366333</v>
+        <v>1.4036186933517456</v>
       </c>
     </row>
     <row r="478">
@@ -7358,13 +7358,13 @@
         <v>1.7313425540924072</v>
       </c>
       <c r="C478" s="2">
-        <v>1.5604583024978638</v>
+        <v>1.5675904750823975</v>
       </c>
       <c r="D478" s="2">
         <v>1.4359936714172363</v>
       </c>
       <c r="E478" s="2">
-        <v>1.1855636835098267</v>
+        <v>1.1955626010894775</v>
       </c>
     </row>
     <row r="479">
@@ -7375,13 +7375,13 @@
         <v>1.7786480188369751</v>
       </c>
       <c r="C479" s="2">
-        <v>1.7728923559188843</v>
+        <v>1.7821348905563354</v>
       </c>
       <c r="D479" s="2">
         <v>1.4113755226135254</v>
       </c>
       <c r="E479" s="2">
-        <v>1.1408721208572388</v>
+        <v>1.1517385244369507</v>
       </c>
     </row>
     <row r="480">
@@ -7392,13 +7392,13 @@
         <v>1.2383887767791748</v>
       </c>
       <c r="C480" s="2">
-        <v>1.0499246120452881</v>
+        <v>1.0569103956222534</v>
       </c>
       <c r="D480" s="2">
         <v>1.4024837017059326</v>
       </c>
       <c r="E480" s="2">
-        <v>1.1169354915618896</v>
+        <v>1.1282476186752319</v>
       </c>
     </row>
     <row r="481">
@@ -7409,13 +7409,13 @@
         <v>1.3889771699905396</v>
       </c>
       <c r="C481" s="2">
-        <v>1.147611141204834</v>
+        <v>1.1578129529953003</v>
       </c>
       <c r="D481" s="2">
         <v>1.4491981267929077</v>
       </c>
       <c r="E481" s="2">
-        <v>1.1887950897216797</v>
+        <v>1.2003790140151978</v>
       </c>
     </row>
     <row r="482">
@@ -7426,13 +7426,13 @@
         <v>0.025213660672307014</v>
       </c>
       <c r="C482" s="2">
-        <v>-0.65762209892272949</v>
+        <v>-0.64748334884643555</v>
       </c>
       <c r="D482" s="2">
         <v>1.4207800626754761</v>
       </c>
       <c r="E482" s="2">
-        <v>1.1756254434585571</v>
+        <v>1.1874083280563355</v>
       </c>
     </row>
     <row r="483">
@@ -7443,13 +7443,13 @@
         <v>1.7405130863189697</v>
       </c>
       <c r="C483" s="2">
-        <v>1.3107315301895142</v>
+        <v>1.3305506706237793</v>
       </c>
       <c r="D483" s="2">
         <v>1.2586687803268433</v>
       </c>
       <c r="E483" s="2">
-        <v>1.0269849300384522</v>
+        <v>1.0391805171966553</v>
       </c>
     </row>
     <row r="484">
@@ -7460,13 +7460,13 @@
         <v>1.7996540069580078</v>
       </c>
       <c r="C484" s="2">
-        <v>1.5596877336502075</v>
+        <v>1.5756288766860962</v>
       </c>
       <c r="D484" s="2">
         <v>1.2240520715713501</v>
       </c>
       <c r="E484" s="2">
-        <v>0.96602177619934082</v>
+        <v>0.97874164581298828</v>
       </c>
     </row>
     <row r="485">
@@ -7477,13 +7477,13 @@
         <v>1.7837061882019043</v>
       </c>
       <c r="C485" s="2">
-        <v>1.5843909978866577</v>
+        <v>1.5968661308288574</v>
       </c>
       <c r="D485" s="2">
         <v>1.2117211818695068</v>
       </c>
       <c r="E485" s="2">
-        <v>1.0045567750930786</v>
+        <v>1.0180147886276245</v>
       </c>
     </row>
     <row r="486">
@@ -7494,13 +7494,13 @@
         <v>1.3005768060684204</v>
       </c>
       <c r="C486" s="2">
-        <v>1.252554178237915</v>
+        <v>1.2666641473770142</v>
       </c>
       <c r="D486" s="2">
         <v>1.2174695730209351</v>
       </c>
       <c r="E486" s="2">
-        <v>0.98359471559524536</v>
+        <v>0.9977155327796936</v>
       </c>
     </row>
     <row r="487">
@@ -7511,13 +7511,13 @@
         <v>0.27234089374542236</v>
       </c>
       <c r="C487" s="2">
-        <v>0.22269371151924133</v>
+        <v>0.23353978991508484</v>
       </c>
       <c r="D487" s="2">
         <v>1.3908437490463257</v>
       </c>
       <c r="E487" s="2">
-        <v>1.2062914371490479</v>
+        <v>1.2203336954116821</v>
       </c>
     </row>
     <row r="488">
@@ -7528,13 +7528,13 @@
         <v>1.4670977592468262</v>
       </c>
       <c r="C488" s="2">
-        <v>1.2242244482040405</v>
+        <v>1.2381851673126221</v>
       </c>
       <c r="D488" s="2">
         <v>1.3649774789810181</v>
       </c>
       <c r="E488" s="2">
-        <v>1.1956220865249634</v>
+        <v>1.2085654735565186</v>
       </c>
     </row>
     <row r="489">
@@ -7545,13 +7545,13 @@
         <v>1.1274113655090332</v>
       </c>
       <c r="C489" s="2">
-        <v>1.3967390060424805</v>
+        <v>1.4103683233261108</v>
       </c>
       <c r="D489" s="2">
         <v>1.3125994205474854</v>
       </c>
       <c r="E489" s="2">
-        <v>1.1439986228942871</v>
+        <v>1.1559585332870483</v>
       </c>
     </row>
     <row r="490">
@@ -7562,13 +7562,13 @@
         <v>1.4407123327255249</v>
       </c>
       <c r="C490" s="2">
-        <v>0.95895284414291382</v>
+        <v>0.97511988878250122</v>
       </c>
       <c r="D490" s="2">
         <v>1.211438775062561</v>
       </c>
       <c r="E490" s="2">
-        <v>1.0229401588439941</v>
+        <v>1.0345816612243652</v>
       </c>
     </row>
     <row r="491">
@@ -7579,13 +7579,13 @@
         <v>1.5855816602706909</v>
       </c>
       <c r="C491" s="2">
-        <v>1.3466488122940064</v>
+        <v>1.356080174446106</v>
       </c>
       <c r="D491" s="2">
         <v>1.2296171188354492</v>
       </c>
       <c r="E491" s="2">
-        <v>1.0177779197692871</v>
+        <v>1.0290495157241821</v>
       </c>
     </row>
     <row r="492">
@@ -7596,13 +7596,13 @@
         <v>1.5077159404754639</v>
       </c>
       <c r="C492" s="2">
-        <v>1.2147074937820435</v>
+        <v>1.2246367931365967</v>
       </c>
       <c r="D492" s="2">
         <v>1.4379830360412598</v>
       </c>
       <c r="E492" s="2">
-        <v>1.1864696741104126</v>
+        <v>1.1981991529464722</v>
       </c>
     </row>
     <row r="493">
@@ -7613,13 +7613,13 @@
         <v>1.3282513618469238</v>
       </c>
       <c r="C493" s="2">
-        <v>1.0950765609741211</v>
+        <v>1.1021662950515747</v>
       </c>
       <c r="D493" s="2">
         <v>1.4780412912368774</v>
       </c>
       <c r="E493" s="2">
-        <v>1.2161232233047485</v>
+        <v>1.2277941703796387</v>
       </c>
     </row>
     <row r="494">
@@ -7630,13 +7630,13 @@
         <v>0.87326037883758545</v>
       </c>
       <c r="C494" s="2">
-        <v>0.49486491084098816</v>
+        <v>0.50447487831115723</v>
       </c>
       <c r="D494" s="2">
         <v>1.5297920703887939</v>
       </c>
       <c r="E494" s="2">
-        <v>1.272933840751648</v>
+        <v>1.2847855091094971</v>
       </c>
     </row>
     <row r="495">
@@ -7647,13 +7647,13 @@
         <v>1.4641828536987305</v>
       </c>
       <c r="C495" s="2">
-        <v>1.2060940265655518</v>
+        <v>1.2168742418289185</v>
       </c>
       <c r="D495" s="2">
         <v>1.5713450908660889</v>
       </c>
       <c r="E495" s="2">
-        <v>1.2811118364334107</v>
+        <v>1.292702317237854</v>
       </c>
     </row>
     <row r="496">
@@ -7664,13 +7664,13 @@
         <v>2.1476333141326904</v>
       </c>
       <c r="C496" s="2">
-        <v>1.7409194707870483</v>
+        <v>1.7558867931365967</v>
       </c>
       <c r="D496" s="2">
         <v>1.5555629730224609</v>
       </c>
       <c r="E496" s="2">
-        <v>1.2814993858337402</v>
+        <v>1.2926487922668457</v>
       </c>
     </row>
     <row r="497">
@@ -7681,13 +7681,13 @@
         <v>1.8276228904724121</v>
       </c>
       <c r="C497" s="2">
-        <v>1.4911060333251953</v>
+        <v>1.5045400857925415</v>
       </c>
       <c r="D497" s="2">
         <v>1.5597677230834961</v>
       </c>
       <c r="E497" s="2">
-        <v>1.2668509483337402</v>
+        <v>1.2789932489395142</v>
       </c>
     </row>
     <row r="498">
@@ -7698,13 +7698,13 @@
         <v>1.5931683778762817</v>
       </c>
       <c r="C498" s="2">
-        <v>1.9080344438552857</v>
+        <v>1.9232902526855469</v>
       </c>
       <c r="D498" s="2">
         <v>1.5833245515823364</v>
       </c>
       <c r="E498" s="2">
-        <v>1.2391873598098755</v>
+        <v>1.2518855333328247</v>
       </c>
     </row>
     <row r="499">
@@ -7715,13 +7715,13 @@
         <v>1.8146886825561523</v>
       </c>
       <c r="C499" s="2">
-        <v>1.0325547456741333</v>
+        <v>1.0463711023330688</v>
       </c>
       <c r="D499" s="2">
         <v>1.6908072233200073</v>
       </c>
       <c r="E499" s="2">
-        <v>1.3884265422821045</v>
+        <v>1.4014140367507935</v>
       </c>
     </row>
     <row r="500">
@@ -7732,13 +7732,13 @@
         <v>1.44354248046875</v>
       </c>
       <c r="C500" s="2">
-        <v>1.3501366376876831</v>
+        <v>1.3555984497070313</v>
       </c>
       <c r="D500" s="2">
         <v>1.582015872001648</v>
       </c>
       <c r="E500" s="2">
-        <v>1.361738920211792</v>
+        <v>1.3744860887527466</v>
       </c>
     </row>
     <row r="501">
@@ -7749,13 +7749,13 @@
         <v>1.5455589294433594</v>
       </c>
       <c r="C501" s="2">
-        <v>1.0828711986541748</v>
+        <v>1.1017374992370605</v>
       </c>
       <c r="D501" s="2">
         <v>1.5310840606689453</v>
       </c>
       <c r="E501" s="2">
-        <v>1.3407410383224487</v>
+        <v>1.3526449203491211</v>
       </c>
     </row>
     <row r="502">
@@ -7766,13 +7766,13 @@
         <v>1.5402628183364868</v>
       </c>
       <c r="C502" s="2">
-        <v>0.84610456228256226</v>
+        <v>0.85819691419601441</v>
       </c>
       <c r="D502" s="2">
         <v>1.3925092220306397</v>
       </c>
       <c r="E502" s="2">
-        <v>1.3688422441482544</v>
+        <v>1.3816120624542236</v>
       </c>
     </row>
     <row r="503">
@@ -7783,13 +7783,13 @@
         <v>1.840604305267334</v>
       </c>
       <c r="C503" s="2">
-        <v>1.8380173444747925</v>
+        <v>1.8502311706542969</v>
       </c>
       <c r="D503" s="2">
         <v>1.2746435403823853</v>
       </c>
       <c r="E503" s="2">
-        <v>1.1867810487747192</v>
+        <v>1.1985000371932983</v>
       </c>
     </row>
     <row r="504">
@@ -7800,13 +7800,13 @@
         <v>0.48506104946136475</v>
       </c>
       <c r="C504" s="2">
-        <v>0.96590560674667358</v>
+        <v>0.97452211380004883</v>
       </c>
       <c r="D504" s="2">
         <v>1.3272626399993896</v>
       </c>
       <c r="E504" s="2">
-        <v>1.3211781978607178</v>
+        <v>1.3329222202301025</v>
       </c>
     </row>
     <row r="505">
@@ -7817,13 +7817,13 @@
         <v>1.6892473697662354</v>
       </c>
       <c r="C505" s="2">
-        <v>1.5519392490386963</v>
+        <v>1.5593169927597046</v>
       </c>
       <c r="D505" s="2">
         <v>1.220727801322937</v>
       </c>
       <c r="E505" s="2">
-        <v>1.2388582229614258</v>
+        <v>1.2508959770202637</v>
       </c>
     </row>
     <row r="506">
@@ -7834,13 +7834,13 @@
         <v>0.58044952154159546</v>
       </c>
       <c r="C506" s="2">
-        <v>1.7440159320831299</v>
+        <v>1.7652442455291748</v>
       </c>
       <c r="D506" s="2">
         <v>1.1059097051620483</v>
       </c>
       <c r="E506" s="2">
-        <v>1.1499102115631104</v>
+        <v>1.1612228155136108</v>
       </c>
     </row>
     <row r="507">
@@ -7851,13 +7851,13 @@
         <v>0.53237676620483398</v>
       </c>
       <c r="C507" s="2">
-        <v>0.26948386430740356</v>
+        <v>0.27528136968612671</v>
       </c>
       <c r="D507" s="2">
         <v>0.92085391283035278</v>
       </c>
       <c r="E507" s="2">
-        <v>1.0167351961135864</v>
+        <v>1.0280858278274536</v>
       </c>
     </row>
     <row r="508">
@@ -7868,13 +7868,13 @@
         <v>2.2882609367370605</v>
       </c>
       <c r="C508" s="2">
-        <v>2.242128849029541</v>
+        <v>2.2561712265014649</v>
       </c>
       <c r="D508" s="2">
         <v>0.78365272283554077</v>
       </c>
       <c r="E508" s="2">
-        <v>0.81255316734313965</v>
+        <v>0.8243643045425415</v>
       </c>
     </row>
     <row r="509">
@@ -7885,13 +7885,13 @@
         <v>0.48472899198532104</v>
       </c>
       <c r="C509" s="2">
-        <v>0.60925722122192383</v>
+        <v>0.6173621416091919</v>
       </c>
       <c r="D509" s="2">
         <v>0.82704585790634155</v>
       </c>
       <c r="E509" s="2">
-        <v>0.78168976306915283</v>
+        <v>0.79324406385421753</v>
       </c>
     </row>
     <row r="510">
@@ -7902,13 +7902,13 @@
         <v>0.51219546794891358</v>
       </c>
       <c r="C510" s="2">
-        <v>0.28233912587165833</v>
+        <v>0.29467886686325073</v>
       </c>
       <c r="D510" s="2">
         <v>0.67975717782974243</v>
       </c>
       <c r="E510" s="2">
-        <v>0.62020272016525269</v>
+        <v>0.63234561681747437</v>
       </c>
     </row>
     <row r="511">
@@ -7919,13 +7919,13 @@
         <v>-0.12523932754993439</v>
       </c>
       <c r="C511" s="2">
-        <v>-0.35247001051902771</v>
+        <v>-0.34003570675849915</v>
       </c>
       <c r="D511" s="2">
         <v>0.7368316650390625</v>
       </c>
       <c r="E511" s="2">
-        <v>0.48949709534645081</v>
+        <v>0.50031936168670654</v>
       </c>
     </row>
     <row r="512">
@@ -7936,13 +7936,13 @@
         <v>0.60579395294189453</v>
       </c>
       <c r="C512" s="2">
-        <v>0.00037848064675927162</v>
+        <v>0.016737740486860275</v>
       </c>
       <c r="D512" s="2">
         <v>0.7623942494392395</v>
       </c>
       <c r="E512" s="2">
-        <v>0.53169810771942139</v>
+        <v>0.5425715446472168</v>
       </c>
     </row>
     <row r="513">
@@ -7953,13 +7953,13 @@
         <v>0.87559908628463745</v>
       </c>
       <c r="C513" s="2">
-        <v>0.68813532590866089</v>
+        <v>0.69443947076797485</v>
       </c>
       <c r="D513" s="2">
         <v>0.70471274852752686</v>
       </c>
       <c r="E513" s="2">
-        <v>0.46610486507415771</v>
+        <v>0.47608667612075806</v>
       </c>
     </row>
     <row r="514">
@@ -7970,13 +7970,13 @@
         <v>0.36364918947219849</v>
       </c>
       <c r="C514" s="2">
-        <v>0.098555862903594971</v>
+        <v>0.11123110353946686</v>
       </c>
       <c r="D514" s="2">
         <v>0.75959533452987671</v>
       </c>
       <c r="E514" s="2">
-        <v>0.53572183847427368</v>
+        <v>0.54580754041671753</v>
       </c>
     </row>
     <row r="515">
@@ -7987,13 +7987,13 @@
         <v>1.0941201448440552</v>
       </c>
       <c r="C515" s="2">
-        <v>0.56766515970230103</v>
+        <v>0.57700788974761963</v>
       </c>
       <c r="D515" s="2">
         <v>0.89630365371704102</v>
       </c>
       <c r="E515" s="2">
-        <v>0.68800026178359985</v>
+        <v>0.69727170467376709</v>
       </c>
     </row>
     <row r="516">
@@ -8004,13 +8004,13 @@
         <v>0.76243960857391358</v>
       </c>
       <c r="C516" s="2">
-        <v>0.64929276704788208</v>
+        <v>0.65555131435394287</v>
       </c>
       <c r="D516" s="2">
         <v>1.061773419380188</v>
       </c>
       <c r="E516" s="2">
-        <v>0.87178099155426025</v>
+        <v>0.88028061389923096</v>
       </c>
     </row>
     <row r="517">
@@ -8021,13 +8021,13 @@
         <v>1.769127368927002</v>
       </c>
       <c r="C517" s="2">
-        <v>1.6517899036407471</v>
+        <v>1.6578072309494019</v>
       </c>
       <c r="D517" s="2">
         <v>1.1729536056518555</v>
       </c>
       <c r="E517" s="2">
-        <v>1.0142823457717896</v>
+        <v>1.0229572057723999</v>
       </c>
     </row>
     <row r="518">
@@ -8038,13 +8038,13 @@
         <v>0.97867226600646973</v>
       </c>
       <c r="C518" s="2">
-        <v>1.2358099222183228</v>
+        <v>1.2448498010635376</v>
       </c>
       <c r="D518" s="2">
         <v>1.2141772508621216</v>
       </c>
       <c r="E518" s="2">
-        <v>1.0395426750183106</v>
+        <v>1.0483200550079346</v>
       </c>
     </row>
     <row r="519">
@@ -8055,13 +8055,13 @@
         <v>1.7425705194473267</v>
       </c>
       <c r="C519" s="2">
-        <v>1.652845025062561</v>
+        <v>1.6578563451766968</v>
       </c>
       <c r="D519" s="2">
         <v>1.2767599821090698</v>
       </c>
       <c r="E519" s="2">
-        <v>1.1102784872055054</v>
+        <v>1.1186695098876953</v>
       </c>
     </row>
     <row r="520">
@@ -8072,13 +8072,13 @@
         <v>1.3639882802963257</v>
       </c>
       <c r="C520" s="2">
-        <v>1.3015564680099487</v>
+        <v>1.3070448637008667</v>
       </c>
       <c r="D520" s="2">
         <v>1.2889308929443359</v>
       </c>
       <c r="E520" s="2">
-        <v>1.1735131740570068</v>
+        <v>1.1818242073059082</v>
       </c>
     </row>
     <row r="521">
@@ -8089,13 +8089,13 @@
         <v>1.6064155101776123</v>
       </c>
       <c r="C521" s="2">
-        <v>1.2828910350799561</v>
+        <v>1.3008265495300293</v>
       </c>
       <c r="D521" s="2">
         <v>1.3734084367752075</v>
       </c>
       <c r="E521" s="2">
-        <v>1.2630023956298828</v>
+        <v>1.2709740400314331</v>
       </c>
     </row>
     <row r="522">
@@ -8106,13 +8106,13 @@
         <v>1.246612548828125</v>
       </c>
       <c r="C522" s="2">
-        <v>0.91547781229019165</v>
+        <v>0.92270499467849731</v>
       </c>
       <c r="D522" s="2">
         <v>1.2505203485488892</v>
       </c>
       <c r="E522" s="2">
-        <v>1.0794780254364014</v>
+        <v>1.0878300666809082</v>
       </c>
     </row>
     <row r="523">
@@ -8123,13 +8123,13 @@
         <v>0.92689377069473267</v>
       </c>
       <c r="C523" s="2">
-        <v>0.73517870903015137</v>
+        <v>0.74437671899795532</v>
       </c>
       <c r="D523" s="2">
         <v>1.2303059101104736</v>
       </c>
       <c r="E523" s="2">
-        <v>1.0273553133010864</v>
+        <v>1.0355280637741089</v>
       </c>
     </row>
     <row r="524">
@@ -8140,13 +8140,13 @@
         <v>1.2036579847335816</v>
       </c>
       <c r="C524" s="2">
-        <v>1.1367765665054321</v>
+        <v>1.1454001665115357</v>
       </c>
       <c r="D524" s="2">
         <v>1.1386046409606934</v>
       </c>
       <c r="E524" s="2">
-        <v>0.94022434949874878</v>
+        <v>0.94885122776031494</v>
       </c>
     </row>
     <row r="525">
@@ -8157,13 +8157,13 @@
         <v>1.522737979888916</v>
       </c>
       <c r="C525" s="2">
-        <v>1.4546957015991211</v>
+        <v>1.4578996896743775</v>
       </c>
       <c r="D525" s="2">
         <v>1.1521434783935547</v>
       </c>
       <c r="E525" s="2">
-        <v>0.94964456558227539</v>
+        <v>0.9584762454032898</v>
       </c>
     </row>
     <row r="526">
@@ -8174,13 +8174,13 @@
         <v>0.66313391923904419</v>
       </c>
       <c r="C526" s="2">
-        <v>7.0458147092722356e-05</v>
+        <v>0.0095117446035146713</v>
       </c>
       <c r="D526" s="2">
         <v>1.0906450748443604</v>
       </c>
       <c r="E526" s="2">
-        <v>0.91175913810729981</v>
+        <v>0.91920524835586548</v>
       </c>
     </row>
     <row r="527">
@@ -8191,13 +8191,13 @@
         <v>0.79674267768859863</v>
       </c>
       <c r="C527" s="2">
-        <v>0.76670646667480469</v>
+        <v>0.774131178855896</v>
       </c>
       <c r="D527" s="2">
         <v>1.0088629722595215</v>
       </c>
       <c r="E527" s="2">
-        <v>0.85004311800003052</v>
+        <v>0.85658740997314453</v>
       </c>
     </row>
     <row r="528">
@@ -8208,13 +8208,13 @@
         <v>0.91725945472717285</v>
       </c>
       <c r="C528" s="2">
-        <v>0.86866599321365356</v>
+        <v>0.87776511907577515</v>
       </c>
       <c r="D528" s="2">
         <v>1.046733021736145</v>
       </c>
       <c r="E528" s="2">
-        <v>0.87776052951812744</v>
+        <v>0.88405340909957886</v>
       </c>
     </row>
     <row r="529">
@@ -8225,13 +8225,13 @@
         <v>1.4858369827270508</v>
       </c>
       <c r="C529" s="2">
-        <v>1.3863385915756226</v>
+        <v>1.3936699628829956</v>
       </c>
       <c r="D529" s="2">
         <v>1.0142475366592407</v>
       </c>
       <c r="E529" s="2">
-        <v>0.8387610912322998</v>
+        <v>0.84445363283157349</v>
       </c>
     </row>
     <row r="530">
@@ -8242,13 +8242,13 @@
         <v>1.0529301166534424</v>
       </c>
       <c r="C530" s="2">
-        <v>0.94192183017730713</v>
+        <v>0.94738757610321045</v>
       </c>
       <c r="D530" s="2">
         <v>0.83614379167556763</v>
       </c>
       <c r="E530" s="2">
-        <v>0.66354537010192871</v>
+        <v>0.66958779096603394</v>
       </c>
     </row>
     <row r="531">
@@ -8259,13 +8259,13 @@
         <v>0.51057350635528564</v>
       </c>
       <c r="C531" s="2">
-        <v>0.36003348231315613</v>
+        <v>0.35914433002471924</v>
       </c>
       <c r="D531" s="2">
         <v>0.77653384208679199</v>
       </c>
       <c r="E531" s="2">
-        <v>0.68037497997283936</v>
+        <v>0.68609446287155151</v>
       </c>
     </row>
     <row r="532">
@@ -8276,13 +8276,13 @@
         <v>1.2677242755889893</v>
       </c>
       <c r="C532" s="2">
-        <v>0.98463565111160278</v>
+        <v>0.99157106876373291</v>
       </c>
       <c r="D532" s="2">
         <v>0.72515815496444702</v>
       </c>
       <c r="E532" s="2">
-        <v>0.62587094306945801</v>
+        <v>0.63117420673370361</v>
       </c>
     </row>
     <row r="533">
@@ -8293,13 +8293,13 @@
         <v>0.91128849983215332</v>
       </c>
       <c r="C533" s="2">
-        <v>0.78578150272369385</v>
+        <v>0.78900188207626343</v>
       </c>
       <c r="D533" s="2">
         <v>0.69402062892913818</v>
       </c>
       <c r="E533" s="2">
-        <v>0.63208162784576416</v>
+        <v>0.63717252016067505</v>
       </c>
     </row>
     <row r="534">
@@ -8310,13 +8310,13 @@
         <v>-0.080195508897304535</v>
       </c>
       <c r="C534" s="2">
-        <v>-0.12224552780389786</v>
+        <v>-0.11589282751083374</v>
       </c>
       <c r="D534" s="2">
         <v>0.56051582098007202</v>
       </c>
       <c r="E534" s="2">
-        <v>0.4835907518863678</v>
+        <v>0.48920705914497376</v>
       </c>
     </row>
     <row r="535">
@@ -8327,13 +8327,13 @@
         <v>0.12664449214935303</v>
       </c>
       <c r="C535" s="2">
-        <v>0.15153659880161286</v>
+        <v>0.15807183086872101</v>
       </c>
       <c r="D535" s="2">
         <v>0.50359535217285156</v>
       </c>
       <c r="E535" s="2">
-        <v>0.42389276623725891</v>
+        <v>0.42922762036323547</v>
       </c>
     </row>
     <row r="536">
@@ -8344,13 +8344,13 @@
         <v>0.33436131477355957</v>
       </c>
       <c r="C536" s="2">
-        <v>0.27617040276527405</v>
+        <v>0.27984890341758728</v>
       </c>
       <c r="D536" s="2">
         <v>0.46786314249038696</v>
       </c>
       <c r="E536" s="2">
-        <v>0.39813262224197388</v>
+        <v>0.40409395098686218</v>
       </c>
     </row>
     <row r="537">
@@ -8361,13 +8361,13 @@
         <v>0.63702201843261719</v>
       </c>
       <c r="C537" s="2">
-        <v>0.92456197738647461</v>
+        <v>0.93175017833709717</v>
       </c>
       <c r="D537" s="2">
         <v>0.45421925187110901</v>
       </c>
       <c r="E537" s="2">
-        <v>0.39135321974754334</v>
+        <v>0.3973766565322876</v>
       </c>
     </row>
     <row r="538">
@@ -8378,13 +8378,13 @@
         <v>0.28429388999938965</v>
       </c>
       <c r="C538" s="2">
-        <v>0.049920927733182907</v>
+        <v>0.061980612576007843</v>
       </c>
       <c r="D538" s="2">
         <v>0.41505885124206543</v>
       </c>
       <c r="E538" s="2">
-        <v>0.34568768739700317</v>
+        <v>0.3522602915763855</v>
       </c>
     </row>
     <row r="539">
@@ -8395,13 +8395,13 @@
         <v>0.54064565896987915</v>
       </c>
       <c r="C539" s="2">
-        <v>0.4046398401260376</v>
+        <v>0.40757265686988831</v>
       </c>
       <c r="D539" s="2">
         <v>0.49498873949050903</v>
       </c>
       <c r="E539" s="2">
-        <v>0.39871934056282043</v>
+        <v>0.40496924519538879</v>
       </c>
     </row>
     <row r="540">
@@ -8412,13 +8412,13 @@
         <v>0.18898358941078186</v>
       </c>
       <c r="C540" s="2">
-        <v>0.12819227576255798</v>
+        <v>0.13294133543968201</v>
       </c>
       <c r="D540" s="2">
         <v>0.40869230031967163</v>
       </c>
       <c r="E540" s="2">
-        <v>0.27605625987052918</v>
+        <v>0.28282111883163452</v>
       </c>
     </row>
     <row r="541">
@@ -8429,13 +8429,13 @@
         <v>1.1449294090270996</v>
       </c>
       <c r="C541" s="2">
-        <v>0.92362087965011597</v>
+        <v>0.93111526966094971</v>
       </c>
       <c r="D541" s="2">
         <v>0.41527491807937622</v>
       </c>
       <c r="E541" s="2">
-        <v>0.28023701906204224</v>
+        <v>0.28684514760971069</v>
       </c>
     </row>
     <row r="542">
@@ -8446,13 +8446,13 @@
         <v>0.55884474515914917</v>
       </c>
       <c r="C542" s="2">
-        <v>0.3747917115688324</v>
+        <v>0.38295459747314453</v>
       </c>
       <c r="D542" s="2">
         <v>0.33494687080383301</v>
       </c>
       <c r="E542" s="2">
-        <v>0.13499988615512848</v>
+        <v>0.14209523797035217</v>
       </c>
     </row>
     <row r="543">
@@ -8463,13 +8463,13 @@
         <v>0.63917356729507446</v>
       </c>
       <c r="C543" s="2">
-        <v>0.35503947734832764</v>
+        <v>0.35848772525787354</v>
       </c>
       <c r="D543" s="2">
         <v>0.4273969829082489</v>
       </c>
       <c r="E543" s="2">
-        <v>0.22804677486419678</v>
+        <v>0.23489028215408325</v>
       </c>
     </row>
     <row r="544">
@@ -8480,13 +8480,13 @@
         <v>-0.65002357959747315</v>
       </c>
       <c r="C544" s="2">
-        <v>-0.95243102312088013</v>
+        <v>-0.9412611722946167</v>
       </c>
       <c r="D544" s="2">
         <v>0.43956440687179565</v>
       </c>
       <c r="E544" s="2">
-        <v>0.24269476532936096</v>
+        <v>0.25023543834686279</v>
       </c>
     </row>
     <row r="545">
@@ -8497,13 +8497,13 @@
         <v>0.39360508322715759</v>
       </c>
       <c r="C545" s="2">
-        <v>0.31379711627960205</v>
+        <v>0.31606516242027283</v>
       </c>
       <c r="D545" s="2">
         <v>0.53639215230941773</v>
       </c>
       <c r="E545" s="2">
-        <v>0.33550459146499634</v>
+        <v>0.34313160181045532</v>
       </c>
     </row>
     <row r="546">
@@ -8514,13 +8514,13 @@
         <v>-0.085930615663528442</v>
       </c>
       <c r="C546" s="2">
-        <v>-0.38257226347923279</v>
+        <v>-0.37099909782409668</v>
       </c>
       <c r="D546" s="2">
         <v>0.46091747283935547</v>
       </c>
       <c r="E546" s="2">
-        <v>0.25913387537002563</v>
+        <v>0.26740604639053345</v>
       </c>
     </row>
     <row r="547">
@@ -8531,13 +8531,13 @@
         <v>1.1163449287414551</v>
       </c>
       <c r="C547" s="2">
-        <v>0.88734292984008789</v>
+        <v>0.89713603258132935</v>
       </c>
       <c r="D547" s="2">
         <v>0.50878143310546875</v>
       </c>
       <c r="E547" s="2">
-        <v>0.31328240036964417</v>
+        <v>0.32138210535049439</v>
       </c>
     </row>
     <row r="548">
@@ -8548,13 +8548,13 @@
         <v>0.65015262365341187</v>
       </c>
       <c r="C548" s="2">
-        <v>0.53647178411483765</v>
+        <v>0.54567915201187134</v>
       </c>
       <c r="D548" s="2">
         <v>0.40871143341064453</v>
       </c>
       <c r="E548" s="2">
-        <v>0.23147925734519958</v>
+        <v>0.23961034417152405</v>
       </c>
     </row>
     <row r="549">
@@ -8565,13 +8565,13 @@
         <v>1.0604333877563477</v>
       </c>
       <c r="C549" s="2">
-        <v>0.96348065137863159</v>
+        <v>0.96900677680969238</v>
       </c>
       <c r="D549" s="2">
         <v>0.6099013090133667</v>
       </c>
       <c r="E549" s="2">
-        <v>0.46299177408218384</v>
+        <v>0.47083234786987305</v>
       </c>
     </row>
     <row r="550">
@@ -8582,13 +8582,13 @@
         <v>0.46565708518028259</v>
       </c>
       <c r="C550" s="2">
-        <v>0.23628456890583038</v>
+        <v>0.24958515167236328</v>
       </c>
       <c r="D550" s="2">
         <v>0.61072266101837158</v>
       </c>
       <c r="E550" s="2">
-        <v>0.44854894280433655</v>
+        <v>0.45702505111694336</v>
       </c>
     </row>
     <row r="551">
@@ -8599,13 +8599,13 @@
         <v>0.9896206259727478</v>
       </c>
       <c r="C551" s="2">
-        <v>0.86212843656539917</v>
+        <v>0.8687393069267273</v>
       </c>
       <c r="D551" s="2">
         <v>0.67664581537246704</v>
       </c>
       <c r="E551" s="2">
-        <v>0.51141244173049927</v>
+        <v>0.52021664381027222</v>
       </c>
     </row>
     <row r="552">
@@ -8616,13 +8616,13 @@
         <v>-0.26145666837692261</v>
       </c>
       <c r="C552" s="2">
-        <v>-0.38118892908096314</v>
+        <v>-0.37745824456214905</v>
       </c>
       <c r="D552" s="2">
         <v>0.62712156772613525</v>
       </c>
       <c r="E552" s="2">
-        <v>0.43355506658554077</v>
+        <v>0.44243618845939636</v>
       </c>
     </row>
     <row r="553">
@@ -8633,13 +8633,13 @@
         <v>1.1606854200363159</v>
       </c>
       <c r="C553" s="2">
-        <v>1.1311817169189453</v>
+        <v>1.1397370100021362</v>
       </c>
       <c r="D553" s="2">
         <v>0.73670518398284912</v>
       </c>
       <c r="E553" s="2">
-        <v>0.5063050389289856</v>
+        <v>0.51536726951599121</v>
       </c>
     </row>
     <row r="554">
@@ -8650,13 +8650,13 @@
         <v>0.40099701285362244</v>
       </c>
       <c r="C554" s="2">
-        <v>0.18381170928478241</v>
+        <v>0.19179946184158325</v>
       </c>
       <c r="D554" s="2">
         <v>0.73783719539642334</v>
       </c>
       <c r="E554" s="2">
-        <v>0.47439676523208618</v>
+        <v>0.48358312249183655</v>
       </c>
     </row>
     <row r="555">
@@ -8667,13 +8667,13 @@
         <v>0.5073779821395874</v>
       </c>
       <c r="C555" s="2">
-        <v>0.18319901823997498</v>
+        <v>0.19772499799728394</v>
       </c>
       <c r="D555" s="2">
         <v>0.80832421779632568</v>
       </c>
       <c r="E555" s="2">
-        <v>0.56704235076904297</v>
+        <v>0.57521581649780274</v>
       </c>
     </row>
     <row r="556">
@@ -8684,13 +8684,13 @@
         <v>0.67062681913375855</v>
       </c>
       <c r="C556" s="2">
-        <v>0.18662656843662262</v>
+        <v>0.19711220264434815</v>
       </c>
       <c r="D556" s="2">
         <v>0.77289730310440064</v>
       </c>
       <c r="E556" s="2">
-        <v>0.55045217275619507</v>
+        <v>0.55860710144042969</v>
       </c>
     </row>
     <row r="557">
@@ -8701,13 +8701,13 @@
         <v>1.6364049911499024</v>
       </c>
       <c r="C557" s="2">
-        <v>1.1912217140197754</v>
+        <v>1.2020586729049683</v>
       </c>
       <c r="D557" s="2">
         <v>0.89671725034713745</v>
       </c>
       <c r="E557" s="2">
-        <v>0.67782402038574219</v>
+        <v>0.68638420104980469</v>
       </c>
     </row>
     <row r="558">
@@ -8718,13 +8718,13 @@
         <v>1.0706217288970947</v>
       </c>
       <c r="C558" s="2">
-        <v>0.67630606889724732</v>
+        <v>0.68294954299926758</v>
       </c>
       <c r="D558" s="2">
-        <v>0.86372119188308716</v>
+        <v>0.88952189683914185</v>
       </c>
       <c r="E558" s="2">
-        <v>0.6211543083190918</v>
+        <v>0.67292517423629761</v>
       </c>
     </row>
     <row r="559">
@@ -8735,13 +8735,13 @@
         <v>1.1000403165817261</v>
       </c>
       <c r="C559" s="2">
-        <v>1.0700947046279907</v>
+        <v>1.0742791891098022</v>
       </c>
       <c r="D559" s="2">
-        <v>0.92982465028762817</v>
+        <v>0.84726071357727051</v>
       </c>
       <c r="E559" s="2">
-        <v>0.68363183736801148</v>
+        <v>0.64061528444290161</v>
       </c>
     </row>
     <row r="560">
@@ -8752,13 +8752,13 @@
         <v>0.67077797651290894</v>
       </c>
       <c r="C560" s="2">
-        <v>0.71281695365905762</v>
+        <v>0.71926110982894898</v>
       </c>
       <c r="D560" s="2">
-        <v>1.000232458114624</v>
+        <v>0.7837490439414978</v>
       </c>
       <c r="E560" s="2">
-        <v>0.76703733205795288</v>
+        <v>0.57513809204101563</v>
       </c>
     </row>
     <row r="561">
@@ -8769,13 +8769,115 @@
         <v>0.85292279720306396</v>
       </c>
       <c r="C561" s="2">
-        <v>0.76515793800354004</v>
+        <v>0.77253586053848267</v>
       </c>
       <c r="D561" s="2">
-        <v>1.0661535263061523</v>
+        <v>0.67326205968856812</v>
       </c>
       <c r="E561" s="2">
-        <v>0.88311946392059326</v>
+        <v>0.50961750745773316</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B562" s="2">
+        <v>1.0959274768829346</v>
+      </c>
+      <c r="C562" s="2">
+        <v>1.0186053514480591</v>
+      </c>
+      <c r="D562" s="2">
+        <v>0.50624662637710571</v>
+      </c>
+      <c r="E562" s="2">
+        <v>0.38508680462837219</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B563" s="2">
+        <v>0.020646169781684876</v>
+      </c>
+      <c r="C563" s="2">
+        <v>-0.098989143967628479</v>
+      </c>
+      <c r="D563" s="2">
+        <v>0.36946046352386475</v>
+      </c>
+      <c r="E563" s="2">
+        <v>0.27917739748954773</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B564" s="2">
+        <v>-0.064226895570755005</v>
+      </c>
+      <c r="C564" s="2">
+        <v>-0.39156979322433472</v>
+      </c>
+      <c r="D564" s="2">
+        <v>0.27813798189163208</v>
+      </c>
+      <c r="E564" s="2">
+        <v>0.17978967726230621</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B565" s="2">
+        <v>-0.32375618815422058</v>
+      </c>
+      <c r="C565" s="2">
+        <v>-0.39257341623306274</v>
+      </c>
+      <c r="D565" s="2">
+        <v>0.22204653918743134</v>
+      </c>
+      <c r="E565" s="2">
+        <v>0.10272233188152313</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B566" s="2">
+        <v>0.1332661360502243</v>
+      </c>
+      <c r="C566" s="2">
+        <v>0.081282541155815125</v>
+      </c>
+      <c r="D566" s="2">
+        <v>0.11690050363540649</v>
+      </c>
+      <c r="E566" s="2">
+        <v>-0.0089132590219378471</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B567" s="2">
+        <v>-0.1604536771774292</v>
+      </c>
+      <c r="C567" s="2">
+        <v>-0.2702350914478302</v>
+      </c>
+      <c r="D567" s="2">
+        <v>-0.078904889523983002</v>
+      </c>
+      <c r="E567" s="2">
+        <v>-0.2144169807434082</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_skewness_lt.xlsx
+++ b/MSC_skewness_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E567"/>
+  <dimension ref="A1:E569"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -220,16 +220,16 @@
         <v>28887</v>
       </c>
       <c r="B15" s="2">
-        <v>0.48721683025360108</v>
+        <v>0.48721683025360107</v>
       </c>
       <c r="C15" s="2">
-        <v>0.40786582231521606</v>
+        <v>0.4073021411895752</v>
       </c>
       <c r="D15" s="2">
-        <v>0.48721683025360108</v>
+        <v>0.48721683025360107</v>
       </c>
       <c r="E15" s="2">
-        <v>0.40786582231521606</v>
+        <v>0.4073021411895752</v>
       </c>
     </row>
     <row r="16">
@@ -339,13 +339,13 @@
         <v>-0.79306507110595703</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.83616673946380615</v>
+        <v>-0.83650583028793335</v>
       </c>
       <c r="D27" s="2">
         <v>-0.79306507110595703</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.83616673946380615</v>
+        <v>-0.83650583028793335</v>
       </c>
     </row>
     <row r="28">
@@ -401,13 +401,13 @@
         <v>-0.22174668312072754</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.23349013924598694</v>
+        <v>-0.23377403616905212</v>
       </c>
       <c r="D33" s="2">
         <v>-0.33302110433578491</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.3273259699344635</v>
+        <v>-0.32764306664466858</v>
       </c>
     </row>
     <row r="34">
@@ -418,13 +418,13 @@
         <v>-0.44429555535316467</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.42116180062294006</v>
+        <v>-0.42151209712028503</v>
       </c>
       <c r="D34" s="2">
         <v>-0.3046528697013855</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.29710811376571655</v>
+        <v>-0.29747381806373596</v>
       </c>
     </row>
     <row r="35">
@@ -462,13 +462,13 @@
         <v>-0.24791635572910309</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.23667243123054504</v>
+        <v>-0.23713533580303192</v>
       </c>
       <c r="D38" s="2">
         <v>-0.31482520699501038</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.28066167235374451</v>
+        <v>-0.28103885054588318</v>
       </c>
     </row>
     <row r="39">
@@ -479,13 +479,13 @@
         <v>-0.15508043766021729</v>
       </c>
       <c r="C39" s="2">
-        <v>0.0047569978050887585</v>
+        <v>0.0043082665652036667</v>
       </c>
       <c r="D39" s="2">
         <v>-0.27166840434074402</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.23382827639579773</v>
+        <v>-0.23421443998813629</v>
       </c>
     </row>
     <row r="40">
@@ -496,13 +496,13 @@
         <v>-0.41200843453407288</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.46956941485404968</v>
+        <v>-0.46981623768806458</v>
       </c>
       <c r="D40" s="2">
         <v>-0.32901236414909363</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.31101706624031067</v>
+        <v>-0.31137335300445557</v>
       </c>
     </row>
     <row r="41">
@@ -540,13 +540,13 @@
         <v>-0.50104427337646484</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.5425834059715271</v>
+        <v>-0.54285013675689697</v>
       </c>
       <c r="D44" s="2">
         <v>-0.24545113742351532</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.29814961552619934</v>
+        <v>-0.2985624372959137</v>
       </c>
     </row>
     <row r="45">
@@ -557,13 +557,13 @@
         <v>0.075489185750484467</v>
       </c>
       <c r="C45" s="2">
-        <v>0.010558151639997959</v>
+        <v>0.010060127824544907</v>
       </c>
       <c r="D45" s="2">
         <v>-0.18993203341960907</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.24100968241691589</v>
+        <v>-0.2414778470993042</v>
       </c>
     </row>
     <row r="46">
@@ -574,13 +574,13 @@
         <v>-0.14424102008342743</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.19100378453731537</v>
+        <v>-0.19164355099201202</v>
       </c>
       <c r="D46" s="2">
         <v>-0.18249821662902832</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.23567007482051849</v>
+        <v>-0.23623974621295929</v>
       </c>
     </row>
     <row r="47">
@@ -618,13 +618,13 @@
         <v>-0.16019675135612488</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.21965125203132629</v>
+        <v>-0.22052544355392456</v>
       </c>
       <c r="D50" s="2">
         <v>-0.09411485493183136</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.13759995996952057</v>
+        <v>-0.13831205666065216</v>
       </c>
     </row>
     <row r="51">
@@ -632,16 +632,16 @@
         <v>29983</v>
       </c>
       <c r="B51" s="2">
-        <v>0.17857199907302857</v>
+        <v>0.17857199907302856</v>
       </c>
       <c r="C51" s="2">
-        <v>0.11848621815443039</v>
+        <v>0.11774870753288269</v>
       </c>
       <c r="D51" s="2">
-        <v>-0.077406130731105805</v>
+        <v>-0.077406130731105804</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.1197986826300621</v>
+        <v>-0.12053489685058594</v>
       </c>
     </row>
     <row r="52">
@@ -652,13 +652,13 @@
         <v>-0.2505936324596405</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.25823101401329041</v>
+        <v>-0.25882795453071594</v>
       </c>
       <c r="D52" s="2">
         <v>-0.093132704496383667</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.13010188937187195</v>
+        <v>-0.13068999350070953</v>
       </c>
     </row>
     <row r="53">
@@ -696,13 +696,13 @@
         <v>-0.14031241834163666</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.16101148724555969</v>
+        <v>-0.16115526854991913</v>
       </c>
       <c r="D56" s="2">
         <v>-0.23431406915187836</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.24236033856868744</v>
+        <v>-0.24283106625080109</v>
       </c>
     </row>
     <row r="57">
@@ -713,13 +713,13 @@
         <v>-0.11747535318136215</v>
       </c>
       <c r="C57" s="2">
-        <v>-0.1859171986579895</v>
+        <v>-0.18652364611625671</v>
       </c>
       <c r="D57" s="2">
         <v>-0.22888755798339844</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.23707011342048645</v>
+        <v>-0.23749877512454987</v>
       </c>
     </row>
     <row r="58">
@@ -730,13 +730,13 @@
         <v>-0.42887488007545471</v>
       </c>
       <c r="C58" s="2">
-        <v>-0.36428165435791016</v>
+        <v>-0.36481741070747375</v>
       </c>
       <c r="D58" s="2">
         <v>-0.25738048553466797</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.26794621348381043</v>
+        <v>-0.26828578114509583</v>
       </c>
     </row>
     <row r="59">
@@ -774,13 +774,13 @@
         <v>-0.34285926818847656</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.36057448387145996</v>
+        <v>-0.3606468141078949</v>
       </c>
       <c r="D62" s="2">
         <v>-0.1554538905620575</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.10516820847988129</v>
+        <v>-0.1054404079914093</v>
       </c>
     </row>
     <row r="63">
@@ -791,13 +791,13 @@
         <v>0.047747939825057983</v>
       </c>
       <c r="C63" s="2">
-        <v>0.15921950340270996</v>
+        <v>0.15900245308876038</v>
       </c>
       <c r="D63" s="2">
         <v>-0.064313560724258423</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.01879706047475338</v>
+        <v>-0.018981402739882469</v>
       </c>
     </row>
     <row r="64">
@@ -808,13 +808,13 @@
         <v>0.10217063874006271</v>
       </c>
       <c r="C64" s="2">
-        <v>0.14496380090713501</v>
+        <v>0.14470015466213226</v>
       </c>
       <c r="D64" s="2">
         <v>-0.033212229609489441</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.010880938731133938</v>
+        <v>-0.011190880089998245</v>
       </c>
     </row>
     <row r="65">
@@ -852,13 +852,13 @@
         <v>0.060091778635978699</v>
       </c>
       <c r="C68" s="2">
-        <v>0.012867423705756664</v>
+        <v>0.012180687859654427</v>
       </c>
       <c r="D68" s="2">
         <v>0.17404548823833466</v>
       </c>
       <c r="E68" s="2">
-        <v>0.15001824498176575</v>
+        <v>0.14926931262016296</v>
       </c>
     </row>
     <row r="69">
@@ -869,13 +869,13 @@
         <v>0.84347176551818848</v>
       </c>
       <c r="C69" s="2">
-        <v>0.79658985137939453</v>
+        <v>0.79569447040557861</v>
       </c>
       <c r="D69" s="2">
         <v>0.19800376892089844</v>
       </c>
       <c r="E69" s="2">
-        <v>0.15170304477214813</v>
+        <v>0.15079236030578613</v>
       </c>
     </row>
     <row r="70">
@@ -886,13 +886,13 @@
         <v>-0.30955222249031067</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.35434812307357788</v>
+        <v>-0.35549807548522949</v>
       </c>
       <c r="D70" s="2">
         <v>0.247781902551651</v>
       </c>
       <c r="E70" s="2">
-        <v>0.19548062980175018</v>
+        <v>0.19468580186367035</v>
       </c>
     </row>
     <row r="71">
@@ -930,13 +930,13 @@
         <v>0.3971162736415863</v>
       </c>
       <c r="C74" s="2">
-        <v>0.32681336998939514</v>
+        <v>0.326366126537323</v>
       </c>
       <c r="D74" s="2">
-        <v>0.33261632919311524</v>
+        <v>0.33261632919311523</v>
       </c>
       <c r="E74" s="2">
-        <v>0.28512552380561829</v>
+        <v>0.28426381945610046</v>
       </c>
     </row>
     <row r="75">
@@ -944,16 +944,16 @@
         <v>30713</v>
       </c>
       <c r="B75" s="2">
-        <v>0.66018062829971314</v>
+        <v>0.66018062829971313</v>
       </c>
       <c r="C75" s="2">
-        <v>0.61587446928024292</v>
+        <v>0.61486893892288208</v>
       </c>
       <c r="D75" s="2">
         <v>0.54667246341705322</v>
       </c>
       <c r="E75" s="2">
-        <v>0.49828338623046875</v>
+        <v>0.49751779437065125</v>
       </c>
     </row>
     <row r="76">
@@ -964,13 +964,13 @@
         <v>0.58272057771682739</v>
       </c>
       <c r="C76" s="2">
-        <v>0.55216234922409058</v>
+        <v>0.55131828784942627</v>
       </c>
       <c r="D76" s="2">
         <v>0.41343611478805542</v>
       </c>
       <c r="E76" s="2">
-        <v>0.36417374014854431</v>
+        <v>0.36352059245109558</v>
       </c>
     </row>
     <row r="77">
@@ -1008,13 +1008,13 @@
         <v>0.013726954348385334</v>
       </c>
       <c r="C80" s="2">
-        <v>-0.03815528005361557</v>
+        <v>-0.038470935076475143</v>
       </c>
       <c r="D80" s="2">
         <v>0.60395681858062744</v>
       </c>
       <c r="E80" s="2">
-        <v>0.56791555881500244</v>
+        <v>0.5672488808631897</v>
       </c>
     </row>
     <row r="81">
@@ -1025,13 +1025,13 @@
         <v>0.91950523853302002</v>
       </c>
       <c r="C81" s="2">
-        <v>0.8881070613861084</v>
+        <v>0.88710570335388184</v>
       </c>
       <c r="D81" s="2">
         <v>0.61103558540344238</v>
       </c>
       <c r="E81" s="2">
-        <v>0.57316660881042481</v>
+        <v>0.57255911827087402</v>
       </c>
     </row>
     <row r="82">
@@ -1042,13 +1042,13 @@
         <v>0.89987456798553467</v>
       </c>
       <c r="C82" s="2">
-        <v>0.86954808235168457</v>
+        <v>0.86904257535934448</v>
       </c>
       <c r="D82" s="2">
         <v>0.57460242509841919</v>
       </c>
       <c r="E82" s="2">
-        <v>0.52133846282958984</v>
+        <v>0.52065658569335938</v>
       </c>
     </row>
     <row r="83">
@@ -1086,13 +1086,13 @@
         <v>0.46530294418334961</v>
       </c>
       <c r="C86" s="2">
-        <v>0.36585408449172974</v>
+        <v>0.36494904756546021</v>
       </c>
       <c r="D86" s="2">
         <v>0.37695962190628052</v>
       </c>
       <c r="E86" s="2">
-        <v>0.38178560137748718</v>
+        <v>0.38106486201286316</v>
       </c>
     </row>
     <row r="87">
@@ -1103,13 +1103,13 @@
         <v>0.10031627863645554</v>
       </c>
       <c r="C87" s="2">
-        <v>0.27968645095825195</v>
+        <v>0.27869310975074768</v>
       </c>
       <c r="D87" s="2">
-        <v>0.20265462994575501</v>
+        <v>0.202654629945755</v>
       </c>
       <c r="E87" s="2">
-        <v>0.21919809281826019</v>
+        <v>0.21840560436248779</v>
       </c>
     </row>
     <row r="88">
@@ -1120,13 +1120,13 @@
         <v>0.042344652116298676</v>
       </c>
       <c r="C88" s="2">
-        <v>0.012053734622895718</v>
+        <v>0.011574678122997284</v>
       </c>
       <c r="D88" s="2">
         <v>0.32980158925056458</v>
       </c>
       <c r="E88" s="2">
-        <v>0.3264714777469635</v>
+        <v>0.32569882273674011</v>
       </c>
     </row>
     <row r="89">
@@ -1164,13 +1164,13 @@
         <v>0.71124249696731567</v>
       </c>
       <c r="C92" s="2">
-        <v>0.64829158782958984</v>
+        <v>0.64757841825485229</v>
       </c>
       <c r="D92" s="2">
         <v>0.53669047355651855</v>
       </c>
       <c r="E92" s="2">
-        <v>0.49748003482818604</v>
+        <v>0.49696403741836548</v>
       </c>
     </row>
     <row r="93">
@@ -1181,13 +1181,13 @@
         <v>0.80356293916702271</v>
       </c>
       <c r="C93" s="2">
-        <v>0.7872241735458374</v>
+        <v>0.78683966398239136</v>
       </c>
       <c r="D93" s="2">
         <v>0.70147240161895752</v>
       </c>
       <c r="E93" s="2">
-        <v>0.65928876399993896</v>
+        <v>0.65876048803329468</v>
       </c>
     </row>
     <row r="94">
@@ -1198,13 +1198,13 @@
         <v>0.58961182832717896</v>
       </c>
       <c r="C94" s="2">
-        <v>0.54235059022903442</v>
+        <v>0.54186344146728516</v>
       </c>
       <c r="D94" s="2">
         <v>0.70147240161895752</v>
       </c>
       <c r="E94" s="2">
-        <v>0.65928876399993896</v>
+        <v>0.65876048803329468</v>
       </c>
     </row>
     <row r="95">
@@ -1260,13 +1260,13 @@
         <v>0.14898569881916046</v>
       </c>
       <c r="C100" s="2">
-        <v>0.63588368892669678</v>
+        <v>0.63549858331680298</v>
       </c>
       <c r="D100" s="2">
         <v>0.73300236463546753</v>
       </c>
       <c r="E100" s="2">
-        <v>1.1129212379455566</v>
+        <v>1.1129164695739746</v>
       </c>
     </row>
     <row r="101">
@@ -1295,13 +1295,13 @@
         <v>1.317018985748291</v>
       </c>
       <c r="C103" s="2">
-        <v>1.5899589061737061</v>
+        <v>1.590334415435791</v>
       </c>
       <c r="D103" s="2">
         <v>0.93625760078430176</v>
       </c>
       <c r="E103" s="2">
-        <v>1.1742295026779175</v>
+        <v>1.1739858388900757</v>
       </c>
     </row>
     <row r="104">
@@ -1330,13 +1330,13 @@
         <v>1.3427680730819702</v>
       </c>
       <c r="C106" s="2">
-        <v>1.2968459129333496</v>
+        <v>1.2961245775222778</v>
       </c>
       <c r="D106" s="2">
         <v>1.0980263948440552</v>
       </c>
       <c r="E106" s="2">
-        <v>1.1930932998657227</v>
+        <v>1.1929287910461426</v>
       </c>
     </row>
     <row r="107">
@@ -1365,13 +1365,13 @@
         <v>0.63429200649261475</v>
       </c>
       <c r="C109" s="2">
-        <v>0.69247525930404663</v>
+        <v>0.69232732057571411</v>
       </c>
       <c r="D109" s="2">
         <v>0.90486323833465576</v>
       </c>
       <c r="E109" s="2">
-        <v>0.94704389572143555</v>
+        <v>0.94614744186401367</v>
       </c>
     </row>
     <row r="110">
@@ -1400,13 +1400,13 @@
         <v>0.7375296950340271</v>
       </c>
       <c r="C112" s="2">
-        <v>0.85181045532226563</v>
+        <v>0.8499903678894043</v>
       </c>
       <c r="D112" s="2">
         <v>0.62356847524642944</v>
       </c>
       <c r="E112" s="2">
-        <v>0.64844739437103271</v>
+        <v>0.64742404222488403</v>
       </c>
     </row>
     <row r="113">
@@ -1435,13 +1435,13 @@
         <v>0.49888375401496887</v>
       </c>
       <c r="C115" s="2">
-        <v>0.40105640888214111</v>
+        <v>0.39995446801185608</v>
       </c>
       <c r="D115" s="2">
         <v>0.71733814477920532</v>
       </c>
       <c r="E115" s="2">
-        <v>0.68460482358932495</v>
+        <v>0.6836235523223877</v>
       </c>
     </row>
     <row r="116">
@@ -1470,13 +1470,13 @@
         <v>0.91560101509094238</v>
       </c>
       <c r="C118" s="2">
-        <v>0.80094760656356812</v>
+        <v>0.80092591047286987</v>
       </c>
       <c r="D118" s="2">
         <v>0.12220177054405212</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.0074102678336203098</v>
+        <v>-0.0081436336040496826</v>
       </c>
     </row>
     <row r="119">
@@ -1505,13 +1505,13 @@
         <v>-1.0478794574737549</v>
       </c>
       <c r="C121" s="2">
-        <v>-1.2242348194122315</v>
+        <v>-1.225311279296875</v>
       </c>
       <c r="D121" s="2">
         <v>-0.06613922119140625</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.21164360642433167</v>
+        <v>-0.21219268441200256</v>
       </c>
     </row>
     <row r="122">
@@ -1762,16 +1762,16 @@
         <v>32964</v>
       </c>
       <c r="B149" s="2">
-        <v>0.57158887386322022</v>
+        <v>0.57158887386322021</v>
       </c>
       <c r="C149" s="2">
-        <v>0.48252543807029724</v>
+        <v>0.48275718092918396</v>
       </c>
       <c r="D149" s="2">
         <v>0.91426771879196167</v>
       </c>
       <c r="E149" s="2">
-        <v>0.83551979064941406</v>
+        <v>0.83547013998031616</v>
       </c>
     </row>
     <row r="150">
@@ -1782,13 +1782,13 @@
         <v>0.36666730046272278</v>
       </c>
       <c r="C150" s="2">
-        <v>0.24975809454917908</v>
+        <v>0.24994364380836487</v>
       </c>
       <c r="D150" s="2">
         <v>0.96478313207626343</v>
       </c>
       <c r="E150" s="2">
-        <v>0.87957662343978882</v>
+        <v>0.87963038682937622</v>
       </c>
     </row>
     <row r="151">
@@ -1799,13 +1799,13 @@
         <v>1.2443603277206421</v>
       </c>
       <c r="C151" s="2">
-        <v>1.1907646656036377</v>
+        <v>1.1911708116531372</v>
       </c>
       <c r="D151" s="2">
         <v>1.0068825483322144</v>
       </c>
       <c r="E151" s="2">
-        <v>0.90947431325912476</v>
+        <v>0.90947556495666504</v>
       </c>
     </row>
     <row r="152">
@@ -1816,13 +1816,13 @@
         <v>1.0197614431381226</v>
       </c>
       <c r="C152" s="2">
-        <v>0.92589777708053589</v>
+        <v>0.9260445237159729</v>
       </c>
       <c r="D152" s="2">
         <v>0.95357203483581543</v>
       </c>
       <c r="E152" s="2">
-        <v>0.83891522884368896</v>
+        <v>0.83888870477676392</v>
       </c>
     </row>
     <row r="153">
@@ -1833,13 +1833,13 @@
         <v>1.3689607381820679</v>
       </c>
       <c r="C153" s="2">
-        <v>1.3286528587341309</v>
+        <v>1.3274345397949219</v>
       </c>
       <c r="D153" s="2">
         <v>0.91129863262176514</v>
       </c>
       <c r="E153" s="2">
-        <v>0.80753988027572632</v>
+        <v>0.80744433403015137</v>
       </c>
     </row>
     <row r="154">
@@ -1850,13 +1850,13 @@
         <v>1.217360258102417</v>
       </c>
       <c r="C154" s="2">
-        <v>1.0998610258102417</v>
+        <v>1.1004315614700317</v>
       </c>
       <c r="D154" s="2">
         <v>0.79970943927764893</v>
       </c>
       <c r="E154" s="2">
-        <v>0.76248013973236084</v>
+        <v>0.76240205764770508</v>
       </c>
     </row>
     <row r="155">
@@ -1867,13 +1867,13 @@
         <v>1.2594789266586304</v>
       </c>
       <c r="C155" s="2">
-        <v>1.0888605117797852</v>
+        <v>1.0885467529296875</v>
       </c>
       <c r="D155" s="2">
         <v>0.81263875961303711</v>
       </c>
       <c r="E155" s="2">
-        <v>0.7803235650062561</v>
+        <v>0.78032475709915161</v>
       </c>
     </row>
     <row r="156">
@@ -1884,13 +1884,13 @@
         <v>0.58039820194244385</v>
       </c>
       <c r="C156" s="2">
-        <v>0.34500154852867127</v>
+        <v>0.3447805643081665</v>
       </c>
       <c r="D156" s="2">
         <v>0.83177149295806885</v>
       </c>
       <c r="E156" s="2">
-        <v>0.79772275686264038</v>
+        <v>0.79776173830032349</v>
       </c>
     </row>
     <row r="157">
@@ -1901,13 +1901,13 @@
         <v>0.57311147451400757</v>
       </c>
       <c r="C157" s="2">
-        <v>0.55653703212738037</v>
+        <v>0.55588918924331665</v>
       </c>
       <c r="D157" s="2">
         <v>0.87028408050537109</v>
       </c>
       <c r="E157" s="2">
-        <v>0.84339570999145508</v>
+        <v>0.84344768524169922</v>
       </c>
     </row>
     <row r="158">
@@ -1918,13 +1918,13 @@
         <v>-0.43271350860595703</v>
       </c>
       <c r="C158" s="2">
-        <v>0.076987661421298981</v>
+        <v>0.077377043664455414</v>
       </c>
       <c r="D158" s="2">
         <v>0.81277155876159668</v>
       </c>
       <c r="E158" s="2">
-        <v>0.77510136365890503</v>
+        <v>0.77521538734436035</v>
       </c>
     </row>
     <row r="159">
@@ -1935,13 +1935,13 @@
         <v>0.483030766248703</v>
       </c>
       <c r="C159" s="2">
-        <v>0.41034874320030213</v>
+        <v>0.41124773025512695</v>
       </c>
       <c r="D159" s="2">
         <v>0.85266071557998657</v>
       </c>
       <c r="E159" s="2">
-        <v>0.8128429651260376</v>
+        <v>0.81297886371612549</v>
       </c>
     </row>
     <row r="160">
@@ -1952,13 +1952,13 @@
         <v>1.4165554046630859</v>
       </c>
       <c r="C160" s="2">
-        <v>1.3473575115203858</v>
+        <v>1.3481035232543945</v>
       </c>
       <c r="D160" s="2">
         <v>0.84335935115814209</v>
       </c>
       <c r="E160" s="2">
-        <v>0.80282199382781982</v>
+        <v>0.80308091640472412</v>
       </c>
     </row>
     <row r="161">
@@ -1969,13 +1969,13 @@
         <v>1.3663743734359741</v>
       </c>
       <c r="C161" s="2">
-        <v>1.3369545936584473</v>
+        <v>1.3372185230255127</v>
       </c>
       <c r="D161" s="2">
         <v>0.86715131998062134</v>
       </c>
       <c r="E161" s="2">
-        <v>0.85636436939239502</v>
+        <v>0.85659575462341309</v>
       </c>
     </row>
     <row r="162">
@@ -1986,13 +1986,13 @@
         <v>0.85134798288345337</v>
       </c>
       <c r="C162" s="2">
-        <v>0.71400338411331177</v>
+        <v>0.71334338188171387</v>
       </c>
       <c r="D162" s="2">
         <v>0.69092398881912231</v>
       </c>
       <c r="E162" s="2">
-        <v>0.63539958000183105</v>
+        <v>0.63568133115768433</v>
       </c>
     </row>
     <row r="163">
@@ -2000,16 +2000,16 @@
         <v>33390</v>
       </c>
       <c r="B163" s="2">
-        <v>1.5763626098632813</v>
+        <v>1.5763626098632812</v>
       </c>
       <c r="C163" s="2">
-        <v>1.4395357370376587</v>
+        <v>1.4403032064437866</v>
       </c>
       <c r="D163" s="2">
-        <v>0.8962470293045044</v>
+        <v>0.89624702930450439</v>
       </c>
       <c r="E163" s="2">
-        <v>0.7950812578201294</v>
+        <v>0.79531025886535645</v>
       </c>
     </row>
     <row r="164">
@@ -2020,13 +2020,13 @@
         <v>1.1757670640945435</v>
       </c>
       <c r="C164" s="2">
-        <v>0.99867182970046997</v>
+        <v>0.99946486949920654</v>
       </c>
       <c r="D164" s="2">
         <v>0.92782658338546753</v>
       </c>
       <c r="E164" s="2">
-        <v>0.88837236166000366</v>
+        <v>0.88855165243148804</v>
       </c>
     </row>
     <row r="165">
@@ -2037,13 +2037,13 @@
         <v>0.7945256233215332</v>
       </c>
       <c r="C165" s="2">
-        <v>0.82688260078430176</v>
+        <v>0.82641428709030151</v>
       </c>
       <c r="D165" s="2">
         <v>0.84742128849029541</v>
       </c>
       <c r="E165" s="2">
-        <v>0.81439131498336792</v>
+        <v>0.81443405151367188</v>
       </c>
     </row>
     <row r="166">
@@ -2054,13 +2054,13 @@
         <v>-1.0129344463348389</v>
       </c>
       <c r="C166" s="2">
-        <v>-1.4321455955505371</v>
+        <v>-1.4323407411575317</v>
       </c>
       <c r="D166" s="2">
         <v>0.85329848527908325</v>
       </c>
       <c r="E166" s="2">
-        <v>0.82035821676254272</v>
+        <v>0.82043790817260742</v>
       </c>
     </row>
     <row r="167">
@@ -2071,13 +2071,13 @@
         <v>1.4151941537857056</v>
       </c>
       <c r="C167" s="2">
-        <v>1.5141223669052124</v>
+        <v>1.5140373706817627</v>
       </c>
       <c r="D167" s="2">
         <v>0.86927485466003418</v>
       </c>
       <c r="E167" s="2">
-        <v>0.84122264385223389</v>
+        <v>0.84130316972732544</v>
       </c>
     </row>
     <row r="168">
@@ -2088,13 +2088,13 @@
         <v>0.76724648475646973</v>
       </c>
       <c r="C168" s="2">
-        <v>1.2499688863754272</v>
+        <v>1.2504206895828247</v>
       </c>
       <c r="D168" s="2">
         <v>0.62240105867385864</v>
       </c>
       <c r="E168" s="2">
-        <v>0.58384233713150025</v>
+        <v>0.58392012119293213</v>
       </c>
     </row>
     <row r="169">
@@ -2105,13 +2105,13 @@
         <v>0.69290751218795776</v>
       </c>
       <c r="C169" s="2">
-        <v>0.68152821063995361</v>
+        <v>0.68104469776153564</v>
       </c>
       <c r="D169" s="2">
         <v>0.48370081186294556</v>
       </c>
       <c r="E169" s="2">
-        <v>0.47856235504150391</v>
+        <v>0.47855275869369507</v>
       </c>
     </row>
     <row r="170">
@@ -2122,13 +2122,13 @@
         <v>1.4192695617675781</v>
       </c>
       <c r="C170" s="2">
-        <v>1.3906564712524414</v>
+        <v>1.3912534713745117</v>
       </c>
       <c r="D170" s="2">
         <v>0.53009539842605591</v>
       </c>
       <c r="E170" s="2">
-        <v>0.52828305959701538</v>
+        <v>0.52829587459564209</v>
       </c>
     </row>
     <row r="171">
@@ -2136,16 +2136,16 @@
         <v>33635</v>
       </c>
       <c r="B171" s="2">
-        <v>0.9951353669166565</v>
+        <v>0.99513536691665649</v>
       </c>
       <c r="C171" s="2">
-        <v>0.9017835259437561</v>
+        <v>0.90113049745559692</v>
       </c>
       <c r="D171" s="2">
         <v>0.70197927951812744</v>
       </c>
       <c r="E171" s="2">
-        <v>0.74969905614852905</v>
+        <v>0.74976509809494019</v>
       </c>
     </row>
     <row r="172">
@@ -2156,13 +2156,13 @@
         <v>-0.64550179243087769</v>
       </c>
       <c r="C172" s="2">
-        <v>-0.87688714265823364</v>
+        <v>-0.87614411115646362</v>
       </c>
       <c r="D172" s="2">
         <v>0.57080817222595215</v>
       </c>
       <c r="E172" s="2">
-        <v>0.59216248989105225</v>
+        <v>0.59232300519943237</v>
       </c>
     </row>
     <row r="173">
@@ -2173,13 +2173,13 @@
         <v>-0.072535261511802673</v>
       </c>
       <c r="C173" s="2">
-        <v>0.051151983439922333</v>
+        <v>0.051158685237169266</v>
       </c>
       <c r="D173" s="2">
         <v>0.37555095553398132</v>
       </c>
       <c r="E173" s="2">
-        <v>0.32256227731704712</v>
+        <v>0.32264208793640137</v>
       </c>
     </row>
     <row r="174">
@@ -2190,13 +2190,13 @@
         <v>1.2120770215988159</v>
       </c>
       <c r="C174" s="2">
-        <v>1.2743688821792603</v>
+        <v>1.2741022109985352</v>
       </c>
       <c r="D174" s="2">
         <v>0.45036458969116211</v>
       </c>
       <c r="E174" s="2">
-        <v>0.40943211317062378</v>
+        <v>0.40962055325508118</v>
       </c>
     </row>
     <row r="175">
@@ -2207,13 +2207,13 @@
         <v>0.53402048349380493</v>
       </c>
       <c r="C175" s="2">
-        <v>0.56059831380844116</v>
+        <v>0.56088221073150635</v>
       </c>
       <c r="D175" s="2">
         <v>0.43029242753982544</v>
       </c>
       <c r="E175" s="2">
-        <v>0.3908143937587738</v>
+        <v>0.39104968309402466</v>
       </c>
     </row>
     <row r="176">
@@ -2224,13 +2224,13 @@
         <v>0.23465435206890106</v>
       </c>
       <c r="C176" s="2">
-        <v>0.096293114125728607</v>
+        <v>0.097058936953544617</v>
       </c>
       <c r="D176" s="2">
         <v>0.40371787548065186</v>
       </c>
       <c r="E176" s="2">
-        <v>0.3950442373752594</v>
+        <v>0.39530947804450989</v>
       </c>
     </row>
     <row r="177">
@@ -2241,13 +2241,13 @@
         <v>-0.99006873369216919</v>
       </c>
       <c r="C177" s="2">
-        <v>-1.1764328479766846</v>
+        <v>-1.1767077445983887</v>
       </c>
       <c r="D177" s="2">
         <v>0.62233668565750122</v>
       </c>
       <c r="E177" s="2">
-        <v>0.62733888626098633</v>
+        <v>0.62740498781204224</v>
       </c>
     </row>
     <row r="178">
@@ -2258,13 +2258,13 @@
         <v>1.3662302494049072</v>
       </c>
       <c r="C178" s="2">
-        <v>1.4633568525314331</v>
+        <v>1.4638508558273315</v>
       </c>
       <c r="D178" s="2">
         <v>0.51801615953445435</v>
       </c>
       <c r="E178" s="2">
-        <v>0.55946058034896851</v>
+        <v>0.55955284833908081</v>
       </c>
     </row>
     <row r="179">
@@ -2275,13 +2275,13 @@
         <v>1.2386200428009033</v>
       </c>
       <c r="C179" s="2">
-        <v>1.2230968475341797</v>
+        <v>1.2241154909133911</v>
       </c>
       <c r="D179" s="2">
         <v>0.4819599986076355</v>
       </c>
       <c r="E179" s="2">
-        <v>0.50420999526977539</v>
+        <v>0.50443834066390991</v>
       </c>
     </row>
     <row r="180">
@@ -2292,13 +2292,13 @@
         <v>0.75596463680267334</v>
       </c>
       <c r="C180" s="2">
-        <v>0.93985205888748169</v>
+        <v>0.9394688606262207</v>
       </c>
       <c r="D180" s="2">
         <v>0.54198992252349854</v>
       </c>
       <c r="E180" s="2">
-        <v>0.54841077327728271</v>
+        <v>0.54846203327178955</v>
       </c>
     </row>
     <row r="181">
@@ -2309,13 +2309,13 @@
         <v>1.3220672607421875</v>
       </c>
       <c r="C181" s="2">
-        <v>1.2137647867202759</v>
+        <v>1.2127153873443604</v>
       </c>
       <c r="D181" s="2">
         <v>0.63616341352462769</v>
       </c>
       <c r="E181" s="2">
-        <v>0.63286620378494263</v>
+        <v>0.6328737735748291</v>
       </c>
     </row>
     <row r="182">
@@ -2326,13 +2326,13 @@
         <v>-1.0114201307296753</v>
       </c>
       <c r="C182" s="2">
-        <v>-0.5597529411315918</v>
+        <v>-0.55951046943664551</v>
       </c>
       <c r="D182" s="2">
         <v>0.80832242965698242</v>
       </c>
       <c r="E182" s="2">
-        <v>0.81643134355545044</v>
+        <v>0.81642830371856689</v>
       </c>
     </row>
     <row r="183">
@@ -2343,13 +2343,13 @@
         <v>0.88757175207138062</v>
       </c>
       <c r="C183" s="2">
-        <v>0.77711355686187744</v>
+        <v>0.77807164192199707</v>
       </c>
       <c r="D183" s="2">
         <v>0.816234290599823</v>
       </c>
       <c r="E183" s="2">
-        <v>0.80411708354949951</v>
+        <v>0.80411642789840698</v>
       </c>
     </row>
     <row r="184">
@@ -2360,13 +2360,13 @@
         <v>1.0742899179458618</v>
       </c>
       <c r="C184" s="2">
-        <v>0.95840531587600708</v>
+        <v>0.95709550380706787</v>
       </c>
       <c r="D184" s="2">
         <v>0.84180420637130737</v>
       </c>
       <c r="E184" s="2">
-        <v>0.78734683990478516</v>
+        <v>0.78713023662567139</v>
       </c>
     </row>
     <row r="185">
@@ -2377,13 +2377,13 @@
         <v>1.0822157859802246</v>
       </c>
       <c r="C185" s="2">
-        <v>0.85639244318008423</v>
+        <v>0.85676449537277222</v>
       </c>
       <c r="D185" s="2">
         <v>0.84736055135726929</v>
       </c>
       <c r="E185" s="2">
-        <v>0.74031704664230347</v>
+        <v>0.7402006983757019</v>
       </c>
     </row>
     <row r="186">
@@ -2394,13 +2394,13 @@
         <v>0.55936235189437866</v>
       </c>
       <c r="C186" s="2">
-        <v>0.47565293312072754</v>
+        <v>0.4752826988697052</v>
       </c>
       <c r="D186" s="2">
-        <v>0.67459487915039063</v>
+        <v>0.67459487915039062</v>
       </c>
       <c r="E186" s="2">
-        <v>0.55060595273971558</v>
+        <v>0.55063700675964355</v>
       </c>
     </row>
     <row r="187">
@@ -2411,13 +2411,13 @@
         <v>1.4374370574951172</v>
       </c>
       <c r="C187" s="2">
-        <v>1.3525286912918091</v>
+        <v>1.3530443906784058</v>
       </c>
       <c r="D187" s="2">
-        <v>0.8997909426689148</v>
+        <v>0.89979094266891479</v>
       </c>
       <c r="E187" s="2">
-        <v>0.75110006332397461</v>
+        <v>0.75116771459579468</v>
       </c>
     </row>
     <row r="188">
@@ -2428,13 +2428,13 @@
         <v>1.4687491655349731</v>
       </c>
       <c r="C188" s="2">
-        <v>1.0721646547317505</v>
+        <v>1.0712393522262573</v>
       </c>
       <c r="D188" s="2">
         <v>0.8301655650138855</v>
       </c>
       <c r="E188" s="2">
-        <v>0.69208687543869019</v>
+        <v>0.69207775592803955</v>
       </c>
     </row>
     <row r="189">
@@ -2445,13 +2445,13 @@
         <v>0.80597198009490967</v>
       </c>
       <c r="C189" s="2">
-        <v>0.51658374071121216</v>
+        <v>0.51710325479507446</v>
       </c>
       <c r="D189" s="2">
         <v>0.81257057189941406</v>
       </c>
       <c r="E189" s="2">
-        <v>0.66846072673797607</v>
+        <v>0.66863620281219482</v>
       </c>
     </row>
     <row r="190">
@@ -2462,13 +2462,13 @@
         <v>-0.23282408714294434</v>
       </c>
       <c r="C190" s="2">
-        <v>-0.49363479018211365</v>
+        <v>-0.49335792660713196</v>
       </c>
       <c r="D190" s="2">
         <v>0.77534443140029907</v>
       </c>
       <c r="E190" s="2">
-        <v>0.63134026527404785</v>
+        <v>0.63134902715682983</v>
       </c>
     </row>
     <row r="191">
@@ -2479,13 +2479,13 @@
         <v>1.0153443813323975</v>
       </c>
       <c r="C191" s="2">
-        <v>1.2446938753128052</v>
+        <v>1.2452661991119385</v>
       </c>
       <c r="D191" s="2">
         <v>0.84406983852386475</v>
       </c>
       <c r="E191" s="2">
-        <v>0.70145225524902344</v>
+        <v>0.70147055387496948</v>
       </c>
     </row>
     <row r="192">
@@ -2496,13 +2496,13 @@
         <v>0.26094359159469604</v>
       </c>
       <c r="C192" s="2">
-        <v>0.2459949254989624</v>
+        <v>0.24626190960407257</v>
       </c>
       <c r="D192" s="2">
         <v>0.5906711220741272</v>
       </c>
       <c r="E192" s="2">
-        <v>0.39100885391235352</v>
+        <v>0.39087620377540588</v>
       </c>
     </row>
     <row r="193">
@@ -2513,13 +2513,13 @@
         <v>0.91593480110168457</v>
       </c>
       <c r="C193" s="2">
-        <v>0.74576979875564575</v>
+        <v>0.74612164497375488</v>
       </c>
       <c r="D193" s="2">
         <v>0.64727354049682617</v>
       </c>
       <c r="E193" s="2">
-        <v>0.46259564161300659</v>
+        <v>0.46264442801475525</v>
       </c>
     </row>
     <row r="194">
@@ -2530,13 +2530,13 @@
         <v>0.74718040227890015</v>
       </c>
       <c r="C194" s="2">
-        <v>0.5223088264465332</v>
+        <v>0.52117979526519775</v>
       </c>
       <c r="D194" s="2">
         <v>0.68223839998245239</v>
       </c>
       <c r="E194" s="2">
-        <v>0.49409103393554688</v>
+        <v>0.49409797787666321</v>
       </c>
     </row>
     <row r="195">
@@ -2547,13 +2547,13 @@
         <v>1.1778914928436279</v>
       </c>
       <c r="C195" s="2">
-        <v>1.1066603660583496</v>
+        <v>1.1063761711120605</v>
       </c>
       <c r="D195" s="2">
         <v>0.84369057416915894</v>
       </c>
       <c r="E195" s="2">
-        <v>0.67569953203201294</v>
+        <v>0.6756662130355835</v>
       </c>
     </row>
     <row r="196">
@@ -2564,13 +2564,13 @@
         <v>-0.84315186738967896</v>
       </c>
       <c r="C196" s="2">
-        <v>-1.4414616823196411</v>
+        <v>-1.4423044919967651</v>
       </c>
       <c r="D196" s="2">
         <v>0.8668481707572937</v>
       </c>
       <c r="E196" s="2">
-        <v>0.65976321697235108</v>
+        <v>0.6596333384513855</v>
       </c>
     </row>
     <row r="197">
@@ -2581,13 +2581,13 @@
         <v>1.9781713485717773</v>
       </c>
       <c r="C197" s="2">
-        <v>1.7164456844329834</v>
+        <v>1.7171533107757568</v>
       </c>
       <c r="D197" s="2">
         <v>1.02826988697052</v>
       </c>
       <c r="E197" s="2">
-        <v>0.81719350814819336</v>
+        <v>0.81713682413101196</v>
       </c>
     </row>
     <row r="198">
@@ -2598,13 +2598,13 @@
         <v>1.1206554174423218</v>
       </c>
       <c r="C198" s="2">
-        <v>0.80004221200942993</v>
+        <v>0.80018508434295654</v>
       </c>
       <c r="D198" s="2">
         <v>1.0359407663345337</v>
       </c>
       <c r="E198" s="2">
-        <v>0.87570106983184815</v>
+        <v>0.87555795907974243</v>
       </c>
     </row>
     <row r="199">
@@ -2615,13 +2615,13 @@
         <v>1.2202457189559937</v>
       </c>
       <c r="C199" s="2">
-        <v>1.1408416032791138</v>
+        <v>1.140756368637085</v>
       </c>
       <c r="D199" s="2">
         <v>1.1254415512084961</v>
       </c>
       <c r="E199" s="2">
-        <v>0.98728090524673462</v>
+        <v>0.98728460073471069</v>
       </c>
     </row>
     <row r="200">
@@ -2629,16 +2629,16 @@
         <v>34516</v>
       </c>
       <c r="B200" s="2">
-        <v>1.2237625122070313</v>
+        <v>1.2237625122070312</v>
       </c>
       <c r="C200" s="2">
-        <v>1.1012670993804932</v>
+        <v>1.1009703874588013</v>
       </c>
       <c r="D200" s="2">
         <v>1.1177159547805786</v>
       </c>
       <c r="E200" s="2">
-        <v>0.97169846296310425</v>
+        <v>0.97175747156143188</v>
       </c>
     </row>
     <row r="201">
@@ -2649,13 +2649,13 @@
         <v>1.713739275932312</v>
       </c>
       <c r="C201" s="2">
-        <v>1.6628679037094116</v>
+        <v>1.6637932062149048</v>
       </c>
       <c r="D201" s="2">
         <v>1.3274825811386108</v>
       </c>
       <c r="E201" s="2">
-        <v>1.2405704259872437</v>
+        <v>1.240725040435791</v>
       </c>
     </row>
     <row r="202">
@@ -2666,13 +2666,13 @@
         <v>0.98497289419174194</v>
       </c>
       <c r="C202" s="2">
-        <v>1.2723377943038941</v>
+        <v>1.27191162109375</v>
       </c>
       <c r="D202" s="2">
-        <v>1.3351821899414063</v>
+        <v>1.3351821899414062</v>
       </c>
       <c r="E202" s="2">
-        <v>1.2627944946289063</v>
+        <v>1.2628005743026733</v>
       </c>
     </row>
     <row r="203">
@@ -2683,13 +2683,13 @@
         <v>1.5526868104934692</v>
       </c>
       <c r="C203" s="2">
-        <v>1.5265272855758667</v>
+        <v>1.5267195701599121</v>
       </c>
       <c r="D203" s="2">
         <v>1.3364373445510864</v>
       </c>
       <c r="E203" s="2">
-        <v>1.2702490091323853</v>
+        <v>1.2703970670700073</v>
       </c>
     </row>
     <row r="204">
@@ -2700,13 +2700,13 @@
         <v>1.1083613634109497</v>
       </c>
       <c r="C204" s="2">
-        <v>0.96641844511032104</v>
+        <v>0.96663200855255127</v>
       </c>
       <c r="D204" s="2">
         <v>1.2379546165466309</v>
       </c>
       <c r="E204" s="2">
-        <v>1.134384036064148</v>
+        <v>1.13463294506073</v>
       </c>
     </row>
     <row r="205">
@@ -2717,13 +2717,13 @@
         <v>1.0447477102279663</v>
       </c>
       <c r="C205" s="2">
-        <v>0.9783860445022583</v>
+        <v>0.97840368747711182</v>
       </c>
       <c r="D205" s="2">
         <v>1.2841290235519409</v>
       </c>
       <c r="E205" s="2">
-        <v>1.1825189590454102</v>
+        <v>1.1829663515090942</v>
       </c>
     </row>
     <row r="206">
@@ -2734,13 +2734,13 @@
         <v>2.0474674701690674</v>
       </c>
       <c r="C206" s="2">
-        <v>1.9164619445800781</v>
+        <v>1.9158334732055664</v>
       </c>
       <c r="D206" s="2">
         <v>1.1597045660018921</v>
       </c>
       <c r="E206" s="2">
-        <v>1.0523329973220825</v>
+        <v>1.0527429580688477</v>
       </c>
     </row>
     <row r="207">
@@ -2751,13 +2751,13 @@
         <v>1.1319519281387329</v>
       </c>
       <c r="C207" s="2">
-        <v>0.86713343858718872</v>
+        <v>0.8685535192489624</v>
       </c>
       <c r="D207" s="2">
         <v>1.2399861812591553</v>
       </c>
       <c r="E207" s="2">
-        <v>1.0938569307327271</v>
+        <v>1.0943442583084106</v>
       </c>
     </row>
     <row r="208">
@@ -2768,13 +2768,13 @@
         <v>0.33390182256698608</v>
       </c>
       <c r="C208" s="2">
-        <v>-0.08194347470998764</v>
+        <v>-0.081120900809764862</v>
       </c>
       <c r="D208" s="2">
-        <v>1.2080827951431275</v>
+        <v>1.2080827951431274</v>
       </c>
       <c r="E208" s="2">
-        <v>1.0459250211715698</v>
+        <v>1.0463593006134033</v>
       </c>
     </row>
     <row r="209">
@@ -2785,13 +2785,13 @@
         <v>1.6393320560455322</v>
       </c>
       <c r="C209" s="2">
-        <v>1.5344812870025635</v>
+        <v>1.5359708070755005</v>
       </c>
       <c r="D209" s="2">
         <v>1.2670102119445801</v>
       </c>
       <c r="E209" s="2">
-        <v>1.1142680644989014</v>
+        <v>1.1146552562713623</v>
       </c>
     </row>
     <row r="210">
@@ -2802,13 +2802,13 @@
         <v>0.59391915798187256</v>
       </c>
       <c r="C210" s="2">
-        <v>0.49119466543197632</v>
+        <v>0.49178239703178406</v>
       </c>
       <c r="D210" s="2">
         <v>1.3644167184829712</v>
       </c>
       <c r="E210" s="2">
-        <v>1.2020578384399414</v>
+        <v>1.2025395631790161</v>
       </c>
     </row>
     <row r="211">
@@ -2819,13 +2819,13 @@
         <v>1.7075070142745972</v>
       </c>
       <c r="C211" s="2">
-        <v>1.6460529565811157</v>
+        <v>1.6463238000869751</v>
       </c>
       <c r="D211" s="2">
         <v>1.2260303497314453</v>
       </c>
       <c r="E211" s="2">
-        <v>1.0561553239822388</v>
+        <v>1.0568299293518066</v>
       </c>
     </row>
     <row r="212">
@@ -2836,13 +2836,13 @@
         <v>1.2655562162399292</v>
       </c>
       <c r="C212" s="2">
-        <v>1.0951400995254517</v>
+        <v>1.0948547124862671</v>
       </c>
       <c r="D212" s="2">
         <v>1.2839332818984985</v>
       </c>
       <c r="E212" s="2">
-        <v>1.0679571628570557</v>
+        <v>1.068583607673645</v>
       </c>
     </row>
     <row r="213">
@@ -2853,13 +2853,13 @@
         <v>1.6387084722518921</v>
       </c>
       <c r="C213" s="2">
-        <v>1.5815058946609497</v>
+        <v>1.5812954902648926</v>
       </c>
       <c r="D213" s="2">
         <v>1.3926588296890259</v>
       </c>
       <c r="E213" s="2">
-        <v>1.1981732845306397</v>
+        <v>1.1988246440887451</v>
       </c>
     </row>
     <row r="214">
@@ -2870,13 +2870,13 @@
         <v>1.9214067459106445</v>
       </c>
       <c r="C214" s="2">
-        <v>1.7684934139251709</v>
+        <v>1.7693629264831543</v>
       </c>
       <c r="D214" s="2">
         <v>1.3162360191345215</v>
       </c>
       <c r="E214" s="2">
-        <v>1.1312493085861206</v>
+        <v>1.1316704750061035</v>
       </c>
     </row>
     <row r="215">
@@ -2887,13 +2887,13 @@
         <v>0.80198955535888672</v>
       </c>
       <c r="C215" s="2">
-        <v>0.60333949327468872</v>
+        <v>0.6044471263885498</v>
       </c>
       <c r="D215" s="2">
         <v>1.3758833408355713</v>
       </c>
       <c r="E215" s="2">
-        <v>1.1223162412643433</v>
+        <v>1.1225954294204712</v>
       </c>
     </row>
     <row r="216">
@@ -2904,13 +2904,13 @@
         <v>1.6530786752700806</v>
       </c>
       <c r="C216" s="2">
-        <v>0.97334963083267212</v>
+        <v>0.97433620691299438</v>
       </c>
       <c r="D216" s="2">
         <v>1.4042555093765259</v>
       </c>
       <c r="E216" s="2">
-        <v>1.1434541940689087</v>
+        <v>1.1438429355621338</v>
       </c>
     </row>
     <row r="217">
@@ -2921,13 +2921,13 @@
         <v>1.3124315738677979</v>
       </c>
       <c r="C217" s="2">
-        <v>1.0900019407272339</v>
+        <v>1.0910482406616211</v>
       </c>
       <c r="D217" s="2">
         <v>1.3900672197341919</v>
       </c>
       <c r="E217" s="2">
-        <v>1.0565801858901978</v>
+        <v>1.0569641590118408</v>
       </c>
     </row>
     <row r="218">
@@ -2938,13 +2938,13 @@
         <v>0.95152682065963745</v>
       </c>
       <c r="C218" s="2">
-        <v>0.93216609954833984</v>
+        <v>0.93158328533172607</v>
       </c>
       <c r="D218" s="2">
         <v>1.397963285446167</v>
       </c>
       <c r="E218" s="2">
-        <v>1.0715248584747315</v>
+        <v>1.0719376802444458</v>
       </c>
     </row>
     <row r="219">
@@ -2955,13 +2955,13 @@
         <v>1.1307454109191895</v>
       </c>
       <c r="C219" s="2">
-        <v>0.41079673171043396</v>
+        <v>0.41010758280754089</v>
       </c>
       <c r="D219" s="2">
         <v>1.2928874492645264</v>
       </c>
       <c r="E219" s="2">
-        <v>1.0694992542266846</v>
+        <v>1.0700051784515381</v>
       </c>
     </row>
     <row r="220">
@@ -2972,13 +2972,13 @@
         <v>1.9628560543060303</v>
       </c>
       <c r="C220" s="2">
-        <v>1.8362947702407837</v>
+        <v>1.8375509977340698</v>
       </c>
       <c r="D220" s="2">
         <v>1.4544354677200317</v>
       </c>
       <c r="E220" s="2">
-        <v>1.2333488464355469</v>
+        <v>1.2337374687194824</v>
       </c>
     </row>
     <row r="221">
@@ -2989,13 +2989,13 @@
         <v>1.1378612518310547</v>
       </c>
       <c r="C221" s="2">
-        <v>0.31327357888221741</v>
+        <v>0.31294530630111694</v>
       </c>
       <c r="D221" s="2">
         <v>1.4848201274871826</v>
       </c>
       <c r="E221" s="2">
-        <v>1.3285254240036011</v>
+        <v>1.328874945640564</v>
       </c>
     </row>
     <row r="222">
@@ -3006,13 +3006,13 @@
         <v>1.7097737789154053</v>
       </c>
       <c r="C222" s="2">
-        <v>1.7160084247589111</v>
+        <v>1.716057300567627</v>
       </c>
       <c r="D222" s="2">
         <v>1.5098098516464233</v>
       </c>
       <c r="E222" s="2">
-        <v>1.3619892597198486</v>
+        <v>1.3623071908950806</v>
       </c>
     </row>
     <row r="223">
@@ -3023,13 +3023,13 @@
         <v>0.97572356462478638</v>
       </c>
       <c r="C223" s="2">
-        <v>1.7502630949020386</v>
+        <v>1.7519700527191162</v>
       </c>
       <c r="D223" s="2">
         <v>1.623569130897522</v>
       </c>
       <c r="E223" s="2">
-        <v>1.4645600318908691</v>
+        <v>1.4649226665496826</v>
       </c>
     </row>
     <row r="224">
@@ -3040,13 +3040,13 @@
         <v>2.2559218406677246</v>
       </c>
       <c r="C224" s="2">
-        <v>2.0779848098754883</v>
+        <v>2.0780384540557861</v>
       </c>
       <c r="D224" s="2">
         <v>1.6346161365509033</v>
       </c>
       <c r="E224" s="2">
-        <v>1.5459096431732178</v>
+        <v>1.5463147163391113</v>
       </c>
     </row>
     <row r="225">
@@ -3057,13 +3057,13 @@
         <v>1.9265403747558594</v>
       </c>
       <c r="C225" s="2">
-        <v>1.8299388885498047</v>
+        <v>1.8305730819702148</v>
       </c>
       <c r="D225" s="2">
         <v>1.4885809421539307</v>
       </c>
       <c r="E225" s="2">
-        <v>1.4016185998916626</v>
+        <v>1.4020793437957764</v>
       </c>
     </row>
     <row r="226">
@@ -3074,13 +3074,13 @@
         <v>1.5373392105102539</v>
       </c>
       <c r="C226" s="2">
-        <v>1.3911765813827515</v>
+        <v>1.3919390439987183</v>
       </c>
       <c r="D226" s="2">
         <v>1.5964707136154175</v>
       </c>
       <c r="E226" s="2">
-        <v>1.5912805795669556</v>
+        <v>1.5919574499130249</v>
       </c>
     </row>
     <row r="227">
@@ -3091,13 +3091,13 @@
         <v>1.9753605127334595</v>
       </c>
       <c r="C227" s="2">
-        <v>1.8553032875061035</v>
+        <v>1.8551222085952759</v>
       </c>
       <c r="D227" s="2">
         <v>1.5929747819900513</v>
       </c>
       <c r="E227" s="2">
-        <v>1.5652525424957275</v>
+        <v>1.5661062002182007</v>
       </c>
     </row>
     <row r="228">
@@ -3108,13 +3108,13 @@
         <v>1.2301684617996216</v>
       </c>
       <c r="C228" s="2">
-        <v>1.1429437398910523</v>
+        <v>1.1426362991333008</v>
       </c>
       <c r="D228" s="2">
         <v>1.6729639768600464</v>
       </c>
       <c r="E228" s="2">
-        <v>1.5109571218490601</v>
+        <v>1.5116254091262817</v>
       </c>
     </row>
     <row r="229">
@@ -3125,13 +3125,13 @@
         <v>0.64853912591934204</v>
       </c>
       <c r="C229" s="2">
-        <v>0.53767526149749756</v>
+        <v>0.53943246603012085</v>
       </c>
       <c r="D229" s="2">
         <v>1.4716781377792358</v>
       </c>
       <c r="E229" s="2">
-        <v>1.3636461496353149</v>
+        <v>1.3644058704376221</v>
       </c>
     </row>
     <row r="230">
@@ -3142,13 +3142,13 @@
         <v>2.1088693141937256</v>
       </c>
       <c r="C230" s="2">
-        <v>2.0202314853668213</v>
+        <v>2.0218477249145508</v>
       </c>
       <c r="D230" s="2">
         <v>1.4309722185134888</v>
       </c>
       <c r="E230" s="2">
-        <v>1.3073780536651611</v>
+        <v>1.3081674575805664</v>
       </c>
     </row>
     <row r="231">
@@ -3159,13 +3159,13 @@
         <v>1.6783111095428467</v>
       </c>
       <c r="C231" s="2">
-        <v>1.4817557334899902</v>
+        <v>1.4833962917327881</v>
       </c>
       <c r="D231" s="2">
         <v>1.4457551240921021</v>
       </c>
       <c r="E231" s="2">
-        <v>1.3192305564880371</v>
+        <v>1.3200341463088989</v>
       </c>
     </row>
     <row r="232">
@@ -3176,13 +3176,13 @@
         <v>1.6956256628036499</v>
       </c>
       <c r="C232" s="2">
-        <v>1.2616047859191895</v>
+        <v>1.2616429328918457</v>
       </c>
       <c r="D232" s="2">
         <v>1.3328620195388794</v>
       </c>
       <c r="E232" s="2">
-        <v>1.1695753335952759</v>
+        <v>1.1704692840576172</v>
       </c>
     </row>
     <row r="233">
@@ -3190,16 +3190,16 @@
         <v>35521</v>
       </c>
       <c r="B233" s="2">
-        <v>0.44434997439384461</v>
+        <v>0.4443499743938446</v>
       </c>
       <c r="C233" s="2">
-        <v>0.7521851658821106</v>
+        <v>0.75306278467178345</v>
       </c>
       <c r="D233" s="2">
         <v>1.384427547454834</v>
       </c>
       <c r="E233" s="2">
-        <v>1.2246917486190796</v>
+        <v>1.2257899045944214</v>
       </c>
     </row>
     <row r="234">
@@ -3210,13 +3210,13 @@
         <v>1.5601869821548462</v>
       </c>
       <c r="C234" s="2">
-        <v>1.3235260248184204</v>
+        <v>1.3244268894195557</v>
       </c>
       <c r="D234" s="2">
         <v>1.3866252899169922</v>
       </c>
       <c r="E234" s="2">
-        <v>1.2180905342102051</v>
+        <v>1.2190736532211304</v>
       </c>
     </row>
     <row r="235">
@@ -3227,13 +3227,13 @@
         <v>1.6703846454620361</v>
       </c>
       <c r="C235" s="2">
-        <v>1.4978493452072144</v>
+        <v>1.4987400770187378</v>
       </c>
       <c r="D235" s="2">
         <v>1.1621153354644775</v>
       </c>
       <c r="E235" s="2">
-        <v>0.97300875186920166</v>
+        <v>0.97391402721405029</v>
       </c>
     </row>
     <row r="236">
@@ -3244,13 +3244,13 @@
         <v>0.95932298898696899</v>
       </c>
       <c r="C236" s="2">
-        <v>0.50840681791305542</v>
+        <v>0.50903856754302979</v>
       </c>
       <c r="D236" s="2">
         <v>1.1453301906585693</v>
       </c>
       <c r="E236" s="2">
-        <v>0.95706963539123535</v>
+        <v>0.95792633295059204</v>
       </c>
     </row>
     <row r="237">
@@ -3261,13 +3261,13 @@
         <v>1.6942579746246338</v>
       </c>
       <c r="C237" s="2">
-        <v>1.638991117477417</v>
+        <v>1.6405216455459595</v>
       </c>
       <c r="D237" s="2">
         <v>1.1125667095184326</v>
       </c>
       <c r="E237" s="2">
-        <v>0.94979190826416016</v>
+        <v>0.95066237449645996</v>
       </c>
     </row>
     <row r="238">
@@ -3278,13 +3278,13 @@
         <v>0.66831928491592407</v>
       </c>
       <c r="C238" s="2">
-        <v>0.47826430201530457</v>
+        <v>0.47898593544960022</v>
       </c>
       <c r="D238" s="2">
         <v>1.237261176109314</v>
       </c>
       <c r="E238" s="2">
-        <v>1.0171239376068115</v>
+        <v>1.0179896354675293</v>
       </c>
     </row>
     <row r="239">
@@ -3292,16 +3292,16 @@
         <v>35704</v>
       </c>
       <c r="B239" s="2">
-        <v>0.088279090821743012</v>
+        <v>0.088279090821743011</v>
       </c>
       <c r="C239" s="2">
-        <v>-0.18550431728363037</v>
+        <v>-0.1845887303352356</v>
       </c>
       <c r="D239" s="2">
         <v>1.1578308343887329</v>
       </c>
       <c r="E239" s="2">
-        <v>0.95212113857269287</v>
+        <v>0.95300012826919556</v>
       </c>
     </row>
     <row r="240">
@@ -3312,13 +3312,13 @@
         <v>1.5272446870803833</v>
       </c>
       <c r="C240" s="2">
-        <v>1.3383035659790039</v>
+        <v>1.3395067453384399</v>
       </c>
       <c r="D240" s="2">
         <v>1.1170773506164551</v>
       </c>
       <c r="E240" s="2">
-        <v>0.92175740003585816</v>
+        <v>0.92268824577331543</v>
       </c>
     </row>
     <row r="241">
@@ -3329,13 +3329,13 @@
         <v>1.400754451751709</v>
       </c>
       <c r="C241" s="2">
-        <v>1.196104884147644</v>
+        <v>1.1962673664093018</v>
       </c>
       <c r="D241" s="2">
         <v>1.1723089218139648</v>
       </c>
       <c r="E241" s="2">
-        <v>1.0111120939254761</v>
+        <v>1.0119190216064453</v>
       </c>
     </row>
     <row r="242">
@@ -3346,13 +3346,13 @@
         <v>1.5666007995605469</v>
       </c>
       <c r="C242" s="2">
-        <v>1.3581734895706177</v>
+        <v>1.3590083122253418</v>
       </c>
       <c r="D242" s="2">
         <v>1.1357166767120361</v>
       </c>
       <c r="E242" s="2">
-        <v>0.94587558507919312</v>
+        <v>0.94670683145523071</v>
       </c>
     </row>
     <row r="243">
@@ -3363,13 +3363,13 @@
         <v>0.8453134298324585</v>
       </c>
       <c r="C243" s="2">
-        <v>0.73850095272064209</v>
+        <v>0.73952138423919678</v>
       </c>
       <c r="D243" s="2">
         <v>1.1881477832794189</v>
       </c>
       <c r="E243" s="2">
-        <v>0.99936771392822266</v>
+        <v>1.0002341270446777</v>
       </c>
     </row>
     <row r="244">
@@ -3380,13 +3380,13 @@
         <v>1.303602933883667</v>
       </c>
       <c r="C244" s="2">
-        <v>1.2245758771896362</v>
+        <v>1.2259331941604614</v>
       </c>
       <c r="D244" s="2">
         <v>1.3242640495300293</v>
       </c>
       <c r="E244" s="2">
-        <v>1.1592727899551392</v>
+        <v>1.1601516008377075</v>
       </c>
     </row>
     <row r="245">
@@ -3397,13 +3397,13 @@
         <v>1.4564077854156494</v>
       </c>
       <c r="C245" s="2">
-        <v>1.3125994205474854</v>
+        <v>1.3121156692504883</v>
       </c>
       <c r="D245" s="2">
-        <v>1.2350993156433106</v>
+        <v>1.2350993156433105</v>
       </c>
       <c r="E245" s="2">
-        <v>1.0243824720382691</v>
+        <v>1.0251392126083374</v>
       </c>
     </row>
     <row r="246">
@@ -3414,13 +3414,13 @@
         <v>1.3649272918701172</v>
       </c>
       <c r="C246" s="2">
-        <v>1.0518621206283569</v>
+        <v>1.0536116361618042</v>
       </c>
       <c r="D246" s="2">
-        <v>1.2297667264938355</v>
+        <v>1.2297667264938354</v>
       </c>
       <c r="E246" s="2">
-        <v>1.0298072099685669</v>
+        <v>1.0305960178375244</v>
       </c>
     </row>
     <row r="247">
@@ -3431,13 +3431,13 @@
         <v>1.1401997804641724</v>
       </c>
       <c r="C247" s="2">
-        <v>0.9596933126449585</v>
+        <v>0.96073150634765625</v>
       </c>
       <c r="D247" s="2">
         <v>1.2322481870651245</v>
       </c>
       <c r="E247" s="2">
-        <v>1.0080543756484985</v>
+        <v>1.0090775489807129</v>
       </c>
     </row>
     <row r="248">
@@ -3448,13 +3448,13 @@
         <v>1.3133248090744019</v>
       </c>
       <c r="C248" s="2">
-        <v>1.2536412477493286</v>
+        <v>1.2546687126159668</v>
       </c>
       <c r="D248" s="2">
         <v>1.1537261009216309</v>
       </c>
       <c r="E248" s="2">
-        <v>0.911640465259552</v>
+        <v>0.91261166334152222</v>
       </c>
     </row>
     <row r="249">
@@ -3465,13 +3465,13 @@
         <v>0.72476279735565186</v>
       </c>
       <c r="C249" s="2">
-        <v>0.1242905929684639</v>
+        <v>0.12439494580030441</v>
       </c>
       <c r="D249" s="2">
         <v>1.0973280668258667</v>
       </c>
       <c r="E249" s="2">
-        <v>0.84782475233078003</v>
+        <v>0.84870052337646484</v>
       </c>
     </row>
     <row r="250">
@@ -3482,13 +3482,13 @@
         <v>1.3527612686157227</v>
       </c>
       <c r="C250" s="2">
-        <v>1.2449278831481934</v>
+        <v>1.2453783750534058</v>
       </c>
       <c r="D250" s="2">
         <v>1.1186145544052124</v>
       </c>
       <c r="E250" s="2">
-        <v>0.87652683258056641</v>
+        <v>0.87757325172424316</v>
       </c>
     </row>
     <row r="251">
@@ -3499,13 +3499,13 @@
         <v>1.5889337062835693</v>
       </c>
       <c r="C251" s="2">
-        <v>1.1623976230621338</v>
+        <v>1.1653428077697754</v>
       </c>
       <c r="D251" s="2">
         <v>1.0637993812561035</v>
       </c>
       <c r="E251" s="2">
-        <v>0.82256793975830078</v>
+        <v>0.82347184419631958</v>
       </c>
     </row>
     <row r="252">
@@ -3513,16 +3513,16 @@
         <v>36100</v>
       </c>
       <c r="B252" s="2">
-        <v>0.13861446082592011</v>
+        <v>0.1386144608259201</v>
       </c>
       <c r="C252" s="2">
-        <v>-0.12922364473342896</v>
+        <v>-0.12867210805416107</v>
       </c>
       <c r="D252" s="2">
         <v>0.97546648979187012</v>
       </c>
       <c r="E252" s="2">
-        <v>0.80167895555496216</v>
+        <v>0.80263465642929077</v>
       </c>
     </row>
     <row r="253">
@@ -3533,13 +3533,13 @@
         <v>0.79602092504501343</v>
       </c>
       <c r="C253" s="2">
-        <v>0.65023404359817505</v>
+        <v>0.65073329210281372</v>
       </c>
       <c r="D253" s="2">
-        <v>0.91766738891601563</v>
+        <v>0.91766738891601562</v>
       </c>
       <c r="E253" s="2">
-        <v>0.76467841863632202</v>
+        <v>0.76536065340042114</v>
       </c>
     </row>
     <row r="254">
@@ -3547,16 +3547,16 @@
         <v>36161</v>
       </c>
       <c r="B254" s="2">
-        <v>1.6479859352111817</v>
+        <v>1.6479859352111816</v>
       </c>
       <c r="C254" s="2">
-        <v>1.5709185600280762</v>
+        <v>1.5719699859619141</v>
       </c>
       <c r="D254" s="2">
-        <v>0.99857324361801148</v>
+        <v>0.99857324361801147</v>
       </c>
       <c r="E254" s="2">
-        <v>0.90158534049987793</v>
+        <v>0.90234208106994629</v>
       </c>
     </row>
     <row r="255">
@@ -3567,13 +3567,13 @@
         <v>0.87159037590026855</v>
       </c>
       <c r="C255" s="2">
-        <v>0.56623172760009766</v>
+        <v>0.56669884920120239</v>
       </c>
       <c r="D255" s="2">
         <v>1.0063868761062622</v>
       </c>
       <c r="E255" s="2">
-        <v>0.91131806373596191</v>
+        <v>0.91209930181503296</v>
       </c>
     </row>
     <row r="256">
@@ -3584,13 +3584,13 @@
         <v>0.34520411491394043</v>
       </c>
       <c r="C256" s="2">
-        <v>0.77169263362884521</v>
+        <v>0.77319705486297607</v>
       </c>
       <c r="D256" s="2">
         <v>0.84690463542938232</v>
       </c>
       <c r="E256" s="2">
-        <v>0.75648313760757446</v>
+        <v>0.75713616609573364</v>
       </c>
     </row>
     <row r="257">
@@ -3601,13 +3601,13 @@
         <v>0.7931329607963562</v>
       </c>
       <c r="C257" s="2">
-        <v>0.92063647508621216</v>
+        <v>0.91920274496078491</v>
       </c>
       <c r="D257" s="2">
         <v>0.97125893831253052</v>
       </c>
       <c r="E257" s="2">
-        <v>0.89125043153762817</v>
+        <v>0.89210206270217896</v>
       </c>
     </row>
     <row r="258">
@@ -3618,13 +3618,13 @@
         <v>1.4529156684875488</v>
       </c>
       <c r="C258" s="2">
-        <v>1.3564527034759522</v>
+        <v>1.3572276830673218</v>
       </c>
       <c r="D258" s="2">
         <v>1.0330319404602051</v>
       </c>
       <c r="E258" s="2">
-        <v>0.93964546918869019</v>
+        <v>0.94061464071273804</v>
       </c>
     </row>
     <row r="259">
@@ -3635,13 +3635,13 @@
         <v>1.4230834245681763</v>
       </c>
       <c r="C259" s="2">
-        <v>1.3325226306915283</v>
+        <v>1.3331936597824097</v>
       </c>
       <c r="D259" s="2">
         <v>1.0213062763214111</v>
       </c>
       <c r="E259" s="2">
-        <v>0.86717504262924194</v>
+        <v>0.86820513010025024</v>
       </c>
     </row>
     <row r="260">
@@ -3652,13 +3652,13 @@
         <v>0.15359380841255188</v>
       </c>
       <c r="C260" s="2">
-        <v>-0.23111696541309357</v>
+        <v>-0.22932547330856323</v>
       </c>
       <c r="D260" s="2">
         <v>1.0333116054534912</v>
       </c>
       <c r="E260" s="2">
-        <v>0.93440622091293335</v>
+        <v>0.93559753894805908</v>
       </c>
     </row>
     <row r="261">
@@ -3669,13 +3669,13 @@
         <v>1.2578030824661255</v>
       </c>
       <c r="C261" s="2">
-        <v>1.0836819410324097</v>
+        <v>1.0860205888748169</v>
       </c>
       <c r="D261" s="2">
         <v>1.0520367622375488</v>
       </c>
       <c r="E261" s="2">
-        <v>0.84392803907394409</v>
+        <v>0.84511095285415649</v>
       </c>
     </row>
     <row r="262">
@@ -3686,13 +3686,13 @@
         <v>1.351978063583374</v>
       </c>
       <c r="C262" s="2">
-        <v>1.0857894420623779</v>
+        <v>1.0873464345932007</v>
       </c>
       <c r="D262" s="2">
-        <v>1.0870660543441773</v>
+        <v>1.0870660543441772</v>
       </c>
       <c r="E262" s="2">
-        <v>0.88545435667037964</v>
+        <v>0.88683003187179565</v>
       </c>
     </row>
     <row r="263">
@@ -3703,13 +3703,13 @@
         <v>1.5424548387527466</v>
       </c>
       <c r="C263" s="2">
-        <v>0.91868484020233154</v>
+        <v>0.92028439044952393</v>
       </c>
       <c r="D263" s="2">
         <v>0.95616143941879272</v>
       </c>
       <c r="E263" s="2">
-        <v>0.73928797245025635</v>
+        <v>0.74079799652099609</v>
       </c>
     </row>
     <row r="264">
@@ -3720,13 +3720,13 @@
         <v>0.97963887453079224</v>
       </c>
       <c r="C264" s="2">
-        <v>1.1713120937347412</v>
+        <v>1.1732308864593506</v>
       </c>
       <c r="D264" s="2">
         <v>0.87969917058944702</v>
       </c>
       <c r="E264" s="2">
-        <v>0.67943859100341797</v>
+        <v>0.68102198839187622</v>
       </c>
     </row>
     <row r="265">
@@ -3737,13 +3737,13 @@
         <v>0.51372969150543213</v>
       </c>
       <c r="C265" s="2">
-        <v>-0.042610865086317062</v>
+        <v>-0.041182484477758408</v>
       </c>
       <c r="D265" s="2">
         <v>1.0744653940200806</v>
       </c>
       <c r="E265" s="2">
-        <v>0.93567407131195068</v>
+        <v>0.93705177307128906</v>
       </c>
     </row>
     <row r="266">
@@ -3754,13 +3754,13 @@
         <v>1.1083972454071045</v>
       </c>
       <c r="C266" s="2">
-        <v>1.2943735122680664</v>
+        <v>1.2946743965148926</v>
       </c>
       <c r="D266" s="2">
         <v>1.0123846530914307</v>
       </c>
       <c r="E266" s="2">
-        <v>0.86280381679534912</v>
+        <v>0.86429935693740845</v>
       </c>
     </row>
     <row r="267">
@@ -3771,13 +3771,13 @@
         <v>0.27477392554283142</v>
       </c>
       <c r="C267" s="2">
-        <v>0.040955297648906708</v>
+        <v>0.042939767241477966</v>
       </c>
       <c r="D267" s="2">
         <v>0.9141051173210144</v>
       </c>
       <c r="E267" s="2">
-        <v>0.75536036491394043</v>
+        <v>0.75690704584121704</v>
       </c>
     </row>
     <row r="268">
@@ -3788,13 +3788,13 @@
         <v>0.73492306470870972</v>
       </c>
       <c r="C268" s="2">
-        <v>0.79387795925140381</v>
+        <v>0.79520928859710693</v>
       </c>
       <c r="D268" s="2">
         <v>0.91679525375366211</v>
       </c>
       <c r="E268" s="2">
-        <v>0.81132972240447998</v>
+        <v>0.8127601146697998</v>
       </c>
     </row>
     <row r="269">
@@ -3805,13 +3805,13 @@
         <v>1.9064894914627075</v>
       </c>
       <c r="C269" s="2">
-        <v>2.0750024318695068</v>
+        <v>2.0749428272247314</v>
       </c>
       <c r="D269" s="2">
         <v>0.93014359474182129</v>
       </c>
       <c r="E269" s="2">
-        <v>0.75094634294509888</v>
+        <v>0.75221824645996094</v>
       </c>
     </row>
     <row r="270">
@@ -3822,13 +3822,13 @@
         <v>0.69907701015472412</v>
       </c>
       <c r="C270" s="2">
-        <v>0.42784944176673889</v>
+        <v>0.43124860525131226</v>
       </c>
       <c r="D270" s="2">
         <v>1.0504767894744873</v>
       </c>
       <c r="E270" s="2">
-        <v>0.92792356014251709</v>
+        <v>0.92909175157546997</v>
       </c>
     </row>
     <row r="271">
@@ -3839,13 +3839,13 @@
         <v>0.46746206283569336</v>
       </c>
       <c r="C271" s="2">
-        <v>0.11879856884479523</v>
+        <v>0.12081573158502579</v>
       </c>
       <c r="D271" s="2">
         <v>1.1118896007537842</v>
       </c>
       <c r="E271" s="2">
-        <v>0.97615021467208862</v>
+        <v>0.97747009992599487</v>
       </c>
     </row>
     <row r="272">
@@ -3856,13 +3856,13 @@
         <v>1.5666657686233521</v>
       </c>
       <c r="C272" s="2">
-        <v>1.4224091768264771</v>
+        <v>1.422961950302124</v>
       </c>
       <c r="D272" s="2">
         <v>1.3253248929977417</v>
       </c>
       <c r="E272" s="2">
-        <v>1.1912076473236084</v>
+        <v>1.1925166845321655</v>
       </c>
     </row>
     <row r="273">
@@ -3873,13 +3873,13 @@
         <v>1.0997742414474487</v>
       </c>
       <c r="C273" s="2">
-        <v>0.62786149978637695</v>
+        <v>0.62835419178009033</v>
       </c>
       <c r="D273" s="2">
         <v>1.3130826950073242</v>
       </c>
       <c r="E273" s="2">
-        <v>1.1412661075592041</v>
+        <v>1.1424304246902466</v>
       </c>
     </row>
     <row r="274">
@@ -3890,13 +3890,13 @@
         <v>1.5967279672622681</v>
       </c>
       <c r="C274" s="2">
-        <v>1.5501843690872192</v>
+        <v>1.5506792068481445</v>
       </c>
       <c r="D274" s="2">
         <v>1.2403908967971802</v>
       </c>
       <c r="E274" s="2">
-        <v>1.0364222526550293</v>
+        <v>1.0376049280166626</v>
       </c>
     </row>
     <row r="275">
@@ -3907,13 +3907,13 @@
         <v>1.6611130237579346</v>
       </c>
       <c r="C275" s="2">
-        <v>1.7284129858016968</v>
+        <v>1.7300795316696167</v>
       </c>
       <c r="D275" s="2">
         <v>1.2660610675811768</v>
       </c>
       <c r="E275" s="2">
-        <v>1.0949625968933106</v>
+        <v>1.0958372354507446</v>
       </c>
     </row>
     <row r="276">
@@ -3924,13 +3924,13 @@
         <v>2.1956918239593506</v>
       </c>
       <c r="C276" s="2">
-        <v>1.9764722585678101</v>
+        <v>1.9783586263656616</v>
       </c>
       <c r="D276" s="2">
         <v>1.3297243118286133</v>
       </c>
       <c r="E276" s="2">
-        <v>1.1742095947265625</v>
+        <v>1.1750072240829468</v>
       </c>
     </row>
     <row r="277">
@@ -3941,13 +3941,13 @@
         <v>0.62474262714385986</v>
       </c>
       <c r="C277" s="2">
-        <v>0.34440451860427857</v>
+        <v>0.34443262219429016</v>
       </c>
       <c r="D277" s="2">
         <v>1.3354830741882324</v>
       </c>
       <c r="E277" s="2">
-        <v>1.1606817245483398</v>
+        <v>1.1614859104156494</v>
       </c>
     </row>
     <row r="278">
@@ -3958,13 +3958,13 @@
         <v>1.2522634267807007</v>
       </c>
       <c r="C278" s="2">
-        <v>1.1314079761505127</v>
+        <v>1.1315138339996338</v>
       </c>
       <c r="D278" s="2">
         <v>1.3521963357925415</v>
       </c>
       <c r="E278" s="2">
-        <v>1.1978964805603027</v>
+        <v>1.1989123821258545</v>
       </c>
     </row>
     <row r="279">
@@ -3975,13 +3975,13 @@
         <v>0.93010848760604858</v>
       </c>
       <c r="C279" s="2">
-        <v>0.95471185445785523</v>
+        <v>0.95533913373947144</v>
       </c>
       <c r="D279" s="2">
         <v>1.3701539039611816</v>
       </c>
       <c r="E279" s="2">
-        <v>1.2319581508636475</v>
+        <v>1.2332757711410522</v>
       </c>
     </row>
     <row r="280">
@@ -3992,13 +3992,13 @@
         <v>1.0404309034347534</v>
       </c>
       <c r="C280" s="2">
-        <v>0.83202117681503296</v>
+        <v>0.83334589004516602</v>
       </c>
       <c r="D280" s="2">
         <v>1.4690201282501221</v>
       </c>
       <c r="E280" s="2">
-        <v>1.3310089111328125</v>
+        <v>1.3325581550598145</v>
       </c>
     </row>
     <row r="281">
@@ -4009,13 +4009,13 @@
         <v>1.6184946298599243</v>
       </c>
       <c r="C281" s="2">
-        <v>1.3006591796875</v>
+        <v>1.3012700080871582</v>
       </c>
       <c r="D281" s="2">
         <v>1.3865048885345459</v>
       </c>
       <c r="E281" s="2">
-        <v>1.2453815937042236</v>
+        <v>1.2469757795333862</v>
       </c>
     </row>
     <row r="282">
@@ -4026,13 +4026,13 @@
         <v>1.25019371509552</v>
       </c>
       <c r="C282" s="2">
-        <v>0.96279358863830566</v>
+        <v>0.96519303321838379</v>
       </c>
       <c r="D282" s="2">
-        <v>1.363510012626648</v>
+        <v>1.3635100126266479</v>
       </c>
       <c r="E282" s="2">
-        <v>1.2085899114608765</v>
+        <v>1.2102401256561279</v>
       </c>
     </row>
     <row r="283">
@@ -4043,13 +4043,13 @@
         <v>1.7583461999893188</v>
       </c>
       <c r="C283" s="2">
-        <v>1.8567399978637695</v>
+        <v>1.8599497079849243</v>
       </c>
       <c r="D283" s="2">
         <v>1.2786366939544678</v>
       </c>
       <c r="E283" s="2">
-        <v>1.1067435741424561</v>
+        <v>1.1086758375167847</v>
       </c>
     </row>
     <row r="284">
@@ -4060,13 +4060,13 @@
         <v>2.5509097576141357</v>
       </c>
       <c r="C284" s="2">
-        <v>2.6198692321777344</v>
+        <v>2.6236209869384766</v>
       </c>
       <c r="D284" s="2">
         <v>1.2541571855545044</v>
       </c>
       <c r="E284" s="2">
-        <v>1.0056788921356201</v>
+        <v>1.0076248645782471</v>
       </c>
     </row>
     <row r="285">
@@ -4077,13 +4077,13 @@
         <v>1.4530540704727173</v>
       </c>
       <c r="C285" s="2">
-        <v>1.2058272361755371</v>
+        <v>1.2081171274185181</v>
       </c>
       <c r="D285" s="2">
-        <v>1.0807789564132691</v>
+        <v>1.080778956413269</v>
       </c>
       <c r="E285" s="2">
-        <v>0.82645678520202637</v>
+        <v>0.8283543586730957</v>
       </c>
     </row>
     <row r="286">
@@ -4094,13 +4094,13 @@
         <v>0.41778936982154846</v>
       </c>
       <c r="C286" s="2">
-        <v>0.013279297389090061</v>
+        <v>0.013811036944389343</v>
       </c>
       <c r="D286" s="2">
         <v>1.0790601968765259</v>
       </c>
       <c r="E286" s="2">
-        <v>0.84460383653640747</v>
+        <v>0.846466064453125</v>
       </c>
     </row>
     <row r="287">
@@ -4111,13 +4111,13 @@
         <v>0.48840361833572388</v>
       </c>
       <c r="C287" s="2">
-        <v>0.21479049324989319</v>
+        <v>0.21743591129779816</v>
       </c>
       <c r="D287" s="2">
         <v>0.99301004409790039</v>
       </c>
       <c r="E287" s="2">
-        <v>0.7943374514579773</v>
+        <v>0.79570448398590088</v>
       </c>
     </row>
     <row r="288">
@@ -4128,13 +4128,13 @@
         <v>0.70979189872741699</v>
       </c>
       <c r="C288" s="2">
-        <v>0.045129701495170593</v>
+        <v>0.045880593359470367</v>
       </c>
       <c r="D288" s="2">
-        <v>0.85004186630249024</v>
+        <v>0.85004186630249023</v>
       </c>
       <c r="E288" s="2">
-        <v>0.61063557863235474</v>
+        <v>0.61174094676971436</v>
       </c>
     </row>
     <row r="289">
@@ -4145,13 +4145,13 @@
         <v>-0.51997315883636475</v>
       </c>
       <c r="C289" s="2">
-        <v>-0.78097742795944214</v>
+        <v>-0.78008937835693359</v>
       </c>
       <c r="D289" s="2">
         <v>0.80765068531036377</v>
       </c>
       <c r="E289" s="2">
-        <v>0.53283059597015381</v>
+        <v>0.53381061553955078</v>
       </c>
     </row>
     <row r="290">
@@ -4162,13 +4162,13 @@
         <v>1.6030266284942627</v>
       </c>
       <c r="C290" s="2">
-        <v>1.4639825820922852</v>
+        <v>1.4642753601074219</v>
       </c>
       <c r="D290" s="2">
         <v>0.82293063402175903</v>
       </c>
       <c r="E290" s="2">
-        <v>0.55094116926193237</v>
+        <v>0.55177152156829834</v>
       </c>
     </row>
     <row r="291">
@@ -4176,16 +4176,16 @@
         <v>37288</v>
       </c>
       <c r="B291" s="2">
-        <v>0.47574183344841004</v>
+        <v>0.47574183344841003</v>
       </c>
       <c r="C291" s="2">
-        <v>0.51039606332778931</v>
+        <v>0.50833892822265625</v>
       </c>
       <c r="D291" s="2">
         <v>0.88260281085968018</v>
       </c>
       <c r="E291" s="2">
-        <v>0.62089961767196655</v>
+        <v>0.62182193994522095</v>
       </c>
     </row>
     <row r="292">
@@ -4196,13 +4196,13 @@
         <v>0.47163292765617371</v>
       </c>
       <c r="C292" s="2">
-        <v>0.20342294871807098</v>
+        <v>0.20427796244621277</v>
       </c>
       <c r="D292" s="2">
         <v>0.90585345029830933</v>
       </c>
       <c r="E292" s="2">
-        <v>0.64087933301925659</v>
+        <v>0.64134126901626587</v>
       </c>
     </row>
     <row r="293">
@@ -4213,13 +4213,13 @@
         <v>2.169389009475708</v>
       </c>
       <c r="C293" s="2">
-        <v>1.9196243286132813</v>
+        <v>1.9222481250762939</v>
       </c>
       <c r="D293" s="2">
         <v>0.99328809976577759</v>
       </c>
       <c r="E293" s="2">
-        <v>0.77238678932189941</v>
+        <v>0.77296894788742065</v>
       </c>
     </row>
     <row r="294">
@@ -4230,13 +4230,13 @@
         <v>1.5905734300613403</v>
       </c>
       <c r="C294" s="2">
-        <v>1.368822455406189</v>
+        <v>1.3697652816772461</v>
       </c>
       <c r="D294" s="2">
         <v>1.1772722005844116</v>
       </c>
       <c r="E294" s="2">
-        <v>0.95794087648391724</v>
+        <v>0.95826274156570435</v>
       </c>
     </row>
     <row r="295">
@@ -4247,13 +4247,13 @@
         <v>0.95483887195587158</v>
       </c>
       <c r="C295" s="2">
-        <v>0.64290541410446167</v>
+        <v>0.644264817237854</v>
       </c>
       <c r="D295" s="2">
         <v>1.0827399492263794</v>
       </c>
       <c r="E295" s="2">
-        <v>0.82875984907150269</v>
+        <v>0.82907462120056152</v>
       </c>
     </row>
     <row r="296">
@@ -4264,13 +4264,13 @@
         <v>0.69765973091125488</v>
       </c>
       <c r="C296" s="2">
-        <v>0.39460784196853638</v>
+        <v>0.39310979843139648</v>
       </c>
       <c r="D296" s="2">
         <v>1.2303216457366943</v>
       </c>
       <c r="E296" s="2">
-        <v>0.95170283317565918</v>
+        <v>0.95239889621734619</v>
       </c>
     </row>
     <row r="297">
@@ -4281,13 +4281,13 @@
         <v>1.4967035055160522</v>
       </c>
       <c r="C297" s="2">
-        <v>1.2286967039108276</v>
+        <v>1.2305294275283813</v>
       </c>
       <c r="D297" s="2">
         <v>1.1550716161727905</v>
       </c>
       <c r="E297" s="2">
-        <v>0.87660408020019531</v>
+        <v>0.87700515985488892</v>
       </c>
     </row>
     <row r="298">
@@ -4298,13 +4298,13 @@
         <v>1.1358842849731445</v>
       </c>
       <c r="C298" s="2">
-        <v>0.88900947570800781</v>
+        <v>0.88755476474761963</v>
       </c>
       <c r="D298" s="2">
         <v>1.0595005750656128</v>
       </c>
       <c r="E298" s="2">
-        <v>0.80810904502868652</v>
+        <v>0.80836498737335205</v>
       </c>
     </row>
     <row r="299">
@@ -4315,13 +4315,13 @@
         <v>0.75223612785339355</v>
       </c>
       <c r="C299" s="2">
-        <v>0.30135339498519898</v>
+        <v>0.3015824556350708</v>
       </c>
       <c r="D299" s="2">
         <v>0.92929434776306152</v>
       </c>
       <c r="E299" s="2">
-        <v>0.69976520538330078</v>
+        <v>0.69969654083251953</v>
       </c>
     </row>
     <row r="300">
@@ -4332,13 +4332,13 @@
         <v>1.8039766550064087</v>
       </c>
       <c r="C300" s="2">
-        <v>1.6168826818466187</v>
+        <v>1.6182571649551392</v>
       </c>
       <c r="D300" s="2">
         <v>0.92470461130142212</v>
       </c>
       <c r="E300" s="2">
-        <v>0.69054913520812988</v>
+        <v>0.69052267074584961</v>
       </c>
     </row>
     <row r="301">
@@ -4349,13 +4349,13 @@
         <v>-0.20561701059341431</v>
       </c>
       <c r="C301" s="2">
-        <v>-0.47246584296226502</v>
+        <v>-0.47426533699035645</v>
       </c>
       <c r="D301" s="2">
         <v>0.99573558568954468</v>
       </c>
       <c r="E301" s="2">
-        <v>0.71230876445770264</v>
+        <v>0.7126166820526123</v>
       </c>
     </row>
     <row r="302">
@@ -4366,13 +4366,13 @@
         <v>1.3092491626739502</v>
       </c>
       <c r="C302" s="2">
-        <v>1.3031692504882813</v>
+        <v>1.3044862747192383</v>
       </c>
       <c r="D302" s="2">
         <v>0.98348772525787354</v>
       </c>
       <c r="E302" s="2">
-        <v>0.71726751327514649</v>
+        <v>0.71766781806945801</v>
       </c>
     </row>
     <row r="303">
@@ -4383,13 +4383,13 @@
         <v>0.41871783137321472</v>
       </c>
       <c r="C303" s="2">
-        <v>0.39372807741165161</v>
+        <v>0.39174947142601013</v>
       </c>
       <c r="D303" s="2">
         <v>0.76769578456878662</v>
       </c>
       <c r="E303" s="2">
-        <v>0.49359461665153504</v>
+        <v>0.49433112144470215</v>
       </c>
     </row>
     <row r="304">
@@ -4400,13 +4400,13 @@
         <v>0.91353130340576172</v>
       </c>
       <c r="C304" s="2">
-        <v>0.55996072292327881</v>
+        <v>0.56170016527175903</v>
       </c>
       <c r="D304" s="2">
         <v>0.7285504937171936</v>
       </c>
       <c r="E304" s="2">
-        <v>0.49818745255470276</v>
+        <v>0.49916517734527588</v>
       </c>
     </row>
     <row r="305">
@@ -4417,13 +4417,13 @@
         <v>1.3369383811950684</v>
       </c>
       <c r="C305" s="2">
-        <v>0.59044468402862549</v>
+        <v>0.59195566177368164</v>
       </c>
       <c r="D305" s="2">
         <v>0.47426274418830872</v>
       </c>
       <c r="E305" s="2">
-        <v>0.23881670832633972</v>
+        <v>0.23976373672485352</v>
       </c>
     </row>
     <row r="306">
@@ -4434,13 +4434,13 @@
         <v>1.3864729404449463</v>
       </c>
       <c r="C306" s="2">
-        <v>1.2733252048492432</v>
+        <v>1.2759895324707031</v>
       </c>
       <c r="D306" s="2">
         <v>0.60978662967681885</v>
       </c>
       <c r="E306" s="2">
-        <v>0.38888272643089294</v>
+        <v>0.39023444056510925</v>
       </c>
     </row>
     <row r="307">
@@ -4451,13 +4451,13 @@
         <v>-0.80624306201934814</v>
       </c>
       <c r="C307" s="2">
-        <v>-1.1240466833114624</v>
+        <v>-1.1224753856658936</v>
       </c>
       <c r="D307" s="2">
         <v>0.6389230489730835</v>
       </c>
       <c r="E307" s="2">
-        <v>0.41320589184761047</v>
+        <v>0.41447257995605469</v>
       </c>
     </row>
     <row r="308">
@@ -4465,16 +4465,16 @@
         <v>37803</v>
       </c>
       <c r="B308" s="2">
-        <v>0.39992815256118775</v>
+        <v>0.39992815256118774</v>
       </c>
       <c r="C308" s="2">
-        <v>0.34268906712532044</v>
+        <v>0.34508916735649109</v>
       </c>
       <c r="D308" s="2">
         <v>0.77143740653991699</v>
       </c>
       <c r="E308" s="2">
-        <v>0.55682015419006348</v>
+        <v>0.55842787027359009</v>
       </c>
     </row>
     <row r="309">
@@ -4485,13 +4485,13 @@
         <v>-0.48461303114891052</v>
       </c>
       <c r="C309" s="2">
-        <v>-0.71745407581329346</v>
+        <v>-0.71635591983795166</v>
       </c>
       <c r="D309" s="2">
         <v>0.7330508828163147</v>
       </c>
       <c r="E309" s="2">
-        <v>0.6064373254776001</v>
+        <v>0.60790199041366577</v>
       </c>
     </row>
     <row r="310">
@@ -4502,13 +4502,13 @@
         <v>1.0140981674194336</v>
       </c>
       <c r="C310" s="2">
-        <v>0.87812834978103638</v>
+        <v>0.87997108697891235</v>
       </c>
       <c r="D310" s="2">
         <v>0.75815600156784058</v>
       </c>
       <c r="E310" s="2">
-        <v>0.70266866683959961</v>
+        <v>0.70406079292297363</v>
       </c>
     </row>
     <row r="311">
@@ -4519,13 +4519,13 @@
         <v>1.5714768171310425</v>
       </c>
       <c r="C311" s="2">
-        <v>1.5220776796340942</v>
+        <v>1.5226294994354248</v>
       </c>
       <c r="D311" s="2">
         <v>0.68625617027282715</v>
       </c>
       <c r="E311" s="2">
-        <v>0.61029374599456787</v>
+        <v>0.61144167184829712</v>
       </c>
     </row>
     <row r="312">
@@ -4536,13 +4536,13 @@
         <v>1.6113471984863281</v>
       </c>
       <c r="C312" s="2">
-        <v>1.6862565279006958</v>
+        <v>1.6873468160629272</v>
       </c>
       <c r="D312" s="2">
         <v>0.81754857301712036</v>
       </c>
       <c r="E312" s="2">
-        <v>0.7563510537147522</v>
+        <v>0.75736212730407715</v>
       </c>
     </row>
     <row r="313">
@@ -4553,13 +4553,13 @@
         <v>0.56805253028869629</v>
       </c>
       <c r="C313" s="2">
-        <v>1.0065152645111084</v>
+        <v>1.006967306137085</v>
       </c>
       <c r="D313" s="2">
         <v>0.93562400341033936</v>
       </c>
       <c r="E313" s="2">
-        <v>0.86562573909759522</v>
+        <v>0.86657577753067017</v>
       </c>
     </row>
     <row r="314">
@@ -4570,13 +4570,13 @@
         <v>1.5628843307495117</v>
       </c>
       <c r="C314" s="2">
-        <v>1.4565267562866211</v>
+        <v>1.4573849439620972</v>
       </c>
       <c r="D314" s="2">
         <v>1.0999102592468262</v>
       </c>
       <c r="E314" s="2">
-        <v>1.0219999551773071</v>
+        <v>1.023052453994751</v>
       </c>
     </row>
     <row r="315">
@@ -4587,13 +4587,13 @@
         <v>0.73937433958053589</v>
       </c>
       <c r="C315" s="2">
-        <v>0.44195082783699036</v>
+        <v>0.44241747260093689</v>
       </c>
       <c r="D315" s="2">
-        <v>1.1503597497940064</v>
+        <v>1.1503597497940063</v>
       </c>
       <c r="E315" s="2">
-        <v>1.0435996055603027</v>
+        <v>1.0446130037307739</v>
       </c>
     </row>
     <row r="316">
@@ -4604,13 +4604,13 @@
         <v>0.37538883090019226</v>
       </c>
       <c r="C316" s="2">
-        <v>0.19046905636787415</v>
+        <v>0.19080853462219238</v>
       </c>
       <c r="D316" s="2">
         <v>1.1143773794174194</v>
       </c>
       <c r="E316" s="2">
-        <v>1.0011626482009888</v>
+        <v>1.002194881439209</v>
       </c>
     </row>
     <row r="317">
@@ -4621,13 +4621,13 @@
         <v>1.46260666847229</v>
       </c>
       <c r="C317" s="2">
-        <v>1.3261613845825195</v>
+        <v>1.3280123472213745</v>
       </c>
       <c r="D317" s="2">
-        <v>0.94556421041488648</v>
+        <v>0.94556421041488647</v>
       </c>
       <c r="E317" s="2">
-        <v>0.81356185674667358</v>
+        <v>0.81461447477340698</v>
       </c>
     </row>
     <row r="318">
@@ -4638,13 +4638,13 @@
         <v>0.99396336078643799</v>
       </c>
       <c r="C318" s="2">
-        <v>0.68991386890411377</v>
+        <v>0.69193416833877563</v>
       </c>
       <c r="D318" s="2">
         <v>0.9559025764465332</v>
       </c>
       <c r="E318" s="2">
-        <v>0.73630374670028687</v>
+        <v>0.73759037256240845</v>
       </c>
     </row>
     <row r="319">
@@ -4655,13 +4655,13 @@
         <v>1.4681437015533447</v>
       </c>
       <c r="C319" s="2">
-        <v>1.0725246667861939</v>
+        <v>1.0740162134170532</v>
       </c>
       <c r="D319" s="2">
         <v>0.93070501089096069</v>
       </c>
       <c r="E319" s="2">
-        <v>0.68028545379638672</v>
+        <v>0.68168771266937256</v>
       </c>
     </row>
     <row r="320">
@@ -4672,13 +4672,13 @@
         <v>1.2476351261138916</v>
       </c>
       <c r="C320" s="2">
-        <v>1.1401454210281372</v>
+        <v>1.1408666372299194</v>
       </c>
       <c r="D320" s="2">
         <v>1.000348687171936</v>
       </c>
       <c r="E320" s="2">
-        <v>0.75907319784164429</v>
+        <v>0.76055121421813965</v>
       </c>
     </row>
     <row r="321">
@@ -4689,13 +4689,13 @@
         <v>0.092029169201850891</v>
       </c>
       <c r="C321" s="2">
-        <v>-0.0021507185883820057</v>
+        <v>-0.00087755493586882949</v>
       </c>
       <c r="D321" s="2">
         <v>1.0339717864990234</v>
       </c>
       <c r="E321" s="2">
-        <v>0.869875967502594</v>
+        <v>0.87148898839950562</v>
       </c>
     </row>
     <row r="322">
@@ -4706,13 +4706,13 @@
         <v>0.66109788417816162</v>
       </c>
       <c r="C322" s="2">
-        <v>0.31119239330291748</v>
+        <v>0.31375044584274292</v>
       </c>
       <c r="D322" s="2">
         <v>0.93579024076461792</v>
       </c>
       <c r="E322" s="2">
-        <v>0.76380914449691773</v>
+        <v>0.76535683870315552</v>
       </c>
     </row>
     <row r="323">
@@ -4723,13 +4723,13 @@
         <v>1.3361060619354248</v>
       </c>
       <c r="C323" s="2">
-        <v>0.952362060546875</v>
+        <v>0.95426100492477417</v>
       </c>
       <c r="D323" s="2">
         <v>0.92109745740890503</v>
       </c>
       <c r="E323" s="2">
-        <v>0.75953531265258789</v>
+        <v>0.76116359233856201</v>
       </c>
     </row>
     <row r="324">
@@ -4740,13 +4740,13 @@
         <v>1.3661671876907349</v>
       </c>
       <c r="C324" s="2">
-        <v>1.1510404348373413</v>
+        <v>1.1521888971328735</v>
       </c>
       <c r="D324" s="2">
         <v>0.85225611925125122</v>
       </c>
       <c r="E324" s="2">
-        <v>0.72417706251144409</v>
+        <v>0.72567915916442871</v>
       </c>
     </row>
     <row r="325">
@@ -4757,13 +4757,13 @@
         <v>0.67799729108810425</v>
       </c>
       <c r="C325" s="2">
-        <v>1.1876941919326782</v>
+        <v>1.18924880027771</v>
       </c>
       <c r="D325" s="2">
         <v>0.81152629852294922</v>
       </c>
       <c r="E325" s="2">
-        <v>0.69074702262878418</v>
+        <v>0.69232404232025146</v>
       </c>
     </row>
     <row r="326">
@@ -4774,13 +4774,13 @@
         <v>0.5789724588394165</v>
       </c>
       <c r="C326" s="2">
-        <v>0.37156024575233459</v>
+        <v>0.37282314896583557</v>
       </c>
       <c r="D326" s="2">
         <v>0.93742728233337402</v>
       </c>
       <c r="E326" s="2">
-        <v>0.81180089712142944</v>
+        <v>0.81334578990936279</v>
       </c>
     </row>
     <row r="327">
@@ -4791,13 +4791,13 @@
         <v>0.8617284893989563</v>
       </c>
       <c r="C327" s="2">
-        <v>0.65144890546798706</v>
+        <v>0.65419453382492065</v>
       </c>
       <c r="D327" s="2">
         <v>0.97826093435287476</v>
       </c>
       <c r="E327" s="2">
-        <v>0.86796486377716065</v>
+        <v>0.86945265531539917</v>
       </c>
     </row>
     <row r="328">
@@ -4808,13 +4808,13 @@
         <v>0.84857147932052612</v>
       </c>
       <c r="C328" s="2">
-        <v>0.75430059432983398</v>
+        <v>0.75465631484985352</v>
       </c>
       <c r="D328" s="2">
         <v>0.93273746967315674</v>
       </c>
       <c r="E328" s="2">
-        <v>0.86791831254959106</v>
+        <v>0.86889553070068359</v>
       </c>
     </row>
     <row r="329">
@@ -4825,13 +4825,13 @@
         <v>0.88106644153594971</v>
       </c>
       <c r="C329" s="2">
-        <v>0.83927518129348755</v>
+        <v>0.84067100286483765</v>
       </c>
       <c r="D329" s="2">
-        <v>0.82271802425384522</v>
+        <v>0.82271802425384521</v>
       </c>
       <c r="E329" s="2">
-        <v>0.79255890846252442</v>
+        <v>0.79350042343139648</v>
       </c>
     </row>
     <row r="330">
@@ -4842,13 +4842,13 @@
         <v>1.2251380681991577</v>
       </c>
       <c r="C330" s="2">
-        <v>1.087334156036377</v>
+        <v>1.0883182287216187</v>
       </c>
       <c r="D330" s="2">
-        <v>0.85231399536132813</v>
+        <v>0.85231399536132812</v>
       </c>
       <c r="E330" s="2">
-        <v>0.74563360214233398</v>
+        <v>0.7465059757232666</v>
       </c>
     </row>
     <row r="331">
@@ -4859,13 +4859,13 @@
         <v>1.0286011695861816</v>
       </c>
       <c r="C331" s="2">
-        <v>0.81666809320449829</v>
+        <v>0.81871217489242554</v>
       </c>
       <c r="D331" s="2">
         <v>0.89910435676574707</v>
       </c>
       <c r="E331" s="2">
-        <v>0.80786895751953125</v>
+        <v>0.80867111682891846</v>
       </c>
     </row>
     <row r="332">
@@ -4876,13 +4876,13 @@
         <v>0.92639487981796265</v>
       </c>
       <c r="C332" s="2">
-        <v>0.95194298028945923</v>
+        <v>0.94924646615982056</v>
       </c>
       <c r="D332" s="2">
         <v>0.97743362188339233</v>
       </c>
       <c r="E332" s="2">
-        <v>0.85920906066894531</v>
+        <v>0.85973912477493286</v>
       </c>
     </row>
     <row r="333">
@@ -4893,13 +4893,13 @@
         <v>0.37599179148674011</v>
       </c>
       <c r="C333" s="2">
-        <v>0.4728056788444519</v>
+        <v>0.47363311052322388</v>
       </c>
       <c r="D333" s="2">
         <v>1.0743964910507202</v>
       </c>
       <c r="E333" s="2">
-        <v>0.94132566452026367</v>
+        <v>0.94190371036529541</v>
       </c>
     </row>
     <row r="334">
@@ -4907,16 +4907,16 @@
         <v>38596</v>
       </c>
       <c r="B334" s="2">
-        <v>0.94436109066009522</v>
+        <v>0.94436109066009521</v>
       </c>
       <c r="C334" s="2">
-        <v>0.76536661386489868</v>
+        <v>0.76629865169525146</v>
       </c>
       <c r="D334" s="2">
         <v>0.97155135869979858</v>
       </c>
       <c r="E334" s="2">
-        <v>0.79884719848632813</v>
+        <v>0.79959815740585327</v>
       </c>
     </row>
     <row r="335">
@@ -4927,13 +4927,13 @@
         <v>1.0000859498977661</v>
       </c>
       <c r="C335" s="2">
-        <v>0.93167823553085327</v>
+        <v>0.93230932950973511</v>
       </c>
       <c r="D335" s="2">
         <v>1.0137605667114258</v>
       </c>
       <c r="E335" s="2">
-        <v>0.83498853445053101</v>
+        <v>0.83588439226150513</v>
       </c>
     </row>
     <row r="336">
@@ -4944,13 +4944,13 @@
         <v>1.5666918754577637</v>
       </c>
       <c r="C336" s="2">
-        <v>1.1135101318359375</v>
+        <v>1.1138069629669189</v>
       </c>
       <c r="D336" s="2">
         <v>0.86322373151779175</v>
       </c>
       <c r="E336" s="2">
-        <v>0.69335120916366577</v>
+        <v>0.69397157430648804</v>
       </c>
     </row>
     <row r="337">
@@ -4961,13 +4961,13 @@
         <v>1.7212371826171875</v>
       </c>
       <c r="C337" s="2">
-        <v>1.4933499097824097</v>
+        <v>1.4941374063491821</v>
       </c>
       <c r="D337" s="2">
         <v>0.95414084196090698</v>
       </c>
       <c r="E337" s="2">
-        <v>0.76589208841323853</v>
+        <v>0.76701760292053223</v>
       </c>
     </row>
     <row r="338">
@@ -4978,13 +4978,13 @@
         <v>-0.04453996941447258</v>
       </c>
       <c r="C338" s="2">
-        <v>-0.44303092360496521</v>
+        <v>-0.44007870554924011</v>
       </c>
       <c r="D338" s="2">
         <v>1.1469392776489258</v>
       </c>
       <c r="E338" s="2">
-        <v>0.93610519170761108</v>
+        <v>0.93724614381790161</v>
       </c>
     </row>
     <row r="339">
@@ -4995,13 +4995,13 @@
         <v>1.6050214767456055</v>
       </c>
       <c r="C339" s="2">
-        <v>1.4126061201095581</v>
+        <v>1.4148939847946167</v>
       </c>
       <c r="D339" s="2">
         <v>1.1296859979629517</v>
       </c>
       <c r="E339" s="2">
-        <v>0.89287155866622925</v>
+        <v>0.89395779371261597</v>
       </c>
     </row>
     <row r="340">
@@ -5012,13 +5012,13 @@
         <v>-0.32623058557510376</v>
       </c>
       <c r="C340" s="2">
-        <v>-0.45806789398193359</v>
+        <v>-0.45850294828414917</v>
       </c>
       <c r="D340" s="2">
         <v>1.1529141664505005</v>
       </c>
       <c r="E340" s="2">
-        <v>0.91545885801315308</v>
+        <v>0.91653072834014893</v>
       </c>
     </row>
     <row r="341">
@@ -5029,13 +5029,13 @@
         <v>1.7446486949920654</v>
       </c>
       <c r="C341" s="2">
-        <v>1.6048109531402588</v>
+        <v>1.6066607236862183</v>
       </c>
       <c r="D341" s="2">
         <v>0.88070487976074219</v>
       </c>
       <c r="E341" s="2">
-        <v>0.6268460750579834</v>
+        <v>0.62792599201202393</v>
       </c>
     </row>
     <row r="342">
@@ -5046,13 +5046,13 @@
         <v>2.1111781597137451</v>
       </c>
       <c r="C342" s="2">
-        <v>2.0047235488891602</v>
+        <v>2.0056898593902588</v>
       </c>
       <c r="D342" s="2">
         <v>0.74200582504272461</v>
       </c>
       <c r="E342" s="2">
-        <v>0.51525992155075073</v>
+        <v>0.51640266180038452</v>
       </c>
     </row>
     <row r="343">
@@ -5060,16 +5060,16 @@
         <v>38869</v>
       </c>
       <c r="B343" s="2">
-        <v>0.78908157348632813</v>
+        <v>0.78908157348632812</v>
       </c>
       <c r="C343" s="2">
-        <v>0.37626397609710693</v>
+        <v>0.37670367956161499</v>
       </c>
       <c r="D343" s="2">
         <v>0.83294153213500977</v>
       </c>
       <c r="E343" s="2">
-        <v>0.62317967414855957</v>
+        <v>0.62403368949890137</v>
       </c>
     </row>
     <row r="344">
@@ -5080,13 +5080,13 @@
         <v>1.209139347076416</v>
       </c>
       <c r="C344" s="2">
-        <v>1.1349641084671021</v>
+        <v>1.1354653835296631</v>
       </c>
       <c r="D344" s="2">
         <v>0.8226657509803772</v>
       </c>
       <c r="E344" s="2">
-        <v>0.61452978849411011</v>
+        <v>0.61523270606994629</v>
       </c>
     </row>
     <row r="345">
@@ -5097,13 +5097,13 @@
         <v>-0.88319182395935059</v>
       </c>
       <c r="C345" s="2">
-        <v>-1.4840052127838135</v>
+        <v>-1.4836351871490479</v>
       </c>
       <c r="D345" s="2">
         <v>0.9124876856803894</v>
       </c>
       <c r="E345" s="2">
-        <v>0.69454026222229004</v>
+        <v>0.69536876678466797</v>
       </c>
     </row>
     <row r="346">
@@ -5114,13 +5114,13 @@
         <v>0.47294574975967407</v>
       </c>
       <c r="C346" s="2">
-        <v>0.4890744686126709</v>
+        <v>0.49042704701423645</v>
       </c>
       <c r="D346" s="2">
-        <v>0.83863216638565064</v>
+        <v>0.83863216638565063</v>
       </c>
       <c r="E346" s="2">
-        <v>0.62155377864837646</v>
+        <v>0.62233215570449829</v>
       </c>
     </row>
     <row r="347">
@@ -5131,13 +5131,13 @@
         <v>0.77388107776641846</v>
       </c>
       <c r="C347" s="2">
-        <v>0.5282471776008606</v>
+        <v>0.52860063314437866</v>
       </c>
       <c r="D347" s="2">
         <v>0.76935845613479614</v>
       </c>
       <c r="E347" s="2">
-        <v>0.5212174654006958</v>
+        <v>0.52217066287994385</v>
       </c>
     </row>
     <row r="348">
@@ -5148,13 +5148,13 @@
         <v>1.5125393867492676</v>
       </c>
       <c r="C348" s="2">
-        <v>1.3347570896148682</v>
+        <v>1.3356850147247314</v>
       </c>
       <c r="D348" s="2">
         <v>0.84573310613632202</v>
       </c>
       <c r="E348" s="2">
-        <v>0.62885946035385132</v>
+        <v>0.62971985340118408</v>
       </c>
     </row>
     <row r="349">
@@ -5165,13 +5165,13 @@
         <v>0.48216709494590759</v>
       </c>
       <c r="C349" s="2">
-        <v>0.26202642917633057</v>
+        <v>0.26272189617156982</v>
       </c>
       <c r="D349" s="2">
         <v>0.85027694702148438</v>
       </c>
       <c r="E349" s="2">
-        <v>0.64336687326431274</v>
+        <v>0.64445489645004272</v>
       </c>
     </row>
     <row r="350">
@@ -5182,13 +5182,13 @@
         <v>1.0799490213394165</v>
       </c>
       <c r="C350" s="2">
-        <v>0.94793248176574707</v>
+        <v>0.94933122396469116</v>
       </c>
       <c r="D350" s="2">
         <v>1.050269603729248</v>
       </c>
       <c r="E350" s="2">
-        <v>0.94035661220550537</v>
+        <v>0.94154632091522217</v>
       </c>
     </row>
     <row r="351">
@@ -5199,13 +5199,13 @@
         <v>1.4877148866653442</v>
       </c>
       <c r="C351" s="2">
-        <v>1.1016968488693237</v>
+        <v>1.1042362451553345</v>
       </c>
       <c r="D351" s="2">
         <v>1.1629682779312134</v>
       </c>
       <c r="E351" s="2">
-        <v>1.0564378499984741</v>
+        <v>1.0574268102645874</v>
       </c>
     </row>
     <row r="352">
@@ -5216,13 +5216,13 @@
         <v>1.4764531850814819</v>
       </c>
       <c r="C352" s="2">
-        <v>1.3450417518615723</v>
+        <v>1.3446465730667114</v>
       </c>
       <c r="D352" s="2">
         <v>1.2526540756225586</v>
       </c>
       <c r="E352" s="2">
-        <v>1.1594656705856323</v>
+        <v>1.1606042385101318</v>
       </c>
     </row>
     <row r="353">
@@ -5233,13 +5233,13 @@
         <v>1.250033974647522</v>
       </c>
       <c r="C353" s="2">
-        <v>1.2655308246612549</v>
+        <v>1.268080472946167</v>
       </c>
       <c r="D353" s="2">
         <v>1.2666057348251343</v>
       </c>
       <c r="E353" s="2">
-        <v>1.1957118511199951</v>
+        <v>1.1968966722488403</v>
       </c>
     </row>
     <row r="354">
@@ -5250,13 +5250,13 @@
         <v>0.91674226522445679</v>
       </c>
       <c r="C354" s="2">
-        <v>1.1889023780822754</v>
+        <v>1.190187931060791</v>
       </c>
       <c r="D354" s="2">
         <v>1.327772855758667</v>
       </c>
       <c r="E354" s="2">
-        <v>1.2586350440979004</v>
+        <v>1.2599914073944092</v>
       </c>
     </row>
     <row r="355">
@@ -5267,13 +5267,13 @@
         <v>1.4872337579727173</v>
       </c>
       <c r="C355" s="2">
-        <v>1.5338054895401001</v>
+        <v>1.5333511829376221</v>
       </c>
       <c r="D355" s="2">
         <v>1.3739309310913086</v>
       </c>
       <c r="E355" s="2">
-        <v>1.3104994297027588</v>
+        <v>1.3115658760070801</v>
       </c>
     </row>
     <row r="356">
@@ -5284,13 +5284,13 @@
         <v>1.5810526609420776</v>
       </c>
       <c r="C356" s="2">
-        <v>1.4554976224899292</v>
+        <v>1.4571973085403442</v>
       </c>
       <c r="D356" s="2">
         <v>1.1782811880111694</v>
       </c>
       <c r="E356" s="2">
-        <v>1.1476848125457764</v>
+        <v>1.1484150886535645</v>
       </c>
     </row>
     <row r="357">
@@ -5301,13 +5301,13 @@
         <v>1.6381043195724487</v>
       </c>
       <c r="C357" s="2">
-        <v>1.6609733104705811</v>
+        <v>1.6623167991638184</v>
       </c>
       <c r="D357" s="2">
-        <v>1.1397476196289063</v>
+        <v>1.1397476196289062</v>
       </c>
       <c r="E357" s="2">
-        <v>1.1045494079589844</v>
+        <v>1.1053452491760254</v>
       </c>
     </row>
     <row r="358">
@@ -5318,13 +5318,13 @@
         <v>1.0326718091964722</v>
       </c>
       <c r="C358" s="2">
-        <v>0.82833516597747803</v>
+        <v>0.83057540655136108</v>
       </c>
       <c r="D358" s="2">
         <v>1.1061015129089355</v>
       </c>
       <c r="E358" s="2">
-        <v>1.0458160638809204</v>
+        <v>1.0463287830352783</v>
       </c>
     </row>
     <row r="359">
@@ -5335,13 +5335,13 @@
         <v>1.4953709840774536</v>
       </c>
       <c r="C359" s="2">
-        <v>1.4147114753723145</v>
+        <v>1.4135009050369263</v>
       </c>
       <c r="D359" s="2">
         <v>1.0519428253173828</v>
       </c>
       <c r="E359" s="2">
-        <v>0.94851040840148926</v>
+        <v>0.94903564453125</v>
       </c>
     </row>
     <row r="360">
@@ -5352,13 +5352,13 @@
         <v>-0.27313265204429626</v>
       </c>
       <c r="C360" s="2">
-        <v>-0.36363440752029419</v>
+        <v>-0.3641202449798584</v>
       </c>
       <c r="D360" s="2">
         <v>0.94394612312316895</v>
       </c>
       <c r="E360" s="2">
-        <v>0.82975322008132935</v>
+        <v>0.83029556274414062</v>
       </c>
     </row>
     <row r="361">
@@ -5369,13 +5369,13 @@
         <v>1.1296514272689819</v>
       </c>
       <c r="C361" s="2">
-        <v>0.95682317018508911</v>
+        <v>0.95701694488525391</v>
       </c>
       <c r="D361" s="2">
         <v>0.76388567686080933</v>
       </c>
       <c r="E361" s="2">
-        <v>0.72315096855163574</v>
+        <v>0.72353672981262207</v>
       </c>
     </row>
     <row r="362">
@@ -5386,13 +5386,13 @@
         <v>0.9472193717956543</v>
       </c>
       <c r="C362" s="2">
-        <v>0.73693042993545532</v>
+        <v>0.73693317174911499</v>
       </c>
       <c r="D362" s="2">
         <v>0.54172438383102417</v>
       </c>
       <c r="E362" s="2">
-        <v>0.47601056098937988</v>
+        <v>0.47640141844749451</v>
       </c>
     </row>
     <row r="363">
@@ -5403,13 +5403,13 @@
         <v>0.42931383848190308</v>
       </c>
       <c r="C363" s="2">
-        <v>0.3131515383720398</v>
+        <v>0.31454935669898987</v>
       </c>
       <c r="D363" s="2">
         <v>0.4697323739528656</v>
       </c>
       <c r="E363" s="2">
-        <v>0.39279958605766296</v>
+        <v>0.39300641417503357</v>
       </c>
     </row>
     <row r="364">
@@ -5420,13 +5420,13 @@
         <v>0.51526331901550293</v>
       </c>
       <c r="C364" s="2">
-        <v>0.4649905264377594</v>
+        <v>0.46469020843505859</v>
       </c>
       <c r="D364" s="2">
         <v>0.28652283549308777</v>
       </c>
       <c r="E364" s="2">
-        <v>0.19803899526596069</v>
+        <v>0.19845953583717346</v>
       </c>
     </row>
     <row r="365">
@@ -5437,13 +5437,13 @@
         <v>-0.039491485804319382</v>
       </c>
       <c r="C365" s="2">
-        <v>0.49607726931571961</v>
+        <v>0.49636822938919067</v>
       </c>
       <c r="D365" s="2">
         <v>0.40503662824630737</v>
       </c>
       <c r="E365" s="2">
-        <v>0.31228446960449219</v>
+        <v>0.31291726231575012</v>
       </c>
     </row>
     <row r="366">
@@ -5454,13 +5454,13 @@
         <v>-0.3613470196723938</v>
       </c>
       <c r="C366" s="2">
-        <v>-0.56329017877578735</v>
+        <v>-0.56190133094787598</v>
       </c>
       <c r="D366" s="2">
-        <v>0.30304220318794251</v>
+        <v>0.3030422031879425</v>
       </c>
       <c r="E366" s="2">
-        <v>0.20224641263484955</v>
+        <v>0.20293912291526794</v>
       </c>
     </row>
     <row r="367">
@@ -5471,13 +5471,13 @@
         <v>0.38474345207214355</v>
       </c>
       <c r="C367" s="2">
-        <v>0.079436570405960083</v>
+        <v>0.08002038300037384</v>
       </c>
       <c r="D367" s="2">
         <v>0.192133828997612</v>
       </c>
       <c r="E367" s="2">
-        <v>0.088398650288581848</v>
+        <v>0.089006736874580383</v>
       </c>
     </row>
     <row r="368">
@@ -5488,13 +5488,13 @@
         <v>-0.15351486206054688</v>
       </c>
       <c r="C368" s="2">
-        <v>-0.33813393115997314</v>
+        <v>-0.33742085099220276</v>
       </c>
       <c r="D368" s="2">
         <v>0.21625897288322449</v>
       </c>
       <c r="E368" s="2">
-        <v>0.10902515053749084</v>
+        <v>0.10970260947942734</v>
       </c>
     </row>
     <row r="369">
@@ -5505,13 +5505,13 @@
         <v>0.79349154233932495</v>
       </c>
       <c r="C369" s="2">
-        <v>0.66457492113113403</v>
+        <v>0.66599923372268677</v>
       </c>
       <c r="D369" s="2">
         <v>0.1829356849193573</v>
       </c>
       <c r="E369" s="2">
-        <v>0.05464467778801918</v>
+        <v>0.055508371442556381</v>
       </c>
     </row>
     <row r="370">
@@ -5522,13 +5522,13 @@
         <v>0.21170161664485931</v>
       </c>
       <c r="C370" s="2">
-        <v>-0.03351946547627449</v>
+        <v>-0.032786339521408081</v>
       </c>
       <c r="D370" s="2">
         <v>0.33001428842544556</v>
       </c>
       <c r="E370" s="2">
-        <v>0.13050608336925507</v>
+        <v>0.13136550784111023</v>
       </c>
     </row>
     <row r="371">
@@ -5539,13 +5539,13 @@
         <v>-0.05095590278506279</v>
       </c>
       <c r="C371" s="2">
-        <v>-0.28769943118095398</v>
+        <v>-0.28845828771591187</v>
       </c>
       <c r="D371" s="2">
         <v>0.45911511778831482</v>
       </c>
       <c r="E371" s="2">
-        <v>0.28826475143432617</v>
+        <v>0.28939399123191833</v>
       </c>
     </row>
     <row r="372">
@@ -5556,13 +5556,13 @@
         <v>0.64644014835357666</v>
       </c>
       <c r="C372" s="2">
-        <v>0.49879005551338196</v>
+        <v>0.50081223249435425</v>
       </c>
       <c r="D372" s="2">
         <v>0.4512697160243988</v>
       </c>
       <c r="E372" s="2">
-        <v>0.29443225264549255</v>
+        <v>0.2955329418182373</v>
       </c>
     </row>
     <row r="373">
@@ -5573,13 +5573,13 @@
         <v>0.21535365283489227</v>
       </c>
       <c r="C373" s="2">
-        <v>-0.024433717131614685</v>
+        <v>-0.023057937622070312</v>
       </c>
       <c r="D373" s="2">
         <v>0.61973947286605835</v>
       </c>
       <c r="E373" s="2">
-        <v>0.45567893981933594</v>
+        <v>0.45697581768035889</v>
       </c>
     </row>
     <row r="374">
@@ -5590,13 +5590,13 @@
         <v>1.2842159271240234</v>
       </c>
       <c r="C374" s="2">
-        <v>1.1788299083709717</v>
+        <v>1.1790825128555298</v>
       </c>
       <c r="D374" s="2">
         <v>0.61039769649505615</v>
       </c>
       <c r="E374" s="2">
-        <v>0.44046968221664429</v>
+        <v>0.44167733192443848</v>
       </c>
     </row>
     <row r="375">
@@ -5607,13 +5607,13 @@
         <v>0.8005605936050415</v>
       </c>
       <c r="C375" s="2">
-        <v>0.85653787851333618</v>
+        <v>0.8603549599647522</v>
       </c>
       <c r="D375" s="2">
         <v>0.63082516193389893</v>
       </c>
       <c r="E375" s="2">
-        <v>0.46890676021575928</v>
+        <v>0.47000139951705933</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>0.31413483619689941</v>
       </c>
       <c r="C376" s="2">
-        <v>0.13494408130645752</v>
+        <v>0.13527095317840576</v>
       </c>
       <c r="D376" s="2">
         <v>0.62528997659683228</v>
       </c>
       <c r="E376" s="2">
-        <v>0.49164849519729614</v>
+        <v>0.49275863170623779</v>
       </c>
     </row>
     <row r="377">
@@ -5641,13 +5641,13 @@
         <v>1.3627126216888428</v>
       </c>
       <c r="C377" s="2">
-        <v>1.1130862236022949</v>
+        <v>1.1155649423599243</v>
       </c>
       <c r="D377" s="2">
         <v>0.5664517879486084</v>
       </c>
       <c r="E377" s="2">
-        <v>0.4354049563407898</v>
+        <v>0.43640989065170288</v>
       </c>
     </row>
     <row r="378">
@@ -5658,13 +5658,13 @@
         <v>0.70941591262817383</v>
       </c>
       <c r="C378" s="2">
-        <v>0.52769166231155396</v>
+        <v>0.52831292152404785</v>
       </c>
       <c r="D378" s="2">
-        <v>0.59306252002716065</v>
+        <v>0.59306252002716064</v>
       </c>
       <c r="E378" s="2">
-        <v>0.49186933040618897</v>
+        <v>0.49293631315231323</v>
       </c>
     </row>
     <row r="379">
@@ -5675,13 +5675,13 @@
         <v>0.39554858207702637</v>
       </c>
       <c r="C379" s="2">
-        <v>0.2224142998456955</v>
+        <v>0.22213034331798553</v>
       </c>
       <c r="D379" s="2">
         <v>0.44809642434120178</v>
       </c>
       <c r="E379" s="2">
-        <v>0.34117439389228821</v>
+        <v>0.342103511095047</v>
       </c>
     </row>
     <row r="380">
@@ -5692,13 +5692,13 @@
         <v>-0.10077229142189026</v>
       </c>
       <c r="C380" s="2">
-        <v>-0.083023831248283386</v>
+        <v>-0.083643123507499695</v>
       </c>
       <c r="D380" s="2">
         <v>0.40597635507583618</v>
       </c>
       <c r="E380" s="2">
-        <v>0.26683783531188965</v>
+        <v>0.26746875047683716</v>
       </c>
     </row>
     <row r="381">
@@ -5709,13 +5709,13 @@
         <v>0.11689631640911102</v>
       </c>
       <c r="C381" s="2">
-        <v>-0.0074017895385622978</v>
+        <v>-0.0063264518976211548</v>
       </c>
       <c r="D381" s="2">
         <v>0.44833150506019592</v>
       </c>
       <c r="E381" s="2">
-        <v>0.30444958806037903</v>
+        <v>0.30511674284934998</v>
       </c>
     </row>
     <row r="382">
@@ -5726,13 +5726,13 @@
         <v>0.45485028624534607</v>
       </c>
       <c r="C382" s="2">
-        <v>0.48374548554420471</v>
+        <v>0.4856797456741333</v>
       </c>
       <c r="D382" s="2">
         <v>0.29954487085342407</v>
       </c>
       <c r="E382" s="2">
-        <v>0.10545134544372559</v>
+        <v>0.10597763955593109</v>
       </c>
     </row>
     <row r="383">
@@ -5743,13 +5743,13 @@
         <v>-0.020478913560509682</v>
       </c>
       <c r="C383" s="2">
-        <v>-0.17742438614368439</v>
+        <v>-0.17841270565986633</v>
       </c>
       <c r="D383" s="2">
         <v>0.3782193660736084</v>
       </c>
       <c r="E383" s="2">
-        <v>0.18320569396018982</v>
+        <v>0.18375280499458313</v>
       </c>
     </row>
     <row r="384">
@@ -5760,13 +5760,13 @@
         <v>0.42147979140281677</v>
       </c>
       <c r="C384" s="2">
-        <v>0.18750876188278198</v>
+        <v>0.18864218890666962</v>
       </c>
       <c r="D384" s="2">
         <v>0.33594030141830444</v>
       </c>
       <c r="E384" s="2">
-        <v>0.12228512018918991</v>
+        <v>0.12297047674655914</v>
       </c>
     </row>
     <row r="385">
@@ -5777,13 +5777,13 @@
         <v>0.6953311562538147</v>
       </c>
       <c r="C385" s="2">
-        <v>0.47344976663589478</v>
+        <v>0.47410276532173157</v>
       </c>
       <c r="D385" s="2">
         <v>0.46171224117279053</v>
       </c>
       <c r="E385" s="2">
-        <v>0.23377986252307892</v>
+        <v>0.23441576957702637</v>
       </c>
     </row>
     <row r="386">
@@ -5794,13 +5794,13 @@
         <v>0.023632992058992386</v>
       </c>
       <c r="C386" s="2">
-        <v>-0.6778978705406189</v>
+        <v>-0.67668694257736206</v>
       </c>
       <c r="D386" s="2">
         <v>0.57530373334884644</v>
       </c>
       <c r="E386" s="2">
-        <v>0.33743643760681152</v>
+        <v>0.3378925621509552</v>
       </c>
     </row>
     <row r="387">
@@ -5811,13 +5811,13 @@
         <v>1.4174864292144775</v>
       </c>
       <c r="C387" s="2">
-        <v>1.2274807691574097</v>
+        <v>1.2282894849777222</v>
       </c>
       <c r="D387" s="2">
         <v>0.53660774230957031</v>
       </c>
       <c r="E387" s="2">
-        <v>0.2470109760761261</v>
+        <v>0.24731849133968353</v>
       </c>
     </row>
     <row r="388">
@@ -5828,13 +5828,13 @@
         <v>0.01503694336861372</v>
       </c>
       <c r="C388" s="2">
-        <v>-0.3258708119392395</v>
+        <v>-0.32491067051887512</v>
       </c>
       <c r="D388" s="2">
         <v>0.63792628049850464</v>
       </c>
       <c r="E388" s="2">
-        <v>0.36785244941711426</v>
+        <v>0.36836981773376465</v>
       </c>
     </row>
     <row r="389">
@@ -5845,13 +5845,13 @@
         <v>1.0311752557754517</v>
       </c>
       <c r="C389" s="2">
-        <v>0.92042887210845947</v>
+        <v>0.91936451196670532</v>
       </c>
       <c r="D389" s="2">
         <v>0.74791854619979858</v>
       </c>
       <c r="E389" s="2">
-        <v>0.52143299579620361</v>
+        <v>0.52182340621948242</v>
       </c>
     </row>
     <row r="390">
@@ -5862,13 +5862,13 @@
         <v>1.1392196416854858</v>
       </c>
       <c r="C390" s="2">
-        <v>0.92550736665725708</v>
+        <v>0.9249647855758667</v>
       </c>
       <c r="D390" s="2">
         <v>0.80796927213668823</v>
       </c>
       <c r="E390" s="2">
-        <v>0.59189426898956299</v>
+        <v>0.59228140115737915</v>
       </c>
     </row>
     <row r="391">
@@ -5879,13 +5879,13 @@
         <v>0.10658663511276245</v>
       </c>
       <c r="C391" s="2">
-        <v>-0.33008372783660889</v>
+        <v>-0.32948699593544006</v>
       </c>
       <c r="D391" s="2">
         <v>0.79914486408233643</v>
       </c>
       <c r="E391" s="2">
-        <v>0.7466132640838623</v>
+        <v>0.74695205688476562</v>
       </c>
     </row>
     <row r="392">
@@ -5896,13 +5896,13 @@
         <v>0.891387939453125</v>
       </c>
       <c r="C392" s="2">
-        <v>0.9101489782333374</v>
+        <v>0.9110492467880249</v>
       </c>
       <c r="D392" s="2">
         <v>0.70701056718826294</v>
       </c>
       <c r="E392" s="2">
-        <v>0.65037602186203003</v>
+        <v>0.65095484256744385</v>
       </c>
     </row>
     <row r="393">
@@ -5913,13 +5913,13 @@
         <v>1.4114097356796265</v>
       </c>
       <c r="C393" s="2">
-        <v>1.5697338581085205</v>
+        <v>1.569724440574646</v>
       </c>
       <c r="D393" s="2">
         <v>0.74123650789260864</v>
       </c>
       <c r="E393" s="2">
-        <v>0.6858707070350647</v>
+        <v>0.68657439947128296</v>
       </c>
     </row>
     <row r="394">
@@ -5930,13 +5930,13 @@
         <v>1.2357876300811768</v>
       </c>
       <c r="C394" s="2">
-        <v>1.1076010465621948</v>
+        <v>1.1082248687744141</v>
       </c>
       <c r="D394" s="2">
         <v>0.6642032265663147</v>
       </c>
       <c r="E394" s="2">
-        <v>0.59830892086029053</v>
+        <v>0.59915739297866821</v>
       </c>
     </row>
     <row r="395">
@@ -5947,13 +5947,13 @@
         <v>-0.055786550045013428</v>
       </c>
       <c r="C395" s="2">
-        <v>0.71457308530807495</v>
+        <v>0.71534907817840576</v>
       </c>
       <c r="D395" s="2">
         <v>0.66620290279388428</v>
       </c>
       <c r="E395" s="2">
-        <v>0.61846882104873657</v>
+        <v>0.61939144134521484</v>
       </c>
     </row>
     <row r="396">
@@ -5964,13 +5964,13 @@
         <v>0.58827769756317139</v>
       </c>
       <c r="C396" s="2">
-        <v>0.36134541034698486</v>
+        <v>0.36431404948234558</v>
       </c>
       <c r="D396" s="2">
         <v>0.69698220491409302</v>
       </c>
       <c r="E396" s="2">
-        <v>0.65899986028671265</v>
+        <v>0.6600068211555481</v>
       </c>
     </row>
     <row r="397">
@@ -5981,13 +5981,13 @@
         <v>0.32307064533233643</v>
       </c>
       <c r="C397" s="2">
-        <v>-0.0064186342060565949</v>
+        <v>-0.004334284458309412</v>
       </c>
       <c r="D397" s="2">
         <v>0.68773192167282104</v>
       </c>
       <c r="E397" s="2">
-        <v>0.63438552618026733</v>
+        <v>0.6352696418762207</v>
       </c>
     </row>
     <row r="398">
@@ -5998,13 +5998,13 @@
         <v>0.33787578344345093</v>
       </c>
       <c r="C398" s="2">
-        <v>0.13237278163433075</v>
+        <v>0.1326114684343338</v>
       </c>
       <c r="D398" s="2">
         <v>0.50613391399383545</v>
       </c>
       <c r="E398" s="2">
-        <v>0.39955359697341919</v>
+        <v>0.40068092942237854</v>
       </c>
     </row>
     <row r="399">
@@ -6015,13 +6015,13 @@
         <v>1.1572164297103882</v>
       </c>
       <c r="C399" s="2">
-        <v>1.1069468259811401</v>
+        <v>1.1070711612701416</v>
       </c>
       <c r="D399" s="2">
         <v>0.42366856336593628</v>
       </c>
       <c r="E399" s="2">
-        <v>0.31128650903701782</v>
+        <v>0.31248542666435242</v>
       </c>
     </row>
     <row r="400">
@@ -6032,13 +6032,13 @@
         <v>0.38360041379928589</v>
       </c>
       <c r="C400" s="2">
-        <v>0.034695316106081009</v>
+        <v>0.036051217466592789</v>
       </c>
       <c r="D400" s="2">
         <v>0.53439468145370483</v>
       </c>
       <c r="E400" s="2">
-        <v>0.31508073210716248</v>
+        <v>0.31624075770378113</v>
       </c>
     </row>
     <row r="401">
@@ -6049,13 +6049,13 @@
         <v>0.8081355094909668</v>
       </c>
       <c r="C401" s="2">
-        <v>0.68862009048461914</v>
+        <v>0.68841469287872314</v>
       </c>
       <c r="D401" s="2">
         <v>0.59262543916702271</v>
       </c>
       <c r="E401" s="2">
-        <v>0.40355017781257629</v>
+        <v>0.40455174446105957</v>
       </c>
     </row>
     <row r="402">
@@ -6063,16 +6063,16 @@
         <v>40664</v>
       </c>
       <c r="B402" s="2">
-        <v>-0.2229720950126648</v>
+        <v>-0.22297209501266479</v>
       </c>
       <c r="C402" s="2">
-        <v>-0.54375368356704712</v>
+        <v>-0.54157394170761108</v>
       </c>
       <c r="D402" s="2">
         <v>0.61332809925079346</v>
       </c>
       <c r="E402" s="2">
-        <v>0.46730926632881165</v>
+        <v>0.46817612648010254</v>
       </c>
     </row>
     <row r="403">
@@ -6083,13 +6083,13 @@
         <v>0.49359923601150513</v>
       </c>
       <c r="C403" s="2">
-        <v>0.31319737434387207</v>
+        <v>0.31446540355682373</v>
       </c>
       <c r="D403" s="2">
         <v>0.65724086761474609</v>
       </c>
       <c r="E403" s="2">
-        <v>0.52115505933761597</v>
+        <v>0.52208203077316284</v>
       </c>
     </row>
     <row r="404">
@@ -6100,13 +6100,13 @@
         <v>0.94074857234954834</v>
       </c>
       <c r="C404" s="2">
-        <v>0.74872112274169922</v>
+        <v>0.74914699792861938</v>
       </c>
       <c r="D404" s="2">
         <v>0.68624377250671387</v>
       </c>
       <c r="E404" s="2">
-        <v>0.52626079320907593</v>
+        <v>0.52761685848236084</v>
       </c>
     </row>
     <row r="405">
@@ -6117,13 +6117,13 @@
         <v>1.1123543977737427</v>
       </c>
       <c r="C405" s="2">
-        <v>1.157570481300354</v>
+        <v>1.1591129302978516</v>
       </c>
       <c r="D405" s="2">
         <v>0.79494655132293701</v>
       </c>
       <c r="E405" s="2">
-        <v>0.65748298168182373</v>
+        <v>0.65890824794769287</v>
       </c>
     </row>
     <row r="406">
@@ -6131,16 +6131,16 @@
         <v>40787</v>
       </c>
       <c r="B406" s="2">
-        <v>0.50939470529556275</v>
+        <v>0.50939470529556274</v>
       </c>
       <c r="C406" s="2">
-        <v>0.56741315126419067</v>
+        <v>0.56828528642654419</v>
       </c>
       <c r="D406" s="2">
         <v>0.78558570146560669</v>
       </c>
       <c r="E406" s="2">
-        <v>0.63269180059432983</v>
+        <v>0.63432925939559937</v>
       </c>
     </row>
     <row r="407">
@@ -6151,13 +6151,13 @@
         <v>0.73309063911437988</v>
       </c>
       <c r="C407" s="2">
-        <v>0.61698472499847412</v>
+        <v>0.61776447296142578</v>
       </c>
       <c r="D407" s="2">
         <v>0.89520138502120972</v>
       </c>
       <c r="E407" s="2">
-        <v>0.75483977794647217</v>
+        <v>0.7564508318901062</v>
       </c>
     </row>
     <row r="408">
@@ -6168,13 +6168,13 @@
         <v>1.4182426929473877</v>
       </c>
       <c r="C408" s="2">
-        <v>1.1528987884521484</v>
+        <v>1.1568846702575684</v>
       </c>
       <c r="D408" s="2">
         <v>1.0172758102416992</v>
       </c>
       <c r="E408" s="2">
-        <v>0.89012306928634644</v>
+        <v>0.89154815673828125</v>
       </c>
     </row>
     <row r="409">
@@ -6185,13 +6185,13 @@
         <v>1.3619253635406494</v>
       </c>
       <c r="C409" s="2">
-        <v>1.2156945466995239</v>
+        <v>1.217673659324646</v>
       </c>
       <c r="D409" s="2">
         <v>1.0545041561126709</v>
       </c>
       <c r="E409" s="2">
-        <v>0.95856523513793945</v>
+        <v>0.95992028713226318</v>
       </c>
     </row>
     <row r="410">
@@ -6202,13 +6202,13 @@
         <v>0.7238878607749939</v>
       </c>
       <c r="C410" s="2">
-        <v>0.46549984812736511</v>
+        <v>0.46720370650291443</v>
       </c>
       <c r="D410" s="2">
         <v>0.99352836608886719</v>
       </c>
       <c r="E410" s="2">
-        <v>0.86838644742965698</v>
+        <v>0.86975151300430298</v>
       </c>
     </row>
     <row r="411">
@@ -6219,13 +6219,13 @@
         <v>0.76356881856918335</v>
       </c>
       <c r="C411" s="2">
-        <v>0.55557811260223389</v>
+        <v>0.55752038955688477</v>
       </c>
       <c r="D411" s="2">
         <v>1.0458958148956299</v>
       </c>
       <c r="E411" s="2">
-        <v>0.91004830598831177</v>
+        <v>0.91146451234817505</v>
       </c>
     </row>
     <row r="412">
@@ -6236,13 +6236,13 @@
         <v>1.5922693014144897</v>
       </c>
       <c r="C412" s="2">
-        <v>1.5307470560073853</v>
+        <v>1.5303410291671753</v>
       </c>
       <c r="D412" s="2">
         <v>1.0470746755599976</v>
       </c>
       <c r="E412" s="2">
-        <v>0.91741353273391724</v>
+        <v>0.91884952783584595</v>
       </c>
     </row>
     <row r="413">
@@ -6253,13 +6253,13 @@
         <v>1.2758041620254517</v>
       </c>
       <c r="C413" s="2">
-        <v>1.3647006750106812</v>
+        <v>1.3644967079162598</v>
       </c>
       <c r="D413" s="2">
         <v>0.93214505910873413</v>
       </c>
       <c r="E413" s="2">
-        <v>0.8167000412940979</v>
+        <v>0.81774914264678955</v>
       </c>
     </row>
     <row r="414">
@@ -6270,13 +6270,13 @@
         <v>0.5635717511177063</v>
       </c>
       <c r="C414" s="2">
-        <v>0.34596094489097595</v>
+        <v>0.34759390354156494</v>
       </c>
       <c r="D414" s="2">
         <v>0.9005395770072937</v>
       </c>
       <c r="E414" s="2">
-        <v>0.79152458906173706</v>
+        <v>0.7925000786781311</v>
       </c>
     </row>
     <row r="415">
@@ -6287,13 +6287,13 @@
         <v>0.98070204257965088</v>
       </c>
       <c r="C415" s="2">
-        <v>0.94237023591995239</v>
+        <v>0.94370222091674805</v>
       </c>
       <c r="D415" s="2">
         <v>0.97673279047012329</v>
       </c>
       <c r="E415" s="2">
-        <v>0.87623012065887451</v>
+        <v>0.87733268737792969</v>
       </c>
     </row>
     <row r="416">
@@ -6304,13 +6304,13 @@
         <v>0.74370044469833374</v>
       </c>
       <c r="C416" s="2">
-        <v>0.68327158689498901</v>
+        <v>0.68422925472259521</v>
       </c>
       <c r="D416" s="2">
         <v>0.96143466234207153</v>
       </c>
       <c r="E416" s="2">
-        <v>0.86694139242172241</v>
+        <v>0.86794465780258179</v>
       </c>
     </row>
     <row r="417">
@@ -6321,13 +6321,13 @@
         <v>0.38387599587440491</v>
       </c>
       <c r="C417" s="2">
-        <v>0.24647735059261322</v>
+        <v>0.24698130786418915</v>
       </c>
       <c r="D417" s="2">
         <v>0.7767069935798645</v>
       </c>
       <c r="E417" s="2">
-        <v>0.67515188455581665</v>
+        <v>0.67625951766967773</v>
       </c>
     </row>
     <row r="418">
@@ -6338,13 +6338,13 @@
         <v>1.0774756669998169</v>
       </c>
       <c r="C418" s="2">
-        <v>0.98911529779434204</v>
+        <v>0.99043244123458862</v>
       </c>
       <c r="D418" s="2">
         <v>0.82644361257553101</v>
       </c>
       <c r="E418" s="2">
-        <v>0.68545836210250854</v>
+        <v>0.68684297800064087</v>
       </c>
     </row>
     <row r="419">
@@ -6355,13 +6355,13 @@
         <v>1.4096267223358154</v>
       </c>
       <c r="C419" s="2">
-        <v>1.2278499603271484</v>
+        <v>1.2306969165802002</v>
       </c>
       <c r="D419" s="2">
         <v>0.92773544788360596</v>
       </c>
       <c r="E419" s="2">
-        <v>0.78898113965988159</v>
+        <v>0.79019498825073242</v>
       </c>
     </row>
     <row r="420">
@@ -6372,13 +6372,13 @@
         <v>0.62588596343994141</v>
       </c>
       <c r="C420" s="2">
-        <v>0.47197949886322022</v>
+        <v>0.4730282723903656</v>
       </c>
       <c r="D420" s="2">
         <v>0.98916065692901611</v>
       </c>
       <c r="E420" s="2">
-        <v>0.84524476528167725</v>
+        <v>0.84658801555633545</v>
       </c>
     </row>
     <row r="421">
@@ -6389,13 +6389,13 @@
         <v>-0.070279665291309357</v>
       </c>
       <c r="C421" s="2">
-        <v>-0.19535878300666809</v>
+        <v>-0.19482555985450745</v>
       </c>
       <c r="D421" s="2">
         <v>1.0333237648010254</v>
       </c>
       <c r="E421" s="2">
-        <v>0.82875514030456543</v>
+        <v>0.83011144399642944</v>
       </c>
     </row>
     <row r="422">
@@ -6406,13 +6406,13 @@
         <v>1.7234337329864502</v>
       </c>
       <c r="C422" s="2">
-        <v>1.4574590921401978</v>
+        <v>1.4597480297088623</v>
       </c>
       <c r="D422" s="2">
         <v>1.1008400917053223</v>
       </c>
       <c r="E422" s="2">
-        <v>0.87714242935180664</v>
+        <v>0.87867414951324463</v>
       </c>
     </row>
     <row r="423">
@@ -6423,13 +6423,13 @@
         <v>1.4751982688903809</v>
       </c>
       <c r="C423" s="2">
-        <v>1.2776658535003662</v>
+        <v>1.2777621746063232</v>
       </c>
       <c r="D423" s="2">
         <v>1.1697723865509033</v>
       </c>
       <c r="E423" s="2">
-        <v>0.94353985786437988</v>
+        <v>0.94525176286697388</v>
       </c>
     </row>
     <row r="424">
@@ -6440,13 +6440,13 @@
         <v>1.5335286855697632</v>
       </c>
       <c r="C424" s="2">
-        <v>1.4487432241439819</v>
+        <v>1.4512392282485962</v>
       </c>
       <c r="D424" s="2">
         <v>1.2344030141830444</v>
       </c>
       <c r="E424" s="2">
-        <v>1.008068323135376</v>
+        <v>1.009896993637085</v>
       </c>
     </row>
     <row r="425">
@@ -6457,13 +6457,13 @@
         <v>1.1411681175231934</v>
       </c>
       <c r="C425" s="2">
-        <v>0.53486478328704834</v>
+        <v>0.53594040870666504</v>
       </c>
       <c r="D425" s="2">
         <v>1.4147522449493408</v>
       </c>
       <c r="E425" s="2">
-        <v>1.1892024278640747</v>
+        <v>1.1910630464553833</v>
       </c>
     </row>
     <row r="426">
@@ -6474,13 +6474,13 @@
         <v>0.9915236234664917</v>
       </c>
       <c r="C426" s="2">
-        <v>0.68196302652359009</v>
+        <v>0.68404531478881836</v>
       </c>
       <c r="D426" s="2">
         <v>1.6246268749237061</v>
       </c>
       <c r="E426" s="2">
-        <v>1.4113109111785889</v>
+        <v>1.4132806062698364</v>
       </c>
     </row>
     <row r="427">
@@ -6491,13 +6491,13 @@
         <v>1.6978662014007568</v>
       </c>
       <c r="C427" s="2">
-        <v>1.586692214012146</v>
+        <v>1.5896308422088623</v>
       </c>
       <c r="D427" s="2">
         <v>1.5594413280487061</v>
       </c>
       <c r="E427" s="2">
-        <v>1.3541083335876465</v>
+        <v>1.355894923210144</v>
       </c>
     </row>
     <row r="428">
@@ -6508,13 +6508,13 @@
         <v>1.9913022518157959</v>
       </c>
       <c r="C428" s="2">
-        <v>1.8086057901382446</v>
+        <v>1.8125041723251343</v>
       </c>
       <c r="D428" s="2">
         <v>1.5896600484848022</v>
       </c>
       <c r="E428" s="2">
-        <v>1.4077932834625244</v>
+        <v>1.4097651243209839</v>
       </c>
     </row>
     <row r="429">
@@ -6525,13 +6525,13 @@
         <v>2.2490286827087402</v>
       </c>
       <c r="C429" s="2">
-        <v>2.1021866798400879</v>
+        <v>2.1035225391387939</v>
       </c>
       <c r="D429" s="2">
-        <v>1.6016759872436524</v>
+        <v>1.6016759872436523</v>
       </c>
       <c r="E429" s="2">
-        <v>1.4134426116943359</v>
+        <v>1.4152941703796387</v>
       </c>
     </row>
     <row r="430">
@@ -6542,13 +6542,13 @@
         <v>1.8185924291610718</v>
       </c>
       <c r="C430" s="2">
-        <v>1.8036174774169922</v>
+        <v>1.8051323890686035</v>
       </c>
       <c r="D430" s="2">
         <v>1.6060266494750977</v>
       </c>
       <c r="E430" s="2">
-        <v>1.430189847946167</v>
+        <v>1.4321978092193604</v>
       </c>
     </row>
     <row r="431">
@@ -6559,13 +6559,13 @@
         <v>1.1367636919021606</v>
       </c>
       <c r="C431" s="2">
-        <v>0.94263601303100586</v>
+        <v>0.94327741861343384</v>
       </c>
       <c r="D431" s="2">
         <v>1.6725938320159912</v>
       </c>
       <c r="E431" s="2">
-        <v>1.5243282318115234</v>
+        <v>1.5262519121170044</v>
       </c>
     </row>
     <row r="432">
@@ -6576,13 +6576,13 @@
         <v>1.7471667528152466</v>
       </c>
       <c r="C432" s="2">
-        <v>1.7608300447463989</v>
+        <v>1.7625942230224609</v>
       </c>
       <c r="D432" s="2">
         <v>1.6887087821960449</v>
       </c>
       <c r="E432" s="2">
-        <v>1.5338578224182129</v>
+        <v>1.5356364250183105</v>
       </c>
     </row>
     <row r="433">
@@ -6593,13 +6593,13 @@
         <v>1.6416721343994141</v>
       </c>
       <c r="C433" s="2">
-        <v>1.499587893486023</v>
+        <v>1.5010005235671997</v>
       </c>
       <c r="D433" s="2">
-        <v>1.658096194267273</v>
+        <v>1.6580961942672729</v>
       </c>
       <c r="E433" s="2">
-        <v>1.5258365869522095</v>
+        <v>1.5273394584655762</v>
       </c>
     </row>
     <row r="434">
@@ -6610,13 +6610,13 @@
         <v>1.1803237199783325</v>
       </c>
       <c r="C434" s="2">
-        <v>0.68558895587921143</v>
+        <v>0.68807291984558105</v>
       </c>
       <c r="D434" s="2">
         <v>1.6355855464935303</v>
       </c>
       <c r="E434" s="2">
-        <v>1.5058948993682861</v>
+        <v>1.5072898864746094</v>
       </c>
     </row>
     <row r="435">
@@ -6627,13 +6627,13 @@
         <v>1.5906288623809814</v>
       </c>
       <c r="C435" s="2">
-        <v>1.5292091369628906</v>
+        <v>1.5305324792861938</v>
       </c>
       <c r="D435" s="2">
         <v>1.5878397226333618</v>
       </c>
       <c r="E435" s="2">
-        <v>1.433281421661377</v>
+        <v>1.434643030166626</v>
       </c>
     </row>
     <row r="436">
@@ -6644,13 +6644,13 @@
         <v>1.8429009914398193</v>
       </c>
       <c r="C436" s="2">
-        <v>1.6724586486816406</v>
+        <v>1.6740914583206177</v>
       </c>
       <c r="D436" s="2">
         <v>1.6132906675338745</v>
       </c>
       <c r="E436" s="2">
-        <v>1.4636670351028442</v>
+        <v>1.4652438163757324</v>
       </c>
     </row>
     <row r="437">
@@ -6661,13 +6661,13 @@
         <v>1.7157884836196899</v>
       </c>
       <c r="C437" s="2">
-        <v>1.736414909362793</v>
+        <v>1.7378308773040771</v>
       </c>
       <c r="D437" s="2">
         <v>1.5386582612991333</v>
       </c>
       <c r="E437" s="2">
-        <v>1.4296612739562988</v>
+        <v>1.4310444593429565</v>
       </c>
     </row>
     <row r="438">
@@ -6678,13 +6678,13 @@
         <v>2.0464324951171875</v>
       </c>
       <c r="C438" s="2">
-        <v>1.9227105379104614</v>
+        <v>1.9230769872665405</v>
       </c>
       <c r="D438" s="2">
         <v>1.534410834312439</v>
       </c>
       <c r="E438" s="2">
-        <v>1.3723708391189575</v>
+        <v>1.3738994598388672</v>
       </c>
     </row>
     <row r="439">
@@ -6695,13 +6695,13 @@
         <v>1.3888800144195557</v>
       </c>
       <c r="C439" s="2">
-        <v>1.1500965356826782</v>
+        <v>1.1513099670410156</v>
       </c>
       <c r="D439" s="2">
         <v>1.5333327054977417</v>
       </c>
       <c r="E439" s="2">
-        <v>1.4079471826553345</v>
+        <v>1.4092950820922852</v>
       </c>
     </row>
     <row r="440">
@@ -6712,13 +6712,13 @@
         <v>1.3658230304718018</v>
       </c>
       <c r="C440" s="2">
-        <v>1.2161067724227905</v>
+        <v>1.2186845541000366</v>
       </c>
       <c r="D440" s="2">
         <v>1.4295583963394165</v>
       </c>
       <c r="E440" s="2">
-        <v>1.2546375989913941</v>
+        <v>1.256103515625</v>
       </c>
     </row>
     <row r="441">
@@ -6729,13 +6729,13 @@
         <v>1.0754748582839966</v>
       </c>
       <c r="C441" s="2">
-        <v>1.4547780752182007</v>
+        <v>1.4548004865646362</v>
       </c>
       <c r="D441" s="2">
         <v>1.4006568193435669</v>
       </c>
       <c r="E441" s="2">
-        <v>1.2055394649505615</v>
+        <v>1.2072008848190308</v>
       </c>
     </row>
     <row r="442">
@@ -6746,13 +6746,13 @@
         <v>1.6034448146820068</v>
       </c>
       <c r="C442" s="2">
-        <v>0.98397445678710938</v>
+        <v>0.98669588565826416</v>
       </c>
       <c r="D442" s="2">
         <v>1.4128487110137939</v>
       </c>
       <c r="E442" s="2">
-        <v>1.1744173765182495</v>
+        <v>1.1761237382888794</v>
       </c>
     </row>
     <row r="443">
@@ -6763,13 +6763,13 @@
         <v>1.1706207990646362</v>
       </c>
       <c r="C443" s="2">
-        <v>1.0057752132415771</v>
+        <v>1.0066332817077637</v>
       </c>
       <c r="D443" s="2">
-        <v>1.3582217693328858</v>
+        <v>1.3582217693328857</v>
       </c>
       <c r="E443" s="2">
-        <v>1.110273003578186</v>
+        <v>1.1122422218322754</v>
       </c>
     </row>
     <row r="444">
@@ -6780,13 +6780,13 @@
         <v>0.65665990114212036</v>
       </c>
       <c r="C444" s="2">
-        <v>0.14942370355129242</v>
+        <v>0.1518082469701767</v>
       </c>
       <c r="D444" s="2">
         <v>1.3168988227844238</v>
       </c>
       <c r="E444" s="2">
-        <v>1.0687719583511353</v>
+        <v>1.070540189743042</v>
       </c>
     </row>
     <row r="445">
@@ -6797,13 +6797,13 @@
         <v>1.5827873945236206</v>
       </c>
       <c r="C445" s="2">
-        <v>1.2305746078491211</v>
+        <v>1.2339674234390259</v>
       </c>
       <c r="D445" s="2">
         <v>1.3075152635574341</v>
       </c>
       <c r="E445" s="2">
-        <v>1.0279948711395264</v>
+        <v>1.0299227237701416</v>
       </c>
     </row>
     <row r="446">
@@ -6811,16 +6811,16 @@
         <v>42005</v>
       </c>
       <c r="B446" s="2">
-        <v>1.825515627861023</v>
+        <v>1.8255156278610229</v>
       </c>
       <c r="C446" s="2">
-        <v>1.4563164710998535</v>
+        <v>1.4581363201141357</v>
       </c>
       <c r="D446" s="2">
         <v>1.2703428268432617</v>
       </c>
       <c r="E446" s="2">
-        <v>0.96694791316986084</v>
+        <v>0.96903592348098755</v>
       </c>
     </row>
     <row r="447">
@@ -6831,13 +6831,13 @@
         <v>1.5547894239425659</v>
       </c>
       <c r="C447" s="2">
-        <v>1.3454115390777588</v>
+        <v>1.3481438159942627</v>
       </c>
       <c r="D447" s="2">
         <v>1.2818869352340698</v>
       </c>
       <c r="E447" s="2">
-        <v>1.0023174285888672</v>
+        <v>1.0042704343795776</v>
       </c>
     </row>
     <row r="448">
@@ -6848,13 +6848,13 @@
         <v>1.016973614692688</v>
       </c>
       <c r="C448" s="2">
-        <v>0.77658671140670776</v>
+        <v>0.77599143981933594</v>
       </c>
       <c r="D448" s="2">
         <v>1.346238374710083</v>
       </c>
       <c r="E448" s="2">
-        <v>1.101832389831543</v>
+        <v>1.103585958480835</v>
       </c>
     </row>
     <row r="449">
@@ -6865,13 +6865,13 @@
         <v>1.2813705205917358</v>
       </c>
       <c r="C449" s="2">
-        <v>0.84911328554153442</v>
+        <v>0.85312801599502563</v>
       </c>
       <c r="D449" s="2">
         <v>1.4492030143737793</v>
       </c>
       <c r="E449" s="2">
-        <v>1.2440481185913086</v>
+        <v>1.2458590269088745</v>
       </c>
     </row>
     <row r="450">
@@ -6882,13 +6882,13 @@
         <v>0.74092298746109009</v>
       </c>
       <c r="C450" s="2">
-        <v>0.90535539388656616</v>
+        <v>0.90681880712509155</v>
       </c>
       <c r="D450" s="2">
         <v>1.3789263963699341</v>
       </c>
       <c r="E450" s="2">
-        <v>1.1867266893386841</v>
+        <v>1.1885172128677368</v>
       </c>
     </row>
     <row r="451">
@@ -6899,13 +6899,13 @@
         <v>1.7073423862457275</v>
       </c>
       <c r="C451" s="2">
-        <v>1.3022996187210083</v>
+        <v>1.3038070201873779</v>
       </c>
       <c r="D451" s="2">
-        <v>1.2904049158096314</v>
+        <v>1.2904049158096313</v>
       </c>
       <c r="E451" s="2">
-        <v>1.1101279258728027</v>
+        <v>1.1118972301483154</v>
       </c>
     </row>
     <row r="452">
@@ -6916,13 +6916,13 @@
         <v>1.7497837543487549</v>
       </c>
       <c r="C452" s="2">
-        <v>1.9014098644256592</v>
+        <v>1.9004729986190796</v>
       </c>
       <c r="D452" s="2">
         <v>1.1345969438552856</v>
       </c>
       <c r="E452" s="2">
-        <v>1.1110618114471436</v>
+        <v>1.1128276586532593</v>
       </c>
     </row>
     <row r="453">
@@ -6933,13 +6933,13 @@
         <v>1.583341121673584</v>
       </c>
       <c r="C453" s="2">
-        <v>1.4293653964996338</v>
+        <v>1.4322652816772461</v>
       </c>
       <c r="D453" s="2">
         <v>1.1442145109176636</v>
       </c>
       <c r="E453" s="2">
-        <v>1.1469811201095581</v>
+        <v>1.1490483283996582</v>
       </c>
     </row>
     <row r="454">
@@ -6950,13 +6950,13 @@
         <v>0.9502984881401062</v>
       </c>
       <c r="C454" s="2">
-        <v>0.71468204259872437</v>
+        <v>0.71789073944091797</v>
       </c>
       <c r="D454" s="2">
         <v>1.1885077953338623</v>
       </c>
       <c r="E454" s="2">
-        <v>1.2303487062454224</v>
+        <v>1.2320543527603149</v>
       </c>
     </row>
     <row r="455">
@@ -6967,13 +6967,13 @@
         <v>1.0288217067718506</v>
       </c>
       <c r="C455" s="2">
-        <v>0.76692736148834229</v>
+        <v>0.76855725049972534</v>
       </c>
       <c r="D455" s="2">
         <v>1.209709644317627</v>
       </c>
       <c r="E455" s="2">
-        <v>1.2031285762786865</v>
+        <v>1.2049440145492554</v>
       </c>
     </row>
     <row r="456">
@@ -6984,13 +6984,13 @@
         <v>0.1525174081325531</v>
       </c>
       <c r="C456" s="2">
-        <v>1.3538165092468262</v>
+        <v>1.3565170764923096</v>
       </c>
       <c r="D456" s="2">
         <v>1.2290585041046143</v>
       </c>
       <c r="E456" s="2">
-        <v>1.2441114187240601</v>
+        <v>1.2460794448852539</v>
       </c>
     </row>
     <row r="457">
@@ -7001,13 +7001,13 @@
         <v>1.1035326719284058</v>
       </c>
       <c r="C457" s="2">
-        <v>1.0998609066009522</v>
+        <v>1.101978063583374</v>
       </c>
       <c r="D457" s="2">
         <v>1.1567924022674561</v>
       </c>
       <c r="E457" s="2">
-        <v>1.1245784759521484</v>
+        <v>1.1267958879470825</v>
       </c>
     </row>
     <row r="458">
@@ -7018,13 +7018,13 @@
         <v>1.6800093650817871</v>
       </c>
       <c r="C458" s="2">
-        <v>1.599421501159668</v>
+        <v>1.6001822948455811</v>
       </c>
       <c r="D458" s="2">
         <v>1.1894123554229736</v>
       </c>
       <c r="E458" s="2">
-        <v>1.172899603843689</v>
+        <v>1.1749199628829956</v>
       </c>
     </row>
     <row r="459">
@@ -7035,13 +7035,13 @@
         <v>0.93174022436141968</v>
       </c>
       <c r="C459" s="2">
-        <v>0.66037380695343018</v>
+        <v>0.66282510757446289</v>
       </c>
       <c r="D459" s="2">
         <v>1.0903040170669556</v>
       </c>
       <c r="E459" s="2">
-        <v>1.0593264102935791</v>
+        <v>1.0616153478622437</v>
       </c>
     </row>
     <row r="460">
@@ -7052,13 +7052,13 @@
         <v>1.8814822435379028</v>
       </c>
       <c r="C460" s="2">
-        <v>1.6711455583572388</v>
+        <v>1.6740258932113647</v>
       </c>
       <c r="D460" s="2">
-        <v>1.1826548576354981</v>
+        <v>1.182654857635498</v>
       </c>
       <c r="E460" s="2">
-        <v>1.1607382297515869</v>
+        <v>1.1631512641906738</v>
       </c>
     </row>
     <row r="461">
@@ -7069,13 +7069,13 @@
         <v>1.0993888378143311</v>
       </c>
       <c r="C461" s="2">
-        <v>0.82561326026916504</v>
+        <v>0.82692098617553711</v>
       </c>
       <c r="D461" s="2">
         <v>1.3846660852432251</v>
       </c>
       <c r="E461" s="2">
-        <v>1.2107857465744019</v>
+        <v>1.2132134437561035</v>
       </c>
     </row>
     <row r="462">
@@ -7086,13 +7086,13 @@
         <v>1.8769205808639526</v>
       </c>
       <c r="C462" s="2">
-        <v>1.8642556667327881</v>
+        <v>1.8653820753097534</v>
       </c>
       <c r="D462" s="2">
         <v>1.3563092947006226</v>
       </c>
       <c r="E462" s="2">
-        <v>1.1445647478103638</v>
+        <v>1.1468513011932373</v>
       </c>
     </row>
     <row r="463">
@@ -7103,13 +7103,13 @@
         <v>0.058323584496974945</v>
       </c>
       <c r="C463" s="2">
-        <v>-0.30747684836387634</v>
+        <v>-0.30185037851333618</v>
       </c>
       <c r="D463" s="2">
         <v>1.3061486482620239</v>
       </c>
       <c r="E463" s="2">
-        <v>1.0790082216262817</v>
+        <v>1.0813878774642944</v>
       </c>
     </row>
     <row r="464">
@@ -7120,13 +7120,13 @@
         <v>1.8599783182144165</v>
       </c>
       <c r="C464" s="2">
-        <v>1.6796334981918335</v>
+        <v>1.6823804378509521</v>
       </c>
       <c r="D464" s="2">
         <v>1.336560845375061</v>
       </c>
       <c r="E464" s="2">
-        <v>1.0992938280105591</v>
+        <v>1.1015443801879883</v>
       </c>
     </row>
     <row r="465">
@@ -7137,13 +7137,13 @@
         <v>1.9706184864044189</v>
       </c>
       <c r="C465" s="2">
-        <v>1.8042440414428711</v>
+        <v>1.8070765733718872</v>
       </c>
       <c r="D465" s="2">
         <v>1.1550354957580566</v>
       </c>
       <c r="E465" s="2">
-        <v>0.92475533485412598</v>
+        <v>0.92695039510726929</v>
       </c>
     </row>
     <row r="466">
@@ -7154,13 +7154,13 @@
         <v>0.84832167625427246</v>
       </c>
       <c r="C466" s="2">
-        <v>0.50387263298034668</v>
+        <v>0.50471889972686768</v>
       </c>
       <c r="D466" s="2">
         <v>1.0597366094589233</v>
       </c>
       <c r="E466" s="2">
-        <v>0.82806020975112915</v>
+        <v>0.83029276132583618</v>
       </c>
     </row>
     <row r="467">
@@ -7171,13 +7171,13 @@
         <v>1.2285635471343994</v>
       </c>
       <c r="C467" s="2">
-        <v>1.0094122886657715</v>
+        <v>1.0110108852386475</v>
       </c>
       <c r="D467" s="2">
         <v>0.85148638486862183</v>
       </c>
       <c r="E467" s="2">
-        <v>0.62834340333938599</v>
+        <v>0.63069772720336914</v>
       </c>
     </row>
     <row r="468">
@@ -7188,13 +7188,13 @@
         <v>1.205450177192688</v>
       </c>
       <c r="C468" s="2">
-        <v>0.84294450283050537</v>
+        <v>0.84423428773880005</v>
       </c>
       <c r="D468" s="2">
         <v>0.8869025707244873</v>
       </c>
       <c r="E468" s="2">
-        <v>0.67897361516952515</v>
+        <v>0.68083822727203369</v>
       </c>
     </row>
     <row r="469">
@@ -7205,13 +7205,13 @@
         <v>0.24775438010692596</v>
       </c>
       <c r="C469" s="2">
-        <v>0.10029909014701843</v>
+        <v>0.10267985612154007</v>
       </c>
       <c r="D469" s="2">
         <v>0.83725899457931519</v>
       </c>
       <c r="E469" s="2">
-        <v>0.62846124172210693</v>
+        <v>0.63003784418106079</v>
       </c>
     </row>
     <row r="470">
@@ -7222,13 +7222,13 @@
         <v>0.24169909954071045</v>
       </c>
       <c r="C470" s="2">
-        <v>-0.04464273527264595</v>
+        <v>-0.042997937649488449</v>
       </c>
       <c r="D470" s="2">
         <v>0.83630985021591187</v>
       </c>
       <c r="E470" s="2">
-        <v>0.61965268850326538</v>
+        <v>0.62155872583389282</v>
       </c>
     </row>
     <row r="471">
@@ -7239,13 +7239,13 @@
         <v>0.0026684550102800131</v>
       </c>
       <c r="C471" s="2">
-        <v>0.066804386675357819</v>
+        <v>0.069026760756969452</v>
       </c>
       <c r="D471" s="2">
         <v>0.95090532302856445</v>
       </c>
       <c r="E471" s="2">
-        <v>0.76222765445709229</v>
+        <v>0.76407772302627563</v>
       </c>
     </row>
     <row r="472">
@@ -7256,13 +7256,13 @@
         <v>0.37706887722015381</v>
       </c>
       <c r="C472" s="2">
-        <v>0.14819501340389252</v>
+        <v>0.1494145393371582</v>
       </c>
       <c r="D472" s="2">
         <v>0.96587347984313965</v>
       </c>
       <c r="E472" s="2">
-        <v>0.75536882877349854</v>
+        <v>0.75730270147323608</v>
       </c>
     </row>
     <row r="473">
@@ -7273,13 +7273,13 @@
         <v>1.4131861925125122</v>
       </c>
       <c r="C473" s="2">
-        <v>1.2250217199325562</v>
+        <v>1.2251769304275513</v>
       </c>
       <c r="D473" s="2">
         <v>1.0048611164093018</v>
       </c>
       <c r="E473" s="2">
-        <v>0.81541949510574341</v>
+        <v>0.81745272874832153</v>
       </c>
     </row>
     <row r="474">
@@ -7290,13 +7290,13 @@
         <v>1.9620761871337891</v>
       </c>
       <c r="C474" s="2">
-        <v>1.7249672412872314</v>
+        <v>1.7307643890380859</v>
       </c>
       <c r="D474" s="2">
         <v>1.1697041988372803</v>
       </c>
       <c r="E474" s="2">
-        <v>0.97845190763473511</v>
+        <v>0.98038798570632935</v>
       </c>
     </row>
     <row r="475">
@@ -7307,13 +7307,13 @@
         <v>1.879680871963501</v>
       </c>
       <c r="C475" s="2">
-        <v>1.7870476245880127</v>
+        <v>1.7873897552490234</v>
       </c>
       <c r="D475" s="2">
         <v>1.340476393699646</v>
       </c>
       <c r="E475" s="2">
-        <v>1.1814271211624146</v>
+        <v>1.1833635568618774</v>
       </c>
     </row>
     <row r="476">
@@ -7324,13 +7324,13 @@
         <v>1.3632768392562866</v>
       </c>
       <c r="C476" s="2">
-        <v>0.94768267869949341</v>
+        <v>0.95003581047058105</v>
       </c>
       <c r="D476" s="2">
         <v>1.4777785539627075</v>
       </c>
       <c r="E476" s="2">
-        <v>1.2914389371871948</v>
+        <v>1.2932922840118408</v>
       </c>
     </row>
     <row r="477">
@@ -7341,13 +7341,13 @@
         <v>1.5563391447067261</v>
       </c>
       <c r="C477" s="2">
-        <v>1.383400559425354</v>
+        <v>1.3855842351913452</v>
       </c>
       <c r="D477" s="2">
         <v>1.5902128219604492</v>
       </c>
       <c r="E477" s="2">
-        <v>1.4036186933517456</v>
+        <v>1.4054267406463623</v>
       </c>
     </row>
     <row r="478">
@@ -7358,13 +7358,13 @@
         <v>1.7313425540924072</v>
       </c>
       <c r="C478" s="2">
-        <v>1.5675904750823975</v>
+        <v>1.5690973997116089</v>
       </c>
       <c r="D478" s="2">
         <v>1.4359936714172363</v>
       </c>
       <c r="E478" s="2">
-        <v>1.1955626010894775</v>
+        <v>1.1975724697113037</v>
       </c>
     </row>
     <row r="479">
@@ -7375,13 +7375,13 @@
         <v>1.7786480188369751</v>
       </c>
       <c r="C479" s="2">
-        <v>1.7821348905563354</v>
+        <v>1.7837821245193481</v>
       </c>
       <c r="D479" s="2">
         <v>1.4113755226135254</v>
       </c>
       <c r="E479" s="2">
-        <v>1.1517385244369507</v>
+        <v>1.1534088850021362</v>
       </c>
     </row>
     <row r="480">
@@ -7392,13 +7392,13 @@
         <v>1.2383887767791748</v>
       </c>
       <c r="C480" s="2">
-        <v>1.0569103956222534</v>
+        <v>1.0583851337432861</v>
       </c>
       <c r="D480" s="2">
         <v>1.4024837017059326</v>
       </c>
       <c r="E480" s="2">
-        <v>1.1282476186752319</v>
+        <v>1.1301054954528809</v>
       </c>
     </row>
     <row r="481">
@@ -7409,13 +7409,13 @@
         <v>1.3889771699905396</v>
       </c>
       <c r="C481" s="2">
-        <v>1.1578129529953003</v>
+        <v>1.158624529838562</v>
       </c>
       <c r="D481" s="2">
         <v>1.4491981267929077</v>
       </c>
       <c r="E481" s="2">
-        <v>1.2003790140151978</v>
+        <v>1.2022261619567871</v>
       </c>
     </row>
     <row r="482">
@@ -7426,13 +7426,13 @@
         <v>0.025213660672307014</v>
       </c>
       <c r="C482" s="2">
-        <v>-0.64748334884643555</v>
+        <v>-0.64551109075546265</v>
       </c>
       <c r="D482" s="2">
         <v>1.4207800626754761</v>
       </c>
       <c r="E482" s="2">
-        <v>1.1874083280563355</v>
+        <v>1.1893788576126099</v>
       </c>
     </row>
     <row r="483">
@@ -7443,13 +7443,13 @@
         <v>1.7405130863189697</v>
       </c>
       <c r="C483" s="2">
-        <v>1.3305506706237793</v>
+        <v>1.3332920074462891</v>
       </c>
       <c r="D483" s="2">
         <v>1.2586687803268433</v>
       </c>
       <c r="E483" s="2">
-        <v>1.0391805171966553</v>
+        <v>1.0410966873168945</v>
       </c>
     </row>
     <row r="484">
@@ -7460,13 +7460,13 @@
         <v>1.7996540069580078</v>
       </c>
       <c r="C484" s="2">
-        <v>1.5756288766860962</v>
+        <v>1.5776594877243042</v>
       </c>
       <c r="D484" s="2">
         <v>1.2240520715713501</v>
       </c>
       <c r="E484" s="2">
-        <v>0.97874164581298828</v>
+        <v>0.98072594404220581</v>
       </c>
     </row>
     <row r="485">
@@ -7477,13 +7477,13 @@
         <v>1.7837061882019043</v>
       </c>
       <c r="C485" s="2">
-        <v>1.5968661308288574</v>
+        <v>1.599122166633606</v>
       </c>
       <c r="D485" s="2">
         <v>1.2117211818695068</v>
       </c>
       <c r="E485" s="2">
-        <v>1.0180147886276245</v>
+        <v>1.0201597213745117</v>
       </c>
     </row>
     <row r="486">
@@ -7494,13 +7494,13 @@
         <v>1.3005768060684204</v>
       </c>
       <c r="C486" s="2">
-        <v>1.2666641473770142</v>
+        <v>1.2699582576751709</v>
       </c>
       <c r="D486" s="2">
         <v>1.2174695730209351</v>
       </c>
       <c r="E486" s="2">
-        <v>0.9977155327796936</v>
+        <v>1.0001362562179565</v>
       </c>
     </row>
     <row r="487">
@@ -7511,13 +7511,13 @@
         <v>0.27234089374542236</v>
       </c>
       <c r="C487" s="2">
-        <v>0.23353978991508484</v>
+        <v>0.23455773293972015</v>
       </c>
       <c r="D487" s="2">
         <v>1.3908437490463257</v>
       </c>
       <c r="E487" s="2">
-        <v>1.2203336954116821</v>
+        <v>1.2226815223693848</v>
       </c>
     </row>
     <row r="488">
@@ -7528,13 +7528,13 @@
         <v>1.4670977592468262</v>
       </c>
       <c r="C488" s="2">
-        <v>1.2381851673126221</v>
+        <v>1.2404450178146362</v>
       </c>
       <c r="D488" s="2">
         <v>1.3649774789810181</v>
       </c>
       <c r="E488" s="2">
-        <v>1.2085654735565186</v>
+        <v>1.2108613252639771</v>
       </c>
     </row>
     <row r="489">
@@ -7545,13 +7545,13 @@
         <v>1.1274113655090332</v>
       </c>
       <c r="C489" s="2">
-        <v>1.4103683233261108</v>
+        <v>1.4132890701293945</v>
       </c>
       <c r="D489" s="2">
         <v>1.3125994205474854</v>
       </c>
       <c r="E489" s="2">
-        <v>1.1559585332870483</v>
+        <v>1.1581566333770752</v>
       </c>
     </row>
     <row r="490">
@@ -7562,13 +7562,13 @@
         <v>1.4407123327255249</v>
       </c>
       <c r="C490" s="2">
-        <v>0.97511988878250122</v>
+        <v>0.97841346263885498</v>
       </c>
       <c r="D490" s="2">
         <v>1.211438775062561</v>
       </c>
       <c r="E490" s="2">
-        <v>1.0345816612243652</v>
+        <v>1.0367476940155029</v>
       </c>
     </row>
     <row r="491">
@@ -7579,13 +7579,13 @@
         <v>1.5855816602706909</v>
       </c>
       <c r="C491" s="2">
-        <v>1.356080174446106</v>
+        <v>1.3573962450027466</v>
       </c>
       <c r="D491" s="2">
         <v>1.2296171188354492</v>
       </c>
       <c r="E491" s="2">
-        <v>1.0290495157241821</v>
+        <v>1.0310949087142944</v>
       </c>
     </row>
     <row r="492">
@@ -7596,13 +7596,13 @@
         <v>1.5077159404754639</v>
       </c>
       <c r="C492" s="2">
-        <v>1.2246367931365967</v>
+        <v>1.2269108295440674</v>
       </c>
       <c r="D492" s="2">
         <v>1.4379830360412598</v>
       </c>
       <c r="E492" s="2">
-        <v>1.1981991529464722</v>
+        <v>1.2005047798156738</v>
       </c>
     </row>
     <row r="493">
@@ -7613,13 +7613,13 @@
         <v>1.3282513618469238</v>
       </c>
       <c r="C493" s="2">
-        <v>1.1021662950515747</v>
+        <v>1.1033167839050293</v>
       </c>
       <c r="D493" s="2">
         <v>1.4780412912368774</v>
       </c>
       <c r="E493" s="2">
-        <v>1.2277941703796387</v>
+        <v>1.2300624847412109</v>
       </c>
     </row>
     <row r="494">
@@ -7630,13 +7630,13 @@
         <v>0.87326037883758545</v>
       </c>
       <c r="C494" s="2">
-        <v>0.50447487831115723</v>
+        <v>0.50644171237945557</v>
       </c>
       <c r="D494" s="2">
         <v>1.5297920703887939</v>
       </c>
       <c r="E494" s="2">
-        <v>1.2847855091094971</v>
+        <v>1.2867329120635986</v>
       </c>
     </row>
     <row r="495">
@@ -7647,13 +7647,13 @@
         <v>1.4641828536987305</v>
       </c>
       <c r="C495" s="2">
-        <v>1.2168742418289185</v>
+        <v>1.2190828323364258</v>
       </c>
       <c r="D495" s="2">
         <v>1.5713450908660889</v>
       </c>
       <c r="E495" s="2">
-        <v>1.292702317237854</v>
+        <v>1.2945350408554077</v>
       </c>
     </row>
     <row r="496">
@@ -7664,13 +7664,13 @@
         <v>2.1476333141326904</v>
       </c>
       <c r="C496" s="2">
-        <v>1.7558867931365967</v>
+        <v>1.759246826171875</v>
       </c>
       <c r="D496" s="2">
         <v>1.5555629730224609</v>
       </c>
       <c r="E496" s="2">
-        <v>1.2926487922668457</v>
+        <v>1.2944412231445312</v>
       </c>
     </row>
     <row r="497">
@@ -7681,13 +7681,13 @@
         <v>1.8276228904724121</v>
       </c>
       <c r="C497" s="2">
-        <v>1.5045400857925415</v>
+        <v>1.5064642429351807</v>
       </c>
       <c r="D497" s="2">
         <v>1.5597677230834961</v>
       </c>
       <c r="E497" s="2">
-        <v>1.2789932489395142</v>
+        <v>1.2810249328613281</v>
       </c>
     </row>
     <row r="498">
@@ -7698,13 +7698,13 @@
         <v>1.5931683778762817</v>
       </c>
       <c r="C498" s="2">
-        <v>1.9232902526855469</v>
+        <v>1.9233229160308838</v>
       </c>
       <c r="D498" s="2">
         <v>1.5833245515823364</v>
       </c>
       <c r="E498" s="2">
-        <v>1.2518855333328247</v>
+        <v>1.2541232109069824</v>
       </c>
     </row>
     <row r="499">
@@ -7715,13 +7715,13 @@
         <v>1.8146886825561523</v>
       </c>
       <c r="C499" s="2">
-        <v>1.0463711023330688</v>
+        <v>1.0486326217651367</v>
       </c>
       <c r="D499" s="2">
         <v>1.6908072233200073</v>
       </c>
       <c r="E499" s="2">
-        <v>1.4014140367507935</v>
+        <v>1.4034453630447388</v>
       </c>
     </row>
     <row r="500">
@@ -7732,13 +7732,13 @@
         <v>1.44354248046875</v>
       </c>
       <c r="C500" s="2">
-        <v>1.3555984497070313</v>
+        <v>1.3565526008605957</v>
       </c>
       <c r="D500" s="2">
-        <v>1.582015872001648</v>
+        <v>1.5820158720016479</v>
       </c>
       <c r="E500" s="2">
-        <v>1.3744860887527466</v>
+        <v>1.3765177726745605</v>
       </c>
     </row>
     <row r="501">
@@ -7749,13 +7749,13 @@
         <v>1.5455589294433594</v>
       </c>
       <c r="C501" s="2">
-        <v>1.1017374992370605</v>
+        <v>1.1061640977859497</v>
       </c>
       <c r="D501" s="2">
         <v>1.5310840606689453</v>
       </c>
       <c r="E501" s="2">
-        <v>1.3526449203491211</v>
+        <v>1.3546185493469238</v>
       </c>
     </row>
     <row r="502">
@@ -7766,13 +7766,13 @@
         <v>1.5402628183364868</v>
       </c>
       <c r="C502" s="2">
-        <v>0.85819691419601441</v>
+        <v>0.86120152473449707</v>
       </c>
       <c r="D502" s="2">
-        <v>1.3925092220306397</v>
+        <v>1.3925092220306396</v>
       </c>
       <c r="E502" s="2">
-        <v>1.3816120624542236</v>
+        <v>1.3832757472991943</v>
       </c>
     </row>
     <row r="503">
@@ -7783,13 +7783,13 @@
         <v>1.840604305267334</v>
       </c>
       <c r="C503" s="2">
-        <v>1.8502311706542969</v>
+        <v>1.8503403663635254</v>
       </c>
       <c r="D503" s="2">
         <v>1.2746435403823853</v>
       </c>
       <c r="E503" s="2">
-        <v>1.1985000371932983</v>
+        <v>1.2003471851348877</v>
       </c>
     </row>
     <row r="504">
@@ -7800,13 +7800,13 @@
         <v>0.48506104946136475</v>
       </c>
       <c r="C504" s="2">
-        <v>0.97452211380004883</v>
+        <v>0.97673457860946655</v>
       </c>
       <c r="D504" s="2">
         <v>1.3272626399993896</v>
       </c>
       <c r="E504" s="2">
-        <v>1.3329222202301025</v>
+        <v>1.3346371650695801</v>
       </c>
     </row>
     <row r="505">
@@ -7817,13 +7817,13 @@
         <v>1.6892473697662354</v>
       </c>
       <c r="C505" s="2">
-        <v>1.5593169927597046</v>
+        <v>1.5621545314788818</v>
       </c>
       <c r="D505" s="2">
         <v>1.220727801322937</v>
       </c>
       <c r="E505" s="2">
-        <v>1.2508959770202637</v>
+        <v>1.2526352405548096</v>
       </c>
     </row>
     <row r="506">
@@ -7834,13 +7834,13 @@
         <v>0.58044952154159546</v>
       </c>
       <c r="C506" s="2">
-        <v>1.7652442455291748</v>
+        <v>1.7643786668777466</v>
       </c>
       <c r="D506" s="2">
         <v>1.1059097051620483</v>
       </c>
       <c r="E506" s="2">
-        <v>1.1612228155136108</v>
+        <v>1.162840723991394</v>
       </c>
     </row>
     <row r="507">
@@ -7851,13 +7851,13 @@
         <v>0.53237676620483398</v>
       </c>
       <c r="C507" s="2">
-        <v>0.27528136968612671</v>
+        <v>0.27696555852890015</v>
       </c>
       <c r="D507" s="2">
         <v>0.92085391283035278</v>
       </c>
       <c r="E507" s="2">
-        <v>1.0280858278274536</v>
+        <v>1.0293576717376709</v>
       </c>
     </row>
     <row r="508">
@@ -7868,13 +7868,13 @@
         <v>2.2882609367370605</v>
       </c>
       <c r="C508" s="2">
-        <v>2.2561712265014649</v>
+        <v>2.2572422027587891</v>
       </c>
       <c r="D508" s="2">
         <v>0.78365272283554077</v>
       </c>
       <c r="E508" s="2">
-        <v>0.8243643045425415</v>
+        <v>0.82591640949249268</v>
       </c>
     </row>
     <row r="509">
@@ -7885,13 +7885,13 @@
         <v>0.48472899198532104</v>
       </c>
       <c r="C509" s="2">
-        <v>0.6173621416091919</v>
+        <v>0.61853599548339844</v>
       </c>
       <c r="D509" s="2">
         <v>0.82704585790634155</v>
       </c>
       <c r="E509" s="2">
-        <v>0.79324406385421753</v>
+        <v>0.79465371370315552</v>
       </c>
     </row>
     <row r="510">
@@ -7899,16 +7899,16 @@
         <v>43952</v>
       </c>
       <c r="B510" s="2">
-        <v>0.51219546794891358</v>
+        <v>0.51219546794891357</v>
       </c>
       <c r="C510" s="2">
-        <v>0.29467886686325073</v>
+        <v>0.2980131208896637</v>
       </c>
       <c r="D510" s="2">
         <v>0.67975717782974243</v>
       </c>
       <c r="E510" s="2">
-        <v>0.63234561681747437</v>
+        <v>0.63370645046234131</v>
       </c>
     </row>
     <row r="511">
@@ -7919,13 +7919,13 @@
         <v>-0.12523932754993439</v>
       </c>
       <c r="C511" s="2">
-        <v>-0.34003570675849915</v>
+        <v>-0.34014624357223511</v>
       </c>
       <c r="D511" s="2">
         <v>0.7368316650390625</v>
       </c>
       <c r="E511" s="2">
-        <v>0.50031936168670654</v>
+        <v>0.5020328164100647</v>
       </c>
     </row>
     <row r="512">
@@ -7936,13 +7936,13 @@
         <v>0.60579395294189453</v>
       </c>
       <c r="C512" s="2">
-        <v>0.016737740486860275</v>
+        <v>0.019369041547179222</v>
       </c>
       <c r="D512" s="2">
         <v>0.7623942494392395</v>
       </c>
       <c r="E512" s="2">
-        <v>0.5425715446472168</v>
+        <v>0.54404395818710327</v>
       </c>
     </row>
     <row r="513">
@@ -7953,13 +7953,13 @@
         <v>0.87559908628463745</v>
       </c>
       <c r="C513" s="2">
-        <v>0.69443947076797485</v>
+        <v>0.69537031650543213</v>
       </c>
       <c r="D513" s="2">
         <v>0.70471274852752686</v>
       </c>
       <c r="E513" s="2">
-        <v>0.47608667612075806</v>
+        <v>0.47758841514587402</v>
       </c>
     </row>
     <row r="514">
@@ -7970,13 +7970,13 @@
         <v>0.36364918947219849</v>
       </c>
       <c r="C514" s="2">
-        <v>0.11123110353946686</v>
+        <v>0.11362946778535843</v>
       </c>
       <c r="D514" s="2">
         <v>0.75959533452987671</v>
       </c>
       <c r="E514" s="2">
-        <v>0.54580754041671753</v>
+        <v>0.54727637767791748</v>
       </c>
     </row>
     <row r="515">
@@ -7987,13 +7987,13 @@
         <v>1.0941201448440552</v>
       </c>
       <c r="C515" s="2">
-        <v>0.57700788974761963</v>
+        <v>0.5793156623840332</v>
       </c>
       <c r="D515" s="2">
         <v>0.89630365371704102</v>
       </c>
       <c r="E515" s="2">
-        <v>0.69727170467376709</v>
+        <v>0.69848471879959106</v>
       </c>
     </row>
     <row r="516">
@@ -8001,16 +8001,16 @@
         <v>44136</v>
       </c>
       <c r="B516" s="2">
-        <v>0.76243960857391358</v>
+        <v>0.76243960857391357</v>
       </c>
       <c r="C516" s="2">
-        <v>0.65555131435394287</v>
+        <v>0.65506619215011597</v>
       </c>
       <c r="D516" s="2">
         <v>1.061773419380188</v>
       </c>
       <c r="E516" s="2">
-        <v>0.88028061389923096</v>
+        <v>0.88166064023971558</v>
       </c>
     </row>
     <row r="517">
@@ -8021,13 +8021,13 @@
         <v>1.769127368927002</v>
       </c>
       <c r="C517" s="2">
-        <v>1.6578072309494019</v>
+        <v>1.6591422557830811</v>
       </c>
       <c r="D517" s="2">
         <v>1.1729536056518555</v>
       </c>
       <c r="E517" s="2">
-        <v>1.0229572057723999</v>
+        <v>1.0245108604431152</v>
       </c>
     </row>
     <row r="518">
@@ -8038,13 +8038,13 @@
         <v>0.97867226600646973</v>
       </c>
       <c r="C518" s="2">
-        <v>1.2448498010635376</v>
+        <v>1.2457275390625</v>
       </c>
       <c r="D518" s="2">
         <v>1.2141772508621216</v>
       </c>
       <c r="E518" s="2">
-        <v>1.0483200550079346</v>
+        <v>1.0498842000961304</v>
       </c>
     </row>
     <row r="519">
@@ -8055,13 +8055,13 @@
         <v>1.7425705194473267</v>
       </c>
       <c r="C519" s="2">
-        <v>1.6578563451766968</v>
+        <v>1.6588882207870483</v>
       </c>
       <c r="D519" s="2">
         <v>1.2767599821090698</v>
       </c>
       <c r="E519" s="2">
-        <v>1.1186695098876953</v>
+        <v>1.1201741695404053</v>
       </c>
     </row>
     <row r="520">
@@ -8072,13 +8072,13 @@
         <v>1.3639882802963257</v>
       </c>
       <c r="C520" s="2">
-        <v>1.3070448637008667</v>
+        <v>1.3084368705749512</v>
       </c>
       <c r="D520" s="2">
         <v>1.2889308929443359</v>
       </c>
       <c r="E520" s="2">
-        <v>1.1818242073059082</v>
+        <v>1.1832188367843628</v>
       </c>
     </row>
     <row r="521">
@@ -8089,13 +8089,13 @@
         <v>1.6064155101776123</v>
       </c>
       <c r="C521" s="2">
-        <v>1.3008265495300293</v>
+        <v>1.3050211668014526</v>
       </c>
       <c r="D521" s="2">
         <v>1.3734084367752075</v>
       </c>
       <c r="E521" s="2">
-        <v>1.2709740400314331</v>
+        <v>1.2723867893218994</v>
       </c>
     </row>
     <row r="522">
@@ -8106,13 +8106,13 @@
         <v>1.246612548828125</v>
       </c>
       <c r="C522" s="2">
-        <v>0.92270499467849731</v>
+        <v>0.92373067140579224</v>
       </c>
       <c r="D522" s="2">
         <v>1.2505203485488892</v>
       </c>
       <c r="E522" s="2">
-        <v>1.0878300666809082</v>
+        <v>1.0892282724380493</v>
       </c>
     </row>
     <row r="523">
@@ -8123,13 +8123,13 @@
         <v>0.92689377069473267</v>
       </c>
       <c r="C523" s="2">
-        <v>0.74437671899795532</v>
+        <v>0.7462388277053833</v>
       </c>
       <c r="D523" s="2">
         <v>1.2303059101104736</v>
       </c>
       <c r="E523" s="2">
-        <v>1.0355280637741089</v>
+        <v>1.0369600057601929</v>
       </c>
     </row>
     <row r="524">
@@ -8137,16 +8137,16 @@
         <v>44378</v>
       </c>
       <c r="B524" s="2">
-        <v>1.2036579847335816</v>
+        <v>1.2036579847335815</v>
       </c>
       <c r="C524" s="2">
-        <v>1.1454001665115357</v>
+        <v>1.14671790599823</v>
       </c>
       <c r="D524" s="2">
         <v>1.1386046409606934</v>
       </c>
       <c r="E524" s="2">
-        <v>0.94885122776031494</v>
+        <v>0.9503980278968811</v>
       </c>
     </row>
     <row r="525">
@@ -8157,13 +8157,13 @@
         <v>1.522737979888916</v>
       </c>
       <c r="C525" s="2">
-        <v>1.4578996896743775</v>
+        <v>1.4575778245925903</v>
       </c>
       <c r="D525" s="2">
         <v>1.1521434783935547</v>
       </c>
       <c r="E525" s="2">
-        <v>0.9584762454032898</v>
+        <v>0.96004331111907959</v>
       </c>
     </row>
     <row r="526">
@@ -8174,13 +8174,13 @@
         <v>0.66313391923904419</v>
       </c>
       <c r="C526" s="2">
-        <v>0.0095117446035146713</v>
+        <v>0.010715666227042675</v>
       </c>
       <c r="D526" s="2">
         <v>1.0906450748443604</v>
       </c>
       <c r="E526" s="2">
-        <v>0.91920524835586548</v>
+        <v>0.92026853561401367</v>
       </c>
     </row>
     <row r="527">
@@ -8191,13 +8191,13 @@
         <v>0.79674267768859863</v>
       </c>
       <c r="C527" s="2">
-        <v>0.774131178855896</v>
+        <v>0.77531296014785767</v>
       </c>
       <c r="D527" s="2">
         <v>1.0088629722595215</v>
       </c>
       <c r="E527" s="2">
-        <v>0.85658740997314453</v>
+        <v>0.85752159357070923</v>
       </c>
     </row>
     <row r="528">
@@ -8208,13 +8208,13 @@
         <v>0.91725945472717285</v>
       </c>
       <c r="C528" s="2">
-        <v>0.87776511907577515</v>
+        <v>0.87983059883117676</v>
       </c>
       <c r="D528" s="2">
         <v>1.046733021736145</v>
       </c>
       <c r="E528" s="2">
-        <v>0.88405340909957886</v>
+        <v>0.88479322195053101</v>
       </c>
     </row>
     <row r="529">
@@ -8225,13 +8225,13 @@
         <v>1.4858369827270508</v>
       </c>
       <c r="C529" s="2">
-        <v>1.3936699628829956</v>
+        <v>1.3952440023422241</v>
       </c>
       <c r="D529" s="2">
         <v>1.0142475366592407</v>
       </c>
       <c r="E529" s="2">
-        <v>0.84445363283157349</v>
+        <v>0.84516370296478271</v>
       </c>
     </row>
     <row r="530">
@@ -8242,13 +8242,13 @@
         <v>1.0529301166534424</v>
       </c>
       <c r="C530" s="2">
-        <v>0.94738757610321045</v>
+        <v>0.9470481276512146</v>
       </c>
       <c r="D530" s="2">
         <v>0.83614379167556763</v>
       </c>
       <c r="E530" s="2">
-        <v>0.66958779096603394</v>
+        <v>0.67033165693283081</v>
       </c>
     </row>
     <row r="531">
@@ -8259,13 +8259,13 @@
         <v>0.51057350635528564</v>
       </c>
       <c r="C531" s="2">
-        <v>0.35914433002471924</v>
+        <v>0.35900866985321045</v>
       </c>
       <c r="D531" s="2">
         <v>0.77653384208679199</v>
       </c>
       <c r="E531" s="2">
-        <v>0.68609446287155151</v>
+        <v>0.68671107292175293</v>
       </c>
     </row>
     <row r="532">
@@ -8276,13 +8276,13 @@
         <v>1.2677242755889893</v>
       </c>
       <c r="C532" s="2">
-        <v>0.99157106876373291</v>
+        <v>0.99168300628662109</v>
       </c>
       <c r="D532" s="2">
         <v>0.72515815496444702</v>
       </c>
       <c r="E532" s="2">
-        <v>0.63117420673370361</v>
+        <v>0.63181334733963013</v>
       </c>
     </row>
     <row r="533">
@@ -8293,13 +8293,13 @@
         <v>0.91128849983215332</v>
       </c>
       <c r="C533" s="2">
-        <v>0.78900188207626343</v>
+        <v>0.79005271196365356</v>
       </c>
       <c r="D533" s="2">
         <v>0.69402062892913818</v>
       </c>
       <c r="E533" s="2">
-        <v>0.63717252016067505</v>
+        <v>0.63767325878143311</v>
       </c>
     </row>
     <row r="534">
@@ -8310,13 +8310,13 @@
         <v>-0.080195508897304535</v>
       </c>
       <c r="C534" s="2">
-        <v>-0.11589282751083374</v>
+        <v>-0.11591099202632904</v>
       </c>
       <c r="D534" s="2">
         <v>0.56051582098007202</v>
       </c>
       <c r="E534" s="2">
-        <v>0.48920705914497376</v>
+        <v>0.48960369825363159</v>
       </c>
     </row>
     <row r="535">
@@ -8327,13 +8327,13 @@
         <v>0.12664449214935303</v>
       </c>
       <c r="C535" s="2">
-        <v>0.15807183086872101</v>
+        <v>0.15813048183917999</v>
       </c>
       <c r="D535" s="2">
         <v>0.50359535217285156</v>
       </c>
       <c r="E535" s="2">
-        <v>0.42922762036323547</v>
+        <v>0.42969438433647156</v>
       </c>
     </row>
     <row r="536">
@@ -8344,13 +8344,13 @@
         <v>0.33436131477355957</v>
       </c>
       <c r="C536" s="2">
-        <v>0.27984890341758728</v>
+        <v>0.28123369812965393</v>
       </c>
       <c r="D536" s="2">
         <v>0.46786314249038696</v>
       </c>
       <c r="E536" s="2">
-        <v>0.40409395098686218</v>
+        <v>0.40456825494766235</v>
       </c>
     </row>
     <row r="537">
@@ -8361,13 +8361,13 @@
         <v>0.63702201843261719</v>
       </c>
       <c r="C537" s="2">
-        <v>0.93175017833709717</v>
+        <v>0.93256938457489014</v>
       </c>
       <c r="D537" s="2">
         <v>0.45421925187110901</v>
       </c>
       <c r="E537" s="2">
-        <v>0.3973766565322876</v>
+        <v>0.3979286253452301</v>
       </c>
     </row>
     <row r="538">
@@ -8378,13 +8378,13 @@
         <v>0.28429388999938965</v>
       </c>
       <c r="C538" s="2">
-        <v>0.061980612576007843</v>
+        <v>0.062618277966976166</v>
       </c>
       <c r="D538" s="2">
         <v>0.41505885124206543</v>
       </c>
       <c r="E538" s="2">
-        <v>0.3522602915763855</v>
+        <v>0.35286188125610352</v>
       </c>
     </row>
     <row r="539">
@@ -8395,13 +8395,13 @@
         <v>0.54064565896987915</v>
       </c>
       <c r="C539" s="2">
-        <v>0.40757265686988831</v>
+        <v>0.40786424279212952</v>
       </c>
       <c r="D539" s="2">
         <v>0.49498873949050903</v>
       </c>
       <c r="E539" s="2">
-        <v>0.40496924519538879</v>
+        <v>0.4055837094783783</v>
       </c>
     </row>
     <row r="540">
@@ -8412,13 +8412,13 @@
         <v>0.18898358941078186</v>
       </c>
       <c r="C540" s="2">
-        <v>0.13294133543968201</v>
+        <v>0.13287346065044403</v>
       </c>
       <c r="D540" s="2">
         <v>0.40869230031967163</v>
       </c>
       <c r="E540" s="2">
-        <v>0.28282111883163452</v>
+        <v>0.28363797068595886</v>
       </c>
     </row>
     <row r="541">
@@ -8429,13 +8429,13 @@
         <v>1.1449294090270996</v>
       </c>
       <c r="C541" s="2">
-        <v>0.93111526966094971</v>
+        <v>0.93192631006240845</v>
       </c>
       <c r="D541" s="2">
         <v>0.41527491807937622</v>
       </c>
       <c r="E541" s="2">
-        <v>0.28684514760971069</v>
+        <v>0.28761130571365356</v>
       </c>
     </row>
     <row r="542">
@@ -8446,13 +8446,13 @@
         <v>0.55884474515914917</v>
       </c>
       <c r="C542" s="2">
-        <v>0.38295459747314453</v>
+        <v>0.38445216417312622</v>
       </c>
       <c r="D542" s="2">
         <v>0.33494687080383301</v>
       </c>
       <c r="E542" s="2">
-        <v>0.14209523797035217</v>
+        <v>0.14292044937610626</v>
       </c>
     </row>
     <row r="543">
@@ -8463,13 +8463,13 @@
         <v>0.63917356729507446</v>
       </c>
       <c r="C543" s="2">
-        <v>0.35848772525787354</v>
+        <v>0.35858538746833801</v>
       </c>
       <c r="D543" s="2">
         <v>0.4273969829082489</v>
       </c>
       <c r="E543" s="2">
-        <v>0.23489028215408325</v>
+        <v>0.23567023873329163</v>
       </c>
     </row>
     <row r="544">
@@ -8477,16 +8477,16 @@
         <v>44986</v>
       </c>
       <c r="B544" s="2">
-        <v>-0.65002357959747315</v>
+        <v>-0.65002357959747314</v>
       </c>
       <c r="C544" s="2">
-        <v>-0.9412611722946167</v>
+        <v>-0.93938112258911133</v>
       </c>
       <c r="D544" s="2">
         <v>0.43956440687179565</v>
       </c>
       <c r="E544" s="2">
-        <v>0.25023543834686279</v>
+        <v>0.25097635388374329</v>
       </c>
     </row>
     <row r="545">
@@ -8497,13 +8497,13 @@
         <v>0.39360508322715759</v>
       </c>
       <c r="C545" s="2">
-        <v>0.31606516242027283</v>
+        <v>0.31699368357658386</v>
       </c>
       <c r="D545" s="2">
-        <v>0.53639215230941773</v>
+        <v>0.53639215230941772</v>
       </c>
       <c r="E545" s="2">
-        <v>0.34313160181045532</v>
+        <v>0.34402754902839661</v>
       </c>
     </row>
     <row r="546">
@@ -8514,13 +8514,13 @@
         <v>-0.085930615663528442</v>
       </c>
       <c r="C546" s="2">
-        <v>-0.37099909782409668</v>
+        <v>-0.36964836716651917</v>
       </c>
       <c r="D546" s="2">
         <v>0.46091747283935547</v>
       </c>
       <c r="E546" s="2">
-        <v>0.26740604639053345</v>
+        <v>0.26832753419876099</v>
       </c>
     </row>
     <row r="547">
@@ -8531,13 +8531,13 @@
         <v>1.1163449287414551</v>
       </c>
       <c r="C547" s="2">
-        <v>0.89713603258132935</v>
+        <v>0.89736634492874146</v>
       </c>
       <c r="D547" s="2">
         <v>0.50878143310546875</v>
       </c>
       <c r="E547" s="2">
-        <v>0.32138210535049439</v>
+        <v>0.32237100601196289</v>
       </c>
     </row>
     <row r="548">
@@ -8548,13 +8548,13 @@
         <v>0.65015262365341187</v>
       </c>
       <c r="C548" s="2">
-        <v>0.54567915201187134</v>
+        <v>0.54561936855316162</v>
       </c>
       <c r="D548" s="2">
         <v>0.40871143341064453</v>
       </c>
       <c r="E548" s="2">
-        <v>0.23961034417152405</v>
+        <v>0.24045996367931366</v>
       </c>
     </row>
     <row r="549">
@@ -8565,13 +8565,13 @@
         <v>1.0604333877563477</v>
       </c>
       <c r="C549" s="2">
-        <v>0.96900677680969238</v>
+        <v>0.97033411264419556</v>
       </c>
       <c r="D549" s="2">
         <v>0.6099013090133667</v>
       </c>
       <c r="E549" s="2">
-        <v>0.47083234786987305</v>
+        <v>0.47161823511123657</v>
       </c>
     </row>
     <row r="550">
@@ -8582,13 +8582,13 @@
         <v>0.46565708518028259</v>
       </c>
       <c r="C550" s="2">
-        <v>0.24958515167236328</v>
+        <v>0.25062629580497742</v>
       </c>
       <c r="D550" s="2">
         <v>0.61072266101837158</v>
       </c>
       <c r="E550" s="2">
-        <v>0.45702505111694336</v>
+        <v>0.45797127485275269</v>
       </c>
     </row>
     <row r="551">
@@ -8599,13 +8599,13 @@
         <v>0.9896206259727478</v>
       </c>
       <c r="C551" s="2">
-        <v>0.8687393069267273</v>
+        <v>0.87084341049194336</v>
       </c>
       <c r="D551" s="2">
         <v>0.67664581537246704</v>
       </c>
       <c r="E551" s="2">
-        <v>0.52021664381027222</v>
+        <v>0.52128565311431885</v>
       </c>
     </row>
     <row r="552">
@@ -8616,13 +8616,13 @@
         <v>-0.26145666837692261</v>
       </c>
       <c r="C552" s="2">
-        <v>-0.37745824456214905</v>
+        <v>-0.37861409783363342</v>
       </c>
       <c r="D552" s="2">
         <v>0.62712156772613525</v>
       </c>
       <c r="E552" s="2">
-        <v>0.44243618845939636</v>
+        <v>0.44365587830543518</v>
       </c>
     </row>
     <row r="553">
@@ -8633,13 +8633,13 @@
         <v>1.1606854200363159</v>
       </c>
       <c r="C553" s="2">
-        <v>1.1397370100021362</v>
+        <v>1.1410433053970337</v>
       </c>
       <c r="D553" s="2">
         <v>0.73670518398284912</v>
       </c>
       <c r="E553" s="2">
-        <v>0.51536726951599121</v>
+        <v>0.51667612791061401</v>
       </c>
     </row>
     <row r="554">
@@ -8650,13 +8650,13 @@
         <v>0.40099701285362244</v>
       </c>
       <c r="C554" s="2">
-        <v>0.19179946184158325</v>
+        <v>0.19417108595371246</v>
       </c>
       <c r="D554" s="2">
-        <v>0.73783719539642334</v>
+        <v>0.72065961360931396</v>
       </c>
       <c r="E554" s="2">
-        <v>0.48358312249183655</v>
+        <v>0.46250978112220764</v>
       </c>
     </row>
     <row r="555">
@@ -8667,13 +8667,13 @@
         <v>0.5073779821395874</v>
       </c>
       <c r="C555" s="2">
-        <v>0.19772499799728394</v>
+        <v>0.20018099248409271</v>
       </c>
       <c r="D555" s="2">
-        <v>0.80832421779632568</v>
+        <v>0.78016513586044312</v>
       </c>
       <c r="E555" s="2">
-        <v>0.57521581649780274</v>
+        <v>0.54175817966461182</v>
       </c>
     </row>
     <row r="556">
@@ -8681,16 +8681,16 @@
         <v>45352</v>
       </c>
       <c r="B556" s="2">
-        <v>0.67062681913375855</v>
+        <v>0.67062681913375854</v>
       </c>
       <c r="C556" s="2">
-        <v>0.19711220264434815</v>
+        <v>0.19869844615459442</v>
       </c>
       <c r="D556" s="2">
-        <v>0.77289730310440064</v>
+        <v>0.74473816156387329</v>
       </c>
       <c r="E556" s="2">
-        <v>0.55860710144042969</v>
+        <v>0.52492082118988037</v>
       </c>
     </row>
     <row r="557">
@@ -8698,16 +8698,16 @@
         <v>45383</v>
       </c>
       <c r="B557" s="2">
-        <v>1.6364049911499024</v>
+        <v>1.6364049911499023</v>
       </c>
       <c r="C557" s="2">
-        <v>1.2020586729049683</v>
+        <v>1.2028017044067383</v>
       </c>
       <c r="D557" s="2">
-        <v>0.89671725034713745</v>
+        <v>0.86855810880661011</v>
       </c>
       <c r="E557" s="2">
-        <v>0.68638420104980469</v>
+        <v>0.65283960103988647</v>
       </c>
     </row>
     <row r="558">
@@ -8715,16 +8715,16 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>1.0706217288970947</v>
+        <v>0.91602325439453125</v>
       </c>
       <c r="C558" s="2">
-        <v>0.68294954299926758</v>
+        <v>0.48283687233924866</v>
       </c>
       <c r="D558" s="2">
-        <v>0.88952189683914185</v>
+        <v>0.86136281490325928</v>
       </c>
       <c r="E558" s="2">
-        <v>0.67292517423629761</v>
+        <v>0.63925498723983765</v>
       </c>
     </row>
     <row r="559">
@@ -8732,16 +8732,16 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>1.1000403165817261</v>
+        <v>1.0012067556381226</v>
       </c>
       <c r="C559" s="2">
-        <v>1.0742791891098022</v>
+        <v>0.96386206150054932</v>
       </c>
       <c r="D559" s="2">
-        <v>0.84726071357727051</v>
+        <v>0.84766191244125366</v>
       </c>
       <c r="E559" s="2">
-        <v>0.64061528444290161</v>
+        <v>0.63654786348342896</v>
       </c>
     </row>
     <row r="560">
@@ -8752,13 +8752,13 @@
         <v>0.67077797651290894</v>
       </c>
       <c r="C560" s="2">
-        <v>0.71926110982894898</v>
+        <v>0.7193070650100708</v>
       </c>
       <c r="D560" s="2">
-        <v>0.7837490439414978</v>
+        <v>0.76780879497528076</v>
       </c>
       <c r="E560" s="2">
-        <v>0.57513809204101563</v>
+        <v>0.55683737993240356</v>
       </c>
     </row>
     <row r="561">
@@ -8769,13 +8769,13 @@
         <v>0.85292279720306396</v>
       </c>
       <c r="C561" s="2">
-        <v>0.77253586053848267</v>
+        <v>0.77265483140945435</v>
       </c>
       <c r="D561" s="2">
-        <v>0.67326205968856812</v>
+        <v>0.64087635278701782</v>
       </c>
       <c r="E561" s="2">
-        <v>0.50961750745773316</v>
+        <v>0.47575703263282776</v>
       </c>
     </row>
     <row r="562">
@@ -8786,13 +8786,13 @@
         <v>1.0959274768829346</v>
       </c>
       <c r="C562" s="2">
-        <v>1.0186053514480591</v>
+        <v>1.0187817811965942</v>
       </c>
       <c r="D562" s="2">
-        <v>0.50624662637710571</v>
+        <v>0.43983876705169678</v>
       </c>
       <c r="E562" s="2">
-        <v>0.38508680462837219</v>
+        <v>0.32432925701141357</v>
       </c>
     </row>
     <row r="563">
@@ -8800,16 +8800,16 @@
         <v>45566</v>
       </c>
       <c r="B563" s="2">
-        <v>0.020646169781684876</v>
+        <v>0.27768927812576294</v>
       </c>
       <c r="C563" s="2">
-        <v>-0.098989143967628479</v>
+        <v>0.16980695724487305</v>
       </c>
       <c r="D563" s="2">
-        <v>0.36946046352386475</v>
+        <v>0.320068359375</v>
       </c>
       <c r="E563" s="2">
-        <v>0.27917739748954773</v>
+        <v>0.22883628308773041</v>
       </c>
     </row>
     <row r="564">
@@ -8817,16 +8817,16 @@
         <v>45597</v>
       </c>
       <c r="B564" s="2">
-        <v>-0.064226895570755005</v>
+        <v>-0.21130028367042542</v>
       </c>
       <c r="C564" s="2">
-        <v>-0.39156979322433472</v>
+        <v>-0.51721334457397461</v>
       </c>
       <c r="D564" s="2">
-        <v>0.27813798189163208</v>
+        <v>0.20257391035556793</v>
       </c>
       <c r="E564" s="2">
-        <v>0.17978967726230621</v>
+        <v>0.099664539098739624</v>
       </c>
     </row>
     <row r="565">
@@ -8834,16 +8834,16 @@
         <v>45627</v>
       </c>
       <c r="B565" s="2">
-        <v>-0.32375618815422058</v>
+        <v>-0.47176510095596313</v>
       </c>
       <c r="C565" s="2">
-        <v>-0.39257341623306274</v>
+        <v>-0.5310247540473938</v>
       </c>
       <c r="D565" s="2">
-        <v>0.22204653918743134</v>
+        <v>0.13608968257904053</v>
       </c>
       <c r="E565" s="2">
-        <v>0.10272233188152313</v>
+        <v>0.029982356354594231</v>
       </c>
     </row>
     <row r="566">
@@ -8851,16 +8851,16 @@
         <v>45658</v>
       </c>
       <c r="B566" s="2">
-        <v>0.1332661360502243</v>
+        <v>-0.17293313145637512</v>
       </c>
       <c r="C566" s="2">
-        <v>0.081282541155815125</v>
+        <v>-0.16004827618598938</v>
       </c>
       <c r="D566" s="2">
-        <v>0.11690050363540649</v>
+        <v>0.046485543251037598</v>
       </c>
       <c r="E566" s="2">
-        <v>-0.0089132590219378471</v>
+        <v>-0.062851704657077789</v>
       </c>
     </row>
     <row r="567">
@@ -8868,16 +8868,50 @@
         <v>45689</v>
       </c>
       <c r="B567" s="2">
-        <v>-0.1604536771774292</v>
+        <v>-0.16191047430038452</v>
       </c>
       <c r="C567" s="2">
-        <v>-0.2702350914478302</v>
+        <v>-0.37659981846809387</v>
       </c>
       <c r="D567" s="2">
-        <v>-0.078904889523983002</v>
+        <v>-0.1034347340464592</v>
       </c>
       <c r="E567" s="2">
-        <v>-0.2144169807434082</v>
+        <v>-0.21737077832221985</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B568" s="2">
+        <v>-0.05624336376786232</v>
+      </c>
+      <c r="C568" s="2">
+        <v>-0.19868361949920654</v>
+      </c>
+      <c r="D568" s="2">
+        <v>-0.16695539653301239</v>
+      </c>
+      <c r="E568" s="2">
+        <v>-0.28190040588378906</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B569" s="2">
+        <v>0.07241995632648468</v>
+      </c>
+      <c r="C569" s="2">
+        <v>0.092167451977729797</v>
+      </c>
+      <c r="D569" s="2">
+        <v>-0.15808641910552979</v>
+      </c>
+      <c r="E569" s="2">
+        <v>-0.23483780026435852</v>
       </c>
     </row>
   </sheetData>
